--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="152">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>['84']</t>
+  </si>
+  <si>
+    <t>['45', '45+2', '53', '74']</t>
   </si>
   <si>
     <t>['23', '45+2']</t>
@@ -828,7 +831,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP62"/>
+  <dimension ref="A1:BP63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1087,7 +1090,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1293,7 +1296,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1374,7 +1377,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ3">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1705,7 +1708,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1989,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>0.33</v>
@@ -2117,7 +2120,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2323,7 +2326,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2529,7 +2532,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2735,7 +2738,7 @@
         <v>82</v>
       </c>
       <c r="P10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q10">
         <v>2.88</v>
@@ -3147,7 +3150,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3353,7 +3356,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3559,7 +3562,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3971,7 +3974,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4383,7 +4386,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4589,7 +4592,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -4667,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>1.17</v>
@@ -5001,7 +5004,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5494,7 +5497,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ23">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR23">
         <v>1.34</v>
@@ -5825,7 +5828,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6443,7 +6446,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6649,7 +6652,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -6730,7 +6733,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ29">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR29">
         <v>1.29</v>
@@ -6855,7 +6858,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q30">
         <v>2.4</v>
@@ -7267,7 +7270,7 @@
         <v>98</v>
       </c>
       <c r="P32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7473,7 +7476,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7679,7 +7682,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -7757,7 +7760,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>1.5</v>
@@ -7966,7 +7969,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR35">
         <v>1.43</v>
@@ -8091,7 +8094,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8709,7 +8712,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8915,7 +8918,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9121,7 +9124,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9327,7 +9330,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9533,7 +9536,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9739,7 +9742,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -9945,7 +9948,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10641,7 +10644,7 @@
         <v>1.75</v>
       </c>
       <c r="AP48">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
         <v>1.17</v>
@@ -11056,7 +11059,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ50">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR50">
         <v>1.1</v>
@@ -11181,7 +11184,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11387,7 +11390,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12211,7 +12214,7 @@
         <v>113</v>
       </c>
       <c r="P56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12623,7 +12626,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13241,7 +13244,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13447,7 +13450,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13525,7 +13528,7 @@
         <v>1.6</v>
       </c>
       <c r="AP62">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
         <v>1.5</v>
@@ -13604,6 +13607,212 @@
       </c>
       <c r="BP62">
         <v>1.61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7287026</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45411.66666666666</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63" t="s">
+        <v>74</v>
+      </c>
+      <c r="H63" t="s">
+        <v>75</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>4</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>4</v>
+      </c>
+      <c r="O63" t="s">
+        <v>118</v>
+      </c>
+      <c r="P63" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q63">
+        <v>1.8</v>
+      </c>
+      <c r="R63">
+        <v>2.6</v>
+      </c>
+      <c r="S63">
+        <v>7.5</v>
+      </c>
+      <c r="T63">
+        <v>1.3</v>
+      </c>
+      <c r="U63">
+        <v>3.25</v>
+      </c>
+      <c r="V63">
+        <v>2.35</v>
+      </c>
+      <c r="W63">
+        <v>1.53</v>
+      </c>
+      <c r="X63">
+        <v>5.35</v>
+      </c>
+      <c r="Y63">
+        <v>1.13</v>
+      </c>
+      <c r="Z63">
+        <v>1.3</v>
+      </c>
+      <c r="AA63">
+        <v>5</v>
+      </c>
+      <c r="AB63">
+        <v>8</v>
+      </c>
+      <c r="AC63">
+        <v>1.04</v>
+      </c>
+      <c r="AD63">
+        <v>10</v>
+      </c>
+      <c r="AE63">
+        <v>1.2</v>
+      </c>
+      <c r="AF63">
+        <v>4.33</v>
+      </c>
+      <c r="AG63">
+        <v>1.57</v>
+      </c>
+      <c r="AH63">
+        <v>2.25</v>
+      </c>
+      <c r="AI63">
+        <v>1.95</v>
+      </c>
+      <c r="AJ63">
+        <v>1.8</v>
+      </c>
+      <c r="AK63">
+        <v>1.04</v>
+      </c>
+      <c r="AL63">
+        <v>1.11</v>
+      </c>
+      <c r="AM63">
+        <v>4</v>
+      </c>
+      <c r="AN63">
+        <v>1.8</v>
+      </c>
+      <c r="AO63">
+        <v>0.4</v>
+      </c>
+      <c r="AP63">
+        <v>2</v>
+      </c>
+      <c r="AQ63">
+        <v>0.33</v>
+      </c>
+      <c r="AR63">
+        <v>1.78</v>
+      </c>
+      <c r="AS63">
+        <v>1.2</v>
+      </c>
+      <c r="AT63">
+        <v>2.98</v>
+      </c>
+      <c r="AU63">
+        <v>11</v>
+      </c>
+      <c r="AV63">
+        <v>0</v>
+      </c>
+      <c r="AW63">
+        <v>5</v>
+      </c>
+      <c r="AX63">
+        <v>3</v>
+      </c>
+      <c r="AY63">
+        <v>16</v>
+      </c>
+      <c r="AZ63">
+        <v>3</v>
+      </c>
+      <c r="BA63">
+        <v>11</v>
+      </c>
+      <c r="BB63">
+        <v>3</v>
+      </c>
+      <c r="BC63">
+        <v>14</v>
+      </c>
+      <c r="BD63">
+        <v>1.2</v>
+      </c>
+      <c r="BE63">
+        <v>13</v>
+      </c>
+      <c r="BF63">
+        <v>4.6</v>
+      </c>
+      <c r="BG63">
+        <v>1.16</v>
+      </c>
+      <c r="BH63">
+        <v>4.9</v>
+      </c>
+      <c r="BI63">
+        <v>1.27</v>
+      </c>
+      <c r="BJ63">
+        <v>3.28</v>
+      </c>
+      <c r="BK63">
+        <v>1.5</v>
+      </c>
+      <c r="BL63">
+        <v>2.41</v>
+      </c>
+      <c r="BM63">
+        <v>1.85</v>
+      </c>
+      <c r="BN63">
+        <v>1.89</v>
+      </c>
+      <c r="BO63">
+        <v>2.32</v>
+      </c>
+      <c r="BP63">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="156">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -373,6 +373,12 @@
     <t>['45', '45+2', '53', '74']</t>
   </si>
   <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -470,6 +476,12 @@
   </si>
   <si>
     <t>['55']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['46']</t>
   </si>
 </sst>
 </file>
@@ -831,7 +843,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP63"/>
+  <dimension ref="A1:BP68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1090,7 +1102,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1168,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ2">
         <v>1.17</v>
@@ -1296,7 +1308,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1377,7 +1389,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ3">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1580,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ4">
         <v>0.71</v>
@@ -1708,7 +1720,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1789,7 +1801,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ5">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2120,7 +2132,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2201,7 +2213,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2326,7 +2338,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2532,7 +2544,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2613,7 +2625,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2738,7 +2750,7 @@
         <v>82</v>
       </c>
       <c r="P10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q10">
         <v>2.88</v>
@@ -2816,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ10">
         <v>1.5</v>
@@ -3022,10 +3034,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3150,7 +3162,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3228,10 +3240,10 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR12">
         <v>1</v>
@@ -3356,7 +3368,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3434,10 +3446,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR13">
         <v>0.97</v>
@@ -3562,7 +3574,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3974,7 +3986,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4386,7 +4398,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4592,7 +4604,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -4673,7 +4685,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR19">
         <v>1.24</v>
@@ -4876,7 +4888,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ20">
         <v>0.33</v>
@@ -5004,7 +5016,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5082,10 +5094,10 @@
         <v>2</v>
       </c>
       <c r="AP21">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ21">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR21">
         <v>1.54</v>
@@ -5291,7 +5303,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR22">
         <v>1.39</v>
@@ -5494,10 +5506,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ23">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR23">
         <v>1.34</v>
@@ -5700,10 +5712,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -5828,7 +5840,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -5906,10 +5918,10 @@
         <v>2.33</v>
       </c>
       <c r="AP25">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ25">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR25">
         <v>1.56</v>
@@ -6112,10 +6124,10 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ26">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6321,7 +6333,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR27">
         <v>1.35</v>
@@ -6446,7 +6458,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6524,10 +6536,10 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ28">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -6652,7 +6664,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -6730,10 +6742,10 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR29">
         <v>1.29</v>
@@ -6858,7 +6870,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q30">
         <v>2.4</v>
@@ -7270,7 +7282,7 @@
         <v>98</v>
       </c>
       <c r="P32" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7476,7 +7488,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7682,7 +7694,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -7969,7 +7981,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR35">
         <v>1.43</v>
@@ -8094,7 +8106,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8175,7 +8187,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ36">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR36">
         <v>1.43</v>
@@ -8378,7 +8390,7 @@
         <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ37">
         <v>1.17</v>
@@ -8587,7 +8599,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR38">
         <v>0.99</v>
@@ -8712,7 +8724,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8790,7 +8802,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ39">
         <v>1.5</v>
@@ -8918,7 +8930,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -8996,10 +9008,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ40">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR40">
         <v>1.04</v>
@@ -9124,7 +9136,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9330,7 +9342,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9411,7 +9423,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR42">
         <v>1.38</v>
@@ -9536,7 +9548,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9614,10 +9626,10 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ43">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
         <v>1.58</v>
@@ -9742,7 +9754,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -9948,7 +9960,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10029,7 +10041,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR45">
         <v>1.32</v>
@@ -10850,7 +10862,7 @@
         <v>0.25</v>
       </c>
       <c r="AP49">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ49">
         <v>0.33</v>
@@ -11056,10 +11068,10 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ50">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR50">
         <v>1.1</v>
@@ -11184,7 +11196,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11265,7 +11277,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ51">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR51">
         <v>1.37</v>
@@ -11390,7 +11402,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11468,7 +11480,7 @@
         <v>0.2</v>
       </c>
       <c r="AP52">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
         <v>0.33</v>
@@ -11674,10 +11686,10 @@
         <v>1.4</v>
       </c>
       <c r="AP53">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ53">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR53">
         <v>1.43</v>
@@ -11880,10 +11892,10 @@
         <v>2.2</v>
       </c>
       <c r="AP54">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ54">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -12086,7 +12098,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
         <v>1.5</v>
@@ -12214,7 +12226,7 @@
         <v>113</v>
       </c>
       <c r="P56" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12501,7 +12513,7 @@
         <v>2</v>
       </c>
       <c r="AQ57">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR57">
         <v>1</v>
@@ -12626,7 +12638,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13244,7 +13256,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13325,7 +13337,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ61">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR61">
         <v>1.27</v>
@@ -13450,7 +13462,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13737,7 +13749,7 @@
         <v>2</v>
       </c>
       <c r="AQ63">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR63">
         <v>1.78</v>
@@ -13813,6 +13825,1036 @@
       </c>
       <c r="BP63">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7287074</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45415.65625</v>
+      </c>
+      <c r="F64">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" t="s">
+        <v>71</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P64" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q64">
+        <v>3.75</v>
+      </c>
+      <c r="R64">
+        <v>2.05</v>
+      </c>
+      <c r="S64">
+        <v>3.1</v>
+      </c>
+      <c r="T64">
+        <v>1.57</v>
+      </c>
+      <c r="U64">
+        <v>2.25</v>
+      </c>
+      <c r="V64">
+        <v>3.7</v>
+      </c>
+      <c r="W64">
+        <v>1.22</v>
+      </c>
+      <c r="X64">
+        <v>9.9</v>
+      </c>
+      <c r="Y64">
+        <v>1.03</v>
+      </c>
+      <c r="Z64">
+        <v>2.88</v>
+      </c>
+      <c r="AA64">
+        <v>3.2</v>
+      </c>
+      <c r="AB64">
+        <v>2.25</v>
+      </c>
+      <c r="AC64">
+        <v>1.1</v>
+      </c>
+      <c r="AD64">
+        <v>6.5</v>
+      </c>
+      <c r="AE64">
+        <v>1.48</v>
+      </c>
+      <c r="AF64">
+        <v>2.37</v>
+      </c>
+      <c r="AG64">
+        <v>2.2</v>
+      </c>
+      <c r="AH64">
+        <v>1.65</v>
+      </c>
+      <c r="AI64">
+        <v>1.95</v>
+      </c>
+      <c r="AJ64">
+        <v>1.8</v>
+      </c>
+      <c r="AK64">
+        <v>1.5</v>
+      </c>
+      <c r="AL64">
+        <v>1.35</v>
+      </c>
+      <c r="AM64">
+        <v>1.35</v>
+      </c>
+      <c r="AN64">
+        <v>1.17</v>
+      </c>
+      <c r="AO64">
+        <v>1.17</v>
+      </c>
+      <c r="AP64">
+        <v>1.14</v>
+      </c>
+      <c r="AQ64">
+        <v>1.14</v>
+      </c>
+      <c r="AR64">
+        <v>1.34</v>
+      </c>
+      <c r="AS64">
+        <v>1.46</v>
+      </c>
+      <c r="AT64">
+        <v>2.8</v>
+      </c>
+      <c r="AU64">
+        <v>2</v>
+      </c>
+      <c r="AV64">
+        <v>2</v>
+      </c>
+      <c r="AW64">
+        <v>0</v>
+      </c>
+      <c r="AX64">
+        <v>4</v>
+      </c>
+      <c r="AY64">
+        <v>2</v>
+      </c>
+      <c r="AZ64">
+        <v>6</v>
+      </c>
+      <c r="BA64">
+        <v>1</v>
+      </c>
+      <c r="BB64">
+        <v>4</v>
+      </c>
+      <c r="BC64">
+        <v>5</v>
+      </c>
+      <c r="BD64">
+        <v>2.28</v>
+      </c>
+      <c r="BE64">
+        <v>7.5</v>
+      </c>
+      <c r="BF64">
+        <v>1.9</v>
+      </c>
+      <c r="BG64">
+        <v>1.22</v>
+      </c>
+      <c r="BH64">
+        <v>3.65</v>
+      </c>
+      <c r="BI64">
+        <v>1.44</v>
+      </c>
+      <c r="BJ64">
+        <v>2.58</v>
+      </c>
+      <c r="BK64">
+        <v>2.25</v>
+      </c>
+      <c r="BL64">
+        <v>2</v>
+      </c>
+      <c r="BM64">
+        <v>2.25</v>
+      </c>
+      <c r="BN64">
+        <v>1.57</v>
+      </c>
+      <c r="BO64">
+        <v>2.98</v>
+      </c>
+      <c r="BP64">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7287076</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45415.65625</v>
+      </c>
+      <c r="F65">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s">
+        <v>78</v>
+      </c>
+      <c r="H65" t="s">
+        <v>75</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>119</v>
+      </c>
+      <c r="P65" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q65">
+        <v>2.3</v>
+      </c>
+      <c r="R65">
+        <v>2.2</v>
+      </c>
+      <c r="S65">
+        <v>5.5</v>
+      </c>
+      <c r="T65">
+        <v>1.44</v>
+      </c>
+      <c r="U65">
+        <v>2.63</v>
+      </c>
+      <c r="V65">
+        <v>3</v>
+      </c>
+      <c r="W65">
+        <v>1.36</v>
+      </c>
+      <c r="X65">
+        <v>9</v>
+      </c>
+      <c r="Y65">
+        <v>1.07</v>
+      </c>
+      <c r="Z65">
+        <v>1.62</v>
+      </c>
+      <c r="AA65">
+        <v>3.5</v>
+      </c>
+      <c r="AB65">
+        <v>4.75</v>
+      </c>
+      <c r="AC65">
+        <v>1.06</v>
+      </c>
+      <c r="AD65">
+        <v>8.5</v>
+      </c>
+      <c r="AE65">
+        <v>1.35</v>
+      </c>
+      <c r="AF65">
+        <v>3.1</v>
+      </c>
+      <c r="AG65">
+        <v>1.95</v>
+      </c>
+      <c r="AH65">
+        <v>1.85</v>
+      </c>
+      <c r="AI65">
+        <v>1.95</v>
+      </c>
+      <c r="AJ65">
+        <v>1.8</v>
+      </c>
+      <c r="AK65">
+        <v>1.17</v>
+      </c>
+      <c r="AL65">
+        <v>1.22</v>
+      </c>
+      <c r="AM65">
+        <v>2.05</v>
+      </c>
+      <c r="AN65">
+        <v>1.67</v>
+      </c>
+      <c r="AO65">
+        <v>0.33</v>
+      </c>
+      <c r="AP65">
+        <v>1.86</v>
+      </c>
+      <c r="AQ65">
+        <v>0.29</v>
+      </c>
+      <c r="AR65">
+        <v>1.39</v>
+      </c>
+      <c r="AS65">
+        <v>1.05</v>
+      </c>
+      <c r="AT65">
+        <v>2.44</v>
+      </c>
+      <c r="AU65">
+        <v>7</v>
+      </c>
+      <c r="AV65">
+        <v>5</v>
+      </c>
+      <c r="AW65">
+        <v>7</v>
+      </c>
+      <c r="AX65">
+        <v>9</v>
+      </c>
+      <c r="AY65">
+        <v>14</v>
+      </c>
+      <c r="AZ65">
+        <v>14</v>
+      </c>
+      <c r="BA65">
+        <v>7</v>
+      </c>
+      <c r="BB65">
+        <v>4</v>
+      </c>
+      <c r="BC65">
+        <v>11</v>
+      </c>
+      <c r="BD65">
+        <v>1.5</v>
+      </c>
+      <c r="BE65">
+        <v>8</v>
+      </c>
+      <c r="BF65">
+        <v>3.34</v>
+      </c>
+      <c r="BG65">
+        <v>1.27</v>
+      </c>
+      <c r="BH65">
+        <v>3.28</v>
+      </c>
+      <c r="BI65">
+        <v>1.52</v>
+      </c>
+      <c r="BJ65">
+        <v>2.36</v>
+      </c>
+      <c r="BK65">
+        <v>2.1</v>
+      </c>
+      <c r="BL65">
+        <v>1.85</v>
+      </c>
+      <c r="BM65">
+        <v>2.49</v>
+      </c>
+      <c r="BN65">
+        <v>1.47</v>
+      </c>
+      <c r="BO65">
+        <v>3.34</v>
+      </c>
+      <c r="BP65">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7287073</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45415.65625</v>
+      </c>
+      <c r="F66">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s">
+        <v>76</v>
+      </c>
+      <c r="H66" t="s">
+        <v>77</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66" t="s">
+        <v>82</v>
+      </c>
+      <c r="P66" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q66">
+        <v>4.33</v>
+      </c>
+      <c r="R66">
+        <v>1.91</v>
+      </c>
+      <c r="S66">
+        <v>3.2</v>
+      </c>
+      <c r="T66">
+        <v>1.59</v>
+      </c>
+      <c r="U66">
+        <v>2.36</v>
+      </c>
+      <c r="V66">
+        <v>3.7</v>
+      </c>
+      <c r="W66">
+        <v>1.22</v>
+      </c>
+      <c r="X66">
+        <v>10.2</v>
+      </c>
+      <c r="Y66">
+        <v>1.03</v>
+      </c>
+      <c r="Z66">
+        <v>3.1</v>
+      </c>
+      <c r="AA66">
+        <v>2.9</v>
+      </c>
+      <c r="AB66">
+        <v>2.25</v>
+      </c>
+      <c r="AC66">
+        <v>1.12</v>
+      </c>
+      <c r="AD66">
+        <v>6</v>
+      </c>
+      <c r="AE66">
+        <v>1.5</v>
+      </c>
+      <c r="AF66">
+        <v>2.3</v>
+      </c>
+      <c r="AG66">
+        <v>2.7</v>
+      </c>
+      <c r="AH66">
+        <v>1.44</v>
+      </c>
+      <c r="AI66">
+        <v>2.2</v>
+      </c>
+      <c r="AJ66">
+        <v>1.62</v>
+      </c>
+      <c r="AK66">
+        <v>1.52</v>
+      </c>
+      <c r="AL66">
+        <v>1.35</v>
+      </c>
+      <c r="AM66">
+        <v>1.32</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
+        <v>1.83</v>
+      </c>
+      <c r="AP66">
+        <v>1</v>
+      </c>
+      <c r="AQ66">
+        <v>1.71</v>
+      </c>
+      <c r="AR66">
+        <v>1.32</v>
+      </c>
+      <c r="AS66">
+        <v>1.11</v>
+      </c>
+      <c r="AT66">
+        <v>2.43</v>
+      </c>
+      <c r="AU66">
+        <v>6</v>
+      </c>
+      <c r="AV66">
+        <v>2</v>
+      </c>
+      <c r="AW66">
+        <v>5</v>
+      </c>
+      <c r="AX66">
+        <v>2</v>
+      </c>
+      <c r="AY66">
+        <v>11</v>
+      </c>
+      <c r="AZ66">
+        <v>4</v>
+      </c>
+      <c r="BA66">
+        <v>5</v>
+      </c>
+      <c r="BB66">
+        <v>3</v>
+      </c>
+      <c r="BC66">
+        <v>8</v>
+      </c>
+      <c r="BD66">
+        <v>1.87</v>
+      </c>
+      <c r="BE66">
+        <v>7.1</v>
+      </c>
+      <c r="BF66">
+        <v>2.42</v>
+      </c>
+      <c r="BG66">
+        <v>1.35</v>
+      </c>
+      <c r="BH66">
+        <v>2.84</v>
+      </c>
+      <c r="BI66">
+        <v>1.65</v>
+      </c>
+      <c r="BJ66">
+        <v>2.11</v>
+      </c>
+      <c r="BK66">
+        <v>2.13</v>
+      </c>
+      <c r="BL66">
+        <v>1.67</v>
+      </c>
+      <c r="BM66">
+        <v>2.84</v>
+      </c>
+      <c r="BN66">
+        <v>1.37</v>
+      </c>
+      <c r="BO66">
+        <v>3.92</v>
+      </c>
+      <c r="BP66">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7287072</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45415.65625</v>
+      </c>
+      <c r="F67">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s">
+        <v>70</v>
+      </c>
+      <c r="H67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67" t="s">
+        <v>120</v>
+      </c>
+      <c r="P67" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q67">
+        <v>5</v>
+      </c>
+      <c r="R67">
+        <v>2.2</v>
+      </c>
+      <c r="S67">
+        <v>2.3</v>
+      </c>
+      <c r="T67">
+        <v>1.36</v>
+      </c>
+      <c r="U67">
+        <v>3</v>
+      </c>
+      <c r="V67">
+        <v>2.75</v>
+      </c>
+      <c r="W67">
+        <v>1.4</v>
+      </c>
+      <c r="X67">
+        <v>8</v>
+      </c>
+      <c r="Y67">
+        <v>1.08</v>
+      </c>
+      <c r="Z67">
+        <v>4.5</v>
+      </c>
+      <c r="AA67">
+        <v>3.4</v>
+      </c>
+      <c r="AB67">
+        <v>1.67</v>
+      </c>
+      <c r="AC67">
+        <v>1.05</v>
+      </c>
+      <c r="AD67">
+        <v>9</v>
+      </c>
+      <c r="AE67">
+        <v>1.3</v>
+      </c>
+      <c r="AF67">
+        <v>3.45</v>
+      </c>
+      <c r="AG67">
+        <v>1.9</v>
+      </c>
+      <c r="AH67">
+        <v>1.9</v>
+      </c>
+      <c r="AI67">
+        <v>1.8</v>
+      </c>
+      <c r="AJ67">
+        <v>1.95</v>
+      </c>
+      <c r="AK67">
+        <v>1.85</v>
+      </c>
+      <c r="AL67">
+        <v>1.25</v>
+      </c>
+      <c r="AM67">
+        <v>1.25</v>
+      </c>
+      <c r="AN67">
+        <v>1.67</v>
+      </c>
+      <c r="AO67">
+        <v>1.57</v>
+      </c>
+      <c r="AP67">
+        <v>1.57</v>
+      </c>
+      <c r="AQ67">
+        <v>1.5</v>
+      </c>
+      <c r="AR67">
+        <v>1.06</v>
+      </c>
+      <c r="AS67">
+        <v>1.47</v>
+      </c>
+      <c r="AT67">
+        <v>2.53</v>
+      </c>
+      <c r="AU67">
+        <v>5</v>
+      </c>
+      <c r="AV67">
+        <v>9</v>
+      </c>
+      <c r="AW67">
+        <v>2</v>
+      </c>
+      <c r="AX67">
+        <v>3</v>
+      </c>
+      <c r="AY67">
+        <v>7</v>
+      </c>
+      <c r="AZ67">
+        <v>12</v>
+      </c>
+      <c r="BA67">
+        <v>5</v>
+      </c>
+      <c r="BB67">
+        <v>9</v>
+      </c>
+      <c r="BC67">
+        <v>14</v>
+      </c>
+      <c r="BD67">
+        <v>2.91</v>
+      </c>
+      <c r="BE67">
+        <v>7.7</v>
+      </c>
+      <c r="BF67">
+        <v>1.62</v>
+      </c>
+      <c r="BG67">
+        <v>1.21</v>
+      </c>
+      <c r="BH67">
+        <v>3.74</v>
+      </c>
+      <c r="BI67">
+        <v>1.42</v>
+      </c>
+      <c r="BJ67">
+        <v>2.65</v>
+      </c>
+      <c r="BK67">
+        <v>2.2</v>
+      </c>
+      <c r="BL67">
+        <v>2.01</v>
+      </c>
+      <c r="BM67">
+        <v>2.19</v>
+      </c>
+      <c r="BN67">
+        <v>1.6</v>
+      </c>
+      <c r="BO67">
+        <v>2.91</v>
+      </c>
+      <c r="BP67">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7287075</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45415.66666666666</v>
+      </c>
+      <c r="F68">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s">
+        <v>73</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>82</v>
+      </c>
+      <c r="P68" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q68">
+        <v>3.25</v>
+      </c>
+      <c r="R68">
+        <v>2</v>
+      </c>
+      <c r="S68">
+        <v>3.75</v>
+      </c>
+      <c r="T68">
+        <v>1.48</v>
+      </c>
+      <c r="U68">
+        <v>2.45</v>
+      </c>
+      <c r="V68">
+        <v>3.2</v>
+      </c>
+      <c r="W68">
+        <v>1.3</v>
+      </c>
+      <c r="X68">
+        <v>8.4</v>
+      </c>
+      <c r="Y68">
+        <v>1.05</v>
+      </c>
+      <c r="Z68">
+        <v>2.05</v>
+      </c>
+      <c r="AA68">
+        <v>3.1</v>
+      </c>
+      <c r="AB68">
+        <v>3.3</v>
+      </c>
+      <c r="AC68">
+        <v>1.07</v>
+      </c>
+      <c r="AD68">
+        <v>8</v>
+      </c>
+      <c r="AE68">
+        <v>1.4</v>
+      </c>
+      <c r="AF68">
+        <v>2.9</v>
+      </c>
+      <c r="AG68">
+        <v>2.25</v>
+      </c>
+      <c r="AH68">
+        <v>1.6</v>
+      </c>
+      <c r="AI68">
+        <v>1.95</v>
+      </c>
+      <c r="AJ68">
+        <v>1.8</v>
+      </c>
+      <c r="AK68">
+        <v>1.36</v>
+      </c>
+      <c r="AL68">
+        <v>1.28</v>
+      </c>
+      <c r="AM68">
+        <v>1.55</v>
+      </c>
+      <c r="AN68">
+        <v>1.17</v>
+      </c>
+      <c r="AO68">
+        <v>1.33</v>
+      </c>
+      <c r="AP68">
+        <v>1</v>
+      </c>
+      <c r="AQ68">
+        <v>1.57</v>
+      </c>
+      <c r="AR68">
+        <v>1.34</v>
+      </c>
+      <c r="AS68">
+        <v>0.99</v>
+      </c>
+      <c r="AT68">
+        <v>2.33</v>
+      </c>
+      <c r="AU68">
+        <v>4</v>
+      </c>
+      <c r="AV68">
+        <v>6</v>
+      </c>
+      <c r="AW68">
+        <v>9</v>
+      </c>
+      <c r="AX68">
+        <v>4</v>
+      </c>
+      <c r="AY68">
+        <v>13</v>
+      </c>
+      <c r="AZ68">
+        <v>10</v>
+      </c>
+      <c r="BA68">
+        <v>4</v>
+      </c>
+      <c r="BB68">
+        <v>6</v>
+      </c>
+      <c r="BC68">
+        <v>10</v>
+      </c>
+      <c r="BD68">
+        <v>1.87</v>
+      </c>
+      <c r="BE68">
+        <v>7.4</v>
+      </c>
+      <c r="BF68">
+        <v>2.38</v>
+      </c>
+      <c r="BG68">
+        <v>1.24</v>
+      </c>
+      <c r="BH68">
+        <v>3.48</v>
+      </c>
+      <c r="BI68">
+        <v>1.47</v>
+      </c>
+      <c r="BJ68">
+        <v>2.49</v>
+      </c>
+      <c r="BK68">
+        <v>2.38</v>
+      </c>
+      <c r="BL68">
+        <v>1.95</v>
+      </c>
+      <c r="BM68">
+        <v>2.33</v>
+      </c>
+      <c r="BN68">
+        <v>1.53</v>
+      </c>
+      <c r="BO68">
+        <v>3.08</v>
+      </c>
+      <c r="BP68">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="157">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>['23']</t>
+  </si>
+  <si>
+    <t>['55', '90+4']</t>
   </si>
   <si>
     <t>['23', '45+2']</t>
@@ -843,7 +846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP68"/>
+  <dimension ref="A1:BP69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1102,7 +1105,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1308,7 +1311,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1720,7 +1723,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2007,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2132,7 +2135,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2210,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ7">
         <v>1.57</v>
@@ -2338,7 +2341,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2544,7 +2547,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2750,7 +2753,7 @@
         <v>82</v>
       </c>
       <c r="P10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q10">
         <v>2.88</v>
@@ -3162,7 +3165,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3368,7 +3371,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3574,7 +3577,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3858,7 +3861,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ15">
         <v>1.5</v>
@@ -3986,7 +3989,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4398,7 +4401,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4604,7 +4607,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -4891,7 +4894,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ20">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR20">
         <v>1.54</v>
@@ -5016,7 +5019,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5840,7 +5843,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6458,7 +6461,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6664,7 +6667,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -6870,7 +6873,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q30">
         <v>2.4</v>
@@ -7154,7 +7157,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ31">
         <v>0.71</v>
@@ -7282,7 +7285,7 @@
         <v>98</v>
       </c>
       <c r="P32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7363,7 +7366,7 @@
         <v>2</v>
       </c>
       <c r="AQ32">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR32">
         <v>1</v>
@@ -7488,7 +7491,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7694,7 +7697,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8106,7 +8109,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8724,7 +8727,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8930,7 +8933,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9136,7 +9139,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9217,7 +9220,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ41">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR41">
         <v>1.34</v>
@@ -9342,7 +9345,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9420,7 +9423,7 @@
         <v>2.5</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ42">
         <v>1.71</v>
@@ -9548,7 +9551,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9754,7 +9757,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -9960,7 +9963,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10038,7 +10041,7 @@
         <v>0.75</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ45">
         <v>1.14</v>
@@ -10865,7 +10868,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ49">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR49">
         <v>1.12</v>
@@ -11196,7 +11199,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11402,7 +11405,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11483,7 +11486,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR52">
         <v>1.24</v>
@@ -12226,7 +12229,7 @@
         <v>113</v>
       </c>
       <c r="P56" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12638,7 +12641,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -12716,7 +12719,7 @@
         <v>1.4</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ58">
         <v>1.17</v>
@@ -13256,7 +13259,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13462,7 +13465,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14492,7 +14495,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14698,7 +14701,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -14855,6 +14858,212 @@
       </c>
       <c r="BP68">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7287079</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45418.375</v>
+      </c>
+      <c r="F69">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s">
+        <v>75</v>
+      </c>
+      <c r="H69" t="s">
+        <v>76</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69" t="s">
+        <v>121</v>
+      </c>
+      <c r="P69" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q69">
+        <v>3.4</v>
+      </c>
+      <c r="R69">
+        <v>2.05</v>
+      </c>
+      <c r="S69">
+        <v>3.4</v>
+      </c>
+      <c r="T69">
+        <v>1.42</v>
+      </c>
+      <c r="U69">
+        <v>2.62</v>
+      </c>
+      <c r="V69">
+        <v>2.9</v>
+      </c>
+      <c r="W69">
+        <v>1.36</v>
+      </c>
+      <c r="X69">
+        <v>7</v>
+      </c>
+      <c r="Y69">
+        <v>1.07</v>
+      </c>
+      <c r="Z69">
+        <v>2.63</v>
+      </c>
+      <c r="AA69">
+        <v>3.2</v>
+      </c>
+      <c r="AB69">
+        <v>2.6</v>
+      </c>
+      <c r="AC69">
+        <v>1.04</v>
+      </c>
+      <c r="AD69">
+        <v>2.98</v>
+      </c>
+      <c r="AE69">
+        <v>1.37</v>
+      </c>
+      <c r="AF69">
+        <v>2.98</v>
+      </c>
+      <c r="AG69">
+        <v>2.15</v>
+      </c>
+      <c r="AH69">
+        <v>1.67</v>
+      </c>
+      <c r="AI69">
+        <v>1.91</v>
+      </c>
+      <c r="AJ69">
+        <v>1.91</v>
+      </c>
+      <c r="AK69">
+        <v>1.42</v>
+      </c>
+      <c r="AL69">
+        <v>1.39</v>
+      </c>
+      <c r="AM69">
+        <v>1.58</v>
+      </c>
+      <c r="AN69">
+        <v>1.5</v>
+      </c>
+      <c r="AO69">
+        <v>0.33</v>
+      </c>
+      <c r="AP69">
+        <v>1.71</v>
+      </c>
+      <c r="AQ69">
+        <v>0.29</v>
+      </c>
+      <c r="AR69">
+        <v>1.37</v>
+      </c>
+      <c r="AS69">
+        <v>0.92</v>
+      </c>
+      <c r="AT69">
+        <v>2.29</v>
+      </c>
+      <c r="AU69">
+        <v>5</v>
+      </c>
+      <c r="AV69">
+        <v>6</v>
+      </c>
+      <c r="AW69">
+        <v>5</v>
+      </c>
+      <c r="AX69">
+        <v>3</v>
+      </c>
+      <c r="AY69">
+        <v>10</v>
+      </c>
+      <c r="AZ69">
+        <v>9</v>
+      </c>
+      <c r="BA69">
+        <v>2</v>
+      </c>
+      <c r="BB69">
+        <v>7</v>
+      </c>
+      <c r="BC69">
+        <v>9</v>
+      </c>
+      <c r="BD69">
+        <v>1.85</v>
+      </c>
+      <c r="BE69">
+        <v>8.5</v>
+      </c>
+      <c r="BF69">
+        <v>2.15</v>
+      </c>
+      <c r="BG69">
+        <v>1.27</v>
+      </c>
+      <c r="BH69">
+        <v>3.28</v>
+      </c>
+      <c r="BI69">
+        <v>1.53</v>
+      </c>
+      <c r="BJ69">
+        <v>2.34</v>
+      </c>
+      <c r="BK69">
+        <v>1.91</v>
+      </c>
+      <c r="BL69">
+        <v>1.83</v>
+      </c>
+      <c r="BM69">
+        <v>2.49</v>
+      </c>
+      <c r="BN69">
+        <v>1.47</v>
+      </c>
+      <c r="BO69">
+        <v>3.34</v>
+      </c>
+      <c r="BP69">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="162">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -382,6 +382,15 @@
     <t>['55', '90+4']</t>
   </si>
   <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -485,6 +494,12 @@
   </si>
   <si>
     <t>['46']</t>
+  </si>
+  <si>
+    <t>['3', '17', '54']</t>
+  </si>
+  <si>
+    <t>['89']</t>
   </si>
 </sst>
 </file>
@@ -846,7 +861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP69"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1105,7 +1120,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1183,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ2">
         <v>1.17</v>
@@ -1311,7 +1326,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1389,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>0.29</v>
@@ -1598,7 +1613,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ4">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1723,7 +1738,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1804,7 +1819,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ5">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2007,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ6">
         <v>0.29</v>
@@ -2135,7 +2150,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2216,7 +2231,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ7">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2341,7 +2356,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2422,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2547,7 +2562,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2753,7 +2768,7 @@
         <v>82</v>
       </c>
       <c r="P10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q10">
         <v>2.88</v>
@@ -3037,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ11">
         <v>1.14</v>
@@ -3165,7 +3180,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3243,10 +3258,10 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ12">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR12">
         <v>1</v>
@@ -3371,7 +3386,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3452,7 +3467,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ13">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR13">
         <v>0.97</v>
@@ -3577,7 +3592,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3655,10 +3670,10 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR14">
         <v>1.63</v>
@@ -3989,7 +4004,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4276,7 +4291,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR17">
         <v>1.23</v>
@@ -4401,7 +4416,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4482,7 +4497,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ18">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR18">
         <v>0.95</v>
@@ -4607,7 +4622,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -4685,7 +4700,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ19">
         <v>1.14</v>
@@ -5019,7 +5034,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5097,10 +5112,10 @@
         <v>2</v>
       </c>
       <c r="AP21">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ21">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR21">
         <v>1.54</v>
@@ -5303,10 +5318,10 @@
         <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR22">
         <v>1.39</v>
@@ -5715,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24">
         <v>1.5</v>
@@ -5843,7 +5858,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -5924,7 +5939,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ25">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR25">
         <v>1.56</v>
@@ -6336,7 +6351,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR27">
         <v>1.35</v>
@@ -6461,7 +6476,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6539,7 +6554,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ28">
         <v>1.14</v>
@@ -6667,7 +6682,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -6745,7 +6760,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ29">
         <v>0.29</v>
@@ -6873,7 +6888,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q30">
         <v>2.4</v>
@@ -6951,10 +6966,10 @@
         <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7160,7 +7175,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ31">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR31">
         <v>1.4</v>
@@ -7285,7 +7300,7 @@
         <v>98</v>
       </c>
       <c r="P32" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7491,7 +7506,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7697,7 +7712,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -7775,7 +7790,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ34">
         <v>1.5</v>
@@ -8109,7 +8124,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8727,7 +8742,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8933,7 +8948,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9011,10 +9026,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ40">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR40">
         <v>1.04</v>
@@ -9139,7 +9154,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9217,7 +9232,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ41">
         <v>0.29</v>
@@ -9345,7 +9360,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9426,7 +9441,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ42">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR42">
         <v>1.38</v>
@@ -9551,7 +9566,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9757,7 +9772,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -9963,7 +9978,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10250,7 +10265,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR46">
         <v>1.26</v>
@@ -10456,7 +10471,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR47">
         <v>1.3</v>
@@ -10659,7 +10674,7 @@
         <v>1.75</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ48">
         <v>1.17</v>
@@ -10865,7 +10880,7 @@
         <v>0.25</v>
       </c>
       <c r="AP49">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ49">
         <v>0.29</v>
@@ -11071,7 +11086,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ50">
         <v>0.29</v>
@@ -11199,7 +11214,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11277,7 +11292,7 @@
         <v>1.4</v>
       </c>
       <c r="AP51">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>1.5</v>
@@ -11405,7 +11420,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11483,7 +11498,7 @@
         <v>0.2</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ52">
         <v>0.29</v>
@@ -11692,7 +11707,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ53">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR53">
         <v>1.43</v>
@@ -11898,7 +11913,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ54">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -12101,10 +12116,10 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR55">
         <v>1.35</v>
@@ -12229,7 +12244,7 @@
         <v>113</v>
       </c>
       <c r="P56" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12307,10 +12322,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR56">
         <v>1.4</v>
@@ -12641,7 +12656,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13134,7 +13149,7 @@
         <v>2</v>
       </c>
       <c r="AQ60">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR60">
         <v>1.01</v>
@@ -13259,7 +13274,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13465,7 +13480,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13543,10 +13558,10 @@
         <v>1.6</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ62">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR62">
         <v>1.75</v>
@@ -13749,7 +13764,7 @@
         <v>0.4</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ63">
         <v>0.29</v>
@@ -14370,7 +14385,7 @@
         <v>1</v>
       </c>
       <c r="AQ66">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR66">
         <v>1.32</v>
@@ -14495,7 +14510,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14573,7 +14588,7 @@
         <v>1.57</v>
       </c>
       <c r="AP67">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ67">
         <v>1.5</v>
@@ -14701,7 +14716,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -14779,10 +14794,10 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ68">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR68">
         <v>1.34</v>
@@ -14907,7 +14922,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15064,6 +15079,830 @@
       </c>
       <c r="BP69">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7287077</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45418.54166666666</v>
+      </c>
+      <c r="F70">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
+        <v>70</v>
+      </c>
+      <c r="H70" t="s">
+        <v>72</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
+        <v>82</v>
+      </c>
+      <c r="P70" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q70">
+        <v>3.4</v>
+      </c>
+      <c r="R70">
+        <v>1.95</v>
+      </c>
+      <c r="S70">
+        <v>3.6</v>
+      </c>
+      <c r="T70">
+        <v>1.44</v>
+      </c>
+      <c r="U70">
+        <v>2.6</v>
+      </c>
+      <c r="V70">
+        <v>3</v>
+      </c>
+      <c r="W70">
+        <v>1.33</v>
+      </c>
+      <c r="X70">
+        <v>8</v>
+      </c>
+      <c r="Y70">
+        <v>1.05</v>
+      </c>
+      <c r="Z70">
+        <v>2.45</v>
+      </c>
+      <c r="AA70">
+        <v>3.2</v>
+      </c>
+      <c r="AB70">
+        <v>2.88</v>
+      </c>
+      <c r="AC70">
+        <v>1.05</v>
+      </c>
+      <c r="AD70">
+        <v>8</v>
+      </c>
+      <c r="AE70">
+        <v>1.36</v>
+      </c>
+      <c r="AF70">
+        <v>2.88</v>
+      </c>
+      <c r="AG70">
+        <v>2.35</v>
+      </c>
+      <c r="AH70">
+        <v>1.57</v>
+      </c>
+      <c r="AI70">
+        <v>2</v>
+      </c>
+      <c r="AJ70">
+        <v>1.75</v>
+      </c>
+      <c r="AK70">
+        <v>1.45</v>
+      </c>
+      <c r="AL70">
+        <v>1.36</v>
+      </c>
+      <c r="AM70">
+        <v>1.5</v>
+      </c>
+      <c r="AN70">
+        <v>1.57</v>
+      </c>
+      <c r="AO70">
+        <v>1.5</v>
+      </c>
+      <c r="AP70">
+        <v>1.38</v>
+      </c>
+      <c r="AQ70">
+        <v>1.71</v>
+      </c>
+      <c r="AR70">
+        <v>1.06</v>
+      </c>
+      <c r="AS70">
+        <v>1.13</v>
+      </c>
+      <c r="AT70">
+        <v>2.19</v>
+      </c>
+      <c r="AU70">
+        <v>5</v>
+      </c>
+      <c r="AV70">
+        <v>7</v>
+      </c>
+      <c r="AW70">
+        <v>6</v>
+      </c>
+      <c r="AX70">
+        <v>4</v>
+      </c>
+      <c r="AY70">
+        <v>11</v>
+      </c>
+      <c r="AZ70">
+        <v>11</v>
+      </c>
+      <c r="BA70">
+        <v>7</v>
+      </c>
+      <c r="BB70">
+        <v>0</v>
+      </c>
+      <c r="BC70">
+        <v>7</v>
+      </c>
+      <c r="BD70">
+        <v>1.8</v>
+      </c>
+      <c r="BE70">
+        <v>8.5</v>
+      </c>
+      <c r="BF70">
+        <v>2.2</v>
+      </c>
+      <c r="BG70">
+        <v>1.21</v>
+      </c>
+      <c r="BH70">
+        <v>4.2</v>
+      </c>
+      <c r="BI70">
+        <v>1.33</v>
+      </c>
+      <c r="BJ70">
+        <v>2.93</v>
+      </c>
+      <c r="BK70">
+        <v>1.83</v>
+      </c>
+      <c r="BL70">
+        <v>2.18</v>
+      </c>
+      <c r="BM70">
+        <v>2.04</v>
+      </c>
+      <c r="BN70">
+        <v>1.75</v>
+      </c>
+      <c r="BO70">
+        <v>2.62</v>
+      </c>
+      <c r="BP70">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7287080</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45418.54166666666</v>
+      </c>
+      <c r="F71">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
+        <v>74</v>
+      </c>
+      <c r="H71" t="s">
+        <v>73</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="K71">
+        <v>3</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>3</v>
+      </c>
+      <c r="N71">
+        <v>4</v>
+      </c>
+      <c r="O71" t="s">
+        <v>122</v>
+      </c>
+      <c r="P71" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q71">
+        <v>1.73</v>
+      </c>
+      <c r="R71">
+        <v>2.6</v>
+      </c>
+      <c r="S71">
+        <v>8</v>
+      </c>
+      <c r="T71">
+        <v>1.3</v>
+      </c>
+      <c r="U71">
+        <v>3.2</v>
+      </c>
+      <c r="V71">
+        <v>2.4</v>
+      </c>
+      <c r="W71">
+        <v>1.5</v>
+      </c>
+      <c r="X71">
+        <v>5.5</v>
+      </c>
+      <c r="Y71">
+        <v>1.11</v>
+      </c>
+      <c r="Z71">
+        <v>1.3</v>
+      </c>
+      <c r="AA71">
+        <v>5.25</v>
+      </c>
+      <c r="AB71">
+        <v>9</v>
+      </c>
+      <c r="AC71">
+        <v>1.02</v>
+      </c>
+      <c r="AD71">
+        <v>10</v>
+      </c>
+      <c r="AE71">
+        <v>1.22</v>
+      </c>
+      <c r="AF71">
+        <v>3.8</v>
+      </c>
+      <c r="AG71">
+        <v>1.65</v>
+      </c>
+      <c r="AH71">
+        <v>2.2</v>
+      </c>
+      <c r="AI71">
+        <v>2.05</v>
+      </c>
+      <c r="AJ71">
+        <v>1.7</v>
+      </c>
+      <c r="AK71">
+        <v>1.07</v>
+      </c>
+      <c r="AL71">
+        <v>1.17</v>
+      </c>
+      <c r="AM71">
+        <v>3.2</v>
+      </c>
+      <c r="AN71">
+        <v>2</v>
+      </c>
+      <c r="AO71">
+        <v>1.57</v>
+      </c>
+      <c r="AP71">
+        <v>1.71</v>
+      </c>
+      <c r="AQ71">
+        <v>1.75</v>
+      </c>
+      <c r="AR71">
+        <v>1.85</v>
+      </c>
+      <c r="AS71">
+        <v>1.05</v>
+      </c>
+      <c r="AT71">
+        <v>2.9</v>
+      </c>
+      <c r="AU71">
+        <v>8</v>
+      </c>
+      <c r="AV71">
+        <v>4</v>
+      </c>
+      <c r="AW71">
+        <v>7</v>
+      </c>
+      <c r="AX71">
+        <v>3</v>
+      </c>
+      <c r="AY71">
+        <v>15</v>
+      </c>
+      <c r="AZ71">
+        <v>7</v>
+      </c>
+      <c r="BA71">
+        <v>9</v>
+      </c>
+      <c r="BB71">
+        <v>2</v>
+      </c>
+      <c r="BC71">
+        <v>11</v>
+      </c>
+      <c r="BD71">
+        <v>1.25</v>
+      </c>
+      <c r="BE71">
+        <v>12</v>
+      </c>
+      <c r="BF71">
+        <v>4.2</v>
+      </c>
+      <c r="BG71">
+        <v>1.16</v>
+      </c>
+      <c r="BH71">
+        <v>4.7</v>
+      </c>
+      <c r="BI71">
+        <v>1.28</v>
+      </c>
+      <c r="BJ71">
+        <v>3.2</v>
+      </c>
+      <c r="BK71">
+        <v>1.51</v>
+      </c>
+      <c r="BL71">
+        <v>2.39</v>
+      </c>
+      <c r="BM71">
+        <v>1.87</v>
+      </c>
+      <c r="BN71">
+        <v>1.87</v>
+      </c>
+      <c r="BO71">
+        <v>2.36</v>
+      </c>
+      <c r="BP71">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7287081</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45418.54166666666</v>
+      </c>
+      <c r="F72">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s">
+        <v>79</v>
+      </c>
+      <c r="H72" t="s">
+        <v>78</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
+        <v>123</v>
+      </c>
+      <c r="P72" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q72">
+        <v>3.75</v>
+      </c>
+      <c r="R72">
+        <v>2.05</v>
+      </c>
+      <c r="S72">
+        <v>3.1</v>
+      </c>
+      <c r="T72">
+        <v>1.44</v>
+      </c>
+      <c r="U72">
+        <v>2.6</v>
+      </c>
+      <c r="V72">
+        <v>3</v>
+      </c>
+      <c r="W72">
+        <v>1.33</v>
+      </c>
+      <c r="X72">
+        <v>8</v>
+      </c>
+      <c r="Y72">
+        <v>1.05</v>
+      </c>
+      <c r="Z72">
+        <v>3</v>
+      </c>
+      <c r="AA72">
+        <v>3.2</v>
+      </c>
+      <c r="AB72">
+        <v>2.38</v>
+      </c>
+      <c r="AC72">
+        <v>1.05</v>
+      </c>
+      <c r="AD72">
+        <v>8</v>
+      </c>
+      <c r="AE72">
+        <v>1.36</v>
+      </c>
+      <c r="AF72">
+        <v>2.88</v>
+      </c>
+      <c r="AG72">
+        <v>2.2</v>
+      </c>
+      <c r="AH72">
+        <v>1.65</v>
+      </c>
+      <c r="AI72">
+        <v>1.95</v>
+      </c>
+      <c r="AJ72">
+        <v>1.8</v>
+      </c>
+      <c r="AK72">
+        <v>1.55</v>
+      </c>
+      <c r="AL72">
+        <v>1.35</v>
+      </c>
+      <c r="AM72">
+        <v>1.44</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
+        <v>0.71</v>
+      </c>
+      <c r="AP72">
+        <v>1.25</v>
+      </c>
+      <c r="AQ72">
+        <v>0.63</v>
+      </c>
+      <c r="AR72">
+        <v>1.34</v>
+      </c>
+      <c r="AS72">
+        <v>1.07</v>
+      </c>
+      <c r="AT72">
+        <v>2.41</v>
+      </c>
+      <c r="AU72">
+        <v>5</v>
+      </c>
+      <c r="AV72">
+        <v>6</v>
+      </c>
+      <c r="AW72">
+        <v>3</v>
+      </c>
+      <c r="AX72">
+        <v>4</v>
+      </c>
+      <c r="AY72">
+        <v>8</v>
+      </c>
+      <c r="AZ72">
+        <v>10</v>
+      </c>
+      <c r="BA72">
+        <v>4</v>
+      </c>
+      <c r="BB72">
+        <v>9</v>
+      </c>
+      <c r="BC72">
+        <v>13</v>
+      </c>
+      <c r="BD72">
+        <v>1.75</v>
+      </c>
+      <c r="BE72">
+        <v>8.5</v>
+      </c>
+      <c r="BF72">
+        <v>2.3</v>
+      </c>
+      <c r="BG72">
+        <v>1.25</v>
+      </c>
+      <c r="BH72">
+        <v>3.42</v>
+      </c>
+      <c r="BI72">
+        <v>1.49</v>
+      </c>
+      <c r="BJ72">
+        <v>2.44</v>
+      </c>
+      <c r="BK72">
+        <v>2.25</v>
+      </c>
+      <c r="BL72">
+        <v>1.88</v>
+      </c>
+      <c r="BM72">
+        <v>2.39</v>
+      </c>
+      <c r="BN72">
+        <v>1.51</v>
+      </c>
+      <c r="BO72">
+        <v>3.2</v>
+      </c>
+      <c r="BP72">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7287078</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45418.65625</v>
+      </c>
+      <c r="F73">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s">
+        <v>71</v>
+      </c>
+      <c r="H73" t="s">
+        <v>77</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
+      </c>
+      <c r="O73" t="s">
+        <v>124</v>
+      </c>
+      <c r="P73" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q73">
+        <v>2.63</v>
+      </c>
+      <c r="R73">
+        <v>1.91</v>
+      </c>
+      <c r="S73">
+        <v>6</v>
+      </c>
+      <c r="T73">
+        <v>1.57</v>
+      </c>
+      <c r="U73">
+        <v>2.32</v>
+      </c>
+      <c r="V73">
+        <v>3.75</v>
+      </c>
+      <c r="W73">
+        <v>1.25</v>
+      </c>
+      <c r="X73">
+        <v>10</v>
+      </c>
+      <c r="Y73">
+        <v>1.02</v>
+      </c>
+      <c r="Z73">
+        <v>1.73</v>
+      </c>
+      <c r="AA73">
+        <v>3.4</v>
+      </c>
+      <c r="AB73">
+        <v>5.5</v>
+      </c>
+      <c r="AC73">
+        <v>1.09</v>
+      </c>
+      <c r="AD73">
+        <v>5.95</v>
+      </c>
+      <c r="AE73">
+        <v>1.51</v>
+      </c>
+      <c r="AF73">
+        <v>2.39</v>
+      </c>
+      <c r="AG73">
+        <v>2.55</v>
+      </c>
+      <c r="AH73">
+        <v>1.45</v>
+      </c>
+      <c r="AI73">
+        <v>2.5</v>
+      </c>
+      <c r="AJ73">
+        <v>1.5</v>
+      </c>
+      <c r="AK73">
+        <v>1.16</v>
+      </c>
+      <c r="AL73">
+        <v>1.28</v>
+      </c>
+      <c r="AM73">
+        <v>1.95</v>
+      </c>
+      <c r="AN73">
+        <v>2.14</v>
+      </c>
+      <c r="AO73">
+        <v>1.71</v>
+      </c>
+      <c r="AP73">
+        <v>2</v>
+      </c>
+      <c r="AQ73">
+        <v>1.63</v>
+      </c>
+      <c r="AR73">
+        <v>1.37</v>
+      </c>
+      <c r="AS73">
+        <v>1.04</v>
+      </c>
+      <c r="AT73">
+        <v>2.41</v>
+      </c>
+      <c r="AU73">
+        <v>4</v>
+      </c>
+      <c r="AV73">
+        <v>2</v>
+      </c>
+      <c r="AW73">
+        <v>4</v>
+      </c>
+      <c r="AX73">
+        <v>7</v>
+      </c>
+      <c r="AY73">
+        <v>8</v>
+      </c>
+      <c r="AZ73">
+        <v>9</v>
+      </c>
+      <c r="BA73">
+        <v>3</v>
+      </c>
+      <c r="BB73">
+        <v>3</v>
+      </c>
+      <c r="BC73">
+        <v>6</v>
+      </c>
+      <c r="BD73">
+        <v>1.36</v>
+      </c>
+      <c r="BE73">
+        <v>9.5</v>
+      </c>
+      <c r="BF73">
+        <v>3.4</v>
+      </c>
+      <c r="BG73">
+        <v>1.3</v>
+      </c>
+      <c r="BH73">
+        <v>3.08</v>
+      </c>
+      <c r="BI73">
+        <v>1.58</v>
+      </c>
+      <c r="BJ73">
+        <v>2.23</v>
+      </c>
+      <c r="BK73">
+        <v>2.01</v>
+      </c>
+      <c r="BL73">
+        <v>1.75</v>
+      </c>
+      <c r="BM73">
+        <v>2.62</v>
+      </c>
+      <c r="BN73">
+        <v>1.43</v>
+      </c>
+      <c r="BO73">
+        <v>3.56</v>
+      </c>
+      <c r="BP73">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="160">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -382,13 +382,10 @@
     <t>['55', '90+4']</t>
   </si>
   <si>
-    <t>['8']</t>
+    <t>['10']</t>
   </si>
   <si>
-    <t>['22']</t>
-  </si>
-  <si>
-    <t>['56']</t>
+    <t>['26']</t>
   </si>
   <si>
     <t>['23', '45+2']</t>
@@ -496,10 +493,7 @@
     <t>['46']</t>
   </si>
   <si>
-    <t>['3', '17', '54']</t>
-  </si>
-  <si>
-    <t>['89']</t>
+    <t>['9', '15', '51']</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1114,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1326,7 +1320,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1738,7 +1732,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2150,7 +2144,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2356,7 +2350,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2562,7 +2556,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2768,7 +2762,7 @@
         <v>82</v>
       </c>
       <c r="P10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q10">
         <v>2.88</v>
@@ -3180,7 +3174,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3386,7 +3380,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3592,7 +3586,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4004,7 +3998,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4416,7 +4410,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4622,7 +4616,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -5034,7 +5028,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5858,7 +5852,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6476,7 +6470,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6682,7 +6676,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -6888,7 +6882,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q30">
         <v>2.4</v>
@@ -7300,7 +7294,7 @@
         <v>98</v>
       </c>
       <c r="P32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7506,7 +7500,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7712,7 +7706,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8124,7 +8118,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8742,7 +8736,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8948,7 +8942,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9154,7 +9148,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9360,7 +9354,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9566,7 +9560,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9772,7 +9766,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -9978,7 +9972,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -11214,7 +11208,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11420,7 +11414,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12244,7 +12238,7 @@
         <v>113</v>
       </c>
       <c r="P56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12656,7 +12650,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13274,7 +13268,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13480,7 +13474,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14510,7 +14504,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14716,7 +14710,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -14922,7 +14916,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15128,7 +15122,7 @@
         <v>82</v>
       </c>
       <c r="P70" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15334,7 +15328,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -15743,10 +15737,10 @@
         <v>2</v>
       </c>
       <c r="O73" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="P73" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="Q73">
         <v>2.63</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="165">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -388,6 +388,18 @@
     <t>['26']</t>
   </si>
   <si>
+    <t>['4', '60']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['2', '44', '53', '76']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -404,9 +416,6 @@
   </si>
   <si>
     <t>['49']</t>
-  </si>
-  <si>
-    <t>['85']</t>
   </si>
   <si>
     <t>['12']</t>
@@ -494,6 +503,12 @@
   </si>
   <si>
     <t>['9', '15', '51']</t>
+  </si>
+  <si>
+    <t>['23', '64']</t>
+  </si>
+  <si>
+    <t>['22']</t>
   </si>
 </sst>
 </file>
@@ -855,7 +870,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1114,7 +1129,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1195,7 +1210,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ2">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1320,7 +1335,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1398,10 +1413,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ3">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1604,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ4">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1732,7 +1747,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1810,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ5">
         <v>1.63</v>
@@ -2016,10 +2031,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ6">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2144,7 +2159,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2350,7 +2365,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2556,7 +2571,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2634,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ9">
         <v>1.5</v>
@@ -2762,7 +2777,7 @@
         <v>82</v>
       </c>
       <c r="P10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q10">
         <v>2.88</v>
@@ -2843,7 +2858,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3174,7 +3189,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3380,7 +3395,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3458,7 +3473,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ13">
         <v>1.75</v>
@@ -3586,7 +3601,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3664,10 +3679,10 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ14">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR14">
         <v>1.63</v>
@@ -3873,7 +3888,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR15">
         <v>1.32</v>
@@ -3998,7 +4013,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4079,7 +4094,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR16">
         <v>1.48</v>
@@ -4282,7 +4297,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ17">
         <v>1.71</v>
@@ -4410,7 +4425,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4488,10 +4503,10 @@
         <v>1.5</v>
       </c>
       <c r="AP18">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ18">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR18">
         <v>0.95</v>
@@ -4616,7 +4631,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -4694,7 +4709,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ19">
         <v>1.14</v>
@@ -4903,7 +4918,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ20">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR20">
         <v>1.54</v>
@@ -5028,7 +5043,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5312,7 +5327,7 @@
         <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ22">
         <v>1.75</v>
@@ -5518,10 +5533,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ23">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR23">
         <v>1.34</v>
@@ -5852,7 +5867,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6136,7 +6151,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ26">
         <v>1.5</v>
@@ -6470,7 +6485,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6676,7 +6691,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -6757,7 +6772,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ29">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR29">
         <v>1.29</v>
@@ -6882,7 +6897,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q30">
         <v>2.4</v>
@@ -6960,7 +6975,7 @@
         <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ30">
         <v>1.71</v>
@@ -7169,7 +7184,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ31">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR31">
         <v>1.4</v>
@@ -7294,7 +7309,7 @@
         <v>98</v>
       </c>
       <c r="P32" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7372,10 +7387,10 @@
         <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ32">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR32">
         <v>1</v>
@@ -7500,7 +7515,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7578,10 +7593,10 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ33">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR33">
         <v>1.43</v>
@@ -7706,7 +7721,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -7784,10 +7799,10 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ34">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR34">
         <v>1.27</v>
@@ -7993,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR35">
         <v>1.43</v>
@@ -8118,7 +8133,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8196,7 +8211,7 @@
         <v>1.33</v>
       </c>
       <c r="AP36">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ36">
         <v>1.5</v>
@@ -8405,7 +8420,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ37">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR37">
         <v>1.47</v>
@@ -8608,7 +8623,7 @@
         <v>0.67</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ38">
         <v>1.14</v>
@@ -8736,7 +8751,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8814,10 +8829,10 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR39">
         <v>1.28</v>
@@ -8942,7 +8957,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9148,7 +9163,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9226,10 +9241,10 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ41">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR41">
         <v>1.34</v>
@@ -9354,7 +9369,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9560,7 +9575,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9766,7 +9781,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -9844,10 +9859,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR44">
         <v>0.87</v>
@@ -9972,7 +9987,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10259,7 +10274,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR46">
         <v>1.26</v>
@@ -10462,7 +10477,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ47">
         <v>1.71</v>
@@ -10668,10 +10683,10 @@
         <v>1.75</v>
       </c>
       <c r="AP48">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ48">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR48">
         <v>1.59</v>
@@ -10877,7 +10892,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ49">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR49">
         <v>1.12</v>
@@ -11083,7 +11098,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ50">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR50">
         <v>1.1</v>
@@ -11208,7 +11223,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11286,7 +11301,7 @@
         <v>1.4</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ51">
         <v>1.5</v>
@@ -11414,7 +11429,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11495,7 +11510,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ52">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR52">
         <v>1.24</v>
@@ -11904,7 +11919,7 @@
         <v>2.2</v>
       </c>
       <c r="AP54">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ54">
         <v>1.63</v>
@@ -12238,7 +12253,7 @@
         <v>113</v>
       </c>
       <c r="P56" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12316,10 +12331,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ56">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR56">
         <v>1.4</v>
@@ -12522,7 +12537,7 @@
         <v>1.67</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ57">
         <v>1.5</v>
@@ -12650,7 +12665,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -12731,7 +12746,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ58">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR58">
         <v>1.29</v>
@@ -12937,7 +12952,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR59">
         <v>1.21</v>
@@ -13140,10 +13155,10 @@
         <v>0.83</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ60">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR60">
         <v>1.01</v>
@@ -13268,7 +13283,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13346,7 +13361,7 @@
         <v>0.8</v>
       </c>
       <c r="AP61">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ61">
         <v>1.14</v>
@@ -13474,7 +13489,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13552,7 +13567,7 @@
         <v>1.6</v>
       </c>
       <c r="AP62">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ62">
         <v>1.71</v>
@@ -13758,10 +13773,10 @@
         <v>0.4</v>
       </c>
       <c r="AP63">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ63">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR63">
         <v>1.78</v>
@@ -13964,7 +13979,7 @@
         <v>1.17</v>
       </c>
       <c r="AP64">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ64">
         <v>1.14</v>
@@ -14173,7 +14188,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ65">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR65">
         <v>1.39</v>
@@ -14504,7 +14519,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14710,7 +14725,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -14916,7 +14931,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -14997,7 +15012,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ69">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR69">
         <v>1.37</v>
@@ -15328,7 +15343,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -15406,7 +15421,7 @@
         <v>1.57</v>
       </c>
       <c r="AP71">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ71">
         <v>1.75</v>
@@ -15615,7 +15630,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ72">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR72">
         <v>1.34</v>
@@ -15818,7 +15833,7 @@
         <v>1.71</v>
       </c>
       <c r="AP73">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ73">
         <v>1.63</v>
@@ -15897,6 +15912,1036 @@
       </c>
       <c r="BP73">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7287086</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45422.65625</v>
+      </c>
+      <c r="F74">
+        <v>15</v>
+      </c>
+      <c r="G74" t="s">
+        <v>74</v>
+      </c>
+      <c r="H74" t="s">
+        <v>78</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74">
+        <v>4</v>
+      </c>
+      <c r="O74" t="s">
+        <v>124</v>
+      </c>
+      <c r="P74" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q74">
+        <v>2.1</v>
+      </c>
+      <c r="R74">
+        <v>2.3</v>
+      </c>
+      <c r="S74">
+        <v>6</v>
+      </c>
+      <c r="T74">
+        <v>1.36</v>
+      </c>
+      <c r="U74">
+        <v>3</v>
+      </c>
+      <c r="V74">
+        <v>2.75</v>
+      </c>
+      <c r="W74">
+        <v>1.4</v>
+      </c>
+      <c r="X74">
+        <v>8</v>
+      </c>
+      <c r="Y74">
+        <v>1.08</v>
+      </c>
+      <c r="Z74">
+        <v>1.53</v>
+      </c>
+      <c r="AA74">
+        <v>4</v>
+      </c>
+      <c r="AB74">
+        <v>6</v>
+      </c>
+      <c r="AC74">
+        <v>1.05</v>
+      </c>
+      <c r="AD74">
+        <v>9</v>
+      </c>
+      <c r="AE74">
+        <v>1.3</v>
+      </c>
+      <c r="AF74">
+        <v>3.45</v>
+      </c>
+      <c r="AG74">
+        <v>1.8</v>
+      </c>
+      <c r="AH74">
+        <v>2</v>
+      </c>
+      <c r="AI74">
+        <v>1.91</v>
+      </c>
+      <c r="AJ74">
+        <v>1.91</v>
+      </c>
+      <c r="AK74">
+        <v>1.15</v>
+      </c>
+      <c r="AL74">
+        <v>1.24</v>
+      </c>
+      <c r="AM74">
+        <v>2.1</v>
+      </c>
+      <c r="AN74">
+        <v>1.71</v>
+      </c>
+      <c r="AO74">
+        <v>0.63</v>
+      </c>
+      <c r="AP74">
+        <v>1.63</v>
+      </c>
+      <c r="AQ74">
+        <v>0.67</v>
+      </c>
+      <c r="AR74">
+        <v>1.85</v>
+      </c>
+      <c r="AS74">
+        <v>1.12</v>
+      </c>
+      <c r="AT74">
+        <v>2.97</v>
+      </c>
+      <c r="AU74">
+        <v>11</v>
+      </c>
+      <c r="AV74">
+        <v>5</v>
+      </c>
+      <c r="AW74">
+        <v>6</v>
+      </c>
+      <c r="AX74">
+        <v>4</v>
+      </c>
+      <c r="AY74">
+        <v>17</v>
+      </c>
+      <c r="AZ74">
+        <v>9</v>
+      </c>
+      <c r="BA74">
+        <v>6</v>
+      </c>
+      <c r="BB74">
+        <v>2</v>
+      </c>
+      <c r="BC74">
+        <v>8</v>
+      </c>
+      <c r="BD74">
+        <v>1.3</v>
+      </c>
+      <c r="BE74">
+        <v>10.5</v>
+      </c>
+      <c r="BF74">
+        <v>4.45</v>
+      </c>
+      <c r="BG74">
+        <v>1.18</v>
+      </c>
+      <c r="BH74">
+        <v>4.5</v>
+      </c>
+      <c r="BI74">
+        <v>1.31</v>
+      </c>
+      <c r="BJ74">
+        <v>3.04</v>
+      </c>
+      <c r="BK74">
+        <v>1.56</v>
+      </c>
+      <c r="BL74">
+        <v>2.27</v>
+      </c>
+      <c r="BM74">
+        <v>1.88</v>
+      </c>
+      <c r="BN74">
+        <v>1.92</v>
+      </c>
+      <c r="BO74">
+        <v>2.49</v>
+      </c>
+      <c r="BP74">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7287083</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45422.65625</v>
+      </c>
+      <c r="F75">
+        <v>15</v>
+      </c>
+      <c r="G75" t="s">
+        <v>72</v>
+      </c>
+      <c r="H75" t="s">
+        <v>79</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75" t="s">
+        <v>82</v>
+      </c>
+      <c r="P75" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q75">
+        <v>2.63</v>
+      </c>
+      <c r="R75">
+        <v>1.95</v>
+      </c>
+      <c r="S75">
+        <v>5</v>
+      </c>
+      <c r="T75">
+        <v>1.57</v>
+      </c>
+      <c r="U75">
+        <v>2.25</v>
+      </c>
+      <c r="V75">
+        <v>3.75</v>
+      </c>
+      <c r="W75">
+        <v>1.25</v>
+      </c>
+      <c r="X75">
+        <v>11</v>
+      </c>
+      <c r="Y75">
+        <v>1.05</v>
+      </c>
+      <c r="Z75">
+        <v>1.91</v>
+      </c>
+      <c r="AA75">
+        <v>3</v>
+      </c>
+      <c r="AB75">
+        <v>4.75</v>
+      </c>
+      <c r="AC75">
+        <v>1.11</v>
+      </c>
+      <c r="AD75">
+        <v>6.25</v>
+      </c>
+      <c r="AE75">
+        <v>1.5</v>
+      </c>
+      <c r="AF75">
+        <v>2.4</v>
+      </c>
+      <c r="AG75">
+        <v>2.6</v>
+      </c>
+      <c r="AH75">
+        <v>1.48</v>
+      </c>
+      <c r="AI75">
+        <v>2.2</v>
+      </c>
+      <c r="AJ75">
+        <v>1.62</v>
+      </c>
+      <c r="AK75">
+        <v>1.19</v>
+      </c>
+      <c r="AL75">
+        <v>1.35</v>
+      </c>
+      <c r="AM75">
+        <v>1.75</v>
+      </c>
+      <c r="AN75">
+        <v>1.14</v>
+      </c>
+      <c r="AO75">
+        <v>1.17</v>
+      </c>
+      <c r="AP75">
+        <v>1.13</v>
+      </c>
+      <c r="AQ75">
+        <v>1.14</v>
+      </c>
+      <c r="AR75">
+        <v>1.23</v>
+      </c>
+      <c r="AS75">
+        <v>1.15</v>
+      </c>
+      <c r="AT75">
+        <v>2.38</v>
+      </c>
+      <c r="AU75">
+        <v>4</v>
+      </c>
+      <c r="AV75">
+        <v>2</v>
+      </c>
+      <c r="AW75">
+        <v>10</v>
+      </c>
+      <c r="AX75">
+        <v>4</v>
+      </c>
+      <c r="AY75">
+        <v>14</v>
+      </c>
+      <c r="AZ75">
+        <v>6</v>
+      </c>
+      <c r="BA75">
+        <v>5</v>
+      </c>
+      <c r="BB75">
+        <v>3</v>
+      </c>
+      <c r="BC75">
+        <v>8</v>
+      </c>
+      <c r="BD75">
+        <v>1.62</v>
+      </c>
+      <c r="BE75">
+        <v>7.7</v>
+      </c>
+      <c r="BF75">
+        <v>2.91</v>
+      </c>
+      <c r="BG75">
+        <v>1.2</v>
+      </c>
+      <c r="BH75">
+        <v>3.88</v>
+      </c>
+      <c r="BI75">
+        <v>1.4</v>
+      </c>
+      <c r="BJ75">
+        <v>2.72</v>
+      </c>
+      <c r="BK75">
+        <v>2</v>
+      </c>
+      <c r="BL75">
+        <v>2.05</v>
+      </c>
+      <c r="BM75">
+        <v>2.16</v>
+      </c>
+      <c r="BN75">
+        <v>1.62</v>
+      </c>
+      <c r="BO75">
+        <v>2.84</v>
+      </c>
+      <c r="BP75">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7287084</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45422.65625</v>
+      </c>
+      <c r="F76">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s">
+        <v>77</v>
+      </c>
+      <c r="H76" t="s">
+        <v>75</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+      <c r="O76" t="s">
+        <v>125</v>
+      </c>
+      <c r="P76" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q76">
+        <v>2.3</v>
+      </c>
+      <c r="R76">
+        <v>2.1</v>
+      </c>
+      <c r="S76">
+        <v>6</v>
+      </c>
+      <c r="T76">
+        <v>1.5</v>
+      </c>
+      <c r="U76">
+        <v>2.5</v>
+      </c>
+      <c r="V76">
+        <v>3.4</v>
+      </c>
+      <c r="W76">
+        <v>1.3</v>
+      </c>
+      <c r="X76">
+        <v>10</v>
+      </c>
+      <c r="Y76">
+        <v>1.06</v>
+      </c>
+      <c r="Z76">
+        <v>1.65</v>
+      </c>
+      <c r="AA76">
+        <v>3.6</v>
+      </c>
+      <c r="AB76">
+        <v>5.25</v>
+      </c>
+      <c r="AC76">
+        <v>1.07</v>
+      </c>
+      <c r="AD76">
+        <v>8</v>
+      </c>
+      <c r="AE76">
+        <v>1.4</v>
+      </c>
+      <c r="AF76">
+        <v>2.9</v>
+      </c>
+      <c r="AG76">
+        <v>2.2</v>
+      </c>
+      <c r="AH76">
+        <v>1.65</v>
+      </c>
+      <c r="AI76">
+        <v>2.1</v>
+      </c>
+      <c r="AJ76">
+        <v>1.67</v>
+      </c>
+      <c r="AK76">
+        <v>1.17</v>
+      </c>
+      <c r="AL76">
+        <v>1.25</v>
+      </c>
+      <c r="AM76">
+        <v>2</v>
+      </c>
+      <c r="AN76">
+        <v>2</v>
+      </c>
+      <c r="AO76">
+        <v>0.29</v>
+      </c>
+      <c r="AP76">
+        <v>1.88</v>
+      </c>
+      <c r="AQ76">
+        <v>0.38</v>
+      </c>
+      <c r="AR76">
+        <v>1.05</v>
+      </c>
+      <c r="AS76">
+        <v>1.12</v>
+      </c>
+      <c r="AT76">
+        <v>2.17</v>
+      </c>
+      <c r="AU76">
+        <v>6</v>
+      </c>
+      <c r="AV76">
+        <v>6</v>
+      </c>
+      <c r="AW76">
+        <v>11</v>
+      </c>
+      <c r="AX76">
+        <v>5</v>
+      </c>
+      <c r="AY76">
+        <v>17</v>
+      </c>
+      <c r="AZ76">
+        <v>11</v>
+      </c>
+      <c r="BA76">
+        <v>8</v>
+      </c>
+      <c r="BB76">
+        <v>5</v>
+      </c>
+      <c r="BC76">
+        <v>13</v>
+      </c>
+      <c r="BD76">
+        <v>1.51</v>
+      </c>
+      <c r="BE76">
+        <v>7.7</v>
+      </c>
+      <c r="BF76">
+        <v>3.35</v>
+      </c>
+      <c r="BG76">
+        <v>1.27</v>
+      </c>
+      <c r="BH76">
+        <v>3.28</v>
+      </c>
+      <c r="BI76">
+        <v>1.53</v>
+      </c>
+      <c r="BJ76">
+        <v>2.34</v>
+      </c>
+      <c r="BK76">
+        <v>1.92</v>
+      </c>
+      <c r="BL76">
+        <v>1.82</v>
+      </c>
+      <c r="BM76">
+        <v>2.49</v>
+      </c>
+      <c r="BN76">
+        <v>1.47</v>
+      </c>
+      <c r="BO76">
+        <v>3.34</v>
+      </c>
+      <c r="BP76">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7287082</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45422.65625</v>
+      </c>
+      <c r="F77">
+        <v>15</v>
+      </c>
+      <c r="G77" t="s">
+        <v>71</v>
+      </c>
+      <c r="H77" t="s">
+        <v>70</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>126</v>
+      </c>
+      <c r="P77" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q77">
+        <v>2.1</v>
+      </c>
+      <c r="R77">
+        <v>2.2</v>
+      </c>
+      <c r="S77">
+        <v>6.5</v>
+      </c>
+      <c r="T77">
+        <v>1.44</v>
+      </c>
+      <c r="U77">
+        <v>2.63</v>
+      </c>
+      <c r="V77">
+        <v>3.25</v>
+      </c>
+      <c r="W77">
+        <v>1.33</v>
+      </c>
+      <c r="X77">
+        <v>9</v>
+      </c>
+      <c r="Y77">
+        <v>1.07</v>
+      </c>
+      <c r="Z77">
+        <v>1.53</v>
+      </c>
+      <c r="AA77">
+        <v>4</v>
+      </c>
+      <c r="AB77">
+        <v>6.5</v>
+      </c>
+      <c r="AC77">
+        <v>1.06</v>
+      </c>
+      <c r="AD77">
+        <v>8.5</v>
+      </c>
+      <c r="AE77">
+        <v>1.35</v>
+      </c>
+      <c r="AF77">
+        <v>3.1</v>
+      </c>
+      <c r="AG77">
+        <v>2.08</v>
+      </c>
+      <c r="AH77">
+        <v>1.73</v>
+      </c>
+      <c r="AI77">
+        <v>2.2</v>
+      </c>
+      <c r="AJ77">
+        <v>1.62</v>
+      </c>
+      <c r="AK77">
+        <v>1.15</v>
+      </c>
+      <c r="AL77">
+        <v>1.24</v>
+      </c>
+      <c r="AM77">
+        <v>2.1</v>
+      </c>
+      <c r="AN77">
+        <v>2</v>
+      </c>
+      <c r="AO77">
+        <v>1.5</v>
+      </c>
+      <c r="AP77">
+        <v>2.11</v>
+      </c>
+      <c r="AQ77">
+        <v>1.29</v>
+      </c>
+      <c r="AR77">
+        <v>1.34</v>
+      </c>
+      <c r="AS77">
+        <v>1.08</v>
+      </c>
+      <c r="AT77">
+        <v>2.42</v>
+      </c>
+      <c r="AU77">
+        <v>5</v>
+      </c>
+      <c r="AV77">
+        <v>4</v>
+      </c>
+      <c r="AW77">
+        <v>6</v>
+      </c>
+      <c r="AX77">
+        <v>5</v>
+      </c>
+      <c r="AY77">
+        <v>11</v>
+      </c>
+      <c r="AZ77">
+        <v>9</v>
+      </c>
+      <c r="BA77">
+        <v>11</v>
+      </c>
+      <c r="BB77">
+        <v>5</v>
+      </c>
+      <c r="BC77">
+        <v>16</v>
+      </c>
+      <c r="BD77">
+        <v>1.32</v>
+      </c>
+      <c r="BE77">
+        <v>8.5</v>
+      </c>
+      <c r="BF77">
+        <v>4.66</v>
+      </c>
+      <c r="BG77">
+        <v>1.22</v>
+      </c>
+      <c r="BH77">
+        <v>3.64</v>
+      </c>
+      <c r="BI77">
+        <v>1.44</v>
+      </c>
+      <c r="BJ77">
+        <v>2.58</v>
+      </c>
+      <c r="BK77">
+        <v>2.2</v>
+      </c>
+      <c r="BL77">
+        <v>1.97</v>
+      </c>
+      <c r="BM77">
+        <v>2.25</v>
+      </c>
+      <c r="BN77">
+        <v>1.57</v>
+      </c>
+      <c r="BO77">
+        <v>2.98</v>
+      </c>
+      <c r="BP77">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7287085</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45422.65625</v>
+      </c>
+      <c r="F78">
+        <v>15</v>
+      </c>
+      <c r="G78" t="s">
+        <v>73</v>
+      </c>
+      <c r="H78" t="s">
+        <v>76</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>3</v>
+      </c>
+      <c r="L78">
+        <v>4</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>5</v>
+      </c>
+      <c r="O78" t="s">
+        <v>127</v>
+      </c>
+      <c r="P78" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q78">
+        <v>3.2</v>
+      </c>
+      <c r="R78">
+        <v>1.95</v>
+      </c>
+      <c r="S78">
+        <v>4</v>
+      </c>
+      <c r="T78">
+        <v>1.5</v>
+      </c>
+      <c r="U78">
+        <v>2.5</v>
+      </c>
+      <c r="V78">
+        <v>3.4</v>
+      </c>
+      <c r="W78">
+        <v>1.3</v>
+      </c>
+      <c r="X78">
+        <v>10</v>
+      </c>
+      <c r="Y78">
+        <v>1.06</v>
+      </c>
+      <c r="Z78">
+        <v>2.38</v>
+      </c>
+      <c r="AA78">
+        <v>3</v>
+      </c>
+      <c r="AB78">
+        <v>3.2</v>
+      </c>
+      <c r="AC78">
+        <v>1.09</v>
+      </c>
+      <c r="AD78">
+        <v>7</v>
+      </c>
+      <c r="AE78">
+        <v>1.42</v>
+      </c>
+      <c r="AF78">
+        <v>2.8</v>
+      </c>
+      <c r="AG78">
+        <v>2.4</v>
+      </c>
+      <c r="AH78">
+        <v>1.53</v>
+      </c>
+      <c r="AI78">
+        <v>2.05</v>
+      </c>
+      <c r="AJ78">
+        <v>1.7</v>
+      </c>
+      <c r="AK78">
+        <v>1.32</v>
+      </c>
+      <c r="AL78">
+        <v>1.35</v>
+      </c>
+      <c r="AM78">
+        <v>1.52</v>
+      </c>
+      <c r="AN78">
+        <v>0.83</v>
+      </c>
+      <c r="AO78">
+        <v>0.29</v>
+      </c>
+      <c r="AP78">
+        <v>1.14</v>
+      </c>
+      <c r="AQ78">
+        <v>0.25</v>
+      </c>
+      <c r="AR78">
+        <v>1.19</v>
+      </c>
+      <c r="AS78">
+        <v>0.99</v>
+      </c>
+      <c r="AT78">
+        <v>2.18</v>
+      </c>
+      <c r="AU78">
+        <v>6</v>
+      </c>
+      <c r="AV78">
+        <v>3</v>
+      </c>
+      <c r="AW78">
+        <v>1</v>
+      </c>
+      <c r="AX78">
+        <v>3</v>
+      </c>
+      <c r="AY78">
+        <v>7</v>
+      </c>
+      <c r="AZ78">
+        <v>6</v>
+      </c>
+      <c r="BA78">
+        <v>4</v>
+      </c>
+      <c r="BB78">
+        <v>5</v>
+      </c>
+      <c r="BC78">
+        <v>9</v>
+      </c>
+      <c r="BD78">
+        <v>1.65</v>
+      </c>
+      <c r="BE78">
+        <v>7.8</v>
+      </c>
+      <c r="BF78">
+        <v>2.81</v>
+      </c>
+      <c r="BG78">
+        <v>1.25</v>
+      </c>
+      <c r="BH78">
+        <v>3.42</v>
+      </c>
+      <c r="BI78">
+        <v>1.48</v>
+      </c>
+      <c r="BJ78">
+        <v>2.47</v>
+      </c>
+      <c r="BK78">
+        <v>2.25</v>
+      </c>
+      <c r="BL78">
+        <v>1.89</v>
+      </c>
+      <c r="BM78">
+        <v>2.36</v>
+      </c>
+      <c r="BN78">
+        <v>1.52</v>
+      </c>
+      <c r="BO78">
+        <v>3.18</v>
+      </c>
+      <c r="BP78">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="170">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -400,6 +400,15 @@
     <t>['2', '44', '53', '76']</t>
   </si>
   <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['24', '73']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -446,9 +455,6 @@
   </si>
   <si>
     <t>['58']</t>
-  </si>
-  <si>
-    <t>['90+1']</t>
   </si>
   <si>
     <t>['51']</t>
@@ -509,6 +515,15 @@
   </si>
   <si>
     <t>['22']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['2', '35', '61']</t>
+  </si>
+  <si>
+    <t>['4', '90+1', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -870,7 +885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP78"/>
+  <dimension ref="A1:BP83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1129,7 +1144,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1335,7 +1350,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1747,7 +1762,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2159,7 +2174,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2237,10 +2252,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2365,7 +2380,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2443,10 +2458,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ8">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2571,7 +2586,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2649,10 +2664,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2855,10 +2870,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ10">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3061,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ11">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3189,7 +3204,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3267,7 +3282,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ12">
         <v>1.63</v>
@@ -3395,7 +3410,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3476,7 +3491,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ13">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR13">
         <v>0.97</v>
@@ -3601,7 +3616,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3885,10 +3900,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>1.32</v>
@@ -4013,7 +4028,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4091,7 +4106,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ16">
         <v>1.14</v>
@@ -4297,10 +4312,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
+        <v>2</v>
+      </c>
+      <c r="AQ17">
         <v>1.88</v>
-      </c>
-      <c r="AQ17">
-        <v>1.71</v>
       </c>
       <c r="AR17">
         <v>1.23</v>
@@ -4425,7 +4440,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4631,7 +4646,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -4712,7 +4727,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ19">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR19">
         <v>1.24</v>
@@ -4915,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ20">
         <v>0.25</v>
@@ -5043,7 +5058,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5330,7 +5345,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ22">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR22">
         <v>1.39</v>
@@ -5739,10 +5754,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -5867,7 +5882,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -5945,7 +5960,7 @@
         <v>2.33</v>
       </c>
       <c r="AP25">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ25">
         <v>1.63</v>
@@ -6154,7 +6169,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6357,10 +6372,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ27">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR27">
         <v>1.35</v>
@@ -6485,7 +6500,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6566,7 +6581,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ28">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -6691,7 +6706,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -6769,7 +6784,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ29">
         <v>0.38</v>
@@ -6978,7 +6993,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ30">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7181,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
         <v>0.67</v>
@@ -7309,7 +7324,7 @@
         <v>98</v>
       </c>
       <c r="P32" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7387,7 +7402,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>0.25</v>
@@ -7515,7 +7530,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7721,7 +7736,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -7802,7 +7817,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ34">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR34">
         <v>1.27</v>
@@ -8005,7 +8020,7 @@
         <v>0.33</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ35">
         <v>0.38</v>
@@ -8133,7 +8148,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8214,7 +8229,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR36">
         <v>1.43</v>
@@ -8417,7 +8432,7 @@
         <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ37">
         <v>1.14</v>
@@ -8623,10 +8638,10 @@
         <v>0.67</v>
       </c>
       <c r="AP38">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR38">
         <v>0.99</v>
@@ -8751,7 +8766,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8832,7 +8847,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ39">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR39">
         <v>1.28</v>
@@ -8957,7 +8972,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9038,7 +9053,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ40">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR40">
         <v>1.04</v>
@@ -9163,7 +9178,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9369,7 +9384,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9447,7 +9462,7 @@
         <v>2.5</v>
       </c>
       <c r="AP42">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
         <v>1.63</v>
@@ -9575,7 +9590,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9653,10 +9668,10 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR43">
         <v>1.58</v>
@@ -9781,7 +9796,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -9859,10 +9874,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
         <v>0.87</v>
@@ -9987,7 +10002,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10065,10 +10080,10 @@
         <v>0.75</v>
       </c>
       <c r="AP45">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR45">
         <v>1.32</v>
@@ -10271,7 +10286,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ46">
         <v>0.67</v>
@@ -10480,7 +10495,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ47">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR47">
         <v>1.3</v>
@@ -11223,7 +11238,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11304,7 +11319,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ51">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR51">
         <v>1.37</v>
@@ -11429,7 +11444,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11507,7 +11522,7 @@
         <v>0.2</v>
       </c>
       <c r="AP52">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ52">
         <v>0.25</v>
@@ -11713,10 +11728,10 @@
         <v>1.4</v>
       </c>
       <c r="AP53">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ53">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR53">
         <v>1.43</v>
@@ -12125,10 +12140,10 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ55">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR55">
         <v>1.35</v>
@@ -12253,7 +12268,7 @@
         <v>113</v>
       </c>
       <c r="P56" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12537,10 +12552,10 @@
         <v>1.67</v>
       </c>
       <c r="AP57">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR57">
         <v>1</v>
@@ -12665,7 +12680,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -12743,7 +12758,7 @@
         <v>1.4</v>
       </c>
       <c r="AP58">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
         <v>1.14</v>
@@ -12949,10 +12964,10 @@
         <v>1.8</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ59">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR59">
         <v>1.21</v>
@@ -13155,7 +13170,7 @@
         <v>0.83</v>
       </c>
       <c r="AP60">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
         <v>0.67</v>
@@ -13283,7 +13298,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13364,7 +13379,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ61">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR61">
         <v>1.27</v>
@@ -13489,7 +13504,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13570,7 +13585,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ62">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR62">
         <v>1.75</v>
@@ -13982,7 +13997,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ64">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR64">
         <v>1.34</v>
@@ -14185,7 +14200,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ65">
         <v>0.38</v>
@@ -14391,7 +14406,7 @@
         <v>1.83</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ66">
         <v>1.63</v>
@@ -14519,7 +14534,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14600,7 +14615,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ67">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR67">
         <v>1.06</v>
@@ -14725,7 +14740,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -14803,10 +14818,10 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ68">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR68">
         <v>1.34</v>
@@ -14931,7 +14946,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15009,7 +15024,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69">
         <v>0.25</v>
@@ -15218,7 +15233,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ70">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR70">
         <v>1.06</v>
@@ -15343,7 +15358,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -15424,7 +15439,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ71">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR71">
         <v>1.85</v>
@@ -15627,7 +15642,7 @@
         <v>0.71</v>
       </c>
       <c r="AP72">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ72">
         <v>0.67</v>
@@ -15961,7 +15976,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16451,7 +16466,7 @@
         <v>0.29</v>
       </c>
       <c r="AP76">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ76">
         <v>0.38</v>
@@ -16660,7 +16675,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ77">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR77">
         <v>1.34</v>
@@ -16785,7 +16800,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -16942,6 +16957,1036 @@
       </c>
       <c r="BP78">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7287089</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45429.65625</v>
+      </c>
+      <c r="F79">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>77</v>
+      </c>
+      <c r="H79" t="s">
+        <v>73</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
+        <v>128</v>
+      </c>
+      <c r="P79" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q79">
+        <v>2.4</v>
+      </c>
+      <c r="R79">
+        <v>2.05</v>
+      </c>
+      <c r="S79">
+        <v>5.5</v>
+      </c>
+      <c r="T79">
+        <v>1.53</v>
+      </c>
+      <c r="U79">
+        <v>2.35</v>
+      </c>
+      <c r="V79">
+        <v>3.55</v>
+      </c>
+      <c r="W79">
+        <v>1.25</v>
+      </c>
+      <c r="X79">
+        <v>9.5</v>
+      </c>
+      <c r="Y79">
+        <v>1.04</v>
+      </c>
+      <c r="Z79">
+        <v>1.7</v>
+      </c>
+      <c r="AA79">
+        <v>3.5</v>
+      </c>
+      <c r="AB79">
+        <v>4.5</v>
+      </c>
+      <c r="AC79">
+        <v>1.08</v>
+      </c>
+      <c r="AD79">
+        <v>7.5</v>
+      </c>
+      <c r="AE79">
+        <v>1.48</v>
+      </c>
+      <c r="AF79">
+        <v>2.6</v>
+      </c>
+      <c r="AG79">
+        <v>2.3</v>
+      </c>
+      <c r="AH79">
+        <v>1.6</v>
+      </c>
+      <c r="AI79">
+        <v>2.2</v>
+      </c>
+      <c r="AJ79">
+        <v>1.62</v>
+      </c>
+      <c r="AK79">
+        <v>1.17</v>
+      </c>
+      <c r="AL79">
+        <v>1.25</v>
+      </c>
+      <c r="AM79">
+        <v>2.05</v>
+      </c>
+      <c r="AN79">
+        <v>1.88</v>
+      </c>
+      <c r="AO79">
+        <v>1.75</v>
+      </c>
+      <c r="AP79">
+        <v>2</v>
+      </c>
+      <c r="AQ79">
+        <v>1.56</v>
+      </c>
+      <c r="AR79">
+        <v>1.2</v>
+      </c>
+      <c r="AS79">
+        <v>1.04</v>
+      </c>
+      <c r="AT79">
+        <v>2.24</v>
+      </c>
+      <c r="AU79">
+        <v>7</v>
+      </c>
+      <c r="AV79">
+        <v>4</v>
+      </c>
+      <c r="AW79">
+        <v>14</v>
+      </c>
+      <c r="AX79">
+        <v>8</v>
+      </c>
+      <c r="AY79">
+        <v>21</v>
+      </c>
+      <c r="AZ79">
+        <v>12</v>
+      </c>
+      <c r="BA79">
+        <v>10</v>
+      </c>
+      <c r="BB79">
+        <v>2</v>
+      </c>
+      <c r="BC79">
+        <v>12</v>
+      </c>
+      <c r="BD79">
+        <v>1.57</v>
+      </c>
+      <c r="BE79">
+        <v>7.6</v>
+      </c>
+      <c r="BF79">
+        <v>3.1</v>
+      </c>
+      <c r="BG79">
+        <v>1.36</v>
+      </c>
+      <c r="BH79">
+        <v>2.79</v>
+      </c>
+      <c r="BI79">
+        <v>1.8</v>
+      </c>
+      <c r="BJ79">
+        <v>2</v>
+      </c>
+      <c r="BK79">
+        <v>2.16</v>
+      </c>
+      <c r="BL79">
+        <v>1.65</v>
+      </c>
+      <c r="BM79">
+        <v>2.89</v>
+      </c>
+      <c r="BN79">
+        <v>1.36</v>
+      </c>
+      <c r="BO79">
+        <v>4</v>
+      </c>
+      <c r="BP79">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7287090</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45429.65625</v>
+      </c>
+      <c r="F80">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>78</v>
+      </c>
+      <c r="H80" t="s">
+        <v>71</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80" t="s">
+        <v>82</v>
+      </c>
+      <c r="P80" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q80">
+        <v>3.75</v>
+      </c>
+      <c r="R80">
+        <v>1.95</v>
+      </c>
+      <c r="S80">
+        <v>3.2</v>
+      </c>
+      <c r="T80">
+        <v>1.55</v>
+      </c>
+      <c r="U80">
+        <v>2.3</v>
+      </c>
+      <c r="V80">
+        <v>3.65</v>
+      </c>
+      <c r="W80">
+        <v>1.25</v>
+      </c>
+      <c r="X80">
+        <v>9.4</v>
+      </c>
+      <c r="Y80">
+        <v>1.04</v>
+      </c>
+      <c r="Z80">
+        <v>2.8</v>
+      </c>
+      <c r="AA80">
+        <v>3.4</v>
+      </c>
+      <c r="AB80">
+        <v>2.3</v>
+      </c>
+      <c r="AC80">
+        <v>1.08</v>
+      </c>
+      <c r="AD80">
+        <v>7.5</v>
+      </c>
+      <c r="AE80">
+        <v>1.48</v>
+      </c>
+      <c r="AF80">
+        <v>2.6</v>
+      </c>
+      <c r="AG80">
+        <v>2.35</v>
+      </c>
+      <c r="AH80">
+        <v>1.57</v>
+      </c>
+      <c r="AI80">
+        <v>2.05</v>
+      </c>
+      <c r="AJ80">
+        <v>1.7</v>
+      </c>
+      <c r="AK80">
+        <v>1.62</v>
+      </c>
+      <c r="AL80">
+        <v>1.25</v>
+      </c>
+      <c r="AM80">
+        <v>1.35</v>
+      </c>
+      <c r="AN80">
+        <v>1.86</v>
+      </c>
+      <c r="AO80">
+        <v>1.14</v>
+      </c>
+      <c r="AP80">
+        <v>1.63</v>
+      </c>
+      <c r="AQ80">
+        <v>1.38</v>
+      </c>
+      <c r="AR80">
+        <v>1.43</v>
+      </c>
+      <c r="AS80">
+        <v>1.39</v>
+      </c>
+      <c r="AT80">
+        <v>2.82</v>
+      </c>
+      <c r="AU80">
+        <v>4</v>
+      </c>
+      <c r="AV80">
+        <v>4</v>
+      </c>
+      <c r="AW80">
+        <v>8</v>
+      </c>
+      <c r="AX80">
+        <v>8</v>
+      </c>
+      <c r="AY80">
+        <v>12</v>
+      </c>
+      <c r="AZ80">
+        <v>12</v>
+      </c>
+      <c r="BA80">
+        <v>4</v>
+      </c>
+      <c r="BB80">
+        <v>5</v>
+      </c>
+      <c r="BC80">
+        <v>9</v>
+      </c>
+      <c r="BD80">
+        <v>2.38</v>
+      </c>
+      <c r="BE80">
+        <v>7.4</v>
+      </c>
+      <c r="BF80">
+        <v>1.87</v>
+      </c>
+      <c r="BG80">
+        <v>1.25</v>
+      </c>
+      <c r="BH80">
+        <v>3.42</v>
+      </c>
+      <c r="BI80">
+        <v>1.48</v>
+      </c>
+      <c r="BJ80">
+        <v>2.47</v>
+      </c>
+      <c r="BK80">
+        <v>2</v>
+      </c>
+      <c r="BL80">
+        <v>1.8</v>
+      </c>
+      <c r="BM80">
+        <v>2.36</v>
+      </c>
+      <c r="BN80">
+        <v>1.52</v>
+      </c>
+      <c r="BO80">
+        <v>3.18</v>
+      </c>
+      <c r="BP80">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7287091</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45429.65625</v>
+      </c>
+      <c r="F81">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s">
+        <v>70</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>2</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>3</v>
+      </c>
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81" t="s">
+        <v>82</v>
+      </c>
+      <c r="P81" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q81">
+        <v>3.5</v>
+      </c>
+      <c r="R81">
+        <v>2</v>
+      </c>
+      <c r="S81">
+        <v>3.4</v>
+      </c>
+      <c r="T81">
+        <v>1.44</v>
+      </c>
+      <c r="U81">
+        <v>2.63</v>
+      </c>
+      <c r="V81">
+        <v>3.25</v>
+      </c>
+      <c r="W81">
+        <v>1.33</v>
+      </c>
+      <c r="X81">
+        <v>10</v>
+      </c>
+      <c r="Y81">
+        <v>1.06</v>
+      </c>
+      <c r="Z81">
+        <v>2.63</v>
+      </c>
+      <c r="AA81">
+        <v>3.4</v>
+      </c>
+      <c r="AB81">
+        <v>2.45</v>
+      </c>
+      <c r="AC81">
+        <v>1.06</v>
+      </c>
+      <c r="AD81">
+        <v>8.5</v>
+      </c>
+      <c r="AE81">
+        <v>1.36</v>
+      </c>
+      <c r="AF81">
+        <v>2.95</v>
+      </c>
+      <c r="AG81">
+        <v>2.25</v>
+      </c>
+      <c r="AH81">
+        <v>1.62</v>
+      </c>
+      <c r="AI81">
+        <v>1.95</v>
+      </c>
+      <c r="AJ81">
+        <v>1.8</v>
+      </c>
+      <c r="AK81">
+        <v>1.45</v>
+      </c>
+      <c r="AL81">
+        <v>1.28</v>
+      </c>
+      <c r="AM81">
+        <v>1.47</v>
+      </c>
+      <c r="AN81">
+        <v>1.25</v>
+      </c>
+      <c r="AO81">
+        <v>1.29</v>
+      </c>
+      <c r="AP81">
+        <v>1.11</v>
+      </c>
+      <c r="AQ81">
+        <v>1.5</v>
+      </c>
+      <c r="AR81">
+        <v>1.3</v>
+      </c>
+      <c r="AS81">
+        <v>1.11</v>
+      </c>
+      <c r="AT81">
+        <v>2.41</v>
+      </c>
+      <c r="AU81">
+        <v>3</v>
+      </c>
+      <c r="AV81">
+        <v>5</v>
+      </c>
+      <c r="AW81">
+        <v>4</v>
+      </c>
+      <c r="AX81">
+        <v>4</v>
+      </c>
+      <c r="AY81">
+        <v>7</v>
+      </c>
+      <c r="AZ81">
+        <v>9</v>
+      </c>
+      <c r="BA81">
+        <v>5</v>
+      </c>
+      <c r="BB81">
+        <v>2</v>
+      </c>
+      <c r="BC81">
+        <v>7</v>
+      </c>
+      <c r="BD81">
+        <v>1.7</v>
+      </c>
+      <c r="BE81">
+        <v>7.5</v>
+      </c>
+      <c r="BF81">
+        <v>2.71</v>
+      </c>
+      <c r="BG81">
+        <v>1.29</v>
+      </c>
+      <c r="BH81">
+        <v>3.3</v>
+      </c>
+      <c r="BI81">
+        <v>1.5</v>
+      </c>
+      <c r="BJ81">
+        <v>2.53</v>
+      </c>
+      <c r="BK81">
+        <v>2.1</v>
+      </c>
+      <c r="BL81">
+        <v>1.96</v>
+      </c>
+      <c r="BM81">
+        <v>2.31</v>
+      </c>
+      <c r="BN81">
+        <v>1.59</v>
+      </c>
+      <c r="BO81">
+        <v>2.9</v>
+      </c>
+      <c r="BP81">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7287087</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45429.65625</v>
+      </c>
+      <c r="F82">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>75</v>
+      </c>
+      <c r="H82" t="s">
+        <v>72</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>3</v>
+      </c>
+      <c r="N82">
+        <v>5</v>
+      </c>
+      <c r="O82" t="s">
+        <v>129</v>
+      </c>
+      <c r="P82" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q82">
+        <v>3.75</v>
+      </c>
+      <c r="R82">
+        <v>2.05</v>
+      </c>
+      <c r="S82">
+        <v>3.1</v>
+      </c>
+      <c r="T82">
+        <v>1.44</v>
+      </c>
+      <c r="U82">
+        <v>2.6</v>
+      </c>
+      <c r="V82">
+        <v>3.05</v>
+      </c>
+      <c r="W82">
+        <v>1.33</v>
+      </c>
+      <c r="X82">
+        <v>7.9</v>
+      </c>
+      <c r="Y82">
+        <v>1.05</v>
+      </c>
+      <c r="Z82">
+        <v>3</v>
+      </c>
+      <c r="AA82">
+        <v>3.4</v>
+      </c>
+      <c r="AB82">
+        <v>2.25</v>
+      </c>
+      <c r="AC82">
+        <v>1.07</v>
+      </c>
+      <c r="AD82">
+        <v>6.8</v>
+      </c>
+      <c r="AE82">
+        <v>1.33</v>
+      </c>
+      <c r="AF82">
+        <v>3</v>
+      </c>
+      <c r="AG82">
+        <v>2.2</v>
+      </c>
+      <c r="AH82">
+        <v>1.65</v>
+      </c>
+      <c r="AI82">
+        <v>1.95</v>
+      </c>
+      <c r="AJ82">
+        <v>1.8</v>
+      </c>
+      <c r="AK82">
+        <v>1.57</v>
+      </c>
+      <c r="AL82">
+        <v>1.27</v>
+      </c>
+      <c r="AM82">
+        <v>1.35</v>
+      </c>
+      <c r="AN82">
+        <v>1.71</v>
+      </c>
+      <c r="AO82">
+        <v>1.71</v>
+      </c>
+      <c r="AP82">
+        <v>1.5</v>
+      </c>
+      <c r="AQ82">
+        <v>1.88</v>
+      </c>
+      <c r="AR82">
+        <v>1.34</v>
+      </c>
+      <c r="AS82">
+        <v>1.17</v>
+      </c>
+      <c r="AT82">
+        <v>2.51</v>
+      </c>
+      <c r="AU82">
+        <v>7</v>
+      </c>
+      <c r="AV82">
+        <v>5</v>
+      </c>
+      <c r="AW82">
+        <v>8</v>
+      </c>
+      <c r="AX82">
+        <v>7</v>
+      </c>
+      <c r="AY82">
+        <v>15</v>
+      </c>
+      <c r="AZ82">
+        <v>12</v>
+      </c>
+      <c r="BA82">
+        <v>3</v>
+      </c>
+      <c r="BB82">
+        <v>6</v>
+      </c>
+      <c r="BC82">
+        <v>9</v>
+      </c>
+      <c r="BD82">
+        <v>2.14</v>
+      </c>
+      <c r="BE82">
+        <v>7.2</v>
+      </c>
+      <c r="BF82">
+        <v>2.03</v>
+      </c>
+      <c r="BG82">
+        <v>1.2</v>
+      </c>
+      <c r="BH82">
+        <v>3.88</v>
+      </c>
+      <c r="BI82">
+        <v>1.4</v>
+      </c>
+      <c r="BJ82">
+        <v>2.72</v>
+      </c>
+      <c r="BK82">
+        <v>2.2</v>
+      </c>
+      <c r="BL82">
+        <v>2.05</v>
+      </c>
+      <c r="BM82">
+        <v>2.16</v>
+      </c>
+      <c r="BN82">
+        <v>1.62</v>
+      </c>
+      <c r="BO82">
+        <v>2.84</v>
+      </c>
+      <c r="BP82">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7287088</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45429.67708333334</v>
+      </c>
+      <c r="F83">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>76</v>
+      </c>
+      <c r="H83" t="s">
+        <v>74</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83" t="s">
+        <v>130</v>
+      </c>
+      <c r="P83" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q83">
+        <v>6</v>
+      </c>
+      <c r="R83">
+        <v>2.38</v>
+      </c>
+      <c r="S83">
+        <v>2.05</v>
+      </c>
+      <c r="T83">
+        <v>1.38</v>
+      </c>
+      <c r="U83">
+        <v>2.8</v>
+      </c>
+      <c r="V83">
+        <v>2.75</v>
+      </c>
+      <c r="W83">
+        <v>1.4</v>
+      </c>
+      <c r="X83">
+        <v>6.95</v>
+      </c>
+      <c r="Y83">
+        <v>1.08</v>
+      </c>
+      <c r="Z83">
+        <v>5.5</v>
+      </c>
+      <c r="AA83">
+        <v>4.2</v>
+      </c>
+      <c r="AB83">
+        <v>1.53</v>
+      </c>
+      <c r="AC83">
+        <v>1.05</v>
+      </c>
+      <c r="AD83">
+        <v>9.5</v>
+      </c>
+      <c r="AE83">
+        <v>1.28</v>
+      </c>
+      <c r="AF83">
+        <v>3.55</v>
+      </c>
+      <c r="AG83">
+        <v>1.75</v>
+      </c>
+      <c r="AH83">
+        <v>2.05</v>
+      </c>
+      <c r="AI83">
+        <v>1.91</v>
+      </c>
+      <c r="AJ83">
+        <v>1.91</v>
+      </c>
+      <c r="AK83">
+        <v>2.15</v>
+      </c>
+      <c r="AL83">
+        <v>1.2</v>
+      </c>
+      <c r="AM83">
+        <v>1.17</v>
+      </c>
+      <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
+        <v>1.5</v>
+      </c>
+      <c r="AP83">
+        <v>1.25</v>
+      </c>
+      <c r="AQ83">
+        <v>1.33</v>
+      </c>
+      <c r="AR83">
+        <v>1.34</v>
+      </c>
+      <c r="AS83">
+        <v>1.52</v>
+      </c>
+      <c r="AT83">
+        <v>2.86</v>
+      </c>
+      <c r="AU83">
+        <v>3</v>
+      </c>
+      <c r="AV83">
+        <v>2</v>
+      </c>
+      <c r="AW83">
+        <v>12</v>
+      </c>
+      <c r="AX83">
+        <v>8</v>
+      </c>
+      <c r="AY83">
+        <v>15</v>
+      </c>
+      <c r="AZ83">
+        <v>10</v>
+      </c>
+      <c r="BA83">
+        <v>2</v>
+      </c>
+      <c r="BB83">
+        <v>2</v>
+      </c>
+      <c r="BC83">
+        <v>4</v>
+      </c>
+      <c r="BD83">
+        <v>2.91</v>
+      </c>
+      <c r="BE83">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF83">
+        <v>1.6</v>
+      </c>
+      <c r="BG83">
+        <v>1.22</v>
+      </c>
+      <c r="BH83">
+        <v>3.65</v>
+      </c>
+      <c r="BI83">
+        <v>1.43</v>
+      </c>
+      <c r="BJ83">
+        <v>2.62</v>
+      </c>
+      <c r="BK83">
+        <v>2.25</v>
+      </c>
+      <c r="BL83">
+        <v>1.98</v>
+      </c>
+      <c r="BM83">
+        <v>2.23</v>
+      </c>
+      <c r="BN83">
+        <v>1.58</v>
+      </c>
+      <c r="BO83">
+        <v>2.93</v>
+      </c>
+      <c r="BP83">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="172">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,9 @@
     <t>['90+1']</t>
   </si>
   <si>
+    <t>['7']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -524,6 +527,9 @@
   </si>
   <si>
     <t>['4', '90+1', '90+4']</t>
+  </si>
+  <si>
+    <t>['14', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -885,7 +891,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP83"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1144,7 +1150,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1350,7 +1356,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1762,7 +1768,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1843,7 +1849,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ5">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2046,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ6">
         <v>0.25</v>
@@ -2174,7 +2180,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2380,7 +2386,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2586,7 +2592,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2870,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ10">
         <v>1.5</v>
@@ -3079,7 +3085,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ11">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3204,7 +3210,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3285,7 +3291,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ12">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR12">
         <v>1</v>
@@ -3410,7 +3416,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3616,7 +3622,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4028,7 +4034,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4440,7 +4446,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4646,7 +4652,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -4724,10 +4730,10 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ19">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR19">
         <v>1.24</v>
@@ -4930,7 +4936,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ20">
         <v>0.25</v>
@@ -5058,7 +5064,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5139,7 +5145,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ21">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR21">
         <v>1.54</v>
@@ -5882,7 +5888,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -5960,10 +5966,10 @@
         <v>2.33</v>
       </c>
       <c r="AP25">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ25">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR25">
         <v>1.56</v>
@@ -6500,7 +6506,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6581,7 +6587,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ28">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -6706,7 +6712,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -7530,7 +7536,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7736,7 +7742,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -7814,7 +7820,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ34">
         <v>1.5</v>
@@ -8148,7 +8154,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8432,7 +8438,7 @@
         <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ37">
         <v>1.14</v>
@@ -8641,7 +8647,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR38">
         <v>0.99</v>
@@ -8766,7 +8772,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8972,7 +8978,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9178,7 +9184,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9384,7 +9390,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9465,7 +9471,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR42">
         <v>1.38</v>
@@ -9590,7 +9596,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9668,7 +9674,7 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ43">
         <v>1.33</v>
@@ -9796,7 +9802,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10002,7 +10008,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10083,7 +10089,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR45">
         <v>1.32</v>
@@ -10698,7 +10704,7 @@
         <v>1.75</v>
       </c>
       <c r="AP48">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ48">
         <v>1.14</v>
@@ -11238,7 +11244,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11444,7 +11450,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11728,7 +11734,7 @@
         <v>1.4</v>
       </c>
       <c r="AP53">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ53">
         <v>1.56</v>
@@ -11937,7 +11943,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ54">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -12268,7 +12274,7 @@
         <v>113</v>
       </c>
       <c r="P56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12680,7 +12686,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13298,7 +13304,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13379,7 +13385,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ61">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR61">
         <v>1.27</v>
@@ -13504,7 +13510,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13582,7 +13588,7 @@
         <v>1.6</v>
       </c>
       <c r="AP62">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ62">
         <v>1.88</v>
@@ -13788,7 +13794,7 @@
         <v>0.4</v>
       </c>
       <c r="AP63">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ63">
         <v>0.38</v>
@@ -13997,7 +14003,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ64">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR64">
         <v>1.34</v>
@@ -14200,7 +14206,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ65">
         <v>0.38</v>
@@ -14409,7 +14415,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ66">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR66">
         <v>1.32</v>
@@ -14534,7 +14540,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14740,7 +14746,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -14946,7 +14952,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15358,7 +15364,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -15436,7 +15442,7 @@
         <v>1.57</v>
       </c>
       <c r="AP71">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ71">
         <v>1.56</v>
@@ -15851,7 +15857,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ73">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR73">
         <v>1.37</v>
@@ -15976,7 +15982,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16054,7 +16060,7 @@
         <v>0.63</v>
       </c>
       <c r="AP74">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ74">
         <v>0.67</v>
@@ -16800,7 +16806,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17212,7 +17218,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17290,10 +17296,10 @@
         <v>1.14</v>
       </c>
       <c r="AP80">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ80">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR80">
         <v>1.43</v>
@@ -17418,7 +17424,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17624,7 +17630,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -17987,6 +17993,418 @@
       </c>
       <c r="BP83">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7287132</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45432.65625</v>
+      </c>
+      <c r="F84">
+        <v>25</v>
+      </c>
+      <c r="G84" t="s">
+        <v>78</v>
+      </c>
+      <c r="H84" t="s">
+        <v>77</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84" t="s">
+        <v>128</v>
+      </c>
+      <c r="P84" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q84">
+        <v>3.5</v>
+      </c>
+      <c r="R84">
+        <v>1.91</v>
+      </c>
+      <c r="S84">
+        <v>3.6</v>
+      </c>
+      <c r="T84">
+        <v>1.57</v>
+      </c>
+      <c r="U84">
+        <v>2.25</v>
+      </c>
+      <c r="V84">
+        <v>3.6</v>
+      </c>
+      <c r="W84">
+        <v>1.25</v>
+      </c>
+      <c r="X84">
+        <v>9</v>
+      </c>
+      <c r="Y84">
+        <v>1.05</v>
+      </c>
+      <c r="Z84">
+        <v>2.63</v>
+      </c>
+      <c r="AA84">
+        <v>2.9</v>
+      </c>
+      <c r="AB84">
+        <v>2.8</v>
+      </c>
+      <c r="AC84">
+        <v>1.08</v>
+      </c>
+      <c r="AD84">
+        <v>2.64</v>
+      </c>
+      <c r="AE84">
+        <v>1.48</v>
+      </c>
+      <c r="AF84">
+        <v>2.4</v>
+      </c>
+      <c r="AG84">
+        <v>2.5</v>
+      </c>
+      <c r="AH84">
+        <v>1.48</v>
+      </c>
+      <c r="AI84">
+        <v>2.05</v>
+      </c>
+      <c r="AJ84">
+        <v>1.7</v>
+      </c>
+      <c r="AK84">
+        <v>1.41</v>
+      </c>
+      <c r="AL84">
+        <v>1.4</v>
+      </c>
+      <c r="AM84">
+        <v>1.55</v>
+      </c>
+      <c r="AN84">
+        <v>1.63</v>
+      </c>
+      <c r="AO84">
+        <v>1.63</v>
+      </c>
+      <c r="AP84">
+        <v>1.44</v>
+      </c>
+      <c r="AQ84">
+        <v>1.78</v>
+      </c>
+      <c r="AR84">
+        <v>1.41</v>
+      </c>
+      <c r="AS84">
+        <v>1.03</v>
+      </c>
+      <c r="AT84">
+        <v>2.44</v>
+      </c>
+      <c r="AU84">
+        <v>6</v>
+      </c>
+      <c r="AV84">
+        <v>5</v>
+      </c>
+      <c r="AW84">
+        <v>7</v>
+      </c>
+      <c r="AX84">
+        <v>4</v>
+      </c>
+      <c r="AY84">
+        <v>13</v>
+      </c>
+      <c r="AZ84">
+        <v>9</v>
+      </c>
+      <c r="BA84">
+        <v>7</v>
+      </c>
+      <c r="BB84">
+        <v>2</v>
+      </c>
+      <c r="BC84">
+        <v>9</v>
+      </c>
+      <c r="BD84">
+        <v>1.8</v>
+      </c>
+      <c r="BE84">
+        <v>8.6</v>
+      </c>
+      <c r="BF84">
+        <v>2.38</v>
+      </c>
+      <c r="BG84">
+        <v>1.28</v>
+      </c>
+      <c r="BH84">
+        <v>3.2</v>
+      </c>
+      <c r="BI84">
+        <v>1.54</v>
+      </c>
+      <c r="BJ84">
+        <v>2.32</v>
+      </c>
+      <c r="BK84">
+        <v>1.95</v>
+      </c>
+      <c r="BL84">
+        <v>1.8</v>
+      </c>
+      <c r="BM84">
+        <v>2.52</v>
+      </c>
+      <c r="BN84">
+        <v>1.46</v>
+      </c>
+      <c r="BO84">
+        <v>3.42</v>
+      </c>
+      <c r="BP84">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7287133</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45432.66666666666</v>
+      </c>
+      <c r="F85">
+        <v>25</v>
+      </c>
+      <c r="G85" t="s">
+        <v>74</v>
+      </c>
+      <c r="H85" t="s">
+        <v>71</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85" t="s">
+        <v>131</v>
+      </c>
+      <c r="P85" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q85">
+        <v>2.63</v>
+      </c>
+      <c r="R85">
+        <v>2.05</v>
+      </c>
+      <c r="S85">
+        <v>4.5</v>
+      </c>
+      <c r="T85">
+        <v>1.48</v>
+      </c>
+      <c r="U85">
+        <v>2.45</v>
+      </c>
+      <c r="V85">
+        <v>3.3</v>
+      </c>
+      <c r="W85">
+        <v>1.28</v>
+      </c>
+      <c r="X85">
+        <v>7.5</v>
+      </c>
+      <c r="Y85">
+        <v>1.07</v>
+      </c>
+      <c r="Z85">
+        <v>2</v>
+      </c>
+      <c r="AA85">
+        <v>3.28</v>
+      </c>
+      <c r="AB85">
+        <v>3.8</v>
+      </c>
+      <c r="AC85">
+        <v>1.05</v>
+      </c>
+      <c r="AD85">
+        <v>3</v>
+      </c>
+      <c r="AE85">
+        <v>1.44</v>
+      </c>
+      <c r="AF85">
+        <v>3</v>
+      </c>
+      <c r="AG85">
+        <v>2.2</v>
+      </c>
+      <c r="AH85">
+        <v>1.61</v>
+      </c>
+      <c r="AI85">
+        <v>1.95</v>
+      </c>
+      <c r="AJ85">
+        <v>1.8</v>
+      </c>
+      <c r="AK85">
+        <v>1.31</v>
+      </c>
+      <c r="AL85">
+        <v>1.39</v>
+      </c>
+      <c r="AM85">
+        <v>1.75</v>
+      </c>
+      <c r="AN85">
+        <v>1.63</v>
+      </c>
+      <c r="AO85">
+        <v>1.38</v>
+      </c>
+      <c r="AP85">
+        <v>1.78</v>
+      </c>
+      <c r="AQ85">
+        <v>1.22</v>
+      </c>
+      <c r="AR85">
+        <v>1.91</v>
+      </c>
+      <c r="AS85">
+        <v>1.38</v>
+      </c>
+      <c r="AT85">
+        <v>3.29</v>
+      </c>
+      <c r="AU85">
+        <v>6</v>
+      </c>
+      <c r="AV85">
+        <v>0</v>
+      </c>
+      <c r="AW85">
+        <v>11</v>
+      </c>
+      <c r="AX85">
+        <v>12</v>
+      </c>
+      <c r="AY85">
+        <v>17</v>
+      </c>
+      <c r="AZ85">
+        <v>12</v>
+      </c>
+      <c r="BA85">
+        <v>6</v>
+      </c>
+      <c r="BB85">
+        <v>5</v>
+      </c>
+      <c r="BC85">
+        <v>11</v>
+      </c>
+      <c r="BD85">
+        <v>1.76</v>
+      </c>
+      <c r="BE85">
+        <v>9.1</v>
+      </c>
+      <c r="BF85">
+        <v>2.41</v>
+      </c>
+      <c r="BG85">
+        <v>1.2</v>
+      </c>
+      <c r="BH85">
+        <v>3.9</v>
+      </c>
+      <c r="BI85">
+        <v>1.4</v>
+      </c>
+      <c r="BJ85">
+        <v>2.72</v>
+      </c>
+      <c r="BK85">
+        <v>2</v>
+      </c>
+      <c r="BL85">
+        <v>2.06</v>
+      </c>
+      <c r="BM85">
+        <v>2.14</v>
+      </c>
+      <c r="BN85">
+        <v>1.63</v>
+      </c>
+      <c r="BO85">
+        <v>2.79</v>
+      </c>
+      <c r="BP85">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="180">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -412,6 +412,18 @@
     <t>['7']</t>
   </si>
   <si>
+    <t>['55', '60', '68', '74']</t>
+  </si>
+  <si>
+    <t>['40', '90+2']</t>
+  </si>
+  <si>
+    <t>['51', '83']</t>
+  </si>
+  <si>
+    <t>['23', '72']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -530,6 +542,18 @@
   </si>
   <si>
     <t>['14', '90+6']</t>
+  </si>
+  <si>
+    <t>['21', '46']</t>
+  </si>
+  <si>
+    <t>['28', '45+6']</t>
+  </si>
+  <si>
+    <t>['18', '67']</t>
+  </si>
+  <si>
+    <t>['19', '58']</t>
   </si>
 </sst>
 </file>
@@ -891,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1150,7 +1174,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1228,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1356,7 +1380,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1434,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1640,10 +1664,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1768,7 +1792,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1846,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ5">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2052,10 +2076,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ6">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2180,7 +2204,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2386,7 +2410,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2592,7 +2616,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3210,7 +3234,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3291,7 +3315,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ12">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR12">
         <v>1</v>
@@ -3416,7 +3440,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3494,7 +3518,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
         <v>1.56</v>
@@ -3622,7 +3646,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3700,10 +3724,10 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR14">
         <v>1.63</v>
@@ -4034,7 +4058,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4115,7 +4139,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ16">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR16">
         <v>1.48</v>
@@ -4446,7 +4470,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4524,10 +4548,10 @@
         <v>1.5</v>
       </c>
       <c r="AP18">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ18">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR18">
         <v>0.95</v>
@@ -4652,7 +4676,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -4730,7 +4754,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ19">
         <v>1.22</v>
@@ -4939,7 +4963,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ20">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR20">
         <v>1.54</v>
@@ -5064,7 +5088,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5142,10 +5166,10 @@
         <v>2</v>
       </c>
       <c r="AP21">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR21">
         <v>1.54</v>
@@ -5348,7 +5372,7 @@
         <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>1.56</v>
@@ -5554,10 +5578,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR23">
         <v>1.34</v>
@@ -5888,7 +5912,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -5969,7 +5993,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ25">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR25">
         <v>1.56</v>
@@ -6172,7 +6196,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
         <v>1.33</v>
@@ -6506,7 +6530,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6584,7 +6608,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ28">
         <v>1.22</v>
@@ -6712,7 +6736,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -6793,7 +6817,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ29">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR29">
         <v>1.29</v>
@@ -6996,7 +7020,7 @@
         <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>1.88</v>
@@ -7205,7 +7229,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ31">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR31">
         <v>1.4</v>
@@ -7411,7 +7435,7 @@
         <v>2</v>
       </c>
       <c r="AQ32">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR32">
         <v>1</v>
@@ -7536,7 +7560,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7614,10 +7638,10 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ33">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR33">
         <v>1.43</v>
@@ -7742,7 +7766,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -7820,7 +7844,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ34">
         <v>1.5</v>
@@ -8029,7 +8053,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ35">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR35">
         <v>1.43</v>
@@ -8154,7 +8178,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8232,7 +8256,7 @@
         <v>1.33</v>
       </c>
       <c r="AP36">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ36">
         <v>1.33</v>
@@ -8441,7 +8465,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ37">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR37">
         <v>1.47</v>
@@ -8772,7 +8796,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8850,7 +8874,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ39">
         <v>1.5</v>
@@ -8978,7 +9002,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9056,7 +9080,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ40">
         <v>1.56</v>
@@ -9184,7 +9208,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9262,10 +9286,10 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ41">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR41">
         <v>1.34</v>
@@ -9390,7 +9414,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9471,7 +9495,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR42">
         <v>1.38</v>
@@ -9596,7 +9620,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9802,7 +9826,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10008,7 +10032,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10295,7 +10319,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ46">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR46">
         <v>1.26</v>
@@ -10498,7 +10522,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ47">
         <v>1.88</v>
@@ -10704,10 +10728,10 @@
         <v>1.75</v>
       </c>
       <c r="AP48">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ48">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR48">
         <v>1.59</v>
@@ -10910,10 +10934,10 @@
         <v>0.25</v>
       </c>
       <c r="AP49">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ49">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR49">
         <v>1.12</v>
@@ -11116,10 +11140,10 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ50">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR50">
         <v>1.1</v>
@@ -11244,7 +11268,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11322,7 +11346,7 @@
         <v>1.4</v>
       </c>
       <c r="AP51">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>1.33</v>
@@ -11450,7 +11474,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11531,7 +11555,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ52">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR52">
         <v>1.24</v>
@@ -11940,10 +11964,10 @@
         <v>2.2</v>
       </c>
       <c r="AP54">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ54">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -12274,7 +12298,7 @@
         <v>113</v>
       </c>
       <c r="P56" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12352,10 +12376,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR56">
         <v>1.4</v>
@@ -12686,7 +12710,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -12767,7 +12791,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR58">
         <v>1.29</v>
@@ -13179,7 +13203,7 @@
         <v>2</v>
       </c>
       <c r="AQ60">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR60">
         <v>1.01</v>
@@ -13304,7 +13328,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13382,7 +13406,7 @@
         <v>0.8</v>
       </c>
       <c r="AP61">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ61">
         <v>1.22</v>
@@ -13510,7 +13534,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13588,7 +13612,7 @@
         <v>1.6</v>
       </c>
       <c r="AP62">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ62">
         <v>1.88</v>
@@ -13794,10 +13818,10 @@
         <v>0.4</v>
       </c>
       <c r="AP63">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ63">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR63">
         <v>1.78</v>
@@ -14000,7 +14024,7 @@
         <v>1.17</v>
       </c>
       <c r="AP64">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ64">
         <v>1.22</v>
@@ -14209,7 +14233,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ65">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR65">
         <v>1.39</v>
@@ -14415,7 +14439,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ66">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR66">
         <v>1.32</v>
@@ -14540,7 +14564,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14618,7 +14642,7 @@
         <v>1.57</v>
       </c>
       <c r="AP67">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ67">
         <v>1.33</v>
@@ -14746,7 +14770,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -14952,7 +14976,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15033,7 +15057,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ69">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR69">
         <v>1.37</v>
@@ -15236,7 +15260,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ70">
         <v>1.88</v>
@@ -15364,7 +15388,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -15442,7 +15466,7 @@
         <v>1.57</v>
       </c>
       <c r="AP71">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ71">
         <v>1.56</v>
@@ -15651,7 +15675,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ72">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR72">
         <v>1.34</v>
@@ -15854,10 +15878,10 @@
         <v>1.71</v>
       </c>
       <c r="AP73">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ73">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR73">
         <v>1.37</v>
@@ -15982,7 +16006,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16060,10 +16084,10 @@
         <v>0.63</v>
       </c>
       <c r="AP74">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ74">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR74">
         <v>1.85</v>
@@ -16266,10 +16290,10 @@
         <v>1.17</v>
       </c>
       <c r="AP75">
+        <v>1.33</v>
+      </c>
+      <c r="AQ75">
         <v>1.13</v>
-      </c>
-      <c r="AQ75">
-        <v>1.14</v>
       </c>
       <c r="AR75">
         <v>1.23</v>
@@ -16475,7 +16499,7 @@
         <v>2</v>
       </c>
       <c r="AQ76">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR76">
         <v>1.05</v>
@@ -16678,7 +16702,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ77">
         <v>1.5</v>
@@ -16806,7 +16830,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -16884,10 +16908,10 @@
         <v>0.29</v>
       </c>
       <c r="AP78">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ78">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR78">
         <v>1.19</v>
@@ -17218,7 +17242,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17424,7 +17448,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17630,7 +17654,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -18042,7 +18066,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18123,7 +18147,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ84">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR84">
         <v>1.41</v>
@@ -18326,7 +18350,7 @@
         <v>1.38</v>
       </c>
       <c r="AP85">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ85">
         <v>1.22</v>
@@ -18405,6 +18429,1036 @@
       </c>
       <c r="BP85">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7287095</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45435.65625</v>
+      </c>
+      <c r="F86">
+        <v>17</v>
+      </c>
+      <c r="G86" t="s">
+        <v>73</v>
+      </c>
+      <c r="H86" t="s">
+        <v>75</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>4</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>6</v>
+      </c>
+      <c r="O86" t="s">
+        <v>132</v>
+      </c>
+      <c r="P86" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q86">
+        <v>2.75</v>
+      </c>
+      <c r="R86">
+        <v>2.1</v>
+      </c>
+      <c r="S86">
+        <v>4</v>
+      </c>
+      <c r="T86">
+        <v>1.42</v>
+      </c>
+      <c r="U86">
+        <v>2.62</v>
+      </c>
+      <c r="V86">
+        <v>2.95</v>
+      </c>
+      <c r="W86">
+        <v>1.35</v>
+      </c>
+      <c r="X86">
+        <v>7.8</v>
+      </c>
+      <c r="Y86">
+        <v>1.06</v>
+      </c>
+      <c r="Z86">
+        <v>2.08</v>
+      </c>
+      <c r="AA86">
+        <v>3.46</v>
+      </c>
+      <c r="AB86">
+        <v>3.52</v>
+      </c>
+      <c r="AC86">
+        <v>1.07</v>
+      </c>
+      <c r="AD86">
+        <v>8</v>
+      </c>
+      <c r="AE86">
+        <v>1.35</v>
+      </c>
+      <c r="AF86">
+        <v>3.1</v>
+      </c>
+      <c r="AG86">
+        <v>2.06</v>
+      </c>
+      <c r="AH86">
+        <v>1.77</v>
+      </c>
+      <c r="AI86">
+        <v>1.8</v>
+      </c>
+      <c r="AJ86">
+        <v>1.95</v>
+      </c>
+      <c r="AK86">
+        <v>1.33</v>
+      </c>
+      <c r="AL86">
+        <v>1.28</v>
+      </c>
+      <c r="AM86">
+        <v>1.65</v>
+      </c>
+      <c r="AN86">
+        <v>1.14</v>
+      </c>
+      <c r="AO86">
+        <v>0.38</v>
+      </c>
+      <c r="AP86">
+        <v>1.38</v>
+      </c>
+      <c r="AQ86">
+        <v>0.33</v>
+      </c>
+      <c r="AR86">
+        <v>1.18</v>
+      </c>
+      <c r="AS86">
+        <v>1.17</v>
+      </c>
+      <c r="AT86">
+        <v>2.35</v>
+      </c>
+      <c r="AU86">
+        <v>7</v>
+      </c>
+      <c r="AV86">
+        <v>3</v>
+      </c>
+      <c r="AW86">
+        <v>4</v>
+      </c>
+      <c r="AX86">
+        <v>4</v>
+      </c>
+      <c r="AY86">
+        <v>11</v>
+      </c>
+      <c r="AZ86">
+        <v>7</v>
+      </c>
+      <c r="BA86">
+        <v>7</v>
+      </c>
+      <c r="BB86">
+        <v>1</v>
+      </c>
+      <c r="BC86">
+        <v>8</v>
+      </c>
+      <c r="BD86">
+        <v>1.6</v>
+      </c>
+      <c r="BE86">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF86">
+        <v>2.91</v>
+      </c>
+      <c r="BG86">
+        <v>1.22</v>
+      </c>
+      <c r="BH86">
+        <v>4</v>
+      </c>
+      <c r="BI86">
+        <v>1.41</v>
+      </c>
+      <c r="BJ86">
+        <v>2.8</v>
+      </c>
+      <c r="BK86">
+        <v>2.1</v>
+      </c>
+      <c r="BL86">
+        <v>2.1</v>
+      </c>
+      <c r="BM86">
+        <v>2.1</v>
+      </c>
+      <c r="BN86">
+        <v>1.69</v>
+      </c>
+      <c r="BO86">
+        <v>2.65</v>
+      </c>
+      <c r="BP86">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7287092</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45436.65625</v>
+      </c>
+      <c r="F87">
+        <v>17</v>
+      </c>
+      <c r="G87" t="s">
+        <v>70</v>
+      </c>
+      <c r="H87" t="s">
+        <v>78</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>2</v>
+      </c>
+      <c r="K87">
+        <v>3</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>4</v>
+      </c>
+      <c r="O87" t="s">
+        <v>133</v>
+      </c>
+      <c r="P87" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q87">
+        <v>3.4</v>
+      </c>
+      <c r="R87">
+        <v>2.05</v>
+      </c>
+      <c r="S87">
+        <v>3.4</v>
+      </c>
+      <c r="T87">
+        <v>1.44</v>
+      </c>
+      <c r="U87">
+        <v>2.63</v>
+      </c>
+      <c r="V87">
+        <v>3.25</v>
+      </c>
+      <c r="W87">
+        <v>1.33</v>
+      </c>
+      <c r="X87">
+        <v>10</v>
+      </c>
+      <c r="Y87">
+        <v>1.06</v>
+      </c>
+      <c r="Z87">
+        <v>2.7</v>
+      </c>
+      <c r="AA87">
+        <v>3.2</v>
+      </c>
+      <c r="AB87">
+        <v>2.63</v>
+      </c>
+      <c r="AC87">
+        <v>1.07</v>
+      </c>
+      <c r="AD87">
+        <v>8</v>
+      </c>
+      <c r="AE87">
+        <v>1.38</v>
+      </c>
+      <c r="AF87">
+        <v>2.95</v>
+      </c>
+      <c r="AG87">
+        <v>2.15</v>
+      </c>
+      <c r="AH87">
+        <v>1.67</v>
+      </c>
+      <c r="AI87">
+        <v>1.91</v>
+      </c>
+      <c r="AJ87">
+        <v>1.91</v>
+      </c>
+      <c r="AK87">
+        <v>1.44</v>
+      </c>
+      <c r="AL87">
+        <v>1.3</v>
+      </c>
+      <c r="AM87">
+        <v>1.48</v>
+      </c>
+      <c r="AN87">
+        <v>1.38</v>
+      </c>
+      <c r="AO87">
+        <v>0.67</v>
+      </c>
+      <c r="AP87">
+        <v>1.33</v>
+      </c>
+      <c r="AQ87">
+        <v>0.7</v>
+      </c>
+      <c r="AR87">
+        <v>1.13</v>
+      </c>
+      <c r="AS87">
+        <v>1.14</v>
+      </c>
+      <c r="AT87">
+        <v>2.27</v>
+      </c>
+      <c r="AU87">
+        <v>6</v>
+      </c>
+      <c r="AV87">
+        <v>3</v>
+      </c>
+      <c r="AW87">
+        <v>7</v>
+      </c>
+      <c r="AX87">
+        <v>8</v>
+      </c>
+      <c r="AY87">
+        <v>13</v>
+      </c>
+      <c r="AZ87">
+        <v>11</v>
+      </c>
+      <c r="BA87">
+        <v>13</v>
+      </c>
+      <c r="BB87">
+        <v>4</v>
+      </c>
+      <c r="BC87">
+        <v>17</v>
+      </c>
+      <c r="BD87">
+        <v>1.87</v>
+      </c>
+      <c r="BE87">
+        <v>7.4</v>
+      </c>
+      <c r="BF87">
+        <v>2.38</v>
+      </c>
+      <c r="BG87">
+        <v>1.2</v>
+      </c>
+      <c r="BH87">
+        <v>3.88</v>
+      </c>
+      <c r="BI87">
+        <v>1.4</v>
+      </c>
+      <c r="BJ87">
+        <v>2.72</v>
+      </c>
+      <c r="BK87">
+        <v>2.2</v>
+      </c>
+      <c r="BL87">
+        <v>2.05</v>
+      </c>
+      <c r="BM87">
+        <v>2.16</v>
+      </c>
+      <c r="BN87">
+        <v>1.62</v>
+      </c>
+      <c r="BO87">
+        <v>2.84</v>
+      </c>
+      <c r="BP87">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7287093</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45436.65625</v>
+      </c>
+      <c r="F88">
+        <v>17</v>
+      </c>
+      <c r="G88" t="s">
+        <v>71</v>
+      </c>
+      <c r="H88" t="s">
+        <v>79</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>2</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+      <c r="N88">
+        <v>4</v>
+      </c>
+      <c r="O88" t="s">
+        <v>134</v>
+      </c>
+      <c r="P88" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q88">
+        <v>1.91</v>
+      </c>
+      <c r="R88">
+        <v>2.3</v>
+      </c>
+      <c r="S88">
+        <v>8</v>
+      </c>
+      <c r="T88">
+        <v>1.44</v>
+      </c>
+      <c r="U88">
+        <v>2.63</v>
+      </c>
+      <c r="V88">
+        <v>3.25</v>
+      </c>
+      <c r="W88">
+        <v>1.33</v>
+      </c>
+      <c r="X88">
+        <v>9</v>
+      </c>
+      <c r="Y88">
+        <v>1.07</v>
+      </c>
+      <c r="Z88">
+        <v>1.38</v>
+      </c>
+      <c r="AA88">
+        <v>5</v>
+      </c>
+      <c r="AB88">
+        <v>7</v>
+      </c>
+      <c r="AC88">
+        <v>1.05</v>
+      </c>
+      <c r="AD88">
+        <v>9.5</v>
+      </c>
+      <c r="AE88">
+        <v>1.38</v>
+      </c>
+      <c r="AF88">
+        <v>3</v>
+      </c>
+      <c r="AG88">
+        <v>2</v>
+      </c>
+      <c r="AH88">
+        <v>1.8</v>
+      </c>
+      <c r="AI88">
+        <v>2.38</v>
+      </c>
+      <c r="AJ88">
+        <v>1.53</v>
+      </c>
+      <c r="AK88">
+        <v>1.1</v>
+      </c>
+      <c r="AL88">
+        <v>1.13</v>
+      </c>
+      <c r="AM88">
+        <v>2.85</v>
+      </c>
+      <c r="AN88">
+        <v>2.11</v>
+      </c>
+      <c r="AO88">
+        <v>1.14</v>
+      </c>
+      <c r="AP88">
+        <v>2</v>
+      </c>
+      <c r="AQ88">
+        <v>1.13</v>
+      </c>
+      <c r="AR88">
+        <v>1.38</v>
+      </c>
+      <c r="AS88">
+        <v>1.11</v>
+      </c>
+      <c r="AT88">
+        <v>2.49</v>
+      </c>
+      <c r="AU88">
+        <v>9</v>
+      </c>
+      <c r="AV88">
+        <v>4</v>
+      </c>
+      <c r="AW88">
+        <v>15</v>
+      </c>
+      <c r="AX88">
+        <v>2</v>
+      </c>
+      <c r="AY88">
+        <v>24</v>
+      </c>
+      <c r="AZ88">
+        <v>6</v>
+      </c>
+      <c r="BA88">
+        <v>9</v>
+      </c>
+      <c r="BB88">
+        <v>0</v>
+      </c>
+      <c r="BC88">
+        <v>9</v>
+      </c>
+      <c r="BD88">
+        <v>1.21</v>
+      </c>
+      <c r="BE88">
+        <v>10.5</v>
+      </c>
+      <c r="BF88">
+        <v>5.96</v>
+      </c>
+      <c r="BG88">
+        <v>1.24</v>
+      </c>
+      <c r="BH88">
+        <v>3.48</v>
+      </c>
+      <c r="BI88">
+        <v>1.47</v>
+      </c>
+      <c r="BJ88">
+        <v>2.49</v>
+      </c>
+      <c r="BK88">
+        <v>2.38</v>
+      </c>
+      <c r="BL88">
+        <v>1.9</v>
+      </c>
+      <c r="BM88">
+        <v>2.33</v>
+      </c>
+      <c r="BN88">
+        <v>1.53</v>
+      </c>
+      <c r="BO88">
+        <v>3.08</v>
+      </c>
+      <c r="BP88">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7287094</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45436.65625</v>
+      </c>
+      <c r="F89">
+        <v>17</v>
+      </c>
+      <c r="G89" t="s">
+        <v>72</v>
+      </c>
+      <c r="H89" t="s">
+        <v>76</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>135</v>
+      </c>
+      <c r="P89" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q89">
+        <v>2.63</v>
+      </c>
+      <c r="R89">
+        <v>2</v>
+      </c>
+      <c r="S89">
+        <v>5</v>
+      </c>
+      <c r="T89">
+        <v>1.48</v>
+      </c>
+      <c r="U89">
+        <v>2.45</v>
+      </c>
+      <c r="V89">
+        <v>3.2</v>
+      </c>
+      <c r="W89">
+        <v>1.3</v>
+      </c>
+      <c r="X89">
+        <v>8</v>
+      </c>
+      <c r="Y89">
+        <v>1.06</v>
+      </c>
+      <c r="Z89">
+        <v>1.85</v>
+      </c>
+      <c r="AA89">
+        <v>3.2</v>
+      </c>
+      <c r="AB89">
+        <v>4.5</v>
+      </c>
+      <c r="AC89">
+        <v>1.08</v>
+      </c>
+      <c r="AD89">
+        <v>7.5</v>
+      </c>
+      <c r="AE89">
+        <v>1.42</v>
+      </c>
+      <c r="AF89">
+        <v>2.8</v>
+      </c>
+      <c r="AG89">
+        <v>2.4</v>
+      </c>
+      <c r="AH89">
+        <v>1.53</v>
+      </c>
+      <c r="AI89">
+        <v>2.2</v>
+      </c>
+      <c r="AJ89">
+        <v>1.62</v>
+      </c>
+      <c r="AK89">
+        <v>1.22</v>
+      </c>
+      <c r="AL89">
+        <v>1.28</v>
+      </c>
+      <c r="AM89">
+        <v>1.83</v>
+      </c>
+      <c r="AN89">
+        <v>1.13</v>
+      </c>
+      <c r="AO89">
+        <v>0.25</v>
+      </c>
+      <c r="AP89">
+        <v>1.33</v>
+      </c>
+      <c r="AQ89">
+        <v>0.22</v>
+      </c>
+      <c r="AR89">
+        <v>1.27</v>
+      </c>
+      <c r="AS89">
+        <v>0.98</v>
+      </c>
+      <c r="AT89">
+        <v>2.25</v>
+      </c>
+      <c r="AU89">
+        <v>5</v>
+      </c>
+      <c r="AV89">
+        <v>0</v>
+      </c>
+      <c r="AW89">
+        <v>14</v>
+      </c>
+      <c r="AX89">
+        <v>5</v>
+      </c>
+      <c r="AY89">
+        <v>19</v>
+      </c>
+      <c r="AZ89">
+        <v>5</v>
+      </c>
+      <c r="BA89">
+        <v>6</v>
+      </c>
+      <c r="BB89">
+        <v>1</v>
+      </c>
+      <c r="BC89">
+        <v>7</v>
+      </c>
+      <c r="BD89">
+        <v>1.67</v>
+      </c>
+      <c r="BE89">
+        <v>7.7</v>
+      </c>
+      <c r="BF89">
+        <v>2.76</v>
+      </c>
+      <c r="BG89">
+        <v>1.25</v>
+      </c>
+      <c r="BH89">
+        <v>3.42</v>
+      </c>
+      <c r="BI89">
+        <v>1.49</v>
+      </c>
+      <c r="BJ89">
+        <v>2.44</v>
+      </c>
+      <c r="BK89">
+        <v>1.92</v>
+      </c>
+      <c r="BL89">
+        <v>1.88</v>
+      </c>
+      <c r="BM89">
+        <v>2.41</v>
+      </c>
+      <c r="BN89">
+        <v>1.5</v>
+      </c>
+      <c r="BO89">
+        <v>3.2</v>
+      </c>
+      <c r="BP89">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7287096</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45436.66666666666</v>
+      </c>
+      <c r="F90">
+        <v>17</v>
+      </c>
+      <c r="G90" t="s">
+        <v>74</v>
+      </c>
+      <c r="H90" t="s">
+        <v>77</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90" t="s">
+        <v>82</v>
+      </c>
+      <c r="P90" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q90">
+        <v>2.38</v>
+      </c>
+      <c r="R90">
+        <v>2.1</v>
+      </c>
+      <c r="S90">
+        <v>5.5</v>
+      </c>
+      <c r="T90">
+        <v>1.5</v>
+      </c>
+      <c r="U90">
+        <v>2.5</v>
+      </c>
+      <c r="V90">
+        <v>3.4</v>
+      </c>
+      <c r="W90">
+        <v>1.3</v>
+      </c>
+      <c r="X90">
+        <v>10</v>
+      </c>
+      <c r="Y90">
+        <v>1.06</v>
+      </c>
+      <c r="Z90">
+        <v>1.7</v>
+      </c>
+      <c r="AA90">
+        <v>3.75</v>
+      </c>
+      <c r="AB90">
+        <v>4.75</v>
+      </c>
+      <c r="AC90">
+        <v>1.07</v>
+      </c>
+      <c r="AD90">
+        <v>8</v>
+      </c>
+      <c r="AE90">
+        <v>1.4</v>
+      </c>
+      <c r="AF90">
+        <v>2.9</v>
+      </c>
+      <c r="AG90">
+        <v>2.08</v>
+      </c>
+      <c r="AH90">
+        <v>1.73</v>
+      </c>
+      <c r="AI90">
+        <v>2</v>
+      </c>
+      <c r="AJ90">
+        <v>1.75</v>
+      </c>
+      <c r="AK90">
+        <v>1.18</v>
+      </c>
+      <c r="AL90">
+        <v>1.22</v>
+      </c>
+      <c r="AM90">
+        <v>2.05</v>
+      </c>
+      <c r="AN90">
+        <v>1.78</v>
+      </c>
+      <c r="AO90">
+        <v>1.78</v>
+      </c>
+      <c r="AP90">
+        <v>1.6</v>
+      </c>
+      <c r="AQ90">
+        <v>1.9</v>
+      </c>
+      <c r="AR90">
+        <v>1.89</v>
+      </c>
+      <c r="AS90">
+        <v>1.05</v>
+      </c>
+      <c r="AT90">
+        <v>2.94</v>
+      </c>
+      <c r="AU90">
+        <v>4</v>
+      </c>
+      <c r="AV90">
+        <v>4</v>
+      </c>
+      <c r="AW90">
+        <v>14</v>
+      </c>
+      <c r="AX90">
+        <v>2</v>
+      </c>
+      <c r="AY90">
+        <v>18</v>
+      </c>
+      <c r="AZ90">
+        <v>6</v>
+      </c>
+      <c r="BA90">
+        <v>7</v>
+      </c>
+      <c r="BB90">
+        <v>3</v>
+      </c>
+      <c r="BC90">
+        <v>10</v>
+      </c>
+      <c r="BD90">
+        <v>1.29</v>
+      </c>
+      <c r="BE90">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF90">
+        <v>4.97</v>
+      </c>
+      <c r="BG90">
+        <v>1.23</v>
+      </c>
+      <c r="BH90">
+        <v>3.56</v>
+      </c>
+      <c r="BI90">
+        <v>1.44</v>
+      </c>
+      <c r="BJ90">
+        <v>2.57</v>
+      </c>
+      <c r="BK90">
+        <v>2.25</v>
+      </c>
+      <c r="BL90">
+        <v>1.98</v>
+      </c>
+      <c r="BM90">
+        <v>2.27</v>
+      </c>
+      <c r="BN90">
+        <v>1.56</v>
+      </c>
+      <c r="BO90">
+        <v>2.98</v>
+      </c>
+      <c r="BP90">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="185">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,15 @@
     <t>['23', '72']</t>
   </si>
   <si>
+    <t>['9', '71']</t>
+  </si>
+  <si>
+    <t>['35', '88']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -467,9 +476,6 @@
   </si>
   <si>
     <t>['79']</t>
-  </si>
-  <si>
-    <t>['58']</t>
   </si>
   <si>
     <t>['51']</t>
@@ -554,6 +560,15 @@
   </si>
   <si>
     <t>['19', '58']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['47', '52']</t>
+  </si>
+  <si>
+    <t>['22', '69']</t>
   </si>
 </sst>
 </file>
@@ -915,7 +930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP90"/>
+  <dimension ref="A1:BP95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1174,7 +1189,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1255,7 +1270,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1380,7 +1395,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1792,7 +1807,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1870,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ5">
         <v>1.9</v>
@@ -2204,7 +2219,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2282,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7">
         <v>1.56</v>
@@ -2410,7 +2425,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2488,10 +2503,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ8">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2616,7 +2631,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2694,10 +2709,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2900,10 +2915,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3109,7 +3124,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ11">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3234,7 +3249,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3440,7 +3455,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3646,7 +3661,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3930,10 +3945,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
         <v>1.32</v>
@@ -4058,7 +4073,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4136,10 +4151,10 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ16">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>1.48</v>
@@ -4342,10 +4357,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ17">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR17">
         <v>1.23</v>
@@ -4470,7 +4485,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4548,7 +4563,7 @@
         <v>1.5</v>
       </c>
       <c r="AP18">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ18">
         <v>0.7</v>
@@ -4676,7 +4691,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -4757,7 +4772,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ19">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR19">
         <v>1.24</v>
@@ -4960,7 +4975,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ20">
         <v>0.22</v>
@@ -5088,7 +5103,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5787,7 +5802,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -5912,7 +5927,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -5990,7 +6005,7 @@
         <v>2.33</v>
       </c>
       <c r="AP25">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ25">
         <v>1.9</v>
@@ -6199,7 +6214,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ26">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6402,7 +6417,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ27">
         <v>1.56</v>
@@ -6530,7 +6545,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6611,7 +6626,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ28">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -6736,7 +6751,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -7023,7 +7038,7 @@
         <v>2</v>
       </c>
       <c r="AQ30">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7226,7 +7241,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ31">
         <v>0.7</v>
@@ -7432,7 +7447,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ32">
         <v>0.22</v>
@@ -7560,7 +7575,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7638,10 +7653,10 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ33">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR33">
         <v>1.43</v>
@@ -7766,7 +7781,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -7847,7 +7862,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ34">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR34">
         <v>1.27</v>
@@ -8050,7 +8065,7 @@
         <v>0.33</v>
       </c>
       <c r="AP35">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ35">
         <v>0.33</v>
@@ -8178,7 +8193,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8256,10 +8271,10 @@
         <v>1.33</v>
       </c>
       <c r="AP36">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ36">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR36">
         <v>1.43</v>
@@ -8462,10 +8477,10 @@
         <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ37">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR37">
         <v>1.47</v>
@@ -8668,10 +8683,10 @@
         <v>0.67</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ38">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR38">
         <v>0.99</v>
@@ -8796,7 +8811,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8877,7 +8892,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR39">
         <v>1.28</v>
@@ -9002,7 +9017,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9208,7 +9223,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9414,7 +9429,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9492,7 +9507,7 @@
         <v>2.5</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ42">
         <v>1.9</v>
@@ -9620,7 +9635,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9698,10 +9713,10 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ43">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
         <v>1.58</v>
@@ -9826,7 +9841,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -9904,10 +9919,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR44">
         <v>0.87</v>
@@ -10032,7 +10047,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10110,10 +10125,10 @@
         <v>0.75</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ45">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR45">
         <v>1.32</v>
@@ -10316,7 +10331,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ46">
         <v>0.7</v>
@@ -10522,10 +10537,10 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ47">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR47">
         <v>1.3</v>
@@ -10731,7 +10746,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ48">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR48">
         <v>1.59</v>
@@ -11268,7 +11283,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11349,7 +11364,7 @@
         <v>2</v>
       </c>
       <c r="AQ51">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR51">
         <v>1.37</v>
@@ -11474,7 +11489,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11758,7 +11773,7 @@
         <v>1.4</v>
       </c>
       <c r="AP53">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ53">
         <v>1.56</v>
@@ -12173,7 +12188,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ55">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR55">
         <v>1.35</v>
@@ -12298,7 +12313,7 @@
         <v>113</v>
       </c>
       <c r="P56" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12582,10 +12597,10 @@
         <v>1.67</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ57">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR57">
         <v>1</v>
@@ -12710,7 +12725,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -12788,10 +12803,10 @@
         <v>1.4</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ58">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR58">
         <v>1.29</v>
@@ -12994,10 +13009,10 @@
         <v>1.8</v>
       </c>
       <c r="AP59">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ59">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR59">
         <v>1.21</v>
@@ -13200,7 +13215,7 @@
         <v>0.83</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ60">
         <v>0.7</v>
@@ -13328,7 +13343,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13406,10 +13421,10 @@
         <v>0.8</v>
       </c>
       <c r="AP61">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ61">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR61">
         <v>1.27</v>
@@ -13534,7 +13549,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13615,7 +13630,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ62">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR62">
         <v>1.75</v>
@@ -14027,7 +14042,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ64">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR64">
         <v>1.34</v>
@@ -14230,7 +14245,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ65">
         <v>0.33</v>
@@ -14436,7 +14451,7 @@
         <v>1.83</v>
       </c>
       <c r="AP66">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ66">
         <v>1.9</v>
@@ -14564,7 +14579,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14645,7 +14660,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ67">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR67">
         <v>1.06</v>
@@ -14770,7 +14785,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -14976,7 +14991,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15054,7 +15069,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ69">
         <v>0.22</v>
@@ -15263,7 +15278,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ70">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR70">
         <v>1.06</v>
@@ -15388,7 +15403,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -16006,7 +16021,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16293,7 +16308,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ75">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR75">
         <v>1.23</v>
@@ -16496,7 +16511,7 @@
         <v>0.29</v>
       </c>
       <c r="AP76">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ76">
         <v>0.33</v>
@@ -16705,7 +16720,7 @@
         <v>2</v>
       </c>
       <c r="AQ77">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR77">
         <v>1.34</v>
@@ -16830,7 +16845,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -16908,7 +16923,7 @@
         <v>0.29</v>
       </c>
       <c r="AP78">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ78">
         <v>0.22</v>
@@ -17114,7 +17129,7 @@
         <v>1.75</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ79">
         <v>1.56</v>
@@ -17242,7 +17257,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17320,10 +17335,10 @@
         <v>1.14</v>
       </c>
       <c r="AP80">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ80">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR80">
         <v>1.43</v>
@@ -17448,7 +17463,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17529,7 +17544,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ81">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR81">
         <v>1.3</v>
@@ -17654,7 +17669,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -17732,10 +17747,10 @@
         <v>1.71</v>
       </c>
       <c r="AP82">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ82">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR82">
         <v>1.34</v>
@@ -17938,10 +17953,10 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ83">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR83">
         <v>1.34</v>
@@ -18066,7 +18081,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18144,7 +18159,7 @@
         <v>1.63</v>
       </c>
       <c r="AP84">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ84">
         <v>1.9</v>
@@ -18353,7 +18368,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ85">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR85">
         <v>1.91</v>
@@ -18478,7 +18493,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18556,7 +18571,7 @@
         <v>0.38</v>
       </c>
       <c r="AP86">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ86">
         <v>0.33</v>
@@ -18684,7 +18699,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -18890,7 +18905,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -18971,7 +18986,7 @@
         <v>2</v>
       </c>
       <c r="AQ88">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR88">
         <v>1.38</v>
@@ -19302,7 +19317,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19459,6 +19474,1036 @@
       </c>
       <c r="BP90">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7287101</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45443.65625</v>
+      </c>
+      <c r="F91">
+        <v>18</v>
+      </c>
+      <c r="G91" t="s">
+        <v>73</v>
+      </c>
+      <c r="H91" t="s">
+        <v>70</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91" t="s">
+        <v>136</v>
+      </c>
+      <c r="P91" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q91">
+        <v>3.25</v>
+      </c>
+      <c r="R91">
+        <v>2.1</v>
+      </c>
+      <c r="S91">
+        <v>3.4</v>
+      </c>
+      <c r="T91">
+        <v>1.43</v>
+      </c>
+      <c r="U91">
+        <v>2.84</v>
+      </c>
+      <c r="V91">
+        <v>3.14</v>
+      </c>
+      <c r="W91">
+        <v>1.36</v>
+      </c>
+      <c r="X91">
+        <v>7.9</v>
+      </c>
+      <c r="Y91">
+        <v>1.06</v>
+      </c>
+      <c r="Z91">
+        <v>2.48</v>
+      </c>
+      <c r="AA91">
+        <v>3.38</v>
+      </c>
+      <c r="AB91">
+        <v>2.82</v>
+      </c>
+      <c r="AC91">
+        <v>1.03</v>
+      </c>
+      <c r="AD91">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE91">
+        <v>1.32</v>
+      </c>
+      <c r="AF91">
+        <v>2.98</v>
+      </c>
+      <c r="AG91">
+        <v>2.05</v>
+      </c>
+      <c r="AH91">
+        <v>1.72</v>
+      </c>
+      <c r="AI91">
+        <v>1.8</v>
+      </c>
+      <c r="AJ91">
+        <v>1.95</v>
+      </c>
+      <c r="AK91">
+        <v>1.49</v>
+      </c>
+      <c r="AL91">
+        <v>1.33</v>
+      </c>
+      <c r="AM91">
+        <v>1.48</v>
+      </c>
+      <c r="AN91">
+        <v>1.38</v>
+      </c>
+      <c r="AO91">
+        <v>1.5</v>
+      </c>
+      <c r="AP91">
+        <v>1.56</v>
+      </c>
+      <c r="AQ91">
+        <v>1.33</v>
+      </c>
+      <c r="AR91">
+        <v>1.23</v>
+      </c>
+      <c r="AS91">
+        <v>1.13</v>
+      </c>
+      <c r="AT91">
+        <v>2.36</v>
+      </c>
+      <c r="AU91">
+        <v>5</v>
+      </c>
+      <c r="AV91">
+        <v>6</v>
+      </c>
+      <c r="AW91">
+        <v>4</v>
+      </c>
+      <c r="AX91">
+        <v>9</v>
+      </c>
+      <c r="AY91">
+        <v>9</v>
+      </c>
+      <c r="AZ91">
+        <v>15</v>
+      </c>
+      <c r="BA91">
+        <v>5</v>
+      </c>
+      <c r="BB91">
+        <v>5</v>
+      </c>
+      <c r="BC91">
+        <v>10</v>
+      </c>
+      <c r="BD91">
+        <v>1.87</v>
+      </c>
+      <c r="BE91">
+        <v>7.4</v>
+      </c>
+      <c r="BF91">
+        <v>2.38</v>
+      </c>
+      <c r="BG91">
+        <v>1.22</v>
+      </c>
+      <c r="BH91">
+        <v>3.8</v>
+      </c>
+      <c r="BI91">
+        <v>1.33</v>
+      </c>
+      <c r="BJ91">
+        <v>2.93</v>
+      </c>
+      <c r="BK91">
+        <v>2</v>
+      </c>
+      <c r="BL91">
+        <v>2.19</v>
+      </c>
+      <c r="BM91">
+        <v>2.01</v>
+      </c>
+      <c r="BN91">
+        <v>1.75</v>
+      </c>
+      <c r="BO91">
+        <v>2.58</v>
+      </c>
+      <c r="BP91">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7287100</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45443.65625</v>
+      </c>
+      <c r="F92">
+        <v>18</v>
+      </c>
+      <c r="G92" t="s">
+        <v>78</v>
+      </c>
+      <c r="H92" t="s">
+        <v>72</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92" t="s">
+        <v>137</v>
+      </c>
+      <c r="P92" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q92">
+        <v>3.2</v>
+      </c>
+      <c r="R92">
+        <v>2</v>
+      </c>
+      <c r="S92">
+        <v>3.75</v>
+      </c>
+      <c r="T92">
+        <v>1.49</v>
+      </c>
+      <c r="U92">
+        <v>2.45</v>
+      </c>
+      <c r="V92">
+        <v>3.25</v>
+      </c>
+      <c r="W92">
+        <v>1.3</v>
+      </c>
+      <c r="X92">
+        <v>8.9</v>
+      </c>
+      <c r="Y92">
+        <v>1.04</v>
+      </c>
+      <c r="Z92">
+        <v>2.35</v>
+      </c>
+      <c r="AA92">
+        <v>3.26</v>
+      </c>
+      <c r="AB92">
+        <v>3.1</v>
+      </c>
+      <c r="AC92">
+        <v>1.04</v>
+      </c>
+      <c r="AD92">
+        <v>7.3</v>
+      </c>
+      <c r="AE92">
+        <v>1.42</v>
+      </c>
+      <c r="AF92">
+        <v>2.75</v>
+      </c>
+      <c r="AG92">
+        <v>2.15</v>
+      </c>
+      <c r="AH92">
+        <v>1.65</v>
+      </c>
+      <c r="AI92">
+        <v>1.95</v>
+      </c>
+      <c r="AJ92">
+        <v>1.8</v>
+      </c>
+      <c r="AK92">
+        <v>1.32</v>
+      </c>
+      <c r="AL92">
+        <v>1.32</v>
+      </c>
+      <c r="AM92">
+        <v>1.55</v>
+      </c>
+      <c r="AN92">
+        <v>1.44</v>
+      </c>
+      <c r="AO92">
+        <v>1.88</v>
+      </c>
+      <c r="AP92">
+        <v>1.6</v>
+      </c>
+      <c r="AQ92">
+        <v>1.67</v>
+      </c>
+      <c r="AR92">
+        <v>1.44</v>
+      </c>
+      <c r="AS92">
+        <v>1.2</v>
+      </c>
+      <c r="AT92">
+        <v>2.64</v>
+      </c>
+      <c r="AU92">
+        <v>3</v>
+      </c>
+      <c r="AV92">
+        <v>5</v>
+      </c>
+      <c r="AW92">
+        <v>2</v>
+      </c>
+      <c r="AX92">
+        <v>6</v>
+      </c>
+      <c r="AY92">
+        <v>5</v>
+      </c>
+      <c r="AZ92">
+        <v>11</v>
+      </c>
+      <c r="BA92">
+        <v>3</v>
+      </c>
+      <c r="BB92">
+        <v>6</v>
+      </c>
+      <c r="BC92">
+        <v>9</v>
+      </c>
+      <c r="BD92">
+        <v>1.69</v>
+      </c>
+      <c r="BE92">
+        <v>7.7</v>
+      </c>
+      <c r="BF92">
+        <v>2.71</v>
+      </c>
+      <c r="BG92">
+        <v>1.25</v>
+      </c>
+      <c r="BH92">
+        <v>3.42</v>
+      </c>
+      <c r="BI92">
+        <v>1.48</v>
+      </c>
+      <c r="BJ92">
+        <v>2.47</v>
+      </c>
+      <c r="BK92">
+        <v>2.38</v>
+      </c>
+      <c r="BL92">
+        <v>1.92</v>
+      </c>
+      <c r="BM92">
+        <v>2.36</v>
+      </c>
+      <c r="BN92">
+        <v>1.52</v>
+      </c>
+      <c r="BO92">
+        <v>3.18</v>
+      </c>
+      <c r="BP92">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7287098</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45443.65625</v>
+      </c>
+      <c r="F93">
+        <v>18</v>
+      </c>
+      <c r="G93" t="s">
+        <v>76</v>
+      </c>
+      <c r="H93" t="s">
+        <v>71</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93" t="s">
+        <v>82</v>
+      </c>
+      <c r="P93" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q93">
+        <v>4.5</v>
+      </c>
+      <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="S93">
+        <v>2.75</v>
+      </c>
+      <c r="T93">
+        <v>1.49</v>
+      </c>
+      <c r="U93">
+        <v>2.45</v>
+      </c>
+      <c r="V93">
+        <v>3.25</v>
+      </c>
+      <c r="W93">
+        <v>1.3</v>
+      </c>
+      <c r="X93">
+        <v>8.9</v>
+      </c>
+      <c r="Y93">
+        <v>1.04</v>
+      </c>
+      <c r="Z93">
+        <v>3.82</v>
+      </c>
+      <c r="AA93">
+        <v>3.35</v>
+      </c>
+      <c r="AB93">
+        <v>2.02</v>
+      </c>
+      <c r="AC93">
+        <v>1.04</v>
+      </c>
+      <c r="AD93">
+        <v>7.4</v>
+      </c>
+      <c r="AE93">
+        <v>1.42</v>
+      </c>
+      <c r="AF93">
+        <v>2.75</v>
+      </c>
+      <c r="AG93">
+        <v>2.3</v>
+      </c>
+      <c r="AH93">
+        <v>1.57</v>
+      </c>
+      <c r="AI93">
+        <v>2</v>
+      </c>
+      <c r="AJ93">
+        <v>1.75</v>
+      </c>
+      <c r="AK93">
+        <v>1.9</v>
+      </c>
+      <c r="AL93">
+        <v>1.25</v>
+      </c>
+      <c r="AM93">
+        <v>1.16</v>
+      </c>
+      <c r="AN93">
+        <v>1.25</v>
+      </c>
+      <c r="AO93">
+        <v>1.22</v>
+      </c>
+      <c r="AP93">
+        <v>1.22</v>
+      </c>
+      <c r="AQ93">
+        <v>1.2</v>
+      </c>
+      <c r="AR93">
+        <v>1.35</v>
+      </c>
+      <c r="AS93">
+        <v>1.35</v>
+      </c>
+      <c r="AT93">
+        <v>2.7</v>
+      </c>
+      <c r="AU93">
+        <v>6</v>
+      </c>
+      <c r="AV93">
+        <v>4</v>
+      </c>
+      <c r="AW93">
+        <v>5</v>
+      </c>
+      <c r="AX93">
+        <v>9</v>
+      </c>
+      <c r="AY93">
+        <v>11</v>
+      </c>
+      <c r="AZ93">
+        <v>13</v>
+      </c>
+      <c r="BA93">
+        <v>5</v>
+      </c>
+      <c r="BB93">
+        <v>9</v>
+      </c>
+      <c r="BC93">
+        <v>14</v>
+      </c>
+      <c r="BD93">
+        <v>3</v>
+      </c>
+      <c r="BE93">
+        <v>7.8</v>
+      </c>
+      <c r="BF93">
+        <v>1.59</v>
+      </c>
+      <c r="BG93">
+        <v>1.33</v>
+      </c>
+      <c r="BH93">
+        <v>2.91</v>
+      </c>
+      <c r="BI93">
+        <v>1.64</v>
+      </c>
+      <c r="BJ93">
+        <v>2.12</v>
+      </c>
+      <c r="BK93">
+        <v>2.09</v>
+      </c>
+      <c r="BL93">
+        <v>1.69</v>
+      </c>
+      <c r="BM93">
+        <v>2.76</v>
+      </c>
+      <c r="BN93">
+        <v>1.39</v>
+      </c>
+      <c r="BO93">
+        <v>3.84</v>
+      </c>
+      <c r="BP93">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7287097</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45443.65625</v>
+      </c>
+      <c r="F94">
+        <v>18</v>
+      </c>
+      <c r="G94" t="s">
+        <v>75</v>
+      </c>
+      <c r="H94" t="s">
+        <v>74</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+      <c r="O94" t="s">
+        <v>82</v>
+      </c>
+      <c r="P94" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q94">
+        <v>5.5</v>
+      </c>
+      <c r="R94">
+        <v>2.4</v>
+      </c>
+      <c r="S94">
+        <v>2.05</v>
+      </c>
+      <c r="T94">
+        <v>1.33</v>
+      </c>
+      <c r="U94">
+        <v>3.05</v>
+      </c>
+      <c r="V94">
+        <v>2.55</v>
+      </c>
+      <c r="W94">
+        <v>1.46</v>
+      </c>
+      <c r="X94">
+        <v>5.95</v>
+      </c>
+      <c r="Y94">
+        <v>1.1</v>
+      </c>
+      <c r="Z94">
+        <v>5.1</v>
+      </c>
+      <c r="AA94">
+        <v>4.2</v>
+      </c>
+      <c r="AB94">
+        <v>1.61</v>
+      </c>
+      <c r="AC94">
+        <v>1.01</v>
+      </c>
+      <c r="AD94">
+        <v>11</v>
+      </c>
+      <c r="AE94">
+        <v>1.19</v>
+      </c>
+      <c r="AF94">
+        <v>3.92</v>
+      </c>
+      <c r="AG94">
+        <v>1.7</v>
+      </c>
+      <c r="AH94">
+        <v>2.1</v>
+      </c>
+      <c r="AI94">
+        <v>1.75</v>
+      </c>
+      <c r="AJ94">
+        <v>2</v>
+      </c>
+      <c r="AK94">
+        <v>2.25</v>
+      </c>
+      <c r="AL94">
+        <v>1.2</v>
+      </c>
+      <c r="AM94">
+        <v>1.13</v>
+      </c>
+      <c r="AN94">
+        <v>1.5</v>
+      </c>
+      <c r="AO94">
+        <v>1.33</v>
+      </c>
+      <c r="AP94">
+        <v>1.33</v>
+      </c>
+      <c r="AQ94">
+        <v>1.5</v>
+      </c>
+      <c r="AR94">
+        <v>1.39</v>
+      </c>
+      <c r="AS94">
+        <v>1.48</v>
+      </c>
+      <c r="AT94">
+        <v>2.87</v>
+      </c>
+      <c r="AU94">
+        <v>4</v>
+      </c>
+      <c r="AV94">
+        <v>4</v>
+      </c>
+      <c r="AW94">
+        <v>8</v>
+      </c>
+      <c r="AX94">
+        <v>4</v>
+      </c>
+      <c r="AY94">
+        <v>12</v>
+      </c>
+      <c r="AZ94">
+        <v>8</v>
+      </c>
+      <c r="BA94">
+        <v>4</v>
+      </c>
+      <c r="BB94">
+        <v>2</v>
+      </c>
+      <c r="BC94">
+        <v>6</v>
+      </c>
+      <c r="BD94">
+        <v>4.46</v>
+      </c>
+      <c r="BE94">
+        <v>8.4</v>
+      </c>
+      <c r="BF94">
+        <v>1.34</v>
+      </c>
+      <c r="BG94">
+        <v>1.21</v>
+      </c>
+      <c r="BH94">
+        <v>3.74</v>
+      </c>
+      <c r="BI94">
+        <v>1.41</v>
+      </c>
+      <c r="BJ94">
+        <v>2.69</v>
+      </c>
+      <c r="BK94">
+        <v>2.2</v>
+      </c>
+      <c r="BL94">
+        <v>2.04</v>
+      </c>
+      <c r="BM94">
+        <v>2.17</v>
+      </c>
+      <c r="BN94">
+        <v>1.61</v>
+      </c>
+      <c r="BO94">
+        <v>2.84</v>
+      </c>
+      <c r="BP94">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7287099</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45443.65625</v>
+      </c>
+      <c r="F95">
+        <v>18</v>
+      </c>
+      <c r="G95" t="s">
+        <v>77</v>
+      </c>
+      <c r="H95" t="s">
+        <v>79</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95" t="s">
+        <v>138</v>
+      </c>
+      <c r="P95" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q95">
+        <v>2.2</v>
+      </c>
+      <c r="R95">
+        <v>2.1</v>
+      </c>
+      <c r="S95">
+        <v>6.5</v>
+      </c>
+      <c r="T95">
+        <v>1.5</v>
+      </c>
+      <c r="U95">
+        <v>2.4</v>
+      </c>
+      <c r="V95">
+        <v>3.45</v>
+      </c>
+      <c r="W95">
+        <v>1.25</v>
+      </c>
+      <c r="X95">
+        <v>7.8</v>
+      </c>
+      <c r="Y95">
+        <v>1.05</v>
+      </c>
+      <c r="Z95">
+        <v>1.59</v>
+      </c>
+      <c r="AA95">
+        <v>3.8</v>
+      </c>
+      <c r="AB95">
+        <v>6.15</v>
+      </c>
+      <c r="AC95">
+        <v>1.07</v>
+      </c>
+      <c r="AD95">
+        <v>8</v>
+      </c>
+      <c r="AE95">
+        <v>1.45</v>
+      </c>
+      <c r="AF95">
+        <v>2.7</v>
+      </c>
+      <c r="AG95">
+        <v>2.3</v>
+      </c>
+      <c r="AH95">
+        <v>1.57</v>
+      </c>
+      <c r="AI95">
+        <v>2.2</v>
+      </c>
+      <c r="AJ95">
+        <v>1.62</v>
+      </c>
+      <c r="AK95">
+        <v>1.14</v>
+      </c>
+      <c r="AL95">
+        <v>1.24</v>
+      </c>
+      <c r="AM95">
+        <v>2.1</v>
+      </c>
+      <c r="AN95">
+        <v>2</v>
+      </c>
+      <c r="AO95">
+        <v>1.13</v>
+      </c>
+      <c r="AP95">
+        <v>1.8</v>
+      </c>
+      <c r="AQ95">
+        <v>1.33</v>
+      </c>
+      <c r="AR95">
+        <v>1.31</v>
+      </c>
+      <c r="AS95">
+        <v>1.08</v>
+      </c>
+      <c r="AT95">
+        <v>2.39</v>
+      </c>
+      <c r="AU95">
+        <v>9</v>
+      </c>
+      <c r="AV95">
+        <v>4</v>
+      </c>
+      <c r="AW95">
+        <v>8</v>
+      </c>
+      <c r="AX95">
+        <v>3</v>
+      </c>
+      <c r="AY95">
+        <v>17</v>
+      </c>
+      <c r="AZ95">
+        <v>7</v>
+      </c>
+      <c r="BA95">
+        <v>7</v>
+      </c>
+      <c r="BB95">
+        <v>1</v>
+      </c>
+      <c r="BC95">
+        <v>8</v>
+      </c>
+      <c r="BD95">
+        <v>1.48</v>
+      </c>
+      <c r="BE95">
+        <v>7.5</v>
+      </c>
+      <c r="BF95">
+        <v>3.55</v>
+      </c>
+      <c r="BG95">
+        <v>1.31</v>
+      </c>
+      <c r="BH95">
+        <v>3.04</v>
+      </c>
+      <c r="BI95">
+        <v>1.59</v>
+      </c>
+      <c r="BJ95">
+        <v>2.21</v>
+      </c>
+      <c r="BK95">
+        <v>2.02</v>
+      </c>
+      <c r="BL95">
+        <v>1.74</v>
+      </c>
+      <c r="BM95">
+        <v>2.65</v>
+      </c>
+      <c r="BN95">
+        <v>1.42</v>
+      </c>
+      <c r="BO95">
+        <v>3.64</v>
+      </c>
+      <c r="BP95">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="189">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -433,6 +433,15 @@
     <t>['58']</t>
   </si>
   <si>
+    <t>['19', '43']</t>
+  </si>
+  <si>
+    <t>['27', '35']</t>
+  </si>
+  <si>
+    <t>['11', '21', '30']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -569,6 +578,9 @@
   </si>
   <si>
     <t>['22', '69']</t>
+  </si>
+  <si>
+    <t>['2', '4', '22']</t>
   </si>
 </sst>
 </file>
@@ -930,7 +942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP95"/>
+  <dimension ref="A1:BP98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1189,7 +1201,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1395,7 +1407,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1473,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ3">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1807,7 +1819,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2094,7 +2106,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ6">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2219,7 +2231,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2300,7 +2312,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ7">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2425,7 +2437,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2631,7 +2643,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2915,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ10">
         <v>1.33</v>
@@ -3121,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ11">
         <v>1.2</v>
@@ -3249,7 +3261,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3327,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ12">
         <v>1.9</v>
@@ -3455,7 +3467,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3536,7 +3548,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR13">
         <v>0.97</v>
@@ -3661,7 +3673,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3739,7 +3751,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ14">
         <v>0.7</v>
@@ -4073,7 +4085,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4485,7 +4497,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4691,7 +4703,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -4975,10 +4987,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ20">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
         <v>1.54</v>
@@ -5103,7 +5115,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5387,10 +5399,10 @@
         <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ22">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR22">
         <v>1.39</v>
@@ -5596,7 +5608,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ23">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR23">
         <v>1.34</v>
@@ -5799,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ24">
         <v>1.5</v>
@@ -5927,7 +5939,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6005,7 +6017,7 @@
         <v>2.33</v>
       </c>
       <c r="AP25">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ25">
         <v>1.9</v>
@@ -6420,7 +6432,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ27">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR27">
         <v>1.35</v>
@@ -6545,7 +6557,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6829,10 +6841,10 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ29">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR29">
         <v>1.29</v>
@@ -7035,7 +7047,7 @@
         <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ30">
         <v>1.67</v>
@@ -7450,7 +7462,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ32">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR32">
         <v>1</v>
@@ -7575,7 +7587,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7781,7 +7793,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8068,7 +8080,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ35">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR35">
         <v>1.43</v>
@@ -8193,7 +8205,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8477,7 +8489,7 @@
         <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ37">
         <v>1.33</v>
@@ -8811,7 +8823,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9017,7 +9029,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9098,7 +9110,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ40">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR40">
         <v>1.04</v>
@@ -9223,7 +9235,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9301,10 +9313,10 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ41">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR41">
         <v>1.34</v>
@@ -9429,7 +9441,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9635,7 +9647,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9713,7 +9725,7 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ43">
         <v>1.5</v>
@@ -9841,7 +9853,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10047,7 +10059,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10952,7 +10964,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ49">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR49">
         <v>1.12</v>
@@ -11158,7 +11170,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ50">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR50">
         <v>1.1</v>
@@ -11283,7 +11295,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11361,7 +11373,7 @@
         <v>1.4</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ51">
         <v>1.5</v>
@@ -11489,7 +11501,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11567,10 +11579,10 @@
         <v>0.2</v>
       </c>
       <c r="AP52">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ52">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR52">
         <v>1.24</v>
@@ -11773,10 +11785,10 @@
         <v>1.4</v>
       </c>
       <c r="AP53">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ53">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR53">
         <v>1.43</v>
@@ -12185,7 +12197,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ55">
         <v>1.67</v>
@@ -12313,7 +12325,7 @@
         <v>113</v>
       </c>
       <c r="P56" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12391,7 +12403,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ56">
         <v>0.7</v>
@@ -12725,7 +12737,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13343,7 +13355,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13549,7 +13561,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13836,7 +13848,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ63">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR63">
         <v>1.78</v>
@@ -14245,10 +14257,10 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ65">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR65">
         <v>1.39</v>
@@ -14579,7 +14591,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14785,7 +14797,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -14863,10 +14875,10 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ68">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR68">
         <v>1.34</v>
@@ -14991,7 +15003,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15072,7 +15084,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ69">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR69">
         <v>1.37</v>
@@ -15403,7 +15415,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -15484,7 +15496,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ71">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR71">
         <v>1.85</v>
@@ -15687,7 +15699,7 @@
         <v>0.71</v>
       </c>
       <c r="AP72">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ72">
         <v>0.7</v>
@@ -15893,7 +15905,7 @@
         <v>1.71</v>
       </c>
       <c r="AP73">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ73">
         <v>1.9</v>
@@ -16021,7 +16033,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16514,7 +16526,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ76">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR76">
         <v>1.05</v>
@@ -16717,7 +16729,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ77">
         <v>1.33</v>
@@ -16845,7 +16857,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -16926,7 +16938,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ78">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR78">
         <v>1.19</v>
@@ -17132,7 +17144,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ79">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR79">
         <v>1.2</v>
@@ -17257,7 +17269,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17335,7 +17347,7 @@
         <v>1.14</v>
       </c>
       <c r="AP80">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ80">
         <v>1.2</v>
@@ -17463,7 +17475,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17541,7 +17553,7 @@
         <v>1.29</v>
       </c>
       <c r="AP81">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ81">
         <v>1.33</v>
@@ -17669,7 +17681,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -18081,7 +18093,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18159,7 +18171,7 @@
         <v>1.63</v>
       </c>
       <c r="AP84">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ84">
         <v>1.9</v>
@@ -18493,7 +18505,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18574,7 +18586,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ86">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR86">
         <v>1.18</v>
@@ -18699,7 +18711,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -18905,7 +18917,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -18983,7 +18995,7 @@
         <v>1.14</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ88">
         <v>1.33</v>
@@ -19192,7 +19204,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ89">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR89">
         <v>1.27</v>
@@ -19317,7 +19329,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19729,7 +19741,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q92">
         <v>3.2</v>
@@ -19807,7 +19819,7 @@
         <v>1.88</v>
       </c>
       <c r="AP92">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ92">
         <v>1.67</v>
@@ -20141,7 +20153,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q94">
         <v>5.5</v>
@@ -20347,7 +20359,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20504,6 +20516,624 @@
       </c>
       <c r="BP95">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7287105</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45446.54166666666</v>
+      </c>
+      <c r="F96">
+        <v>19</v>
+      </c>
+      <c r="G96" t="s">
+        <v>79</v>
+      </c>
+      <c r="H96" t="s">
+        <v>75</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96" t="s">
+        <v>139</v>
+      </c>
+      <c r="P96" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q96">
+        <v>3.25</v>
+      </c>
+      <c r="R96">
+        <v>2.05</v>
+      </c>
+      <c r="S96">
+        <v>3.4</v>
+      </c>
+      <c r="T96">
+        <v>1.44</v>
+      </c>
+      <c r="U96">
+        <v>2.62</v>
+      </c>
+      <c r="V96">
+        <v>3</v>
+      </c>
+      <c r="W96">
+        <v>1.36</v>
+      </c>
+      <c r="X96">
+        <v>7.5</v>
+      </c>
+      <c r="Y96">
+        <v>1.07</v>
+      </c>
+      <c r="Z96">
+        <v>2.63</v>
+      </c>
+      <c r="AA96">
+        <v>3</v>
+      </c>
+      <c r="AB96">
+        <v>2.8</v>
+      </c>
+      <c r="AC96">
+        <v>1.04</v>
+      </c>
+      <c r="AD96">
+        <v>7.8</v>
+      </c>
+      <c r="AE96">
+        <v>1.35</v>
+      </c>
+      <c r="AF96">
+        <v>2.84</v>
+      </c>
+      <c r="AG96">
+        <v>2.1</v>
+      </c>
+      <c r="AH96">
+        <v>1.7</v>
+      </c>
+      <c r="AI96">
+        <v>1.8</v>
+      </c>
+      <c r="AJ96">
+        <v>1.95</v>
+      </c>
+      <c r="AK96">
+        <v>1.35</v>
+      </c>
+      <c r="AL96">
+        <v>1.35</v>
+      </c>
+      <c r="AM96">
+        <v>1.55</v>
+      </c>
+      <c r="AN96">
+        <v>1.11</v>
+      </c>
+      <c r="AO96">
+        <v>0.33</v>
+      </c>
+      <c r="AP96">
+        <v>1.3</v>
+      </c>
+      <c r="AQ96">
+        <v>0.3</v>
+      </c>
+      <c r="AR96">
+        <v>1.26</v>
+      </c>
+      <c r="AS96">
+        <v>1.14</v>
+      </c>
+      <c r="AT96">
+        <v>2.4</v>
+      </c>
+      <c r="AU96">
+        <v>4</v>
+      </c>
+      <c r="AV96">
+        <v>4</v>
+      </c>
+      <c r="AW96">
+        <v>7</v>
+      </c>
+      <c r="AX96">
+        <v>7</v>
+      </c>
+      <c r="AY96">
+        <v>11</v>
+      </c>
+      <c r="AZ96">
+        <v>11</v>
+      </c>
+      <c r="BA96">
+        <v>5</v>
+      </c>
+      <c r="BB96">
+        <v>2</v>
+      </c>
+      <c r="BC96">
+        <v>7</v>
+      </c>
+      <c r="BD96">
+        <v>1.77</v>
+      </c>
+      <c r="BE96">
+        <v>8.9</v>
+      </c>
+      <c r="BF96">
+        <v>2.4</v>
+      </c>
+      <c r="BG96">
+        <v>1.22</v>
+      </c>
+      <c r="BH96">
+        <v>3.64</v>
+      </c>
+      <c r="BI96">
+        <v>1.44</v>
+      </c>
+      <c r="BJ96">
+        <v>2.57</v>
+      </c>
+      <c r="BK96">
+        <v>1.79</v>
+      </c>
+      <c r="BL96">
+        <v>1.96</v>
+      </c>
+      <c r="BM96">
+        <v>2.27</v>
+      </c>
+      <c r="BN96">
+        <v>1.56</v>
+      </c>
+      <c r="BO96">
+        <v>3.04</v>
+      </c>
+      <c r="BP96">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7287106</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="F97">
+        <v>19</v>
+      </c>
+      <c r="G97" t="s">
+        <v>78</v>
+      </c>
+      <c r="H97" t="s">
+        <v>76</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97">
+        <v>3</v>
+      </c>
+      <c r="K97">
+        <v>5</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>3</v>
+      </c>
+      <c r="N97">
+        <v>5</v>
+      </c>
+      <c r="O97" t="s">
+        <v>140</v>
+      </c>
+      <c r="P97" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q97">
+        <v>2.6</v>
+      </c>
+      <c r="R97">
+        <v>2.1</v>
+      </c>
+      <c r="S97">
+        <v>4.75</v>
+      </c>
+      <c r="T97">
+        <v>1.4</v>
+      </c>
+      <c r="U97">
+        <v>2.75</v>
+      </c>
+      <c r="V97">
+        <v>2.75</v>
+      </c>
+      <c r="W97">
+        <v>1.4</v>
+      </c>
+      <c r="X97">
+        <v>7</v>
+      </c>
+      <c r="Y97">
+        <v>1.08</v>
+      </c>
+      <c r="Z97">
+        <v>1.9</v>
+      </c>
+      <c r="AA97">
+        <v>3.4</v>
+      </c>
+      <c r="AB97">
+        <v>4.2</v>
+      </c>
+      <c r="AC97">
+        <v>1.03</v>
+      </c>
+      <c r="AD97">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE97">
+        <v>1.32</v>
+      </c>
+      <c r="AF97">
+        <v>2.98</v>
+      </c>
+      <c r="AG97">
+        <v>2.15</v>
+      </c>
+      <c r="AH97">
+        <v>1.67</v>
+      </c>
+      <c r="AI97">
+        <v>1.95</v>
+      </c>
+      <c r="AJ97">
+        <v>1.8</v>
+      </c>
+      <c r="AK97">
+        <v>1.2</v>
+      </c>
+      <c r="AL97">
+        <v>1.3</v>
+      </c>
+      <c r="AM97">
+        <v>1.85</v>
+      </c>
+      <c r="AN97">
+        <v>1.6</v>
+      </c>
+      <c r="AO97">
+        <v>0.22</v>
+      </c>
+      <c r="AP97">
+        <v>1.45</v>
+      </c>
+      <c r="AQ97">
+        <v>0.5</v>
+      </c>
+      <c r="AR97">
+        <v>1.38</v>
+      </c>
+      <c r="AS97">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT97">
+        <v>2.32</v>
+      </c>
+      <c r="AU97">
+        <v>4</v>
+      </c>
+      <c r="AV97">
+        <v>8</v>
+      </c>
+      <c r="AW97">
+        <v>5</v>
+      </c>
+      <c r="AX97">
+        <v>1</v>
+      </c>
+      <c r="AY97">
+        <v>9</v>
+      </c>
+      <c r="AZ97">
+        <v>9</v>
+      </c>
+      <c r="BA97">
+        <v>4</v>
+      </c>
+      <c r="BB97">
+        <v>6</v>
+      </c>
+      <c r="BC97">
+        <v>10</v>
+      </c>
+      <c r="BD97">
+        <v>1.66</v>
+      </c>
+      <c r="BE97">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF97">
+        <v>2.65</v>
+      </c>
+      <c r="BG97">
+        <v>1.26</v>
+      </c>
+      <c r="BH97">
+        <v>3.34</v>
+      </c>
+      <c r="BI97">
+        <v>1.51</v>
+      </c>
+      <c r="BJ97">
+        <v>2.39</v>
+      </c>
+      <c r="BK97">
+        <v>1.89</v>
+      </c>
+      <c r="BL97">
+        <v>1.85</v>
+      </c>
+      <c r="BM97">
+        <v>2.44</v>
+      </c>
+      <c r="BN97">
+        <v>1.49</v>
+      </c>
+      <c r="BO97">
+        <v>3.28</v>
+      </c>
+      <c r="BP97">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7287103</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45446.58333333334</v>
+      </c>
+      <c r="F98">
+        <v>19</v>
+      </c>
+      <c r="G98" t="s">
+        <v>71</v>
+      </c>
+      <c r="H98" t="s">
+        <v>73</v>
+      </c>
+      <c r="I98">
+        <v>3</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>3</v>
+      </c>
+      <c r="L98">
+        <v>3</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>3</v>
+      </c>
+      <c r="O98" t="s">
+        <v>141</v>
+      </c>
+      <c r="P98" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q98">
+        <v>2.1</v>
+      </c>
+      <c r="R98">
+        <v>2.3</v>
+      </c>
+      <c r="S98">
+        <v>6</v>
+      </c>
+      <c r="T98">
+        <v>1.36</v>
+      </c>
+      <c r="U98">
+        <v>3</v>
+      </c>
+      <c r="V98">
+        <v>2.62</v>
+      </c>
+      <c r="W98">
+        <v>1.44</v>
+      </c>
+      <c r="X98">
+        <v>6.5</v>
+      </c>
+      <c r="Y98">
+        <v>1.1</v>
+      </c>
+      <c r="Z98">
+        <v>1.53</v>
+      </c>
+      <c r="AA98">
+        <v>4.33</v>
+      </c>
+      <c r="AB98">
+        <v>5.75</v>
+      </c>
+      <c r="AC98">
+        <v>1.02</v>
+      </c>
+      <c r="AD98">
+        <v>8.9</v>
+      </c>
+      <c r="AE98">
+        <v>1.28</v>
+      </c>
+      <c r="AF98">
+        <v>3.22</v>
+      </c>
+      <c r="AG98">
+        <v>1.9</v>
+      </c>
+      <c r="AH98">
+        <v>1.9</v>
+      </c>
+      <c r="AI98">
+        <v>2</v>
+      </c>
+      <c r="AJ98">
+        <v>1.75</v>
+      </c>
+      <c r="AK98">
+        <v>1.08</v>
+      </c>
+      <c r="AL98">
+        <v>1.22</v>
+      </c>
+      <c r="AM98">
+        <v>2.6</v>
+      </c>
+      <c r="AN98">
+        <v>2</v>
+      </c>
+      <c r="AO98">
+        <v>1.56</v>
+      </c>
+      <c r="AP98">
+        <v>2.09</v>
+      </c>
+      <c r="AQ98">
+        <v>1.4</v>
+      </c>
+      <c r="AR98">
+        <v>1.5</v>
+      </c>
+      <c r="AS98">
+        <v>1.06</v>
+      </c>
+      <c r="AT98">
+        <v>2.56</v>
+      </c>
+      <c r="AU98">
+        <v>6</v>
+      </c>
+      <c r="AV98">
+        <v>6</v>
+      </c>
+      <c r="AW98">
+        <v>5</v>
+      </c>
+      <c r="AX98">
+        <v>10</v>
+      </c>
+      <c r="AY98">
+        <v>11</v>
+      </c>
+      <c r="AZ98">
+        <v>16</v>
+      </c>
+      <c r="BA98">
+        <v>1</v>
+      </c>
+      <c r="BB98">
+        <v>3</v>
+      </c>
+      <c r="BC98">
+        <v>4</v>
+      </c>
+      <c r="BD98">
+        <v>1.3</v>
+      </c>
+      <c r="BE98">
+        <v>10.75</v>
+      </c>
+      <c r="BF98">
+        <v>4.33</v>
+      </c>
+      <c r="BG98">
+        <v>1.19</v>
+      </c>
+      <c r="BH98">
+        <v>3.94</v>
+      </c>
+      <c r="BI98">
+        <v>1.39</v>
+      </c>
+      <c r="BJ98">
+        <v>2.76</v>
+      </c>
+      <c r="BK98">
+        <v>2.38</v>
+      </c>
+      <c r="BL98">
+        <v>2.08</v>
+      </c>
+      <c r="BM98">
+        <v>2.12</v>
+      </c>
+      <c r="BN98">
+        <v>1.64</v>
+      </c>
+      <c r="BO98">
+        <v>2.75</v>
+      </c>
+      <c r="BP98">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -21079,13 +21079,13 @@
         <v>5</v>
       </c>
       <c r="AX98">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AY98">
         <v>11</v>
       </c>
       <c r="AZ98">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="BA98">
         <v>1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="192">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,6 +442,12 @@
     <t>['11', '21', '30']</t>
   </si>
   <si>
+    <t>['25', '60', '67', '87']</t>
+  </si>
+  <si>
+    <t>['65', '86']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -581,6 +587,9 @@
   </si>
   <si>
     <t>['2', '4', '22']</t>
+  </si>
+  <si>
+    <t>['86']</t>
   </si>
 </sst>
 </file>
@@ -942,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP98"/>
+  <dimension ref="A1:BP102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1201,7 +1210,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1282,7 +1291,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1407,7 +1416,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1485,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ3">
         <v>0.3</v>
@@ -1694,7 +1703,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ4">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1819,7 +1828,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1897,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ5">
         <v>1.9</v>
@@ -2106,7 +2115,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2231,7 +2240,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2309,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ7">
         <v>1.4</v>
@@ -2437,7 +2446,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2518,7 +2527,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ8">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2643,7 +2652,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2721,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ9">
         <v>1.5</v>
@@ -3261,7 +3270,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3467,7 +3476,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3673,7 +3682,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3751,10 +3760,10 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ14">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR14">
         <v>1.63</v>
@@ -3957,7 +3966,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ15">
         <v>1.33</v>
@@ -4085,7 +4094,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4166,7 +4175,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ16">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR16">
         <v>1.48</v>
@@ -4369,10 +4378,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ17">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR17">
         <v>1.23</v>
@@ -4497,7 +4506,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4575,10 +4584,10 @@
         <v>1.5</v>
       </c>
       <c r="AP18">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ18">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR18">
         <v>0.95</v>
@@ -4703,7 +4712,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -4990,7 +4999,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR20">
         <v>1.54</v>
@@ -5115,7 +5124,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5399,7 +5408,7 @@
         <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ22">
         <v>1.4</v>
@@ -5939,7 +5948,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6557,7 +6566,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -7047,10 +7056,10 @@
         <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ30">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7253,10 +7262,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ31">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR31">
         <v>1.4</v>
@@ -7459,10 +7468,10 @@
         <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ32">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR32">
         <v>1</v>
@@ -7587,7 +7596,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7665,10 +7674,10 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR33">
         <v>1.43</v>
@@ -7793,7 +7802,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8205,7 +8214,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8283,7 +8292,7 @@
         <v>1.33</v>
       </c>
       <c r="AP36">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ36">
         <v>1.5</v>
@@ -8492,7 +8501,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ37">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR37">
         <v>1.47</v>
@@ -8695,7 +8704,7 @@
         <v>0.67</v>
       </c>
       <c r="AP38">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ38">
         <v>1.2</v>
@@ -8823,7 +8832,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9029,7 +9038,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9235,7 +9244,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9313,10 +9322,10 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ41">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR41">
         <v>1.34</v>
@@ -9441,7 +9450,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9519,7 +9528,7 @@
         <v>2.5</v>
       </c>
       <c r="AP42">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ42">
         <v>1.9</v>
@@ -9647,7 +9656,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9853,7 +9862,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -9931,7 +9940,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ44">
         <v>1.33</v>
@@ -10059,7 +10068,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10137,7 +10146,7 @@
         <v>0.75</v>
       </c>
       <c r="AP45">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ45">
         <v>1.2</v>
@@ -10346,7 +10355,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ46">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR46">
         <v>1.26</v>
@@ -10549,10 +10558,10 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ47">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>1.3</v>
@@ -10758,7 +10767,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ48">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR48">
         <v>1.59</v>
@@ -10964,7 +10973,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ49">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR49">
         <v>1.12</v>
@@ -11295,7 +11304,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11373,7 +11382,7 @@
         <v>1.4</v>
       </c>
       <c r="AP51">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ51">
         <v>1.5</v>
@@ -11501,7 +11510,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11582,7 +11591,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ52">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR52">
         <v>1.24</v>
@@ -12200,7 +12209,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ55">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR55">
         <v>1.35</v>
@@ -12325,7 +12334,7 @@
         <v>113</v>
       </c>
       <c r="P56" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12403,10 +12412,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ56">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR56">
         <v>1.4</v>
@@ -12609,7 +12618,7 @@
         <v>1.67</v>
       </c>
       <c r="AP57">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ57">
         <v>1.5</v>
@@ -12737,7 +12746,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -12815,10 +12824,10 @@
         <v>1.4</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ58">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR58">
         <v>1.29</v>
@@ -13227,10 +13236,10 @@
         <v>0.83</v>
       </c>
       <c r="AP60">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ60">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR60">
         <v>1.01</v>
@@ -13355,7 +13364,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13433,7 +13442,7 @@
         <v>0.8</v>
       </c>
       <c r="AP61">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ61">
         <v>1.2</v>
@@ -13561,7 +13570,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13642,7 +13651,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ62">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR62">
         <v>1.75</v>
@@ -14591,7 +14600,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14797,7 +14806,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15003,7 +15012,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15081,10 +15090,10 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ69">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR69">
         <v>1.37</v>
@@ -15290,7 +15299,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ70">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR70">
         <v>1.06</v>
@@ -15415,7 +15424,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -15702,7 +15711,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ72">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR72">
         <v>1.34</v>
@@ -15905,7 +15914,7 @@
         <v>1.71</v>
       </c>
       <c r="AP73">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ73">
         <v>1.9</v>
@@ -16033,7 +16042,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16114,7 +16123,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ74">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR74">
         <v>1.85</v>
@@ -16320,7 +16329,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ75">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR75">
         <v>1.23</v>
@@ -16523,7 +16532,7 @@
         <v>0.29</v>
       </c>
       <c r="AP76">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ76">
         <v>0.3</v>
@@ -16729,7 +16738,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ77">
         <v>1.33</v>
@@ -16857,7 +16866,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -16935,10 +16944,10 @@
         <v>0.29</v>
       </c>
       <c r="AP78">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ78">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR78">
         <v>1.19</v>
@@ -17141,7 +17150,7 @@
         <v>1.75</v>
       </c>
       <c r="AP79">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ79">
         <v>1.4</v>
@@ -17269,7 +17278,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17475,7 +17484,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17681,7 +17690,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -17759,10 +17768,10 @@
         <v>1.71</v>
       </c>
       <c r="AP82">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ82">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR82">
         <v>1.34</v>
@@ -18093,7 +18102,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18505,7 +18514,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18583,7 +18592,7 @@
         <v>0.38</v>
       </c>
       <c r="AP86">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ86">
         <v>0.3</v>
@@ -18711,7 +18720,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -18792,7 +18801,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ87">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR87">
         <v>1.13</v>
@@ -18917,7 +18926,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -18995,10 +19004,10 @@
         <v>1.14</v>
       </c>
       <c r="AP88">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ88">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR88">
         <v>1.38</v>
@@ -19204,7 +19213,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ89">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR89">
         <v>1.27</v>
@@ -19329,7 +19338,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19613,7 +19622,7 @@
         <v>1.5</v>
       </c>
       <c r="AP91">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ91">
         <v>1.33</v>
@@ -19741,7 +19750,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q92">
         <v>3.2</v>
@@ -19822,7 +19831,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ92">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR92">
         <v>1.44</v>
@@ -20153,7 +20162,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q94">
         <v>5.5</v>
@@ -20231,7 +20240,7 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ94">
         <v>1.5</v>
@@ -20359,7 +20368,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20437,10 +20446,10 @@
         <v>1.13</v>
       </c>
       <c r="AP95">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ95">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR95">
         <v>1.31</v>
@@ -20565,7 +20574,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20771,7 +20780,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -20852,7 +20861,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ97">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR97">
         <v>1.38</v>
@@ -21055,7 +21064,7 @@
         <v>1.56</v>
       </c>
       <c r="AP98">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ98">
         <v>1.4</v>
@@ -21134,6 +21143,830 @@
       </c>
       <c r="BP98">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7287109</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45450.65625</v>
+      </c>
+      <c r="F99">
+        <v>20</v>
+      </c>
+      <c r="G99" t="s">
+        <v>77</v>
+      </c>
+      <c r="H99" t="s">
+        <v>76</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99" t="s">
+        <v>95</v>
+      </c>
+      <c r="P99" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q99">
+        <v>2.6</v>
+      </c>
+      <c r="R99">
+        <v>1.95</v>
+      </c>
+      <c r="S99">
+        <v>5.5</v>
+      </c>
+      <c r="T99">
+        <v>1.53</v>
+      </c>
+      <c r="U99">
+        <v>2.38</v>
+      </c>
+      <c r="V99">
+        <v>3.45</v>
+      </c>
+      <c r="W99">
+        <v>1.25</v>
+      </c>
+      <c r="X99">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y99">
+        <v>1.04</v>
+      </c>
+      <c r="Z99">
+        <v>1.75</v>
+      </c>
+      <c r="AA99">
+        <v>3.35</v>
+      </c>
+      <c r="AB99">
+        <v>4.8</v>
+      </c>
+      <c r="AC99">
+        <v>1.09</v>
+      </c>
+      <c r="AD99">
+        <v>7</v>
+      </c>
+      <c r="AE99">
+        <v>1.48</v>
+      </c>
+      <c r="AF99">
+        <v>2.65</v>
+      </c>
+      <c r="AG99">
+        <v>2.35</v>
+      </c>
+      <c r="AH99">
+        <v>1.52</v>
+      </c>
+      <c r="AI99">
+        <v>2.2</v>
+      </c>
+      <c r="AJ99">
+        <v>1.62</v>
+      </c>
+      <c r="AK99">
+        <v>1.17</v>
+      </c>
+      <c r="AL99">
+        <v>1.25</v>
+      </c>
+      <c r="AM99">
+        <v>2</v>
+      </c>
+      <c r="AN99">
+        <v>1.8</v>
+      </c>
+      <c r="AO99">
+        <v>0.5</v>
+      </c>
+      <c r="AP99">
+        <v>1.91</v>
+      </c>
+      <c r="AQ99">
+        <v>0.45</v>
+      </c>
+      <c r="AR99">
+        <v>1.39</v>
+      </c>
+      <c r="AS99">
+        <v>0.98</v>
+      </c>
+      <c r="AT99">
+        <v>2.37</v>
+      </c>
+      <c r="AU99">
+        <v>2</v>
+      </c>
+      <c r="AV99">
+        <v>0</v>
+      </c>
+      <c r="AW99">
+        <v>7</v>
+      </c>
+      <c r="AX99">
+        <v>6</v>
+      </c>
+      <c r="AY99">
+        <v>9</v>
+      </c>
+      <c r="AZ99">
+        <v>6</v>
+      </c>
+      <c r="BA99">
+        <v>3</v>
+      </c>
+      <c r="BB99">
+        <v>1</v>
+      </c>
+      <c r="BC99">
+        <v>4</v>
+      </c>
+      <c r="BD99">
+        <v>1.57</v>
+      </c>
+      <c r="BE99">
+        <v>7.6</v>
+      </c>
+      <c r="BF99">
+        <v>3.1</v>
+      </c>
+      <c r="BG99">
+        <v>1.42</v>
+      </c>
+      <c r="BH99">
+        <v>2.75</v>
+      </c>
+      <c r="BI99">
+        <v>1.72</v>
+      </c>
+      <c r="BJ99">
+        <v>2.05</v>
+      </c>
+      <c r="BK99">
+        <v>2.05</v>
+      </c>
+      <c r="BL99">
+        <v>1.7</v>
+      </c>
+      <c r="BM99">
+        <v>2.85</v>
+      </c>
+      <c r="BN99">
+        <v>1.4</v>
+      </c>
+      <c r="BO99">
+        <v>3.9</v>
+      </c>
+      <c r="BP99">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7287110</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45450.65625</v>
+      </c>
+      <c r="F100">
+        <v>20</v>
+      </c>
+      <c r="G100" t="s">
+        <v>73</v>
+      </c>
+      <c r="H100" t="s">
+        <v>79</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>4</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>5</v>
+      </c>
+      <c r="O100" t="s">
+        <v>142</v>
+      </c>
+      <c r="P100" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q100">
+        <v>2.75</v>
+      </c>
+      <c r="R100">
+        <v>2.05</v>
+      </c>
+      <c r="S100">
+        <v>4.33</v>
+      </c>
+      <c r="T100">
+        <v>1.48</v>
+      </c>
+      <c r="U100">
+        <v>2.5</v>
+      </c>
+      <c r="V100">
+        <v>3.1</v>
+      </c>
+      <c r="W100">
+        <v>1.33</v>
+      </c>
+      <c r="X100">
+        <v>8.4</v>
+      </c>
+      <c r="Y100">
+        <v>1.05</v>
+      </c>
+      <c r="Z100">
+        <v>2</v>
+      </c>
+      <c r="AA100">
+        <v>3.25</v>
+      </c>
+      <c r="AB100">
+        <v>3.8</v>
+      </c>
+      <c r="AC100">
+        <v>1.08</v>
+      </c>
+      <c r="AD100">
+        <v>7.5</v>
+      </c>
+      <c r="AE100">
+        <v>1.4</v>
+      </c>
+      <c r="AF100">
+        <v>2.9</v>
+      </c>
+      <c r="AG100">
+        <v>2.14</v>
+      </c>
+      <c r="AH100">
+        <v>1.63</v>
+      </c>
+      <c r="AI100">
+        <v>1.95</v>
+      </c>
+      <c r="AJ100">
+        <v>1.8</v>
+      </c>
+      <c r="AK100">
+        <v>1.25</v>
+      </c>
+      <c r="AL100">
+        <v>1.28</v>
+      </c>
+      <c r="AM100">
+        <v>1.77</v>
+      </c>
+      <c r="AN100">
+        <v>1.56</v>
+      </c>
+      <c r="AO100">
+        <v>1.33</v>
+      </c>
+      <c r="AP100">
+        <v>1.7</v>
+      </c>
+      <c r="AQ100">
+        <v>1.2</v>
+      </c>
+      <c r="AR100">
+        <v>1.23</v>
+      </c>
+      <c r="AS100">
+        <v>1.05</v>
+      </c>
+      <c r="AT100">
+        <v>2.28</v>
+      </c>
+      <c r="AU100">
+        <v>12</v>
+      </c>
+      <c r="AV100">
+        <v>5</v>
+      </c>
+      <c r="AW100">
+        <v>9</v>
+      </c>
+      <c r="AX100">
+        <v>6</v>
+      </c>
+      <c r="AY100">
+        <v>21</v>
+      </c>
+      <c r="AZ100">
+        <v>11</v>
+      </c>
+      <c r="BA100">
+        <v>10</v>
+      </c>
+      <c r="BB100">
+        <v>4</v>
+      </c>
+      <c r="BC100">
+        <v>14</v>
+      </c>
+      <c r="BD100">
+        <v>1.57</v>
+      </c>
+      <c r="BE100">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF100">
+        <v>3</v>
+      </c>
+      <c r="BG100">
+        <v>1.26</v>
+      </c>
+      <c r="BH100">
+        <v>3.6</v>
+      </c>
+      <c r="BI100">
+        <v>1.47</v>
+      </c>
+      <c r="BJ100">
+        <v>2.6</v>
+      </c>
+      <c r="BK100">
+        <v>2.25</v>
+      </c>
+      <c r="BL100">
+        <v>1.98</v>
+      </c>
+      <c r="BM100">
+        <v>2.24</v>
+      </c>
+      <c r="BN100">
+        <v>1.6</v>
+      </c>
+      <c r="BO100">
+        <v>2.9</v>
+      </c>
+      <c r="BP100">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7287107</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45450.65625</v>
+      </c>
+      <c r="F101">
+        <v>20</v>
+      </c>
+      <c r="G101" t="s">
+        <v>71</v>
+      </c>
+      <c r="H101" t="s">
+        <v>72</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>2</v>
+      </c>
+      <c r="O101" t="s">
+        <v>143</v>
+      </c>
+      <c r="P101" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q101">
+        <v>2.4</v>
+      </c>
+      <c r="R101">
+        <v>2</v>
+      </c>
+      <c r="S101">
+        <v>5.5</v>
+      </c>
+      <c r="T101">
+        <v>1.53</v>
+      </c>
+      <c r="U101">
+        <v>2.35</v>
+      </c>
+      <c r="V101">
+        <v>3.55</v>
+      </c>
+      <c r="W101">
+        <v>1.25</v>
+      </c>
+      <c r="X101">
+        <v>9.6</v>
+      </c>
+      <c r="Y101">
+        <v>1.04</v>
+      </c>
+      <c r="Z101">
+        <v>1.82</v>
+      </c>
+      <c r="AA101">
+        <v>3.3</v>
+      </c>
+      <c r="AB101">
+        <v>4.5</v>
+      </c>
+      <c r="AC101">
+        <v>1.09</v>
+      </c>
+      <c r="AD101">
+        <v>7</v>
+      </c>
+      <c r="AE101">
+        <v>1.48</v>
+      </c>
+      <c r="AF101">
+        <v>2.6</v>
+      </c>
+      <c r="AG101">
+        <v>2.4</v>
+      </c>
+      <c r="AH101">
+        <v>1.5</v>
+      </c>
+      <c r="AI101">
+        <v>2.2</v>
+      </c>
+      <c r="AJ101">
+        <v>1.62</v>
+      </c>
+      <c r="AK101">
+        <v>1.18</v>
+      </c>
+      <c r="AL101">
+        <v>1.25</v>
+      </c>
+      <c r="AM101">
+        <v>1.93</v>
+      </c>
+      <c r="AN101">
+        <v>2.09</v>
+      </c>
+      <c r="AO101">
+        <v>1.67</v>
+      </c>
+      <c r="AP101">
+        <v>2.17</v>
+      </c>
+      <c r="AQ101">
+        <v>1.5</v>
+      </c>
+      <c r="AR101">
+        <v>1.5</v>
+      </c>
+      <c r="AS101">
+        <v>1.23</v>
+      </c>
+      <c r="AT101">
+        <v>2.73</v>
+      </c>
+      <c r="AU101">
+        <v>9</v>
+      </c>
+      <c r="AV101">
+        <v>0</v>
+      </c>
+      <c r="AW101">
+        <v>5</v>
+      </c>
+      <c r="AX101">
+        <v>4</v>
+      </c>
+      <c r="AY101">
+        <v>14</v>
+      </c>
+      <c r="AZ101">
+        <v>4</v>
+      </c>
+      <c r="BA101">
+        <v>5</v>
+      </c>
+      <c r="BB101">
+        <v>1</v>
+      </c>
+      <c r="BC101">
+        <v>6</v>
+      </c>
+      <c r="BD101">
+        <v>1.37</v>
+      </c>
+      <c r="BE101">
+        <v>8</v>
+      </c>
+      <c r="BF101">
+        <v>4.26</v>
+      </c>
+      <c r="BG101">
+        <v>1.25</v>
+      </c>
+      <c r="BH101">
+        <v>3.7</v>
+      </c>
+      <c r="BI101">
+        <v>1.46</v>
+      </c>
+      <c r="BJ101">
+        <v>2.6</v>
+      </c>
+      <c r="BK101">
+        <v>2.2</v>
+      </c>
+      <c r="BL101">
+        <v>2</v>
+      </c>
+      <c r="BM101">
+        <v>2.2</v>
+      </c>
+      <c r="BN101">
+        <v>1.62</v>
+      </c>
+      <c r="BO101">
+        <v>2.85</v>
+      </c>
+      <c r="BP101">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7287108</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45450.65625</v>
+      </c>
+      <c r="F102">
+        <v>20</v>
+      </c>
+      <c r="G102" t="s">
+        <v>75</v>
+      </c>
+      <c r="H102" t="s">
+        <v>78</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102" t="s">
+        <v>82</v>
+      </c>
+      <c r="P102" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q102">
+        <v>3.6</v>
+      </c>
+      <c r="R102">
+        <v>2.2</v>
+      </c>
+      <c r="S102">
+        <v>3</v>
+      </c>
+      <c r="T102">
+        <v>1.38</v>
+      </c>
+      <c r="U102">
+        <v>2.91</v>
+      </c>
+      <c r="V102">
+        <v>2.75</v>
+      </c>
+      <c r="W102">
+        <v>1.42</v>
+      </c>
+      <c r="X102">
+        <v>6.85</v>
+      </c>
+      <c r="Y102">
+        <v>1.08</v>
+      </c>
+      <c r="Z102">
+        <v>3.2</v>
+      </c>
+      <c r="AA102">
+        <v>3.4</v>
+      </c>
+      <c r="AB102">
+        <v>2.15</v>
+      </c>
+      <c r="AC102">
+        <v>1.05</v>
+      </c>
+      <c r="AD102">
+        <v>9</v>
+      </c>
+      <c r="AE102">
+        <v>1.28</v>
+      </c>
+      <c r="AF102">
+        <v>3.55</v>
+      </c>
+      <c r="AG102">
+        <v>1.81</v>
+      </c>
+      <c r="AH102">
+        <v>1.89</v>
+      </c>
+      <c r="AI102">
+        <v>1.75</v>
+      </c>
+      <c r="AJ102">
+        <v>2</v>
+      </c>
+      <c r="AK102">
+        <v>1.67</v>
+      </c>
+      <c r="AL102">
+        <v>1.25</v>
+      </c>
+      <c r="AM102">
+        <v>1.3</v>
+      </c>
+      <c r="AN102">
+        <v>1.33</v>
+      </c>
+      <c r="AO102">
+        <v>0.7</v>
+      </c>
+      <c r="AP102">
+        <v>1.3</v>
+      </c>
+      <c r="AQ102">
+        <v>0.73</v>
+      </c>
+      <c r="AR102">
+        <v>1.39</v>
+      </c>
+      <c r="AS102">
+        <v>1.14</v>
+      </c>
+      <c r="AT102">
+        <v>2.53</v>
+      </c>
+      <c r="AU102">
+        <v>3</v>
+      </c>
+      <c r="AV102">
+        <v>4</v>
+      </c>
+      <c r="AW102">
+        <v>8</v>
+      </c>
+      <c r="AX102">
+        <v>8</v>
+      </c>
+      <c r="AY102">
+        <v>11</v>
+      </c>
+      <c r="AZ102">
+        <v>12</v>
+      </c>
+      <c r="BA102">
+        <v>2</v>
+      </c>
+      <c r="BB102">
+        <v>5</v>
+      </c>
+      <c r="BC102">
+        <v>7</v>
+      </c>
+      <c r="BD102">
+        <v>2.2</v>
+      </c>
+      <c r="BE102">
+        <v>7.3</v>
+      </c>
+      <c r="BF102">
+        <v>1.97</v>
+      </c>
+      <c r="BG102">
+        <v>1.26</v>
+      </c>
+      <c r="BH102">
+        <v>3.6</v>
+      </c>
+      <c r="BI102">
+        <v>1.47</v>
+      </c>
+      <c r="BJ102">
+        <v>2.6</v>
+      </c>
+      <c r="BK102">
+        <v>2.2</v>
+      </c>
+      <c r="BL102">
+        <v>2</v>
+      </c>
+      <c r="BM102">
+        <v>2.24</v>
+      </c>
+      <c r="BN102">
+        <v>1.6</v>
+      </c>
+      <c r="BO102">
+        <v>2.9</v>
+      </c>
+      <c r="BP102">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="196">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -448,6 +448,15 @@
     <t>['65', '86']</t>
   </si>
   <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['76', '90+6']</t>
+  </si>
+  <si>
+    <t>['7', '61', '90+3']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -526,9 +535,6 @@
     <t>['56', '62', '69']</t>
   </si>
   <si>
-    <t>['54']</t>
-  </si>
-  <si>
     <t>['6']</t>
   </si>
   <si>
@@ -590,6 +596,12 @@
   </si>
   <si>
     <t>['86']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['17', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -951,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP102"/>
+  <dimension ref="A1:BP107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1210,7 +1222,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1288,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ2">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1416,7 +1428,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1497,7 +1509,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ3">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1700,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>0.73</v>
@@ -1828,7 +1840,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1906,10 +1918,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2240,7 +2252,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2446,7 +2458,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2524,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ8">
         <v>1.5</v>
@@ -2652,7 +2664,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2733,7 +2745,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2936,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ10">
         <v>1.33</v>
@@ -3145,7 +3157,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ11">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3270,7 +3282,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3351,7 +3363,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ12">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>1</v>
@@ -3476,7 +3488,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3554,7 +3566,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>1.4</v>
@@ -3682,7 +3694,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4094,7 +4106,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4172,10 +4184,10 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ16">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR16">
         <v>1.48</v>
@@ -4506,7 +4518,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4584,7 +4596,7 @@
         <v>1.5</v>
       </c>
       <c r="AP18">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ18">
         <v>0.73</v>
@@ -4712,7 +4724,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -4793,7 +4805,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ19">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR19">
         <v>1.24</v>
@@ -4996,7 +5008,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ20">
         <v>0.45</v>
@@ -5124,7 +5136,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5202,10 +5214,10 @@
         <v>2</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ21">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>1.54</v>
@@ -5614,10 +5626,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR23">
         <v>1.34</v>
@@ -5823,7 +5835,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -5948,7 +5960,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6026,10 +6038,10 @@
         <v>2.33</v>
       </c>
       <c r="AP25">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ25">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR25">
         <v>1.56</v>
@@ -6232,10 +6244,10 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6438,7 +6450,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ27">
         <v>1.4</v>
@@ -6566,7 +6578,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6644,10 +6656,10 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ28">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -6853,7 +6865,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ29">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR29">
         <v>1.29</v>
@@ -7596,7 +7608,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7674,10 +7686,10 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ33">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR33">
         <v>1.43</v>
@@ -7802,7 +7814,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8086,10 +8098,10 @@
         <v>0.33</v>
       </c>
       <c r="AP35">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ35">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR35">
         <v>1.43</v>
@@ -8214,7 +8226,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8292,10 +8304,10 @@
         <v>1.33</v>
       </c>
       <c r="AP36">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR36">
         <v>1.43</v>
@@ -8498,10 +8510,10 @@
         <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ37">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR37">
         <v>1.47</v>
@@ -8707,7 +8719,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ38">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR38">
         <v>0.99</v>
@@ -8832,7 +8844,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8910,7 +8922,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
         <v>1.33</v>
@@ -9038,7 +9050,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9116,7 +9128,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ40">
         <v>1.4</v>
@@ -9244,7 +9256,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9450,7 +9462,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9531,7 +9543,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ42">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR42">
         <v>1.38</v>
@@ -9656,7 +9668,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9734,10 +9746,10 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR43">
         <v>1.58</v>
@@ -9862,7 +9874,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10068,7 +10080,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10149,7 +10161,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ45">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR45">
         <v>1.32</v>
@@ -10352,7 +10364,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ46">
         <v>0.73</v>
@@ -10558,7 +10570,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ47">
         <v>1.5</v>
@@ -10767,7 +10779,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ48">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR48">
         <v>1.59</v>
@@ -10970,7 +10982,7 @@
         <v>0.25</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ49">
         <v>0.45</v>
@@ -11176,10 +11188,10 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ50">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR50">
         <v>1.1</v>
@@ -11304,7 +11316,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11385,7 +11397,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ51">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR51">
         <v>1.37</v>
@@ -11510,7 +11522,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11794,7 +11806,7 @@
         <v>1.4</v>
       </c>
       <c r="AP53">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ53">
         <v>1.4</v>
@@ -12000,10 +12012,10 @@
         <v>2.2</v>
       </c>
       <c r="AP54">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ54">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -12334,7 +12346,7 @@
         <v>113</v>
       </c>
       <c r="P56" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12621,7 +12633,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ57">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR57">
         <v>1</v>
@@ -12746,7 +12758,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -12827,7 +12839,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ58">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR58">
         <v>1.29</v>
@@ -13030,7 +13042,7 @@
         <v>1.8</v>
       </c>
       <c r="AP59">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ59">
         <v>1.33</v>
@@ -13364,7 +13376,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13442,10 +13454,10 @@
         <v>0.8</v>
       </c>
       <c r="AP61">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ61">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR61">
         <v>1.27</v>
@@ -13570,7 +13582,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13857,7 +13869,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ63">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR63">
         <v>1.78</v>
@@ -14060,10 +14072,10 @@
         <v>1.17</v>
       </c>
       <c r="AP64">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ64">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR64">
         <v>1.34</v>
@@ -14266,10 +14278,10 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ65">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR65">
         <v>1.39</v>
@@ -14472,10 +14484,10 @@
         <v>1.83</v>
       </c>
       <c r="AP66">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ66">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR66">
         <v>1.32</v>
@@ -14600,7 +14612,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14678,10 +14690,10 @@
         <v>1.57</v>
       </c>
       <c r="AP67">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ67">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR67">
         <v>1.06</v>
@@ -14806,7 +14818,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15012,7 +15024,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15296,7 +15308,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ70">
         <v>1.5</v>
@@ -15424,7 +15436,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -15917,7 +15929,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ73">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR73">
         <v>1.37</v>
@@ -16042,7 +16054,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16326,10 +16338,10 @@
         <v>1.17</v>
       </c>
       <c r="AP75">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ75">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR75">
         <v>1.23</v>
@@ -16535,7 +16547,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ76">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR76">
         <v>1.05</v>
@@ -16866,7 +16878,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -16944,7 +16956,7 @@
         <v>0.29</v>
       </c>
       <c r="AP78">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ78">
         <v>0.45</v>
@@ -17278,7 +17290,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17356,10 +17368,10 @@
         <v>1.14</v>
       </c>
       <c r="AP80">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ80">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR80">
         <v>1.43</v>
@@ -17484,7 +17496,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17690,7 +17702,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -17974,10 +17986,10 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ83">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR83">
         <v>1.34</v>
@@ -18102,7 +18114,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18180,10 +18192,10 @@
         <v>1.63</v>
       </c>
       <c r="AP84">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ84">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR84">
         <v>1.41</v>
@@ -18389,7 +18401,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ85">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR85">
         <v>1.91</v>
@@ -18514,7 +18526,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18592,10 +18604,10 @@
         <v>0.38</v>
       </c>
       <c r="AP86">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ86">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR86">
         <v>1.18</v>
@@ -18720,7 +18732,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -18798,7 +18810,7 @@
         <v>0.67</v>
       </c>
       <c r="AP87">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ87">
         <v>0.73</v>
@@ -18926,7 +18938,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -19007,7 +19019,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ88">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR88">
         <v>1.38</v>
@@ -19210,7 +19222,7 @@
         <v>0.25</v>
       </c>
       <c r="AP89">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ89">
         <v>0.45</v>
@@ -19338,7 +19350,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19419,7 +19431,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR90">
         <v>1.89</v>
@@ -19622,7 +19634,7 @@
         <v>1.5</v>
       </c>
       <c r="AP91">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ91">
         <v>1.33</v>
@@ -19750,7 +19762,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q92">
         <v>3.2</v>
@@ -19828,7 +19840,7 @@
         <v>1.88</v>
       </c>
       <c r="AP92">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ92">
         <v>1.5</v>
@@ -20034,10 +20046,10 @@
         <v>1.22</v>
       </c>
       <c r="AP93">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ93">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR93">
         <v>1.35</v>
@@ -20162,7 +20174,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q94">
         <v>5.5</v>
@@ -20243,7 +20255,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ94">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR94">
         <v>1.39</v>
@@ -20368,7 +20380,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20449,7 +20461,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ95">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR95">
         <v>1.31</v>
@@ -20574,7 +20586,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20655,7 +20667,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ96">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR96">
         <v>1.26</v>
@@ -20780,7 +20792,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -20858,7 +20870,7 @@
         <v>0.22</v>
       </c>
       <c r="AP97">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ97">
         <v>0.45</v>
@@ -21398,7 +21410,7 @@
         <v>142</v>
       </c>
       <c r="P100" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21476,10 +21488,10 @@
         <v>1.33</v>
       </c>
       <c r="AP100">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ100">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR100">
         <v>1.23</v>
@@ -21967,6 +21979,1036 @@
       </c>
       <c r="BP102">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7287113</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45456.65625</v>
+      </c>
+      <c r="F103">
+        <v>21</v>
+      </c>
+      <c r="G103" t="s">
+        <v>76</v>
+      </c>
+      <c r="H103" t="s">
+        <v>79</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103" t="s">
+        <v>144</v>
+      </c>
+      <c r="P103" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q103">
+        <v>2.6</v>
+      </c>
+      <c r="R103">
+        <v>2.05</v>
+      </c>
+      <c r="S103">
+        <v>4.75</v>
+      </c>
+      <c r="T103">
+        <v>1.42</v>
+      </c>
+      <c r="U103">
+        <v>2.62</v>
+      </c>
+      <c r="V103">
+        <v>3</v>
+      </c>
+      <c r="W103">
+        <v>1.33</v>
+      </c>
+      <c r="X103">
+        <v>7.5</v>
+      </c>
+      <c r="Y103">
+        <v>1.06</v>
+      </c>
+      <c r="Z103">
+        <v>1.93</v>
+      </c>
+      <c r="AA103">
+        <v>3.2</v>
+      </c>
+      <c r="AB103">
+        <v>3.45</v>
+      </c>
+      <c r="AC103">
+        <v>1.05</v>
+      </c>
+      <c r="AD103">
+        <v>8</v>
+      </c>
+      <c r="AE103">
+        <v>1.36</v>
+      </c>
+      <c r="AF103">
+        <v>2.9</v>
+      </c>
+      <c r="AG103">
+        <v>2.1</v>
+      </c>
+      <c r="AH103">
+        <v>1.65</v>
+      </c>
+      <c r="AI103">
+        <v>1.95</v>
+      </c>
+      <c r="AJ103">
+        <v>1.8</v>
+      </c>
+      <c r="AK103">
+        <v>1.25</v>
+      </c>
+      <c r="AL103">
+        <v>1.3</v>
+      </c>
+      <c r="AM103">
+        <v>1.88</v>
+      </c>
+      <c r="AN103">
+        <v>1.22</v>
+      </c>
+      <c r="AO103">
+        <v>1.2</v>
+      </c>
+      <c r="AP103">
+        <v>1.4</v>
+      </c>
+      <c r="AQ103">
+        <v>1.09</v>
+      </c>
+      <c r="AR103">
+        <v>1.35</v>
+      </c>
+      <c r="AS103">
+        <v>1.08</v>
+      </c>
+      <c r="AT103">
+        <v>2.43</v>
+      </c>
+      <c r="AU103">
+        <v>4</v>
+      </c>
+      <c r="AV103">
+        <v>0</v>
+      </c>
+      <c r="AW103">
+        <v>3</v>
+      </c>
+      <c r="AX103">
+        <v>3</v>
+      </c>
+      <c r="AY103">
+        <v>7</v>
+      </c>
+      <c r="AZ103">
+        <v>3</v>
+      </c>
+      <c r="BA103">
+        <v>10</v>
+      </c>
+      <c r="BB103">
+        <v>2</v>
+      </c>
+      <c r="BC103">
+        <v>12</v>
+      </c>
+      <c r="BD103">
+        <v>1.55</v>
+      </c>
+      <c r="BE103">
+        <v>7.5</v>
+      </c>
+      <c r="BF103">
+        <v>3.2</v>
+      </c>
+      <c r="BG103">
+        <v>1.33</v>
+      </c>
+      <c r="BH103">
+        <v>2.93</v>
+      </c>
+      <c r="BI103">
+        <v>1.7</v>
+      </c>
+      <c r="BJ103">
+        <v>2.05</v>
+      </c>
+      <c r="BK103">
+        <v>2.08</v>
+      </c>
+      <c r="BL103">
+        <v>1.7</v>
+      </c>
+      <c r="BM103">
+        <v>2.76</v>
+      </c>
+      <c r="BN103">
+        <v>1.39</v>
+      </c>
+      <c r="BO103">
+        <v>3.74</v>
+      </c>
+      <c r="BP103">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7287115</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45456.65625</v>
+      </c>
+      <c r="F104">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>78</v>
+      </c>
+      <c r="H104" t="s">
+        <v>74</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104" t="s">
+        <v>145</v>
+      </c>
+      <c r="P104" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q104">
+        <v>4.33</v>
+      </c>
+      <c r="R104">
+        <v>2.2</v>
+      </c>
+      <c r="S104">
+        <v>2.6</v>
+      </c>
+      <c r="T104">
+        <v>1.36</v>
+      </c>
+      <c r="U104">
+        <v>2.9</v>
+      </c>
+      <c r="V104">
+        <v>2.62</v>
+      </c>
+      <c r="W104">
+        <v>1.42</v>
+      </c>
+      <c r="X104">
+        <v>6</v>
+      </c>
+      <c r="Y104">
+        <v>1.09</v>
+      </c>
+      <c r="Z104">
+        <v>3.1</v>
+      </c>
+      <c r="AA104">
+        <v>3.3</v>
+      </c>
+      <c r="AB104">
+        <v>2.01</v>
+      </c>
+      <c r="AC104">
+        <v>1.02</v>
+      </c>
+      <c r="AD104">
+        <v>10</v>
+      </c>
+      <c r="AE104">
+        <v>1.29</v>
+      </c>
+      <c r="AF104">
+        <v>3.4</v>
+      </c>
+      <c r="AG104">
+        <v>1.92</v>
+      </c>
+      <c r="AH104">
+        <v>1.92</v>
+      </c>
+      <c r="AI104">
+        <v>1.75</v>
+      </c>
+      <c r="AJ104">
+        <v>2</v>
+      </c>
+      <c r="AK104">
+        <v>1.85</v>
+      </c>
+      <c r="AL104">
+        <v>1.29</v>
+      </c>
+      <c r="AM104">
+        <v>1.29</v>
+      </c>
+      <c r="AN104">
+        <v>1.45</v>
+      </c>
+      <c r="AO104">
+        <v>1.5</v>
+      </c>
+      <c r="AP104">
+        <v>1.58</v>
+      </c>
+      <c r="AQ104">
+        <v>1.36</v>
+      </c>
+      <c r="AR104">
+        <v>1.36</v>
+      </c>
+      <c r="AS104">
+        <v>1.44</v>
+      </c>
+      <c r="AT104">
+        <v>2.8</v>
+      </c>
+      <c r="AU104">
+        <v>6</v>
+      </c>
+      <c r="AV104">
+        <v>4</v>
+      </c>
+      <c r="AW104">
+        <v>5</v>
+      </c>
+      <c r="AX104">
+        <v>6</v>
+      </c>
+      <c r="AY104">
+        <v>11</v>
+      </c>
+      <c r="AZ104">
+        <v>10</v>
+      </c>
+      <c r="BA104">
+        <v>5</v>
+      </c>
+      <c r="BB104">
+        <v>3</v>
+      </c>
+      <c r="BC104">
+        <v>8</v>
+      </c>
+      <c r="BD104">
+        <v>2.81</v>
+      </c>
+      <c r="BE104">
+        <v>7.8</v>
+      </c>
+      <c r="BF104">
+        <v>1.65</v>
+      </c>
+      <c r="BG104">
+        <v>1.18</v>
+      </c>
+      <c r="BH104">
+        <v>4.05</v>
+      </c>
+      <c r="BI104">
+        <v>1.38</v>
+      </c>
+      <c r="BJ104">
+        <v>2.8</v>
+      </c>
+      <c r="BK104">
+        <v>2.2</v>
+      </c>
+      <c r="BL104">
+        <v>2</v>
+      </c>
+      <c r="BM104">
+        <v>2.09</v>
+      </c>
+      <c r="BN104">
+        <v>1.66</v>
+      </c>
+      <c r="BO104">
+        <v>2.71</v>
+      </c>
+      <c r="BP104">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7287114</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45456.65625</v>
+      </c>
+      <c r="F105">
+        <v>21</v>
+      </c>
+      <c r="G105" t="s">
+        <v>72</v>
+      </c>
+      <c r="H105" t="s">
+        <v>75</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>3</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105" t="s">
+        <v>146</v>
+      </c>
+      <c r="P105" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q105">
+        <v>2.25</v>
+      </c>
+      <c r="R105">
+        <v>2.2</v>
+      </c>
+      <c r="S105">
+        <v>5.5</v>
+      </c>
+      <c r="T105">
+        <v>1.38</v>
+      </c>
+      <c r="U105">
+        <v>2.8</v>
+      </c>
+      <c r="V105">
+        <v>2.8</v>
+      </c>
+      <c r="W105">
+        <v>1.38</v>
+      </c>
+      <c r="X105">
+        <v>6.5</v>
+      </c>
+      <c r="Y105">
+        <v>1.08</v>
+      </c>
+      <c r="Z105">
+        <v>1.63</v>
+      </c>
+      <c r="AA105">
+        <v>3.55</v>
+      </c>
+      <c r="AB105">
+        <v>4.45</v>
+      </c>
+      <c r="AC105">
+        <v>1.03</v>
+      </c>
+      <c r="AD105">
+        <v>9</v>
+      </c>
+      <c r="AE105">
+        <v>1.3</v>
+      </c>
+      <c r="AF105">
+        <v>3.2</v>
+      </c>
+      <c r="AG105">
+        <v>2</v>
+      </c>
+      <c r="AH105">
+        <v>1.73</v>
+      </c>
+      <c r="AI105">
+        <v>1.91</v>
+      </c>
+      <c r="AJ105">
+        <v>1.91</v>
+      </c>
+      <c r="AK105">
+        <v>1.17</v>
+      </c>
+      <c r="AL105">
+        <v>1.25</v>
+      </c>
+      <c r="AM105">
+        <v>2.25</v>
+      </c>
+      <c r="AN105">
+        <v>1.33</v>
+      </c>
+      <c r="AO105">
+        <v>0.3</v>
+      </c>
+      <c r="AP105">
+        <v>1.5</v>
+      </c>
+      <c r="AQ105">
+        <v>0.27</v>
+      </c>
+      <c r="AR105">
+        <v>1.34</v>
+      </c>
+      <c r="AS105">
+        <v>1.16</v>
+      </c>
+      <c r="AT105">
+        <v>2.5</v>
+      </c>
+      <c r="AU105">
+        <v>7</v>
+      </c>
+      <c r="AV105">
+        <v>3</v>
+      </c>
+      <c r="AW105">
+        <v>3</v>
+      </c>
+      <c r="AX105">
+        <v>2</v>
+      </c>
+      <c r="AY105">
+        <v>10</v>
+      </c>
+      <c r="AZ105">
+        <v>5</v>
+      </c>
+      <c r="BA105">
+        <v>1</v>
+      </c>
+      <c r="BB105">
+        <v>4</v>
+      </c>
+      <c r="BC105">
+        <v>5</v>
+      </c>
+      <c r="BD105">
+        <v>1.37</v>
+      </c>
+      <c r="BE105">
+        <v>8</v>
+      </c>
+      <c r="BF105">
+        <v>4.26</v>
+      </c>
+      <c r="BG105">
+        <v>1.21</v>
+      </c>
+      <c r="BH105">
+        <v>3.74</v>
+      </c>
+      <c r="BI105">
+        <v>1.42</v>
+      </c>
+      <c r="BJ105">
+        <v>2.65</v>
+      </c>
+      <c r="BK105">
+        <v>2.25</v>
+      </c>
+      <c r="BL105">
+        <v>2</v>
+      </c>
+      <c r="BM105">
+        <v>2.19</v>
+      </c>
+      <c r="BN105">
+        <v>1.6</v>
+      </c>
+      <c r="BO105">
+        <v>2.88</v>
+      </c>
+      <c r="BP105">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7287112</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45456.65625</v>
+      </c>
+      <c r="F106">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>70</v>
+      </c>
+      <c r="H106" t="s">
+        <v>71</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106" t="s">
+        <v>90</v>
+      </c>
+      <c r="P106" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q106">
+        <v>4.5</v>
+      </c>
+      <c r="R106">
+        <v>2.05</v>
+      </c>
+      <c r="S106">
+        <v>2.63</v>
+      </c>
+      <c r="T106">
+        <v>1.42</v>
+      </c>
+      <c r="U106">
+        <v>2.62</v>
+      </c>
+      <c r="V106">
+        <v>3</v>
+      </c>
+      <c r="W106">
+        <v>1.33</v>
+      </c>
+      <c r="X106">
+        <v>7.5</v>
+      </c>
+      <c r="Y106">
+        <v>1.06</v>
+      </c>
+      <c r="Z106">
+        <v>3.3</v>
+      </c>
+      <c r="AA106">
+        <v>3.1</v>
+      </c>
+      <c r="AB106">
+        <v>1.96</v>
+      </c>
+      <c r="AC106">
+        <v>1.05</v>
+      </c>
+      <c r="AD106">
+        <v>8</v>
+      </c>
+      <c r="AE106">
+        <v>1.36</v>
+      </c>
+      <c r="AF106">
+        <v>2.9</v>
+      </c>
+      <c r="AG106">
+        <v>2.1</v>
+      </c>
+      <c r="AH106">
+        <v>1.67</v>
+      </c>
+      <c r="AI106">
+        <v>1.95</v>
+      </c>
+      <c r="AJ106">
+        <v>1.8</v>
+      </c>
+      <c r="AK106">
+        <v>1.83</v>
+      </c>
+      <c r="AL106">
+        <v>1.33</v>
+      </c>
+      <c r="AM106">
+        <v>1.25</v>
+      </c>
+      <c r="AN106">
+        <v>1.33</v>
+      </c>
+      <c r="AO106">
+        <v>1.2</v>
+      </c>
+      <c r="AP106">
+        <v>1.2</v>
+      </c>
+      <c r="AQ106">
+        <v>1.36</v>
+      </c>
+      <c r="AR106">
+        <v>1.19</v>
+      </c>
+      <c r="AS106">
+        <v>1.36</v>
+      </c>
+      <c r="AT106">
+        <v>2.55</v>
+      </c>
+      <c r="AU106">
+        <v>4</v>
+      </c>
+      <c r="AV106">
+        <v>6</v>
+      </c>
+      <c r="AW106">
+        <v>1</v>
+      </c>
+      <c r="AX106">
+        <v>7</v>
+      </c>
+      <c r="AY106">
+        <v>5</v>
+      </c>
+      <c r="AZ106">
+        <v>13</v>
+      </c>
+      <c r="BA106">
+        <v>4</v>
+      </c>
+      <c r="BB106">
+        <v>9</v>
+      </c>
+      <c r="BC106">
+        <v>13</v>
+      </c>
+      <c r="BD106">
+        <v>2.91</v>
+      </c>
+      <c r="BE106">
+        <v>7.7</v>
+      </c>
+      <c r="BF106">
+        <v>1.62</v>
+      </c>
+      <c r="BG106">
+        <v>1.22</v>
+      </c>
+      <c r="BH106">
+        <v>3.64</v>
+      </c>
+      <c r="BI106">
+        <v>1.44</v>
+      </c>
+      <c r="BJ106">
+        <v>2.57</v>
+      </c>
+      <c r="BK106">
+        <v>1.92</v>
+      </c>
+      <c r="BL106">
+        <v>1.88</v>
+      </c>
+      <c r="BM106">
+        <v>2.27</v>
+      </c>
+      <c r="BN106">
+        <v>1.56</v>
+      </c>
+      <c r="BO106">
+        <v>2.98</v>
+      </c>
+      <c r="BP106">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7287116</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45456.65625</v>
+      </c>
+      <c r="F107">
+        <v>21</v>
+      </c>
+      <c r="G107" t="s">
+        <v>73</v>
+      </c>
+      <c r="H107" t="s">
+        <v>77</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107" t="s">
+        <v>82</v>
+      </c>
+      <c r="P107" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q107">
+        <v>4</v>
+      </c>
+      <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="S107">
+        <v>3.1</v>
+      </c>
+      <c r="T107">
+        <v>1.5</v>
+      </c>
+      <c r="U107">
+        <v>2.4</v>
+      </c>
+      <c r="V107">
+        <v>3.3</v>
+      </c>
+      <c r="W107">
+        <v>1.29</v>
+      </c>
+      <c r="X107">
+        <v>8.5</v>
+      </c>
+      <c r="Y107">
+        <v>1.04</v>
+      </c>
+      <c r="Z107">
+        <v>3.15</v>
+      </c>
+      <c r="AA107">
+        <v>2.89</v>
+      </c>
+      <c r="AB107">
+        <v>2.16</v>
+      </c>
+      <c r="AC107">
+        <v>1.07</v>
+      </c>
+      <c r="AD107">
+        <v>7</v>
+      </c>
+      <c r="AE107">
+        <v>1.42</v>
+      </c>
+      <c r="AF107">
+        <v>2.62</v>
+      </c>
+      <c r="AG107">
+        <v>2.37</v>
+      </c>
+      <c r="AH107">
+        <v>1.5</v>
+      </c>
+      <c r="AI107">
+        <v>1.95</v>
+      </c>
+      <c r="AJ107">
+        <v>1.8</v>
+      </c>
+      <c r="AK107">
+        <v>1.62</v>
+      </c>
+      <c r="AL107">
+        <v>1.35</v>
+      </c>
+      <c r="AM107">
+        <v>1.35</v>
+      </c>
+      <c r="AN107">
+        <v>1.7</v>
+      </c>
+      <c r="AO107">
+        <v>1.9</v>
+      </c>
+      <c r="AP107">
+        <v>1.55</v>
+      </c>
+      <c r="AQ107">
+        <v>2</v>
+      </c>
+      <c r="AR107">
+        <v>1.35</v>
+      </c>
+      <c r="AS107">
+        <v>1.03</v>
+      </c>
+      <c r="AT107">
+        <v>2.38</v>
+      </c>
+      <c r="AU107">
+        <v>2</v>
+      </c>
+      <c r="AV107">
+        <v>6</v>
+      </c>
+      <c r="AW107">
+        <v>5</v>
+      </c>
+      <c r="AX107">
+        <v>2</v>
+      </c>
+      <c r="AY107">
+        <v>7</v>
+      </c>
+      <c r="AZ107">
+        <v>8</v>
+      </c>
+      <c r="BA107">
+        <v>2</v>
+      </c>
+      <c r="BB107">
+        <v>2</v>
+      </c>
+      <c r="BC107">
+        <v>4</v>
+      </c>
+      <c r="BD107">
+        <v>2.15</v>
+      </c>
+      <c r="BE107">
+        <v>7.1</v>
+      </c>
+      <c r="BF107">
+        <v>2.03</v>
+      </c>
+      <c r="BG107">
+        <v>1.28</v>
+      </c>
+      <c r="BH107">
+        <v>3.2</v>
+      </c>
+      <c r="BI107">
+        <v>1.54</v>
+      </c>
+      <c r="BJ107">
+        <v>2.32</v>
+      </c>
+      <c r="BK107">
+        <v>2.25</v>
+      </c>
+      <c r="BL107">
+        <v>1.98</v>
+      </c>
+      <c r="BM107">
+        <v>2.52</v>
+      </c>
+      <c r="BN107">
+        <v>1.46</v>
+      </c>
+      <c r="BO107">
+        <v>3.42</v>
+      </c>
+      <c r="BP107">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="196">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,6 +442,21 @@
     <t>['11', '21', '30']</t>
   </si>
   <si>
+    <t>['25', '60', '67', '87']</t>
+  </si>
+  <si>
+    <t>['65', '86']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['76', '90+6']</t>
+  </si>
+  <si>
+    <t>['7', '61', '90+3']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -520,9 +535,6 @@
     <t>['56', '62', '69']</t>
   </si>
   <si>
-    <t>['54']</t>
-  </si>
-  <si>
     <t>['6']</t>
   </si>
   <si>
@@ -581,6 +593,15 @@
   </si>
   <si>
     <t>['2', '4', '22']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['17', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -942,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP98"/>
+  <dimension ref="A1:BP107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1201,7 +1222,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1279,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ2">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1407,7 +1428,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1485,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ3">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1691,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1819,7 +1840,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1897,10 +1918,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AQ5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2106,7 +2127,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2231,7 +2252,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2309,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ7">
         <v>1.4</v>
@@ -2437,7 +2458,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2515,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ8">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2643,7 +2664,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2721,10 +2742,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2927,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ10">
         <v>1.33</v>
@@ -3136,7 +3157,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ11">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3261,7 +3282,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3342,7 +3363,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ12">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>1</v>
@@ -3467,7 +3488,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3545,7 +3566,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>1.4</v>
@@ -3673,7 +3694,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3751,10 +3772,10 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ14">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR14">
         <v>1.63</v>
@@ -3957,7 +3978,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ15">
         <v>1.33</v>
@@ -4085,7 +4106,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4163,10 +4184,10 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ16">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="AR16">
         <v>1.48</v>
@@ -4369,10 +4390,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ17">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR17">
         <v>1.23</v>
@@ -4497,7 +4518,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4575,10 +4596,10 @@
         <v>1.5</v>
       </c>
       <c r="AP18">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AQ18">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR18">
         <v>0.95</v>
@@ -4703,7 +4724,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -4784,7 +4805,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ19">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR19">
         <v>1.24</v>
@@ -4987,10 +5008,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR20">
         <v>1.54</v>
@@ -5115,7 +5136,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5193,10 +5214,10 @@
         <v>2</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ21">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>1.54</v>
@@ -5399,7 +5420,7 @@
         <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ22">
         <v>1.4</v>
@@ -5605,10 +5626,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR23">
         <v>1.34</v>
@@ -5814,7 +5835,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -5939,7 +5960,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6017,10 +6038,10 @@
         <v>2.33</v>
       </c>
       <c r="AP25">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ25">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR25">
         <v>1.56</v>
@@ -6223,10 +6244,10 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6429,7 +6450,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ27">
         <v>1.4</v>
@@ -6557,7 +6578,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6635,10 +6656,10 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ28">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -6844,7 +6865,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ29">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR29">
         <v>1.29</v>
@@ -7047,10 +7068,10 @@
         <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ30">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7253,10 +7274,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ31">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR31">
         <v>1.4</v>
@@ -7459,10 +7480,10 @@
         <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ32">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR32">
         <v>1</v>
@@ -7587,7 +7608,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7665,10 +7686,10 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="AR33">
         <v>1.43</v>
@@ -7793,7 +7814,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8077,10 +8098,10 @@
         <v>0.33</v>
       </c>
       <c r="AP35">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ35">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR35">
         <v>1.43</v>
@@ -8205,7 +8226,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8283,10 +8304,10 @@
         <v>1.33</v>
       </c>
       <c r="AP36">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR36">
         <v>1.43</v>
@@ -8489,10 +8510,10 @@
         <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ37">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="AR37">
         <v>1.47</v>
@@ -8695,10 +8716,10 @@
         <v>0.67</v>
       </c>
       <c r="AP38">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ38">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR38">
         <v>0.99</v>
@@ -8823,7 +8844,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8901,7 +8922,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
         <v>1.33</v>
@@ -9029,7 +9050,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9107,7 +9128,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ40">
         <v>1.4</v>
@@ -9235,7 +9256,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9313,10 +9334,10 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ41">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR41">
         <v>1.34</v>
@@ -9441,7 +9462,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9519,10 +9540,10 @@
         <v>2.5</v>
       </c>
       <c r="AP42">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ42">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR42">
         <v>1.38</v>
@@ -9647,7 +9668,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9725,10 +9746,10 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR43">
         <v>1.58</v>
@@ -9853,7 +9874,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -9931,7 +9952,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ44">
         <v>1.33</v>
@@ -10059,7 +10080,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10137,10 +10158,10 @@
         <v>0.75</v>
       </c>
       <c r="AP45">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ45">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR45">
         <v>1.32</v>
@@ -10343,10 +10364,10 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ46">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR46">
         <v>1.26</v>
@@ -10549,10 +10570,10 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AQ47">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>1.3</v>
@@ -10758,7 +10779,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ48">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="AR48">
         <v>1.59</v>
@@ -10961,10 +10982,10 @@
         <v>0.25</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ49">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR49">
         <v>1.12</v>
@@ -11167,10 +11188,10 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ50">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR50">
         <v>1.1</v>
@@ -11295,7 +11316,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11373,10 +11394,10 @@
         <v>1.4</v>
       </c>
       <c r="AP51">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ51">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR51">
         <v>1.37</v>
@@ -11501,7 +11522,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11582,7 +11603,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ52">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR52">
         <v>1.24</v>
@@ -11785,7 +11806,7 @@
         <v>1.4</v>
       </c>
       <c r="AP53">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ53">
         <v>1.4</v>
@@ -11991,10 +12012,10 @@
         <v>2.2</v>
       </c>
       <c r="AP54">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ54">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -12200,7 +12221,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ55">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR55">
         <v>1.35</v>
@@ -12325,7 +12346,7 @@
         <v>113</v>
       </c>
       <c r="P56" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12403,10 +12424,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ56">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR56">
         <v>1.4</v>
@@ -12609,10 +12630,10 @@
         <v>1.67</v>
       </c>
       <c r="AP57">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ57">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR57">
         <v>1</v>
@@ -12737,7 +12758,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -12815,10 +12836,10 @@
         <v>1.4</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ58">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="AR58">
         <v>1.29</v>
@@ -13021,7 +13042,7 @@
         <v>1.8</v>
       </c>
       <c r="AP59">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ59">
         <v>1.33</v>
@@ -13227,10 +13248,10 @@
         <v>0.83</v>
       </c>
       <c r="AP60">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ60">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR60">
         <v>1.01</v>
@@ -13355,7 +13376,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13433,10 +13454,10 @@
         <v>0.8</v>
       </c>
       <c r="AP61">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AQ61">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR61">
         <v>1.27</v>
@@ -13561,7 +13582,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13642,7 +13663,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ62">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR62">
         <v>1.75</v>
@@ -13848,7 +13869,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ63">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR63">
         <v>1.78</v>
@@ -14051,10 +14072,10 @@
         <v>1.17</v>
       </c>
       <c r="AP64">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ64">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR64">
         <v>1.34</v>
@@ -14257,10 +14278,10 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ65">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR65">
         <v>1.39</v>
@@ -14463,10 +14484,10 @@
         <v>1.83</v>
       </c>
       <c r="AP66">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ66">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR66">
         <v>1.32</v>
@@ -14591,7 +14612,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14669,10 +14690,10 @@
         <v>1.57</v>
       </c>
       <c r="AP67">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ67">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR67">
         <v>1.06</v>
@@ -14797,7 +14818,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15003,7 +15024,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15081,10 +15102,10 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ69">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR69">
         <v>1.37</v>
@@ -15287,10 +15308,10 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ70">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR70">
         <v>1.06</v>
@@ -15415,7 +15436,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -15702,7 +15723,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ72">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR72">
         <v>1.34</v>
@@ -15905,10 +15926,10 @@
         <v>1.71</v>
       </c>
       <c r="AP73">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ73">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR73">
         <v>1.37</v>
@@ -16033,7 +16054,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16114,7 +16135,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ74">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR74">
         <v>1.85</v>
@@ -16317,10 +16338,10 @@
         <v>1.17</v>
       </c>
       <c r="AP75">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ75">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="AR75">
         <v>1.23</v>
@@ -16523,10 +16544,10 @@
         <v>0.29</v>
       </c>
       <c r="AP76">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ76">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR76">
         <v>1.05</v>
@@ -16729,7 +16750,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ77">
         <v>1.33</v>
@@ -16857,7 +16878,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -16935,10 +16956,10 @@
         <v>0.29</v>
       </c>
       <c r="AP78">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AQ78">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR78">
         <v>1.19</v>
@@ -17141,7 +17162,7 @@
         <v>1.75</v>
       </c>
       <c r="AP79">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ79">
         <v>1.4</v>
@@ -17269,7 +17290,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17347,10 +17368,10 @@
         <v>1.14</v>
       </c>
       <c r="AP80">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ80">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR80">
         <v>1.43</v>
@@ -17475,7 +17496,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17681,7 +17702,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -17759,10 +17780,10 @@
         <v>1.71</v>
       </c>
       <c r="AP82">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ82">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR82">
         <v>1.34</v>
@@ -17965,10 +17986,10 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ83">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR83">
         <v>1.34</v>
@@ -18093,7 +18114,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18171,10 +18192,10 @@
         <v>1.63</v>
       </c>
       <c r="AP84">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ84">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR84">
         <v>1.41</v>
@@ -18380,7 +18401,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ85">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR85">
         <v>1.91</v>
@@ -18505,7 +18526,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18583,10 +18604,10 @@
         <v>0.38</v>
       </c>
       <c r="AP86">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AQ86">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR86">
         <v>1.18</v>
@@ -18711,7 +18732,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -18789,10 +18810,10 @@
         <v>0.67</v>
       </c>
       <c r="AP87">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ87">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR87">
         <v>1.13</v>
@@ -18917,7 +18938,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -18995,10 +19016,10 @@
         <v>1.14</v>
       </c>
       <c r="AP88">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ88">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="AR88">
         <v>1.38</v>
@@ -19201,10 +19222,10 @@
         <v>0.25</v>
       </c>
       <c r="AP89">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ89">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR89">
         <v>1.27</v>
@@ -19329,7 +19350,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19410,7 +19431,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR90">
         <v>1.89</v>
@@ -19613,7 +19634,7 @@
         <v>1.5</v>
       </c>
       <c r="AP91">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AQ91">
         <v>1.33</v>
@@ -19741,7 +19762,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q92">
         <v>3.2</v>
@@ -19819,10 +19840,10 @@
         <v>1.88</v>
       </c>
       <c r="AP92">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ92">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR92">
         <v>1.44</v>
@@ -20025,10 +20046,10 @@
         <v>1.22</v>
       </c>
       <c r="AP93">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ93">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR93">
         <v>1.35</v>
@@ -20153,7 +20174,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q94">
         <v>5.5</v>
@@ -20231,10 +20252,10 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ94">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR94">
         <v>1.39</v>
@@ -20359,7 +20380,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20437,10 +20458,10 @@
         <v>1.13</v>
       </c>
       <c r="AP95">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ95">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="AR95">
         <v>1.31</v>
@@ -20565,7 +20586,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20646,7 +20667,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ96">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR96">
         <v>1.26</v>
@@ -20771,7 +20792,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -20849,10 +20870,10 @@
         <v>0.22</v>
       </c>
       <c r="AP97">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ97">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR97">
         <v>1.38</v>
@@ -21055,7 +21076,7 @@
         <v>1.56</v>
       </c>
       <c r="AP98">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ98">
         <v>1.4</v>
@@ -21134,6 +21155,1860 @@
       </c>
       <c r="BP98">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7287109</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45450.65625</v>
+      </c>
+      <c r="F99">
+        <v>20</v>
+      </c>
+      <c r="G99" t="s">
+        <v>77</v>
+      </c>
+      <c r="H99" t="s">
+        <v>76</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99" t="s">
+        <v>95</v>
+      </c>
+      <c r="P99" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q99">
+        <v>2.6</v>
+      </c>
+      <c r="R99">
+        <v>1.95</v>
+      </c>
+      <c r="S99">
+        <v>5.5</v>
+      </c>
+      <c r="T99">
+        <v>1.53</v>
+      </c>
+      <c r="U99">
+        <v>2.38</v>
+      </c>
+      <c r="V99">
+        <v>3.45</v>
+      </c>
+      <c r="W99">
+        <v>1.25</v>
+      </c>
+      <c r="X99">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y99">
+        <v>1.04</v>
+      </c>
+      <c r="Z99">
+        <v>1.75</v>
+      </c>
+      <c r="AA99">
+        <v>3.35</v>
+      </c>
+      <c r="AB99">
+        <v>4.8</v>
+      </c>
+      <c r="AC99">
+        <v>1.09</v>
+      </c>
+      <c r="AD99">
+        <v>7</v>
+      </c>
+      <c r="AE99">
+        <v>1.48</v>
+      </c>
+      <c r="AF99">
+        <v>2.65</v>
+      </c>
+      <c r="AG99">
+        <v>2.35</v>
+      </c>
+      <c r="AH99">
+        <v>1.52</v>
+      </c>
+      <c r="AI99">
+        <v>2.2</v>
+      </c>
+      <c r="AJ99">
+        <v>1.62</v>
+      </c>
+      <c r="AK99">
+        <v>1.17</v>
+      </c>
+      <c r="AL99">
+        <v>1.25</v>
+      </c>
+      <c r="AM99">
+        <v>2</v>
+      </c>
+      <c r="AN99">
+        <v>1.8</v>
+      </c>
+      <c r="AO99">
+        <v>0.5</v>
+      </c>
+      <c r="AP99">
+        <v>1.91</v>
+      </c>
+      <c r="AQ99">
+        <v>0.45</v>
+      </c>
+      <c r="AR99">
+        <v>1.39</v>
+      </c>
+      <c r="AS99">
+        <v>0.98</v>
+      </c>
+      <c r="AT99">
+        <v>2.37</v>
+      </c>
+      <c r="AU99">
+        <v>2</v>
+      </c>
+      <c r="AV99">
+        <v>0</v>
+      </c>
+      <c r="AW99">
+        <v>7</v>
+      </c>
+      <c r="AX99">
+        <v>6</v>
+      </c>
+      <c r="AY99">
+        <v>9</v>
+      </c>
+      <c r="AZ99">
+        <v>6</v>
+      </c>
+      <c r="BA99">
+        <v>3</v>
+      </c>
+      <c r="BB99">
+        <v>1</v>
+      </c>
+      <c r="BC99">
+        <v>4</v>
+      </c>
+      <c r="BD99">
+        <v>1.57</v>
+      </c>
+      <c r="BE99">
+        <v>7.6</v>
+      </c>
+      <c r="BF99">
+        <v>3.1</v>
+      </c>
+      <c r="BG99">
+        <v>1.42</v>
+      </c>
+      <c r="BH99">
+        <v>2.75</v>
+      </c>
+      <c r="BI99">
+        <v>1.72</v>
+      </c>
+      <c r="BJ99">
+        <v>2.05</v>
+      </c>
+      <c r="BK99">
+        <v>2.05</v>
+      </c>
+      <c r="BL99">
+        <v>1.7</v>
+      </c>
+      <c r="BM99">
+        <v>2.85</v>
+      </c>
+      <c r="BN99">
+        <v>1.4</v>
+      </c>
+      <c r="BO99">
+        <v>3.9</v>
+      </c>
+      <c r="BP99">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7287110</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45450.65625</v>
+      </c>
+      <c r="F100">
+        <v>20</v>
+      </c>
+      <c r="G100" t="s">
+        <v>73</v>
+      </c>
+      <c r="H100" t="s">
+        <v>79</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>4</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>5</v>
+      </c>
+      <c r="O100" t="s">
+        <v>142</v>
+      </c>
+      <c r="P100" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q100">
+        <v>2.75</v>
+      </c>
+      <c r="R100">
+        <v>2.05</v>
+      </c>
+      <c r="S100">
+        <v>4.33</v>
+      </c>
+      <c r="T100">
+        <v>1.48</v>
+      </c>
+      <c r="U100">
+        <v>2.5</v>
+      </c>
+      <c r="V100">
+        <v>3.1</v>
+      </c>
+      <c r="W100">
+        <v>1.33</v>
+      </c>
+      <c r="X100">
+        <v>8.4</v>
+      </c>
+      <c r="Y100">
+        <v>1.05</v>
+      </c>
+      <c r="Z100">
+        <v>2</v>
+      </c>
+      <c r="AA100">
+        <v>3.25</v>
+      </c>
+      <c r="AB100">
+        <v>3.8</v>
+      </c>
+      <c r="AC100">
+        <v>1.08</v>
+      </c>
+      <c r="AD100">
+        <v>7.5</v>
+      </c>
+      <c r="AE100">
+        <v>1.4</v>
+      </c>
+      <c r="AF100">
+        <v>2.9</v>
+      </c>
+      <c r="AG100">
+        <v>2.14</v>
+      </c>
+      <c r="AH100">
+        <v>1.63</v>
+      </c>
+      <c r="AI100">
+        <v>1.95</v>
+      </c>
+      <c r="AJ100">
+        <v>1.8</v>
+      </c>
+      <c r="AK100">
+        <v>1.25</v>
+      </c>
+      <c r="AL100">
+        <v>1.28</v>
+      </c>
+      <c r="AM100">
+        <v>1.77</v>
+      </c>
+      <c r="AN100">
+        <v>1.56</v>
+      </c>
+      <c r="AO100">
+        <v>1.33</v>
+      </c>
+      <c r="AP100">
+        <v>1.55</v>
+      </c>
+      <c r="AQ100">
+        <v>1.09</v>
+      </c>
+      <c r="AR100">
+        <v>1.23</v>
+      </c>
+      <c r="AS100">
+        <v>1.05</v>
+      </c>
+      <c r="AT100">
+        <v>2.28</v>
+      </c>
+      <c r="AU100">
+        <v>12</v>
+      </c>
+      <c r="AV100">
+        <v>5</v>
+      </c>
+      <c r="AW100">
+        <v>9</v>
+      </c>
+      <c r="AX100">
+        <v>6</v>
+      </c>
+      <c r="AY100">
+        <v>21</v>
+      </c>
+      <c r="AZ100">
+        <v>11</v>
+      </c>
+      <c r="BA100">
+        <v>10</v>
+      </c>
+      <c r="BB100">
+        <v>4</v>
+      </c>
+      <c r="BC100">
+        <v>14</v>
+      </c>
+      <c r="BD100">
+        <v>1.57</v>
+      </c>
+      <c r="BE100">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF100">
+        <v>3</v>
+      </c>
+      <c r="BG100">
+        <v>1.26</v>
+      </c>
+      <c r="BH100">
+        <v>3.6</v>
+      </c>
+      <c r="BI100">
+        <v>1.47</v>
+      </c>
+      <c r="BJ100">
+        <v>2.6</v>
+      </c>
+      <c r="BK100">
+        <v>2.25</v>
+      </c>
+      <c r="BL100">
+        <v>1.98</v>
+      </c>
+      <c r="BM100">
+        <v>2.24</v>
+      </c>
+      <c r="BN100">
+        <v>1.6</v>
+      </c>
+      <c r="BO100">
+        <v>2.9</v>
+      </c>
+      <c r="BP100">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7287107</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45450.65625</v>
+      </c>
+      <c r="F101">
+        <v>20</v>
+      </c>
+      <c r="G101" t="s">
+        <v>71</v>
+      </c>
+      <c r="H101" t="s">
+        <v>72</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>2</v>
+      </c>
+      <c r="O101" t="s">
+        <v>143</v>
+      </c>
+      <c r="P101" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q101">
+        <v>2.4</v>
+      </c>
+      <c r="R101">
+        <v>2</v>
+      </c>
+      <c r="S101">
+        <v>5.5</v>
+      </c>
+      <c r="T101">
+        <v>1.53</v>
+      </c>
+      <c r="U101">
+        <v>2.35</v>
+      </c>
+      <c r="V101">
+        <v>3.55</v>
+      </c>
+      <c r="W101">
+        <v>1.25</v>
+      </c>
+      <c r="X101">
+        <v>9.6</v>
+      </c>
+      <c r="Y101">
+        <v>1.04</v>
+      </c>
+      <c r="Z101">
+        <v>1.82</v>
+      </c>
+      <c r="AA101">
+        <v>3.3</v>
+      </c>
+      <c r="AB101">
+        <v>4.5</v>
+      </c>
+      <c r="AC101">
+        <v>1.09</v>
+      </c>
+      <c r="AD101">
+        <v>7</v>
+      </c>
+      <c r="AE101">
+        <v>1.48</v>
+      </c>
+      <c r="AF101">
+        <v>2.6</v>
+      </c>
+      <c r="AG101">
+        <v>2.4</v>
+      </c>
+      <c r="AH101">
+        <v>1.5</v>
+      </c>
+      <c r="AI101">
+        <v>2.2</v>
+      </c>
+      <c r="AJ101">
+        <v>1.62</v>
+      </c>
+      <c r="AK101">
+        <v>1.18</v>
+      </c>
+      <c r="AL101">
+        <v>1.25</v>
+      </c>
+      <c r="AM101">
+        <v>1.93</v>
+      </c>
+      <c r="AN101">
+        <v>2.09</v>
+      </c>
+      <c r="AO101">
+        <v>1.67</v>
+      </c>
+      <c r="AP101">
+        <v>2.17</v>
+      </c>
+      <c r="AQ101">
+        <v>1.5</v>
+      </c>
+      <c r="AR101">
+        <v>1.5</v>
+      </c>
+      <c r="AS101">
+        <v>1.23</v>
+      </c>
+      <c r="AT101">
+        <v>2.73</v>
+      </c>
+      <c r="AU101">
+        <v>9</v>
+      </c>
+      <c r="AV101">
+        <v>0</v>
+      </c>
+      <c r="AW101">
+        <v>5</v>
+      </c>
+      <c r="AX101">
+        <v>4</v>
+      </c>
+      <c r="AY101">
+        <v>14</v>
+      </c>
+      <c r="AZ101">
+        <v>4</v>
+      </c>
+      <c r="BA101">
+        <v>5</v>
+      </c>
+      <c r="BB101">
+        <v>1</v>
+      </c>
+      <c r="BC101">
+        <v>6</v>
+      </c>
+      <c r="BD101">
+        <v>1.37</v>
+      </c>
+      <c r="BE101">
+        <v>8</v>
+      </c>
+      <c r="BF101">
+        <v>4.26</v>
+      </c>
+      <c r="BG101">
+        <v>1.25</v>
+      </c>
+      <c r="BH101">
+        <v>3.7</v>
+      </c>
+      <c r="BI101">
+        <v>1.46</v>
+      </c>
+      <c r="BJ101">
+        <v>2.6</v>
+      </c>
+      <c r="BK101">
+        <v>2.2</v>
+      </c>
+      <c r="BL101">
+        <v>2</v>
+      </c>
+      <c r="BM101">
+        <v>2.2</v>
+      </c>
+      <c r="BN101">
+        <v>1.62</v>
+      </c>
+      <c r="BO101">
+        <v>2.85</v>
+      </c>
+      <c r="BP101">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7287108</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45450.65625</v>
+      </c>
+      <c r="F102">
+        <v>20</v>
+      </c>
+      <c r="G102" t="s">
+        <v>75</v>
+      </c>
+      <c r="H102" t="s">
+        <v>78</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102" t="s">
+        <v>82</v>
+      </c>
+      <c r="P102" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q102">
+        <v>3.6</v>
+      </c>
+      <c r="R102">
+        <v>2.2</v>
+      </c>
+      <c r="S102">
+        <v>3</v>
+      </c>
+      <c r="T102">
+        <v>1.38</v>
+      </c>
+      <c r="U102">
+        <v>2.91</v>
+      </c>
+      <c r="V102">
+        <v>2.75</v>
+      </c>
+      <c r="W102">
+        <v>1.42</v>
+      </c>
+      <c r="X102">
+        <v>6.85</v>
+      </c>
+      <c r="Y102">
+        <v>1.08</v>
+      </c>
+      <c r="Z102">
+        <v>3.2</v>
+      </c>
+      <c r="AA102">
+        <v>3.4</v>
+      </c>
+      <c r="AB102">
+        <v>2.15</v>
+      </c>
+      <c r="AC102">
+        <v>1.05</v>
+      </c>
+      <c r="AD102">
+        <v>9</v>
+      </c>
+      <c r="AE102">
+        <v>1.28</v>
+      </c>
+      <c r="AF102">
+        <v>3.55</v>
+      </c>
+      <c r="AG102">
+        <v>1.81</v>
+      </c>
+      <c r="AH102">
+        <v>1.89</v>
+      </c>
+      <c r="AI102">
+        <v>1.75</v>
+      </c>
+      <c r="AJ102">
+        <v>2</v>
+      </c>
+      <c r="AK102">
+        <v>1.67</v>
+      </c>
+      <c r="AL102">
+        <v>1.25</v>
+      </c>
+      <c r="AM102">
+        <v>1.3</v>
+      </c>
+      <c r="AN102">
+        <v>1.33</v>
+      </c>
+      <c r="AO102">
+        <v>0.7</v>
+      </c>
+      <c r="AP102">
+        <v>1.3</v>
+      </c>
+      <c r="AQ102">
+        <v>0.73</v>
+      </c>
+      <c r="AR102">
+        <v>1.39</v>
+      </c>
+      <c r="AS102">
+        <v>1.14</v>
+      </c>
+      <c r="AT102">
+        <v>2.53</v>
+      </c>
+      <c r="AU102">
+        <v>3</v>
+      </c>
+      <c r="AV102">
+        <v>4</v>
+      </c>
+      <c r="AW102">
+        <v>8</v>
+      </c>
+      <c r="AX102">
+        <v>8</v>
+      </c>
+      <c r="AY102">
+        <v>11</v>
+      </c>
+      <c r="AZ102">
+        <v>12</v>
+      </c>
+      <c r="BA102">
+        <v>2</v>
+      </c>
+      <c r="BB102">
+        <v>5</v>
+      </c>
+      <c r="BC102">
+        <v>7</v>
+      </c>
+      <c r="BD102">
+        <v>2.2</v>
+      </c>
+      <c r="BE102">
+        <v>7.3</v>
+      </c>
+      <c r="BF102">
+        <v>1.97</v>
+      </c>
+      <c r="BG102">
+        <v>1.26</v>
+      </c>
+      <c r="BH102">
+        <v>3.6</v>
+      </c>
+      <c r="BI102">
+        <v>1.47</v>
+      </c>
+      <c r="BJ102">
+        <v>2.6</v>
+      </c>
+      <c r="BK102">
+        <v>2.2</v>
+      </c>
+      <c r="BL102">
+        <v>2</v>
+      </c>
+      <c r="BM102">
+        <v>2.24</v>
+      </c>
+      <c r="BN102">
+        <v>1.6</v>
+      </c>
+      <c r="BO102">
+        <v>2.9</v>
+      </c>
+      <c r="BP102">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7287113</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45456.65625</v>
+      </c>
+      <c r="F103">
+        <v>21</v>
+      </c>
+      <c r="G103" t="s">
+        <v>76</v>
+      </c>
+      <c r="H103" t="s">
+        <v>79</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103" t="s">
+        <v>144</v>
+      </c>
+      <c r="P103" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q103">
+        <v>2.6</v>
+      </c>
+      <c r="R103">
+        <v>2.05</v>
+      </c>
+      <c r="S103">
+        <v>4.75</v>
+      </c>
+      <c r="T103">
+        <v>1.42</v>
+      </c>
+      <c r="U103">
+        <v>2.62</v>
+      </c>
+      <c r="V103">
+        <v>3</v>
+      </c>
+      <c r="W103">
+        <v>1.33</v>
+      </c>
+      <c r="X103">
+        <v>7.5</v>
+      </c>
+      <c r="Y103">
+        <v>1.06</v>
+      </c>
+      <c r="Z103">
+        <v>1.93</v>
+      </c>
+      <c r="AA103">
+        <v>3.2</v>
+      </c>
+      <c r="AB103">
+        <v>3.45</v>
+      </c>
+      <c r="AC103">
+        <v>1.05</v>
+      </c>
+      <c r="AD103">
+        <v>8</v>
+      </c>
+      <c r="AE103">
+        <v>1.36</v>
+      </c>
+      <c r="AF103">
+        <v>2.9</v>
+      </c>
+      <c r="AG103">
+        <v>2.1</v>
+      </c>
+      <c r="AH103">
+        <v>1.65</v>
+      </c>
+      <c r="AI103">
+        <v>1.95</v>
+      </c>
+      <c r="AJ103">
+        <v>1.8</v>
+      </c>
+      <c r="AK103">
+        <v>1.25</v>
+      </c>
+      <c r="AL103">
+        <v>1.3</v>
+      </c>
+      <c r="AM103">
+        <v>1.88</v>
+      </c>
+      <c r="AN103">
+        <v>1.22</v>
+      </c>
+      <c r="AO103">
+        <v>1.2</v>
+      </c>
+      <c r="AP103">
+        <v>1.4</v>
+      </c>
+      <c r="AQ103">
+        <v>1.09</v>
+      </c>
+      <c r="AR103">
+        <v>1.35</v>
+      </c>
+      <c r="AS103">
+        <v>1.08</v>
+      </c>
+      <c r="AT103">
+        <v>2.43</v>
+      </c>
+      <c r="AU103">
+        <v>4</v>
+      </c>
+      <c r="AV103">
+        <v>0</v>
+      </c>
+      <c r="AW103">
+        <v>3</v>
+      </c>
+      <c r="AX103">
+        <v>3</v>
+      </c>
+      <c r="AY103">
+        <v>7</v>
+      </c>
+      <c r="AZ103">
+        <v>3</v>
+      </c>
+      <c r="BA103">
+        <v>10</v>
+      </c>
+      <c r="BB103">
+        <v>2</v>
+      </c>
+      <c r="BC103">
+        <v>12</v>
+      </c>
+      <c r="BD103">
+        <v>1.55</v>
+      </c>
+      <c r="BE103">
+        <v>7.5</v>
+      </c>
+      <c r="BF103">
+        <v>3.2</v>
+      </c>
+      <c r="BG103">
+        <v>1.33</v>
+      </c>
+      <c r="BH103">
+        <v>2.93</v>
+      </c>
+      <c r="BI103">
+        <v>1.7</v>
+      </c>
+      <c r="BJ103">
+        <v>2.05</v>
+      </c>
+      <c r="BK103">
+        <v>2.08</v>
+      </c>
+      <c r="BL103">
+        <v>1.7</v>
+      </c>
+      <c r="BM103">
+        <v>2.76</v>
+      </c>
+      <c r="BN103">
+        <v>1.39</v>
+      </c>
+      <c r="BO103">
+        <v>3.74</v>
+      </c>
+      <c r="BP103">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7287115</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45456.65625</v>
+      </c>
+      <c r="F104">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>78</v>
+      </c>
+      <c r="H104" t="s">
+        <v>74</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104" t="s">
+        <v>145</v>
+      </c>
+      <c r="P104" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q104">
+        <v>4.33</v>
+      </c>
+      <c r="R104">
+        <v>2.2</v>
+      </c>
+      <c r="S104">
+        <v>2.6</v>
+      </c>
+      <c r="T104">
+        <v>1.36</v>
+      </c>
+      <c r="U104">
+        <v>2.9</v>
+      </c>
+      <c r="V104">
+        <v>2.62</v>
+      </c>
+      <c r="W104">
+        <v>1.42</v>
+      </c>
+      <c r="X104">
+        <v>6</v>
+      </c>
+      <c r="Y104">
+        <v>1.09</v>
+      </c>
+      <c r="Z104">
+        <v>3.1</v>
+      </c>
+      <c r="AA104">
+        <v>3.3</v>
+      </c>
+      <c r="AB104">
+        <v>2.01</v>
+      </c>
+      <c r="AC104">
+        <v>1.02</v>
+      </c>
+      <c r="AD104">
+        <v>10</v>
+      </c>
+      <c r="AE104">
+        <v>1.29</v>
+      </c>
+      <c r="AF104">
+        <v>3.4</v>
+      </c>
+      <c r="AG104">
+        <v>1.92</v>
+      </c>
+      <c r="AH104">
+        <v>1.92</v>
+      </c>
+      <c r="AI104">
+        <v>1.75</v>
+      </c>
+      <c r="AJ104">
+        <v>2</v>
+      </c>
+      <c r="AK104">
+        <v>1.85</v>
+      </c>
+      <c r="AL104">
+        <v>1.29</v>
+      </c>
+      <c r="AM104">
+        <v>1.29</v>
+      </c>
+      <c r="AN104">
+        <v>1.45</v>
+      </c>
+      <c r="AO104">
+        <v>1.5</v>
+      </c>
+      <c r="AP104">
+        <v>1.58</v>
+      </c>
+      <c r="AQ104">
+        <v>1.36</v>
+      </c>
+      <c r="AR104">
+        <v>1.36</v>
+      </c>
+      <c r="AS104">
+        <v>1.44</v>
+      </c>
+      <c r="AT104">
+        <v>2.8</v>
+      </c>
+      <c r="AU104">
+        <v>6</v>
+      </c>
+      <c r="AV104">
+        <v>4</v>
+      </c>
+      <c r="AW104">
+        <v>5</v>
+      </c>
+      <c r="AX104">
+        <v>6</v>
+      </c>
+      <c r="AY104">
+        <v>11</v>
+      </c>
+      <c r="AZ104">
+        <v>10</v>
+      </c>
+      <c r="BA104">
+        <v>5</v>
+      </c>
+      <c r="BB104">
+        <v>3</v>
+      </c>
+      <c r="BC104">
+        <v>8</v>
+      </c>
+      <c r="BD104">
+        <v>2.81</v>
+      </c>
+      <c r="BE104">
+        <v>7.8</v>
+      </c>
+      <c r="BF104">
+        <v>1.65</v>
+      </c>
+      <c r="BG104">
+        <v>1.18</v>
+      </c>
+      <c r="BH104">
+        <v>4.05</v>
+      </c>
+      <c r="BI104">
+        <v>1.38</v>
+      </c>
+      <c r="BJ104">
+        <v>2.8</v>
+      </c>
+      <c r="BK104">
+        <v>2.2</v>
+      </c>
+      <c r="BL104">
+        <v>2</v>
+      </c>
+      <c r="BM104">
+        <v>2.09</v>
+      </c>
+      <c r="BN104">
+        <v>1.66</v>
+      </c>
+      <c r="BO104">
+        <v>2.71</v>
+      </c>
+      <c r="BP104">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7287114</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45456.65625</v>
+      </c>
+      <c r="F105">
+        <v>21</v>
+      </c>
+      <c r="G105" t="s">
+        <v>72</v>
+      </c>
+      <c r="H105" t="s">
+        <v>75</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>3</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105" t="s">
+        <v>146</v>
+      </c>
+      <c r="P105" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q105">
+        <v>2.25</v>
+      </c>
+      <c r="R105">
+        <v>2.2</v>
+      </c>
+      <c r="S105">
+        <v>5.5</v>
+      </c>
+      <c r="T105">
+        <v>1.38</v>
+      </c>
+      <c r="U105">
+        <v>2.8</v>
+      </c>
+      <c r="V105">
+        <v>2.8</v>
+      </c>
+      <c r="W105">
+        <v>1.38</v>
+      </c>
+      <c r="X105">
+        <v>6.5</v>
+      </c>
+      <c r="Y105">
+        <v>1.08</v>
+      </c>
+      <c r="Z105">
+        <v>1.63</v>
+      </c>
+      <c r="AA105">
+        <v>3.55</v>
+      </c>
+      <c r="AB105">
+        <v>4.45</v>
+      </c>
+      <c r="AC105">
+        <v>1.03</v>
+      </c>
+      <c r="AD105">
+        <v>9</v>
+      </c>
+      <c r="AE105">
+        <v>1.3</v>
+      </c>
+      <c r="AF105">
+        <v>3.2</v>
+      </c>
+      <c r="AG105">
+        <v>2</v>
+      </c>
+      <c r="AH105">
+        <v>1.73</v>
+      </c>
+      <c r="AI105">
+        <v>1.91</v>
+      </c>
+      <c r="AJ105">
+        <v>1.91</v>
+      </c>
+      <c r="AK105">
+        <v>1.17</v>
+      </c>
+      <c r="AL105">
+        <v>1.25</v>
+      </c>
+      <c r="AM105">
+        <v>2.25</v>
+      </c>
+      <c r="AN105">
+        <v>1.33</v>
+      </c>
+      <c r="AO105">
+        <v>0.3</v>
+      </c>
+      <c r="AP105">
+        <v>1.5</v>
+      </c>
+      <c r="AQ105">
+        <v>0.27</v>
+      </c>
+      <c r="AR105">
+        <v>1.34</v>
+      </c>
+      <c r="AS105">
+        <v>1.16</v>
+      </c>
+      <c r="AT105">
+        <v>2.5</v>
+      </c>
+      <c r="AU105">
+        <v>7</v>
+      </c>
+      <c r="AV105">
+        <v>3</v>
+      </c>
+      <c r="AW105">
+        <v>3</v>
+      </c>
+      <c r="AX105">
+        <v>2</v>
+      </c>
+      <c r="AY105">
+        <v>10</v>
+      </c>
+      <c r="AZ105">
+        <v>5</v>
+      </c>
+      <c r="BA105">
+        <v>1</v>
+      </c>
+      <c r="BB105">
+        <v>4</v>
+      </c>
+      <c r="BC105">
+        <v>5</v>
+      </c>
+      <c r="BD105">
+        <v>1.37</v>
+      </c>
+      <c r="BE105">
+        <v>8</v>
+      </c>
+      <c r="BF105">
+        <v>4.26</v>
+      </c>
+      <c r="BG105">
+        <v>1.21</v>
+      </c>
+      <c r="BH105">
+        <v>3.74</v>
+      </c>
+      <c r="BI105">
+        <v>1.42</v>
+      </c>
+      <c r="BJ105">
+        <v>2.65</v>
+      </c>
+      <c r="BK105">
+        <v>2.25</v>
+      </c>
+      <c r="BL105">
+        <v>2</v>
+      </c>
+      <c r="BM105">
+        <v>2.19</v>
+      </c>
+      <c r="BN105">
+        <v>1.6</v>
+      </c>
+      <c r="BO105">
+        <v>2.88</v>
+      </c>
+      <c r="BP105">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7287112</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45456.65625</v>
+      </c>
+      <c r="F106">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>70</v>
+      </c>
+      <c r="H106" t="s">
+        <v>71</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106" t="s">
+        <v>90</v>
+      </c>
+      <c r="P106" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q106">
+        <v>4.5</v>
+      </c>
+      <c r="R106">
+        <v>2.05</v>
+      </c>
+      <c r="S106">
+        <v>2.63</v>
+      </c>
+      <c r="T106">
+        <v>1.42</v>
+      </c>
+      <c r="U106">
+        <v>2.62</v>
+      </c>
+      <c r="V106">
+        <v>3</v>
+      </c>
+      <c r="W106">
+        <v>1.33</v>
+      </c>
+      <c r="X106">
+        <v>7.5</v>
+      </c>
+      <c r="Y106">
+        <v>1.06</v>
+      </c>
+      <c r="Z106">
+        <v>3.3</v>
+      </c>
+      <c r="AA106">
+        <v>3.1</v>
+      </c>
+      <c r="AB106">
+        <v>1.96</v>
+      </c>
+      <c r="AC106">
+        <v>1.05</v>
+      </c>
+      <c r="AD106">
+        <v>8</v>
+      </c>
+      <c r="AE106">
+        <v>1.36</v>
+      </c>
+      <c r="AF106">
+        <v>2.9</v>
+      </c>
+      <c r="AG106">
+        <v>2.1</v>
+      </c>
+      <c r="AH106">
+        <v>1.67</v>
+      </c>
+      <c r="AI106">
+        <v>1.95</v>
+      </c>
+      <c r="AJ106">
+        <v>1.8</v>
+      </c>
+      <c r="AK106">
+        <v>1.83</v>
+      </c>
+      <c r="AL106">
+        <v>1.33</v>
+      </c>
+      <c r="AM106">
+        <v>1.25</v>
+      </c>
+      <c r="AN106">
+        <v>1.33</v>
+      </c>
+      <c r="AO106">
+        <v>1.2</v>
+      </c>
+      <c r="AP106">
+        <v>1.2</v>
+      </c>
+      <c r="AQ106">
+        <v>1.36</v>
+      </c>
+      <c r="AR106">
+        <v>1.19</v>
+      </c>
+      <c r="AS106">
+        <v>1.36</v>
+      </c>
+      <c r="AT106">
+        <v>2.55</v>
+      </c>
+      <c r="AU106">
+        <v>4</v>
+      </c>
+      <c r="AV106">
+        <v>6</v>
+      </c>
+      <c r="AW106">
+        <v>1</v>
+      </c>
+      <c r="AX106">
+        <v>7</v>
+      </c>
+      <c r="AY106">
+        <v>5</v>
+      </c>
+      <c r="AZ106">
+        <v>13</v>
+      </c>
+      <c r="BA106">
+        <v>4</v>
+      </c>
+      <c r="BB106">
+        <v>9</v>
+      </c>
+      <c r="BC106">
+        <v>13</v>
+      </c>
+      <c r="BD106">
+        <v>2.91</v>
+      </c>
+      <c r="BE106">
+        <v>7.7</v>
+      </c>
+      <c r="BF106">
+        <v>1.62</v>
+      </c>
+      <c r="BG106">
+        <v>1.22</v>
+      </c>
+      <c r="BH106">
+        <v>3.64</v>
+      </c>
+      <c r="BI106">
+        <v>1.44</v>
+      </c>
+      <c r="BJ106">
+        <v>2.57</v>
+      </c>
+      <c r="BK106">
+        <v>1.92</v>
+      </c>
+      <c r="BL106">
+        <v>1.88</v>
+      </c>
+      <c r="BM106">
+        <v>2.27</v>
+      </c>
+      <c r="BN106">
+        <v>1.56</v>
+      </c>
+      <c r="BO106">
+        <v>2.98</v>
+      </c>
+      <c r="BP106">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7287116</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45456.65625</v>
+      </c>
+      <c r="F107">
+        <v>21</v>
+      </c>
+      <c r="G107" t="s">
+        <v>73</v>
+      </c>
+      <c r="H107" t="s">
+        <v>77</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107" t="s">
+        <v>82</v>
+      </c>
+      <c r="P107" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q107">
+        <v>4</v>
+      </c>
+      <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="S107">
+        <v>3.1</v>
+      </c>
+      <c r="T107">
+        <v>1.5</v>
+      </c>
+      <c r="U107">
+        <v>2.4</v>
+      </c>
+      <c r="V107">
+        <v>3.3</v>
+      </c>
+      <c r="W107">
+        <v>1.29</v>
+      </c>
+      <c r="X107">
+        <v>8.5</v>
+      </c>
+      <c r="Y107">
+        <v>1.04</v>
+      </c>
+      <c r="Z107">
+        <v>3.15</v>
+      </c>
+      <c r="AA107">
+        <v>2.89</v>
+      </c>
+      <c r="AB107">
+        <v>2.16</v>
+      </c>
+      <c r="AC107">
+        <v>1.07</v>
+      </c>
+      <c r="AD107">
+        <v>7</v>
+      </c>
+      <c r="AE107">
+        <v>1.42</v>
+      </c>
+      <c r="AF107">
+        <v>2.62</v>
+      </c>
+      <c r="AG107">
+        <v>2.37</v>
+      </c>
+      <c r="AH107">
+        <v>1.5</v>
+      </c>
+      <c r="AI107">
+        <v>1.95</v>
+      </c>
+      <c r="AJ107">
+        <v>1.8</v>
+      </c>
+      <c r="AK107">
+        <v>1.62</v>
+      </c>
+      <c r="AL107">
+        <v>1.35</v>
+      </c>
+      <c r="AM107">
+        <v>1.35</v>
+      </c>
+      <c r="AN107">
+        <v>1.7</v>
+      </c>
+      <c r="AO107">
+        <v>1.9</v>
+      </c>
+      <c r="AP107">
+        <v>1.55</v>
+      </c>
+      <c r="AQ107">
+        <v>2</v>
+      </c>
+      <c r="AR107">
+        <v>1.35</v>
+      </c>
+      <c r="AS107">
+        <v>1.03</v>
+      </c>
+      <c r="AT107">
+        <v>2.38</v>
+      </c>
+      <c r="AU107">
+        <v>2</v>
+      </c>
+      <c r="AV107">
+        <v>6</v>
+      </c>
+      <c r="AW107">
+        <v>5</v>
+      </c>
+      <c r="AX107">
+        <v>2</v>
+      </c>
+      <c r="AY107">
+        <v>7</v>
+      </c>
+      <c r="AZ107">
+        <v>8</v>
+      </c>
+      <c r="BA107">
+        <v>2</v>
+      </c>
+      <c r="BB107">
+        <v>2</v>
+      </c>
+      <c r="BC107">
+        <v>4</v>
+      </c>
+      <c r="BD107">
+        <v>2.15</v>
+      </c>
+      <c r="BE107">
+        <v>7.1</v>
+      </c>
+      <c r="BF107">
+        <v>2.03</v>
+      </c>
+      <c r="BG107">
+        <v>1.28</v>
+      </c>
+      <c r="BH107">
+        <v>3.2</v>
+      </c>
+      <c r="BI107">
+        <v>1.54</v>
+      </c>
+      <c r="BJ107">
+        <v>2.32</v>
+      </c>
+      <c r="BK107">
+        <v>2.25</v>
+      </c>
+      <c r="BL107">
+        <v>1.98</v>
+      </c>
+      <c r="BM107">
+        <v>2.52</v>
+      </c>
+      <c r="BN107">
+        <v>1.46</v>
+      </c>
+      <c r="BO107">
+        <v>3.42</v>
+      </c>
+      <c r="BP107">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="199">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -455,6 +455,15 @@
   </si>
   <si>
     <t>['7', '61', '90+3']</t>
+  </si>
+  <si>
+    <t>['11', '36']</t>
+  </si>
+  <si>
+    <t>['74', '84']</t>
+  </si>
+  <si>
+    <t>['6', '30', '57', '67', '88']</t>
   </si>
   <si>
     <t>['23', '45+2']</t>
@@ -963,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP107"/>
+  <dimension ref="A1:BP112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1222,7 +1231,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1428,7 +1437,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1506,10 +1515,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ3">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1840,7 +1849,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2252,7 +2261,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2333,7 +2342,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ7">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2458,7 +2467,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2536,10 +2545,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2664,7 +2673,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2742,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2948,10 +2957,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3154,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ11">
         <v>1.36</v>
@@ -3282,7 +3291,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3360,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -3488,7 +3497,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3569,7 +3578,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR13">
         <v>0.97</v>
@@ -3694,7 +3703,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3772,7 +3781,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ14">
         <v>0.73</v>
@@ -3981,7 +3990,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR15">
         <v>1.32</v>
@@ -4106,7 +4115,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4184,7 +4193,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ16">
         <v>1.09</v>
@@ -4390,10 +4399,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR17">
         <v>1.23</v>
@@ -4518,7 +4527,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4724,7 +4733,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -5008,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ20">
         <v>0.45</v>
@@ -5136,7 +5145,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5420,10 +5429,10 @@
         <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ22">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR22">
         <v>1.39</v>
@@ -5629,7 +5638,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR23">
         <v>1.34</v>
@@ -5832,10 +5841,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ24">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -5960,7 +5969,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6038,7 +6047,7 @@
         <v>2.33</v>
       </c>
       <c r="AP25">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ25">
         <v>2</v>
@@ -6247,7 +6256,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6450,10 +6459,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ27">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR27">
         <v>1.35</v>
@@ -6578,7 +6587,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6862,10 +6871,10 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ29">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR29">
         <v>1.29</v>
@@ -7068,10 +7077,10 @@
         <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7480,7 +7489,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>0.45</v>
@@ -7608,7 +7617,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7814,7 +7823,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -7895,7 +7904,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ34">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR34">
         <v>1.27</v>
@@ -8098,10 +8107,10 @@
         <v>0.33</v>
       </c>
       <c r="AP35">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ35">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR35">
         <v>1.43</v>
@@ -8226,7 +8235,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8307,7 +8316,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ36">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR36">
         <v>1.43</v>
@@ -8510,7 +8519,7 @@
         <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ37">
         <v>1.09</v>
@@ -8716,7 +8725,7 @@
         <v>0.67</v>
       </c>
       <c r="AP38">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>1.36</v>
@@ -8844,7 +8853,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8925,7 +8934,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR39">
         <v>1.28</v>
@@ -9050,7 +9059,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9131,7 +9140,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ40">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR40">
         <v>1.04</v>
@@ -9256,7 +9265,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9334,7 +9343,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ41">
         <v>0.45</v>
@@ -9462,7 +9471,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9668,7 +9677,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9746,10 +9755,10 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ43">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR43">
         <v>1.58</v>
@@ -9874,7 +9883,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -9952,10 +9961,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR44">
         <v>0.87</v>
@@ -10080,7 +10089,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10364,7 +10373,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ46">
         <v>0.73</v>
@@ -10573,7 +10582,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR47">
         <v>1.3</v>
@@ -11191,7 +11200,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ50">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR50">
         <v>1.1</v>
@@ -11316,7 +11325,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11394,10 +11403,10 @@
         <v>1.4</v>
       </c>
       <c r="AP51">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ51">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR51">
         <v>1.37</v>
@@ -11522,7 +11531,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11600,7 +11609,7 @@
         <v>0.2</v>
       </c>
       <c r="AP52">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ52">
         <v>0.45</v>
@@ -11806,10 +11815,10 @@
         <v>1.4</v>
       </c>
       <c r="AP53">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ53">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR53">
         <v>1.43</v>
@@ -12218,10 +12227,10 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR55">
         <v>1.35</v>
@@ -12424,7 +12433,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ56">
         <v>0.73</v>
@@ -12630,10 +12639,10 @@
         <v>1.67</v>
       </c>
       <c r="AP57">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR57">
         <v>1</v>
@@ -12758,7 +12767,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13042,10 +13051,10 @@
         <v>1.8</v>
       </c>
       <c r="AP59">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ59">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR59">
         <v>1.21</v>
@@ -13248,7 +13257,7 @@
         <v>0.83</v>
       </c>
       <c r="AP60">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
         <v>0.73</v>
@@ -13376,7 +13385,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13582,7 +13591,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13663,7 +13672,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ62">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR62">
         <v>1.75</v>
@@ -13869,7 +13878,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ63">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR63">
         <v>1.78</v>
@@ -14278,10 +14287,10 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ65">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR65">
         <v>1.39</v>
@@ -14484,7 +14493,7 @@
         <v>1.83</v>
       </c>
       <c r="AP66">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ66">
         <v>2</v>
@@ -14612,7 +14621,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14693,7 +14702,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ67">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR67">
         <v>1.06</v>
@@ -14818,7 +14827,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -14896,10 +14905,10 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ68">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR68">
         <v>1.34</v>
@@ -15024,7 +15033,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15311,7 +15320,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR70">
         <v>1.06</v>
@@ -15436,7 +15445,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -15517,7 +15526,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ71">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR71">
         <v>1.85</v>
@@ -15720,7 +15729,7 @@
         <v>0.71</v>
       </c>
       <c r="AP72">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ72">
         <v>0.73</v>
@@ -15926,7 +15935,7 @@
         <v>1.71</v>
       </c>
       <c r="AP73">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ73">
         <v>2</v>
@@ -16054,7 +16063,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16544,10 +16553,10 @@
         <v>0.29</v>
       </c>
       <c r="AP76">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ76">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR76">
         <v>1.05</v>
@@ -16750,10 +16759,10 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ77">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR77">
         <v>1.34</v>
@@ -16878,7 +16887,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17162,10 +17171,10 @@
         <v>1.75</v>
       </c>
       <c r="AP79">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR79">
         <v>1.2</v>
@@ -17290,7 +17299,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17368,7 +17377,7 @@
         <v>1.14</v>
       </c>
       <c r="AP80">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ80">
         <v>1.36</v>
@@ -17496,7 +17505,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17574,10 +17583,10 @@
         <v>1.29</v>
       </c>
       <c r="AP81">
+        <v>1.45</v>
+      </c>
+      <c r="AQ81">
         <v>1.3</v>
-      </c>
-      <c r="AQ81">
-        <v>1.33</v>
       </c>
       <c r="AR81">
         <v>1.3</v>
@@ -17702,7 +17711,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -17783,7 +17792,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ82">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR82">
         <v>1.34</v>
@@ -17986,10 +17995,10 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ83">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR83">
         <v>1.34</v>
@@ -18114,7 +18123,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18192,7 +18201,7 @@
         <v>1.63</v>
       </c>
       <c r="AP84">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ84">
         <v>2</v>
@@ -18526,7 +18535,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18607,7 +18616,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ86">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR86">
         <v>1.18</v>
@@ -18732,7 +18741,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -18938,7 +18947,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -19016,7 +19025,7 @@
         <v>1.14</v>
       </c>
       <c r="AP88">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ88">
         <v>1.09</v>
@@ -19350,7 +19359,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19637,7 +19646,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ91">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR91">
         <v>1.23</v>
@@ -19762,7 +19771,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q92">
         <v>3.2</v>
@@ -19840,10 +19849,10 @@
         <v>1.88</v>
       </c>
       <c r="AP92">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ92">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR92">
         <v>1.44</v>
@@ -20046,7 +20055,7 @@
         <v>1.22</v>
       </c>
       <c r="AP93">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ93">
         <v>1.36</v>
@@ -20174,7 +20183,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q94">
         <v>5.5</v>
@@ -20255,7 +20264,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ94">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR94">
         <v>1.39</v>
@@ -20380,7 +20389,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20458,7 +20467,7 @@
         <v>1.13</v>
       </c>
       <c r="AP95">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ95">
         <v>1.09</v>
@@ -20586,7 +20595,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20664,10 +20673,10 @@
         <v>0.33</v>
       </c>
       <c r="AP96">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ96">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR96">
         <v>1.26</v>
@@ -20792,7 +20801,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -20870,7 +20879,7 @@
         <v>0.22</v>
       </c>
       <c r="AP97">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ97">
         <v>0.45</v>
@@ -21076,10 +21085,10 @@
         <v>1.56</v>
       </c>
       <c r="AP98">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ98">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR98">
         <v>1.5</v>
@@ -21282,7 +21291,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ99">
         <v>0.45</v>
@@ -21410,7 +21419,7 @@
         <v>142</v>
       </c>
       <c r="P100" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21694,10 +21703,10 @@
         <v>1.67</v>
       </c>
       <c r="AP101">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ101">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR101">
         <v>1.5</v>
@@ -22106,7 +22115,7 @@
         <v>1.2</v>
       </c>
       <c r="AP103">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ103">
         <v>1.09</v>
@@ -22234,7 +22243,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22312,10 +22321,10 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ104">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR104">
         <v>1.36</v>
@@ -22521,7 +22530,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ105">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR105">
         <v>1.34</v>
@@ -22646,7 +22655,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q106">
         <v>4.5</v>
@@ -22852,7 +22861,7 @@
         <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23009,6 +23018,1036 @@
       </c>
       <c r="BP107">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7287118</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45471.65625</v>
+      </c>
+      <c r="F108">
+        <v>22</v>
+      </c>
+      <c r="G108" t="s">
+        <v>76</v>
+      </c>
+      <c r="H108" t="s">
+        <v>73</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>2</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108" t="s">
+        <v>82</v>
+      </c>
+      <c r="P108" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q108">
+        <v>2.88</v>
+      </c>
+      <c r="R108">
+        <v>2</v>
+      </c>
+      <c r="S108">
+        <v>4.33</v>
+      </c>
+      <c r="T108">
+        <v>1.47</v>
+      </c>
+      <c r="U108">
+        <v>2.66</v>
+      </c>
+      <c r="V108">
+        <v>3.25</v>
+      </c>
+      <c r="W108">
+        <v>1.34</v>
+      </c>
+      <c r="X108">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y108">
+        <v>1.04</v>
+      </c>
+      <c r="Z108">
+        <v>2.23</v>
+      </c>
+      <c r="AA108">
+        <v>3.15</v>
+      </c>
+      <c r="AB108">
+        <v>3.05</v>
+      </c>
+      <c r="AC108">
+        <v>1.01</v>
+      </c>
+      <c r="AD108">
+        <v>2.92</v>
+      </c>
+      <c r="AE108">
+        <v>1.38</v>
+      </c>
+      <c r="AF108">
+        <v>2.92</v>
+      </c>
+      <c r="AG108">
+        <v>2.07</v>
+      </c>
+      <c r="AH108">
+        <v>1.62</v>
+      </c>
+      <c r="AI108">
+        <v>1.95</v>
+      </c>
+      <c r="AJ108">
+        <v>1.8</v>
+      </c>
+      <c r="AK108">
+        <v>1.36</v>
+      </c>
+      <c r="AL108">
+        <v>1.4</v>
+      </c>
+      <c r="AM108">
+        <v>1.67</v>
+      </c>
+      <c r="AN108">
+        <v>1.4</v>
+      </c>
+      <c r="AO108">
+        <v>1.4</v>
+      </c>
+      <c r="AP108">
+        <v>1.27</v>
+      </c>
+      <c r="AQ108">
+        <v>1.55</v>
+      </c>
+      <c r="AR108">
+        <v>1.32</v>
+      </c>
+      <c r="AS108">
+        <v>1.09</v>
+      </c>
+      <c r="AT108">
+        <v>2.41</v>
+      </c>
+      <c r="AU108">
+        <v>7</v>
+      </c>
+      <c r="AV108">
+        <v>5</v>
+      </c>
+      <c r="AW108">
+        <v>8</v>
+      </c>
+      <c r="AX108">
+        <v>5</v>
+      </c>
+      <c r="AY108">
+        <v>15</v>
+      </c>
+      <c r="AZ108">
+        <v>10</v>
+      </c>
+      <c r="BA108">
+        <v>5</v>
+      </c>
+      <c r="BB108">
+        <v>3</v>
+      </c>
+      <c r="BC108">
+        <v>8</v>
+      </c>
+      <c r="BD108">
+        <v>1.62</v>
+      </c>
+      <c r="BE108">
+        <v>7.7</v>
+      </c>
+      <c r="BF108">
+        <v>2.91</v>
+      </c>
+      <c r="BG108">
+        <v>1.33</v>
+      </c>
+      <c r="BH108">
+        <v>3</v>
+      </c>
+      <c r="BI108">
+        <v>1.57</v>
+      </c>
+      <c r="BJ108">
+        <v>2.34</v>
+      </c>
+      <c r="BK108">
+        <v>1.96</v>
+      </c>
+      <c r="BL108">
+        <v>1.84</v>
+      </c>
+      <c r="BM108">
+        <v>2.51</v>
+      </c>
+      <c r="BN108">
+        <v>1.51</v>
+      </c>
+      <c r="BO108">
+        <v>3.2</v>
+      </c>
+      <c r="BP108">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7287119</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45471.65625</v>
+      </c>
+      <c r="F109">
+        <v>22</v>
+      </c>
+      <c r="G109" t="s">
+        <v>77</v>
+      </c>
+      <c r="H109" t="s">
+        <v>72</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>2</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>2</v>
+      </c>
+      <c r="O109" t="s">
+        <v>147</v>
+      </c>
+      <c r="P109" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q109">
+        <v>3.1</v>
+      </c>
+      <c r="R109">
+        <v>1.91</v>
+      </c>
+      <c r="S109">
+        <v>4.33</v>
+      </c>
+      <c r="T109">
+        <v>1.59</v>
+      </c>
+      <c r="U109">
+        <v>2.24</v>
+      </c>
+      <c r="V109">
+        <v>3.7</v>
+      </c>
+      <c r="W109">
+        <v>1.24</v>
+      </c>
+      <c r="X109">
+        <v>10.5</v>
+      </c>
+      <c r="Y109">
+        <v>1.02</v>
+      </c>
+      <c r="Z109">
+        <v>2.13</v>
+      </c>
+      <c r="AA109">
+        <v>2.9</v>
+      </c>
+      <c r="AB109">
+        <v>3.6</v>
+      </c>
+      <c r="AC109">
+        <v>1.11</v>
+      </c>
+      <c r="AD109">
+        <v>6.5</v>
+      </c>
+      <c r="AE109">
+        <v>1.57</v>
+      </c>
+      <c r="AF109">
+        <v>2.41</v>
+      </c>
+      <c r="AG109">
+        <v>2.55</v>
+      </c>
+      <c r="AH109">
+        <v>1.41</v>
+      </c>
+      <c r="AI109">
+        <v>2.2</v>
+      </c>
+      <c r="AJ109">
+        <v>1.62</v>
+      </c>
+      <c r="AK109">
+        <v>1.28</v>
+      </c>
+      <c r="AL109">
+        <v>1.3</v>
+      </c>
+      <c r="AM109">
+        <v>1.63</v>
+      </c>
+      <c r="AN109">
+        <v>1.91</v>
+      </c>
+      <c r="AO109">
+        <v>1.5</v>
+      </c>
+      <c r="AP109">
+        <v>2</v>
+      </c>
+      <c r="AQ109">
+        <v>1.36</v>
+      </c>
+      <c r="AR109">
+        <v>1.37</v>
+      </c>
+      <c r="AS109">
+        <v>1.17</v>
+      </c>
+      <c r="AT109">
+        <v>2.54</v>
+      </c>
+      <c r="AU109">
+        <v>4</v>
+      </c>
+      <c r="AV109">
+        <v>3</v>
+      </c>
+      <c r="AW109">
+        <v>2</v>
+      </c>
+      <c r="AX109">
+        <v>5</v>
+      </c>
+      <c r="AY109">
+        <v>6</v>
+      </c>
+      <c r="AZ109">
+        <v>8</v>
+      </c>
+      <c r="BA109">
+        <v>5</v>
+      </c>
+      <c r="BB109">
+        <v>5</v>
+      </c>
+      <c r="BC109">
+        <v>10</v>
+      </c>
+      <c r="BD109">
+        <v>1.59</v>
+      </c>
+      <c r="BE109">
+        <v>7.8</v>
+      </c>
+      <c r="BF109">
+        <v>3</v>
+      </c>
+      <c r="BG109">
+        <v>1.38</v>
+      </c>
+      <c r="BH109">
+        <v>2.8</v>
+      </c>
+      <c r="BI109">
+        <v>1.67</v>
+      </c>
+      <c r="BJ109">
+        <v>2.18</v>
+      </c>
+      <c r="BK109">
+        <v>2.09</v>
+      </c>
+      <c r="BL109">
+        <v>1.72</v>
+      </c>
+      <c r="BM109">
+        <v>2.62</v>
+      </c>
+      <c r="BN109">
+        <v>1.42</v>
+      </c>
+      <c r="BO109">
+        <v>3.4</v>
+      </c>
+      <c r="BP109">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7287120</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45471.65625</v>
+      </c>
+      <c r="F110">
+        <v>22</v>
+      </c>
+      <c r="G110" t="s">
+        <v>79</v>
+      </c>
+      <c r="H110" t="s">
+        <v>74</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>2</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+      <c r="O110" t="s">
+        <v>148</v>
+      </c>
+      <c r="P110" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q110">
+        <v>7</v>
+      </c>
+      <c r="R110">
+        <v>2.4</v>
+      </c>
+      <c r="S110">
+        <v>1.91</v>
+      </c>
+      <c r="T110">
+        <v>1.33</v>
+      </c>
+      <c r="U110">
+        <v>3.16</v>
+      </c>
+      <c r="V110">
+        <v>2.55</v>
+      </c>
+      <c r="W110">
+        <v>1.48</v>
+      </c>
+      <c r="X110">
+        <v>6.1</v>
+      </c>
+      <c r="Y110">
+        <v>1.1</v>
+      </c>
+      <c r="Z110">
+        <v>6.85</v>
+      </c>
+      <c r="AA110">
+        <v>4.85</v>
+      </c>
+      <c r="AB110">
+        <v>1.35</v>
+      </c>
+      <c r="AC110">
+        <v>1.01</v>
+      </c>
+      <c r="AD110">
+        <v>10.5</v>
+      </c>
+      <c r="AE110">
+        <v>1.21</v>
+      </c>
+      <c r="AF110">
+        <v>3.75</v>
+      </c>
+      <c r="AG110">
+        <v>1.76</v>
+      </c>
+      <c r="AH110">
+        <v>1.88</v>
+      </c>
+      <c r="AI110">
+        <v>1.95</v>
+      </c>
+      <c r="AJ110">
+        <v>1.8</v>
+      </c>
+      <c r="AK110">
+        <v>3.04</v>
+      </c>
+      <c r="AL110">
+        <v>1.18</v>
+      </c>
+      <c r="AM110">
+        <v>1.08</v>
+      </c>
+      <c r="AN110">
+        <v>1.3</v>
+      </c>
+      <c r="AO110">
+        <v>1.36</v>
+      </c>
+      <c r="AP110">
+        <v>1.45</v>
+      </c>
+      <c r="AQ110">
+        <v>1.25</v>
+      </c>
+      <c r="AR110">
+        <v>1.25</v>
+      </c>
+      <c r="AS110">
+        <v>1.42</v>
+      </c>
+      <c r="AT110">
+        <v>2.67</v>
+      </c>
+      <c r="AU110">
+        <v>8</v>
+      </c>
+      <c r="AV110">
+        <v>4</v>
+      </c>
+      <c r="AW110">
+        <v>9</v>
+      </c>
+      <c r="AX110">
+        <v>10</v>
+      </c>
+      <c r="AY110">
+        <v>17</v>
+      </c>
+      <c r="AZ110">
+        <v>14</v>
+      </c>
+      <c r="BA110">
+        <v>7</v>
+      </c>
+      <c r="BB110">
+        <v>2</v>
+      </c>
+      <c r="BC110">
+        <v>9</v>
+      </c>
+      <c r="BD110">
+        <v>4.76</v>
+      </c>
+      <c r="BE110">
+        <v>8.6</v>
+      </c>
+      <c r="BF110">
+        <v>1.31</v>
+      </c>
+      <c r="BG110">
+        <v>1.25</v>
+      </c>
+      <c r="BH110">
+        <v>3.6</v>
+      </c>
+      <c r="BI110">
+        <v>1.44</v>
+      </c>
+      <c r="BJ110">
+        <v>2.6</v>
+      </c>
+      <c r="BK110">
+        <v>2.25</v>
+      </c>
+      <c r="BL110">
+        <v>2.04</v>
+      </c>
+      <c r="BM110">
+        <v>2.19</v>
+      </c>
+      <c r="BN110">
+        <v>1.65</v>
+      </c>
+      <c r="BO110">
+        <v>2.7</v>
+      </c>
+      <c r="BP110">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7287121</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45471.65625</v>
+      </c>
+      <c r="F111">
+        <v>22</v>
+      </c>
+      <c r="G111" t="s">
+        <v>78</v>
+      </c>
+      <c r="H111" t="s">
+        <v>70</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111" t="s">
+        <v>82</v>
+      </c>
+      <c r="P111" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q111">
+        <v>2.6</v>
+      </c>
+      <c r="R111">
+        <v>2.2</v>
+      </c>
+      <c r="S111">
+        <v>4</v>
+      </c>
+      <c r="T111">
+        <v>1.41</v>
+      </c>
+      <c r="U111">
+        <v>2.7</v>
+      </c>
+      <c r="V111">
+        <v>2.95</v>
+      </c>
+      <c r="W111">
+        <v>1.35</v>
+      </c>
+      <c r="X111">
+        <v>7.4</v>
+      </c>
+      <c r="Y111">
+        <v>1.06</v>
+      </c>
+      <c r="Z111">
+        <v>1.86</v>
+      </c>
+      <c r="AA111">
+        <v>3.35</v>
+      </c>
+      <c r="AB111">
+        <v>3.85</v>
+      </c>
+      <c r="AC111">
+        <v>1.02</v>
+      </c>
+      <c r="AD111">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE111">
+        <v>1.29</v>
+      </c>
+      <c r="AF111">
+        <v>3.15</v>
+      </c>
+      <c r="AG111">
+        <v>1.92</v>
+      </c>
+      <c r="AH111">
+        <v>1.73</v>
+      </c>
+      <c r="AI111">
+        <v>1.75</v>
+      </c>
+      <c r="AJ111">
+        <v>2</v>
+      </c>
+      <c r="AK111">
+        <v>1.25</v>
+      </c>
+      <c r="AL111">
+        <v>1.25</v>
+      </c>
+      <c r="AM111">
+        <v>1.83</v>
+      </c>
+      <c r="AN111">
+        <v>1.58</v>
+      </c>
+      <c r="AO111">
+        <v>1.33</v>
+      </c>
+      <c r="AP111">
+        <v>1.54</v>
+      </c>
+      <c r="AQ111">
+        <v>1.3</v>
+      </c>
+      <c r="AR111">
+        <v>1.37</v>
+      </c>
+      <c r="AS111">
+        <v>1.19</v>
+      </c>
+      <c r="AT111">
+        <v>2.56</v>
+      </c>
+      <c r="AU111">
+        <v>8</v>
+      </c>
+      <c r="AV111">
+        <v>2</v>
+      </c>
+      <c r="AW111">
+        <v>7</v>
+      </c>
+      <c r="AX111">
+        <v>5</v>
+      </c>
+      <c r="AY111">
+        <v>15</v>
+      </c>
+      <c r="AZ111">
+        <v>7</v>
+      </c>
+      <c r="BA111">
+        <v>7</v>
+      </c>
+      <c r="BB111">
+        <v>2</v>
+      </c>
+      <c r="BC111">
+        <v>9</v>
+      </c>
+      <c r="BD111">
+        <v>1.65</v>
+      </c>
+      <c r="BE111">
+        <v>7.8</v>
+      </c>
+      <c r="BF111">
+        <v>2.81</v>
+      </c>
+      <c r="BG111">
+        <v>1.22</v>
+      </c>
+      <c r="BH111">
+        <v>3.8</v>
+      </c>
+      <c r="BI111">
+        <v>1.4</v>
+      </c>
+      <c r="BJ111">
+        <v>2.7</v>
+      </c>
+      <c r="BK111">
+        <v>2.1</v>
+      </c>
+      <c r="BL111">
+        <v>2.2</v>
+      </c>
+      <c r="BM111">
+        <v>2.04</v>
+      </c>
+      <c r="BN111">
+        <v>1.75</v>
+      </c>
+      <c r="BO111">
+        <v>2.5</v>
+      </c>
+      <c r="BP111">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7287117</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45471.65625</v>
+      </c>
+      <c r="F112">
+        <v>22</v>
+      </c>
+      <c r="G112" t="s">
+        <v>71</v>
+      </c>
+      <c r="H112" t="s">
+        <v>75</v>
+      </c>
+      <c r="I112">
+        <v>2</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>3</v>
+      </c>
+      <c r="L112">
+        <v>5</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>6</v>
+      </c>
+      <c r="O112" t="s">
+        <v>149</v>
+      </c>
+      <c r="P112" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q112">
+        <v>1.73</v>
+      </c>
+      <c r="R112">
+        <v>2.5</v>
+      </c>
+      <c r="S112">
+        <v>8.5</v>
+      </c>
+      <c r="T112">
+        <v>1.33</v>
+      </c>
+      <c r="U112">
+        <v>3.05</v>
+      </c>
+      <c r="V112">
+        <v>2.5</v>
+      </c>
+      <c r="W112">
+        <v>1.47</v>
+      </c>
+      <c r="X112">
+        <v>5.95</v>
+      </c>
+      <c r="Y112">
+        <v>1.1</v>
+      </c>
+      <c r="Z112">
+        <v>1.23</v>
+      </c>
+      <c r="AA112">
+        <v>5.35</v>
+      </c>
+      <c r="AB112">
+        <v>10.7</v>
+      </c>
+      <c r="AC112">
+        <v>1.04</v>
+      </c>
+      <c r="AD112">
+        <v>10</v>
+      </c>
+      <c r="AE112">
+        <v>1.22</v>
+      </c>
+      <c r="AF112">
+        <v>4</v>
+      </c>
+      <c r="AG112">
+        <v>1.62</v>
+      </c>
+      <c r="AH112">
+        <v>2.07</v>
+      </c>
+      <c r="AI112">
+        <v>2.1</v>
+      </c>
+      <c r="AJ112">
+        <v>1.67</v>
+      </c>
+      <c r="AK112">
+        <v>1.01</v>
+      </c>
+      <c r="AL112">
+        <v>1.11</v>
+      </c>
+      <c r="AM112">
+        <v>3.4</v>
+      </c>
+      <c r="AN112">
+        <v>2.17</v>
+      </c>
+      <c r="AO112">
+        <v>0.27</v>
+      </c>
+      <c r="AP112">
+        <v>2.23</v>
+      </c>
+      <c r="AQ112">
+        <v>0.25</v>
+      </c>
+      <c r="AR112">
+        <v>1.53</v>
+      </c>
+      <c r="AS112">
+        <v>1.13</v>
+      </c>
+      <c r="AT112">
+        <v>2.66</v>
+      </c>
+      <c r="AU112">
+        <v>8</v>
+      </c>
+      <c r="AV112">
+        <v>3</v>
+      </c>
+      <c r="AW112">
+        <v>7</v>
+      </c>
+      <c r="AX112">
+        <v>2</v>
+      </c>
+      <c r="AY112">
+        <v>15</v>
+      </c>
+      <c r="AZ112">
+        <v>5</v>
+      </c>
+      <c r="BA112">
+        <v>7</v>
+      </c>
+      <c r="BB112">
+        <v>3</v>
+      </c>
+      <c r="BC112">
+        <v>10</v>
+      </c>
+      <c r="BD112">
+        <v>1.18</v>
+      </c>
+      <c r="BE112">
+        <v>13.5</v>
+      </c>
+      <c r="BF112">
+        <v>5.95</v>
+      </c>
+      <c r="BG112">
+        <v>1.25</v>
+      </c>
+      <c r="BH112">
+        <v>3.6</v>
+      </c>
+      <c r="BI112">
+        <v>1.42</v>
+      </c>
+      <c r="BJ112">
+        <v>2.62</v>
+      </c>
+      <c r="BK112">
+        <v>2</v>
+      </c>
+      <c r="BL112">
+        <v>2.07</v>
+      </c>
+      <c r="BM112">
+        <v>2.19</v>
+      </c>
+      <c r="BN112">
+        <v>1.65</v>
+      </c>
+      <c r="BO112">
+        <v>2.62</v>
+      </c>
+      <c r="BP112">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="204">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -466,6 +466,18 @@
     <t>['6', '30', '57', '67', '88']</t>
   </si>
   <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['61', '89']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -611,6 +623,9 @@
   </si>
   <si>
     <t>['17', '90+4']</t>
+  </si>
+  <si>
+    <t>['20']</t>
   </si>
 </sst>
 </file>
@@ -972,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP112"/>
+  <dimension ref="A1:BP117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1231,7 +1246,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1437,7 +1452,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1721,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ4">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1849,7 +1864,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1927,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2133,10 +2148,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ6">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2261,7 +2276,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2339,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ7">
         <v>1.55</v>
@@ -2467,7 +2482,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2673,7 +2688,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2960,7 +2975,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ10">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3163,10 +3178,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ11">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3291,7 +3306,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3369,10 +3384,10 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR12">
         <v>1</v>
@@ -3497,7 +3512,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3575,7 +3590,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ13">
         <v>1.55</v>
@@ -3703,7 +3718,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3784,7 +3799,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ14">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR14">
         <v>1.63</v>
@@ -3987,10 +4002,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ15">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR15">
         <v>1.32</v>
@@ -4115,7 +4130,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4527,7 +4542,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4605,10 +4620,10 @@
         <v>1.5</v>
       </c>
       <c r="AP18">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ18">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR18">
         <v>0.95</v>
@@ -4733,7 +4748,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -4811,10 +4826,10 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ19">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR19">
         <v>1.24</v>
@@ -5020,7 +5035,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ20">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR20">
         <v>1.54</v>
@@ -5145,7 +5160,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5226,7 +5241,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR21">
         <v>1.54</v>
@@ -5635,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ23">
         <v>0.25</v>
@@ -5841,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ24">
         <v>1.25</v>
@@ -5969,7 +5984,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6050,7 +6065,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR25">
         <v>1.56</v>
@@ -6253,7 +6268,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ26">
         <v>1.25</v>
@@ -6587,7 +6602,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6668,7 +6683,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ28">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -6871,7 +6886,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ29">
         <v>0.25</v>
@@ -7283,10 +7298,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ31">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR31">
         <v>1.4</v>
@@ -7492,7 +7507,7 @@
         <v>2</v>
       </c>
       <c r="AQ32">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR32">
         <v>1</v>
@@ -7617,7 +7632,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7695,7 +7710,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ33">
         <v>1.09</v>
@@ -7823,7 +7838,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -7901,10 +7916,10 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ34">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR34">
         <v>1.27</v>
@@ -8235,7 +8250,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8313,7 +8328,7 @@
         <v>1.33</v>
       </c>
       <c r="AP36">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ36">
         <v>1.25</v>
@@ -8728,7 +8743,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR38">
         <v>0.99</v>
@@ -8853,7 +8868,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8931,10 +8946,10 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ39">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR39">
         <v>1.28</v>
@@ -9059,7 +9074,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9265,7 +9280,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9346,7 +9361,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ41">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR41">
         <v>1.34</v>
@@ -9471,7 +9486,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9549,10 +9564,10 @@
         <v>2.5</v>
       </c>
       <c r="AP42">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR42">
         <v>1.38</v>
@@ -9677,7 +9692,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9883,7 +9898,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -9964,7 +9979,7 @@
         <v>2</v>
       </c>
       <c r="AQ44">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR44">
         <v>0.87</v>
@@ -10089,7 +10104,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10167,10 +10182,10 @@
         <v>0.75</v>
       </c>
       <c r="AP45">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ45">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR45">
         <v>1.32</v>
@@ -10376,7 +10391,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ46">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR46">
         <v>1.26</v>
@@ -10579,7 +10594,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ47">
         <v>1.36</v>
@@ -10785,7 +10800,7 @@
         <v>1.75</v>
       </c>
       <c r="AP48">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ48">
         <v>1.09</v>
@@ -10994,7 +11009,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ49">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR49">
         <v>1.12</v>
@@ -11325,7 +11340,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11531,7 +11546,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11609,10 +11624,10 @@
         <v>0.2</v>
       </c>
       <c r="AP52">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ52">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR52">
         <v>1.24</v>
@@ -12021,10 +12036,10 @@
         <v>2.2</v>
       </c>
       <c r="AP54">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ54">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -12227,7 +12242,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ55">
         <v>1.36</v>
@@ -12436,7 +12451,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ56">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR56">
         <v>1.4</v>
@@ -12767,7 +12782,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -12845,7 +12860,7 @@
         <v>1.4</v>
       </c>
       <c r="AP58">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ58">
         <v>1.09</v>
@@ -13054,7 +13069,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ59">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR59">
         <v>1.21</v>
@@ -13260,7 +13275,7 @@
         <v>2</v>
       </c>
       <c r="AQ60">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR60">
         <v>1.01</v>
@@ -13385,7 +13400,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13463,10 +13478,10 @@
         <v>0.8</v>
       </c>
       <c r="AP61">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ61">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR61">
         <v>1.27</v>
@@ -13591,7 +13606,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13669,7 +13684,7 @@
         <v>1.6</v>
       </c>
       <c r="AP62">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ62">
         <v>1.36</v>
@@ -13875,7 +13890,7 @@
         <v>0.4</v>
       </c>
       <c r="AP63">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ63">
         <v>0.25</v>
@@ -14081,10 +14096,10 @@
         <v>1.17</v>
       </c>
       <c r="AP64">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ64">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR64">
         <v>1.34</v>
@@ -14496,7 +14511,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ66">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR66">
         <v>1.32</v>
@@ -14621,7 +14636,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14827,7 +14842,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -14905,7 +14920,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ68">
         <v>1.55</v>
@@ -15033,7 +15048,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15111,10 +15126,10 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ69">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR69">
         <v>1.37</v>
@@ -15445,7 +15460,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -15523,7 +15538,7 @@
         <v>1.57</v>
       </c>
       <c r="AP71">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ71">
         <v>1.55</v>
@@ -15729,10 +15744,10 @@
         <v>0.71</v>
       </c>
       <c r="AP72">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ72">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR72">
         <v>1.34</v>
@@ -15938,7 +15953,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ73">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR73">
         <v>1.37</v>
@@ -16063,7 +16078,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16141,10 +16156,10 @@
         <v>0.63</v>
       </c>
       <c r="AP74">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ74">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR74">
         <v>1.85</v>
@@ -16347,7 +16362,7 @@
         <v>1.17</v>
       </c>
       <c r="AP75">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ75">
         <v>1.09</v>
@@ -16762,7 +16777,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ77">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR77">
         <v>1.34</v>
@@ -16887,7 +16902,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -16965,10 +16980,10 @@
         <v>0.29</v>
       </c>
       <c r="AP78">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ78">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR78">
         <v>1.19</v>
@@ -17299,7 +17314,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17380,7 +17395,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ80">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR80">
         <v>1.43</v>
@@ -17505,7 +17520,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17583,10 +17598,10 @@
         <v>1.29</v>
       </c>
       <c r="AP81">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ81">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR81">
         <v>1.3</v>
@@ -17711,7 +17726,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -17789,7 +17804,7 @@
         <v>1.71</v>
       </c>
       <c r="AP82">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ82">
         <v>1.36</v>
@@ -18123,7 +18138,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18204,7 +18219,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ84">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR84">
         <v>1.41</v>
@@ -18407,10 +18422,10 @@
         <v>1.38</v>
       </c>
       <c r="AP85">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ85">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR85">
         <v>1.91</v>
@@ -18535,7 +18550,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18613,7 +18628,7 @@
         <v>0.38</v>
       </c>
       <c r="AP86">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ86">
         <v>0.25</v>
@@ -18741,7 +18756,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -18822,7 +18837,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ87">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR87">
         <v>1.13</v>
@@ -18947,7 +18962,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -19231,10 +19246,10 @@
         <v>0.25</v>
       </c>
       <c r="AP89">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ89">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR89">
         <v>1.27</v>
@@ -19359,7 +19374,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19437,10 +19452,10 @@
         <v>1.78</v>
       </c>
       <c r="AP90">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ90">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR90">
         <v>1.89</v>
@@ -19643,10 +19658,10 @@
         <v>1.5</v>
       </c>
       <c r="AP91">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ91">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR91">
         <v>1.23</v>
@@ -19771,7 +19786,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q92">
         <v>3.2</v>
@@ -20058,7 +20073,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ93">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR93">
         <v>1.35</v>
@@ -20183,7 +20198,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q94">
         <v>5.5</v>
@@ -20261,7 +20276,7 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ94">
         <v>1.25</v>
@@ -20389,7 +20404,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20595,7 +20610,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20673,7 +20688,7 @@
         <v>0.33</v>
       </c>
       <c r="AP96">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ96">
         <v>0.25</v>
@@ -20801,7 +20816,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -20882,7 +20897,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ97">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR97">
         <v>1.38</v>
@@ -21294,7 +21309,7 @@
         <v>2</v>
       </c>
       <c r="AQ99">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR99">
         <v>1.39</v>
@@ -21419,7 +21434,7 @@
         <v>142</v>
       </c>
       <c r="P100" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21497,7 +21512,7 @@
         <v>1.33</v>
       </c>
       <c r="AP100">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ100">
         <v>1.09</v>
@@ -21909,10 +21924,10 @@
         <v>0.7</v>
       </c>
       <c r="AP102">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ102">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR102">
         <v>1.39</v>
@@ -22243,7 +22258,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22527,7 +22542,7 @@
         <v>0.3</v>
       </c>
       <c r="AP105">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ105">
         <v>0.25</v>
@@ -22655,7 +22670,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q106">
         <v>4.5</v>
@@ -22736,7 +22751,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ106">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR106">
         <v>1.19</v>
@@ -22861,7 +22876,7 @@
         <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -22939,10 +22954,10 @@
         <v>1.9</v>
       </c>
       <c r="AP107">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ107">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR107">
         <v>1.35</v>
@@ -23557,7 +23572,7 @@
         <v>1.36</v>
       </c>
       <c r="AP110">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ110">
         <v>1.25</v>
@@ -23766,7 +23781,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ111">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR111">
         <v>1.37</v>
@@ -24048,6 +24063,1036 @@
       </c>
       <c r="BP112">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7287123</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45477.65625</v>
+      </c>
+      <c r="F113">
+        <v>23</v>
+      </c>
+      <c r="G113" t="s">
+        <v>72</v>
+      </c>
+      <c r="H113" t="s">
+        <v>70</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+      <c r="O113" t="s">
+        <v>150</v>
+      </c>
+      <c r="P113" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q113">
+        <v>2.88</v>
+      </c>
+      <c r="R113">
+        <v>2</v>
+      </c>
+      <c r="S113">
+        <v>4.33</v>
+      </c>
+      <c r="T113">
+        <v>1.45</v>
+      </c>
+      <c r="U113">
+        <v>2.55</v>
+      </c>
+      <c r="V113">
+        <v>3.1</v>
+      </c>
+      <c r="W113">
+        <v>1.33</v>
+      </c>
+      <c r="X113">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y113">
+        <v>1.06</v>
+      </c>
+      <c r="Z113">
+        <v>1.99</v>
+      </c>
+      <c r="AA113">
+        <v>3.27</v>
+      </c>
+      <c r="AB113">
+        <v>3.86</v>
+      </c>
+      <c r="AC113">
+        <v>1.07</v>
+      </c>
+      <c r="AD113">
+        <v>8</v>
+      </c>
+      <c r="AE113">
+        <v>1.38</v>
+      </c>
+      <c r="AF113">
+        <v>3</v>
+      </c>
+      <c r="AG113">
+        <v>2.2</v>
+      </c>
+      <c r="AH113">
+        <v>1.62</v>
+      </c>
+      <c r="AI113">
+        <v>2</v>
+      </c>
+      <c r="AJ113">
+        <v>1.75</v>
+      </c>
+      <c r="AK113">
+        <v>1.28</v>
+      </c>
+      <c r="AL113">
+        <v>1.28</v>
+      </c>
+      <c r="AM113">
+        <v>1.73</v>
+      </c>
+      <c r="AN113">
+        <v>1.5</v>
+      </c>
+      <c r="AO113">
+        <v>1.3</v>
+      </c>
+      <c r="AP113">
+        <v>1.45</v>
+      </c>
+      <c r="AQ113">
+        <v>1.27</v>
+      </c>
+      <c r="AR113">
+        <v>1.34</v>
+      </c>
+      <c r="AS113">
+        <v>1.17</v>
+      </c>
+      <c r="AT113">
+        <v>2.51</v>
+      </c>
+      <c r="AU113">
+        <v>8</v>
+      </c>
+      <c r="AV113">
+        <v>2</v>
+      </c>
+      <c r="AW113">
+        <v>6</v>
+      </c>
+      <c r="AX113">
+        <v>5</v>
+      </c>
+      <c r="AY113">
+        <v>14</v>
+      </c>
+      <c r="AZ113">
+        <v>7</v>
+      </c>
+      <c r="BA113">
+        <v>4</v>
+      </c>
+      <c r="BB113">
+        <v>2</v>
+      </c>
+      <c r="BC113">
+        <v>6</v>
+      </c>
+      <c r="BD113">
+        <v>1.64</v>
+      </c>
+      <c r="BE113">
+        <v>8</v>
+      </c>
+      <c r="BF113">
+        <v>2.81</v>
+      </c>
+      <c r="BG113">
+        <v>1.23</v>
+      </c>
+      <c r="BH113">
+        <v>4</v>
+      </c>
+      <c r="BI113">
+        <v>1.42</v>
+      </c>
+      <c r="BJ113">
+        <v>2.75</v>
+      </c>
+      <c r="BK113">
+        <v>2</v>
+      </c>
+      <c r="BL113">
+        <v>2.08</v>
+      </c>
+      <c r="BM113">
+        <v>1.9</v>
+      </c>
+      <c r="BN113">
+        <v>1.9</v>
+      </c>
+      <c r="BO113">
+        <v>2.7</v>
+      </c>
+      <c r="BP113">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7287125</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45477.65625</v>
+      </c>
+      <c r="F114">
+        <v>23</v>
+      </c>
+      <c r="G114" t="s">
+        <v>73</v>
+      </c>
+      <c r="H114" t="s">
+        <v>78</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114" t="s">
+        <v>151</v>
+      </c>
+      <c r="P114" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q114">
+        <v>3.4</v>
+      </c>
+      <c r="R114">
+        <v>2.1</v>
+      </c>
+      <c r="S114">
+        <v>3.2</v>
+      </c>
+      <c r="T114">
+        <v>1.42</v>
+      </c>
+      <c r="U114">
+        <v>2.62</v>
+      </c>
+      <c r="V114">
+        <v>2.9</v>
+      </c>
+      <c r="W114">
+        <v>1.36</v>
+      </c>
+      <c r="X114">
+        <v>7.7</v>
+      </c>
+      <c r="Y114">
+        <v>1.07</v>
+      </c>
+      <c r="Z114">
+        <v>2.99</v>
+      </c>
+      <c r="AA114">
+        <v>3.17</v>
+      </c>
+      <c r="AB114">
+        <v>2.41</v>
+      </c>
+      <c r="AC114">
+        <v>1.07</v>
+      </c>
+      <c r="AD114">
+        <v>8</v>
+      </c>
+      <c r="AE114">
+        <v>1.35</v>
+      </c>
+      <c r="AF114">
+        <v>3.1</v>
+      </c>
+      <c r="AG114">
+        <v>2</v>
+      </c>
+      <c r="AH114">
+        <v>1.75</v>
+      </c>
+      <c r="AI114">
+        <v>1.75</v>
+      </c>
+      <c r="AJ114">
+        <v>2</v>
+      </c>
+      <c r="AK114">
+        <v>1.48</v>
+      </c>
+      <c r="AL114">
+        <v>1.3</v>
+      </c>
+      <c r="AM114">
+        <v>1.44</v>
+      </c>
+      <c r="AN114">
+        <v>1.55</v>
+      </c>
+      <c r="AO114">
+        <v>0.73</v>
+      </c>
+      <c r="AP114">
+        <v>1.67</v>
+      </c>
+      <c r="AQ114">
+        <v>0.67</v>
+      </c>
+      <c r="AR114">
+        <v>1.31</v>
+      </c>
+      <c r="AS114">
+        <v>1.17</v>
+      </c>
+      <c r="AT114">
+        <v>2.48</v>
+      </c>
+      <c r="AU114">
+        <v>4</v>
+      </c>
+      <c r="AV114">
+        <v>3</v>
+      </c>
+      <c r="AW114">
+        <v>3</v>
+      </c>
+      <c r="AX114">
+        <v>8</v>
+      </c>
+      <c r="AY114">
+        <v>7</v>
+      </c>
+      <c r="AZ114">
+        <v>11</v>
+      </c>
+      <c r="BA114">
+        <v>4</v>
+      </c>
+      <c r="BB114">
+        <v>5</v>
+      </c>
+      <c r="BC114">
+        <v>9</v>
+      </c>
+      <c r="BD114">
+        <v>1.87</v>
+      </c>
+      <c r="BE114">
+        <v>7.4</v>
+      </c>
+      <c r="BF114">
+        <v>2.38</v>
+      </c>
+      <c r="BG114">
+        <v>1.23</v>
+      </c>
+      <c r="BH114">
+        <v>3.9</v>
+      </c>
+      <c r="BI114">
+        <v>1.43</v>
+      </c>
+      <c r="BJ114">
+        <v>2.7</v>
+      </c>
+      <c r="BK114">
+        <v>2.2</v>
+      </c>
+      <c r="BL114">
+        <v>2.06</v>
+      </c>
+      <c r="BM114">
+        <v>2.14</v>
+      </c>
+      <c r="BN114">
+        <v>1.66</v>
+      </c>
+      <c r="BO114">
+        <v>2.75</v>
+      </c>
+      <c r="BP114">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7287124</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45477.65625</v>
+      </c>
+      <c r="F115">
+        <v>23</v>
+      </c>
+      <c r="G115" t="s">
+        <v>79</v>
+      </c>
+      <c r="H115" t="s">
+        <v>71</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>3</v>
+      </c>
+      <c r="O115" t="s">
+        <v>152</v>
+      </c>
+      <c r="P115" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q115">
+        <v>6.5</v>
+      </c>
+      <c r="R115">
+        <v>2.1</v>
+      </c>
+      <c r="S115">
+        <v>2.2</v>
+      </c>
+      <c r="T115">
+        <v>1.42</v>
+      </c>
+      <c r="U115">
+        <v>2.62</v>
+      </c>
+      <c r="V115">
+        <v>3</v>
+      </c>
+      <c r="W115">
+        <v>1.33</v>
+      </c>
+      <c r="X115">
+        <v>7.9</v>
+      </c>
+      <c r="Y115">
+        <v>1.06</v>
+      </c>
+      <c r="Z115">
+        <v>5.24</v>
+      </c>
+      <c r="AA115">
+        <v>3.75</v>
+      </c>
+      <c r="AB115">
+        <v>1.63</v>
+      </c>
+      <c r="AC115">
+        <v>1.06</v>
+      </c>
+      <c r="AD115">
+        <v>8.5</v>
+      </c>
+      <c r="AE115">
+        <v>1.35</v>
+      </c>
+      <c r="AF115">
+        <v>3.1</v>
+      </c>
+      <c r="AG115">
+        <v>2.1</v>
+      </c>
+      <c r="AH115">
+        <v>1.7</v>
+      </c>
+      <c r="AI115">
+        <v>2.2</v>
+      </c>
+      <c r="AJ115">
+        <v>1.62</v>
+      </c>
+      <c r="AK115">
+        <v>2.2</v>
+      </c>
+      <c r="AL115">
+        <v>1.22</v>
+      </c>
+      <c r="AM115">
+        <v>1.14</v>
+      </c>
+      <c r="AN115">
+        <v>1.45</v>
+      </c>
+      <c r="AO115">
+        <v>1.36</v>
+      </c>
+      <c r="AP115">
+        <v>1.58</v>
+      </c>
+      <c r="AQ115">
+        <v>1.25</v>
+      </c>
+      <c r="AR115">
+        <v>1.33</v>
+      </c>
+      <c r="AS115">
+        <v>1.39</v>
+      </c>
+      <c r="AT115">
+        <v>2.72</v>
+      </c>
+      <c r="AU115">
+        <v>4</v>
+      </c>
+      <c r="AV115">
+        <v>7</v>
+      </c>
+      <c r="AW115">
+        <v>2</v>
+      </c>
+      <c r="AX115">
+        <v>5</v>
+      </c>
+      <c r="AY115">
+        <v>6</v>
+      </c>
+      <c r="AZ115">
+        <v>12</v>
+      </c>
+      <c r="BA115">
+        <v>3</v>
+      </c>
+      <c r="BB115">
+        <v>5</v>
+      </c>
+      <c r="BC115">
+        <v>8</v>
+      </c>
+      <c r="BD115">
+        <v>4.26</v>
+      </c>
+      <c r="BE115">
+        <v>7.6</v>
+      </c>
+      <c r="BF115">
+        <v>1.38</v>
+      </c>
+      <c r="BG115">
+        <v>1.32</v>
+      </c>
+      <c r="BH115">
+        <v>3.2</v>
+      </c>
+      <c r="BI115">
+        <v>1.57</v>
+      </c>
+      <c r="BJ115">
+        <v>2.32</v>
+      </c>
+      <c r="BK115">
+        <v>2</v>
+      </c>
+      <c r="BL115">
+        <v>1.8</v>
+      </c>
+      <c r="BM115">
+        <v>2.48</v>
+      </c>
+      <c r="BN115">
+        <v>1.5</v>
+      </c>
+      <c r="BO115">
+        <v>3.3</v>
+      </c>
+      <c r="BP115">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7287122</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45477.65625</v>
+      </c>
+      <c r="F116">
+        <v>23</v>
+      </c>
+      <c r="G116" t="s">
+        <v>75</v>
+      </c>
+      <c r="H116" t="s">
+        <v>77</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>117</v>
+      </c>
+      <c r="P116" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q116">
+        <v>5</v>
+      </c>
+      <c r="R116">
+        <v>2.05</v>
+      </c>
+      <c r="S116">
+        <v>2.5</v>
+      </c>
+      <c r="T116">
+        <v>1.44</v>
+      </c>
+      <c r="U116">
+        <v>2.6</v>
+      </c>
+      <c r="V116">
+        <v>2.95</v>
+      </c>
+      <c r="W116">
+        <v>1.35</v>
+      </c>
+      <c r="X116">
+        <v>7.9</v>
+      </c>
+      <c r="Y116">
+        <v>1.06</v>
+      </c>
+      <c r="Z116">
+        <v>3.88</v>
+      </c>
+      <c r="AA116">
+        <v>3.3</v>
+      </c>
+      <c r="AB116">
+        <v>1.97</v>
+      </c>
+      <c r="AC116">
+        <v>1.07</v>
+      </c>
+      <c r="AD116">
+        <v>8</v>
+      </c>
+      <c r="AE116">
+        <v>1.36</v>
+      </c>
+      <c r="AF116">
+        <v>3.1</v>
+      </c>
+      <c r="AG116">
+        <v>2.15</v>
+      </c>
+      <c r="AH116">
+        <v>1.66</v>
+      </c>
+      <c r="AI116">
+        <v>2</v>
+      </c>
+      <c r="AJ116">
+        <v>1.75</v>
+      </c>
+      <c r="AK116">
+        <v>1.93</v>
+      </c>
+      <c r="AL116">
+        <v>1.25</v>
+      </c>
+      <c r="AM116">
+        <v>1.2</v>
+      </c>
+      <c r="AN116">
+        <v>1.3</v>
+      </c>
+      <c r="AO116">
+        <v>2</v>
+      </c>
+      <c r="AP116">
+        <v>1.27</v>
+      </c>
+      <c r="AQ116">
+        <v>1.92</v>
+      </c>
+      <c r="AR116">
+        <v>1.37</v>
+      </c>
+      <c r="AS116">
+        <v>1.04</v>
+      </c>
+      <c r="AT116">
+        <v>2.41</v>
+      </c>
+      <c r="AU116">
+        <v>6</v>
+      </c>
+      <c r="AV116">
+        <v>4</v>
+      </c>
+      <c r="AW116">
+        <v>5</v>
+      </c>
+      <c r="AX116">
+        <v>4</v>
+      </c>
+      <c r="AY116">
+        <v>11</v>
+      </c>
+      <c r="AZ116">
+        <v>8</v>
+      </c>
+      <c r="BA116">
+        <v>6</v>
+      </c>
+      <c r="BB116">
+        <v>3</v>
+      </c>
+      <c r="BC116">
+        <v>9</v>
+      </c>
+      <c r="BD116">
+        <v>3.1</v>
+      </c>
+      <c r="BE116">
+        <v>7.6</v>
+      </c>
+      <c r="BF116">
+        <v>1.57</v>
+      </c>
+      <c r="BG116">
+        <v>1.39</v>
+      </c>
+      <c r="BH116">
+        <v>2.85</v>
+      </c>
+      <c r="BI116">
+        <v>1.8</v>
+      </c>
+      <c r="BJ116">
+        <v>2</v>
+      </c>
+      <c r="BK116">
+        <v>2.1</v>
+      </c>
+      <c r="BL116">
+        <v>1.68</v>
+      </c>
+      <c r="BM116">
+        <v>2.7</v>
+      </c>
+      <c r="BN116">
+        <v>1.43</v>
+      </c>
+      <c r="BO116">
+        <v>3.7</v>
+      </c>
+      <c r="BP116">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7287126</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45477.66666666666</v>
+      </c>
+      <c r="F117">
+        <v>23</v>
+      </c>
+      <c r="G117" t="s">
+        <v>74</v>
+      </c>
+      <c r="H117" t="s">
+        <v>76</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+      <c r="O117" t="s">
+        <v>153</v>
+      </c>
+      <c r="P117" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q117">
+        <v>1.83</v>
+      </c>
+      <c r="R117">
+        <v>2.5</v>
+      </c>
+      <c r="S117">
+        <v>7</v>
+      </c>
+      <c r="T117">
+        <v>1.28</v>
+      </c>
+      <c r="U117">
+        <v>3.4</v>
+      </c>
+      <c r="V117">
+        <v>2.3</v>
+      </c>
+      <c r="W117">
+        <v>1.55</v>
+      </c>
+      <c r="X117">
+        <v>5.4</v>
+      </c>
+      <c r="Y117">
+        <v>1.13</v>
+      </c>
+      <c r="Z117">
+        <v>1.39</v>
+      </c>
+      <c r="AA117">
+        <v>4.66</v>
+      </c>
+      <c r="AB117">
+        <v>7.07</v>
+      </c>
+      <c r="AC117">
+        <v>1.02</v>
+      </c>
+      <c r="AD117">
+        <v>14.8</v>
+      </c>
+      <c r="AE117">
+        <v>1.16</v>
+      </c>
+      <c r="AF117">
+        <v>4.4</v>
+      </c>
+      <c r="AG117">
+        <v>1.66</v>
+      </c>
+      <c r="AH117">
+        <v>2.15</v>
+      </c>
+      <c r="AI117">
+        <v>1.95</v>
+      </c>
+      <c r="AJ117">
+        <v>1.8</v>
+      </c>
+      <c r="AK117">
+        <v>1.1</v>
+      </c>
+      <c r="AL117">
+        <v>1.14</v>
+      </c>
+      <c r="AM117">
+        <v>2.8</v>
+      </c>
+      <c r="AN117">
+        <v>1.6</v>
+      </c>
+      <c r="AO117">
+        <v>0.45</v>
+      </c>
+      <c r="AP117">
+        <v>1.73</v>
+      </c>
+      <c r="AQ117">
+        <v>0.42</v>
+      </c>
+      <c r="AR117">
+        <v>1.89</v>
+      </c>
+      <c r="AS117">
+        <v>0.95</v>
+      </c>
+      <c r="AT117">
+        <v>2.84</v>
+      </c>
+      <c r="AU117">
+        <v>6</v>
+      </c>
+      <c r="AV117">
+        <v>3</v>
+      </c>
+      <c r="AW117">
+        <v>4</v>
+      </c>
+      <c r="AX117">
+        <v>5</v>
+      </c>
+      <c r="AY117">
+        <v>10</v>
+      </c>
+      <c r="AZ117">
+        <v>8</v>
+      </c>
+      <c r="BA117">
+        <v>4</v>
+      </c>
+      <c r="BB117">
+        <v>4</v>
+      </c>
+      <c r="BC117">
+        <v>8</v>
+      </c>
+      <c r="BD117">
+        <v>1.34</v>
+      </c>
+      <c r="BE117">
+        <v>8.4</v>
+      </c>
+      <c r="BF117">
+        <v>4.46</v>
+      </c>
+      <c r="BG117">
+        <v>1.27</v>
+      </c>
+      <c r="BH117">
+        <v>3.5</v>
+      </c>
+      <c r="BI117">
+        <v>1.49</v>
+      </c>
+      <c r="BJ117">
+        <v>2.5</v>
+      </c>
+      <c r="BK117">
+        <v>2</v>
+      </c>
+      <c r="BL117">
+        <v>1.8</v>
+      </c>
+      <c r="BM117">
+        <v>2.3</v>
+      </c>
+      <c r="BN117">
+        <v>1.58</v>
+      </c>
+      <c r="BO117">
+        <v>3</v>
+      </c>
+      <c r="BP117">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="207">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,6 +478,9 @@
     <t>['29']</t>
   </si>
   <si>
+    <t>['8', '16', '55', '85']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -626,6 +629,12 @@
   </si>
   <si>
     <t>['20']</t>
+  </si>
+  <si>
+    <t>['36', '90+6']</t>
+  </si>
+  <si>
+    <t>['37', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -987,7 +996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP117"/>
+  <dimension ref="A1:BP120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1246,7 +1255,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1324,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ2">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1452,7 +1461,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1533,7 +1542,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ3">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1736,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ4">
         <v>0.67</v>
@@ -1864,7 +1873,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2276,7 +2285,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2357,7 +2366,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ7">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2482,7 +2491,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2560,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ8">
         <v>1.36</v>
@@ -2688,7 +2697,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3306,7 +3315,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3512,7 +3521,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3590,10 +3599,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ13">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR13">
         <v>0.97</v>
@@ -3718,7 +3727,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4130,7 +4139,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4208,10 +4217,10 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ16">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR16">
         <v>1.48</v>
@@ -4542,7 +4551,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4748,7 +4757,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -5160,7 +5169,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5238,7 +5247,7 @@
         <v>2</v>
       </c>
       <c r="AP21">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ21">
         <v>1.92</v>
@@ -5447,7 +5456,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ22">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR22">
         <v>1.39</v>
@@ -5650,10 +5659,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ23">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR23">
         <v>1.34</v>
@@ -5984,7 +5993,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6268,7 +6277,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ26">
         <v>1.25</v>
@@ -6474,10 +6483,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ27">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR27">
         <v>1.35</v>
@@ -6602,7 +6611,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6680,7 +6689,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ28">
         <v>1.25</v>
@@ -6889,7 +6898,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ29">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR29">
         <v>1.29</v>
@@ -7632,7 +7641,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7713,7 +7722,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ33">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR33">
         <v>1.43</v>
@@ -7838,7 +7847,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8122,10 +8131,10 @@
         <v>0.33</v>
       </c>
       <c r="AP35">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ35">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR35">
         <v>1.43</v>
@@ -8250,7 +8259,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8537,7 +8546,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ37">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR37">
         <v>1.47</v>
@@ -8868,7 +8877,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8946,7 +8955,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ39">
         <v>1.27</v>
@@ -9074,7 +9083,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9152,10 +9161,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ40">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR40">
         <v>1.04</v>
@@ -9280,7 +9289,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9486,7 +9495,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9692,7 +9701,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9898,7 +9907,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10104,7 +10113,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10388,7 +10397,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ46">
         <v>0.67</v>
@@ -10803,7 +10812,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ48">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR48">
         <v>1.59</v>
@@ -11006,7 +11015,7 @@
         <v>0.25</v>
       </c>
       <c r="AP49">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ49">
         <v>0.42</v>
@@ -11212,10 +11221,10 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ50">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR50">
         <v>1.1</v>
@@ -11340,7 +11349,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11546,7 +11555,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11833,7 +11842,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ53">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR53">
         <v>1.43</v>
@@ -12036,7 +12045,7 @@
         <v>2.2</v>
       </c>
       <c r="AP54">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ54">
         <v>1.92</v>
@@ -12782,7 +12791,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -12863,7 +12872,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ58">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR58">
         <v>1.29</v>
@@ -13066,7 +13075,7 @@
         <v>1.8</v>
       </c>
       <c r="AP59">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ59">
         <v>1.27</v>
@@ -13400,7 +13409,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13606,7 +13615,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13893,7 +13902,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ63">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR63">
         <v>1.78</v>
@@ -14096,7 +14105,7 @@
         <v>1.17</v>
       </c>
       <c r="AP64">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ64">
         <v>1.25</v>
@@ -14305,7 +14314,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ65">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR65">
         <v>1.39</v>
@@ -14508,7 +14517,7 @@
         <v>1.83</v>
       </c>
       <c r="AP66">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ66">
         <v>1.92</v>
@@ -14636,7 +14645,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14714,7 +14723,7 @@
         <v>1.57</v>
       </c>
       <c r="AP67">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ67">
         <v>1.25</v>
@@ -14842,7 +14851,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -14923,7 +14932,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ68">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR68">
         <v>1.34</v>
@@ -15048,7 +15057,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15332,7 +15341,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ70">
         <v>1.36</v>
@@ -15460,7 +15469,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -15541,7 +15550,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ71">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR71">
         <v>1.85</v>
@@ -16078,7 +16087,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16362,10 +16371,10 @@
         <v>1.17</v>
       </c>
       <c r="AP75">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ75">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR75">
         <v>1.23</v>
@@ -16571,7 +16580,7 @@
         <v>2</v>
       </c>
       <c r="AQ76">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR76">
         <v>1.05</v>
@@ -16902,7 +16911,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17189,7 +17198,7 @@
         <v>2</v>
       </c>
       <c r="AQ79">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR79">
         <v>1.2</v>
@@ -17314,7 +17323,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17520,7 +17529,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17726,7 +17735,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -18010,7 +18019,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ83">
         <v>1.25</v>
@@ -18138,7 +18147,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18550,7 +18559,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18631,7 +18640,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ86">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR86">
         <v>1.18</v>
@@ -18756,7 +18765,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -18834,7 +18843,7 @@
         <v>0.67</v>
       </c>
       <c r="AP87">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ87">
         <v>0.67</v>
@@ -18962,7 +18971,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -19043,7 +19052,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ88">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR88">
         <v>1.38</v>
@@ -19246,7 +19255,7 @@
         <v>0.25</v>
       </c>
       <c r="AP89">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ89">
         <v>0.42</v>
@@ -19374,7 +19383,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19786,7 +19795,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q92">
         <v>3.2</v>
@@ -20070,7 +20079,7 @@
         <v>1.22</v>
       </c>
       <c r="AP93">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ93">
         <v>1.25</v>
@@ -20198,7 +20207,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q94">
         <v>5.5</v>
@@ -20404,7 +20413,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20485,7 +20494,7 @@
         <v>2</v>
       </c>
       <c r="AQ95">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR95">
         <v>1.31</v>
@@ -20610,7 +20619,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20691,7 +20700,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ96">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR96">
         <v>1.26</v>
@@ -20816,7 +20825,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21103,7 +21112,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ98">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR98">
         <v>1.5</v>
@@ -21434,7 +21443,7 @@
         <v>142</v>
       </c>
       <c r="P100" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21515,7 +21524,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ100">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR100">
         <v>1.23</v>
@@ -22130,10 +22139,10 @@
         <v>1.2</v>
       </c>
       <c r="AP103">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ103">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR103">
         <v>1.35</v>
@@ -22258,7 +22267,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22542,10 +22551,10 @@
         <v>0.3</v>
       </c>
       <c r="AP105">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ105">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR105">
         <v>1.34</v>
@@ -22670,7 +22679,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q106">
         <v>4.5</v>
@@ -22748,7 +22757,7 @@
         <v>1.2</v>
       </c>
       <c r="AP106">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ106">
         <v>1.25</v>
@@ -22876,7 +22885,7 @@
         <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23160,10 +23169,10 @@
         <v>1.4</v>
       </c>
       <c r="AP108">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ108">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR108">
         <v>1.32</v>
@@ -23987,7 +23996,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ112">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR112">
         <v>1.53</v>
@@ -24112,7 +24121,7 @@
         <v>150</v>
       </c>
       <c r="P113" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q113">
         <v>2.88</v>
@@ -24190,7 +24199,7 @@
         <v>1.3</v>
       </c>
       <c r="AP113">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ113">
         <v>1.27</v>
@@ -24730,7 +24739,7 @@
         <v>117</v>
       </c>
       <c r="P116" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -25093,6 +25102,624 @@
       </c>
       <c r="BP117">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7287129</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45485.65625</v>
+      </c>
+      <c r="F118">
+        <v>24</v>
+      </c>
+      <c r="G118" t="s">
+        <v>70</v>
+      </c>
+      <c r="H118" t="s">
+        <v>79</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118" t="s">
+        <v>82</v>
+      </c>
+      <c r="P118" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q118">
+        <v>2.5</v>
+      </c>
+      <c r="R118">
+        <v>2.25</v>
+      </c>
+      <c r="S118">
+        <v>4.33</v>
+      </c>
+      <c r="T118">
+        <v>1.38</v>
+      </c>
+      <c r="U118">
+        <v>2.8</v>
+      </c>
+      <c r="V118">
+        <v>2.75</v>
+      </c>
+      <c r="W118">
+        <v>1.4</v>
+      </c>
+      <c r="X118">
+        <v>6.85</v>
+      </c>
+      <c r="Y118">
+        <v>1.08</v>
+      </c>
+      <c r="Z118">
+        <v>1.83</v>
+      </c>
+      <c r="AA118">
+        <v>3.5</v>
+      </c>
+      <c r="AB118">
+        <v>3.75</v>
+      </c>
+      <c r="AC118">
+        <v>1.05</v>
+      </c>
+      <c r="AD118">
+        <v>9.5</v>
+      </c>
+      <c r="AE118">
+        <v>1.28</v>
+      </c>
+      <c r="AF118">
+        <v>3.5</v>
+      </c>
+      <c r="AG118">
+        <v>1.8</v>
+      </c>
+      <c r="AH118">
+        <v>2</v>
+      </c>
+      <c r="AI118">
+        <v>1.7</v>
+      </c>
+      <c r="AJ118">
+        <v>2.05</v>
+      </c>
+      <c r="AK118">
+        <v>1.18</v>
+      </c>
+      <c r="AL118">
+        <v>1.22</v>
+      </c>
+      <c r="AM118">
+        <v>2.1</v>
+      </c>
+      <c r="AN118">
+        <v>1.2</v>
+      </c>
+      <c r="AO118">
+        <v>1.09</v>
+      </c>
+      <c r="AP118">
+        <v>1.09</v>
+      </c>
+      <c r="AQ118">
+        <v>1.25</v>
+      </c>
+      <c r="AR118">
+        <v>1.15</v>
+      </c>
+      <c r="AS118">
+        <v>1.03</v>
+      </c>
+      <c r="AT118">
+        <v>2.18</v>
+      </c>
+      <c r="AU118">
+        <v>11</v>
+      </c>
+      <c r="AV118">
+        <v>3</v>
+      </c>
+      <c r="AW118">
+        <v>7</v>
+      </c>
+      <c r="AX118">
+        <v>5</v>
+      </c>
+      <c r="AY118">
+        <v>18</v>
+      </c>
+      <c r="AZ118">
+        <v>8</v>
+      </c>
+      <c r="BA118">
+        <v>7</v>
+      </c>
+      <c r="BB118">
+        <v>3</v>
+      </c>
+      <c r="BC118">
+        <v>10</v>
+      </c>
+      <c r="BD118">
+        <v>1.44</v>
+      </c>
+      <c r="BE118">
+        <v>9</v>
+      </c>
+      <c r="BF118">
+        <v>3</v>
+      </c>
+      <c r="BG118">
+        <v>1.19</v>
+      </c>
+      <c r="BH118">
+        <v>3.92</v>
+      </c>
+      <c r="BI118">
+        <v>1.4</v>
+      </c>
+      <c r="BJ118">
+        <v>2.72</v>
+      </c>
+      <c r="BK118">
+        <v>2.25</v>
+      </c>
+      <c r="BL118">
+        <v>1.91</v>
+      </c>
+      <c r="BM118">
+        <v>2.14</v>
+      </c>
+      <c r="BN118">
+        <v>1.63</v>
+      </c>
+      <c r="BO118">
+        <v>2.79</v>
+      </c>
+      <c r="BP118">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7287130</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45485.65625</v>
+      </c>
+      <c r="F119">
+        <v>24</v>
+      </c>
+      <c r="G119" t="s">
+        <v>76</v>
+      </c>
+      <c r="H119" t="s">
+        <v>75</v>
+      </c>
+      <c r="I119">
+        <v>2</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>3</v>
+      </c>
+      <c r="L119">
+        <v>4</v>
+      </c>
+      <c r="M119">
+        <v>2</v>
+      </c>
+      <c r="N119">
+        <v>6</v>
+      </c>
+      <c r="O119" t="s">
+        <v>154</v>
+      </c>
+      <c r="P119" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q119">
+        <v>2.75</v>
+      </c>
+      <c r="R119">
+        <v>2.1</v>
+      </c>
+      <c r="S119">
+        <v>4</v>
+      </c>
+      <c r="T119">
+        <v>1.42</v>
+      </c>
+      <c r="U119">
+        <v>2.65</v>
+      </c>
+      <c r="V119">
+        <v>2.95</v>
+      </c>
+      <c r="W119">
+        <v>1.35</v>
+      </c>
+      <c r="X119">
+        <v>7.6</v>
+      </c>
+      <c r="Y119">
+        <v>1.07</v>
+      </c>
+      <c r="Z119">
+        <v>2</v>
+      </c>
+      <c r="AA119">
+        <v>3.25</v>
+      </c>
+      <c r="AB119">
+        <v>3.5</v>
+      </c>
+      <c r="AC119">
+        <v>1.06</v>
+      </c>
+      <c r="AD119">
+        <v>8.5</v>
+      </c>
+      <c r="AE119">
+        <v>1.35</v>
+      </c>
+      <c r="AF119">
+        <v>3.1</v>
+      </c>
+      <c r="AG119">
+        <v>2</v>
+      </c>
+      <c r="AH119">
+        <v>1.8</v>
+      </c>
+      <c r="AI119">
+        <v>1.8</v>
+      </c>
+      <c r="AJ119">
+        <v>1.95</v>
+      </c>
+      <c r="AK119">
+        <v>1.2</v>
+      </c>
+      <c r="AL119">
+        <v>1.25</v>
+      </c>
+      <c r="AM119">
+        <v>1.93</v>
+      </c>
+      <c r="AN119">
+        <v>1.27</v>
+      </c>
+      <c r="AO119">
+        <v>0.25</v>
+      </c>
+      <c r="AP119">
+        <v>1.42</v>
+      </c>
+      <c r="AQ119">
+        <v>0.23</v>
+      </c>
+      <c r="AR119">
+        <v>1.37</v>
+      </c>
+      <c r="AS119">
+        <v>1.1</v>
+      </c>
+      <c r="AT119">
+        <v>2.47</v>
+      </c>
+      <c r="AU119">
+        <v>6</v>
+      </c>
+      <c r="AV119">
+        <v>6</v>
+      </c>
+      <c r="AW119">
+        <v>2</v>
+      </c>
+      <c r="AX119">
+        <v>9</v>
+      </c>
+      <c r="AY119">
+        <v>8</v>
+      </c>
+      <c r="AZ119">
+        <v>15</v>
+      </c>
+      <c r="BA119">
+        <v>0</v>
+      </c>
+      <c r="BB119">
+        <v>2</v>
+      </c>
+      <c r="BC119">
+        <v>2</v>
+      </c>
+      <c r="BD119">
+        <v>1.44</v>
+      </c>
+      <c r="BE119">
+        <v>9</v>
+      </c>
+      <c r="BF119">
+        <v>3.1</v>
+      </c>
+      <c r="BG119">
+        <v>1.35</v>
+      </c>
+      <c r="BH119">
+        <v>2.93</v>
+      </c>
+      <c r="BI119">
+        <v>1.8</v>
+      </c>
+      <c r="BJ119">
+        <v>1.91</v>
+      </c>
+      <c r="BK119">
+        <v>2.07</v>
+      </c>
+      <c r="BL119">
+        <v>1.67</v>
+      </c>
+      <c r="BM119">
+        <v>2.71</v>
+      </c>
+      <c r="BN119">
+        <v>1.38</v>
+      </c>
+      <c r="BO119">
+        <v>3.7</v>
+      </c>
+      <c r="BP119">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7287131</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45485.65625</v>
+      </c>
+      <c r="F120">
+        <v>24</v>
+      </c>
+      <c r="G120" t="s">
+        <v>72</v>
+      </c>
+      <c r="H120" t="s">
+        <v>73</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120" t="s">
+        <v>120</v>
+      </c>
+      <c r="P120" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q120">
+        <v>2.6</v>
+      </c>
+      <c r="R120">
+        <v>2.1</v>
+      </c>
+      <c r="S120">
+        <v>4.33</v>
+      </c>
+      <c r="T120">
+        <v>1.42</v>
+      </c>
+      <c r="U120">
+        <v>2.65</v>
+      </c>
+      <c r="V120">
+        <v>3</v>
+      </c>
+      <c r="W120">
+        <v>1.33</v>
+      </c>
+      <c r="X120">
+        <v>7.7</v>
+      </c>
+      <c r="Y120">
+        <v>1.07</v>
+      </c>
+      <c r="Z120">
+        <v>1.9</v>
+      </c>
+      <c r="AA120">
+        <v>3.3</v>
+      </c>
+      <c r="AB120">
+        <v>3.75</v>
+      </c>
+      <c r="AC120">
+        <v>1.06</v>
+      </c>
+      <c r="AD120">
+        <v>8.5</v>
+      </c>
+      <c r="AE120">
+        <v>1.35</v>
+      </c>
+      <c r="AF120">
+        <v>3.1</v>
+      </c>
+      <c r="AG120">
+        <v>1.95</v>
+      </c>
+      <c r="AH120">
+        <v>1.85</v>
+      </c>
+      <c r="AI120">
+        <v>1.8</v>
+      </c>
+      <c r="AJ120">
+        <v>1.95</v>
+      </c>
+      <c r="AK120">
+        <v>1.28</v>
+      </c>
+      <c r="AL120">
+        <v>1.25</v>
+      </c>
+      <c r="AM120">
+        <v>1.75</v>
+      </c>
+      <c r="AN120">
+        <v>1.45</v>
+      </c>
+      <c r="AO120">
+        <v>1.55</v>
+      </c>
+      <c r="AP120">
+        <v>1.58</v>
+      </c>
+      <c r="AQ120">
+        <v>1.42</v>
+      </c>
+      <c r="AR120">
+        <v>1.38</v>
+      </c>
+      <c r="AS120">
+        <v>1.11</v>
+      </c>
+      <c r="AT120">
+        <v>2.49</v>
+      </c>
+      <c r="AU120">
+        <v>3</v>
+      </c>
+      <c r="AV120">
+        <v>4</v>
+      </c>
+      <c r="AW120">
+        <v>8</v>
+      </c>
+      <c r="AX120">
+        <v>4</v>
+      </c>
+      <c r="AY120">
+        <v>11</v>
+      </c>
+      <c r="AZ120">
+        <v>8</v>
+      </c>
+      <c r="BA120">
+        <v>5</v>
+      </c>
+      <c r="BB120">
+        <v>6</v>
+      </c>
+      <c r="BC120">
+        <v>11</v>
+      </c>
+      <c r="BD120">
+        <v>1.65</v>
+      </c>
+      <c r="BE120">
+        <v>8.5</v>
+      </c>
+      <c r="BF120">
+        <v>2.5</v>
+      </c>
+      <c r="BG120">
+        <v>1.25</v>
+      </c>
+      <c r="BH120">
+        <v>3.42</v>
+      </c>
+      <c r="BI120">
+        <v>1.49</v>
+      </c>
+      <c r="BJ120">
+        <v>2.44</v>
+      </c>
+      <c r="BK120">
+        <v>1.85</v>
+      </c>
+      <c r="BL120">
+        <v>1.85</v>
+      </c>
+      <c r="BM120">
+        <v>2.39</v>
+      </c>
+      <c r="BN120">
+        <v>1.51</v>
+      </c>
+      <c r="BO120">
+        <v>3.2</v>
+      </c>
+      <c r="BP120">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -481,6 +481,12 @@
     <t>['8', '16', '55', '85']</t>
   </si>
   <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['15', '90']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -635,6 +641,9 @@
   </si>
   <si>
     <t>['37', '90+3']</t>
+  </si>
+  <si>
+    <t>['27']</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP120"/>
+  <dimension ref="A1:BP122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1255,7 +1264,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1333,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ2">
         <v>1.25</v>
@@ -1461,7 +1470,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1873,7 +1882,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2160,7 +2169,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ6">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2285,7 +2294,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2363,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ7">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2491,7 +2500,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2697,7 +2706,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3315,7 +3324,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3521,7 +3530,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3602,7 +3611,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ13">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR13">
         <v>0.97</v>
@@ -3727,7 +3736,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4011,7 +4020,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ15">
         <v>1.27</v>
@@ -4139,7 +4148,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4551,7 +4560,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4757,7 +4766,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -5044,7 +5053,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ20">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR20">
         <v>1.54</v>
@@ -5169,7 +5178,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5247,7 +5256,7 @@
         <v>2</v>
       </c>
       <c r="AP21">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ21">
         <v>1.92</v>
@@ -5456,7 +5465,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ22">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR22">
         <v>1.39</v>
@@ -5993,7 +6002,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6486,7 +6495,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ27">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR27">
         <v>1.35</v>
@@ -6611,7 +6620,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6689,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ28">
         <v>1.25</v>
@@ -7307,7 +7316,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ31">
         <v>0.67</v>
@@ -7516,7 +7525,7 @@
         <v>2</v>
       </c>
       <c r="AQ32">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR32">
         <v>1</v>
@@ -7641,7 +7650,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7847,7 +7856,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8259,7 +8268,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8877,7 +8886,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9083,7 +9092,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9161,10 +9170,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ40">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR40">
         <v>1.04</v>
@@ -9289,7 +9298,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9370,7 +9379,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ41">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR41">
         <v>1.34</v>
@@ -9495,7 +9504,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9573,7 +9582,7 @@
         <v>2.5</v>
       </c>
       <c r="AP42">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ42">
         <v>1.92</v>
@@ -9701,7 +9710,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9907,7 +9916,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10113,7 +10122,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10191,7 +10200,7 @@
         <v>0.75</v>
       </c>
       <c r="AP45">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ45">
         <v>1.25</v>
@@ -11015,10 +11024,10 @@
         <v>0.25</v>
       </c>
       <c r="AP49">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ49">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR49">
         <v>1.12</v>
@@ -11221,7 +11230,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ50">
         <v>0.23</v>
@@ -11349,7 +11358,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11555,7 +11564,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11636,7 +11645,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ52">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR52">
         <v>1.24</v>
@@ -11842,7 +11851,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ53">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR53">
         <v>1.43</v>
@@ -12791,7 +12800,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -12869,7 +12878,7 @@
         <v>1.4</v>
       </c>
       <c r="AP58">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ58">
         <v>1.25</v>
@@ -13409,7 +13418,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13615,7 +13624,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14645,7 +14654,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14723,7 +14732,7 @@
         <v>1.57</v>
       </c>
       <c r="AP67">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ67">
         <v>1.25</v>
@@ -14851,7 +14860,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -14932,7 +14941,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ68">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR68">
         <v>1.34</v>
@@ -15057,7 +15066,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15135,10 +15144,10 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ69">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR69">
         <v>1.37</v>
@@ -15341,7 +15350,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ70">
         <v>1.36</v>
@@ -15469,7 +15478,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -15550,7 +15559,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ71">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR71">
         <v>1.85</v>
@@ -16087,7 +16096,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16911,7 +16920,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -16992,7 +17001,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ78">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR78">
         <v>1.19</v>
@@ -17198,7 +17207,7 @@
         <v>2</v>
       </c>
       <c r="AQ79">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR79">
         <v>1.2</v>
@@ -17323,7 +17332,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17529,7 +17538,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17735,7 +17744,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -17813,7 +17822,7 @@
         <v>1.71</v>
       </c>
       <c r="AP82">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ82">
         <v>1.36</v>
@@ -18147,7 +18156,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18559,7 +18568,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18765,7 +18774,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -18843,7 +18852,7 @@
         <v>0.67</v>
       </c>
       <c r="AP87">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ87">
         <v>0.67</v>
@@ -18971,7 +18980,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -19258,7 +19267,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ89">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR89">
         <v>1.27</v>
@@ -19383,7 +19392,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19795,7 +19804,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q92">
         <v>3.2</v>
@@ -20207,7 +20216,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q94">
         <v>5.5</v>
@@ -20285,7 +20294,7 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ94">
         <v>1.25</v>
@@ -20413,7 +20422,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20619,7 +20628,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20825,7 +20834,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -20906,7 +20915,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ97">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR97">
         <v>1.38</v>
@@ -21112,7 +21121,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ98">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR98">
         <v>1.5</v>
@@ -21318,7 +21327,7 @@
         <v>2</v>
       </c>
       <c r="AQ99">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR99">
         <v>1.39</v>
@@ -21443,7 +21452,7 @@
         <v>142</v>
       </c>
       <c r="P100" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21933,7 +21942,7 @@
         <v>0.7</v>
       </c>
       <c r="AP102">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ102">
         <v>0.67</v>
@@ -22267,7 +22276,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22679,7 +22688,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q106">
         <v>4.5</v>
@@ -22757,7 +22766,7 @@
         <v>1.2</v>
       </c>
       <c r="AP106">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ106">
         <v>1.25</v>
@@ -22885,7 +22894,7 @@
         <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23172,7 +23181,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ108">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR108">
         <v>1.32</v>
@@ -24121,7 +24130,7 @@
         <v>150</v>
       </c>
       <c r="P113" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q113">
         <v>2.88</v>
@@ -24739,7 +24748,7 @@
         <v>117</v>
       </c>
       <c r="P116" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -24817,7 +24826,7 @@
         <v>2</v>
       </c>
       <c r="AP116">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ116">
         <v>1.92</v>
@@ -25026,7 +25035,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ117">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AR117">
         <v>1.89</v>
@@ -25151,7 +25160,7 @@
         <v>82</v>
       </c>
       <c r="P118" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25229,7 +25238,7 @@
         <v>1.09</v>
       </c>
       <c r="AP118">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ118">
         <v>1.25</v>
@@ -25357,7 +25366,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25644,7 +25653,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ120">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR120">
         <v>1.38</v>
@@ -25720,6 +25729,418 @@
       </c>
       <c r="BP120">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7287134</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45499.65625</v>
+      </c>
+      <c r="F121">
+        <v>25</v>
+      </c>
+      <c r="G121" t="s">
+        <v>70</v>
+      </c>
+      <c r="H121" t="s">
+        <v>76</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121" t="s">
+        <v>155</v>
+      </c>
+      <c r="P121" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q121">
+        <v>2.5</v>
+      </c>
+      <c r="R121">
+        <v>2.1</v>
+      </c>
+      <c r="S121">
+        <v>4.75</v>
+      </c>
+      <c r="T121">
+        <v>1.44</v>
+      </c>
+      <c r="U121">
+        <v>2.63</v>
+      </c>
+      <c r="V121">
+        <v>3.25</v>
+      </c>
+      <c r="W121">
+        <v>1.33</v>
+      </c>
+      <c r="X121">
+        <v>10</v>
+      </c>
+      <c r="Y121">
+        <v>1.06</v>
+      </c>
+      <c r="Z121">
+        <v>1.8</v>
+      </c>
+      <c r="AA121">
+        <v>3.3</v>
+      </c>
+      <c r="AB121">
+        <v>4.2</v>
+      </c>
+      <c r="AC121">
+        <v>1.04</v>
+      </c>
+      <c r="AD121">
+        <v>7.8</v>
+      </c>
+      <c r="AE121">
+        <v>1.32</v>
+      </c>
+      <c r="AF121">
+        <v>3.1</v>
+      </c>
+      <c r="AG121">
+        <v>2.08</v>
+      </c>
+      <c r="AH121">
+        <v>1.73</v>
+      </c>
+      <c r="AI121">
+        <v>1.95</v>
+      </c>
+      <c r="AJ121">
+        <v>1.8</v>
+      </c>
+      <c r="AK121">
+        <v>1.2</v>
+      </c>
+      <c r="AL121">
+        <v>1.33</v>
+      </c>
+      <c r="AM121">
+        <v>1.72</v>
+      </c>
+      <c r="AN121">
+        <v>1.09</v>
+      </c>
+      <c r="AO121">
+        <v>0.42</v>
+      </c>
+      <c r="AP121">
+        <v>1.08</v>
+      </c>
+      <c r="AQ121">
+        <v>0.46</v>
+      </c>
+      <c r="AR121">
+        <v>1.26</v>
+      </c>
+      <c r="AS121">
+        <v>0.95</v>
+      </c>
+      <c r="AT121">
+        <v>2.21</v>
+      </c>
+      <c r="AU121">
+        <v>9</v>
+      </c>
+      <c r="AV121">
+        <v>3</v>
+      </c>
+      <c r="AW121">
+        <v>11</v>
+      </c>
+      <c r="AX121">
+        <v>8</v>
+      </c>
+      <c r="AY121">
+        <v>20</v>
+      </c>
+      <c r="AZ121">
+        <v>11</v>
+      </c>
+      <c r="BA121">
+        <v>10</v>
+      </c>
+      <c r="BB121">
+        <v>2</v>
+      </c>
+      <c r="BC121">
+        <v>12</v>
+      </c>
+      <c r="BD121">
+        <v>1.7</v>
+      </c>
+      <c r="BE121">
+        <v>6.7</v>
+      </c>
+      <c r="BF121">
+        <v>2.81</v>
+      </c>
+      <c r="BG121">
+        <v>1.26</v>
+      </c>
+      <c r="BH121">
+        <v>3.34</v>
+      </c>
+      <c r="BI121">
+        <v>1.51</v>
+      </c>
+      <c r="BJ121">
+        <v>2.39</v>
+      </c>
+      <c r="BK121">
+        <v>2.25</v>
+      </c>
+      <c r="BL121">
+        <v>1.85</v>
+      </c>
+      <c r="BM121">
+        <v>2.44</v>
+      </c>
+      <c r="BN121">
+        <v>1.49</v>
+      </c>
+      <c r="BO121">
+        <v>3.28</v>
+      </c>
+      <c r="BP121">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7287135</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45499.65625</v>
+      </c>
+      <c r="F122">
+        <v>25</v>
+      </c>
+      <c r="G122" t="s">
+        <v>75</v>
+      </c>
+      <c r="H122" t="s">
+        <v>73</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>2</v>
+      </c>
+      <c r="O122" t="s">
+        <v>156</v>
+      </c>
+      <c r="P122" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q122">
+        <v>3</v>
+      </c>
+      <c r="R122">
+        <v>2.2</v>
+      </c>
+      <c r="S122">
+        <v>3.5</v>
+      </c>
+      <c r="T122">
+        <v>1.4</v>
+      </c>
+      <c r="U122">
+        <v>2.75</v>
+      </c>
+      <c r="V122">
+        <v>2.75</v>
+      </c>
+      <c r="W122">
+        <v>1.4</v>
+      </c>
+      <c r="X122">
+        <v>8</v>
+      </c>
+      <c r="Y122">
+        <v>1.08</v>
+      </c>
+      <c r="Z122">
+        <v>2.25</v>
+      </c>
+      <c r="AA122">
+        <v>3.4</v>
+      </c>
+      <c r="AB122">
+        <v>2.7</v>
+      </c>
+      <c r="AC122">
+        <v>1.02</v>
+      </c>
+      <c r="AD122">
+        <v>8.6</v>
+      </c>
+      <c r="AE122">
+        <v>1.27</v>
+      </c>
+      <c r="AF122">
+        <v>3.28</v>
+      </c>
+      <c r="AG122">
+        <v>1.9</v>
+      </c>
+      <c r="AH122">
+        <v>1.9</v>
+      </c>
+      <c r="AI122">
+        <v>1.75</v>
+      </c>
+      <c r="AJ122">
+        <v>2</v>
+      </c>
+      <c r="AK122">
+        <v>1.53</v>
+      </c>
+      <c r="AL122">
+        <v>1.33</v>
+      </c>
+      <c r="AM122">
+        <v>1.43</v>
+      </c>
+      <c r="AN122">
+        <v>1.27</v>
+      </c>
+      <c r="AO122">
+        <v>1.42</v>
+      </c>
+      <c r="AP122">
+        <v>1.42</v>
+      </c>
+      <c r="AQ122">
+        <v>1.31</v>
+      </c>
+      <c r="AR122">
+        <v>1.39</v>
+      </c>
+      <c r="AS122">
+        <v>1.11</v>
+      </c>
+      <c r="AT122">
+        <v>2.5</v>
+      </c>
+      <c r="AU122">
+        <v>6</v>
+      </c>
+      <c r="AV122">
+        <v>3</v>
+      </c>
+      <c r="AW122">
+        <v>7</v>
+      </c>
+      <c r="AX122">
+        <v>7</v>
+      </c>
+      <c r="AY122">
+        <v>13</v>
+      </c>
+      <c r="AZ122">
+        <v>10</v>
+      </c>
+      <c r="BA122">
+        <v>1</v>
+      </c>
+      <c r="BB122">
+        <v>6</v>
+      </c>
+      <c r="BC122">
+        <v>7</v>
+      </c>
+      <c r="BD122">
+        <v>2.12</v>
+      </c>
+      <c r="BE122">
+        <v>6.4</v>
+      </c>
+      <c r="BF122">
+        <v>2.15</v>
+      </c>
+      <c r="BG122">
+        <v>1.28</v>
+      </c>
+      <c r="BH122">
+        <v>3.2</v>
+      </c>
+      <c r="BI122">
+        <v>1.54</v>
+      </c>
+      <c r="BJ122">
+        <v>2.32</v>
+      </c>
+      <c r="BK122">
+        <v>2</v>
+      </c>
+      <c r="BL122">
+        <v>1.8</v>
+      </c>
+      <c r="BM122">
+        <v>2.52</v>
+      </c>
+      <c r="BN122">
+        <v>1.46</v>
+      </c>
+      <c r="BO122">
+        <v>3.42</v>
+      </c>
+      <c r="BP122">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="211">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -485,6 +485,9 @@
   </si>
   <si>
     <t>['15', '90']</t>
+  </si>
+  <si>
+    <t>['34', '90+6']</t>
   </si>
   <si>
     <t>['23', '45+2']</t>
@@ -1005,7 +1008,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP122"/>
+  <dimension ref="A1:BP123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1264,7 +1267,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1470,7 +1473,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1882,7 +1885,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2294,7 +2297,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2500,7 +2503,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2581,7 +2584,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ8">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2706,7 +2709,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3196,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ11">
         <v>1.25</v>
@@ -3324,7 +3327,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3402,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ12">
         <v>1.92</v>
@@ -3530,7 +3533,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3736,7 +3739,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4148,7 +4151,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4435,7 +4438,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR17">
         <v>1.23</v>
@@ -4560,7 +4563,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4766,7 +4769,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -5178,7 +5181,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5874,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ24">
         <v>1.25</v>
@@ -6002,7 +6005,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6620,7 +6623,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6904,7 +6907,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ29">
         <v>0.23</v>
@@ -7113,7 +7116,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ30">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7650,7 +7653,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7856,7 +7859,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8268,7 +8271,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8886,7 +8889,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9092,7 +9095,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9298,7 +9301,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9504,7 +9507,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9710,7 +9713,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9916,7 +9919,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10122,7 +10125,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10615,7 +10618,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ47">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR47">
         <v>1.3</v>
@@ -11358,7 +11361,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11564,7 +11567,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11642,7 +11645,7 @@
         <v>0.2</v>
       </c>
       <c r="AP52">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ52">
         <v>0.46</v>
@@ -12260,10 +12263,10 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ55">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR55">
         <v>1.35</v>
@@ -12800,7 +12803,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13418,7 +13421,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13624,7 +13627,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13705,7 +13708,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ62">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR62">
         <v>1.75</v>
@@ -14654,7 +14657,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14860,7 +14863,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -14938,7 +14941,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ68">
         <v>1.31</v>
@@ -15066,7 +15069,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15353,7 +15356,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ70">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR70">
         <v>1.06</v>
@@ -15478,7 +15481,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -15762,7 +15765,7 @@
         <v>0.71</v>
       </c>
       <c r="AP72">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ72">
         <v>0.67</v>
@@ -16096,7 +16099,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16920,7 +16923,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17332,7 +17335,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17538,7 +17541,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17616,7 +17619,7 @@
         <v>1.29</v>
       </c>
       <c r="AP81">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ81">
         <v>1.27</v>
@@ -17744,7 +17747,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -17825,7 +17828,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ82">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR82">
         <v>1.34</v>
@@ -18156,7 +18159,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18568,7 +18571,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18774,7 +18777,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -18980,7 +18983,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -19392,7 +19395,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19804,7 +19807,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q92">
         <v>3.2</v>
@@ -19885,7 +19888,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ92">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR92">
         <v>1.44</v>
@@ -20216,7 +20219,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q94">
         <v>5.5</v>
@@ -20422,7 +20425,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20628,7 +20631,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20706,7 +20709,7 @@
         <v>0.33</v>
       </c>
       <c r="AP96">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ96">
         <v>0.23</v>
@@ -20834,7 +20837,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21452,7 +21455,7 @@
         <v>142</v>
       </c>
       <c r="P100" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21739,7 +21742,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ101">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR101">
         <v>1.5</v>
@@ -22276,7 +22279,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22688,7 +22691,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q106">
         <v>4.5</v>
@@ -22894,7 +22897,7 @@
         <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23387,7 +23390,7 @@
         <v>2</v>
       </c>
       <c r="AQ109">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR109">
         <v>1.37</v>
@@ -23590,7 +23593,7 @@
         <v>1.36</v>
       </c>
       <c r="AP110">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ110">
         <v>1.25</v>
@@ -24130,7 +24133,7 @@
         <v>150</v>
       </c>
       <c r="P113" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q113">
         <v>2.88</v>
@@ -24620,7 +24623,7 @@
         <v>1.36</v>
       </c>
       <c r="AP115">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ115">
         <v>1.25</v>
@@ -24748,7 +24751,7 @@
         <v>117</v>
       </c>
       <c r="P116" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -25160,7 +25163,7 @@
         <v>82</v>
       </c>
       <c r="P118" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25366,7 +25369,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25778,7 +25781,7 @@
         <v>155</v>
       </c>
       <c r="P121" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -25871,22 +25874,22 @@
         <v>2.21</v>
       </c>
       <c r="AU121">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV121">
         <v>3</v>
       </c>
       <c r="AW121">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AX121">
+        <v>5</v>
+      </c>
+      <c r="AY121">
+        <v>13</v>
+      </c>
+      <c r="AZ121">
         <v>8</v>
-      </c>
-      <c r="AY121">
-        <v>20</v>
-      </c>
-      <c r="AZ121">
-        <v>11</v>
       </c>
       <c r="BA121">
         <v>10</v>
@@ -26077,7 +26080,7 @@
         <v>2.5</v>
       </c>
       <c r="AU122">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV122">
         <v>3</v>
@@ -26086,13 +26089,13 @@
         <v>7</v>
       </c>
       <c r="AX122">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AY122">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ122">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BA122">
         <v>1</v>
@@ -26141,6 +26144,212 @@
       </c>
       <c r="BP122">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7287136</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45500.65625</v>
+      </c>
+      <c r="F123">
+        <v>25</v>
+      </c>
+      <c r="G123" t="s">
+        <v>79</v>
+      </c>
+      <c r="H123" t="s">
+        <v>72</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>157</v>
+      </c>
+      <c r="P123" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q123">
+        <v>4</v>
+      </c>
+      <c r="R123">
+        <v>2.05</v>
+      </c>
+      <c r="S123">
+        <v>3</v>
+      </c>
+      <c r="T123">
+        <v>1.5</v>
+      </c>
+      <c r="U123">
+        <v>2.5</v>
+      </c>
+      <c r="V123">
+        <v>3.5</v>
+      </c>
+      <c r="W123">
+        <v>1.29</v>
+      </c>
+      <c r="X123">
+        <v>10</v>
+      </c>
+      <c r="Y123">
+        <v>1.06</v>
+      </c>
+      <c r="Z123">
+        <v>3</v>
+      </c>
+      <c r="AA123">
+        <v>3.2</v>
+      </c>
+      <c r="AB123">
+        <v>2.2</v>
+      </c>
+      <c r="AC123">
+        <v>1.06</v>
+      </c>
+      <c r="AD123">
+        <v>6.8</v>
+      </c>
+      <c r="AE123">
+        <v>1.4</v>
+      </c>
+      <c r="AF123">
+        <v>2.64</v>
+      </c>
+      <c r="AG123">
+        <v>2.2</v>
+      </c>
+      <c r="AH123">
+        <v>1.65</v>
+      </c>
+      <c r="AI123">
+        <v>1.95</v>
+      </c>
+      <c r="AJ123">
+        <v>1.8</v>
+      </c>
+      <c r="AK123">
+        <v>1.63</v>
+      </c>
+      <c r="AL123">
+        <v>1.36</v>
+      </c>
+      <c r="AM123">
+        <v>1.33</v>
+      </c>
+      <c r="AN123">
+        <v>1.58</v>
+      </c>
+      <c r="AO123">
+        <v>1.36</v>
+      </c>
+      <c r="AP123">
+        <v>1.69</v>
+      </c>
+      <c r="AQ123">
+        <v>1.25</v>
+      </c>
+      <c r="AR123">
+        <v>1.31</v>
+      </c>
+      <c r="AS123">
+        <v>1.14</v>
+      </c>
+      <c r="AT123">
+        <v>2.45</v>
+      </c>
+      <c r="AU123">
+        <v>4</v>
+      </c>
+      <c r="AV123">
+        <v>5</v>
+      </c>
+      <c r="AW123">
+        <v>3</v>
+      </c>
+      <c r="AX123">
+        <v>7</v>
+      </c>
+      <c r="AY123">
+        <v>7</v>
+      </c>
+      <c r="AZ123">
+        <v>12</v>
+      </c>
+      <c r="BA123">
+        <v>4</v>
+      </c>
+      <c r="BB123">
+        <v>3</v>
+      </c>
+      <c r="BC123">
+        <v>7</v>
+      </c>
+      <c r="BD123">
+        <v>2.27</v>
+      </c>
+      <c r="BE123">
+        <v>7.1</v>
+      </c>
+      <c r="BF123">
+        <v>1.93</v>
+      </c>
+      <c r="BG123">
+        <v>1.33</v>
+      </c>
+      <c r="BH123">
+        <v>3</v>
+      </c>
+      <c r="BI123">
+        <v>1.58</v>
+      </c>
+      <c r="BJ123">
+        <v>2.3</v>
+      </c>
+      <c r="BK123">
+        <v>1.98</v>
+      </c>
+      <c r="BL123">
+        <v>1.82</v>
+      </c>
+      <c r="BM123">
+        <v>2.51</v>
+      </c>
+      <c r="BN123">
+        <v>1.5</v>
+      </c>
+      <c r="BO123">
+        <v>3.2</v>
+      </c>
+      <c r="BP123">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="215">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -466,13 +466,13 @@
     <t>['6', '30', '57', '67', '88']</t>
   </si>
   <si>
-    <t>['50']</t>
-  </si>
-  <si>
     <t>['52']</t>
   </si>
   <si>
     <t>['61', '89']</t>
+  </si>
+  <si>
+    <t>['50']</t>
   </si>
   <si>
     <t>['29']</t>
@@ -481,13 +481,16 @@
     <t>['8', '16', '55', '85']</t>
   </si>
   <si>
+    <t>['15', '90']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
-    <t>['15', '90']</t>
+    <t>['34', '90+6']</t>
   </si>
   <si>
-    <t>['34', '90+6']</t>
+    <t>['9', '60']</t>
   </si>
   <si>
     <t>['23', '45+2']</t>
@@ -647,6 +650,15 @@
   </si>
   <si>
     <t>['27']</t>
+  </si>
+  <si>
+    <t>['18', '22']</t>
+  </si>
+  <si>
+    <t>['53', '87']</t>
+  </si>
+  <si>
+    <t>['9', '85']</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP123"/>
+  <dimension ref="A1:BP126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1267,7 +1279,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1473,7 +1485,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1885,7 +1897,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1963,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ5">
         <v>1.92</v>
@@ -2297,7 +2309,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2375,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ7">
         <v>1.31</v>
@@ -2503,7 +2515,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2581,10 +2593,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ8">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2709,7 +2721,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2790,7 +2802,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2996,7 +3008,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ10">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3327,7 +3339,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3533,7 +3545,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3739,7 +3751,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4023,10 +4035,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ15">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR15">
         <v>1.32</v>
@@ -4151,7 +4163,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4229,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ16">
         <v>1.25</v>
@@ -4438,7 +4450,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR17">
         <v>1.23</v>
@@ -4563,7 +4575,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4641,7 +4653,7 @@
         <v>1.5</v>
       </c>
       <c r="AP18">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ18">
         <v>0.67</v>
@@ -4769,7 +4781,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -5181,7 +5193,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5880,7 +5892,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ24">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -6005,7 +6017,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6292,7 +6304,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ26">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6495,7 +6507,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ27">
         <v>1.31</v>
@@ -6623,7 +6635,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -7116,7 +7128,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ30">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7319,7 +7331,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ31">
         <v>0.67</v>
@@ -7653,7 +7665,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7731,7 +7743,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ33">
         <v>1.25</v>
@@ -7859,7 +7871,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -7940,7 +7952,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ34">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR34">
         <v>1.27</v>
@@ -8143,7 +8155,7 @@
         <v>0.33</v>
       </c>
       <c r="AP35">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ35">
         <v>0.23</v>
@@ -8271,7 +8283,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8349,10 +8361,10 @@
         <v>1.33</v>
       </c>
       <c r="AP36">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ36">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR36">
         <v>1.43</v>
@@ -8889,7 +8901,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8970,7 +8982,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ39">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR39">
         <v>1.28</v>
@@ -9095,7 +9107,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9301,7 +9313,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9507,7 +9519,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9585,7 +9597,7 @@
         <v>2.5</v>
       </c>
       <c r="AP42">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ42">
         <v>1.92</v>
@@ -9713,7 +9725,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9794,7 +9806,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ43">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR43">
         <v>1.58</v>
@@ -9919,7 +9931,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10000,7 +10012,7 @@
         <v>2</v>
       </c>
       <c r="AQ44">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR44">
         <v>0.87</v>
@@ -10125,7 +10137,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10203,7 +10215,7 @@
         <v>0.75</v>
       </c>
       <c r="AP45">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ45">
         <v>1.25</v>
@@ -10409,7 +10421,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ46">
         <v>0.67</v>
@@ -10615,10 +10627,10 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ47">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR47">
         <v>1.3</v>
@@ -11361,7 +11373,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11442,7 +11454,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ51">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR51">
         <v>1.37</v>
@@ -11567,7 +11579,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12266,7 +12278,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ55">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR55">
         <v>1.35</v>
@@ -12678,7 +12690,7 @@
         <v>2</v>
       </c>
       <c r="AQ57">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR57">
         <v>1</v>
@@ -12803,7 +12815,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -12881,7 +12893,7 @@
         <v>1.4</v>
       </c>
       <c r="AP58">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ58">
         <v>1.25</v>
@@ -13087,10 +13099,10 @@
         <v>1.8</v>
       </c>
       <c r="AP59">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ59">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR59">
         <v>1.21</v>
@@ -13421,7 +13433,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13499,7 +13511,7 @@
         <v>0.8</v>
       </c>
       <c r="AP61">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ61">
         <v>1.25</v>
@@ -13627,7 +13639,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13708,7 +13720,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ62">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR62">
         <v>1.75</v>
@@ -14529,7 +14541,7 @@
         <v>1.83</v>
       </c>
       <c r="AP66">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ66">
         <v>1.92</v>
@@ -14657,7 +14669,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14738,7 +14750,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ67">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR67">
         <v>1.06</v>
@@ -14863,7 +14875,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15069,7 +15081,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15147,7 +15159,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ69">
         <v>0.46</v>
@@ -15356,7 +15368,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ70">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR70">
         <v>1.06</v>
@@ -15481,7 +15493,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -16099,7 +16111,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16798,7 +16810,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ77">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR77">
         <v>1.34</v>
@@ -16923,7 +16935,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17001,7 +17013,7 @@
         <v>0.29</v>
       </c>
       <c r="AP78">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ78">
         <v>0.46</v>
@@ -17335,7 +17347,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17541,7 +17553,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17622,7 +17634,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ81">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR81">
         <v>1.3</v>
@@ -17747,7 +17759,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -17825,10 +17837,10 @@
         <v>1.71</v>
       </c>
       <c r="AP82">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ82">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR82">
         <v>1.34</v>
@@ -18031,10 +18043,10 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ83">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR83">
         <v>1.34</v>
@@ -18159,7 +18171,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18571,7 +18583,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18649,7 +18661,7 @@
         <v>0.38</v>
       </c>
       <c r="AP86">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ86">
         <v>0.23</v>
@@ -18777,7 +18789,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -18983,7 +18995,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -19395,7 +19407,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19679,10 +19691,10 @@
         <v>1.5</v>
       </c>
       <c r="AP91">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ91">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR91">
         <v>1.23</v>
@@ -19807,7 +19819,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q92">
         <v>3.2</v>
@@ -19888,7 +19900,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ92">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR92">
         <v>1.44</v>
@@ -20091,7 +20103,7 @@
         <v>1.22</v>
       </c>
       <c r="AP93">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ93">
         <v>1.25</v>
@@ -20219,7 +20231,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q94">
         <v>5.5</v>
@@ -20297,10 +20309,10 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ94">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR94">
         <v>1.39</v>
@@ -20425,7 +20437,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20631,7 +20643,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20837,7 +20849,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21455,7 +21467,7 @@
         <v>142</v>
       </c>
       <c r="P100" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21533,7 +21545,7 @@
         <v>1.33</v>
       </c>
       <c r="AP100">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ100">
         <v>1.25</v>
@@ -21742,7 +21754,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ101">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR101">
         <v>1.5</v>
@@ -21945,7 +21957,7 @@
         <v>0.7</v>
       </c>
       <c r="AP102">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ102">
         <v>0.67</v>
@@ -22151,7 +22163,7 @@
         <v>1.2</v>
       </c>
       <c r="AP103">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ103">
         <v>1.25</v>
@@ -22279,7 +22291,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22360,7 +22372,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ104">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR104">
         <v>1.36</v>
@@ -22691,7 +22703,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q106">
         <v>4.5</v>
@@ -22897,7 +22909,7 @@
         <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -22975,7 +22987,7 @@
         <v>1.9</v>
       </c>
       <c r="AP107">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ107">
         <v>1.92</v>
@@ -23181,7 +23193,7 @@
         <v>1.4</v>
       </c>
       <c r="AP108">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ108">
         <v>1.31</v>
@@ -23390,7 +23402,7 @@
         <v>2</v>
       </c>
       <c r="AQ109">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR109">
         <v>1.37</v>
@@ -23596,7 +23608,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ110">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR110">
         <v>1.25</v>
@@ -23802,7 +23814,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ111">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR111">
         <v>1.37</v>
@@ -24091,7 +24103,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>7287123</v>
+        <v>7287122</v>
       </c>
       <c r="C113" t="s">
         <v>68</v>
@@ -24106,10 +24118,10 @@
         <v>23</v>
       </c>
       <c r="G113" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H113" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -24130,46 +24142,46 @@
         <v>2</v>
       </c>
       <c r="O113" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="P113" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="Q113">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="R113">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S113">
-        <v>4.33</v>
+        <v>2.5</v>
       </c>
       <c r="T113">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="U113">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="V113">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="W113">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X113">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="Y113">
         <v>1.06</v>
       </c>
       <c r="Z113">
-        <v>1.99</v>
+        <v>3.88</v>
       </c>
       <c r="AA113">
-        <v>3.27</v>
+        <v>3.3</v>
       </c>
       <c r="AB113">
-        <v>3.86</v>
+        <v>1.97</v>
       </c>
       <c r="AC113">
         <v>1.07</v>
@@ -24178,16 +24190,16 @@
         <v>8</v>
       </c>
       <c r="AE113">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AF113">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AG113">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AH113">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="AI113">
         <v>2</v>
@@ -24196,100 +24208,100 @@
         <v>1.75</v>
       </c>
       <c r="AK113">
-        <v>1.28</v>
+        <v>1.93</v>
       </c>
       <c r="AL113">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM113">
-        <v>1.73</v>
+        <v>1.2</v>
       </c>
       <c r="AN113">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AO113">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AP113">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="AQ113">
-        <v>1.27</v>
+        <v>1.92</v>
       </c>
       <c r="AR113">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="AS113">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="AT113">
-        <v>2.51</v>
+        <v>2.41</v>
       </c>
       <c r="AU113">
+        <v>6</v>
+      </c>
+      <c r="AV113">
+        <v>4</v>
+      </c>
+      <c r="AW113">
+        <v>5</v>
+      </c>
+      <c r="AX113">
+        <v>4</v>
+      </c>
+      <c r="AY113">
+        <v>11</v>
+      </c>
+      <c r="AZ113">
         <v>8</v>
       </c>
-      <c r="AV113">
-        <v>2</v>
-      </c>
-      <c r="AW113">
+      <c r="BA113">
         <v>6</v>
       </c>
-      <c r="AX113">
-        <v>5</v>
-      </c>
-      <c r="AY113">
-        <v>14</v>
-      </c>
-      <c r="AZ113">
-        <v>7</v>
-      </c>
-      <c r="BA113">
-        <v>4</v>
-      </c>
       <c r="BB113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC113">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD113">
-        <v>1.64</v>
+        <v>3.1</v>
       </c>
       <c r="BE113">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="BF113">
-        <v>2.81</v>
+        <v>1.57</v>
       </c>
       <c r="BG113">
-        <v>1.23</v>
+        <v>1.39</v>
       </c>
       <c r="BH113">
-        <v>4</v>
+        <v>2.85</v>
       </c>
       <c r="BI113">
-        <v>1.42</v>
+        <v>1.8</v>
       </c>
       <c r="BJ113">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="BK113">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BL113">
-        <v>2.08</v>
+        <v>1.68</v>
       </c>
       <c r="BM113">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="BN113">
-        <v>1.9</v>
+        <v>1.43</v>
       </c>
       <c r="BO113">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="BP113">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="114" spans="1:68">
@@ -24336,7 +24348,7 @@
         <v>1</v>
       </c>
       <c r="O114" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P114" t="s">
         <v>82</v>
@@ -24417,7 +24429,7 @@
         <v>0.73</v>
       </c>
       <c r="AP114">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ114">
         <v>0.67</v>
@@ -24542,7 +24554,7 @@
         <v>3</v>
       </c>
       <c r="O115" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P115" t="s">
         <v>144</v>
@@ -24709,7 +24721,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>7287122</v>
+        <v>7287123</v>
       </c>
       <c r="C116" t="s">
         <v>68</v>
@@ -24724,10 +24736,10 @@
         <v>23</v>
       </c>
       <c r="G116" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H116" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -24748,46 +24760,46 @@
         <v>2</v>
       </c>
       <c r="O116" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="P116" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="Q116">
-        <v>5</v>
+        <v>2.88</v>
       </c>
       <c r="R116">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S116">
-        <v>2.5</v>
+        <v>4.33</v>
       </c>
       <c r="T116">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="U116">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="V116">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="W116">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X116">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Y116">
         <v>1.06</v>
       </c>
       <c r="Z116">
-        <v>3.88</v>
+        <v>1.99</v>
       </c>
       <c r="AA116">
-        <v>3.3</v>
+        <v>3.27</v>
       </c>
       <c r="AB116">
-        <v>1.97</v>
+        <v>3.86</v>
       </c>
       <c r="AC116">
         <v>1.07</v>
@@ -24796,16 +24808,16 @@
         <v>8</v>
       </c>
       <c r="AE116">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AF116">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AG116">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="AH116">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AI116">
         <v>2</v>
@@ -24814,100 +24826,100 @@
         <v>1.75</v>
       </c>
       <c r="AK116">
-        <v>1.93</v>
+        <v>1.28</v>
       </c>
       <c r="AL116">
+        <v>1.28</v>
+      </c>
+      <c r="AM116">
+        <v>1.73</v>
+      </c>
+      <c r="AN116">
+        <v>1.5</v>
+      </c>
+      <c r="AO116">
+        <v>1.3</v>
+      </c>
+      <c r="AP116">
+        <v>1.58</v>
+      </c>
+      <c r="AQ116">
         <v>1.25</v>
       </c>
-      <c r="AM116">
-        <v>1.2</v>
-      </c>
-      <c r="AN116">
-        <v>1.3</v>
-      </c>
-      <c r="AO116">
-        <v>2</v>
-      </c>
-      <c r="AP116">
+      <c r="AR116">
+        <v>1.34</v>
+      </c>
+      <c r="AS116">
+        <v>1.17</v>
+      </c>
+      <c r="AT116">
+        <v>2.51</v>
+      </c>
+      <c r="AU116">
+        <v>8</v>
+      </c>
+      <c r="AV116">
+        <v>2</v>
+      </c>
+      <c r="AW116">
+        <v>6</v>
+      </c>
+      <c r="AX116">
+        <v>5</v>
+      </c>
+      <c r="AY116">
+        <v>14</v>
+      </c>
+      <c r="AZ116">
+        <v>7</v>
+      </c>
+      <c r="BA116">
+        <v>4</v>
+      </c>
+      <c r="BB116">
+        <v>2</v>
+      </c>
+      <c r="BC116">
+        <v>6</v>
+      </c>
+      <c r="BD116">
+        <v>1.64</v>
+      </c>
+      <c r="BE116">
+        <v>8</v>
+      </c>
+      <c r="BF116">
+        <v>2.81</v>
+      </c>
+      <c r="BG116">
+        <v>1.23</v>
+      </c>
+      <c r="BH116">
+        <v>4</v>
+      </c>
+      <c r="BI116">
         <v>1.42</v>
       </c>
-      <c r="AQ116">
-        <v>1.92</v>
-      </c>
-      <c r="AR116">
-        <v>1.37</v>
-      </c>
-      <c r="AS116">
-        <v>1.04</v>
-      </c>
-      <c r="AT116">
-        <v>2.41</v>
-      </c>
-      <c r="AU116">
-        <v>6</v>
-      </c>
-      <c r="AV116">
-        <v>4</v>
-      </c>
-      <c r="AW116">
-        <v>5</v>
-      </c>
-      <c r="AX116">
-        <v>4</v>
-      </c>
-      <c r="AY116">
-        <v>11</v>
-      </c>
-      <c r="AZ116">
-        <v>8</v>
-      </c>
-      <c r="BA116">
-        <v>6</v>
-      </c>
-      <c r="BB116">
-        <v>3</v>
-      </c>
-      <c r="BC116">
-        <v>9</v>
-      </c>
-      <c r="BD116">
-        <v>3.1</v>
-      </c>
-      <c r="BE116">
-        <v>7.6</v>
-      </c>
-      <c r="BF116">
-        <v>1.57</v>
-      </c>
-      <c r="BG116">
-        <v>1.39</v>
-      </c>
-      <c r="BH116">
-        <v>2.85</v>
-      </c>
-      <c r="BI116">
-        <v>1.8</v>
-      </c>
       <c r="BJ116">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="BK116">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BL116">
-        <v>1.68</v>
+        <v>2.08</v>
       </c>
       <c r="BM116">
+        <v>1.9</v>
+      </c>
+      <c r="BN116">
+        <v>1.9</v>
+      </c>
+      <c r="BO116">
         <v>2.7</v>
       </c>
-      <c r="BN116">
+      <c r="BP116">
         <v>1.43</v>
-      </c>
-      <c r="BO116">
-        <v>3.7</v>
-      </c>
-      <c r="BP116">
-        <v>1.25</v>
       </c>
     </row>
     <row r="117" spans="1:68">
@@ -25163,7 +25175,7 @@
         <v>82</v>
       </c>
       <c r="P118" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25369,7 +25381,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25447,7 +25459,7 @@
         <v>0.25</v>
       </c>
       <c r="AP119">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ119">
         <v>0.23</v>
@@ -25739,7 +25751,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>7287134</v>
+        <v>7287135</v>
       </c>
       <c r="C121" t="s">
         <v>68</v>
@@ -25754,25 +25766,25 @@
         <v>25</v>
       </c>
       <c r="G121" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H121" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N121">
         <v>2</v>
@@ -25781,163 +25793,163 @@
         <v>155</v>
       </c>
       <c r="P121" t="s">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="Q121">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R121">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S121">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="T121">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U121">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V121">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="W121">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X121">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y121">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z121">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AA121">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AB121">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="AC121">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD121">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AE121">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="AF121">
-        <v>3.1</v>
+        <v>3.28</v>
       </c>
       <c r="AG121">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="AH121">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="AI121">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AJ121">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AK121">
-        <v>1.2</v>
+        <v>1.53</v>
       </c>
       <c r="AL121">
         <v>1.33</v>
       </c>
       <c r="AM121">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="AN121">
-        <v>1.09</v>
+        <v>1.27</v>
       </c>
       <c r="AO121">
-        <v>0.42</v>
+        <v>1.42</v>
       </c>
       <c r="AP121">
-        <v>1.08</v>
+        <v>1.38</v>
       </c>
       <c r="AQ121">
-        <v>0.46</v>
+        <v>1.31</v>
       </c>
       <c r="AR121">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="AS121">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AT121">
-        <v>2.21</v>
+        <v>2.5</v>
       </c>
       <c r="AU121">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV121">
         <v>3</v>
       </c>
       <c r="AW121">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX121">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY121">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ121">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BA121">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BB121">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC121">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BD121">
-        <v>1.7</v>
+        <v>2.12</v>
       </c>
       <c r="BE121">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="BF121">
-        <v>2.81</v>
+        <v>2.15</v>
       </c>
       <c r="BG121">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="BH121">
-        <v>3.34</v>
+        <v>3.2</v>
       </c>
       <c r="BI121">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="BJ121">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="BK121">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="BL121">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="BM121">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="BN121">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="BO121">
-        <v>3.28</v>
+        <v>3.42</v>
       </c>
       <c r="BP121">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="122" spans="1:68">
@@ -25945,7 +25957,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>7287135</v>
+        <v>7287134</v>
       </c>
       <c r="C122" t="s">
         <v>68</v>
@@ -25960,25 +25972,25 @@
         <v>25</v>
       </c>
       <c r="G122" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H122" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N122">
         <v>2</v>
@@ -25987,163 +25999,163 @@
         <v>156</v>
       </c>
       <c r="P122" t="s">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="Q122">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="R122">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S122">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="T122">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U122">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V122">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="W122">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X122">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y122">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z122">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AA122">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB122">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="AC122">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD122">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AE122">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AF122">
-        <v>3.28</v>
+        <v>3.1</v>
       </c>
       <c r="AG122">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="AH122">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AI122">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AJ122">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AK122">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="AL122">
         <v>1.33</v>
       </c>
       <c r="AM122">
-        <v>1.43</v>
+        <v>1.72</v>
       </c>
       <c r="AN122">
-        <v>1.27</v>
+        <v>1.09</v>
       </c>
       <c r="AO122">
-        <v>1.42</v>
+        <v>0.42</v>
       </c>
       <c r="AP122">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="AQ122">
-        <v>1.31</v>
+        <v>0.46</v>
       </c>
       <c r="AR122">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="AS122">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AT122">
-        <v>2.5</v>
+        <v>2.21</v>
       </c>
       <c r="AU122">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV122">
         <v>3</v>
       </c>
       <c r="AW122">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX122">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY122">
+        <v>13</v>
+      </c>
+      <c r="AZ122">
+        <v>8</v>
+      </c>
+      <c r="BA122">
+        <v>10</v>
+      </c>
+      <c r="BB122">
+        <v>2</v>
+      </c>
+      <c r="BC122">
         <v>12</v>
       </c>
-      <c r="AZ122">
-        <v>4</v>
-      </c>
-      <c r="BA122">
-        <v>1</v>
-      </c>
-      <c r="BB122">
-        <v>6</v>
-      </c>
-      <c r="BC122">
-        <v>7</v>
-      </c>
       <c r="BD122">
-        <v>2.12</v>
+        <v>1.7</v>
       </c>
       <c r="BE122">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="BF122">
-        <v>2.15</v>
+        <v>2.81</v>
       </c>
       <c r="BG122">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="BH122">
-        <v>3.2</v>
+        <v>3.34</v>
       </c>
       <c r="BI122">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="BJ122">
-        <v>2.32</v>
+        <v>2.39</v>
       </c>
       <c r="BK122">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="BL122">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="BM122">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="BN122">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="BO122">
-        <v>3.42</v>
+        <v>3.28</v>
       </c>
       <c r="BP122">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="123" spans="1:68">
@@ -26274,7 +26286,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ123">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR123">
         <v>1.31</v>
@@ -26350,6 +26362,624 @@
       </c>
       <c r="BP123">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7287137</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45506.65625</v>
+      </c>
+      <c r="F124">
+        <v>26</v>
+      </c>
+      <c r="G124" t="s">
+        <v>75</v>
+      </c>
+      <c r="H124" t="s">
+        <v>70</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>2</v>
+      </c>
+      <c r="K124">
+        <v>3</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
+        <v>4</v>
+      </c>
+      <c r="O124" t="s">
+        <v>158</v>
+      </c>
+      <c r="P124" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q124">
+        <v>3.75</v>
+      </c>
+      <c r="R124">
+        <v>2.2</v>
+      </c>
+      <c r="S124">
+        <v>2.88</v>
+      </c>
+      <c r="T124">
+        <v>1.34</v>
+      </c>
+      <c r="U124">
+        <v>3.21</v>
+      </c>
+      <c r="V124">
+        <v>2.7</v>
+      </c>
+      <c r="W124">
+        <v>1.46</v>
+      </c>
+      <c r="X124">
+        <v>6.45</v>
+      </c>
+      <c r="Y124">
+        <v>1.1</v>
+      </c>
+      <c r="Z124">
+        <v>3</v>
+      </c>
+      <c r="AA124">
+        <v>3.4</v>
+      </c>
+      <c r="AB124">
+        <v>2.15</v>
+      </c>
+      <c r="AC124">
+        <v>1.01</v>
+      </c>
+      <c r="AD124">
+        <v>10</v>
+      </c>
+      <c r="AE124">
+        <v>1.22</v>
+      </c>
+      <c r="AF124">
+        <v>3.64</v>
+      </c>
+      <c r="AG124">
+        <v>1.85</v>
+      </c>
+      <c r="AH124">
+        <v>1.95</v>
+      </c>
+      <c r="AI124">
+        <v>1.7</v>
+      </c>
+      <c r="AJ124">
+        <v>2.05</v>
+      </c>
+      <c r="AK124">
+        <v>1.74</v>
+      </c>
+      <c r="AL124">
+        <v>1.29</v>
+      </c>
+      <c r="AM124">
+        <v>1.33</v>
+      </c>
+      <c r="AN124">
+        <v>1.42</v>
+      </c>
+      <c r="AO124">
+        <v>1.27</v>
+      </c>
+      <c r="AP124">
+        <v>1.38</v>
+      </c>
+      <c r="AQ124">
+        <v>1.25</v>
+      </c>
+      <c r="AR124">
+        <v>1.39</v>
+      </c>
+      <c r="AS124">
+        <v>1.15</v>
+      </c>
+      <c r="AT124">
+        <v>2.54</v>
+      </c>
+      <c r="AU124">
+        <v>6</v>
+      </c>
+      <c r="AV124">
+        <v>7</v>
+      </c>
+      <c r="AW124">
+        <v>10</v>
+      </c>
+      <c r="AX124">
+        <v>5</v>
+      </c>
+      <c r="AY124">
+        <v>16</v>
+      </c>
+      <c r="AZ124">
+        <v>12</v>
+      </c>
+      <c r="BA124">
+        <v>5</v>
+      </c>
+      <c r="BB124">
+        <v>8</v>
+      </c>
+      <c r="BC124">
+        <v>13</v>
+      </c>
+      <c r="BD124">
+        <v>2.25</v>
+      </c>
+      <c r="BE124">
+        <v>7.1</v>
+      </c>
+      <c r="BF124">
+        <v>1.95</v>
+      </c>
+      <c r="BG124">
+        <v>1.25</v>
+      </c>
+      <c r="BH124">
+        <v>3.7</v>
+      </c>
+      <c r="BI124">
+        <v>1.46</v>
+      </c>
+      <c r="BJ124">
+        <v>2.6</v>
+      </c>
+      <c r="BK124">
+        <v>2.38</v>
+      </c>
+      <c r="BL124">
+        <v>1.95</v>
+      </c>
+      <c r="BM124">
+        <v>2.23</v>
+      </c>
+      <c r="BN124">
+        <v>1.61</v>
+      </c>
+      <c r="BO124">
+        <v>2.85</v>
+      </c>
+      <c r="BP124">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7287138</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45506.65625</v>
+      </c>
+      <c r="F125">
+        <v>26</v>
+      </c>
+      <c r="G125" t="s">
+        <v>76</v>
+      </c>
+      <c r="H125" t="s">
+        <v>72</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>2</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125" t="s">
+        <v>82</v>
+      </c>
+      <c r="P125" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q125">
+        <v>4</v>
+      </c>
+      <c r="R125">
+        <v>2</v>
+      </c>
+      <c r="S125">
+        <v>3.1</v>
+      </c>
+      <c r="T125">
+        <v>1.53</v>
+      </c>
+      <c r="U125">
+        <v>2.38</v>
+      </c>
+      <c r="V125">
+        <v>3.45</v>
+      </c>
+      <c r="W125">
+        <v>1.25</v>
+      </c>
+      <c r="X125">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y125">
+        <v>1.04</v>
+      </c>
+      <c r="Z125">
+        <v>3</v>
+      </c>
+      <c r="AA125">
+        <v>3.2</v>
+      </c>
+      <c r="AB125">
+        <v>2.25</v>
+      </c>
+      <c r="AC125">
+        <v>1.08</v>
+      </c>
+      <c r="AD125">
+        <v>7.5</v>
+      </c>
+      <c r="AE125">
+        <v>1.45</v>
+      </c>
+      <c r="AF125">
+        <v>2.7</v>
+      </c>
+      <c r="AG125">
+        <v>2.35</v>
+      </c>
+      <c r="AH125">
+        <v>1.57</v>
+      </c>
+      <c r="AI125">
+        <v>2</v>
+      </c>
+      <c r="AJ125">
+        <v>1.75</v>
+      </c>
+      <c r="AK125">
+        <v>1.6</v>
+      </c>
+      <c r="AL125">
+        <v>1.3</v>
+      </c>
+      <c r="AM125">
+        <v>1.35</v>
+      </c>
+      <c r="AN125">
+        <v>1.42</v>
+      </c>
+      <c r="AO125">
+        <v>1.25</v>
+      </c>
+      <c r="AP125">
+        <v>1.31</v>
+      </c>
+      <c r="AQ125">
+        <v>1.38</v>
+      </c>
+      <c r="AR125">
+        <v>1.36</v>
+      </c>
+      <c r="AS125">
+        <v>1.19</v>
+      </c>
+      <c r="AT125">
+        <v>2.55</v>
+      </c>
+      <c r="AU125">
+        <v>2</v>
+      </c>
+      <c r="AV125">
+        <v>5</v>
+      </c>
+      <c r="AW125">
+        <v>11</v>
+      </c>
+      <c r="AX125">
+        <v>8</v>
+      </c>
+      <c r="AY125">
+        <v>13</v>
+      </c>
+      <c r="AZ125">
+        <v>13</v>
+      </c>
+      <c r="BA125">
+        <v>4</v>
+      </c>
+      <c r="BB125">
+        <v>8</v>
+      </c>
+      <c r="BC125">
+        <v>12</v>
+      </c>
+      <c r="BD125">
+        <v>2</v>
+      </c>
+      <c r="BE125">
+        <v>6.9</v>
+      </c>
+      <c r="BF125">
+        <v>2.2</v>
+      </c>
+      <c r="BG125">
+        <v>1.37</v>
+      </c>
+      <c r="BH125">
+        <v>2.9</v>
+      </c>
+      <c r="BI125">
+        <v>1.64</v>
+      </c>
+      <c r="BJ125">
+        <v>2.17</v>
+      </c>
+      <c r="BK125">
+        <v>2.07</v>
+      </c>
+      <c r="BL125">
+        <v>1.71</v>
+      </c>
+      <c r="BM125">
+        <v>2.65</v>
+      </c>
+      <c r="BN125">
+        <v>1.44</v>
+      </c>
+      <c r="BO125">
+        <v>3.6</v>
+      </c>
+      <c r="BP125">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7287141</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45506.65625</v>
+      </c>
+      <c r="F126">
+        <v>26</v>
+      </c>
+      <c r="G126" t="s">
+        <v>73</v>
+      </c>
+      <c r="H126" t="s">
+        <v>74</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>2</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126" t="s">
+        <v>150</v>
+      </c>
+      <c r="P126" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q126">
+        <v>4.75</v>
+      </c>
+      <c r="R126">
+        <v>2.3</v>
+      </c>
+      <c r="S126">
+        <v>2.3</v>
+      </c>
+      <c r="T126">
+        <v>1.32</v>
+      </c>
+      <c r="U126">
+        <v>3.28</v>
+      </c>
+      <c r="V126">
+        <v>2.55</v>
+      </c>
+      <c r="W126">
+        <v>1.5</v>
+      </c>
+      <c r="X126">
+        <v>5.9</v>
+      </c>
+      <c r="Y126">
+        <v>1.11</v>
+      </c>
+      <c r="Z126">
+        <v>4</v>
+      </c>
+      <c r="AA126">
+        <v>3.9</v>
+      </c>
+      <c r="AB126">
+        <v>1.7</v>
+      </c>
+      <c r="AC126">
+        <v>1.03</v>
+      </c>
+      <c r="AD126">
+        <v>11</v>
+      </c>
+      <c r="AE126">
+        <v>1.19</v>
+      </c>
+      <c r="AF126">
+        <v>3.98</v>
+      </c>
+      <c r="AG126">
+        <v>1.8</v>
+      </c>
+      <c r="AH126">
+        <v>2</v>
+      </c>
+      <c r="AI126">
+        <v>1.75</v>
+      </c>
+      <c r="AJ126">
+        <v>2</v>
+      </c>
+      <c r="AK126">
+        <v>2.1</v>
+      </c>
+      <c r="AL126">
+        <v>1.18</v>
+      </c>
+      <c r="AM126">
+        <v>1.16</v>
+      </c>
+      <c r="AN126">
+        <v>1.67</v>
+      </c>
+      <c r="AO126">
+        <v>1.25</v>
+      </c>
+      <c r="AP126">
+        <v>1.54</v>
+      </c>
+      <c r="AQ126">
+        <v>1.38</v>
+      </c>
+      <c r="AR126">
+        <v>1.28</v>
+      </c>
+      <c r="AS126">
+        <v>1.43</v>
+      </c>
+      <c r="AT126">
+        <v>2.71</v>
+      </c>
+      <c r="AU126">
+        <v>4</v>
+      </c>
+      <c r="AV126">
+        <v>8</v>
+      </c>
+      <c r="AW126">
+        <v>6</v>
+      </c>
+      <c r="AX126">
+        <v>3</v>
+      </c>
+      <c r="AY126">
+        <v>10</v>
+      </c>
+      <c r="AZ126">
+        <v>11</v>
+      </c>
+      <c r="BA126">
+        <v>3</v>
+      </c>
+      <c r="BB126">
+        <v>11</v>
+      </c>
+      <c r="BC126">
+        <v>14</v>
+      </c>
+      <c r="BD126">
+        <v>2.81</v>
+      </c>
+      <c r="BE126">
+        <v>7.8</v>
+      </c>
+      <c r="BF126">
+        <v>1.65</v>
+      </c>
+      <c r="BG126">
+        <v>1.25</v>
+      </c>
+      <c r="BH126">
+        <v>3.7</v>
+      </c>
+      <c r="BI126">
+        <v>1.46</v>
+      </c>
+      <c r="BJ126">
+        <v>2.6</v>
+      </c>
+      <c r="BK126">
+        <v>2.1</v>
+      </c>
+      <c r="BL126">
+        <v>1.98</v>
+      </c>
+      <c r="BM126">
+        <v>2.23</v>
+      </c>
+      <c r="BN126">
+        <v>1.61</v>
+      </c>
+      <c r="BO126">
+        <v>2.85</v>
+      </c>
+      <c r="BP126">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="217">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -493,6 +493,9 @@
     <t>['9', '60']</t>
   </si>
   <si>
+    <t>['25', '65', '90+9']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -659,6 +662,9 @@
   </si>
   <si>
     <t>['9', '85']</t>
+  </si>
+  <si>
+    <t>['22', '53']</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP126"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1279,7 +1285,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1360,7 +1366,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ2">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1485,7 +1491,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1897,7 +1903,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2309,7 +2315,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2515,7 +2521,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2721,7 +2727,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3005,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ10">
         <v>1.25</v>
@@ -3339,7 +3345,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3545,7 +3551,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3751,7 +3757,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4163,7 +4169,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4244,7 +4250,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ16">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR16">
         <v>1.48</v>
@@ -4575,7 +4581,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4781,7 +4787,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -5065,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ20">
         <v>0.46</v>
@@ -5193,7 +5199,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -6017,7 +6023,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6095,7 +6101,7 @@
         <v>2.33</v>
       </c>
       <c r="AP25">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ25">
         <v>1.92</v>
@@ -6635,7 +6641,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -7665,7 +7671,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7746,7 +7752,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ33">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR33">
         <v>1.43</v>
@@ -7871,7 +7877,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8283,7 +8289,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8567,10 +8573,10 @@
         <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ37">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR37">
         <v>1.47</v>
@@ -8901,7 +8907,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9107,7 +9113,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9313,7 +9319,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9519,7 +9525,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9725,7 +9731,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9803,7 +9809,7 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ43">
         <v>1.38</v>
@@ -9931,7 +9937,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10137,7 +10143,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10836,7 +10842,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ48">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR48">
         <v>1.59</v>
@@ -11373,7 +11379,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11579,7 +11585,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11863,7 +11869,7 @@
         <v>1.4</v>
       </c>
       <c r="AP53">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ53">
         <v>1.31</v>
@@ -12815,7 +12821,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -12896,7 +12902,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ58">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR58">
         <v>1.29</v>
@@ -13433,7 +13439,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13639,7 +13645,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14335,7 +14341,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ65">
         <v>0.23</v>
@@ -14669,7 +14675,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14875,7 +14881,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15081,7 +15087,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15493,7 +15499,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -16111,7 +16117,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16398,7 +16404,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ75">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR75">
         <v>1.23</v>
@@ -16935,7 +16941,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17347,7 +17353,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17425,7 +17431,7 @@
         <v>1.14</v>
       </c>
       <c r="AP80">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ80">
         <v>1.25</v>
@@ -17553,7 +17559,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17759,7 +17765,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -18171,7 +18177,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18249,7 +18255,7 @@
         <v>1.63</v>
       </c>
       <c r="AP84">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ84">
         <v>1.92</v>
@@ -18583,7 +18589,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18789,7 +18795,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -18995,7 +19001,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -19076,7 +19082,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ88">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR88">
         <v>1.38</v>
@@ -19407,7 +19413,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19819,7 +19825,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q92">
         <v>3.2</v>
@@ -19897,7 +19903,7 @@
         <v>1.88</v>
       </c>
       <c r="AP92">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ92">
         <v>1.38</v>
@@ -20231,7 +20237,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q94">
         <v>5.5</v>
@@ -20437,7 +20443,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20518,7 +20524,7 @@
         <v>2</v>
       </c>
       <c r="AQ95">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR95">
         <v>1.31</v>
@@ -20643,7 +20649,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20849,7 +20855,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -20927,7 +20933,7 @@
         <v>0.22</v>
       </c>
       <c r="AP97">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ97">
         <v>0.46</v>
@@ -21467,7 +21473,7 @@
         <v>142</v>
       </c>
       <c r="P100" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21548,7 +21554,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ100">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR100">
         <v>1.23</v>
@@ -22166,7 +22172,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ103">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR103">
         <v>1.35</v>
@@ -22291,7 +22297,7 @@
         <v>145</v>
       </c>
       <c r="P104" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22369,7 +22375,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ104">
         <v>1.38</v>
@@ -22703,7 +22709,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q106">
         <v>4.5</v>
@@ -22909,7 +22915,7 @@
         <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23811,7 +23817,7 @@
         <v>1.33</v>
       </c>
       <c r="AP111">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ111">
         <v>1.25</v>
@@ -24145,7 +24151,7 @@
         <v>117</v>
       </c>
       <c r="P113" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -24763,7 +24769,7 @@
         <v>152</v>
       </c>
       <c r="P116" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25175,7 +25181,7 @@
         <v>82</v>
       </c>
       <c r="P118" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25256,7 +25262,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ118">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR118">
         <v>1.15</v>
@@ -25381,7 +25387,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25999,7 +26005,7 @@
         <v>156</v>
       </c>
       <c r="P122" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26411,7 +26417,7 @@
         <v>158</v>
       </c>
       <c r="P124" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q124">
         <v>3.75</v>
@@ -26617,7 +26623,7 @@
         <v>82</v>
       </c>
       <c r="P125" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26823,7 +26829,7 @@
         <v>150</v>
       </c>
       <c r="P126" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q126">
         <v>4.75</v>
@@ -26980,6 +26986,212 @@
       </c>
       <c r="BP126">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7287140</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45508.58333333334</v>
+      </c>
+      <c r="F127">
+        <v>26</v>
+      </c>
+      <c r="G127" t="s">
+        <v>78</v>
+      </c>
+      <c r="H127" t="s">
+        <v>79</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>3</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>5</v>
+      </c>
+      <c r="O127" t="s">
+        <v>159</v>
+      </c>
+      <c r="P127" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q127">
+        <v>2.5</v>
+      </c>
+      <c r="R127">
+        <v>2.25</v>
+      </c>
+      <c r="S127">
+        <v>4.33</v>
+      </c>
+      <c r="T127">
+        <v>1.36</v>
+      </c>
+      <c r="U127">
+        <v>3</v>
+      </c>
+      <c r="V127">
+        <v>2.63</v>
+      </c>
+      <c r="W127">
+        <v>1.44</v>
+      </c>
+      <c r="X127">
+        <v>7</v>
+      </c>
+      <c r="Y127">
+        <v>1.1</v>
+      </c>
+      <c r="Z127">
+        <v>1.83</v>
+      </c>
+      <c r="AA127">
+        <v>3.4</v>
+      </c>
+      <c r="AB127">
+        <v>3.7</v>
+      </c>
+      <c r="AC127">
+        <v>1.05</v>
+      </c>
+      <c r="AD127">
+        <v>9.5</v>
+      </c>
+      <c r="AE127">
+        <v>1.28</v>
+      </c>
+      <c r="AF127">
+        <v>3.6</v>
+      </c>
+      <c r="AG127">
+        <v>1.8</v>
+      </c>
+      <c r="AH127">
+        <v>2</v>
+      </c>
+      <c r="AI127">
+        <v>1.7</v>
+      </c>
+      <c r="AJ127">
+        <v>2.05</v>
+      </c>
+      <c r="AK127">
+        <v>1.18</v>
+      </c>
+      <c r="AL127">
+        <v>1.22</v>
+      </c>
+      <c r="AM127">
+        <v>2.05</v>
+      </c>
+      <c r="AN127">
+        <v>1.54</v>
+      </c>
+      <c r="AO127">
+        <v>1.25</v>
+      </c>
+      <c r="AP127">
+        <v>1.64</v>
+      </c>
+      <c r="AQ127">
+        <v>1.15</v>
+      </c>
+      <c r="AR127">
+        <v>1.41</v>
+      </c>
+      <c r="AS127">
+        <v>1.02</v>
+      </c>
+      <c r="AT127">
+        <v>2.43</v>
+      </c>
+      <c r="AU127">
+        <v>6</v>
+      </c>
+      <c r="AV127">
+        <v>4</v>
+      </c>
+      <c r="AW127">
+        <v>7</v>
+      </c>
+      <c r="AX127">
+        <v>6</v>
+      </c>
+      <c r="AY127">
+        <v>13</v>
+      </c>
+      <c r="AZ127">
+        <v>10</v>
+      </c>
+      <c r="BA127">
+        <v>4</v>
+      </c>
+      <c r="BB127">
+        <v>6</v>
+      </c>
+      <c r="BC127">
+        <v>10</v>
+      </c>
+      <c r="BD127">
+        <v>1.62</v>
+      </c>
+      <c r="BE127">
+        <v>7.7</v>
+      </c>
+      <c r="BF127">
+        <v>2.91</v>
+      </c>
+      <c r="BG127">
+        <v>1.27</v>
+      </c>
+      <c r="BH127">
+        <v>3.5</v>
+      </c>
+      <c r="BI127">
+        <v>1.49</v>
+      </c>
+      <c r="BJ127">
+        <v>2.5</v>
+      </c>
+      <c r="BK127">
+        <v>2</v>
+      </c>
+      <c r="BL127">
+        <v>1.8</v>
+      </c>
+      <c r="BM127">
+        <v>2.3</v>
+      </c>
+      <c r="BN127">
+        <v>1.58</v>
+      </c>
+      <c r="BO127">
+        <v>3</v>
+      </c>
+      <c r="BP127">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="217">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1026,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP127"/>
+  <dimension ref="A1:BP128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ9">
         <v>1.38</v>
@@ -3220,7 +3220,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ11">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4453,7 +4453,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ17">
         <v>1.38</v>
@@ -4868,7 +4868,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ19">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR19">
         <v>1.24</v>
@@ -6722,7 +6722,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ28">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -7543,7 +7543,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ32">
         <v>0.46</v>
@@ -8779,10 +8779,10 @@
         <v>0.67</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ38">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR38">
         <v>0.99</v>
@@ -10015,7 +10015,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ44">
         <v>1.25</v>
@@ -10224,7 +10224,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ45">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR45">
         <v>1.32</v>
@@ -12693,7 +12693,7 @@
         <v>1.67</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ57">
         <v>1.38</v>
@@ -13311,7 +13311,7 @@
         <v>0.83</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ60">
         <v>0.67</v>
@@ -13520,7 +13520,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ61">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR61">
         <v>1.27</v>
@@ -14138,7 +14138,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ64">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR64">
         <v>1.34</v>
@@ -16607,7 +16607,7 @@
         <v>0.29</v>
       </c>
       <c r="AP76">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ76">
         <v>0.23</v>
@@ -17225,7 +17225,7 @@
         <v>1.75</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ79">
         <v>1.31</v>
@@ -17434,7 +17434,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ80">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR80">
         <v>1.43</v>
@@ -18464,7 +18464,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ85">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR85">
         <v>1.91</v>
@@ -20112,7 +20112,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ93">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR93">
         <v>1.35</v>
@@ -20521,7 +20521,7 @@
         <v>1.13</v>
       </c>
       <c r="AP95">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ95">
         <v>1.15</v>
@@ -21345,7 +21345,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ99">
         <v>0.46</v>
@@ -22790,7 +22790,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ106">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR106">
         <v>1.19</v>
@@ -23405,7 +23405,7 @@
         <v>1.5</v>
       </c>
       <c r="AP109">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ109">
         <v>1.38</v>
@@ -24644,7 +24644,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ115">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR115">
         <v>1.33</v>
@@ -27192,6 +27192,212 @@
       </c>
       <c r="BP127">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7287139</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45509.65625</v>
+      </c>
+      <c r="F128">
+        <v>26</v>
+      </c>
+      <c r="G128" t="s">
+        <v>77</v>
+      </c>
+      <c r="H128" t="s">
+        <v>71</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128" t="s">
+        <v>82</v>
+      </c>
+      <c r="P128" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q128">
+        <v>4</v>
+      </c>
+      <c r="R128">
+        <v>1.91</v>
+      </c>
+      <c r="S128">
+        <v>3.25</v>
+      </c>
+      <c r="T128">
+        <v>1.53</v>
+      </c>
+      <c r="U128">
+        <v>2.38</v>
+      </c>
+      <c r="V128">
+        <v>3.75</v>
+      </c>
+      <c r="W128">
+        <v>1.25</v>
+      </c>
+      <c r="X128">
+        <v>11</v>
+      </c>
+      <c r="Y128">
+        <v>1.05</v>
+      </c>
+      <c r="Z128">
+        <v>3.1</v>
+      </c>
+      <c r="AA128">
+        <v>2.9</v>
+      </c>
+      <c r="AB128">
+        <v>2.35</v>
+      </c>
+      <c r="AC128">
+        <v>1.09</v>
+      </c>
+      <c r="AD128">
+        <v>7</v>
+      </c>
+      <c r="AE128">
+        <v>1.5</v>
+      </c>
+      <c r="AF128">
+        <v>2.55</v>
+      </c>
+      <c r="AG128">
+        <v>2.7</v>
+      </c>
+      <c r="AH128">
+        <v>1.44</v>
+      </c>
+      <c r="AI128">
+        <v>2.2</v>
+      </c>
+      <c r="AJ128">
+        <v>1.62</v>
+      </c>
+      <c r="AK128">
+        <v>1.5</v>
+      </c>
+      <c r="AL128">
+        <v>1.3</v>
+      </c>
+      <c r="AM128">
+        <v>1.38</v>
+      </c>
+      <c r="AN128">
+        <v>2</v>
+      </c>
+      <c r="AO128">
+        <v>1.25</v>
+      </c>
+      <c r="AP128">
+        <v>1.92</v>
+      </c>
+      <c r="AQ128">
+        <v>1.23</v>
+      </c>
+      <c r="AR128">
+        <v>1.33</v>
+      </c>
+      <c r="AS128">
+        <v>1.41</v>
+      </c>
+      <c r="AT128">
+        <v>2.74</v>
+      </c>
+      <c r="AU128">
+        <v>2</v>
+      </c>
+      <c r="AV128">
+        <v>4</v>
+      </c>
+      <c r="AW128">
+        <v>4</v>
+      </c>
+      <c r="AX128">
+        <v>2</v>
+      </c>
+      <c r="AY128">
+        <v>6</v>
+      </c>
+      <c r="AZ128">
+        <v>6</v>
+      </c>
+      <c r="BA128">
+        <v>6</v>
+      </c>
+      <c r="BB128">
+        <v>3</v>
+      </c>
+      <c r="BC128">
+        <v>9</v>
+      </c>
+      <c r="BD128">
+        <v>2.42</v>
+      </c>
+      <c r="BE128">
+        <v>7.1</v>
+      </c>
+      <c r="BF128">
+        <v>1.87</v>
+      </c>
+      <c r="BG128">
+        <v>1.38</v>
+      </c>
+      <c r="BH128">
+        <v>2.8</v>
+      </c>
+      <c r="BI128">
+        <v>1.74</v>
+      </c>
+      <c r="BJ128">
+        <v>2.08</v>
+      </c>
+      <c r="BK128">
+        <v>2.18</v>
+      </c>
+      <c r="BL128">
+        <v>1.67</v>
+      </c>
+      <c r="BM128">
+        <v>2.88</v>
+      </c>
+      <c r="BN128">
+        <v>1.34</v>
+      </c>
+      <c r="BO128">
+        <v>3.6</v>
+      </c>
+      <c r="BP128">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="220">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -427,10 +427,10 @@
     <t>['9', '71']</t>
   </si>
   <si>
-    <t>['35', '88']</t>
+    <t>['58']</t>
   </si>
   <si>
-    <t>['58']</t>
+    <t>['35', '88']</t>
   </si>
   <si>
     <t>['19', '43']</t>
@@ -442,13 +442,10 @@
     <t>['11', '21', '30']</t>
   </si>
   <si>
-    <t>['25', '60', '67', '87']</t>
-  </si>
-  <si>
     <t>['65', '86']</t>
   </si>
   <si>
-    <t>['54']</t>
+    <t>['25', '60', '67', '87']</t>
   </si>
   <si>
     <t>['76', '90+6']</t>
@@ -457,22 +454,25 @@
     <t>['7', '61', '90+3']</t>
   </si>
   <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['6', '30', '57', '67', '88']</t>
+  </si>
+  <si>
     <t>['11', '36']</t>
   </si>
   <si>
     <t>['74', '84']</t>
   </si>
   <si>
-    <t>['6', '30', '57', '67', '88']</t>
-  </si>
-  <si>
-    <t>['52']</t>
-  </si>
-  <si>
     <t>['61', '89']</t>
   </si>
   <si>
     <t>['50']</t>
+  </si>
+  <si>
+    <t>['52']</t>
   </si>
   <si>
     <t>['29']</t>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>['25', '65', '90+9']</t>
+  </si>
+  <si>
+    <t>['6', '37']</t>
   </si>
   <si>
     <t>['23', '45+2']</t>
@@ -622,13 +625,13 @@
     <t>['19', '58']</t>
   </si>
   <si>
-    <t>['69']</t>
+    <t>['22', '69']</t>
   </si>
   <si>
     <t>['47', '52']</t>
   </si>
   <si>
-    <t>['22', '69']</t>
+    <t>['69']</t>
   </si>
   <si>
     <t>['2', '4', '22']</t>
@@ -665,6 +668,12 @@
   </si>
   <si>
     <t>['22', '53']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['46', '62', '81']</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP128"/>
+  <dimension ref="A1:BP130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1285,7 +1294,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1363,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>1.15</v>
@@ -1491,7 +1500,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1569,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ3">
         <v>0.23</v>
@@ -1903,7 +1912,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2190,7 +2199,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ6">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2315,7 +2324,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2396,7 +2405,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ7">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2521,7 +2530,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2727,7 +2736,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3345,7 +3354,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3551,7 +3560,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3632,7 +3641,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ13">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR13">
         <v>0.97</v>
@@ -3757,7 +3766,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3835,7 +3844,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ14">
         <v>0.67</v>
@@ -4169,7 +4178,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4581,7 +4590,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4787,7 +4796,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -5074,7 +5083,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ20">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
         <v>1.54</v>
@@ -5199,7 +5208,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5277,7 +5286,7 @@
         <v>2</v>
       </c>
       <c r="AP21">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>1.92</v>
@@ -5483,10 +5492,10 @@
         <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ22">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR22">
         <v>1.39</v>
@@ -6023,7 +6032,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6516,7 +6525,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ27">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR27">
         <v>1.35</v>
@@ -6641,7 +6650,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6719,7 +6728,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <v>1.23</v>
@@ -6847,7 +6856,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -7131,7 +7140,7 @@
         <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ30">
         <v>1.38</v>
@@ -7546,7 +7555,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ32">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR32">
         <v>1</v>
@@ -7671,7 +7680,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7877,7 +7886,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8289,7 +8298,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8907,7 +8916,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9113,7 +9122,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9191,10 +9200,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR40">
         <v>1.04</v>
@@ -9319,7 +9328,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9397,10 +9406,10 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ41">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR41">
         <v>1.34</v>
@@ -9525,7 +9534,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9731,7 +9740,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9937,7 +9946,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10143,7 +10152,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -11045,10 +11054,10 @@
         <v>0.25</v>
       </c>
       <c r="AP49">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR49">
         <v>1.12</v>
@@ -11251,7 +11260,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ50">
         <v>0.23</v>
@@ -11379,7 +11388,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11457,7 +11466,7 @@
         <v>1.4</v>
       </c>
       <c r="AP51">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ51">
         <v>1.38</v>
@@ -11585,7 +11594,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11666,7 +11675,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ52">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR52">
         <v>1.24</v>
@@ -11872,7 +11881,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ53">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR53">
         <v>1.43</v>
@@ -12409,7 +12418,7 @@
         <v>113</v>
       </c>
       <c r="P56" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12487,7 +12496,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ56">
         <v>0.67</v>
@@ -12821,7 +12830,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13439,7 +13448,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13645,7 +13654,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14675,7 +14684,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14753,7 +14762,7 @@
         <v>1.57</v>
       </c>
       <c r="AP67">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
         <v>1.38</v>
@@ -14881,7 +14890,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -14962,7 +14971,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ68">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR68">
         <v>1.34</v>
@@ -15087,7 +15096,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15168,7 +15177,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ69">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR69">
         <v>1.37</v>
@@ -15371,7 +15380,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
         <v>1.38</v>
@@ -15499,7 +15508,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -15580,7 +15589,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ71">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR71">
         <v>1.85</v>
@@ -15989,7 +15998,7 @@
         <v>1.71</v>
       </c>
       <c r="AP73">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ73">
         <v>1.92</v>
@@ -16117,7 +16126,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16813,7 +16822,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ77">
         <v>1.25</v>
@@ -16941,7 +16950,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17022,7 +17031,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ78">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR78">
         <v>1.19</v>
@@ -17228,7 +17237,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ79">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR79">
         <v>1.2</v>
@@ -17353,7 +17362,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17559,7 +17568,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17765,7 +17774,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -18177,7 +18186,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18589,7 +18598,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18795,7 +18804,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -18873,7 +18882,7 @@
         <v>0.67</v>
       </c>
       <c r="AP87">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ87">
         <v>0.67</v>
@@ -19001,7 +19010,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -19079,7 +19088,7 @@
         <v>1.14</v>
       </c>
       <c r="AP88">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ88">
         <v>1.15</v>
@@ -19288,7 +19297,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ89">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR89">
         <v>1.27</v>
@@ -19413,7 +19422,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19783,7 +19792,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>7287100</v>
+        <v>7287099</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -19798,25 +19807,25 @@
         <v>18</v>
       </c>
       <c r="G92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H92" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92">
         <v>1</v>
       </c>
       <c r="L92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N92">
         <v>3</v>
@@ -19825,163 +19834,163 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q92">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S92">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="T92">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="U92">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="V92">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="W92">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="X92">
-        <v>8.9</v>
+        <v>7.8</v>
       </c>
       <c r="Y92">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z92">
-        <v>2.35</v>
+        <v>1.59</v>
       </c>
       <c r="AA92">
-        <v>3.26</v>
+        <v>3.8</v>
       </c>
       <c r="AB92">
-        <v>3.1</v>
+        <v>6.15</v>
       </c>
       <c r="AC92">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AD92">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="AE92">
+        <v>1.45</v>
+      </c>
+      <c r="AF92">
+        <v>2.7</v>
+      </c>
+      <c r="AG92">
+        <v>2.3</v>
+      </c>
+      <c r="AH92">
+        <v>1.57</v>
+      </c>
+      <c r="AI92">
+        <v>2.2</v>
+      </c>
+      <c r="AJ92">
+        <v>1.62</v>
+      </c>
+      <c r="AK92">
+        <v>1.14</v>
+      </c>
+      <c r="AL92">
+        <v>1.24</v>
+      </c>
+      <c r="AM92">
+        <v>2.1</v>
+      </c>
+      <c r="AN92">
+        <v>2</v>
+      </c>
+      <c r="AO92">
+        <v>1.13</v>
+      </c>
+      <c r="AP92">
+        <v>1.92</v>
+      </c>
+      <c r="AQ92">
+        <v>1.15</v>
+      </c>
+      <c r="AR92">
+        <v>1.31</v>
+      </c>
+      <c r="AS92">
+        <v>1.08</v>
+      </c>
+      <c r="AT92">
+        <v>2.39</v>
+      </c>
+      <c r="AU92">
+        <v>9</v>
+      </c>
+      <c r="AV92">
+        <v>4</v>
+      </c>
+      <c r="AW92">
+        <v>8</v>
+      </c>
+      <c r="AX92">
+        <v>3</v>
+      </c>
+      <c r="AY92">
+        <v>17</v>
+      </c>
+      <c r="AZ92">
+        <v>7</v>
+      </c>
+      <c r="BA92">
+        <v>7</v>
+      </c>
+      <c r="BB92">
+        <v>1</v>
+      </c>
+      <c r="BC92">
+        <v>8</v>
+      </c>
+      <c r="BD92">
+        <v>1.48</v>
+      </c>
+      <c r="BE92">
+        <v>7.5</v>
+      </c>
+      <c r="BF92">
+        <v>3.55</v>
+      </c>
+      <c r="BG92">
+        <v>1.31</v>
+      </c>
+      <c r="BH92">
+        <v>3.04</v>
+      </c>
+      <c r="BI92">
+        <v>1.59</v>
+      </c>
+      <c r="BJ92">
+        <v>2.21</v>
+      </c>
+      <c r="BK92">
+        <v>2.02</v>
+      </c>
+      <c r="BL92">
+        <v>1.74</v>
+      </c>
+      <c r="BM92">
+        <v>2.65</v>
+      </c>
+      <c r="BN92">
         <v>1.42</v>
       </c>
-      <c r="AF92">
-        <v>2.75</v>
-      </c>
-      <c r="AG92">
-        <v>2.15</v>
-      </c>
-      <c r="AH92">
-        <v>1.65</v>
-      </c>
-      <c r="AI92">
-        <v>1.95</v>
-      </c>
-      <c r="AJ92">
-        <v>1.8</v>
-      </c>
-      <c r="AK92">
-        <v>1.32</v>
-      </c>
-      <c r="AL92">
-        <v>1.32</v>
-      </c>
-      <c r="AM92">
-        <v>1.55</v>
-      </c>
-      <c r="AN92">
-        <v>1.44</v>
-      </c>
-      <c r="AO92">
-        <v>1.88</v>
-      </c>
-      <c r="AP92">
-        <v>1.64</v>
-      </c>
-      <c r="AQ92">
-        <v>1.38</v>
-      </c>
-      <c r="AR92">
-        <v>1.44</v>
-      </c>
-      <c r="AS92">
-        <v>1.2</v>
-      </c>
-      <c r="AT92">
-        <v>2.64</v>
-      </c>
-      <c r="AU92">
-        <v>3</v>
-      </c>
-      <c r="AV92">
-        <v>5</v>
-      </c>
-      <c r="AW92">
-        <v>2</v>
-      </c>
-      <c r="AX92">
-        <v>6</v>
-      </c>
-      <c r="AY92">
-        <v>5</v>
-      </c>
-      <c r="AZ92">
-        <v>11</v>
-      </c>
-      <c r="BA92">
-        <v>3</v>
-      </c>
-      <c r="BB92">
-        <v>6</v>
-      </c>
-      <c r="BC92">
-        <v>9</v>
-      </c>
-      <c r="BD92">
-        <v>1.69</v>
-      </c>
-      <c r="BE92">
-        <v>7.7</v>
-      </c>
-      <c r="BF92">
-        <v>2.71</v>
-      </c>
-      <c r="BG92">
-        <v>1.25</v>
-      </c>
-      <c r="BH92">
-        <v>3.42</v>
-      </c>
-      <c r="BI92">
-        <v>1.48</v>
-      </c>
-      <c r="BJ92">
-        <v>2.47</v>
-      </c>
-      <c r="BK92">
-        <v>2.38</v>
-      </c>
-      <c r="BL92">
-        <v>1.92</v>
-      </c>
-      <c r="BM92">
-        <v>2.36</v>
-      </c>
-      <c r="BN92">
-        <v>1.52</v>
-      </c>
       <c r="BO92">
-        <v>3.18</v>
+        <v>3.64</v>
       </c>
       <c r="BP92">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="93" spans="1:68">
@@ -19989,7 +19998,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>7287098</v>
+        <v>7287097</v>
       </c>
       <c r="C93" t="s">
         <v>68</v>
@@ -20004,10 +20013,10 @@
         <v>18</v>
       </c>
       <c r="G93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H93" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -20022,172 +20031,172 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O93" t="s">
         <v>82</v>
       </c>
       <c r="P93" t="s">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="Q93">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="R93">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="S93">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="T93">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="U93">
-        <v>2.45</v>
+        <v>3.05</v>
       </c>
       <c r="V93">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="W93">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="X93">
-        <v>8.9</v>
+        <v>5.95</v>
       </c>
       <c r="Y93">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="Z93">
-        <v>3.82</v>
+        <v>5.1</v>
       </c>
       <c r="AA93">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="AB93">
-        <v>2.02</v>
+        <v>1.61</v>
       </c>
       <c r="AC93">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD93">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="AE93">
-        <v>1.42</v>
+        <v>1.19</v>
       </c>
       <c r="AF93">
-        <v>2.75</v>
+        <v>3.92</v>
       </c>
       <c r="AG93">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="AH93">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="AI93">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AJ93">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AK93">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="AL93">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AM93">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AN93">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO93">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AP93">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="AQ93">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="AR93">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="AS93">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="AT93">
-        <v>2.7</v>
+        <v>2.87</v>
       </c>
       <c r="AU93">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV93">
         <v>4</v>
       </c>
       <c r="AW93">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX93">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AY93">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ93">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BA93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB93">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BC93">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BD93">
-        <v>3</v>
+        <v>4.46</v>
       </c>
       <c r="BE93">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="BF93">
-        <v>1.59</v>
+        <v>1.34</v>
       </c>
       <c r="BG93">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="BH93">
-        <v>2.91</v>
+        <v>3.74</v>
       </c>
       <c r="BI93">
-        <v>1.64</v>
+        <v>1.41</v>
       </c>
       <c r="BJ93">
-        <v>2.12</v>
+        <v>2.69</v>
       </c>
       <c r="BK93">
-        <v>2.09</v>
+        <v>2.2</v>
       </c>
       <c r="BL93">
-        <v>1.69</v>
+        <v>2.04</v>
       </c>
       <c r="BM93">
-        <v>2.76</v>
+        <v>2.17</v>
       </c>
       <c r="BN93">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="BO93">
-        <v>3.84</v>
+        <v>2.84</v>
       </c>
       <c r="BP93">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="94" spans="1:68">
@@ -20195,7 +20204,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>7287097</v>
+        <v>7287098</v>
       </c>
       <c r="C94" t="s">
         <v>68</v>
@@ -20210,10 +20219,10 @@
         <v>18</v>
       </c>
       <c r="G94" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H94" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -20228,172 +20237,172 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O94" t="s">
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="Q94">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="R94">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="S94">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="T94">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="U94">
-        <v>3.05</v>
+        <v>2.45</v>
       </c>
       <c r="V94">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="W94">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="X94">
-        <v>5.95</v>
+        <v>8.9</v>
       </c>
       <c r="Y94">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="Z94">
-        <v>5.1</v>
+        <v>3.82</v>
       </c>
       <c r="AA94">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="AB94">
-        <v>1.61</v>
+        <v>2.02</v>
       </c>
       <c r="AC94">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD94">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="AE94">
-        <v>1.19</v>
+        <v>1.42</v>
       </c>
       <c r="AF94">
-        <v>3.92</v>
+        <v>2.75</v>
       </c>
       <c r="AG94">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="AH94">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="AI94">
+        <v>2</v>
+      </c>
+      <c r="AJ94">
         <v>1.75</v>
       </c>
-      <c r="AJ94">
-        <v>2</v>
-      </c>
       <c r="AK94">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="AL94">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AM94">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AN94">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO94">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="AP94">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="AQ94">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="AR94">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="AS94">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="AT94">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
       <c r="AU94">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV94">
         <v>4</v>
       </c>
       <c r="AW94">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AX94">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AY94">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ94">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB94">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BC94">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BD94">
-        <v>4.46</v>
+        <v>3</v>
       </c>
       <c r="BE94">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="BF94">
-        <v>1.34</v>
+        <v>1.59</v>
       </c>
       <c r="BG94">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="BH94">
-        <v>3.74</v>
+        <v>2.91</v>
       </c>
       <c r="BI94">
-        <v>1.41</v>
+        <v>1.64</v>
       </c>
       <c r="BJ94">
-        <v>2.69</v>
+        <v>2.12</v>
       </c>
       <c r="BK94">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="BL94">
-        <v>2.04</v>
+        <v>1.69</v>
       </c>
       <c r="BM94">
-        <v>2.17</v>
+        <v>2.76</v>
       </c>
       <c r="BN94">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="BO94">
-        <v>2.84</v>
+        <v>3.84</v>
       </c>
       <c r="BP94">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="95" spans="1:68">
@@ -20401,7 +20410,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>7287099</v>
+        <v>7287100</v>
       </c>
       <c r="C95" t="s">
         <v>68</v>
@@ -20416,25 +20425,25 @@
         <v>18</v>
       </c>
       <c r="G95" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H95" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95">
         <v>1</v>
       </c>
       <c r="L95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N95">
         <v>3</v>
@@ -20443,163 +20452,163 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q95">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="R95">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S95">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="T95">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="U95">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="V95">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="W95">
+        <v>1.3</v>
+      </c>
+      <c r="X95">
+        <v>8.9</v>
+      </c>
+      <c r="Y95">
+        <v>1.04</v>
+      </c>
+      <c r="Z95">
+        <v>2.35</v>
+      </c>
+      <c r="AA95">
+        <v>3.26</v>
+      </c>
+      <c r="AB95">
+        <v>3.1</v>
+      </c>
+      <c r="AC95">
+        <v>1.04</v>
+      </c>
+      <c r="AD95">
+        <v>7.3</v>
+      </c>
+      <c r="AE95">
+        <v>1.42</v>
+      </c>
+      <c r="AF95">
+        <v>2.75</v>
+      </c>
+      <c r="AG95">
+        <v>2.15</v>
+      </c>
+      <c r="AH95">
+        <v>1.65</v>
+      </c>
+      <c r="AI95">
+        <v>1.95</v>
+      </c>
+      <c r="AJ95">
+        <v>1.8</v>
+      </c>
+      <c r="AK95">
+        <v>1.32</v>
+      </c>
+      <c r="AL95">
+        <v>1.32</v>
+      </c>
+      <c r="AM95">
+        <v>1.55</v>
+      </c>
+      <c r="AN95">
+        <v>1.44</v>
+      </c>
+      <c r="AO95">
+        <v>1.88</v>
+      </c>
+      <c r="AP95">
+        <v>1.64</v>
+      </c>
+      <c r="AQ95">
+        <v>1.38</v>
+      </c>
+      <c r="AR95">
+        <v>1.44</v>
+      </c>
+      <c r="AS95">
+        <v>1.2</v>
+      </c>
+      <c r="AT95">
+        <v>2.64</v>
+      </c>
+      <c r="AU95">
+        <v>3</v>
+      </c>
+      <c r="AV95">
+        <v>5</v>
+      </c>
+      <c r="AW95">
+        <v>2</v>
+      </c>
+      <c r="AX95">
+        <v>6</v>
+      </c>
+      <c r="AY95">
+        <v>5</v>
+      </c>
+      <c r="AZ95">
+        <v>11</v>
+      </c>
+      <c r="BA95">
+        <v>3</v>
+      </c>
+      <c r="BB95">
+        <v>6</v>
+      </c>
+      <c r="BC95">
+        <v>9</v>
+      </c>
+      <c r="BD95">
+        <v>1.69</v>
+      </c>
+      <c r="BE95">
+        <v>7.7</v>
+      </c>
+      <c r="BF95">
+        <v>2.71</v>
+      </c>
+      <c r="BG95">
         <v>1.25</v>
       </c>
-      <c r="X95">
-        <v>7.8</v>
-      </c>
-      <c r="Y95">
-        <v>1.05</v>
-      </c>
-      <c r="Z95">
-        <v>1.59</v>
-      </c>
-      <c r="AA95">
-        <v>3.8</v>
-      </c>
-      <c r="AB95">
-        <v>6.15</v>
-      </c>
-      <c r="AC95">
-        <v>1.07</v>
-      </c>
-      <c r="AD95">
-        <v>8</v>
-      </c>
-      <c r="AE95">
-        <v>1.45</v>
-      </c>
-      <c r="AF95">
-        <v>2.7</v>
-      </c>
-      <c r="AG95">
-        <v>2.3</v>
-      </c>
-      <c r="AH95">
-        <v>1.57</v>
-      </c>
-      <c r="AI95">
-        <v>2.2</v>
-      </c>
-      <c r="AJ95">
-        <v>1.62</v>
-      </c>
-      <c r="AK95">
-        <v>1.14</v>
-      </c>
-      <c r="AL95">
-        <v>1.24</v>
-      </c>
-      <c r="AM95">
-        <v>2.1</v>
-      </c>
-      <c r="AN95">
-        <v>2</v>
-      </c>
-      <c r="AO95">
-        <v>1.13</v>
-      </c>
-      <c r="AP95">
+      <c r="BH95">
+        <v>3.42</v>
+      </c>
+      <c r="BI95">
+        <v>1.48</v>
+      </c>
+      <c r="BJ95">
+        <v>2.47</v>
+      </c>
+      <c r="BK95">
+        <v>2.38</v>
+      </c>
+      <c r="BL95">
         <v>1.92</v>
       </c>
-      <c r="AQ95">
-        <v>1.15</v>
-      </c>
-      <c r="AR95">
-        <v>1.31</v>
-      </c>
-      <c r="AS95">
-        <v>1.08</v>
-      </c>
-      <c r="AT95">
-        <v>2.39</v>
-      </c>
-      <c r="AU95">
-        <v>9</v>
-      </c>
-      <c r="AV95">
-        <v>4</v>
-      </c>
-      <c r="AW95">
-        <v>8</v>
-      </c>
-      <c r="AX95">
-        <v>3</v>
-      </c>
-      <c r="AY95">
-        <v>17</v>
-      </c>
-      <c r="AZ95">
-        <v>7</v>
-      </c>
-      <c r="BA95">
-        <v>7</v>
-      </c>
-      <c r="BB95">
-        <v>1</v>
-      </c>
-      <c r="BC95">
-        <v>8</v>
-      </c>
-      <c r="BD95">
-        <v>1.48</v>
-      </c>
-      <c r="BE95">
-        <v>7.5</v>
-      </c>
-      <c r="BF95">
-        <v>3.55</v>
-      </c>
-      <c r="BG95">
-        <v>1.31</v>
-      </c>
-      <c r="BH95">
-        <v>3.04</v>
-      </c>
-      <c r="BI95">
-        <v>1.59</v>
-      </c>
-      <c r="BJ95">
-        <v>2.21</v>
-      </c>
-      <c r="BK95">
-        <v>2.02</v>
-      </c>
-      <c r="BL95">
-        <v>1.74</v>
-      </c>
       <c r="BM95">
-        <v>2.65</v>
+        <v>2.36</v>
       </c>
       <c r="BN95">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="BO95">
-        <v>3.64</v>
+        <v>3.18</v>
       </c>
       <c r="BP95">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="96" spans="1:68">
@@ -20649,7 +20658,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20855,7 +20864,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -20936,7 +20945,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ97">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR97">
         <v>1.38</v>
@@ -21139,10 +21148,10 @@
         <v>1.56</v>
       </c>
       <c r="AP98">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ98">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR98">
         <v>1.5</v>
@@ -21225,7 +21234,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7287109</v>
+        <v>7287107</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21240,10 +21249,10 @@
         <v>20</v>
       </c>
       <c r="G99" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H99" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -21255,25 +21264,25 @@
         <v>0</v>
       </c>
       <c r="L99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M99">
         <v>0</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O99" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="P99" t="s">
         <v>82</v>
       </c>
       <c r="Q99">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="R99">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S99">
         <v>5.5</v>
@@ -21282,28 +21291,28 @@
         <v>1.53</v>
       </c>
       <c r="U99">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="V99">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="W99">
         <v>1.25</v>
       </c>
       <c r="X99">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y99">
         <v>1.04</v>
       </c>
       <c r="Z99">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AA99">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AB99">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="AC99">
         <v>1.09</v>
@@ -21315,13 +21324,13 @@
         <v>1.48</v>
       </c>
       <c r="AF99">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="AG99">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="AH99">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AI99">
         <v>2.2</v>
@@ -21330,100 +21339,100 @@
         <v>1.62</v>
       </c>
       <c r="AK99">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AL99">
         <v>1.25</v>
       </c>
       <c r="AM99">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AN99">
-        <v>1.8</v>
+        <v>2.09</v>
       </c>
       <c r="AO99">
-        <v>0.5</v>
+        <v>1.67</v>
       </c>
       <c r="AP99">
-        <v>1.92</v>
+        <v>2.14</v>
       </c>
       <c r="AQ99">
-        <v>0.46</v>
+        <v>1.38</v>
       </c>
       <c r="AR99">
+        <v>1.5</v>
+      </c>
+      <c r="AS99">
+        <v>1.23</v>
+      </c>
+      <c r="AT99">
+        <v>2.73</v>
+      </c>
+      <c r="AU99">
+        <v>9</v>
+      </c>
+      <c r="AV99">
+        <v>0</v>
+      </c>
+      <c r="AW99">
+        <v>5</v>
+      </c>
+      <c r="AX99">
+        <v>4</v>
+      </c>
+      <c r="AY99">
+        <v>14</v>
+      </c>
+      <c r="AZ99">
+        <v>4</v>
+      </c>
+      <c r="BA99">
+        <v>5</v>
+      </c>
+      <c r="BB99">
+        <v>1</v>
+      </c>
+      <c r="BC99">
+        <v>6</v>
+      </c>
+      <c r="BD99">
+        <v>1.37</v>
+      </c>
+      <c r="BE99">
+        <v>8</v>
+      </c>
+      <c r="BF99">
+        <v>4.26</v>
+      </c>
+      <c r="BG99">
+        <v>1.25</v>
+      </c>
+      <c r="BH99">
+        <v>3.7</v>
+      </c>
+      <c r="BI99">
+        <v>1.46</v>
+      </c>
+      <c r="BJ99">
+        <v>2.6</v>
+      </c>
+      <c r="BK99">
+        <v>2.2</v>
+      </c>
+      <c r="BL99">
+        <v>2</v>
+      </c>
+      <c r="BM99">
+        <v>2.2</v>
+      </c>
+      <c r="BN99">
+        <v>1.62</v>
+      </c>
+      <c r="BO99">
+        <v>2.85</v>
+      </c>
+      <c r="BP99">
         <v>1.39</v>
-      </c>
-      <c r="AS99">
-        <v>0.98</v>
-      </c>
-      <c r="AT99">
-        <v>2.37</v>
-      </c>
-      <c r="AU99">
-        <v>2</v>
-      </c>
-      <c r="AV99">
-        <v>0</v>
-      </c>
-      <c r="AW99">
-        <v>7</v>
-      </c>
-      <c r="AX99">
-        <v>6</v>
-      </c>
-      <c r="AY99">
-        <v>9</v>
-      </c>
-      <c r="AZ99">
-        <v>6</v>
-      </c>
-      <c r="BA99">
-        <v>3</v>
-      </c>
-      <c r="BB99">
-        <v>1</v>
-      </c>
-      <c r="BC99">
-        <v>4</v>
-      </c>
-      <c r="BD99">
-        <v>1.57</v>
-      </c>
-      <c r="BE99">
-        <v>7.6</v>
-      </c>
-      <c r="BF99">
-        <v>3.1</v>
-      </c>
-      <c r="BG99">
-        <v>1.42</v>
-      </c>
-      <c r="BH99">
-        <v>2.75</v>
-      </c>
-      <c r="BI99">
-        <v>1.72</v>
-      </c>
-      <c r="BJ99">
-        <v>2.05</v>
-      </c>
-      <c r="BK99">
-        <v>2.05</v>
-      </c>
-      <c r="BL99">
-        <v>1.7</v>
-      </c>
-      <c r="BM99">
-        <v>2.85</v>
-      </c>
-      <c r="BN99">
-        <v>1.4</v>
-      </c>
-      <c r="BO99">
-        <v>3.9</v>
-      </c>
-      <c r="BP99">
-        <v>1.23</v>
       </c>
     </row>
     <row r="100" spans="1:68">
@@ -21431,7 +21440,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7287110</v>
+        <v>7287108</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -21446,160 +21455,160 @@
         <v>20</v>
       </c>
       <c r="G100" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H100" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100" t="s">
+        <v>82</v>
+      </c>
+      <c r="P100" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q100">
+        <v>3.6</v>
+      </c>
+      <c r="R100">
+        <v>2.2</v>
+      </c>
+      <c r="S100">
+        <v>3</v>
+      </c>
+      <c r="T100">
+        <v>1.38</v>
+      </c>
+      <c r="U100">
+        <v>2.91</v>
+      </c>
+      <c r="V100">
+        <v>2.75</v>
+      </c>
+      <c r="W100">
+        <v>1.42</v>
+      </c>
+      <c r="X100">
+        <v>6.85</v>
+      </c>
+      <c r="Y100">
+        <v>1.08</v>
+      </c>
+      <c r="Z100">
+        <v>3.2</v>
+      </c>
+      <c r="AA100">
+        <v>3.4</v>
+      </c>
+      <c r="AB100">
+        <v>2.15</v>
+      </c>
+      <c r="AC100">
+        <v>1.05</v>
+      </c>
+      <c r="AD100">
+        <v>9</v>
+      </c>
+      <c r="AE100">
+        <v>1.28</v>
+      </c>
+      <c r="AF100">
+        <v>3.55</v>
+      </c>
+      <c r="AG100">
+        <v>1.81</v>
+      </c>
+      <c r="AH100">
+        <v>1.89</v>
+      </c>
+      <c r="AI100">
+        <v>1.75</v>
+      </c>
+      <c r="AJ100">
+        <v>2</v>
+      </c>
+      <c r="AK100">
+        <v>1.67</v>
+      </c>
+      <c r="AL100">
+        <v>1.25</v>
+      </c>
+      <c r="AM100">
+        <v>1.3</v>
+      </c>
+      <c r="AN100">
+        <v>1.33</v>
+      </c>
+      <c r="AO100">
+        <v>0.7</v>
+      </c>
+      <c r="AP100">
+        <v>1.38</v>
+      </c>
+      <c r="AQ100">
+        <v>0.67</v>
+      </c>
+      <c r="AR100">
+        <v>1.39</v>
+      </c>
+      <c r="AS100">
+        <v>1.14</v>
+      </c>
+      <c r="AT100">
+        <v>2.53</v>
+      </c>
+      <c r="AU100">
+        <v>3</v>
+      </c>
+      <c r="AV100">
         <v>4</v>
       </c>
-      <c r="M100">
-        <v>1</v>
-      </c>
-      <c r="N100">
+      <c r="AW100">
+        <v>8</v>
+      </c>
+      <c r="AX100">
+        <v>8</v>
+      </c>
+      <c r="AY100">
+        <v>11</v>
+      </c>
+      <c r="AZ100">
+        <v>12</v>
+      </c>
+      <c r="BA100">
+        <v>2</v>
+      </c>
+      <c r="BB100">
         <v>5</v>
       </c>
-      <c r="O100" t="s">
-        <v>142</v>
-      </c>
-      <c r="P100" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q100">
-        <v>2.75</v>
-      </c>
-      <c r="R100">
-        <v>2.05</v>
-      </c>
-      <c r="S100">
-        <v>4.33</v>
-      </c>
-      <c r="T100">
-        <v>1.48</v>
-      </c>
-      <c r="U100">
-        <v>2.5</v>
-      </c>
-      <c r="V100">
-        <v>3.1</v>
-      </c>
-      <c r="W100">
-        <v>1.33</v>
-      </c>
-      <c r="X100">
-        <v>8.4</v>
-      </c>
-      <c r="Y100">
-        <v>1.05</v>
-      </c>
-      <c r="Z100">
-        <v>2</v>
-      </c>
-      <c r="AA100">
-        <v>3.25</v>
-      </c>
-      <c r="AB100">
-        <v>3.8</v>
-      </c>
-      <c r="AC100">
-        <v>1.08</v>
-      </c>
-      <c r="AD100">
-        <v>7.5</v>
-      </c>
-      <c r="AE100">
-        <v>1.4</v>
-      </c>
-      <c r="AF100">
-        <v>2.9</v>
-      </c>
-      <c r="AG100">
-        <v>2.14</v>
-      </c>
-      <c r="AH100">
-        <v>1.63</v>
-      </c>
-      <c r="AI100">
-        <v>1.95</v>
-      </c>
-      <c r="AJ100">
-        <v>1.8</v>
-      </c>
-      <c r="AK100">
-        <v>1.25</v>
-      </c>
-      <c r="AL100">
-        <v>1.28</v>
-      </c>
-      <c r="AM100">
-        <v>1.77</v>
-      </c>
-      <c r="AN100">
-        <v>1.56</v>
-      </c>
-      <c r="AO100">
-        <v>1.33</v>
-      </c>
-      <c r="AP100">
-        <v>1.54</v>
-      </c>
-      <c r="AQ100">
-        <v>1.15</v>
-      </c>
-      <c r="AR100">
-        <v>1.23</v>
-      </c>
-      <c r="AS100">
-        <v>1.05</v>
-      </c>
-      <c r="AT100">
-        <v>2.28</v>
-      </c>
-      <c r="AU100">
-        <v>12</v>
-      </c>
-      <c r="AV100">
-        <v>5</v>
-      </c>
-      <c r="AW100">
-        <v>9</v>
-      </c>
-      <c r="AX100">
-        <v>6</v>
-      </c>
-      <c r="AY100">
-        <v>21</v>
-      </c>
-      <c r="AZ100">
-        <v>11</v>
-      </c>
-      <c r="BA100">
-        <v>10</v>
-      </c>
-      <c r="BB100">
-        <v>4</v>
-      </c>
       <c r="BC100">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BD100">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="BE100">
-        <v>8.300000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="BF100">
-        <v>3</v>
+        <v>1.97</v>
       </c>
       <c r="BG100">
         <v>1.26</v>
@@ -21614,10 +21623,10 @@
         <v>2.6</v>
       </c>
       <c r="BK100">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="BL100">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BM100">
         <v>2.24</v>
@@ -21637,7 +21646,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>7287107</v>
+        <v>7287109</v>
       </c>
       <c r="C101" t="s">
         <v>68</v>
@@ -21652,10 +21661,10 @@
         <v>20</v>
       </c>
       <c r="G101" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H101" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -21667,25 +21676,25 @@
         <v>0</v>
       </c>
       <c r="L101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M101">
         <v>0</v>
       </c>
       <c r="N101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O101" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="P101" t="s">
         <v>82</v>
       </c>
       <c r="Q101">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S101">
         <v>5.5</v>
@@ -21694,28 +21703,28 @@
         <v>1.53</v>
       </c>
       <c r="U101">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="V101">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="W101">
         <v>1.25</v>
       </c>
       <c r="X101">
-        <v>9.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Y101">
         <v>1.04</v>
       </c>
       <c r="Z101">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AA101">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AB101">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AC101">
         <v>1.09</v>
@@ -21727,13 +21736,13 @@
         <v>1.48</v>
       </c>
       <c r="AF101">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="AG101">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="AH101">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AI101">
         <v>2.2</v>
@@ -21742,100 +21751,100 @@
         <v>1.62</v>
       </c>
       <c r="AK101">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AL101">
         <v>1.25</v>
       </c>
       <c r="AM101">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AN101">
-        <v>2.09</v>
+        <v>1.8</v>
       </c>
       <c r="AO101">
-        <v>1.67</v>
+        <v>0.5</v>
       </c>
       <c r="AP101">
-        <v>2.23</v>
+        <v>1.92</v>
       </c>
       <c r="AQ101">
-        <v>1.38</v>
+        <v>0.5</v>
       </c>
       <c r="AR101">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AS101">
+        <v>0.98</v>
+      </c>
+      <c r="AT101">
+        <v>2.37</v>
+      </c>
+      <c r="AU101">
+        <v>2</v>
+      </c>
+      <c r="AV101">
+        <v>0</v>
+      </c>
+      <c r="AW101">
+        <v>7</v>
+      </c>
+      <c r="AX101">
+        <v>6</v>
+      </c>
+      <c r="AY101">
+        <v>9</v>
+      </c>
+      <c r="AZ101">
+        <v>6</v>
+      </c>
+      <c r="BA101">
+        <v>3</v>
+      </c>
+      <c r="BB101">
+        <v>1</v>
+      </c>
+      <c r="BC101">
+        <v>4</v>
+      </c>
+      <c r="BD101">
+        <v>1.57</v>
+      </c>
+      <c r="BE101">
+        <v>7.6</v>
+      </c>
+      <c r="BF101">
+        <v>3.1</v>
+      </c>
+      <c r="BG101">
+        <v>1.42</v>
+      </c>
+      <c r="BH101">
+        <v>2.75</v>
+      </c>
+      <c r="BI101">
+        <v>1.72</v>
+      </c>
+      <c r="BJ101">
+        <v>2.05</v>
+      </c>
+      <c r="BK101">
+        <v>2.05</v>
+      </c>
+      <c r="BL101">
+        <v>1.7</v>
+      </c>
+      <c r="BM101">
+        <v>2.85</v>
+      </c>
+      <c r="BN101">
+        <v>1.4</v>
+      </c>
+      <c r="BO101">
+        <v>3.9</v>
+      </c>
+      <c r="BP101">
         <v>1.23</v>
-      </c>
-      <c r="AT101">
-        <v>2.73</v>
-      </c>
-      <c r="AU101">
-        <v>9</v>
-      </c>
-      <c r="AV101">
-        <v>0</v>
-      </c>
-      <c r="AW101">
-        <v>5</v>
-      </c>
-      <c r="AX101">
-        <v>4</v>
-      </c>
-      <c r="AY101">
-        <v>14</v>
-      </c>
-      <c r="AZ101">
-        <v>4</v>
-      </c>
-      <c r="BA101">
-        <v>5</v>
-      </c>
-      <c r="BB101">
-        <v>1</v>
-      </c>
-      <c r="BC101">
-        <v>6</v>
-      </c>
-      <c r="BD101">
-        <v>1.37</v>
-      </c>
-      <c r="BE101">
-        <v>8</v>
-      </c>
-      <c r="BF101">
-        <v>4.26</v>
-      </c>
-      <c r="BG101">
-        <v>1.25</v>
-      </c>
-      <c r="BH101">
-        <v>3.7</v>
-      </c>
-      <c r="BI101">
-        <v>1.46</v>
-      </c>
-      <c r="BJ101">
-        <v>2.6</v>
-      </c>
-      <c r="BK101">
-        <v>2.2</v>
-      </c>
-      <c r="BL101">
-        <v>2</v>
-      </c>
-      <c r="BM101">
-        <v>2.2</v>
-      </c>
-      <c r="BN101">
-        <v>1.62</v>
-      </c>
-      <c r="BO101">
-        <v>2.85</v>
-      </c>
-      <c r="BP101">
-        <v>1.39</v>
       </c>
     </row>
     <row r="102" spans="1:68">
@@ -21843,7 +21852,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>7287108</v>
+        <v>7287110</v>
       </c>
       <c r="C102" t="s">
         <v>68</v>
@@ -21858,160 +21867,160 @@
         <v>20</v>
       </c>
       <c r="G102" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H102" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N102">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O102" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="P102" t="s">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="Q102">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="R102">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S102">
+        <v>4.33</v>
+      </c>
+      <c r="T102">
+        <v>1.48</v>
+      </c>
+      <c r="U102">
+        <v>2.5</v>
+      </c>
+      <c r="V102">
+        <v>3.1</v>
+      </c>
+      <c r="W102">
+        <v>1.33</v>
+      </c>
+      <c r="X102">
+        <v>8.4</v>
+      </c>
+      <c r="Y102">
+        <v>1.05</v>
+      </c>
+      <c r="Z102">
+        <v>2</v>
+      </c>
+      <c r="AA102">
+        <v>3.25</v>
+      </c>
+      <c r="AB102">
+        <v>3.8</v>
+      </c>
+      <c r="AC102">
+        <v>1.08</v>
+      </c>
+      <c r="AD102">
+        <v>7.5</v>
+      </c>
+      <c r="AE102">
+        <v>1.4</v>
+      </c>
+      <c r="AF102">
+        <v>2.9</v>
+      </c>
+      <c r="AG102">
+        <v>2.14</v>
+      </c>
+      <c r="AH102">
+        <v>1.63</v>
+      </c>
+      <c r="AI102">
+        <v>1.95</v>
+      </c>
+      <c r="AJ102">
+        <v>1.8</v>
+      </c>
+      <c r="AK102">
+        <v>1.25</v>
+      </c>
+      <c r="AL102">
+        <v>1.28</v>
+      </c>
+      <c r="AM102">
+        <v>1.77</v>
+      </c>
+      <c r="AN102">
+        <v>1.56</v>
+      </c>
+      <c r="AO102">
+        <v>1.33</v>
+      </c>
+      <c r="AP102">
+        <v>1.54</v>
+      </c>
+      <c r="AQ102">
+        <v>1.15</v>
+      </c>
+      <c r="AR102">
+        <v>1.23</v>
+      </c>
+      <c r="AS102">
+        <v>1.05</v>
+      </c>
+      <c r="AT102">
+        <v>2.28</v>
+      </c>
+      <c r="AU102">
+        <v>12</v>
+      </c>
+      <c r="AV102">
+        <v>5</v>
+      </c>
+      <c r="AW102">
+        <v>9</v>
+      </c>
+      <c r="AX102">
+        <v>6</v>
+      </c>
+      <c r="AY102">
+        <v>21</v>
+      </c>
+      <c r="AZ102">
+        <v>11</v>
+      </c>
+      <c r="BA102">
+        <v>10</v>
+      </c>
+      <c r="BB102">
+        <v>4</v>
+      </c>
+      <c r="BC102">
+        <v>14</v>
+      </c>
+      <c r="BD102">
+        <v>1.57</v>
+      </c>
+      <c r="BE102">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF102">
         <v>3</v>
-      </c>
-      <c r="T102">
-        <v>1.38</v>
-      </c>
-      <c r="U102">
-        <v>2.91</v>
-      </c>
-      <c r="V102">
-        <v>2.75</v>
-      </c>
-      <c r="W102">
-        <v>1.42</v>
-      </c>
-      <c r="X102">
-        <v>6.85</v>
-      </c>
-      <c r="Y102">
-        <v>1.08</v>
-      </c>
-      <c r="Z102">
-        <v>3.2</v>
-      </c>
-      <c r="AA102">
-        <v>3.4</v>
-      </c>
-      <c r="AB102">
-        <v>2.15</v>
-      </c>
-      <c r="AC102">
-        <v>1.05</v>
-      </c>
-      <c r="AD102">
-        <v>9</v>
-      </c>
-      <c r="AE102">
-        <v>1.28</v>
-      </c>
-      <c r="AF102">
-        <v>3.55</v>
-      </c>
-      <c r="AG102">
-        <v>1.81</v>
-      </c>
-      <c r="AH102">
-        <v>1.89</v>
-      </c>
-      <c r="AI102">
-        <v>1.75</v>
-      </c>
-      <c r="AJ102">
-        <v>2</v>
-      </c>
-      <c r="AK102">
-        <v>1.67</v>
-      </c>
-      <c r="AL102">
-        <v>1.25</v>
-      </c>
-      <c r="AM102">
-        <v>1.3</v>
-      </c>
-      <c r="AN102">
-        <v>1.33</v>
-      </c>
-      <c r="AO102">
-        <v>0.7</v>
-      </c>
-      <c r="AP102">
-        <v>1.38</v>
-      </c>
-      <c r="AQ102">
-        <v>0.67</v>
-      </c>
-      <c r="AR102">
-        <v>1.39</v>
-      </c>
-      <c r="AS102">
-        <v>1.14</v>
-      </c>
-      <c r="AT102">
-        <v>2.53</v>
-      </c>
-      <c r="AU102">
-        <v>3</v>
-      </c>
-      <c r="AV102">
-        <v>4</v>
-      </c>
-      <c r="AW102">
-        <v>8</v>
-      </c>
-      <c r="AX102">
-        <v>8</v>
-      </c>
-      <c r="AY102">
-        <v>11</v>
-      </c>
-      <c r="AZ102">
-        <v>12</v>
-      </c>
-      <c r="BA102">
-        <v>2</v>
-      </c>
-      <c r="BB102">
-        <v>5</v>
-      </c>
-      <c r="BC102">
-        <v>7</v>
-      </c>
-      <c r="BD102">
-        <v>2.2</v>
-      </c>
-      <c r="BE102">
-        <v>7.3</v>
-      </c>
-      <c r="BF102">
-        <v>1.97</v>
       </c>
       <c r="BG102">
         <v>1.26</v>
@@ -22026,10 +22035,10 @@
         <v>2.6</v>
       </c>
       <c r="BK102">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="BL102">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BM102">
         <v>2.24</v>
@@ -22049,7 +22058,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>7287113</v>
+        <v>7287116</v>
       </c>
       <c r="C103" t="s">
         <v>68</v>
@@ -22064,10 +22073,10 @@
         <v>21</v>
       </c>
       <c r="G103" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -22079,73 +22088,73 @@
         <v>0</v>
       </c>
       <c r="L103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N103">
         <v>1</v>
       </c>
       <c r="O103" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="P103" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="Q103">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="R103">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S103">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="T103">
+        <v>1.5</v>
+      </c>
+      <c r="U103">
+        <v>2.4</v>
+      </c>
+      <c r="V103">
+        <v>3.3</v>
+      </c>
+      <c r="W103">
+        <v>1.29</v>
+      </c>
+      <c r="X103">
+        <v>8.5</v>
+      </c>
+      <c r="Y103">
+        <v>1.04</v>
+      </c>
+      <c r="Z103">
+        <v>3.15</v>
+      </c>
+      <c r="AA103">
+        <v>2.89</v>
+      </c>
+      <c r="AB103">
+        <v>2.16</v>
+      </c>
+      <c r="AC103">
+        <v>1.07</v>
+      </c>
+      <c r="AD103">
+        <v>7</v>
+      </c>
+      <c r="AE103">
         <v>1.42</v>
       </c>
-      <c r="U103">
+      <c r="AF103">
         <v>2.62</v>
       </c>
-      <c r="V103">
-        <v>3</v>
-      </c>
-      <c r="W103">
-        <v>1.33</v>
-      </c>
-      <c r="X103">
-        <v>7.5</v>
-      </c>
-      <c r="Y103">
-        <v>1.06</v>
-      </c>
-      <c r="Z103">
-        <v>1.93</v>
-      </c>
-      <c r="AA103">
-        <v>3.2</v>
-      </c>
-      <c r="AB103">
-        <v>3.45</v>
-      </c>
-      <c r="AC103">
-        <v>1.05</v>
-      </c>
-      <c r="AD103">
-        <v>8</v>
-      </c>
-      <c r="AE103">
-        <v>1.36</v>
-      </c>
-      <c r="AF103">
-        <v>2.9</v>
-      </c>
       <c r="AG103">
-        <v>2.1</v>
+        <v>2.37</v>
       </c>
       <c r="AH103">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AI103">
         <v>1.95</v>
@@ -22154,100 +22163,100 @@
         <v>1.8</v>
       </c>
       <c r="AK103">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="AL103">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AM103">
-        <v>1.88</v>
+        <v>1.35</v>
       </c>
       <c r="AN103">
-        <v>1.22</v>
+        <v>1.7</v>
       </c>
       <c r="AO103">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="AP103">
-        <v>1.31</v>
+        <v>1.54</v>
       </c>
       <c r="AQ103">
-        <v>1.15</v>
+        <v>1.92</v>
       </c>
       <c r="AR103">
         <v>1.35</v>
       </c>
       <c r="AS103">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="AT103">
-        <v>2.43</v>
+        <v>2.38</v>
       </c>
       <c r="AU103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV103">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW103">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY103">
         <v>7</v>
       </c>
       <c r="AZ103">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BA103">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BB103">
         <v>2</v>
       </c>
       <c r="BC103">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BD103">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="BE103">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="BF103">
+        <v>2.03</v>
+      </c>
+      <c r="BG103">
+        <v>1.28</v>
+      </c>
+      <c r="BH103">
         <v>3.2</v>
       </c>
-      <c r="BG103">
-        <v>1.33</v>
-      </c>
-      <c r="BH103">
-        <v>2.93</v>
-      </c>
       <c r="BI103">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="BJ103">
-        <v>2.05</v>
+        <v>2.32</v>
       </c>
       <c r="BK103">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="BL103">
-        <v>1.7</v>
+        <v>1.98</v>
       </c>
       <c r="BM103">
-        <v>2.76</v>
+        <v>2.52</v>
       </c>
       <c r="BN103">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="BO103">
-        <v>3.74</v>
+        <v>3.42</v>
       </c>
       <c r="BP103">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="104" spans="1:68">
@@ -22294,10 +22303,10 @@
         <v>3</v>
       </c>
       <c r="O104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22461,7 +22470,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>7287114</v>
+        <v>7287112</v>
       </c>
       <c r="C105" t="s">
         <v>68</v>
@@ -22476,190 +22485,190 @@
         <v>21</v>
       </c>
       <c r="G105" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H105" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N105">
         <v>3</v>
       </c>
       <c r="O105" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="Q105">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="R105">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S105">
-        <v>5.5</v>
+        <v>2.63</v>
       </c>
       <c r="T105">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="U105">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="V105">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="W105">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="X105">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y105">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z105">
-        <v>1.63</v>
+        <v>3.3</v>
       </c>
       <c r="AA105">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="AB105">
-        <v>4.45</v>
+        <v>1.96</v>
       </c>
       <c r="AC105">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD105">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE105">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AF105">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="AG105">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AH105">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AI105">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AJ105">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AK105">
-        <v>1.17</v>
+        <v>1.83</v>
       </c>
       <c r="AL105">
+        <v>1.33</v>
+      </c>
+      <c r="AM105">
         <v>1.25</v>
-      </c>
-      <c r="AM105">
-        <v>2.25</v>
       </c>
       <c r="AN105">
         <v>1.33</v>
       </c>
       <c r="AO105">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="AP105">
-        <v>1.58</v>
+        <v>1</v>
       </c>
       <c r="AQ105">
-        <v>0.23</v>
+        <v>1.23</v>
       </c>
       <c r="AR105">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="AS105">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="AT105">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU105">
+        <v>4</v>
+      </c>
+      <c r="AV105">
+        <v>6</v>
+      </c>
+      <c r="AW105">
+        <v>1</v>
+      </c>
+      <c r="AX105">
         <v>7</v>
       </c>
-      <c r="AV105">
-        <v>3</v>
-      </c>
-      <c r="AW105">
-        <v>3</v>
-      </c>
-      <c r="AX105">
-        <v>2</v>
-      </c>
       <c r="AY105">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AZ105">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BA105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB105">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BC105">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BD105">
-        <v>1.37</v>
+        <v>2.91</v>
       </c>
       <c r="BE105">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="BF105">
-        <v>4.26</v>
+        <v>1.62</v>
       </c>
       <c r="BG105">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="BH105">
-        <v>3.74</v>
+        <v>3.64</v>
       </c>
       <c r="BI105">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="BJ105">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="BK105">
-        <v>2.25</v>
+        <v>1.92</v>
       </c>
       <c r="BL105">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="BM105">
-        <v>2.19</v>
+        <v>2.27</v>
       </c>
       <c r="BN105">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="BO105">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="BP105">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="106" spans="1:68">
@@ -22667,7 +22676,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>7287112</v>
+        <v>7287114</v>
       </c>
       <c r="C106" t="s">
         <v>68</v>
@@ -22682,190 +22691,190 @@
         <v>21</v>
       </c>
       <c r="G106" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H106" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I106">
         <v>1</v>
       </c>
       <c r="J106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N106">
         <v>3</v>
       </c>
       <c r="O106" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="P106" t="s">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="Q106">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="R106">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S106">
-        <v>2.63</v>
+        <v>5.5</v>
       </c>
       <c r="T106">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="U106">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="V106">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="W106">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="X106">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y106">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z106">
-        <v>3.3</v>
+        <v>1.63</v>
       </c>
       <c r="AA106">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="AB106">
-        <v>1.96</v>
+        <v>4.45</v>
       </c>
       <c r="AC106">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD106">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE106">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AF106">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="AG106">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AH106">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AI106">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AJ106">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AK106">
-        <v>1.83</v>
+        <v>1.17</v>
       </c>
       <c r="AL106">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AM106">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="AN106">
         <v>1.33</v>
       </c>
       <c r="AO106">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="AP106">
-        <v>1.08</v>
+        <v>1.58</v>
       </c>
       <c r="AQ106">
-        <v>1.23</v>
+        <v>0.23</v>
       </c>
       <c r="AR106">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="AS106">
-        <v>1.36</v>
+        <v>1.16</v>
       </c>
       <c r="AT106">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AU106">
+        <v>7</v>
+      </c>
+      <c r="AV106">
+        <v>3</v>
+      </c>
+      <c r="AW106">
+        <v>3</v>
+      </c>
+      <c r="AX106">
+        <v>2</v>
+      </c>
+      <c r="AY106">
+        <v>10</v>
+      </c>
+      <c r="AZ106">
+        <v>5</v>
+      </c>
+      <c r="BA106">
+        <v>1</v>
+      </c>
+      <c r="BB106">
         <v>4</v>
       </c>
-      <c r="AV106">
-        <v>6</v>
-      </c>
-      <c r="AW106">
-        <v>1</v>
-      </c>
-      <c r="AX106">
-        <v>7</v>
-      </c>
-      <c r="AY106">
+      <c r="BC106">
         <v>5</v>
       </c>
-      <c r="AZ106">
-        <v>13</v>
-      </c>
-      <c r="BA106">
-        <v>4</v>
-      </c>
-      <c r="BB106">
-        <v>9</v>
-      </c>
-      <c r="BC106">
-        <v>13</v>
-      </c>
       <c r="BD106">
-        <v>2.91</v>
+        <v>1.37</v>
       </c>
       <c r="BE106">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="BF106">
-        <v>1.62</v>
+        <v>4.26</v>
       </c>
       <c r="BG106">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="BH106">
-        <v>3.64</v>
+        <v>3.74</v>
       </c>
       <c r="BI106">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="BJ106">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="BK106">
-        <v>1.92</v>
+        <v>2.25</v>
       </c>
       <c r="BL106">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="BM106">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="BN106">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="BO106">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="BP106">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="107" spans="1:68">
@@ -22873,7 +22882,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>7287116</v>
+        <v>7287113</v>
       </c>
       <c r="C107" t="s">
         <v>68</v>
@@ -22888,10 +22897,10 @@
         <v>21</v>
       </c>
       <c r="G107" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H107" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -22903,73 +22912,73 @@
         <v>0</v>
       </c>
       <c r="L107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N107">
         <v>1</v>
       </c>
       <c r="O107" t="s">
+        <v>146</v>
+      </c>
+      <c r="P107" t="s">
         <v>82</v>
       </c>
-      <c r="P107" t="s">
-        <v>188</v>
-      </c>
       <c r="Q107">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S107">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="T107">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="U107">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="V107">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="W107">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X107">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y107">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="Z107">
-        <v>3.15</v>
+        <v>1.93</v>
       </c>
       <c r="AA107">
-        <v>2.89</v>
+        <v>3.2</v>
       </c>
       <c r="AB107">
-        <v>2.16</v>
+        <v>3.45</v>
       </c>
       <c r="AC107">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AD107">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE107">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AF107">
-        <v>2.62</v>
+        <v>2.9</v>
       </c>
       <c r="AG107">
-        <v>2.37</v>
+        <v>2.1</v>
       </c>
       <c r="AH107">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AI107">
         <v>1.95</v>
@@ -22978,100 +22987,100 @@
         <v>1.8</v>
       </c>
       <c r="AK107">
-        <v>1.62</v>
+        <v>1.25</v>
       </c>
       <c r="AL107">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AM107">
-        <v>1.35</v>
+        <v>1.88</v>
       </c>
       <c r="AN107">
-        <v>1.7</v>
+        <v>1.22</v>
       </c>
       <c r="AO107">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="AP107">
-        <v>1.54</v>
+        <v>1.31</v>
       </c>
       <c r="AQ107">
-        <v>1.92</v>
+        <v>1.15</v>
       </c>
       <c r="AR107">
         <v>1.35</v>
       </c>
       <c r="AS107">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="AT107">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU107">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV107">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW107">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY107">
         <v>7</v>
       </c>
       <c r="AZ107">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BA107">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BB107">
         <v>2</v>
       </c>
       <c r="BC107">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BD107">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="BE107">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="BF107">
-        <v>2.03</v>
+        <v>3.2</v>
       </c>
       <c r="BG107">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="BH107">
-        <v>3.2</v>
+        <v>2.93</v>
       </c>
       <c r="BI107">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="BJ107">
-        <v>2.32</v>
+        <v>2.05</v>
       </c>
       <c r="BK107">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="BL107">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="BM107">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
       <c r="BN107">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="BO107">
-        <v>3.42</v>
+        <v>3.74</v>
       </c>
       <c r="BP107">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="108" spans="1:68">
@@ -23079,7 +23088,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>7287118</v>
+        <v>7287117</v>
       </c>
       <c r="C108" t="s">
         <v>68</v>
@@ -23094,190 +23103,190 @@
         <v>22</v>
       </c>
       <c r="G108" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H108" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L108">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N108">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O108" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="Q108">
-        <v>2.88</v>
+        <v>1.73</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="S108">
-        <v>4.33</v>
+        <v>8.5</v>
       </c>
       <c r="T108">
+        <v>1.33</v>
+      </c>
+      <c r="U108">
+        <v>3.05</v>
+      </c>
+      <c r="V108">
+        <v>2.5</v>
+      </c>
+      <c r="W108">
         <v>1.47</v>
       </c>
-      <c r="U108">
+      <c r="X108">
+        <v>5.95</v>
+      </c>
+      <c r="Y108">
+        <v>1.1</v>
+      </c>
+      <c r="Z108">
+        <v>1.23</v>
+      </c>
+      <c r="AA108">
+        <v>5.35</v>
+      </c>
+      <c r="AB108">
+        <v>10.7</v>
+      </c>
+      <c r="AC108">
+        <v>1.04</v>
+      </c>
+      <c r="AD108">
+        <v>10</v>
+      </c>
+      <c r="AE108">
+        <v>1.22</v>
+      </c>
+      <c r="AF108">
+        <v>4</v>
+      </c>
+      <c r="AG108">
+        <v>1.62</v>
+      </c>
+      <c r="AH108">
+        <v>2.07</v>
+      </c>
+      <c r="AI108">
+        <v>2.1</v>
+      </c>
+      <c r="AJ108">
+        <v>1.67</v>
+      </c>
+      <c r="AK108">
+        <v>1.01</v>
+      </c>
+      <c r="AL108">
+        <v>1.11</v>
+      </c>
+      <c r="AM108">
+        <v>3.4</v>
+      </c>
+      <c r="AN108">
+        <v>2.17</v>
+      </c>
+      <c r="AO108">
+        <v>0.27</v>
+      </c>
+      <c r="AP108">
+        <v>2.14</v>
+      </c>
+      <c r="AQ108">
+        <v>0.23</v>
+      </c>
+      <c r="AR108">
+        <v>1.53</v>
+      </c>
+      <c r="AS108">
+        <v>1.13</v>
+      </c>
+      <c r="AT108">
         <v>2.66</v>
       </c>
-      <c r="V108">
-        <v>3.25</v>
-      </c>
-      <c r="W108">
-        <v>1.34</v>
-      </c>
-      <c r="X108">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="Y108">
-        <v>1.04</v>
-      </c>
-      <c r="Z108">
-        <v>2.23</v>
-      </c>
-      <c r="AA108">
-        <v>3.15</v>
-      </c>
-      <c r="AB108">
-        <v>3.05</v>
-      </c>
-      <c r="AC108">
-        <v>1.01</v>
-      </c>
-      <c r="AD108">
-        <v>2.92</v>
-      </c>
-      <c r="AE108">
-        <v>1.38</v>
-      </c>
-      <c r="AF108">
-        <v>2.92</v>
-      </c>
-      <c r="AG108">
-        <v>2.07</v>
-      </c>
-      <c r="AH108">
-        <v>1.62</v>
-      </c>
-      <c r="AI108">
-        <v>1.95</v>
-      </c>
-      <c r="AJ108">
-        <v>1.8</v>
-      </c>
-      <c r="AK108">
-        <v>1.36</v>
-      </c>
-      <c r="AL108">
-        <v>1.4</v>
-      </c>
-      <c r="AM108">
-        <v>1.67</v>
-      </c>
-      <c r="AN108">
-        <v>1.4</v>
-      </c>
-      <c r="AO108">
-        <v>1.4</v>
-      </c>
-      <c r="AP108">
-        <v>1.31</v>
-      </c>
-      <c r="AQ108">
-        <v>1.31</v>
-      </c>
-      <c r="AR108">
-        <v>1.32</v>
-      </c>
-      <c r="AS108">
-        <v>1.09</v>
-      </c>
-      <c r="AT108">
-        <v>2.41</v>
-      </c>
       <c r="AU108">
+        <v>8</v>
+      </c>
+      <c r="AV108">
+        <v>3</v>
+      </c>
+      <c r="AW108">
         <v>7</v>
       </c>
-      <c r="AV108">
-        <v>5</v>
-      </c>
-      <c r="AW108">
-        <v>8</v>
-      </c>
       <c r="AX108">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY108">
         <v>15</v>
       </c>
       <c r="AZ108">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BA108">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB108">
         <v>3</v>
       </c>
       <c r="BC108">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD108">
-        <v>1.62</v>
+        <v>1.18</v>
       </c>
       <c r="BE108">
-        <v>7.7</v>
+        <v>13.5</v>
       </c>
       <c r="BF108">
-        <v>2.91</v>
+        <v>5.95</v>
       </c>
       <c r="BG108">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="BH108">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="BI108">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="BJ108">
-        <v>2.34</v>
+        <v>2.62</v>
       </c>
       <c r="BK108">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="BL108">
-        <v>1.84</v>
+        <v>2.07</v>
       </c>
       <c r="BM108">
-        <v>2.51</v>
+        <v>2.19</v>
       </c>
       <c r="BN108">
-        <v>1.51</v>
+        <v>1.65</v>
       </c>
       <c r="BO108">
-        <v>3.2</v>
+        <v>2.62</v>
       </c>
       <c r="BP108">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="109" spans="1:68">
@@ -23285,7 +23294,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>7287119</v>
+        <v>7287118</v>
       </c>
       <c r="C109" t="s">
         <v>68</v>
@@ -23300,190 +23309,190 @@
         <v>22</v>
       </c>
       <c r="G109" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H109" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K109">
         <v>2</v>
       </c>
       <c r="L109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N109">
         <v>2</v>
       </c>
       <c r="O109" t="s">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="P109" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="Q109">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R109">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S109">
         <v>4.33</v>
       </c>
       <c r="T109">
-        <v>1.59</v>
+        <v>1.47</v>
       </c>
       <c r="U109">
-        <v>2.24</v>
+        <v>2.66</v>
       </c>
       <c r="V109">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="W109">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="X109">
-        <v>10.5</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="Y109">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="Z109">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="AA109">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="AB109">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="AC109">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="AD109">
-        <v>6.5</v>
+        <v>2.92</v>
       </c>
       <c r="AE109">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AF109">
+        <v>2.92</v>
+      </c>
+      <c r="AG109">
+        <v>2.07</v>
+      </c>
+      <c r="AH109">
+        <v>1.62</v>
+      </c>
+      <c r="AI109">
+        <v>1.95</v>
+      </c>
+      <c r="AJ109">
+        <v>1.8</v>
+      </c>
+      <c r="AK109">
+        <v>1.36</v>
+      </c>
+      <c r="AL109">
+        <v>1.4</v>
+      </c>
+      <c r="AM109">
+        <v>1.67</v>
+      </c>
+      <c r="AN109">
+        <v>1.4</v>
+      </c>
+      <c r="AO109">
+        <v>1.4</v>
+      </c>
+      <c r="AP109">
+        <v>1.31</v>
+      </c>
+      <c r="AQ109">
+        <v>1.43</v>
+      </c>
+      <c r="AR109">
+        <v>1.32</v>
+      </c>
+      <c r="AS109">
+        <v>1.09</v>
+      </c>
+      <c r="AT109">
         <v>2.41</v>
       </c>
-      <c r="AG109">
-        <v>2.55</v>
-      </c>
-      <c r="AH109">
-        <v>1.41</v>
-      </c>
-      <c r="AI109">
-        <v>2.2</v>
-      </c>
-      <c r="AJ109">
-        <v>1.62</v>
-      </c>
-      <c r="AK109">
-        <v>1.28</v>
-      </c>
-      <c r="AL109">
-        <v>1.3</v>
-      </c>
-      <c r="AM109">
-        <v>1.63</v>
-      </c>
-      <c r="AN109">
-        <v>1.91</v>
-      </c>
-      <c r="AO109">
-        <v>1.5</v>
-      </c>
-      <c r="AP109">
-        <v>1.92</v>
-      </c>
-      <c r="AQ109">
-        <v>1.38</v>
-      </c>
-      <c r="AR109">
-        <v>1.37</v>
-      </c>
-      <c r="AS109">
-        <v>1.17</v>
-      </c>
-      <c r="AT109">
-        <v>2.54</v>
-      </c>
       <c r="AU109">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV109">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW109">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AX109">
         <v>5</v>
       </c>
       <c r="AY109">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AZ109">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA109">
         <v>5</v>
       </c>
       <c r="BB109">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC109">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD109">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="BE109">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="BF109">
+        <v>2.91</v>
+      </c>
+      <c r="BG109">
+        <v>1.33</v>
+      </c>
+      <c r="BH109">
         <v>3</v>
       </c>
-      <c r="BG109">
-        <v>1.38</v>
-      </c>
-      <c r="BH109">
-        <v>2.8</v>
-      </c>
       <c r="BI109">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="BJ109">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="BK109">
-        <v>2.09</v>
+        <v>1.96</v>
       </c>
       <c r="BL109">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="BM109">
-        <v>2.62</v>
+        <v>2.51</v>
       </c>
       <c r="BN109">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="BO109">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="BP109">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="110" spans="1:68">
@@ -23491,7 +23500,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>7287120</v>
+        <v>7287119</v>
       </c>
       <c r="C110" t="s">
         <v>68</v>
@@ -23506,19 +23515,19 @@
         <v>22</v>
       </c>
       <c r="G110" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H110" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110">
         <v>0</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L110">
         <v>2</v>
@@ -23536,160 +23545,160 @@
         <v>82</v>
       </c>
       <c r="Q110">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="R110">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="S110">
+        <v>4.33</v>
+      </c>
+      <c r="T110">
+        <v>1.59</v>
+      </c>
+      <c r="U110">
+        <v>2.24</v>
+      </c>
+      <c r="V110">
+        <v>3.7</v>
+      </c>
+      <c r="W110">
+        <v>1.24</v>
+      </c>
+      <c r="X110">
+        <v>10.5</v>
+      </c>
+      <c r="Y110">
+        <v>1.02</v>
+      </c>
+      <c r="Z110">
+        <v>2.13</v>
+      </c>
+      <c r="AA110">
+        <v>2.9</v>
+      </c>
+      <c r="AB110">
+        <v>3.6</v>
+      </c>
+      <c r="AC110">
+        <v>1.11</v>
+      </c>
+      <c r="AD110">
+        <v>6.5</v>
+      </c>
+      <c r="AE110">
+        <v>1.57</v>
+      </c>
+      <c r="AF110">
+        <v>2.41</v>
+      </c>
+      <c r="AG110">
+        <v>2.55</v>
+      </c>
+      <c r="AH110">
+        <v>1.41</v>
+      </c>
+      <c r="AI110">
+        <v>2.2</v>
+      </c>
+      <c r="AJ110">
+        <v>1.62</v>
+      </c>
+      <c r="AK110">
+        <v>1.28</v>
+      </c>
+      <c r="AL110">
+        <v>1.3</v>
+      </c>
+      <c r="AM110">
+        <v>1.63</v>
+      </c>
+      <c r="AN110">
         <v>1.91</v>
       </c>
-      <c r="T110">
-        <v>1.33</v>
-      </c>
-      <c r="U110">
-        <v>3.16</v>
-      </c>
-      <c r="V110">
-        <v>2.55</v>
-      </c>
-      <c r="W110">
-        <v>1.48</v>
-      </c>
-      <c r="X110">
-        <v>6.1</v>
-      </c>
-      <c r="Y110">
-        <v>1.1</v>
-      </c>
-      <c r="Z110">
-        <v>6.85</v>
-      </c>
-      <c r="AA110">
-        <v>4.85</v>
-      </c>
-      <c r="AB110">
-        <v>1.35</v>
-      </c>
-      <c r="AC110">
-        <v>1.01</v>
-      </c>
-      <c r="AD110">
-        <v>10.5</v>
-      </c>
-      <c r="AE110">
-        <v>1.21</v>
-      </c>
-      <c r="AF110">
-        <v>3.75</v>
-      </c>
-      <c r="AG110">
-        <v>1.76</v>
-      </c>
-      <c r="AH110">
-        <v>1.88</v>
-      </c>
-      <c r="AI110">
-        <v>1.95</v>
-      </c>
-      <c r="AJ110">
-        <v>1.8</v>
-      </c>
-      <c r="AK110">
-        <v>3.04</v>
-      </c>
-      <c r="AL110">
-        <v>1.18</v>
-      </c>
-      <c r="AM110">
-        <v>1.08</v>
-      </c>
-      <c r="AN110">
-        <v>1.3</v>
-      </c>
       <c r="AO110">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AP110">
-        <v>1.69</v>
+        <v>1.92</v>
       </c>
       <c r="AQ110">
         <v>1.38</v>
       </c>
       <c r="AR110">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="AS110">
+        <v>1.17</v>
+      </c>
+      <c r="AT110">
+        <v>2.54</v>
+      </c>
+      <c r="AU110">
+        <v>4</v>
+      </c>
+      <c r="AV110">
+        <v>3</v>
+      </c>
+      <c r="AW110">
+        <v>2</v>
+      </c>
+      <c r="AX110">
+        <v>5</v>
+      </c>
+      <c r="AY110">
+        <v>6</v>
+      </c>
+      <c r="AZ110">
+        <v>8</v>
+      </c>
+      <c r="BA110">
+        <v>5</v>
+      </c>
+      <c r="BB110">
+        <v>5</v>
+      </c>
+      <c r="BC110">
+        <v>10</v>
+      </c>
+      <c r="BD110">
+        <v>1.59</v>
+      </c>
+      <c r="BE110">
+        <v>7.8</v>
+      </c>
+      <c r="BF110">
+        <v>3</v>
+      </c>
+      <c r="BG110">
+        <v>1.38</v>
+      </c>
+      <c r="BH110">
+        <v>2.8</v>
+      </c>
+      <c r="BI110">
+        <v>1.67</v>
+      </c>
+      <c r="BJ110">
+        <v>2.18</v>
+      </c>
+      <c r="BK110">
+        <v>2.09</v>
+      </c>
+      <c r="BL110">
+        <v>1.72</v>
+      </c>
+      <c r="BM110">
+        <v>2.62</v>
+      </c>
+      <c r="BN110">
         <v>1.42</v>
       </c>
-      <c r="AT110">
-        <v>2.67</v>
-      </c>
-      <c r="AU110">
-        <v>8</v>
-      </c>
-      <c r="AV110">
-        <v>4</v>
-      </c>
-      <c r="AW110">
-        <v>9</v>
-      </c>
-      <c r="AX110">
-        <v>10</v>
-      </c>
-      <c r="AY110">
-        <v>17</v>
-      </c>
-      <c r="AZ110">
-        <v>14</v>
-      </c>
-      <c r="BA110">
-        <v>7</v>
-      </c>
-      <c r="BB110">
-        <v>2</v>
-      </c>
-      <c r="BC110">
-        <v>9</v>
-      </c>
-      <c r="BD110">
-        <v>4.76</v>
-      </c>
-      <c r="BE110">
-        <v>8.6</v>
-      </c>
-      <c r="BF110">
-        <v>1.31</v>
-      </c>
-      <c r="BG110">
-        <v>1.25</v>
-      </c>
-      <c r="BH110">
-        <v>3.6</v>
-      </c>
-      <c r="BI110">
-        <v>1.44</v>
-      </c>
-      <c r="BJ110">
-        <v>2.6</v>
-      </c>
-      <c r="BK110">
-        <v>2.25</v>
-      </c>
-      <c r="BL110">
-        <v>2.04</v>
-      </c>
-      <c r="BM110">
-        <v>2.19</v>
-      </c>
-      <c r="BN110">
-        <v>1.65</v>
-      </c>
       <c r="BO110">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="BP110">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="111" spans="1:68">
@@ -23697,7 +23706,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>7287121</v>
+        <v>7287120</v>
       </c>
       <c r="C111" t="s">
         <v>68</v>
@@ -23712,10 +23721,10 @@
         <v>22</v>
       </c>
       <c r="G111" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H111" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -23727,127 +23736,127 @@
         <v>0</v>
       </c>
       <c r="L111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M111">
         <v>0</v>
       </c>
       <c r="N111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O111" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="P111" t="s">
         <v>82</v>
       </c>
       <c r="Q111">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="R111">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S111">
-        <v>4</v>
+        <v>1.91</v>
       </c>
       <c r="T111">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="U111">
-        <v>2.7</v>
+        <v>3.16</v>
       </c>
       <c r="V111">
-        <v>2.95</v>
+        <v>2.55</v>
       </c>
       <c r="W111">
+        <v>1.48</v>
+      </c>
+      <c r="X111">
+        <v>6.1</v>
+      </c>
+      <c r="Y111">
+        <v>1.1</v>
+      </c>
+      <c r="Z111">
+        <v>6.85</v>
+      </c>
+      <c r="AA111">
+        <v>4.85</v>
+      </c>
+      <c r="AB111">
         <v>1.35</v>
       </c>
-      <c r="X111">
-        <v>7.4</v>
-      </c>
-      <c r="Y111">
-        <v>1.06</v>
-      </c>
-      <c r="Z111">
-        <v>1.86</v>
-      </c>
-      <c r="AA111">
-        <v>3.35</v>
-      </c>
-      <c r="AB111">
-        <v>3.85</v>
-      </c>
       <c r="AC111">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD111">
-        <v>8.699999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AE111">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AF111">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="AG111">
-        <v>1.92</v>
+        <v>1.76</v>
       </c>
       <c r="AH111">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="AI111">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AJ111">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AK111">
+        <v>3.04</v>
+      </c>
+      <c r="AL111">
+        <v>1.18</v>
+      </c>
+      <c r="AM111">
+        <v>1.08</v>
+      </c>
+      <c r="AN111">
+        <v>1.3</v>
+      </c>
+      <c r="AO111">
+        <v>1.36</v>
+      </c>
+      <c r="AP111">
+        <v>1.69</v>
+      </c>
+      <c r="AQ111">
+        <v>1.38</v>
+      </c>
+      <c r="AR111">
         <v>1.25</v>
       </c>
-      <c r="AL111">
-        <v>1.25</v>
-      </c>
-      <c r="AM111">
-        <v>1.83</v>
-      </c>
-      <c r="AN111">
-        <v>1.58</v>
-      </c>
-      <c r="AO111">
-        <v>1.33</v>
-      </c>
-      <c r="AP111">
-        <v>1.64</v>
-      </c>
-      <c r="AQ111">
-        <v>1.25</v>
-      </c>
-      <c r="AR111">
-        <v>1.37</v>
-      </c>
       <c r="AS111">
-        <v>1.19</v>
+        <v>1.42</v>
       </c>
       <c r="AT111">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
       <c r="AU111">
         <v>8</v>
       </c>
       <c r="AV111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW111">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX111">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AY111">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ111">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BA111">
         <v>7</v>
@@ -23859,43 +23868,43 @@
         <v>9</v>
       </c>
       <c r="BD111">
+        <v>4.76</v>
+      </c>
+      <c r="BE111">
+        <v>8.6</v>
+      </c>
+      <c r="BF111">
+        <v>1.31</v>
+      </c>
+      <c r="BG111">
+        <v>1.25</v>
+      </c>
+      <c r="BH111">
+        <v>3.6</v>
+      </c>
+      <c r="BI111">
+        <v>1.44</v>
+      </c>
+      <c r="BJ111">
+        <v>2.6</v>
+      </c>
+      <c r="BK111">
+        <v>2.25</v>
+      </c>
+      <c r="BL111">
+        <v>2.04</v>
+      </c>
+      <c r="BM111">
+        <v>2.19</v>
+      </c>
+      <c r="BN111">
         <v>1.65</v>
       </c>
-      <c r="BE111">
-        <v>7.8</v>
-      </c>
-      <c r="BF111">
-        <v>2.81</v>
-      </c>
-      <c r="BG111">
-        <v>1.22</v>
-      </c>
-      <c r="BH111">
-        <v>3.8</v>
-      </c>
-      <c r="BI111">
+      <c r="BO111">
+        <v>2.7</v>
+      </c>
+      <c r="BP111">
         <v>1.4</v>
-      </c>
-      <c r="BJ111">
-        <v>2.7</v>
-      </c>
-      <c r="BK111">
-        <v>2.1</v>
-      </c>
-      <c r="BL111">
-        <v>2.2</v>
-      </c>
-      <c r="BM111">
-        <v>2.04</v>
-      </c>
-      <c r="BN111">
-        <v>1.75</v>
-      </c>
-      <c r="BO111">
-        <v>2.5</v>
-      </c>
-      <c r="BP111">
-        <v>1.48</v>
       </c>
     </row>
     <row r="112" spans="1:68">
@@ -23903,7 +23912,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>7287117</v>
+        <v>7287121</v>
       </c>
       <c r="C112" t="s">
         <v>68</v>
@@ -23918,190 +23927,190 @@
         <v>22</v>
       </c>
       <c r="G112" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H112" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L112">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N112">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O112" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="P112" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="Q112">
+        <v>2.6</v>
+      </c>
+      <c r="R112">
+        <v>2.2</v>
+      </c>
+      <c r="S112">
+        <v>4</v>
+      </c>
+      <c r="T112">
+        <v>1.41</v>
+      </c>
+      <c r="U112">
+        <v>2.7</v>
+      </c>
+      <c r="V112">
+        <v>2.95</v>
+      </c>
+      <c r="W112">
+        <v>1.35</v>
+      </c>
+      <c r="X112">
+        <v>7.4</v>
+      </c>
+      <c r="Y112">
+        <v>1.06</v>
+      </c>
+      <c r="Z112">
+        <v>1.86</v>
+      </c>
+      <c r="AA112">
+        <v>3.35</v>
+      </c>
+      <c r="AB112">
+        <v>3.85</v>
+      </c>
+      <c r="AC112">
+        <v>1.02</v>
+      </c>
+      <c r="AD112">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE112">
+        <v>1.29</v>
+      </c>
+      <c r="AF112">
+        <v>3.15</v>
+      </c>
+      <c r="AG112">
+        <v>1.92</v>
+      </c>
+      <c r="AH112">
         <v>1.73</v>
       </c>
-      <c r="R112">
-        <v>2.5</v>
-      </c>
-      <c r="S112">
-        <v>8.5</v>
-      </c>
-      <c r="T112">
+      <c r="AI112">
+        <v>1.75</v>
+      </c>
+      <c r="AJ112">
+        <v>2</v>
+      </c>
+      <c r="AK112">
+        <v>1.25</v>
+      </c>
+      <c r="AL112">
+        <v>1.25</v>
+      </c>
+      <c r="AM112">
+        <v>1.83</v>
+      </c>
+      <c r="AN112">
+        <v>1.58</v>
+      </c>
+      <c r="AO112">
         <v>1.33</v>
       </c>
-      <c r="U112">
-        <v>3.05</v>
-      </c>
-      <c r="V112">
-        <v>2.5</v>
-      </c>
-      <c r="W112">
-        <v>1.47</v>
-      </c>
-      <c r="X112">
-        <v>5.95</v>
-      </c>
-      <c r="Y112">
-        <v>1.1</v>
-      </c>
-      <c r="Z112">
-        <v>1.23</v>
-      </c>
-      <c r="AA112">
-        <v>5.35</v>
-      </c>
-      <c r="AB112">
-        <v>10.7</v>
-      </c>
-      <c r="AC112">
-        <v>1.04</v>
-      </c>
-      <c r="AD112">
-        <v>10</v>
-      </c>
-      <c r="AE112">
-        <v>1.22</v>
-      </c>
-      <c r="AF112">
-        <v>4</v>
-      </c>
-      <c r="AG112">
-        <v>1.62</v>
-      </c>
-      <c r="AH112">
-        <v>2.07</v>
-      </c>
-      <c r="AI112">
-        <v>2.1</v>
-      </c>
-      <c r="AJ112">
-        <v>1.67</v>
-      </c>
-      <c r="AK112">
-        <v>1.01</v>
-      </c>
-      <c r="AL112">
-        <v>1.11</v>
-      </c>
-      <c r="AM112">
-        <v>3.4</v>
-      </c>
-      <c r="AN112">
-        <v>2.17</v>
-      </c>
-      <c r="AO112">
-        <v>0.27</v>
-      </c>
       <c r="AP112">
-        <v>2.23</v>
+        <v>1.64</v>
       </c>
       <c r="AQ112">
-        <v>0.23</v>
+        <v>1.25</v>
       </c>
       <c r="AR112">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="AS112">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AT112">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="AU112">
         <v>8</v>
       </c>
       <c r="AV112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW112">
         <v>7</v>
       </c>
       <c r="AX112">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY112">
         <v>15</v>
       </c>
       <c r="AZ112">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA112">
         <v>7</v>
       </c>
       <c r="BB112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC112">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD112">
-        <v>1.18</v>
+        <v>1.65</v>
       </c>
       <c r="BE112">
-        <v>13.5</v>
+        <v>7.8</v>
       </c>
       <c r="BF112">
-        <v>5.95</v>
+        <v>2.81</v>
       </c>
       <c r="BG112">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="BH112">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="BI112">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="BJ112">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="BK112">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BL112">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="BM112">
-        <v>2.19</v>
+        <v>2.04</v>
       </c>
       <c r="BN112">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="BO112">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="BP112">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="113" spans="1:68">
@@ -24151,7 +24160,7 @@
         <v>117</v>
       </c>
       <c r="P113" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -24315,7 +24324,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>7287125</v>
+        <v>7287124</v>
       </c>
       <c r="C114" t="s">
         <v>68</v>
@@ -24330,10 +24339,10 @@
         <v>23</v>
       </c>
       <c r="G114" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H114" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -24345,28 +24354,28 @@
         <v>0</v>
       </c>
       <c r="L114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O114" t="s">
         <v>150</v>
       </c>
       <c r="P114" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="Q114">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="R114">
         <v>2.1</v>
       </c>
       <c r="S114">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="T114">
         <v>1.42</v>
@@ -24375,31 +24384,31 @@
         <v>2.62</v>
       </c>
       <c r="V114">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="W114">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X114">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="Y114">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z114">
-        <v>2.99</v>
+        <v>5.24</v>
       </c>
       <c r="AA114">
-        <v>3.17</v>
+        <v>3.75</v>
       </c>
       <c r="AB114">
-        <v>2.41</v>
+        <v>1.63</v>
       </c>
       <c r="AC114">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AD114">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE114">
         <v>1.35</v>
@@ -24408,112 +24417,112 @@
         <v>3.1</v>
       </c>
       <c r="AG114">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AH114">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AI114">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="AJ114">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="AK114">
-        <v>1.48</v>
+        <v>2.2</v>
       </c>
       <c r="AL114">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AM114">
-        <v>1.44</v>
+        <v>1.14</v>
       </c>
       <c r="AN114">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="AO114">
-        <v>0.73</v>
+        <v>1.36</v>
       </c>
       <c r="AP114">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="AQ114">
-        <v>0.67</v>
+        <v>1.23</v>
       </c>
       <c r="AR114">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AS114">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="AT114">
-        <v>2.48</v>
+        <v>2.72</v>
       </c>
       <c r="AU114">
         <v>4</v>
       </c>
       <c r="AV114">
+        <v>7</v>
+      </c>
+      <c r="AW114">
+        <v>2</v>
+      </c>
+      <c r="AX114">
+        <v>5</v>
+      </c>
+      <c r="AY114">
+        <v>6</v>
+      </c>
+      <c r="AZ114">
+        <v>12</v>
+      </c>
+      <c r="BA114">
         <v>3</v>
-      </c>
-      <c r="AW114">
-        <v>3</v>
-      </c>
-      <c r="AX114">
-        <v>8</v>
-      </c>
-      <c r="AY114">
-        <v>7</v>
-      </c>
-      <c r="AZ114">
-        <v>11</v>
-      </c>
-      <c r="BA114">
-        <v>4</v>
       </c>
       <c r="BB114">
         <v>5</v>
       </c>
       <c r="BC114">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD114">
-        <v>1.87</v>
+        <v>4.26</v>
       </c>
       <c r="BE114">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BF114">
-        <v>2.38</v>
+        <v>1.38</v>
       </c>
       <c r="BG114">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="BH114">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="BI114">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="BJ114">
-        <v>2.7</v>
+        <v>2.32</v>
       </c>
       <c r="BK114">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="BL114">
-        <v>2.06</v>
+        <v>1.8</v>
       </c>
       <c r="BM114">
-        <v>2.14</v>
+        <v>2.48</v>
       </c>
       <c r="BN114">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
       <c r="BO114">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="BP114">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="115" spans="1:68">
@@ -24521,7 +24530,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7287124</v>
+        <v>7287123</v>
       </c>
       <c r="C115" t="s">
         <v>68</v>
@@ -24536,190 +24545,190 @@
         <v>23</v>
       </c>
       <c r="G115" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H115" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M115">
         <v>1</v>
       </c>
       <c r="N115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O115" t="s">
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="Q115">
-        <v>6.5</v>
+        <v>2.88</v>
       </c>
       <c r="R115">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S115">
-        <v>2.2</v>
+        <v>4.33</v>
       </c>
       <c r="T115">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="U115">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="V115">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="W115">
         <v>1.33</v>
       </c>
       <c r="X115">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Y115">
         <v>1.06</v>
       </c>
       <c r="Z115">
-        <v>5.24</v>
+        <v>1.99</v>
       </c>
       <c r="AA115">
-        <v>3.75</v>
+        <v>3.27</v>
       </c>
       <c r="AB115">
-        <v>1.63</v>
+        <v>3.86</v>
       </c>
       <c r="AC115">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AD115">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE115">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AF115">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AG115">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AH115">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AI115">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AJ115">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="AK115">
-        <v>2.2</v>
+        <v>1.28</v>
       </c>
       <c r="AL115">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM115">
-        <v>1.14</v>
+        <v>1.73</v>
       </c>
       <c r="AN115">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AO115">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AP115">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="AQ115">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AR115">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AS115">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AT115">
-        <v>2.72</v>
+        <v>2.51</v>
       </c>
       <c r="AU115">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV115">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW115">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX115">
         <v>5</v>
       </c>
       <c r="AY115">
+        <v>14</v>
+      </c>
+      <c r="AZ115">
+        <v>7</v>
+      </c>
+      <c r="BA115">
+        <v>4</v>
+      </c>
+      <c r="BB115">
+        <v>2</v>
+      </c>
+      <c r="BC115">
         <v>6</v>
       </c>
-      <c r="AZ115">
-        <v>12</v>
-      </c>
-      <c r="BA115">
-        <v>3</v>
-      </c>
-      <c r="BB115">
-        <v>5</v>
-      </c>
-      <c r="BC115">
+      <c r="BD115">
+        <v>1.64</v>
+      </c>
+      <c r="BE115">
         <v>8</v>
       </c>
-      <c r="BD115">
-        <v>4.26</v>
-      </c>
-      <c r="BE115">
-        <v>7.6</v>
-      </c>
       <c r="BF115">
-        <v>1.38</v>
+        <v>2.81</v>
       </c>
       <c r="BG115">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="BH115">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="BI115">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="BJ115">
-        <v>2.32</v>
+        <v>2.75</v>
       </c>
       <c r="BK115">
         <v>2</v>
       </c>
       <c r="BL115">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
       <c r="BM115">
-        <v>2.48</v>
+        <v>1.9</v>
       </c>
       <c r="BN115">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="BO115">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="BP115">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="116" spans="1:68">
@@ -24727,7 +24736,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>7287123</v>
+        <v>7287125</v>
       </c>
       <c r="C116" t="s">
         <v>68</v>
@@ -24742,70 +24751,70 @@
         <v>23</v>
       </c>
       <c r="G116" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H116" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L116">
         <v>1</v>
       </c>
       <c r="M116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O116" t="s">
         <v>152</v>
       </c>
       <c r="P116" t="s">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="Q116">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="R116">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S116">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="T116">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="U116">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="V116">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="W116">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X116">
-        <v>8.300000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="Y116">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z116">
-        <v>1.99</v>
+        <v>2.99</v>
       </c>
       <c r="AA116">
-        <v>3.27</v>
+        <v>3.17</v>
       </c>
       <c r="AB116">
-        <v>3.86</v>
+        <v>2.41</v>
       </c>
       <c r="AC116">
         <v>1.07</v>
@@ -24814,118 +24823,118 @@
         <v>8</v>
       </c>
       <c r="AE116">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AF116">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AG116">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AH116">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="AI116">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AJ116">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AK116">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="AL116">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM116">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="AN116">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AO116">
-        <v>1.3</v>
+        <v>0.73</v>
       </c>
       <c r="AP116">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ116">
-        <v>1.25</v>
+        <v>0.67</v>
       </c>
       <c r="AR116">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="AS116">
         <v>1.17</v>
       </c>
       <c r="AT116">
-        <v>2.51</v>
+        <v>2.48</v>
       </c>
       <c r="AU116">
+        <v>4</v>
+      </c>
+      <c r="AV116">
+        <v>3</v>
+      </c>
+      <c r="AW116">
+        <v>3</v>
+      </c>
+      <c r="AX116">
         <v>8</v>
       </c>
-      <c r="AV116">
-        <v>2</v>
-      </c>
-      <c r="AW116">
-        <v>6</v>
-      </c>
-      <c r="AX116">
-        <v>5</v>
-      </c>
       <c r="AY116">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AZ116">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA116">
         <v>4</v>
       </c>
       <c r="BB116">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC116">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD116">
-        <v>1.64</v>
+        <v>1.87</v>
       </c>
       <c r="BE116">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="BF116">
-        <v>2.81</v>
+        <v>2.38</v>
       </c>
       <c r="BG116">
         <v>1.23</v>
       </c>
       <c r="BH116">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="BI116">
+        <v>1.43</v>
+      </c>
+      <c r="BJ116">
+        <v>2.7</v>
+      </c>
+      <c r="BK116">
+        <v>2.2</v>
+      </c>
+      <c r="BL116">
+        <v>2.06</v>
+      </c>
+      <c r="BM116">
+        <v>2.14</v>
+      </c>
+      <c r="BN116">
+        <v>1.66</v>
+      </c>
+      <c r="BO116">
+        <v>2.75</v>
+      </c>
+      <c r="BP116">
         <v>1.42</v>
-      </c>
-      <c r="BJ116">
-        <v>2.75</v>
-      </c>
-      <c r="BK116">
-        <v>2</v>
-      </c>
-      <c r="BL116">
-        <v>2.08</v>
-      </c>
-      <c r="BM116">
-        <v>1.9</v>
-      </c>
-      <c r="BN116">
-        <v>1.9</v>
-      </c>
-      <c r="BO116">
-        <v>2.7</v>
-      </c>
-      <c r="BP116">
-        <v>1.43</v>
       </c>
     </row>
     <row r="117" spans="1:68">
@@ -25056,7 +25065,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ117">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR117">
         <v>1.89</v>
@@ -25181,7 +25190,7 @@
         <v>82</v>
       </c>
       <c r="P118" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25259,7 +25268,7 @@
         <v>1.09</v>
       </c>
       <c r="AP118">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ118">
         <v>1.15</v>
@@ -25387,7 +25396,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25674,7 +25683,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ120">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR120">
         <v>1.38</v>
@@ -25880,7 +25889,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ121">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR121">
         <v>1.39</v>
@@ -26005,7 +26014,7 @@
         <v>156</v>
       </c>
       <c r="P122" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26083,10 +26092,10 @@
         <v>0.42</v>
       </c>
       <c r="AP122">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ122">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR122">
         <v>1.26</v>
@@ -26417,7 +26426,7 @@
         <v>158</v>
       </c>
       <c r="P124" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q124">
         <v>3.75</v>
@@ -26623,7 +26632,7 @@
         <v>82</v>
       </c>
       <c r="P125" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26826,10 +26835,10 @@
         <v>3</v>
       </c>
       <c r="O126" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P126" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q126">
         <v>4.75</v>
@@ -27035,7 +27044,7 @@
         <v>159</v>
       </c>
       <c r="P127" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27398,6 +27407,418 @@
       </c>
       <c r="BP128">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7287143</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45513.65625</v>
+      </c>
+      <c r="F129">
+        <v>27</v>
+      </c>
+      <c r="G129" t="s">
+        <v>71</v>
+      </c>
+      <c r="H129" t="s">
+        <v>76</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>100</v>
+      </c>
+      <c r="P129" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q129">
+        <v>1.73</v>
+      </c>
+      <c r="R129">
+        <v>2.5</v>
+      </c>
+      <c r="S129">
+        <v>9.5</v>
+      </c>
+      <c r="T129">
+        <v>1.36</v>
+      </c>
+      <c r="U129">
+        <v>3</v>
+      </c>
+      <c r="V129">
+        <v>2.75</v>
+      </c>
+      <c r="W129">
+        <v>1.4</v>
+      </c>
+      <c r="X129">
+        <v>8</v>
+      </c>
+      <c r="Y129">
+        <v>1.08</v>
+      </c>
+      <c r="Z129">
+        <v>1.29</v>
+      </c>
+      <c r="AA129">
+        <v>4.75</v>
+      </c>
+      <c r="AB129">
+        <v>9.5</v>
+      </c>
+      <c r="AC129">
+        <v>1.05</v>
+      </c>
+      <c r="AD129">
+        <v>9.5</v>
+      </c>
+      <c r="AE129">
+        <v>1.28</v>
+      </c>
+      <c r="AF129">
+        <v>3.55</v>
+      </c>
+      <c r="AG129">
+        <v>1.8</v>
+      </c>
+      <c r="AH129">
+        <v>2</v>
+      </c>
+      <c r="AI129">
+        <v>2.25</v>
+      </c>
+      <c r="AJ129">
+        <v>1.57</v>
+      </c>
+      <c r="AK129">
+        <v>1.07</v>
+      </c>
+      <c r="AL129">
+        <v>1.17</v>
+      </c>
+      <c r="AM129">
+        <v>2.88</v>
+      </c>
+      <c r="AN129">
+        <v>2.23</v>
+      </c>
+      <c r="AO129">
+        <v>0.46</v>
+      </c>
+      <c r="AP129">
+        <v>2.14</v>
+      </c>
+      <c r="AQ129">
+        <v>0.5</v>
+      </c>
+      <c r="AR129">
+        <v>1.55</v>
+      </c>
+      <c r="AS129">
+        <v>0.95</v>
+      </c>
+      <c r="AT129">
+        <v>2.5</v>
+      </c>
+      <c r="AU129">
+        <v>7</v>
+      </c>
+      <c r="AV129">
+        <v>4</v>
+      </c>
+      <c r="AW129">
+        <v>9</v>
+      </c>
+      <c r="AX129">
+        <v>2</v>
+      </c>
+      <c r="AY129">
+        <v>16</v>
+      </c>
+      <c r="AZ129">
+        <v>6</v>
+      </c>
+      <c r="BA129">
+        <v>10</v>
+      </c>
+      <c r="BB129">
+        <v>4</v>
+      </c>
+      <c r="BC129">
+        <v>14</v>
+      </c>
+      <c r="BD129">
+        <v>1.3</v>
+      </c>
+      <c r="BE129">
+        <v>9.5</v>
+      </c>
+      <c r="BF129">
+        <v>4.44</v>
+      </c>
+      <c r="BG129">
+        <v>1.28</v>
+      </c>
+      <c r="BH129">
+        <v>3.35</v>
+      </c>
+      <c r="BI129">
+        <v>1.53</v>
+      </c>
+      <c r="BJ129">
+        <v>2.33</v>
+      </c>
+      <c r="BK129">
+        <v>1.96</v>
+      </c>
+      <c r="BL129">
+        <v>1.75</v>
+      </c>
+      <c r="BM129">
+        <v>2.55</v>
+      </c>
+      <c r="BN129">
+        <v>1.45</v>
+      </c>
+      <c r="BO129">
+        <v>3.3</v>
+      </c>
+      <c r="BP129">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7287142</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45513.65625</v>
+      </c>
+      <c r="F130">
+        <v>27</v>
+      </c>
+      <c r="G130" t="s">
+        <v>70</v>
+      </c>
+      <c r="H130" t="s">
+        <v>73</v>
+      </c>
+      <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>3</v>
+      </c>
+      <c r="N130">
+        <v>5</v>
+      </c>
+      <c r="O130" t="s">
+        <v>160</v>
+      </c>
+      <c r="P130" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q130">
+        <v>2.38</v>
+      </c>
+      <c r="R130">
+        <v>2.3</v>
+      </c>
+      <c r="S130">
+        <v>4.5</v>
+      </c>
+      <c r="T130">
+        <v>1.36</v>
+      </c>
+      <c r="U130">
+        <v>2.85</v>
+      </c>
+      <c r="V130">
+        <v>2.65</v>
+      </c>
+      <c r="W130">
+        <v>1.42</v>
+      </c>
+      <c r="X130">
+        <v>6.75</v>
+      </c>
+      <c r="Y130">
+        <v>1.09</v>
+      </c>
+      <c r="Z130">
+        <v>1.73</v>
+      </c>
+      <c r="AA130">
+        <v>3.6</v>
+      </c>
+      <c r="AB130">
+        <v>4.1</v>
+      </c>
+      <c r="AC130">
+        <v>1.05</v>
+      </c>
+      <c r="AD130">
+        <v>9.5</v>
+      </c>
+      <c r="AE130">
+        <v>1.28</v>
+      </c>
+      <c r="AF130">
+        <v>3.6</v>
+      </c>
+      <c r="AG130">
+        <v>1.8</v>
+      </c>
+      <c r="AH130">
+        <v>2</v>
+      </c>
+      <c r="AI130">
+        <v>1.75</v>
+      </c>
+      <c r="AJ130">
+        <v>2</v>
+      </c>
+      <c r="AK130">
+        <v>1.28</v>
+      </c>
+      <c r="AL130">
+        <v>1.25</v>
+      </c>
+      <c r="AM130">
+        <v>1.77</v>
+      </c>
+      <c r="AN130">
+        <v>1.08</v>
+      </c>
+      <c r="AO130">
+        <v>1.31</v>
+      </c>
+      <c r="AP130">
+        <v>1</v>
+      </c>
+      <c r="AQ130">
+        <v>1.43</v>
+      </c>
+      <c r="AR130">
+        <v>1.33</v>
+      </c>
+      <c r="AS130">
+        <v>1.09</v>
+      </c>
+      <c r="AT130">
+        <v>2.42</v>
+      </c>
+      <c r="AU130">
+        <v>7</v>
+      </c>
+      <c r="AV130">
+        <v>5</v>
+      </c>
+      <c r="AW130">
+        <v>6</v>
+      </c>
+      <c r="AX130">
+        <v>9</v>
+      </c>
+      <c r="AY130">
+        <v>13</v>
+      </c>
+      <c r="AZ130">
+        <v>14</v>
+      </c>
+      <c r="BA130">
+        <v>5</v>
+      </c>
+      <c r="BB130">
+        <v>13</v>
+      </c>
+      <c r="BC130">
+        <v>18</v>
+      </c>
+      <c r="BD130">
+        <v>1.75</v>
+      </c>
+      <c r="BE130">
+        <v>8</v>
+      </c>
+      <c r="BF130">
+        <v>2.44</v>
+      </c>
+      <c r="BG130">
+        <v>1.25</v>
+      </c>
+      <c r="BH130">
+        <v>3.6</v>
+      </c>
+      <c r="BI130">
+        <v>1.42</v>
+      </c>
+      <c r="BJ130">
+        <v>2.62</v>
+      </c>
+      <c r="BK130">
+        <v>2.1</v>
+      </c>
+      <c r="BL130">
+        <v>1.92</v>
+      </c>
+      <c r="BM130">
+        <v>2.07</v>
+      </c>
+      <c r="BN130">
+        <v>1.67</v>
+      </c>
+      <c r="BO130">
+        <v>2.7</v>
+      </c>
+      <c r="BP130">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="222">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -499,6 +499,9 @@
     <t>['6', '37']</t>
   </si>
   <si>
+    <t>['24', '65']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -674,6 +677,9 @@
   </si>
   <si>
     <t>['46', '62', '81']</t>
+  </si>
+  <si>
+    <t>['56']</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1041,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP130"/>
+  <dimension ref="A1:BP131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1294,7 +1300,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1500,7 +1506,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1912,7 +1918,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1993,7 +1999,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ5">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2324,7 +2330,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2530,7 +2536,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2736,7 +2742,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3226,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ11">
         <v>1.23</v>
@@ -3354,7 +3360,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3432,10 +3438,10 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ12">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR12">
         <v>1</v>
@@ -3560,7 +3566,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3766,7 +3772,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4178,7 +4184,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4590,7 +4596,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4796,7 +4802,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -5208,7 +5214,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5289,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR21">
         <v>1.54</v>
@@ -5904,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ24">
         <v>1.38</v>
@@ -6032,7 +6038,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6113,7 +6119,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ25">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR25">
         <v>1.56</v>
@@ -6650,7 +6656,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6934,7 +6940,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ29">
         <v>0.23</v>
@@ -7680,7 +7686,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7886,7 +7892,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8298,7 +8304,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8916,7 +8922,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9122,7 +9128,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9328,7 +9334,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9534,7 +9540,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9615,7 +9621,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ42">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR42">
         <v>1.38</v>
@@ -9740,7 +9746,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9946,7 +9952,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10152,7 +10158,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -11388,7 +11394,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11594,7 +11600,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11672,7 +11678,7 @@
         <v>0.2</v>
       </c>
       <c r="AP52">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ52">
         <v>0.5</v>
@@ -12087,7 +12093,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ54">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -12290,7 +12296,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ55">
         <v>1.38</v>
@@ -12830,7 +12836,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13448,7 +13454,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13654,7 +13660,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14559,7 +14565,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ66">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR66">
         <v>1.32</v>
@@ -14684,7 +14690,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14890,7 +14896,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -14968,7 +14974,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ68">
         <v>1.43</v>
@@ -15096,7 +15102,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15508,7 +15514,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -15792,7 +15798,7 @@
         <v>0.71</v>
       </c>
       <c r="AP72">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ72">
         <v>0.67</v>
@@ -16001,7 +16007,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ73">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR73">
         <v>1.37</v>
@@ -16126,7 +16132,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16950,7 +16956,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17362,7 +17368,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17568,7 +17574,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17646,7 +17652,7 @@
         <v>1.29</v>
       </c>
       <c r="AP81">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ81">
         <v>1.25</v>
@@ -17774,7 +17780,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -18186,7 +18192,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18267,7 +18273,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ84">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR84">
         <v>1.41</v>
@@ -18598,7 +18604,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18804,7 +18810,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19010,7 +19016,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -19422,7 +19428,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19503,7 +19509,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ90">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR90">
         <v>1.89</v>
@@ -19834,7 +19840,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q92">
         <v>2.2</v>
@@ -20040,7 +20046,7 @@
         <v>82</v>
       </c>
       <c r="P93" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q93">
         <v>5.5</v>
@@ -20452,7 +20458,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q95">
         <v>3.2</v>
@@ -20658,7 +20664,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20736,7 +20742,7 @@
         <v>0.33</v>
       </c>
       <c r="AP96">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ96">
         <v>0.23</v>
@@ -20864,7 +20870,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21894,7 +21900,7 @@
         <v>143</v>
       </c>
       <c r="P102" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q102">
         <v>2.75</v>
@@ -22100,7 +22106,7 @@
         <v>82</v>
       </c>
       <c r="P103" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -22181,7 +22187,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ103">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR103">
         <v>1.35</v>
@@ -22306,7 +22312,7 @@
         <v>144</v>
       </c>
       <c r="P104" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22512,7 +22518,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q105">
         <v>4.5</v>
@@ -23826,7 +23832,7 @@
         <v>1.36</v>
       </c>
       <c r="AP111">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ111">
         <v>1.38</v>
@@ -24160,7 +24166,7 @@
         <v>117</v>
       </c>
       <c r="P113" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -24241,7 +24247,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ113">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR113">
         <v>1.37</v>
@@ -24444,7 +24450,7 @@
         <v>1.36</v>
       </c>
       <c r="AP114">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ114">
         <v>1.23</v>
@@ -24572,7 +24578,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q115">
         <v>2.88</v>
@@ -25190,7 +25196,7 @@
         <v>82</v>
       </c>
       <c r="P118" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25396,7 +25402,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -26014,7 +26020,7 @@
         <v>156</v>
       </c>
       <c r="P122" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26298,7 +26304,7 @@
         <v>1.36</v>
       </c>
       <c r="AP123">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ123">
         <v>1.38</v>
@@ -26426,7 +26432,7 @@
         <v>158</v>
       </c>
       <c r="P124" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q124">
         <v>3.75</v>
@@ -26632,7 +26638,7 @@
         <v>82</v>
       </c>
       <c r="P125" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26838,7 +26844,7 @@
         <v>152</v>
       </c>
       <c r="P126" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q126">
         <v>4.75</v>
@@ -27044,7 +27050,7 @@
         <v>159</v>
       </c>
       <c r="P127" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27456,7 +27462,7 @@
         <v>100</v>
       </c>
       <c r="P129" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q129">
         <v>1.73</v>
@@ -27662,7 +27668,7 @@
         <v>160</v>
       </c>
       <c r="P130" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q130">
         <v>2.38</v>
@@ -27776,10 +27782,10 @@
         <v>5</v>
       </c>
       <c r="BB130">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC130">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD130">
         <v>1.75</v>
@@ -27819,6 +27825,212 @@
       </c>
       <c r="BP130">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7287146</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45514.65625</v>
+      </c>
+      <c r="F131">
+        <v>27</v>
+      </c>
+      <c r="G131" t="s">
+        <v>79</v>
+      </c>
+      <c r="H131" t="s">
+        <v>77</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>3</v>
+      </c>
+      <c r="O131" t="s">
+        <v>161</v>
+      </c>
+      <c r="P131" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q131">
+        <v>4</v>
+      </c>
+      <c r="R131">
+        <v>1.95</v>
+      </c>
+      <c r="S131">
+        <v>3.1</v>
+      </c>
+      <c r="T131">
+        <v>1.44</v>
+      </c>
+      <c r="U131">
+        <v>2.63</v>
+      </c>
+      <c r="V131">
+        <v>3.25</v>
+      </c>
+      <c r="W131">
+        <v>1.33</v>
+      </c>
+      <c r="X131">
+        <v>10</v>
+      </c>
+      <c r="Y131">
+        <v>1.06</v>
+      </c>
+      <c r="Z131">
+        <v>3</v>
+      </c>
+      <c r="AA131">
+        <v>2.9</v>
+      </c>
+      <c r="AB131">
+        <v>2.35</v>
+      </c>
+      <c r="AC131">
+        <v>1.07</v>
+      </c>
+      <c r="AD131">
+        <v>8</v>
+      </c>
+      <c r="AE131">
+        <v>1.4</v>
+      </c>
+      <c r="AF131">
+        <v>2.9</v>
+      </c>
+      <c r="AG131">
+        <v>2.4</v>
+      </c>
+      <c r="AH131">
+        <v>1.53</v>
+      </c>
+      <c r="AI131">
+        <v>2.05</v>
+      </c>
+      <c r="AJ131">
+        <v>1.7</v>
+      </c>
+      <c r="AK131">
+        <v>1.7</v>
+      </c>
+      <c r="AL131">
+        <v>1.25</v>
+      </c>
+      <c r="AM131">
+        <v>1.28</v>
+      </c>
+      <c r="AN131">
+        <v>1.69</v>
+      </c>
+      <c r="AO131">
+        <v>1.92</v>
+      </c>
+      <c r="AP131">
+        <v>1.79</v>
+      </c>
+      <c r="AQ131">
+        <v>1.77</v>
+      </c>
+      <c r="AR131">
+        <v>1.28</v>
+      </c>
+      <c r="AS131">
+        <v>1.04</v>
+      </c>
+      <c r="AT131">
+        <v>2.32</v>
+      </c>
+      <c r="AU131">
+        <v>6</v>
+      </c>
+      <c r="AV131">
+        <v>5</v>
+      </c>
+      <c r="AW131">
+        <v>2</v>
+      </c>
+      <c r="AX131">
+        <v>5</v>
+      </c>
+      <c r="AY131">
+        <v>8</v>
+      </c>
+      <c r="AZ131">
+        <v>10</v>
+      </c>
+      <c r="BA131">
+        <v>1</v>
+      </c>
+      <c r="BB131">
+        <v>7</v>
+      </c>
+      <c r="BC131">
+        <v>8</v>
+      </c>
+      <c r="BD131">
+        <v>1.95</v>
+      </c>
+      <c r="BE131">
+        <v>7.1</v>
+      </c>
+      <c r="BF131">
+        <v>1.95</v>
+      </c>
+      <c r="BG131">
+        <v>1.4</v>
+      </c>
+      <c r="BH131">
+        <v>2.8</v>
+      </c>
+      <c r="BI131">
+        <v>1.72</v>
+      </c>
+      <c r="BJ131">
+        <v>2.09</v>
+      </c>
+      <c r="BK131">
+        <v>2.17</v>
+      </c>
+      <c r="BL131">
+        <v>1.68</v>
+      </c>
+      <c r="BM131">
+        <v>2.75</v>
+      </c>
+      <c r="BN131">
+        <v>1.41</v>
+      </c>
+      <c r="BO131">
+        <v>3.8</v>
+      </c>
+      <c r="BP131">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="224">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -502,6 +502,9 @@
     <t>['24', '65']</t>
   </si>
   <si>
+    <t>['6']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -578,9 +581,6 @@
   </si>
   <si>
     <t>['56', '62', '69']</t>
-  </si>
-  <si>
-    <t>['6']</t>
   </si>
   <si>
     <t>['38', '74']</t>
@@ -680,6 +680,12 @@
   </si>
   <si>
     <t>['56']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['74']</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP131"/>
+  <dimension ref="A1:BP133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1300,7 +1306,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1506,7 +1512,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1587,7 +1593,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ3">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1790,10 +1796,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ4">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1918,7 +1924,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2202,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ6">
         <v>0.5</v>
@@ -2330,7 +2336,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2536,7 +2542,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2742,7 +2748,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3360,7 +3366,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3566,7 +3572,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3644,7 +3650,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ13">
         <v>1.43</v>
@@ -3772,7 +3778,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3853,7 +3859,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ14">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR14">
         <v>1.63</v>
@@ -4184,7 +4190,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4596,7 +4602,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4677,7 +4683,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ18">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR18">
         <v>0.95</v>
@@ -4802,7 +4808,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -4880,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19">
         <v>1.23</v>
@@ -5214,7 +5220,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5704,10 +5710,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ23">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR23">
         <v>1.34</v>
@@ -6038,7 +6044,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6322,7 +6328,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ26">
         <v>1.38</v>
@@ -6656,7 +6662,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6943,7 +6949,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ29">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR29">
         <v>1.29</v>
@@ -7355,7 +7361,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ31">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR31">
         <v>1.4</v>
@@ -7686,7 +7692,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7892,7 +7898,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -7970,7 +7976,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ34">
         <v>1.25</v>
@@ -8179,7 +8185,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ35">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR35">
         <v>1.43</v>
@@ -8304,7 +8310,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8922,7 +8928,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9000,7 +9006,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ39">
         <v>1.25</v>
@@ -9128,7 +9134,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9334,7 +9340,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9540,7 +9546,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9746,7 +9752,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9952,7 +9958,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10158,7 +10164,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10445,7 +10451,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ46">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR46">
         <v>1.26</v>
@@ -10854,7 +10860,7 @@
         <v>1.75</v>
       </c>
       <c r="AP48">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ48">
         <v>1.15</v>
@@ -11269,7 +11275,7 @@
         <v>1</v>
       </c>
       <c r="AQ50">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR50">
         <v>1.1</v>
@@ -11394,7 +11400,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11600,7 +11606,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12090,7 +12096,7 @@
         <v>2.2</v>
       </c>
       <c r="AP54">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ54">
         <v>1.77</v>
@@ -12505,7 +12511,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ56">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR56">
         <v>1.4</v>
@@ -12836,7 +12842,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13329,7 +13335,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ60">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR60">
         <v>1.01</v>
@@ -13738,7 +13744,7 @@
         <v>1.6</v>
       </c>
       <c r="AP62">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ62">
         <v>1.38</v>
@@ -13944,10 +13950,10 @@
         <v>0.4</v>
       </c>
       <c r="AP63">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ63">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR63">
         <v>1.78</v>
@@ -14150,7 +14156,7 @@
         <v>1.17</v>
       </c>
       <c r="AP64">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ64">
         <v>1.23</v>
@@ -14359,7 +14365,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ65">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR65">
         <v>1.39</v>
@@ -15102,7 +15108,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15592,7 +15598,7 @@
         <v>1.57</v>
       </c>
       <c r="AP71">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ71">
         <v>1.43</v>
@@ -15801,7 +15807,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ72">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR72">
         <v>1.34</v>
@@ -16210,10 +16216,10 @@
         <v>0.63</v>
       </c>
       <c r="AP74">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ74">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR74">
         <v>1.85</v>
@@ -16416,7 +16422,7 @@
         <v>1.17</v>
       </c>
       <c r="AP75">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ75">
         <v>1.15</v>
@@ -16625,7 +16631,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ76">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR76">
         <v>1.05</v>
@@ -18476,7 +18482,7 @@
         <v>1.38</v>
       </c>
       <c r="AP85">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ85">
         <v>1.23</v>
@@ -18685,7 +18691,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ86">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR86">
         <v>1.18</v>
@@ -18891,7 +18897,7 @@
         <v>1</v>
       </c>
       <c r="AQ87">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR87">
         <v>1.13</v>
@@ -19300,7 +19306,7 @@
         <v>0.25</v>
       </c>
       <c r="AP89">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ89">
         <v>0.5</v>
@@ -19506,7 +19512,7 @@
         <v>1.78</v>
       </c>
       <c r="AP90">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ90">
         <v>1.77</v>
@@ -20745,7 +20751,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ96">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR96">
         <v>1.26</v>
@@ -21569,7 +21575,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ100">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR100">
         <v>1.39</v>
@@ -22802,10 +22808,10 @@
         <v>0.3</v>
       </c>
       <c r="AP106">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ106">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR106">
         <v>1.34</v>
@@ -23217,7 +23223,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ108">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR108">
         <v>1.53</v>
@@ -24578,7 +24584,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q115">
         <v>2.88</v>
@@ -24656,7 +24662,7 @@
         <v>1.3</v>
       </c>
       <c r="AP115">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ115">
         <v>1.25</v>
@@ -24865,7 +24871,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ116">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR116">
         <v>1.31</v>
@@ -25068,7 +25074,7 @@
         <v>0.45</v>
       </c>
       <c r="AP117">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ117">
         <v>0.5</v>
@@ -25483,7 +25489,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ119">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR119">
         <v>1.37</v>
@@ -25686,7 +25692,7 @@
         <v>1.55</v>
       </c>
       <c r="AP120">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ120">
         <v>1.43</v>
@@ -28031,6 +28037,418 @@
       </c>
       <c r="BP131">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7287144</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45515.45833333334</v>
+      </c>
+      <c r="F132">
+        <v>27</v>
+      </c>
+      <c r="G132" t="s">
+        <v>72</v>
+      </c>
+      <c r="H132" t="s">
+        <v>78</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+      <c r="O132" t="s">
+        <v>146</v>
+      </c>
+      <c r="P132" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q132">
+        <v>2.88</v>
+      </c>
+      <c r="R132">
+        <v>2.1</v>
+      </c>
+      <c r="S132">
+        <v>4</v>
+      </c>
+      <c r="T132">
+        <v>1.44</v>
+      </c>
+      <c r="U132">
+        <v>2.63</v>
+      </c>
+      <c r="V132">
+        <v>3.25</v>
+      </c>
+      <c r="W132">
+        <v>1.33</v>
+      </c>
+      <c r="X132">
+        <v>9</v>
+      </c>
+      <c r="Y132">
+        <v>1.07</v>
+      </c>
+      <c r="Z132">
+        <v>2.1</v>
+      </c>
+      <c r="AA132">
+        <v>3.3</v>
+      </c>
+      <c r="AB132">
+        <v>3.1</v>
+      </c>
+      <c r="AC132">
+        <v>1.06</v>
+      </c>
+      <c r="AD132">
+        <v>7.2</v>
+      </c>
+      <c r="AE132">
+        <v>1.3</v>
+      </c>
+      <c r="AF132">
+        <v>3.2</v>
+      </c>
+      <c r="AG132">
+        <v>2.1</v>
+      </c>
+      <c r="AH132">
+        <v>1.7</v>
+      </c>
+      <c r="AI132">
+        <v>1.91</v>
+      </c>
+      <c r="AJ132">
+        <v>1.91</v>
+      </c>
+      <c r="AK132">
+        <v>1.28</v>
+      </c>
+      <c r="AL132">
+        <v>1.25</v>
+      </c>
+      <c r="AM132">
+        <v>1.75</v>
+      </c>
+      <c r="AN132">
+        <v>1.58</v>
+      </c>
+      <c r="AO132">
+        <v>0.67</v>
+      </c>
+      <c r="AP132">
+        <v>1.54</v>
+      </c>
+      <c r="AQ132">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR132">
+        <v>1.37</v>
+      </c>
+      <c r="AS132">
+        <v>1.17</v>
+      </c>
+      <c r="AT132">
+        <v>2.54</v>
+      </c>
+      <c r="AU132">
+        <v>5</v>
+      </c>
+      <c r="AV132">
+        <v>3</v>
+      </c>
+      <c r="AW132">
+        <v>6</v>
+      </c>
+      <c r="AX132">
+        <v>0</v>
+      </c>
+      <c r="AY132">
+        <v>11</v>
+      </c>
+      <c r="AZ132">
+        <v>3</v>
+      </c>
+      <c r="BA132">
+        <v>12</v>
+      </c>
+      <c r="BB132">
+        <v>0</v>
+      </c>
+      <c r="BC132">
+        <v>12</v>
+      </c>
+      <c r="BD132">
+        <v>1.62</v>
+      </c>
+      <c r="BE132">
+        <v>7.7</v>
+      </c>
+      <c r="BF132">
+        <v>2.91</v>
+      </c>
+      <c r="BG132">
+        <v>1.29</v>
+      </c>
+      <c r="BH132">
+        <v>3.3</v>
+      </c>
+      <c r="BI132">
+        <v>1.49</v>
+      </c>
+      <c r="BJ132">
+        <v>2.53</v>
+      </c>
+      <c r="BK132">
+        <v>2.25</v>
+      </c>
+      <c r="BL132">
+        <v>2</v>
+      </c>
+      <c r="BM132">
+        <v>2.3</v>
+      </c>
+      <c r="BN132">
+        <v>1.58</v>
+      </c>
+      <c r="BO132">
+        <v>2.88</v>
+      </c>
+      <c r="BP132">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7287145</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45515.625</v>
+      </c>
+      <c r="F133">
+        <v>27</v>
+      </c>
+      <c r="G133" t="s">
+        <v>74</v>
+      </c>
+      <c r="H133" t="s">
+        <v>75</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
+      <c r="O133" t="s">
+        <v>162</v>
+      </c>
+      <c r="P133" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q133">
+        <v>1.83</v>
+      </c>
+      <c r="R133">
+        <v>2.6</v>
+      </c>
+      <c r="S133">
+        <v>6</v>
+      </c>
+      <c r="T133">
+        <v>1.29</v>
+      </c>
+      <c r="U133">
+        <v>3.5</v>
+      </c>
+      <c r="V133">
+        <v>2.38</v>
+      </c>
+      <c r="W133">
+        <v>1.53</v>
+      </c>
+      <c r="X133">
+        <v>5.5</v>
+      </c>
+      <c r="Y133">
+        <v>1.14</v>
+      </c>
+      <c r="Z133">
+        <v>1.38</v>
+      </c>
+      <c r="AA133">
+        <v>4.75</v>
+      </c>
+      <c r="AB133">
+        <v>6.25</v>
+      </c>
+      <c r="AC133">
+        <v>1.03</v>
+      </c>
+      <c r="AD133">
+        <v>11</v>
+      </c>
+      <c r="AE133">
+        <v>1.16</v>
+      </c>
+      <c r="AF133">
+        <v>4.35</v>
+      </c>
+      <c r="AG133">
+        <v>1.53</v>
+      </c>
+      <c r="AH133">
+        <v>2.4</v>
+      </c>
+      <c r="AI133">
+        <v>1.75</v>
+      </c>
+      <c r="AJ133">
+        <v>2</v>
+      </c>
+      <c r="AK133">
+        <v>1.08</v>
+      </c>
+      <c r="AL133">
+        <v>1.13</v>
+      </c>
+      <c r="AM133">
+        <v>2.95</v>
+      </c>
+      <c r="AN133">
+        <v>1.73</v>
+      </c>
+      <c r="AO133">
+        <v>0.23</v>
+      </c>
+      <c r="AP133">
+        <v>1.67</v>
+      </c>
+      <c r="AQ133">
+        <v>0.29</v>
+      </c>
+      <c r="AR133">
+        <v>1.84</v>
+      </c>
+      <c r="AS133">
+        <v>1.16</v>
+      </c>
+      <c r="AT133">
+        <v>3</v>
+      </c>
+      <c r="AU133">
+        <v>4</v>
+      </c>
+      <c r="AV133">
+        <v>5</v>
+      </c>
+      <c r="AW133">
+        <v>4</v>
+      </c>
+      <c r="AX133">
+        <v>6</v>
+      </c>
+      <c r="AY133">
+        <v>8</v>
+      </c>
+      <c r="AZ133">
+        <v>11</v>
+      </c>
+      <c r="BA133">
+        <v>6</v>
+      </c>
+      <c r="BB133">
+        <v>2</v>
+      </c>
+      <c r="BC133">
+        <v>8</v>
+      </c>
+      <c r="BD133">
+        <v>1.2</v>
+      </c>
+      <c r="BE133">
+        <v>10.5</v>
+      </c>
+      <c r="BF133">
+        <v>6.17</v>
+      </c>
+      <c r="BG133">
+        <v>1.25</v>
+      </c>
+      <c r="BH133">
+        <v>3.6</v>
+      </c>
+      <c r="BI133">
+        <v>1.4</v>
+      </c>
+      <c r="BJ133">
+        <v>2.7</v>
+      </c>
+      <c r="BK133">
+        <v>2.38</v>
+      </c>
+      <c r="BL133">
+        <v>1.95</v>
+      </c>
+      <c r="BM133">
+        <v>2.09</v>
+      </c>
+      <c r="BN133">
+        <v>1.71</v>
+      </c>
+      <c r="BO133">
+        <v>2.6</v>
+      </c>
+      <c r="BP133">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="226">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -503,6 +503,12 @@
   </si>
   <si>
     <t>['6']</t>
+  </si>
+  <si>
+    <t>['4', '11', '37', '59', '61', '76', '90+1']</t>
+  </si>
+  <si>
+    <t>['14']</t>
   </si>
   <si>
     <t>['23', '45+2']</t>
@@ -1047,7 +1053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP133"/>
+  <dimension ref="A1:BP136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1306,7 +1312,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1387,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1512,7 +1518,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1924,7 +1930,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2002,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ5">
         <v>1.77</v>
@@ -2336,7 +2342,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2414,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>1.43</v>
@@ -2542,7 +2548,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2748,7 +2754,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2826,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ9">
         <v>1.38</v>
@@ -3035,7 +3041,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ10">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3241,7 +3247,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ11">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3366,7 +3372,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3572,7 +3578,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3778,7 +3784,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4062,10 +4068,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR15">
         <v>1.32</v>
@@ -4190,7 +4196,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4271,7 +4277,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ16">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR16">
         <v>1.48</v>
@@ -4474,7 +4480,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ17">
         <v>1.38</v>
@@ -4602,7 +4608,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4680,7 +4686,7 @@
         <v>1.5</v>
       </c>
       <c r="AP18">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ18">
         <v>0.6899999999999999</v>
@@ -4808,7 +4814,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -4889,7 +4895,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ19">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR19">
         <v>1.24</v>
@@ -5220,7 +5226,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -6044,7 +6050,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6662,7 +6668,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6743,7 +6749,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -7358,7 +7364,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
         <v>0.6899999999999999</v>
@@ -7564,7 +7570,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ32">
         <v>0.5</v>
@@ -7692,7 +7698,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7770,10 +7776,10 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ33">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR33">
         <v>1.43</v>
@@ -7898,7 +7904,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -7979,7 +7985,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ34">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR34">
         <v>1.27</v>
@@ -8310,7 +8316,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8388,7 +8394,7 @@
         <v>1.33</v>
       </c>
       <c r="AP36">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ36">
         <v>1.38</v>
@@ -8597,7 +8603,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ37">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR37">
         <v>1.47</v>
@@ -8800,10 +8806,10 @@
         <v>0.67</v>
       </c>
       <c r="AP38">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ38">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR38">
         <v>0.99</v>
@@ -8928,7 +8934,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9009,7 +9015,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ39">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR39">
         <v>1.28</v>
@@ -9134,7 +9140,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9340,7 +9346,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9546,7 +9552,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9624,7 +9630,7 @@
         <v>2.5</v>
       </c>
       <c r="AP42">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
         <v>1.77</v>
@@ -9752,7 +9758,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9958,7 +9964,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10036,10 +10042,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ44">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR44">
         <v>0.87</v>
@@ -10164,7 +10170,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10242,10 +10248,10 @@
         <v>0.75</v>
       </c>
       <c r="AP45">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR45">
         <v>1.32</v>
@@ -10654,7 +10660,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ47">
         <v>1.38</v>
@@ -10863,7 +10869,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ48">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR48">
         <v>1.59</v>
@@ -11400,7 +11406,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11606,7 +11612,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12714,7 +12720,7 @@
         <v>1.67</v>
       </c>
       <c r="AP57">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ57">
         <v>1.38</v>
@@ -12920,10 +12926,10 @@
         <v>1.4</v>
       </c>
       <c r="AP58">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR58">
         <v>1.29</v>
@@ -13129,7 +13135,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ59">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR59">
         <v>1.21</v>
@@ -13332,7 +13338,7 @@
         <v>0.83</v>
       </c>
       <c r="AP60">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ60">
         <v>0.6899999999999999</v>
@@ -13460,7 +13466,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13538,10 +13544,10 @@
         <v>0.8</v>
       </c>
       <c r="AP61">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ61">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR61">
         <v>1.27</v>
@@ -13666,7 +13672,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14159,7 +14165,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ64">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR64">
         <v>1.34</v>
@@ -14696,7 +14702,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14902,7 +14908,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15108,7 +15114,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15186,7 +15192,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69">
         <v>0.5</v>
@@ -15520,7 +15526,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -16138,7 +16144,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16425,7 +16431,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ75">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR75">
         <v>1.23</v>
@@ -16628,7 +16634,7 @@
         <v>0.29</v>
       </c>
       <c r="AP76">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ76">
         <v>0.29</v>
@@ -16837,7 +16843,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ77">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR77">
         <v>1.34</v>
@@ -16962,7 +16968,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17040,7 +17046,7 @@
         <v>0.29</v>
       </c>
       <c r="AP78">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ78">
         <v>0.5</v>
@@ -17246,7 +17252,7 @@
         <v>1.75</v>
       </c>
       <c r="AP79">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ79">
         <v>1.43</v>
@@ -17374,7 +17380,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17455,7 +17461,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ80">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR80">
         <v>1.43</v>
@@ -17580,7 +17586,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17661,7 +17667,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ81">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR81">
         <v>1.3</v>
@@ -17786,7 +17792,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -17864,7 +17870,7 @@
         <v>1.71</v>
       </c>
       <c r="AP82">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ82">
         <v>1.38</v>
@@ -18198,7 +18204,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18485,7 +18491,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ85">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR85">
         <v>1.91</v>
@@ -18610,7 +18616,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18688,7 +18694,7 @@
         <v>0.38</v>
       </c>
       <c r="AP86">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ86">
         <v>0.29</v>
@@ -18816,7 +18822,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19022,7 +19028,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -19103,7 +19109,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ88">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR88">
         <v>1.38</v>
@@ -19434,7 +19440,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19718,10 +19724,10 @@
         <v>1.5</v>
       </c>
       <c r="AP91">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ91">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR91">
         <v>1.23</v>
@@ -19846,7 +19852,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q92">
         <v>2.2</v>
@@ -19924,10 +19930,10 @@
         <v>1.13</v>
       </c>
       <c r="AP92">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ92">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR92">
         <v>1.31</v>
@@ -20052,7 +20058,7 @@
         <v>82</v>
       </c>
       <c r="P93" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q93">
         <v>5.5</v>
@@ -20130,7 +20136,7 @@
         <v>1.33</v>
       </c>
       <c r="AP93">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93">
         <v>1.38</v>
@@ -20339,7 +20345,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ94">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR94">
         <v>1.35</v>
@@ -20464,7 +20470,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q95">
         <v>3.2</v>
@@ -20670,7 +20676,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20876,7 +20882,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21572,7 +21578,7 @@
         <v>0.7</v>
       </c>
       <c r="AP100">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ100">
         <v>0.6899999999999999</v>
@@ -21778,7 +21784,7 @@
         <v>0.5</v>
       </c>
       <c r="AP101">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ101">
         <v>0.5</v>
@@ -21906,7 +21912,7 @@
         <v>143</v>
       </c>
       <c r="P102" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q102">
         <v>2.75</v>
@@ -21984,10 +21990,10 @@
         <v>1.33</v>
       </c>
       <c r="AP102">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ102">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR102">
         <v>1.23</v>
@@ -22112,7 +22118,7 @@
         <v>82</v>
       </c>
       <c r="P103" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -22190,7 +22196,7 @@
         <v>1.9</v>
       </c>
       <c r="AP103">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ103">
         <v>1.77</v>
@@ -22318,7 +22324,7 @@
         <v>144</v>
       </c>
       <c r="P104" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22524,7 +22530,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q105">
         <v>4.5</v>
@@ -22605,7 +22611,7 @@
         <v>1</v>
       </c>
       <c r="AQ105">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR105">
         <v>1.19</v>
@@ -23017,7 +23023,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ107">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR107">
         <v>1.35</v>
@@ -23632,7 +23638,7 @@
         <v>1.5</v>
       </c>
       <c r="AP110">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ110">
         <v>1.38</v>
@@ -24047,7 +24053,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ112">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR112">
         <v>1.37</v>
@@ -24172,7 +24178,7 @@
         <v>117</v>
       </c>
       <c r="P113" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -24250,7 +24256,7 @@
         <v>2</v>
       </c>
       <c r="AP113">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ113">
         <v>1.77</v>
@@ -24459,7 +24465,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ114">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR114">
         <v>1.33</v>
@@ -24584,7 +24590,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q115">
         <v>2.88</v>
@@ -24665,7 +24671,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ115">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR115">
         <v>1.34</v>
@@ -24868,7 +24874,7 @@
         <v>0.73</v>
       </c>
       <c r="AP116">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ116">
         <v>0.6899999999999999</v>
@@ -25202,7 +25208,7 @@
         <v>82</v>
       </c>
       <c r="P118" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25283,7 +25289,7 @@
         <v>1</v>
       </c>
       <c r="AQ118">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR118">
         <v>1.15</v>
@@ -25408,7 +25414,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25898,7 +25904,7 @@
         <v>1.42</v>
       </c>
       <c r="AP121">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ121">
         <v>1.43</v>
@@ -26026,7 +26032,7 @@
         <v>156</v>
       </c>
       <c r="P122" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26438,7 +26444,7 @@
         <v>158</v>
       </c>
       <c r="P124" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q124">
         <v>3.75</v>
@@ -26516,10 +26522,10 @@
         <v>1.27</v>
       </c>
       <c r="AP124">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ124">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR124">
         <v>1.39</v>
@@ -26644,7 +26650,7 @@
         <v>82</v>
       </c>
       <c r="P125" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26850,7 +26856,7 @@
         <v>152</v>
       </c>
       <c r="P126" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q126">
         <v>4.75</v>
@@ -26928,7 +26934,7 @@
         <v>1.25</v>
       </c>
       <c r="AP126">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ126">
         <v>1.38</v>
@@ -27056,7 +27062,7 @@
         <v>159</v>
       </c>
       <c r="P127" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27137,7 +27143,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ127">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR127">
         <v>1.41</v>
@@ -27340,10 +27346,10 @@
         <v>1.25</v>
       </c>
       <c r="AP128">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AQ128">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR128">
         <v>1.33</v>
@@ -27468,7 +27474,7 @@
         <v>100</v>
       </c>
       <c r="P129" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q129">
         <v>1.73</v>
@@ -27674,7 +27680,7 @@
         <v>160</v>
       </c>
       <c r="P130" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q130">
         <v>2.38</v>
@@ -27880,7 +27886,7 @@
         <v>161</v>
       </c>
       <c r="P131" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -28086,7 +28092,7 @@
         <v>146</v>
       </c>
       <c r="P132" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28292,7 +28298,7 @@
         <v>162</v>
       </c>
       <c r="P133" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q133">
         <v>1.83</v>
@@ -28449,6 +28455,624 @@
       </c>
       <c r="BP133">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7287147</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45527.65625</v>
+      </c>
+      <c r="F134">
+        <v>28</v>
+      </c>
+      <c r="G134" t="s">
+        <v>75</v>
+      </c>
+      <c r="H134" t="s">
+        <v>79</v>
+      </c>
+      <c r="I134">
+        <v>3</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>3</v>
+      </c>
+      <c r="L134">
+        <v>7</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>7</v>
+      </c>
+      <c r="O134" t="s">
+        <v>163</v>
+      </c>
+      <c r="P134" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q134">
+        <v>2.88</v>
+      </c>
+      <c r="R134">
+        <v>2.1</v>
+      </c>
+      <c r="S134">
+        <v>4</v>
+      </c>
+      <c r="T134">
+        <v>1.37</v>
+      </c>
+      <c r="U134">
+        <v>2.85</v>
+      </c>
+      <c r="V134">
+        <v>2.7</v>
+      </c>
+      <c r="W134">
+        <v>1.41</v>
+      </c>
+      <c r="X134">
+        <v>6.45</v>
+      </c>
+      <c r="Y134">
+        <v>1.09</v>
+      </c>
+      <c r="Z134">
+        <v>2.1</v>
+      </c>
+      <c r="AA134">
+        <v>3.2</v>
+      </c>
+      <c r="AB134">
+        <v>3.25</v>
+      </c>
+      <c r="AC134">
+        <v>1.01</v>
+      </c>
+      <c r="AD134">
+        <v>9.5</v>
+      </c>
+      <c r="AE134">
+        <v>1.28</v>
+      </c>
+      <c r="AF134">
+        <v>3.5</v>
+      </c>
+      <c r="AG134">
+        <v>2</v>
+      </c>
+      <c r="AH134">
+        <v>1.8</v>
+      </c>
+      <c r="AI134">
+        <v>1.8</v>
+      </c>
+      <c r="AJ134">
+        <v>1.95</v>
+      </c>
+      <c r="AK134">
+        <v>1.3</v>
+      </c>
+      <c r="AL134">
+        <v>1.25</v>
+      </c>
+      <c r="AM134">
+        <v>1.7</v>
+      </c>
+      <c r="AN134">
+        <v>1.38</v>
+      </c>
+      <c r="AO134">
+        <v>1.15</v>
+      </c>
+      <c r="AP134">
+        <v>1.5</v>
+      </c>
+      <c r="AQ134">
+        <v>1.07</v>
+      </c>
+      <c r="AR134">
+        <v>1.42</v>
+      </c>
+      <c r="AS134">
+        <v>1.04</v>
+      </c>
+      <c r="AT134">
+        <v>2.46</v>
+      </c>
+      <c r="AU134">
+        <v>15</v>
+      </c>
+      <c r="AV134">
+        <v>3</v>
+      </c>
+      <c r="AW134">
+        <v>4</v>
+      </c>
+      <c r="AX134">
+        <v>2</v>
+      </c>
+      <c r="AY134">
+        <v>19</v>
+      </c>
+      <c r="AZ134">
+        <v>5</v>
+      </c>
+      <c r="BA134">
+        <v>7</v>
+      </c>
+      <c r="BB134">
+        <v>4</v>
+      </c>
+      <c r="BC134">
+        <v>11</v>
+      </c>
+      <c r="BD134">
+        <v>1.84</v>
+      </c>
+      <c r="BE134">
+        <v>7.1</v>
+      </c>
+      <c r="BF134">
+        <v>2.47</v>
+      </c>
+      <c r="BG134">
+        <v>1.3</v>
+      </c>
+      <c r="BH134">
+        <v>3.08</v>
+      </c>
+      <c r="BI134">
+        <v>1.57</v>
+      </c>
+      <c r="BJ134">
+        <v>2.25</v>
+      </c>
+      <c r="BK134">
+        <v>2</v>
+      </c>
+      <c r="BL134">
+        <v>1.76</v>
+      </c>
+      <c r="BM134">
+        <v>2.62</v>
+      </c>
+      <c r="BN134">
+        <v>1.43</v>
+      </c>
+      <c r="BO134">
+        <v>3.56</v>
+      </c>
+      <c r="BP134">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7287149</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45527.65625</v>
+      </c>
+      <c r="F135">
+        <v>28</v>
+      </c>
+      <c r="G135" t="s">
+        <v>77</v>
+      </c>
+      <c r="H135" t="s">
+        <v>70</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
+        <v>2</v>
+      </c>
+      <c r="O135" t="s">
+        <v>164</v>
+      </c>
+      <c r="P135" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q135">
+        <v>2.88</v>
+      </c>
+      <c r="R135">
+        <v>1.95</v>
+      </c>
+      <c r="S135">
+        <v>4.5</v>
+      </c>
+      <c r="T135">
+        <v>1.47</v>
+      </c>
+      <c r="U135">
+        <v>2.5</v>
+      </c>
+      <c r="V135">
+        <v>3.15</v>
+      </c>
+      <c r="W135">
+        <v>1.32</v>
+      </c>
+      <c r="X135">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y135">
+        <v>1.04</v>
+      </c>
+      <c r="Z135">
+        <v>2.05</v>
+      </c>
+      <c r="AA135">
+        <v>3</v>
+      </c>
+      <c r="AB135">
+        <v>3.6</v>
+      </c>
+      <c r="AC135">
+        <v>1.04</v>
+      </c>
+      <c r="AD135">
+        <v>7.5</v>
+      </c>
+      <c r="AE135">
+        <v>1.36</v>
+      </c>
+      <c r="AF135">
+        <v>2.8</v>
+      </c>
+      <c r="AG135">
+        <v>2.5</v>
+      </c>
+      <c r="AH135">
+        <v>1.5</v>
+      </c>
+      <c r="AI135">
+        <v>2.05</v>
+      </c>
+      <c r="AJ135">
+        <v>1.7</v>
+      </c>
+      <c r="AK135">
+        <v>1.25</v>
+      </c>
+      <c r="AL135">
+        <v>1.33</v>
+      </c>
+      <c r="AM135">
+        <v>1.85</v>
+      </c>
+      <c r="AN135">
+        <v>1.92</v>
+      </c>
+      <c r="AO135">
+        <v>1.25</v>
+      </c>
+      <c r="AP135">
+        <v>1.86</v>
+      </c>
+      <c r="AQ135">
+        <v>1.23</v>
+      </c>
+      <c r="AR135">
+        <v>1.29</v>
+      </c>
+      <c r="AS135">
+        <v>1.19</v>
+      </c>
+      <c r="AT135">
+        <v>2.48</v>
+      </c>
+      <c r="AU135">
+        <v>5</v>
+      </c>
+      <c r="AV135">
+        <v>6</v>
+      </c>
+      <c r="AW135">
+        <v>3</v>
+      </c>
+      <c r="AX135">
+        <v>7</v>
+      </c>
+      <c r="AY135">
+        <v>8</v>
+      </c>
+      <c r="AZ135">
+        <v>13</v>
+      </c>
+      <c r="BA135">
+        <v>1</v>
+      </c>
+      <c r="BB135">
+        <v>1</v>
+      </c>
+      <c r="BC135">
+        <v>2</v>
+      </c>
+      <c r="BD135">
+        <v>1.65</v>
+      </c>
+      <c r="BE135">
+        <v>6.8</v>
+      </c>
+      <c r="BF135">
+        <v>3</v>
+      </c>
+      <c r="BG135">
+        <v>1.24</v>
+      </c>
+      <c r="BH135">
+        <v>3.48</v>
+      </c>
+      <c r="BI135">
+        <v>1.47</v>
+      </c>
+      <c r="BJ135">
+        <v>2.49</v>
+      </c>
+      <c r="BK135">
+        <v>2.25</v>
+      </c>
+      <c r="BL135">
+        <v>1.91</v>
+      </c>
+      <c r="BM135">
+        <v>2.34</v>
+      </c>
+      <c r="BN135">
+        <v>1.53</v>
+      </c>
+      <c r="BO135">
+        <v>3.08</v>
+      </c>
+      <c r="BP135">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7287150</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45527.65625</v>
+      </c>
+      <c r="F136">
+        <v>28</v>
+      </c>
+      <c r="G136" t="s">
+        <v>73</v>
+      </c>
+      <c r="H136" t="s">
+        <v>71</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136" t="s">
+        <v>82</v>
+      </c>
+      <c r="P136" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q136">
+        <v>5</v>
+      </c>
+      <c r="R136">
+        <v>2.2</v>
+      </c>
+      <c r="S136">
+        <v>2.38</v>
+      </c>
+      <c r="T136">
+        <v>1.44</v>
+      </c>
+      <c r="U136">
+        <v>2.6</v>
+      </c>
+      <c r="V136">
+        <v>2.95</v>
+      </c>
+      <c r="W136">
+        <v>1.35</v>
+      </c>
+      <c r="X136">
+        <v>7.4</v>
+      </c>
+      <c r="Y136">
+        <v>1.06</v>
+      </c>
+      <c r="Z136">
+        <v>4.5</v>
+      </c>
+      <c r="AA136">
+        <v>3.5</v>
+      </c>
+      <c r="AB136">
+        <v>1.7</v>
+      </c>
+      <c r="AC136">
+        <v>1.06</v>
+      </c>
+      <c r="AD136">
+        <v>8.5</v>
+      </c>
+      <c r="AE136">
+        <v>1.33</v>
+      </c>
+      <c r="AF136">
+        <v>3.1</v>
+      </c>
+      <c r="AG136">
+        <v>2</v>
+      </c>
+      <c r="AH136">
+        <v>1.8</v>
+      </c>
+      <c r="AI136">
+        <v>1.95</v>
+      </c>
+      <c r="AJ136">
+        <v>1.8</v>
+      </c>
+      <c r="AK136">
+        <v>1.95</v>
+      </c>
+      <c r="AL136">
+        <v>1.22</v>
+      </c>
+      <c r="AM136">
+        <v>1.17</v>
+      </c>
+      <c r="AN136">
+        <v>1.54</v>
+      </c>
+      <c r="AO136">
+        <v>1.23</v>
+      </c>
+      <c r="AP136">
+        <v>1.43</v>
+      </c>
+      <c r="AQ136">
+        <v>1.36</v>
+      </c>
+      <c r="AR136">
+        <v>1.28</v>
+      </c>
+      <c r="AS136">
+        <v>1.37</v>
+      </c>
+      <c r="AT136">
+        <v>2.65</v>
+      </c>
+      <c r="AU136">
+        <v>2</v>
+      </c>
+      <c r="AV136">
+        <v>2</v>
+      </c>
+      <c r="AW136">
+        <v>2</v>
+      </c>
+      <c r="AX136">
+        <v>7</v>
+      </c>
+      <c r="AY136">
+        <v>4</v>
+      </c>
+      <c r="AZ136">
+        <v>9</v>
+      </c>
+      <c r="BA136">
+        <v>5</v>
+      </c>
+      <c r="BB136">
+        <v>5</v>
+      </c>
+      <c r="BC136">
+        <v>10</v>
+      </c>
+      <c r="BD136">
+        <v>3.6</v>
+      </c>
+      <c r="BE136">
+        <v>7.2</v>
+      </c>
+      <c r="BF136">
+        <v>1.48</v>
+      </c>
+      <c r="BG136">
+        <v>1.23</v>
+      </c>
+      <c r="BH136">
+        <v>3.56</v>
+      </c>
+      <c r="BI136">
+        <v>1.45</v>
+      </c>
+      <c r="BJ136">
+        <v>2.55</v>
+      </c>
+      <c r="BK136">
+        <v>2.2</v>
+      </c>
+      <c r="BL136">
+        <v>1.95</v>
+      </c>
+      <c r="BM136">
+        <v>2.29</v>
+      </c>
+      <c r="BN136">
+        <v>1.55</v>
+      </c>
+      <c r="BO136">
+        <v>3.04</v>
+      </c>
+      <c r="BP136">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="227">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -509,6 +509,9 @@
   </si>
   <si>
     <t>['14']</t>
+  </si>
+  <si>
+    <t>['88']</t>
   </si>
   <si>
     <t>['23', '45+2']</t>
@@ -1053,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP136"/>
+  <dimension ref="A1:BP137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1312,7 +1315,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1518,7 +1521,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1930,7 +1933,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2214,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ6">
         <v>0.5</v>
@@ -2342,7 +2345,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2548,7 +2551,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2629,7 +2632,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ8">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2754,7 +2757,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3372,7 +3375,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3578,7 +3581,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3784,7 +3787,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4196,7 +4199,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4483,7 +4486,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ17">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR17">
         <v>1.23</v>
@@ -4608,7 +4611,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4814,7 +4817,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -4892,7 +4895,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ19">
         <v>1.36</v>
@@ -5226,7 +5229,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -6050,7 +6053,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6668,7 +6671,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -7161,7 +7164,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ30">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7698,7 +7701,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7904,7 +7907,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -7982,7 +7985,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ34">
         <v>1.23</v>
@@ -8316,7 +8319,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8934,7 +8937,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9140,7 +9143,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9346,7 +9349,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9552,7 +9555,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9758,7 +9761,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9964,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10170,7 +10173,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10663,7 +10666,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ47">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR47">
         <v>1.3</v>
@@ -10866,7 +10869,7 @@
         <v>1.75</v>
       </c>
       <c r="AP48">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ48">
         <v>1.07</v>
@@ -11406,7 +11409,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11612,7 +11615,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12311,7 +12314,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ55">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR55">
         <v>1.35</v>
@@ -13466,7 +13469,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13672,7 +13675,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13750,10 +13753,10 @@
         <v>1.6</v>
       </c>
       <c r="AP62">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ62">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR62">
         <v>1.75</v>
@@ -13956,7 +13959,7 @@
         <v>0.4</v>
       </c>
       <c r="AP63">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ63">
         <v>0.29</v>
@@ -14702,7 +14705,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14908,7 +14911,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15114,7 +15117,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15401,7 +15404,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR70">
         <v>1.06</v>
@@ -15526,7 +15529,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -15604,7 +15607,7 @@
         <v>1.57</v>
       </c>
       <c r="AP71">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ71">
         <v>1.43</v>
@@ -16144,7 +16147,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16222,7 +16225,7 @@
         <v>0.63</v>
       </c>
       <c r="AP74">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ74">
         <v>0.6899999999999999</v>
@@ -16968,7 +16971,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17380,7 +17383,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17586,7 +17589,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17792,7 +17795,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -17873,7 +17876,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ82">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR82">
         <v>1.34</v>
@@ -18204,7 +18207,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18488,7 +18491,7 @@
         <v>1.38</v>
       </c>
       <c r="AP85">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ85">
         <v>1.36</v>
@@ -18616,7 +18619,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18822,7 +18825,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19028,7 +19031,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -19440,7 +19443,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19518,7 +19521,7 @@
         <v>1.78</v>
       </c>
       <c r="AP90">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ90">
         <v>1.77</v>
@@ -19852,7 +19855,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q92">
         <v>2.2</v>
@@ -20058,7 +20061,7 @@
         <v>82</v>
       </c>
       <c r="P93" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q93">
         <v>5.5</v>
@@ -20470,7 +20473,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q95">
         <v>3.2</v>
@@ -20551,7 +20554,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ95">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR95">
         <v>1.44</v>
@@ -20676,7 +20679,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20882,7 +20885,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21375,7 +21378,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ99">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR99">
         <v>1.5</v>
@@ -21912,7 +21915,7 @@
         <v>143</v>
       </c>
       <c r="P102" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q102">
         <v>2.75</v>
@@ -22118,7 +22121,7 @@
         <v>82</v>
       </c>
       <c r="P103" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -22324,7 +22327,7 @@
         <v>144</v>
       </c>
       <c r="P104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22530,7 +22533,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q105">
         <v>4.5</v>
@@ -23641,7 +23644,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ110">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR110">
         <v>1.37</v>
@@ -24178,7 +24181,7 @@
         <v>117</v>
       </c>
       <c r="P113" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -24590,7 +24593,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q115">
         <v>2.88</v>
@@ -25080,7 +25083,7 @@
         <v>0.45</v>
       </c>
       <c r="AP117">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ117">
         <v>0.5</v>
@@ -25208,7 +25211,7 @@
         <v>82</v>
       </c>
       <c r="P118" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25414,7 +25417,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -26032,7 +26035,7 @@
         <v>156</v>
       </c>
       <c r="P122" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26319,7 +26322,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ123">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR123">
         <v>1.31</v>
@@ -26444,7 +26447,7 @@
         <v>158</v>
       </c>
       <c r="P124" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q124">
         <v>3.75</v>
@@ -26650,7 +26653,7 @@
         <v>82</v>
       </c>
       <c r="P125" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26731,7 +26734,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ125">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR125">
         <v>1.36</v>
@@ -26856,7 +26859,7 @@
         <v>152</v>
       </c>
       <c r="P126" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q126">
         <v>4.75</v>
@@ -27062,7 +27065,7 @@
         <v>159</v>
       </c>
       <c r="P127" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27474,7 +27477,7 @@
         <v>100</v>
       </c>
       <c r="P129" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q129">
         <v>1.73</v>
@@ -27680,7 +27683,7 @@
         <v>160</v>
       </c>
       <c r="P130" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q130">
         <v>2.38</v>
@@ -27886,7 +27889,7 @@
         <v>161</v>
       </c>
       <c r="P131" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -28092,7 +28095,7 @@
         <v>146</v>
       </c>
       <c r="P132" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28298,7 +28301,7 @@
         <v>162</v>
       </c>
       <c r="P133" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q133">
         <v>1.83</v>
@@ -28376,7 +28379,7 @@
         <v>0.23</v>
       </c>
       <c r="AP133">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ133">
         <v>0.29</v>
@@ -28710,7 +28713,7 @@
         <v>164</v>
       </c>
       <c r="P135" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29073,6 +29076,212 @@
       </c>
       <c r="BP136">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7287151</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45529.625</v>
+      </c>
+      <c r="F137">
+        <v>28</v>
+      </c>
+      <c r="G137" t="s">
+        <v>74</v>
+      </c>
+      <c r="H137" t="s">
+        <v>72</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>165</v>
+      </c>
+      <c r="P137" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q137">
+        <v>2.75</v>
+      </c>
+      <c r="R137">
+        <v>2.1</v>
+      </c>
+      <c r="S137">
+        <v>4.33</v>
+      </c>
+      <c r="T137">
+        <v>1.44</v>
+      </c>
+      <c r="U137">
+        <v>2.67</v>
+      </c>
+      <c r="V137">
+        <v>3.05</v>
+      </c>
+      <c r="W137">
+        <v>1.35</v>
+      </c>
+      <c r="X137">
+        <v>7.9</v>
+      </c>
+      <c r="Y137">
+        <v>1.06</v>
+      </c>
+      <c r="Z137">
+        <v>2</v>
+      </c>
+      <c r="AA137">
+        <v>3.25</v>
+      </c>
+      <c r="AB137">
+        <v>3.5</v>
+      </c>
+      <c r="AC137">
+        <v>1.07</v>
+      </c>
+      <c r="AD137">
+        <v>6.8</v>
+      </c>
+      <c r="AE137">
+        <v>1.3</v>
+      </c>
+      <c r="AF137">
+        <v>3.2</v>
+      </c>
+      <c r="AG137">
+        <v>2.05</v>
+      </c>
+      <c r="AH137">
+        <v>1.75</v>
+      </c>
+      <c r="AI137">
+        <v>1.91</v>
+      </c>
+      <c r="AJ137">
+        <v>1.91</v>
+      </c>
+      <c r="AK137">
+        <v>1.13</v>
+      </c>
+      <c r="AL137">
+        <v>1.28</v>
+      </c>
+      <c r="AM137">
+        <v>2</v>
+      </c>
+      <c r="AN137">
+        <v>1.67</v>
+      </c>
+      <c r="AO137">
+        <v>1.38</v>
+      </c>
+      <c r="AP137">
+        <v>1.62</v>
+      </c>
+      <c r="AQ137">
+        <v>1.36</v>
+      </c>
+      <c r="AR137">
+        <v>1.78</v>
+      </c>
+      <c r="AS137">
+        <v>1.22</v>
+      </c>
+      <c r="AT137">
+        <v>3</v>
+      </c>
+      <c r="AU137">
+        <v>7</v>
+      </c>
+      <c r="AV137">
+        <v>3</v>
+      </c>
+      <c r="AW137">
+        <v>6</v>
+      </c>
+      <c r="AX137">
+        <v>3</v>
+      </c>
+      <c r="AY137">
+        <v>13</v>
+      </c>
+      <c r="AZ137">
+        <v>6</v>
+      </c>
+      <c r="BA137">
+        <v>4</v>
+      </c>
+      <c r="BB137">
+        <v>3</v>
+      </c>
+      <c r="BC137">
+        <v>7</v>
+      </c>
+      <c r="BD137">
+        <v>1.42</v>
+      </c>
+      <c r="BE137">
+        <v>7.6</v>
+      </c>
+      <c r="BF137">
+        <v>3.88</v>
+      </c>
+      <c r="BG137">
+        <v>1.25</v>
+      </c>
+      <c r="BH137">
+        <v>3.6</v>
+      </c>
+      <c r="BI137">
+        <v>1.35</v>
+      </c>
+      <c r="BJ137">
+        <v>2.84</v>
+      </c>
+      <c r="BK137">
+        <v>2</v>
+      </c>
+      <c r="BL137">
+        <v>2.12</v>
+      </c>
+      <c r="BM137">
+        <v>2.12</v>
+      </c>
+      <c r="BN137">
+        <v>1.69</v>
+      </c>
+      <c r="BO137">
+        <v>2.72</v>
+      </c>
+      <c r="BP137">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -427,10 +427,10 @@
     <t>['9', '71']</t>
   </si>
   <si>
-    <t>['58']</t>
+    <t>['35', '88']</t>
   </si>
   <si>
-    <t>['35', '88']</t>
+    <t>['58']</t>
   </si>
   <si>
     <t>['19', '43']</t>
@@ -442,34 +442,34 @@
     <t>['11', '21', '30']</t>
   </si>
   <si>
+    <t>['25', '60', '67', '87']</t>
+  </si>
+  <si>
     <t>['65', '86']</t>
   </si>
   <si>
-    <t>['25', '60', '67', '87']</t>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['7', '61', '90+3']</t>
   </si>
   <si>
     <t>['76', '90+6']</t>
   </si>
   <si>
-    <t>['7', '61', '90+3']</t>
+    <t>['74', '84']</t>
   </si>
   <si>
-    <t>['54']</t>
+    <t>['11', '36']</t>
   </si>
   <si>
     <t>['6', '30', '57', '67', '88']</t>
   </si>
   <si>
-    <t>['11', '36']</t>
-  </si>
-  <si>
-    <t>['74', '84']</t>
+    <t>['50']</t>
   </si>
   <si>
     <t>['61', '89']</t>
-  </si>
-  <si>
-    <t>['50']</t>
   </si>
   <si>
     <t>['52']</t>
@@ -481,10 +481,10 @@
     <t>['8', '16', '55', '85']</t>
   </si>
   <si>
-    <t>['15', '90']</t>
+    <t>['19']</t>
   </si>
   <si>
-    <t>['19']</t>
+    <t>['15', '90']</t>
   </si>
   <si>
     <t>['34', '90+6']</t>
@@ -637,13 +637,13 @@
     <t>['19', '58']</t>
   </si>
   <si>
-    <t>['22', '69']</t>
+    <t>['69']</t>
   </si>
   <si>
     <t>['47', '52']</t>
   </si>
   <si>
-    <t>['69']</t>
+    <t>['22', '69']</t>
   </si>
   <si>
     <t>['2', '4', '22']</t>
@@ -652,22 +652,25 @@
     <t>['86']</t>
   </si>
   <si>
-    <t>['32']</t>
+    <t>['17', '90+4']</t>
   </si>
   <si>
-    <t>['17', '90+4']</t>
+    <t>['32']</t>
   </si>
   <si>
     <t>['20']</t>
   </si>
   <si>
+    <t>['37', '90+3']</t>
+  </si>
+  <si>
     <t>['36', '90+6']</t>
   </si>
   <si>
-    <t>['37', '90+3']</t>
+    <t>['27']</t>
   </si>
   <si>
-    <t>['27']</t>
+    <t>['9', '85']</t>
   </si>
   <si>
     <t>['18', '22']</t>
@@ -676,16 +679,13 @@
     <t>['53', '87']</t>
   </si>
   <si>
-    <t>['9', '85']</t>
-  </si>
-  <si>
     <t>['22', '53']</t>
   </si>
   <si>
-    <t>['21']</t>
+    <t>['46', '62', '81']</t>
   </si>
   <si>
-    <t>['46', '62', '81']</t>
+    <t>['21']</t>
   </si>
   <si>
     <t>['56']</t>
@@ -6877,7 +6877,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -12439,7 +12439,7 @@
         <v>113</v>
       </c>
       <c r="P56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -19813,7 +19813,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>7287099</v>
+        <v>7287100</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -19828,25 +19828,25 @@
         <v>18</v>
       </c>
       <c r="G92" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H92" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92">
         <v>1</v>
       </c>
       <c r="L92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N92">
         <v>3</v>
@@ -19858,160 +19858,160 @@
         <v>207</v>
       </c>
       <c r="Q92">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="R92">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="T92">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="U92">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="V92">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="W92">
+        <v>1.3</v>
+      </c>
+      <c r="X92">
+        <v>8.9</v>
+      </c>
+      <c r="Y92">
+        <v>1.04</v>
+      </c>
+      <c r="Z92">
+        <v>2.35</v>
+      </c>
+      <c r="AA92">
+        <v>3.26</v>
+      </c>
+      <c r="AB92">
+        <v>3.1</v>
+      </c>
+      <c r="AC92">
+        <v>1.04</v>
+      </c>
+      <c r="AD92">
+        <v>7.3</v>
+      </c>
+      <c r="AE92">
+        <v>1.42</v>
+      </c>
+      <c r="AF92">
+        <v>2.75</v>
+      </c>
+      <c r="AG92">
+        <v>2.15</v>
+      </c>
+      <c r="AH92">
+        <v>1.65</v>
+      </c>
+      <c r="AI92">
+        <v>1.95</v>
+      </c>
+      <c r="AJ92">
+        <v>1.8</v>
+      </c>
+      <c r="AK92">
+        <v>1.32</v>
+      </c>
+      <c r="AL92">
+        <v>1.32</v>
+      </c>
+      <c r="AM92">
+        <v>1.55</v>
+      </c>
+      <c r="AN92">
+        <v>1.44</v>
+      </c>
+      <c r="AO92">
+        <v>1.88</v>
+      </c>
+      <c r="AP92">
+        <v>1.64</v>
+      </c>
+      <c r="AQ92">
+        <v>1.36</v>
+      </c>
+      <c r="AR92">
+        <v>1.44</v>
+      </c>
+      <c r="AS92">
+        <v>1.2</v>
+      </c>
+      <c r="AT92">
+        <v>2.64</v>
+      </c>
+      <c r="AU92">
+        <v>3</v>
+      </c>
+      <c r="AV92">
+        <v>5</v>
+      </c>
+      <c r="AW92">
+        <v>2</v>
+      </c>
+      <c r="AX92">
+        <v>6</v>
+      </c>
+      <c r="AY92">
+        <v>5</v>
+      </c>
+      <c r="AZ92">
+        <v>11</v>
+      </c>
+      <c r="BA92">
+        <v>3</v>
+      </c>
+      <c r="BB92">
+        <v>6</v>
+      </c>
+      <c r="BC92">
+        <v>9</v>
+      </c>
+      <c r="BD92">
+        <v>1.69</v>
+      </c>
+      <c r="BE92">
+        <v>7.7</v>
+      </c>
+      <c r="BF92">
+        <v>2.71</v>
+      </c>
+      <c r="BG92">
         <v>1.25</v>
       </c>
-      <c r="X92">
-        <v>7.8</v>
-      </c>
-      <c r="Y92">
-        <v>1.05</v>
-      </c>
-      <c r="Z92">
-        <v>1.59</v>
-      </c>
-      <c r="AA92">
-        <v>3.8</v>
-      </c>
-      <c r="AB92">
-        <v>6.15</v>
-      </c>
-      <c r="AC92">
-        <v>1.07</v>
-      </c>
-      <c r="AD92">
-        <v>8</v>
-      </c>
-      <c r="AE92">
-        <v>1.45</v>
-      </c>
-      <c r="AF92">
-        <v>2.7</v>
-      </c>
-      <c r="AG92">
-        <v>2.3</v>
-      </c>
-      <c r="AH92">
-        <v>1.57</v>
-      </c>
-      <c r="AI92">
-        <v>2.2</v>
-      </c>
-      <c r="AJ92">
-        <v>1.62</v>
-      </c>
-      <c r="AK92">
-        <v>1.14</v>
-      </c>
-      <c r="AL92">
-        <v>1.24</v>
-      </c>
-      <c r="AM92">
-        <v>2.1</v>
-      </c>
-      <c r="AN92">
-        <v>2</v>
-      </c>
-      <c r="AO92">
-        <v>1.13</v>
-      </c>
-      <c r="AP92">
-        <v>1.86</v>
-      </c>
-      <c r="AQ92">
-        <v>1.07</v>
-      </c>
-      <c r="AR92">
-        <v>1.31</v>
-      </c>
-      <c r="AS92">
-        <v>1.08</v>
-      </c>
-      <c r="AT92">
-        <v>2.39</v>
-      </c>
-      <c r="AU92">
-        <v>9</v>
-      </c>
-      <c r="AV92">
-        <v>4</v>
-      </c>
-      <c r="AW92">
-        <v>8</v>
-      </c>
-      <c r="AX92">
-        <v>3</v>
-      </c>
-      <c r="AY92">
-        <v>17</v>
-      </c>
-      <c r="AZ92">
-        <v>7</v>
-      </c>
-      <c r="BA92">
-        <v>7</v>
-      </c>
-      <c r="BB92">
-        <v>1</v>
-      </c>
-      <c r="BC92">
-        <v>8</v>
-      </c>
-      <c r="BD92">
+      <c r="BH92">
+        <v>3.42</v>
+      </c>
+      <c r="BI92">
         <v>1.48</v>
       </c>
-      <c r="BE92">
-        <v>7.5</v>
-      </c>
-      <c r="BF92">
-        <v>3.55</v>
-      </c>
-      <c r="BG92">
-        <v>1.31</v>
-      </c>
-      <c r="BH92">
-        <v>3.04</v>
-      </c>
-      <c r="BI92">
-        <v>1.59</v>
-      </c>
       <c r="BJ92">
-        <v>2.21</v>
+        <v>2.47</v>
       </c>
       <c r="BK92">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="BL92">
-        <v>1.74</v>
+        <v>1.92</v>
       </c>
       <c r="BM92">
-        <v>2.65</v>
+        <v>2.36</v>
       </c>
       <c r="BN92">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="BO92">
-        <v>3.64</v>
+        <v>3.18</v>
       </c>
       <c r="BP92">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="93" spans="1:68">
@@ -20431,7 +20431,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>7287100</v>
+        <v>7287099</v>
       </c>
       <c r="C95" t="s">
         <v>68</v>
@@ -20446,25 +20446,25 @@
         <v>18</v>
       </c>
       <c r="G95" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H95" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95">
         <v>1</v>
       </c>
       <c r="L95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N95">
         <v>3</v>
@@ -20476,160 +20476,160 @@
         <v>209</v>
       </c>
       <c r="Q95">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="R95">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S95">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="T95">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="U95">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="V95">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="W95">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="X95">
-        <v>8.9</v>
+        <v>7.8</v>
       </c>
       <c r="Y95">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z95">
-        <v>2.35</v>
+        <v>1.59</v>
       </c>
       <c r="AA95">
-        <v>3.26</v>
+        <v>3.8</v>
       </c>
       <c r="AB95">
-        <v>3.1</v>
+        <v>6.15</v>
       </c>
       <c r="AC95">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AD95">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="AE95">
+        <v>1.45</v>
+      </c>
+      <c r="AF95">
+        <v>2.7</v>
+      </c>
+      <c r="AG95">
+        <v>2.3</v>
+      </c>
+      <c r="AH95">
+        <v>1.57</v>
+      </c>
+      <c r="AI95">
+        <v>2.2</v>
+      </c>
+      <c r="AJ95">
+        <v>1.62</v>
+      </c>
+      <c r="AK95">
+        <v>1.14</v>
+      </c>
+      <c r="AL95">
+        <v>1.24</v>
+      </c>
+      <c r="AM95">
+        <v>2.1</v>
+      </c>
+      <c r="AN95">
+        <v>2</v>
+      </c>
+      <c r="AO95">
+        <v>1.13</v>
+      </c>
+      <c r="AP95">
+        <v>1.86</v>
+      </c>
+      <c r="AQ95">
+        <v>1.07</v>
+      </c>
+      <c r="AR95">
+        <v>1.31</v>
+      </c>
+      <c r="AS95">
+        <v>1.08</v>
+      </c>
+      <c r="AT95">
+        <v>2.39</v>
+      </c>
+      <c r="AU95">
+        <v>9</v>
+      </c>
+      <c r="AV95">
+        <v>4</v>
+      </c>
+      <c r="AW95">
+        <v>8</v>
+      </c>
+      <c r="AX95">
+        <v>3</v>
+      </c>
+      <c r="AY95">
+        <v>17</v>
+      </c>
+      <c r="AZ95">
+        <v>7</v>
+      </c>
+      <c r="BA95">
+        <v>7</v>
+      </c>
+      <c r="BB95">
+        <v>1</v>
+      </c>
+      <c r="BC95">
+        <v>8</v>
+      </c>
+      <c r="BD95">
+        <v>1.48</v>
+      </c>
+      <c r="BE95">
+        <v>7.5</v>
+      </c>
+      <c r="BF95">
+        <v>3.55</v>
+      </c>
+      <c r="BG95">
+        <v>1.31</v>
+      </c>
+      <c r="BH95">
+        <v>3.04</v>
+      </c>
+      <c r="BI95">
+        <v>1.59</v>
+      </c>
+      <c r="BJ95">
+        <v>2.21</v>
+      </c>
+      <c r="BK95">
+        <v>2.02</v>
+      </c>
+      <c r="BL95">
+        <v>1.74</v>
+      </c>
+      <c r="BM95">
+        <v>2.65</v>
+      </c>
+      <c r="BN95">
         <v>1.42</v>
       </c>
-      <c r="AF95">
-        <v>2.75</v>
-      </c>
-      <c r="AG95">
-        <v>2.15</v>
-      </c>
-      <c r="AH95">
-        <v>1.65</v>
-      </c>
-      <c r="AI95">
-        <v>1.95</v>
-      </c>
-      <c r="AJ95">
-        <v>1.8</v>
-      </c>
-      <c r="AK95">
-        <v>1.32</v>
-      </c>
-      <c r="AL95">
-        <v>1.32</v>
-      </c>
-      <c r="AM95">
-        <v>1.55</v>
-      </c>
-      <c r="AN95">
-        <v>1.44</v>
-      </c>
-      <c r="AO95">
-        <v>1.88</v>
-      </c>
-      <c r="AP95">
-        <v>1.64</v>
-      </c>
-      <c r="AQ95">
-        <v>1.36</v>
-      </c>
-      <c r="AR95">
-        <v>1.44</v>
-      </c>
-      <c r="AS95">
-        <v>1.2</v>
-      </c>
-      <c r="AT95">
-        <v>2.64</v>
-      </c>
-      <c r="AU95">
-        <v>3</v>
-      </c>
-      <c r="AV95">
-        <v>5</v>
-      </c>
-      <c r="AW95">
-        <v>2</v>
-      </c>
-      <c r="AX95">
-        <v>6</v>
-      </c>
-      <c r="AY95">
-        <v>5</v>
-      </c>
-      <c r="AZ95">
-        <v>11</v>
-      </c>
-      <c r="BA95">
-        <v>3</v>
-      </c>
-      <c r="BB95">
-        <v>6</v>
-      </c>
-      <c r="BC95">
-        <v>9</v>
-      </c>
-      <c r="BD95">
-        <v>1.69</v>
-      </c>
-      <c r="BE95">
-        <v>7.7</v>
-      </c>
-      <c r="BF95">
-        <v>2.71</v>
-      </c>
-      <c r="BG95">
-        <v>1.25</v>
-      </c>
-      <c r="BH95">
-        <v>3.42</v>
-      </c>
-      <c r="BI95">
-        <v>1.48</v>
-      </c>
-      <c r="BJ95">
-        <v>2.47</v>
-      </c>
-      <c r="BK95">
-        <v>2.38</v>
-      </c>
-      <c r="BL95">
-        <v>1.92</v>
-      </c>
-      <c r="BM95">
-        <v>2.36</v>
-      </c>
-      <c r="BN95">
-        <v>1.52</v>
-      </c>
       <c r="BO95">
-        <v>3.18</v>
+        <v>3.64</v>
       </c>
       <c r="BP95">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="96" spans="1:68">
@@ -21255,7 +21255,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7287107</v>
+        <v>7287110</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21270,190 +21270,190 @@
         <v>20</v>
       </c>
       <c r="G99" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H99" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N99">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O99" t="s">
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="Q99">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="R99">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S99">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="T99">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="U99">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="V99">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="W99">
+        <v>1.33</v>
+      </c>
+      <c r="X99">
+        <v>8.4</v>
+      </c>
+      <c r="Y99">
+        <v>1.05</v>
+      </c>
+      <c r="Z99">
+        <v>2</v>
+      </c>
+      <c r="AA99">
+        <v>3.25</v>
+      </c>
+      <c r="AB99">
+        <v>3.8</v>
+      </c>
+      <c r="AC99">
+        <v>1.08</v>
+      </c>
+      <c r="AD99">
+        <v>7.5</v>
+      </c>
+      <c r="AE99">
+        <v>1.4</v>
+      </c>
+      <c r="AF99">
+        <v>2.9</v>
+      </c>
+      <c r="AG99">
+        <v>2.14</v>
+      </c>
+      <c r="AH99">
+        <v>1.63</v>
+      </c>
+      <c r="AI99">
+        <v>1.95</v>
+      </c>
+      <c r="AJ99">
+        <v>1.8</v>
+      </c>
+      <c r="AK99">
         <v>1.25</v>
       </c>
-      <c r="X99">
-        <v>9.6</v>
-      </c>
-      <c r="Y99">
-        <v>1.04</v>
-      </c>
-      <c r="Z99">
-        <v>1.82</v>
-      </c>
-      <c r="AA99">
-        <v>3.3</v>
-      </c>
-      <c r="AB99">
-        <v>4.5</v>
-      </c>
-      <c r="AC99">
-        <v>1.09</v>
-      </c>
-      <c r="AD99">
-        <v>7</v>
-      </c>
-      <c r="AE99">
-        <v>1.48</v>
-      </c>
-      <c r="AF99">
-        <v>2.6</v>
-      </c>
-      <c r="AG99">
-        <v>2.4</v>
-      </c>
-      <c r="AH99">
-        <v>1.5</v>
-      </c>
-      <c r="AI99">
-        <v>2.2</v>
-      </c>
-      <c r="AJ99">
-        <v>1.62</v>
-      </c>
-      <c r="AK99">
-        <v>1.18</v>
-      </c>
       <c r="AL99">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM99">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="AN99">
-        <v>2.09</v>
+        <v>1.56</v>
       </c>
       <c r="AO99">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AP99">
-        <v>2.14</v>
+        <v>1.43</v>
       </c>
       <c r="AQ99">
-        <v>1.36</v>
+        <v>1.07</v>
       </c>
       <c r="AR99">
-        <v>1.5</v>
+        <v>1.23</v>
       </c>
       <c r="AS99">
-        <v>1.23</v>
+        <v>1.05</v>
       </c>
       <c r="AT99">
-        <v>2.73</v>
+        <v>2.28</v>
       </c>
       <c r="AU99">
+        <v>12</v>
+      </c>
+      <c r="AV99">
+        <v>5</v>
+      </c>
+      <c r="AW99">
         <v>9</v>
       </c>
-      <c r="AV99">
-        <v>0</v>
-      </c>
-      <c r="AW99">
-        <v>5</v>
-      </c>
       <c r="AX99">
+        <v>6</v>
+      </c>
+      <c r="AY99">
+        <v>21</v>
+      </c>
+      <c r="AZ99">
+        <v>11</v>
+      </c>
+      <c r="BA99">
+        <v>10</v>
+      </c>
+      <c r="BB99">
         <v>4</v>
       </c>
-      <c r="AY99">
+      <c r="BC99">
         <v>14</v>
       </c>
-      <c r="AZ99">
-        <v>4</v>
-      </c>
-      <c r="BA99">
-        <v>5</v>
-      </c>
-      <c r="BB99">
-        <v>1</v>
-      </c>
-      <c r="BC99">
-        <v>6</v>
-      </c>
       <c r="BD99">
-        <v>1.37</v>
+        <v>1.57</v>
       </c>
       <c r="BE99">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="BF99">
-        <v>4.26</v>
+        <v>3</v>
       </c>
       <c r="BG99">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="BH99">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="BI99">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="BJ99">
         <v>2.6</v>
       </c>
       <c r="BK99">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="BL99">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BM99">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="BN99">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="BO99">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="BP99">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="100" spans="1:68">
@@ -21667,7 +21667,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>7287109</v>
+        <v>7287107</v>
       </c>
       <c r="C101" t="s">
         <v>68</v>
@@ -21682,10 +21682,10 @@
         <v>20</v>
       </c>
       <c r="G101" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H101" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -21697,25 +21697,25 @@
         <v>0</v>
       </c>
       <c r="L101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M101">
         <v>0</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O101" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="P101" t="s">
         <v>82</v>
       </c>
       <c r="Q101">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="R101">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S101">
         <v>5.5</v>
@@ -21724,28 +21724,28 @@
         <v>1.53</v>
       </c>
       <c r="U101">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="V101">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="W101">
         <v>1.25</v>
       </c>
       <c r="X101">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y101">
         <v>1.04</v>
       </c>
       <c r="Z101">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AA101">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AB101">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="AC101">
         <v>1.09</v>
@@ -21757,13 +21757,13 @@
         <v>1.48</v>
       </c>
       <c r="AF101">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="AG101">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="AH101">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AI101">
         <v>2.2</v>
@@ -21772,100 +21772,100 @@
         <v>1.62</v>
       </c>
       <c r="AK101">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AL101">
         <v>1.25</v>
       </c>
       <c r="AM101">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AN101">
-        <v>1.8</v>
+        <v>2.09</v>
       </c>
       <c r="AO101">
-        <v>0.5</v>
+        <v>1.67</v>
       </c>
       <c r="AP101">
-        <v>1.86</v>
+        <v>2.14</v>
       </c>
       <c r="AQ101">
-        <v>0.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR101">
+        <v>1.5</v>
+      </c>
+      <c r="AS101">
+        <v>1.23</v>
+      </c>
+      <c r="AT101">
+        <v>2.73</v>
+      </c>
+      <c r="AU101">
+        <v>9</v>
+      </c>
+      <c r="AV101">
+        <v>0</v>
+      </c>
+      <c r="AW101">
+        <v>5</v>
+      </c>
+      <c r="AX101">
+        <v>4</v>
+      </c>
+      <c r="AY101">
+        <v>14</v>
+      </c>
+      <c r="AZ101">
+        <v>4</v>
+      </c>
+      <c r="BA101">
+        <v>5</v>
+      </c>
+      <c r="BB101">
+        <v>1</v>
+      </c>
+      <c r="BC101">
+        <v>6</v>
+      </c>
+      <c r="BD101">
+        <v>1.37</v>
+      </c>
+      <c r="BE101">
+        <v>8</v>
+      </c>
+      <c r="BF101">
+        <v>4.26</v>
+      </c>
+      <c r="BG101">
+        <v>1.25</v>
+      </c>
+      <c r="BH101">
+        <v>3.7</v>
+      </c>
+      <c r="BI101">
+        <v>1.46</v>
+      </c>
+      <c r="BJ101">
+        <v>2.6</v>
+      </c>
+      <c r="BK101">
+        <v>2.2</v>
+      </c>
+      <c r="BL101">
+        <v>2</v>
+      </c>
+      <c r="BM101">
+        <v>2.2</v>
+      </c>
+      <c r="BN101">
+        <v>1.62</v>
+      </c>
+      <c r="BO101">
+        <v>2.85</v>
+      </c>
+      <c r="BP101">
         <v>1.39</v>
-      </c>
-      <c r="AS101">
-        <v>0.98</v>
-      </c>
-      <c r="AT101">
-        <v>2.37</v>
-      </c>
-      <c r="AU101">
-        <v>2</v>
-      </c>
-      <c r="AV101">
-        <v>0</v>
-      </c>
-      <c r="AW101">
-        <v>7</v>
-      </c>
-      <c r="AX101">
-        <v>6</v>
-      </c>
-      <c r="AY101">
-        <v>9</v>
-      </c>
-      <c r="AZ101">
-        <v>6</v>
-      </c>
-      <c r="BA101">
-        <v>3</v>
-      </c>
-      <c r="BB101">
-        <v>1</v>
-      </c>
-      <c r="BC101">
-        <v>4</v>
-      </c>
-      <c r="BD101">
-        <v>1.57</v>
-      </c>
-      <c r="BE101">
-        <v>7.6</v>
-      </c>
-      <c r="BF101">
-        <v>3.1</v>
-      </c>
-      <c r="BG101">
-        <v>1.42</v>
-      </c>
-      <c r="BH101">
-        <v>2.75</v>
-      </c>
-      <c r="BI101">
-        <v>1.72</v>
-      </c>
-      <c r="BJ101">
-        <v>2.05</v>
-      </c>
-      <c r="BK101">
-        <v>2.05</v>
-      </c>
-      <c r="BL101">
-        <v>1.7</v>
-      </c>
-      <c r="BM101">
-        <v>2.85</v>
-      </c>
-      <c r="BN101">
-        <v>1.4</v>
-      </c>
-      <c r="BO101">
-        <v>3.9</v>
-      </c>
-      <c r="BP101">
-        <v>1.23</v>
       </c>
     </row>
     <row r="102" spans="1:68">
@@ -21873,7 +21873,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>7287110</v>
+        <v>7287109</v>
       </c>
       <c r="C102" t="s">
         <v>68</v>
@@ -21888,190 +21888,190 @@
         <v>20</v>
       </c>
       <c r="G102" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H102" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N102">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O102" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="P102" t="s">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="Q102">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="R102">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S102">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="T102">
+        <v>1.53</v>
+      </c>
+      <c r="U102">
+        <v>2.38</v>
+      </c>
+      <c r="V102">
+        <v>3.45</v>
+      </c>
+      <c r="W102">
+        <v>1.25</v>
+      </c>
+      <c r="X102">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y102">
+        <v>1.04</v>
+      </c>
+      <c r="Z102">
+        <v>1.75</v>
+      </c>
+      <c r="AA102">
+        <v>3.35</v>
+      </c>
+      <c r="AB102">
+        <v>4.8</v>
+      </c>
+      <c r="AC102">
+        <v>1.09</v>
+      </c>
+      <c r="AD102">
+        <v>7</v>
+      </c>
+      <c r="AE102">
         <v>1.48</v>
       </c>
-      <c r="U102">
-        <v>2.5</v>
-      </c>
-      <c r="V102">
-        <v>3.1</v>
-      </c>
-      <c r="W102">
-        <v>1.33</v>
-      </c>
-      <c r="X102">
-        <v>8.4</v>
-      </c>
-      <c r="Y102">
-        <v>1.05</v>
-      </c>
-      <c r="Z102">
-        <v>2</v>
-      </c>
-      <c r="AA102">
-        <v>3.25</v>
-      </c>
-      <c r="AB102">
-        <v>3.8</v>
-      </c>
-      <c r="AC102">
-        <v>1.08</v>
-      </c>
-      <c r="AD102">
-        <v>7.5</v>
-      </c>
-      <c r="AE102">
-        <v>1.4</v>
-      </c>
       <c r="AF102">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="AG102">
-        <v>2.14</v>
+        <v>2.35</v>
       </c>
       <c r="AH102">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="AI102">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AJ102">
+        <v>1.62</v>
+      </c>
+      <c r="AK102">
+        <v>1.17</v>
+      </c>
+      <c r="AL102">
+        <v>1.25</v>
+      </c>
+      <c r="AM102">
+        <v>2</v>
+      </c>
+      <c r="AN102">
         <v>1.8</v>
       </c>
-      <c r="AK102">
-        <v>1.25</v>
-      </c>
-      <c r="AL102">
-        <v>1.28</v>
-      </c>
-      <c r="AM102">
-        <v>1.77</v>
-      </c>
-      <c r="AN102">
-        <v>1.56</v>
-      </c>
       <c r="AO102">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP102">
-        <v>1.43</v>
+        <v>1.86</v>
       </c>
       <c r="AQ102">
-        <v>1.07</v>
+        <v>0.5</v>
       </c>
       <c r="AR102">
-        <v>1.23</v>
+        <v>1.39</v>
       </c>
       <c r="AS102">
-        <v>1.05</v>
+        <v>0.98</v>
       </c>
       <c r="AT102">
-        <v>2.28</v>
+        <v>2.37</v>
       </c>
       <c r="AU102">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AV102">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AW102">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX102">
         <v>6</v>
       </c>
       <c r="AY102">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AZ102">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BA102">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BB102">
+        <v>1</v>
+      </c>
+      <c r="BC102">
         <v>4</v>
-      </c>
-      <c r="BC102">
-        <v>14</v>
       </c>
       <c r="BD102">
         <v>1.57</v>
       </c>
       <c r="BE102">
-        <v>8.300000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="BF102">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="BG102">
-        <v>1.26</v>
+        <v>1.42</v>
       </c>
       <c r="BH102">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="BI102">
-        <v>1.47</v>
+        <v>1.72</v>
       </c>
       <c r="BJ102">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="BK102">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="BL102">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="BM102">
-        <v>2.24</v>
+        <v>2.85</v>
       </c>
       <c r="BN102">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="BO102">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="BP102">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="103" spans="1:68">
@@ -22079,7 +22079,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>7287116</v>
+        <v>7287112</v>
       </c>
       <c r="C103" t="s">
         <v>68</v>
@@ -22094,88 +22094,88 @@
         <v>21</v>
       </c>
       <c r="G103" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H103" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O103" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="Q103">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S103">
+        <v>2.63</v>
+      </c>
+      <c r="T103">
+        <v>1.42</v>
+      </c>
+      <c r="U103">
+        <v>2.62</v>
+      </c>
+      <c r="V103">
+        <v>3</v>
+      </c>
+      <c r="W103">
+        <v>1.33</v>
+      </c>
+      <c r="X103">
+        <v>7.5</v>
+      </c>
+      <c r="Y103">
+        <v>1.06</v>
+      </c>
+      <c r="Z103">
+        <v>3.3</v>
+      </c>
+      <c r="AA103">
         <v>3.1</v>
       </c>
-      <c r="T103">
-        <v>1.5</v>
-      </c>
-      <c r="U103">
-        <v>2.4</v>
-      </c>
-      <c r="V103">
-        <v>3.3</v>
-      </c>
-      <c r="W103">
-        <v>1.29</v>
-      </c>
-      <c r="X103">
-        <v>8.5</v>
-      </c>
-      <c r="Y103">
-        <v>1.04</v>
-      </c>
-      <c r="Z103">
-        <v>3.15</v>
-      </c>
-      <c r="AA103">
-        <v>2.89</v>
-      </c>
       <c r="AB103">
-        <v>2.16</v>
+        <v>1.96</v>
       </c>
       <c r="AC103">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AD103">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE103">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AF103">
-        <v>2.62</v>
+        <v>2.9</v>
       </c>
       <c r="AG103">
-        <v>2.37</v>
+        <v>2.1</v>
       </c>
       <c r="AH103">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AI103">
         <v>1.95</v>
@@ -22184,100 +22184,100 @@
         <v>1.8</v>
       </c>
       <c r="AK103">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AL103">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AM103">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AN103">
-        <v>1.7</v>
+        <v>1.33</v>
       </c>
       <c r="AO103">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="AP103">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AQ103">
-        <v>1.77</v>
+        <v>1.36</v>
       </c>
       <c r="AR103">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="AS103">
-        <v>1.03</v>
+        <v>1.36</v>
       </c>
       <c r="AT103">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="AU103">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV103">
         <v>6</v>
       </c>
       <c r="AW103">
+        <v>1</v>
+      </c>
+      <c r="AX103">
+        <v>7</v>
+      </c>
+      <c r="AY103">
         <v>5</v>
       </c>
-      <c r="AX103">
-        <v>2</v>
-      </c>
-      <c r="AY103">
-        <v>7</v>
-      </c>
       <c r="AZ103">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA103">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB103">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BC103">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BD103">
-        <v>2.15</v>
+        <v>2.91</v>
       </c>
       <c r="BE103">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="BF103">
-        <v>2.03</v>
+        <v>1.62</v>
       </c>
       <c r="BG103">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="BH103">
-        <v>3.2</v>
+        <v>3.64</v>
       </c>
       <c r="BI103">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="BJ103">
-        <v>2.32</v>
+        <v>2.57</v>
       </c>
       <c r="BK103">
-        <v>2.25</v>
+        <v>1.92</v>
       </c>
       <c r="BL103">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="BM103">
-        <v>2.52</v>
+        <v>2.27</v>
       </c>
       <c r="BN103">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="BO103">
-        <v>3.42</v>
+        <v>2.98</v>
       </c>
       <c r="BP103">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="104" spans="1:68">
@@ -22285,7 +22285,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>7287115</v>
+        <v>7287113</v>
       </c>
       <c r="C104" t="s">
         <v>68</v>
@@ -22300,190 +22300,190 @@
         <v>21</v>
       </c>
       <c r="G104" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H104" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O104" t="s">
         <v>144</v>
       </c>
       <c r="P104" t="s">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="Q104">
-        <v>4.33</v>
+        <v>2.6</v>
       </c>
       <c r="R104">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S104">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="T104">
+        <v>1.42</v>
+      </c>
+      <c r="U104">
+        <v>2.62</v>
+      </c>
+      <c r="V104">
+        <v>3</v>
+      </c>
+      <c r="W104">
+        <v>1.33</v>
+      </c>
+      <c r="X104">
+        <v>7.5</v>
+      </c>
+      <c r="Y104">
+        <v>1.06</v>
+      </c>
+      <c r="Z104">
+        <v>1.93</v>
+      </c>
+      <c r="AA104">
+        <v>3.2</v>
+      </c>
+      <c r="AB104">
+        <v>3.45</v>
+      </c>
+      <c r="AC104">
+        <v>1.05</v>
+      </c>
+      <c r="AD104">
+        <v>8</v>
+      </c>
+      <c r="AE104">
         <v>1.36</v>
       </c>
-      <c r="U104">
+      <c r="AF104">
         <v>2.9</v>
       </c>
-      <c r="V104">
-        <v>2.62</v>
-      </c>
-      <c r="W104">
-        <v>1.42</v>
-      </c>
-      <c r="X104">
-        <v>6</v>
-      </c>
-      <c r="Y104">
-        <v>1.09</v>
-      </c>
-      <c r="Z104">
-        <v>3.1</v>
-      </c>
-      <c r="AA104">
-        <v>3.3</v>
-      </c>
-      <c r="AB104">
-        <v>2.01</v>
-      </c>
-      <c r="AC104">
-        <v>1.02</v>
-      </c>
-      <c r="AD104">
+      <c r="AG104">
+        <v>2.1</v>
+      </c>
+      <c r="AH104">
+        <v>1.65</v>
+      </c>
+      <c r="AI104">
+        <v>1.95</v>
+      </c>
+      <c r="AJ104">
+        <v>1.8</v>
+      </c>
+      <c r="AK104">
+        <v>1.25</v>
+      </c>
+      <c r="AL104">
+        <v>1.3</v>
+      </c>
+      <c r="AM104">
+        <v>1.88</v>
+      </c>
+      <c r="AN104">
+        <v>1.22</v>
+      </c>
+      <c r="AO104">
+        <v>1.2</v>
+      </c>
+      <c r="AP104">
+        <v>1.31</v>
+      </c>
+      <c r="AQ104">
+        <v>1.07</v>
+      </c>
+      <c r="AR104">
+        <v>1.35</v>
+      </c>
+      <c r="AS104">
+        <v>1.08</v>
+      </c>
+      <c r="AT104">
+        <v>2.43</v>
+      </c>
+      <c r="AU104">
+        <v>4</v>
+      </c>
+      <c r="AV104">
+        <v>0</v>
+      </c>
+      <c r="AW104">
+        <v>3</v>
+      </c>
+      <c r="AX104">
+        <v>3</v>
+      </c>
+      <c r="AY104">
+        <v>7</v>
+      </c>
+      <c r="AZ104">
+        <v>3</v>
+      </c>
+      <c r="BA104">
         <v>10</v>
       </c>
-      <c r="AE104">
-        <v>1.29</v>
-      </c>
-      <c r="AF104">
-        <v>3.4</v>
-      </c>
-      <c r="AG104">
-        <v>1.92</v>
-      </c>
-      <c r="AH104">
-        <v>1.92</v>
-      </c>
-      <c r="AI104">
-        <v>1.75</v>
-      </c>
-      <c r="AJ104">
-        <v>2</v>
-      </c>
-      <c r="AK104">
-        <v>1.85</v>
-      </c>
-      <c r="AL104">
-        <v>1.29</v>
-      </c>
-      <c r="AM104">
-        <v>1.29</v>
-      </c>
-      <c r="AN104">
-        <v>1.45</v>
-      </c>
-      <c r="AO104">
-        <v>1.5</v>
-      </c>
-      <c r="AP104">
-        <v>1.64</v>
-      </c>
-      <c r="AQ104">
-        <v>1.38</v>
-      </c>
-      <c r="AR104">
-        <v>1.36</v>
-      </c>
-      <c r="AS104">
-        <v>1.44</v>
-      </c>
-      <c r="AT104">
-        <v>2.8</v>
-      </c>
-      <c r="AU104">
-        <v>6</v>
-      </c>
-      <c r="AV104">
-        <v>4</v>
-      </c>
-      <c r="AW104">
-        <v>5</v>
-      </c>
-      <c r="AX104">
-        <v>6</v>
-      </c>
-      <c r="AY104">
-        <v>11</v>
-      </c>
-      <c r="AZ104">
-        <v>10</v>
-      </c>
-      <c r="BA104">
-        <v>5</v>
-      </c>
       <c r="BB104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC104">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD104">
-        <v>2.81</v>
+        <v>1.55</v>
       </c>
       <c r="BE104">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="BF104">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="BG104">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="BH104">
-        <v>4.05</v>
+        <v>2.93</v>
       </c>
       <c r="BI104">
-        <v>1.38</v>
+        <v>1.7</v>
       </c>
       <c r="BJ104">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="BK104">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="BL104">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="BM104">
-        <v>2.09</v>
+        <v>2.76</v>
       </c>
       <c r="BN104">
-        <v>1.66</v>
+        <v>1.39</v>
       </c>
       <c r="BO104">
-        <v>2.71</v>
+        <v>3.74</v>
       </c>
       <c r="BP104">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="105" spans="1:68">
@@ -22491,7 +22491,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>7287112</v>
+        <v>7287114</v>
       </c>
       <c r="C105" t="s">
         <v>68</v>
@@ -22506,190 +22506,190 @@
         <v>21</v>
       </c>
       <c r="G105" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H105" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
       <c r="J105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N105">
         <v>3</v>
       </c>
       <c r="O105" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="P105" t="s">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="Q105">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="R105">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S105">
-        <v>2.63</v>
+        <v>5.5</v>
       </c>
       <c r="T105">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="U105">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="V105">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="W105">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="X105">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y105">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z105">
-        <v>3.3</v>
+        <v>1.63</v>
       </c>
       <c r="AA105">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="AB105">
-        <v>1.96</v>
+        <v>4.45</v>
       </c>
       <c r="AC105">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD105">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE105">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AF105">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="AG105">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AH105">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AI105">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AJ105">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AK105">
-        <v>1.83</v>
+        <v>1.17</v>
       </c>
       <c r="AL105">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AM105">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="AN105">
         <v>1.33</v>
       </c>
       <c r="AO105">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="AP105">
-        <v>1</v>
+        <v>1.54</v>
       </c>
       <c r="AQ105">
-        <v>1.36</v>
+        <v>0.29</v>
       </c>
       <c r="AR105">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="AS105">
-        <v>1.36</v>
+        <v>1.16</v>
       </c>
       <c r="AT105">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AU105">
+        <v>7</v>
+      </c>
+      <c r="AV105">
+        <v>3</v>
+      </c>
+      <c r="AW105">
+        <v>3</v>
+      </c>
+      <c r="AX105">
+        <v>2</v>
+      </c>
+      <c r="AY105">
+        <v>10</v>
+      </c>
+      <c r="AZ105">
+        <v>5</v>
+      </c>
+      <c r="BA105">
+        <v>1</v>
+      </c>
+      <c r="BB105">
         <v>4</v>
       </c>
-      <c r="AV105">
-        <v>6</v>
-      </c>
-      <c r="AW105">
-        <v>1</v>
-      </c>
-      <c r="AX105">
-        <v>7</v>
-      </c>
-      <c r="AY105">
+      <c r="BC105">
         <v>5</v>
       </c>
-      <c r="AZ105">
-        <v>13</v>
-      </c>
-      <c r="BA105">
-        <v>4</v>
-      </c>
-      <c r="BB105">
-        <v>9</v>
-      </c>
-      <c r="BC105">
-        <v>13</v>
-      </c>
       <c r="BD105">
-        <v>2.91</v>
+        <v>1.37</v>
       </c>
       <c r="BE105">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="BF105">
-        <v>1.62</v>
+        <v>4.26</v>
       </c>
       <c r="BG105">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="BH105">
-        <v>3.64</v>
+        <v>3.74</v>
       </c>
       <c r="BI105">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="BJ105">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="BK105">
-        <v>1.92</v>
+        <v>2.25</v>
       </c>
       <c r="BL105">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="BM105">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="BN105">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="BO105">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="BP105">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="106" spans="1:68">
@@ -22697,7 +22697,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>7287114</v>
+        <v>7287115</v>
       </c>
       <c r="C106" t="s">
         <v>68</v>
@@ -22712,190 +22712,190 @@
         <v>21</v>
       </c>
       <c r="G106" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H106" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106">
         <v>1</v>
       </c>
       <c r="L106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N106">
         <v>3</v>
       </c>
       <c r="O106" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="Q106">
-        <v>2.25</v>
+        <v>4.33</v>
       </c>
       <c r="R106">
         <v>2.2</v>
       </c>
       <c r="S106">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="T106">
+        <v>1.36</v>
+      </c>
+      <c r="U106">
+        <v>2.9</v>
+      </c>
+      <c r="V106">
+        <v>2.62</v>
+      </c>
+      <c r="W106">
+        <v>1.42</v>
+      </c>
+      <c r="X106">
+        <v>6</v>
+      </c>
+      <c r="Y106">
+        <v>1.09</v>
+      </c>
+      <c r="Z106">
+        <v>3.1</v>
+      </c>
+      <c r="AA106">
+        <v>3.3</v>
+      </c>
+      <c r="AB106">
+        <v>2.01</v>
+      </c>
+      <c r="AC106">
+        <v>1.02</v>
+      </c>
+      <c r="AD106">
+        <v>10</v>
+      </c>
+      <c r="AE106">
+        <v>1.29</v>
+      </c>
+      <c r="AF106">
+        <v>3.4</v>
+      </c>
+      <c r="AG106">
+        <v>1.92</v>
+      </c>
+      <c r="AH106">
+        <v>1.92</v>
+      </c>
+      <c r="AI106">
+        <v>1.75</v>
+      </c>
+      <c r="AJ106">
+        <v>2</v>
+      </c>
+      <c r="AK106">
+        <v>1.85</v>
+      </c>
+      <c r="AL106">
+        <v>1.29</v>
+      </c>
+      <c r="AM106">
+        <v>1.29</v>
+      </c>
+      <c r="AN106">
+        <v>1.45</v>
+      </c>
+      <c r="AO106">
+        <v>1.5</v>
+      </c>
+      <c r="AP106">
+        <v>1.64</v>
+      </c>
+      <c r="AQ106">
         <v>1.38</v>
       </c>
-      <c r="U106">
+      <c r="AR106">
+        <v>1.36</v>
+      </c>
+      <c r="AS106">
+        <v>1.44</v>
+      </c>
+      <c r="AT106">
         <v>2.8</v>
       </c>
-      <c r="V106">
+      <c r="AU106">
+        <v>6</v>
+      </c>
+      <c r="AV106">
+        <v>4</v>
+      </c>
+      <c r="AW106">
+        <v>5</v>
+      </c>
+      <c r="AX106">
+        <v>6</v>
+      </c>
+      <c r="AY106">
+        <v>11</v>
+      </c>
+      <c r="AZ106">
+        <v>10</v>
+      </c>
+      <c r="BA106">
+        <v>5</v>
+      </c>
+      <c r="BB106">
+        <v>3</v>
+      </c>
+      <c r="BC106">
+        <v>8</v>
+      </c>
+      <c r="BD106">
+        <v>2.81</v>
+      </c>
+      <c r="BE106">
+        <v>7.8</v>
+      </c>
+      <c r="BF106">
+        <v>1.65</v>
+      </c>
+      <c r="BG106">
+        <v>1.18</v>
+      </c>
+      <c r="BH106">
+        <v>4.05</v>
+      </c>
+      <c r="BI106">
+        <v>1.38</v>
+      </c>
+      <c r="BJ106">
         <v>2.8</v>
       </c>
-      <c r="W106">
+      <c r="BK106">
+        <v>2.2</v>
+      </c>
+      <c r="BL106">
+        <v>2</v>
+      </c>
+      <c r="BM106">
+        <v>2.09</v>
+      </c>
+      <c r="BN106">
+        <v>1.66</v>
+      </c>
+      <c r="BO106">
+        <v>2.71</v>
+      </c>
+      <c r="BP106">
         <v>1.38</v>
-      </c>
-      <c r="X106">
-        <v>6.5</v>
-      </c>
-      <c r="Y106">
-        <v>1.08</v>
-      </c>
-      <c r="Z106">
-        <v>1.63</v>
-      </c>
-      <c r="AA106">
-        <v>3.55</v>
-      </c>
-      <c r="AB106">
-        <v>4.45</v>
-      </c>
-      <c r="AC106">
-        <v>1.03</v>
-      </c>
-      <c r="AD106">
-        <v>9</v>
-      </c>
-      <c r="AE106">
-        <v>1.3</v>
-      </c>
-      <c r="AF106">
-        <v>3.2</v>
-      </c>
-      <c r="AG106">
-        <v>2</v>
-      </c>
-      <c r="AH106">
-        <v>1.73</v>
-      </c>
-      <c r="AI106">
-        <v>1.91</v>
-      </c>
-      <c r="AJ106">
-        <v>1.91</v>
-      </c>
-      <c r="AK106">
-        <v>1.17</v>
-      </c>
-      <c r="AL106">
-        <v>1.25</v>
-      </c>
-      <c r="AM106">
-        <v>2.25</v>
-      </c>
-      <c r="AN106">
-        <v>1.33</v>
-      </c>
-      <c r="AO106">
-        <v>0.3</v>
-      </c>
-      <c r="AP106">
-        <v>1.54</v>
-      </c>
-      <c r="AQ106">
-        <v>0.29</v>
-      </c>
-      <c r="AR106">
-        <v>1.34</v>
-      </c>
-      <c r="AS106">
-        <v>1.16</v>
-      </c>
-      <c r="AT106">
-        <v>2.5</v>
-      </c>
-      <c r="AU106">
-        <v>7</v>
-      </c>
-      <c r="AV106">
-        <v>3</v>
-      </c>
-      <c r="AW106">
-        <v>3</v>
-      </c>
-      <c r="AX106">
-        <v>2</v>
-      </c>
-      <c r="AY106">
-        <v>10</v>
-      </c>
-      <c r="AZ106">
-        <v>5</v>
-      </c>
-      <c r="BA106">
-        <v>1</v>
-      </c>
-      <c r="BB106">
-        <v>4</v>
-      </c>
-      <c r="BC106">
-        <v>5</v>
-      </c>
-      <c r="BD106">
-        <v>1.37</v>
-      </c>
-      <c r="BE106">
-        <v>8</v>
-      </c>
-      <c r="BF106">
-        <v>4.26</v>
-      </c>
-      <c r="BG106">
-        <v>1.21</v>
-      </c>
-      <c r="BH106">
-        <v>3.74</v>
-      </c>
-      <c r="BI106">
-        <v>1.42</v>
-      </c>
-      <c r="BJ106">
-        <v>2.65</v>
-      </c>
-      <c r="BK106">
-        <v>2.25</v>
-      </c>
-      <c r="BL106">
-        <v>2</v>
-      </c>
-      <c r="BM106">
-        <v>2.19</v>
-      </c>
-      <c r="BN106">
-        <v>1.6</v>
-      </c>
-      <c r="BO106">
-        <v>2.88</v>
-      </c>
-      <c r="BP106">
-        <v>1.34</v>
       </c>
     </row>
     <row r="107" spans="1:68">
@@ -22903,7 +22903,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>7287113</v>
+        <v>7287116</v>
       </c>
       <c r="C107" t="s">
         <v>68</v>
@@ -22918,10 +22918,10 @@
         <v>21</v>
       </c>
       <c r="G107" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H107" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -22933,73 +22933,73 @@
         <v>0</v>
       </c>
       <c r="L107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N107">
         <v>1</v>
       </c>
       <c r="O107" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="Q107">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="R107">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S107">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="T107">
+        <v>1.5</v>
+      </c>
+      <c r="U107">
+        <v>2.4</v>
+      </c>
+      <c r="V107">
+        <v>3.3</v>
+      </c>
+      <c r="W107">
+        <v>1.29</v>
+      </c>
+      <c r="X107">
+        <v>8.5</v>
+      </c>
+      <c r="Y107">
+        <v>1.04</v>
+      </c>
+      <c r="Z107">
+        <v>3.15</v>
+      </c>
+      <c r="AA107">
+        <v>2.89</v>
+      </c>
+      <c r="AB107">
+        <v>2.16</v>
+      </c>
+      <c r="AC107">
+        <v>1.07</v>
+      </c>
+      <c r="AD107">
+        <v>7</v>
+      </c>
+      <c r="AE107">
         <v>1.42</v>
       </c>
-      <c r="U107">
+      <c r="AF107">
         <v>2.62</v>
       </c>
-      <c r="V107">
-        <v>3</v>
-      </c>
-      <c r="W107">
-        <v>1.33</v>
-      </c>
-      <c r="X107">
-        <v>7.5</v>
-      </c>
-      <c r="Y107">
-        <v>1.06</v>
-      </c>
-      <c r="Z107">
-        <v>1.93</v>
-      </c>
-      <c r="AA107">
-        <v>3.2</v>
-      </c>
-      <c r="AB107">
-        <v>3.45</v>
-      </c>
-      <c r="AC107">
-        <v>1.05</v>
-      </c>
-      <c r="AD107">
-        <v>8</v>
-      </c>
-      <c r="AE107">
-        <v>1.36</v>
-      </c>
-      <c r="AF107">
-        <v>2.9</v>
-      </c>
       <c r="AG107">
-        <v>2.1</v>
+        <v>2.37</v>
       </c>
       <c r="AH107">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AI107">
         <v>1.95</v>
@@ -23008,100 +23008,100 @@
         <v>1.8</v>
       </c>
       <c r="AK107">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="AL107">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AM107">
-        <v>1.88</v>
+        <v>1.35</v>
       </c>
       <c r="AN107">
-        <v>1.22</v>
+        <v>1.7</v>
       </c>
       <c r="AO107">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="AP107">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ107">
-        <v>1.07</v>
+        <v>1.77</v>
       </c>
       <c r="AR107">
         <v>1.35</v>
       </c>
       <c r="AS107">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="AT107">
-        <v>2.43</v>
+        <v>2.38</v>
       </c>
       <c r="AU107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV107">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW107">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY107">
         <v>7</v>
       </c>
       <c r="AZ107">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BA107">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BB107">
         <v>2</v>
       </c>
       <c r="BC107">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BD107">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="BE107">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="BF107">
+        <v>2.03</v>
+      </c>
+      <c r="BG107">
+        <v>1.28</v>
+      </c>
+      <c r="BH107">
         <v>3.2</v>
       </c>
-      <c r="BG107">
-        <v>1.33</v>
-      </c>
-      <c r="BH107">
-        <v>2.93</v>
-      </c>
       <c r="BI107">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="BJ107">
-        <v>2.05</v>
+        <v>2.32</v>
       </c>
       <c r="BK107">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="BL107">
-        <v>1.7</v>
+        <v>1.98</v>
       </c>
       <c r="BM107">
-        <v>2.76</v>
+        <v>2.52</v>
       </c>
       <c r="BN107">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="BO107">
-        <v>3.74</v>
+        <v>3.42</v>
       </c>
       <c r="BP107">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="108" spans="1:68">
@@ -23109,7 +23109,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>7287117</v>
+        <v>7287120</v>
       </c>
       <c r="C108" t="s">
         <v>68</v>
@@ -23124,160 +23124,160 @@
         <v>22</v>
       </c>
       <c r="G108" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H108" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L108">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N108">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O108" t="s">
         <v>147</v>
       </c>
       <c r="P108" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="Q108">
-        <v>1.73</v>
+        <v>7</v>
       </c>
       <c r="R108">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S108">
-        <v>8.5</v>
+        <v>1.91</v>
       </c>
       <c r="T108">
         <v>1.33</v>
       </c>
       <c r="U108">
-        <v>3.05</v>
+        <v>3.16</v>
       </c>
       <c r="V108">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="W108">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X108">
-        <v>5.95</v>
+        <v>6.1</v>
       </c>
       <c r="Y108">
         <v>1.1</v>
       </c>
       <c r="Z108">
-        <v>1.23</v>
+        <v>6.85</v>
       </c>
       <c r="AA108">
-        <v>5.35</v>
+        <v>4.85</v>
       </c>
       <c r="AB108">
-        <v>10.7</v>
+        <v>1.35</v>
       </c>
       <c r="AC108">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD108">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE108">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AF108">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AG108">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="AH108">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="AI108">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AJ108">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AK108">
-        <v>1.01</v>
+        <v>3.04</v>
       </c>
       <c r="AL108">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="AM108">
-        <v>3.4</v>
+        <v>1.08</v>
       </c>
       <c r="AN108">
-        <v>2.17</v>
+        <v>1.3</v>
       </c>
       <c r="AO108">
-        <v>0.27</v>
+        <v>1.36</v>
       </c>
       <c r="AP108">
-        <v>2.14</v>
+        <v>1.79</v>
       </c>
       <c r="AQ108">
-        <v>0.29</v>
+        <v>1.38</v>
       </c>
       <c r="AR108">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AS108">
-        <v>1.13</v>
+        <v>1.42</v>
       </c>
       <c r="AT108">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="AU108">
         <v>8</v>
       </c>
       <c r="AV108">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW108">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX108">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AY108">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ108">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BA108">
         <v>7</v>
       </c>
       <c r="BB108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC108">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD108">
-        <v>1.18</v>
+        <v>4.76</v>
       </c>
       <c r="BE108">
-        <v>13.5</v>
+        <v>8.6</v>
       </c>
       <c r="BF108">
-        <v>5.95</v>
+        <v>1.31</v>
       </c>
       <c r="BG108">
         <v>1.25</v>
@@ -23286,16 +23286,16 @@
         <v>3.6</v>
       </c>
       <c r="BI108">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="BJ108">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="BK108">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="BL108">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="BM108">
         <v>2.19</v>
@@ -23304,10 +23304,10 @@
         <v>1.65</v>
       </c>
       <c r="BO108">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="BP108">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="109" spans="1:68">
@@ -23315,7 +23315,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>7287118</v>
+        <v>7287121</v>
       </c>
       <c r="C109" t="s">
         <v>68</v>
@@ -23330,133 +23330,133 @@
         <v>22</v>
       </c>
       <c r="G109" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H109" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L109">
         <v>0</v>
       </c>
       <c r="M109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O109" t="s">
         <v>82</v>
       </c>
       <c r="P109" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="Q109">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S109">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T109">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="U109">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="V109">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="W109">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X109">
-        <v>8.449999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="Y109">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="Z109">
-        <v>2.23</v>
+        <v>1.86</v>
       </c>
       <c r="AA109">
+        <v>3.35</v>
+      </c>
+      <c r="AB109">
+        <v>3.85</v>
+      </c>
+      <c r="AC109">
+        <v>1.02</v>
+      </c>
+      <c r="AD109">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE109">
+        <v>1.29</v>
+      </c>
+      <c r="AF109">
         <v>3.15</v>
       </c>
-      <c r="AB109">
-        <v>3.05</v>
-      </c>
-      <c r="AC109">
-        <v>1.01</v>
-      </c>
-      <c r="AD109">
-        <v>2.92</v>
-      </c>
-      <c r="AE109">
-        <v>1.38</v>
-      </c>
-      <c r="AF109">
-        <v>2.92</v>
-      </c>
       <c r="AG109">
-        <v>2.07</v>
+        <v>1.92</v>
       </c>
       <c r="AH109">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AI109">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AJ109">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AK109">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AL109">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AM109">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AN109">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="AO109">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AP109">
-        <v>1.31</v>
+        <v>1.64</v>
       </c>
       <c r="AQ109">
-        <v>1.43</v>
+        <v>1.23</v>
       </c>
       <c r="AR109">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="AS109">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="AT109">
-        <v>2.41</v>
+        <v>2.56</v>
       </c>
       <c r="AU109">
+        <v>8</v>
+      </c>
+      <c r="AV109">
+        <v>2</v>
+      </c>
+      <c r="AW109">
         <v>7</v>
-      </c>
-      <c r="AV109">
-        <v>5</v>
-      </c>
-      <c r="AW109">
-        <v>8</v>
       </c>
       <c r="AX109">
         <v>5</v>
@@ -23465,55 +23465,55 @@
         <v>15</v>
       </c>
       <c r="AZ109">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA109">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC109">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD109">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="BE109">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="BF109">
-        <v>2.91</v>
+        <v>2.81</v>
       </c>
       <c r="BG109">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="BH109">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="BI109">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="BJ109">
-        <v>2.34</v>
+        <v>2.7</v>
       </c>
       <c r="BK109">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="BL109">
-        <v>1.84</v>
+        <v>2.2</v>
       </c>
       <c r="BM109">
-        <v>2.51</v>
+        <v>2.04</v>
       </c>
       <c r="BN109">
-        <v>1.51</v>
+        <v>1.75</v>
       </c>
       <c r="BO109">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="BP109">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="110" spans="1:68">
@@ -23521,7 +23521,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>7287119</v>
+        <v>7287118</v>
       </c>
       <c r="C110" t="s">
         <v>68</v>
@@ -23536,190 +23536,190 @@
         <v>22</v>
       </c>
       <c r="G110" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H110" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K110">
         <v>2</v>
       </c>
       <c r="L110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N110">
         <v>2</v>
       </c>
       <c r="O110" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="P110" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="Q110">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R110">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S110">
         <v>4.33</v>
       </c>
       <c r="T110">
-        <v>1.59</v>
+        <v>1.47</v>
       </c>
       <c r="U110">
-        <v>2.24</v>
+        <v>2.66</v>
       </c>
       <c r="V110">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="W110">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="X110">
-        <v>10.5</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="Y110">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="Z110">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="AA110">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="AB110">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="AC110">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="AD110">
-        <v>6.5</v>
+        <v>2.92</v>
       </c>
       <c r="AE110">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AF110">
+        <v>2.92</v>
+      </c>
+      <c r="AG110">
+        <v>2.07</v>
+      </c>
+      <c r="AH110">
+        <v>1.62</v>
+      </c>
+      <c r="AI110">
+        <v>1.95</v>
+      </c>
+      <c r="AJ110">
+        <v>1.8</v>
+      </c>
+      <c r="AK110">
+        <v>1.36</v>
+      </c>
+      <c r="AL110">
+        <v>1.4</v>
+      </c>
+      <c r="AM110">
+        <v>1.67</v>
+      </c>
+      <c r="AN110">
+        <v>1.4</v>
+      </c>
+      <c r="AO110">
+        <v>1.4</v>
+      </c>
+      <c r="AP110">
+        <v>1.31</v>
+      </c>
+      <c r="AQ110">
+        <v>1.43</v>
+      </c>
+      <c r="AR110">
+        <v>1.32</v>
+      </c>
+      <c r="AS110">
+        <v>1.09</v>
+      </c>
+      <c r="AT110">
         <v>2.41</v>
       </c>
-      <c r="AG110">
-        <v>2.55</v>
-      </c>
-      <c r="AH110">
-        <v>1.41</v>
-      </c>
-      <c r="AI110">
-        <v>2.2</v>
-      </c>
-      <c r="AJ110">
-        <v>1.62</v>
-      </c>
-      <c r="AK110">
-        <v>1.28</v>
-      </c>
-      <c r="AL110">
-        <v>1.3</v>
-      </c>
-      <c r="AM110">
-        <v>1.63</v>
-      </c>
-      <c r="AN110">
-        <v>1.91</v>
-      </c>
-      <c r="AO110">
-        <v>1.5</v>
-      </c>
-      <c r="AP110">
-        <v>1.86</v>
-      </c>
-      <c r="AQ110">
-        <v>1.36</v>
-      </c>
-      <c r="AR110">
-        <v>1.37</v>
-      </c>
-      <c r="AS110">
-        <v>1.17</v>
-      </c>
-      <c r="AT110">
-        <v>2.54</v>
-      </c>
       <c r="AU110">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV110">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW110">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AX110">
         <v>5</v>
       </c>
       <c r="AY110">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AZ110">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA110">
         <v>5</v>
       </c>
       <c r="BB110">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC110">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD110">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="BE110">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="BF110">
+        <v>2.91</v>
+      </c>
+      <c r="BG110">
+        <v>1.33</v>
+      </c>
+      <c r="BH110">
         <v>3</v>
       </c>
-      <c r="BG110">
-        <v>1.38</v>
-      </c>
-      <c r="BH110">
-        <v>2.8</v>
-      </c>
       <c r="BI110">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="BJ110">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="BK110">
-        <v>2.09</v>
+        <v>1.96</v>
       </c>
       <c r="BL110">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="BM110">
-        <v>2.62</v>
+        <v>2.51</v>
       </c>
       <c r="BN110">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="BO110">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="BP110">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="111" spans="1:68">
@@ -23727,7 +23727,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>7287120</v>
+        <v>7287119</v>
       </c>
       <c r="C111" t="s">
         <v>68</v>
@@ -23742,19 +23742,19 @@
         <v>22</v>
       </c>
       <c r="G111" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H111" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111">
         <v>0</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L111">
         <v>2</v>
@@ -23766,166 +23766,166 @@
         <v>2</v>
       </c>
       <c r="O111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P111" t="s">
         <v>82</v>
       </c>
       <c r="Q111">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="R111">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="S111">
+        <v>4.33</v>
+      </c>
+      <c r="T111">
+        <v>1.59</v>
+      </c>
+      <c r="U111">
+        <v>2.24</v>
+      </c>
+      <c r="V111">
+        <v>3.7</v>
+      </c>
+      <c r="W111">
+        <v>1.24</v>
+      </c>
+      <c r="X111">
+        <v>10.5</v>
+      </c>
+      <c r="Y111">
+        <v>1.02</v>
+      </c>
+      <c r="Z111">
+        <v>2.13</v>
+      </c>
+      <c r="AA111">
+        <v>2.9</v>
+      </c>
+      <c r="AB111">
+        <v>3.6</v>
+      </c>
+      <c r="AC111">
+        <v>1.11</v>
+      </c>
+      <c r="AD111">
+        <v>6.5</v>
+      </c>
+      <c r="AE111">
+        <v>1.57</v>
+      </c>
+      <c r="AF111">
+        <v>2.41</v>
+      </c>
+      <c r="AG111">
+        <v>2.55</v>
+      </c>
+      <c r="AH111">
+        <v>1.41</v>
+      </c>
+      <c r="AI111">
+        <v>2.2</v>
+      </c>
+      <c r="AJ111">
+        <v>1.62</v>
+      </c>
+      <c r="AK111">
+        <v>1.28</v>
+      </c>
+      <c r="AL111">
+        <v>1.3</v>
+      </c>
+      <c r="AM111">
+        <v>1.63</v>
+      </c>
+      <c r="AN111">
         <v>1.91</v>
       </c>
-      <c r="T111">
-        <v>1.33</v>
-      </c>
-      <c r="U111">
-        <v>3.16</v>
-      </c>
-      <c r="V111">
-        <v>2.55</v>
-      </c>
-      <c r="W111">
-        <v>1.48</v>
-      </c>
-      <c r="X111">
-        <v>6.1</v>
-      </c>
-      <c r="Y111">
-        <v>1.1</v>
-      </c>
-      <c r="Z111">
-        <v>6.85</v>
-      </c>
-      <c r="AA111">
-        <v>4.85</v>
-      </c>
-      <c r="AB111">
-        <v>1.35</v>
-      </c>
-      <c r="AC111">
-        <v>1.01</v>
-      </c>
-      <c r="AD111">
-        <v>10.5</v>
-      </c>
-      <c r="AE111">
-        <v>1.21</v>
-      </c>
-      <c r="AF111">
-        <v>3.75</v>
-      </c>
-      <c r="AG111">
-        <v>1.76</v>
-      </c>
-      <c r="AH111">
-        <v>1.88</v>
-      </c>
-      <c r="AI111">
-        <v>1.95</v>
-      </c>
-      <c r="AJ111">
-        <v>1.8</v>
-      </c>
-      <c r="AK111">
-        <v>3.04</v>
-      </c>
-      <c r="AL111">
-        <v>1.18</v>
-      </c>
-      <c r="AM111">
-        <v>1.08</v>
-      </c>
-      <c r="AN111">
-        <v>1.3</v>
-      </c>
       <c r="AO111">
+        <v>1.5</v>
+      </c>
+      <c r="AP111">
+        <v>1.86</v>
+      </c>
+      <c r="AQ111">
         <v>1.36</v>
       </c>
-      <c r="AP111">
-        <v>1.79</v>
-      </c>
-      <c r="AQ111">
+      <c r="AR111">
+        <v>1.37</v>
+      </c>
+      <c r="AS111">
+        <v>1.17</v>
+      </c>
+      <c r="AT111">
+        <v>2.54</v>
+      </c>
+      <c r="AU111">
+        <v>4</v>
+      </c>
+      <c r="AV111">
+        <v>3</v>
+      </c>
+      <c r="AW111">
+        <v>2</v>
+      </c>
+      <c r="AX111">
+        <v>5</v>
+      </c>
+      <c r="AY111">
+        <v>6</v>
+      </c>
+      <c r="AZ111">
+        <v>8</v>
+      </c>
+      <c r="BA111">
+        <v>5</v>
+      </c>
+      <c r="BB111">
+        <v>5</v>
+      </c>
+      <c r="BC111">
+        <v>10</v>
+      </c>
+      <c r="BD111">
+        <v>1.59</v>
+      </c>
+      <c r="BE111">
+        <v>7.8</v>
+      </c>
+      <c r="BF111">
+        <v>3</v>
+      </c>
+      <c r="BG111">
         <v>1.38</v>
       </c>
-      <c r="AR111">
-        <v>1.25</v>
-      </c>
-      <c r="AS111">
+      <c r="BH111">
+        <v>2.8</v>
+      </c>
+      <c r="BI111">
+        <v>1.67</v>
+      </c>
+      <c r="BJ111">
+        <v>2.18</v>
+      </c>
+      <c r="BK111">
+        <v>2.09</v>
+      </c>
+      <c r="BL111">
+        <v>1.72</v>
+      </c>
+      <c r="BM111">
+        <v>2.62</v>
+      </c>
+      <c r="BN111">
         <v>1.42</v>
       </c>
-      <c r="AT111">
-        <v>2.67</v>
-      </c>
-      <c r="AU111">
-        <v>8</v>
-      </c>
-      <c r="AV111">
-        <v>4</v>
-      </c>
-      <c r="AW111">
-        <v>9</v>
-      </c>
-      <c r="AX111">
-        <v>10</v>
-      </c>
-      <c r="AY111">
-        <v>17</v>
-      </c>
-      <c r="AZ111">
-        <v>14</v>
-      </c>
-      <c r="BA111">
-        <v>7</v>
-      </c>
-      <c r="BB111">
-        <v>2</v>
-      </c>
-      <c r="BC111">
-        <v>9</v>
-      </c>
-      <c r="BD111">
-        <v>4.76</v>
-      </c>
-      <c r="BE111">
-        <v>8.6</v>
-      </c>
-      <c r="BF111">
-        <v>1.31</v>
-      </c>
-      <c r="BG111">
-        <v>1.25</v>
-      </c>
-      <c r="BH111">
-        <v>3.6</v>
-      </c>
-      <c r="BI111">
-        <v>1.44</v>
-      </c>
-      <c r="BJ111">
-        <v>2.6</v>
-      </c>
-      <c r="BK111">
-        <v>2.25</v>
-      </c>
-      <c r="BL111">
-        <v>2.04</v>
-      </c>
-      <c r="BM111">
-        <v>2.19</v>
-      </c>
-      <c r="BN111">
-        <v>1.65</v>
-      </c>
       <c r="BO111">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="BP111">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="112" spans="1:68">
@@ -23933,7 +23933,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>7287121</v>
+        <v>7287117</v>
       </c>
       <c r="C112" t="s">
         <v>68</v>
@@ -23948,190 +23948,190 @@
         <v>22</v>
       </c>
       <c r="G112" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H112" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L112">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N112">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O112" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="P112" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="Q112">
-        <v>2.6</v>
+        <v>1.73</v>
       </c>
       <c r="R112">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="S112">
+        <v>8.5</v>
+      </c>
+      <c r="T112">
+        <v>1.33</v>
+      </c>
+      <c r="U112">
+        <v>3.05</v>
+      </c>
+      <c r="V112">
+        <v>2.5</v>
+      </c>
+      <c r="W112">
+        <v>1.47</v>
+      </c>
+      <c r="X112">
+        <v>5.95</v>
+      </c>
+      <c r="Y112">
+        <v>1.1</v>
+      </c>
+      <c r="Z112">
+        <v>1.23</v>
+      </c>
+      <c r="AA112">
+        <v>5.35</v>
+      </c>
+      <c r="AB112">
+        <v>10.7</v>
+      </c>
+      <c r="AC112">
+        <v>1.04</v>
+      </c>
+      <c r="AD112">
+        <v>10</v>
+      </c>
+      <c r="AE112">
+        <v>1.22</v>
+      </c>
+      <c r="AF112">
         <v>4</v>
       </c>
-      <c r="T112">
-        <v>1.41</v>
-      </c>
-      <c r="U112">
-        <v>2.7</v>
-      </c>
-      <c r="V112">
-        <v>2.95</v>
-      </c>
-      <c r="W112">
-        <v>1.35</v>
-      </c>
-      <c r="X112">
-        <v>7.4</v>
-      </c>
-      <c r="Y112">
-        <v>1.06</v>
-      </c>
-      <c r="Z112">
-        <v>1.86</v>
-      </c>
-      <c r="AA112">
-        <v>3.35</v>
-      </c>
-      <c r="AB112">
-        <v>3.85</v>
-      </c>
-      <c r="AC112">
-        <v>1.02</v>
-      </c>
-      <c r="AD112">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AE112">
-        <v>1.29</v>
-      </c>
-      <c r="AF112">
-        <v>3.15</v>
-      </c>
       <c r="AG112">
-        <v>1.92</v>
+        <v>1.62</v>
       </c>
       <c r="AH112">
-        <v>1.73</v>
+        <v>2.07</v>
       </c>
       <c r="AI112">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="AJ112">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AK112">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="AL112">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AM112">
-        <v>1.83</v>
+        <v>3.4</v>
       </c>
       <c r="AN112">
-        <v>1.58</v>
+        <v>2.17</v>
       </c>
       <c r="AO112">
-        <v>1.33</v>
+        <v>0.27</v>
       </c>
       <c r="AP112">
-        <v>1.64</v>
+        <v>2.14</v>
       </c>
       <c r="AQ112">
-        <v>1.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR112">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="AS112">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="AT112">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="AU112">
         <v>8</v>
       </c>
       <c r="AV112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW112">
         <v>7</v>
       </c>
       <c r="AX112">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY112">
         <v>15</v>
       </c>
       <c r="AZ112">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA112">
         <v>7</v>
       </c>
       <c r="BB112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC112">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD112">
+        <v>1.18</v>
+      </c>
+      <c r="BE112">
+        <v>13.5</v>
+      </c>
+      <c r="BF112">
+        <v>5.95</v>
+      </c>
+      <c r="BG112">
+        <v>1.25</v>
+      </c>
+      <c r="BH112">
+        <v>3.6</v>
+      </c>
+      <c r="BI112">
+        <v>1.42</v>
+      </c>
+      <c r="BJ112">
+        <v>2.62</v>
+      </c>
+      <c r="BK112">
+        <v>2</v>
+      </c>
+      <c r="BL112">
+        <v>2.07</v>
+      </c>
+      <c r="BM112">
+        <v>2.19</v>
+      </c>
+      <c r="BN112">
         <v>1.65</v>
       </c>
-      <c r="BE112">
-        <v>7.8</v>
-      </c>
-      <c r="BF112">
-        <v>2.81</v>
-      </c>
-      <c r="BG112">
-        <v>1.22</v>
-      </c>
-      <c r="BH112">
-        <v>3.8</v>
-      </c>
-      <c r="BI112">
-        <v>1.4</v>
-      </c>
-      <c r="BJ112">
-        <v>2.7</v>
-      </c>
-      <c r="BK112">
-        <v>2.1</v>
-      </c>
-      <c r="BL112">
-        <v>2.2</v>
-      </c>
-      <c r="BM112">
-        <v>2.04</v>
-      </c>
-      <c r="BN112">
-        <v>1.75</v>
-      </c>
       <c r="BO112">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="BP112">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="113" spans="1:68">
@@ -24345,7 +24345,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>7287124</v>
+        <v>7287123</v>
       </c>
       <c r="C114" t="s">
         <v>68</v>
@@ -24360,190 +24360,190 @@
         <v>23</v>
       </c>
       <c r="G114" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H114" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M114">
         <v>1</v>
       </c>
       <c r="N114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O114" t="s">
         <v>150</v>
       </c>
       <c r="P114" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="Q114">
-        <v>6.5</v>
+        <v>2.88</v>
       </c>
       <c r="R114">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S114">
-        <v>2.2</v>
+        <v>4.33</v>
       </c>
       <c r="T114">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="U114">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="V114">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="W114">
         <v>1.33</v>
       </c>
       <c r="X114">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Y114">
         <v>1.06</v>
       </c>
       <c r="Z114">
-        <v>5.24</v>
+        <v>1.99</v>
       </c>
       <c r="AA114">
-        <v>3.75</v>
+        <v>3.27</v>
       </c>
       <c r="AB114">
-        <v>1.63</v>
+        <v>3.86</v>
       </c>
       <c r="AC114">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AD114">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE114">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AF114">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AG114">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AH114">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AI114">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AJ114">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="AK114">
-        <v>2.2</v>
+        <v>1.28</v>
       </c>
       <c r="AL114">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM114">
-        <v>1.14</v>
+        <v>1.73</v>
       </c>
       <c r="AN114">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AO114">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AP114">
-        <v>1.79</v>
+        <v>1.54</v>
       </c>
       <c r="AQ114">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="AR114">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AS114">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AT114">
-        <v>2.72</v>
+        <v>2.51</v>
       </c>
       <c r="AU114">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV114">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW114">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX114">
         <v>5</v>
       </c>
       <c r="AY114">
+        <v>14</v>
+      </c>
+      <c r="AZ114">
+        <v>7</v>
+      </c>
+      <c r="BA114">
+        <v>4</v>
+      </c>
+      <c r="BB114">
+        <v>2</v>
+      </c>
+      <c r="BC114">
         <v>6</v>
       </c>
-      <c r="AZ114">
-        <v>12</v>
-      </c>
-      <c r="BA114">
-        <v>3</v>
-      </c>
-      <c r="BB114">
-        <v>5</v>
-      </c>
-      <c r="BC114">
+      <c r="BD114">
+        <v>1.64</v>
+      </c>
+      <c r="BE114">
         <v>8</v>
       </c>
-      <c r="BD114">
-        <v>4.26</v>
-      </c>
-      <c r="BE114">
-        <v>7.6</v>
-      </c>
       <c r="BF114">
-        <v>1.38</v>
+        <v>2.81</v>
       </c>
       <c r="BG114">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="BH114">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="BI114">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="BJ114">
-        <v>2.32</v>
+        <v>2.75</v>
       </c>
       <c r="BK114">
         <v>2</v>
       </c>
       <c r="BL114">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
       <c r="BM114">
-        <v>2.48</v>
+        <v>1.9</v>
       </c>
       <c r="BN114">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="BO114">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="BP114">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="115" spans="1:68">
@@ -24551,7 +24551,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7287123</v>
+        <v>7287124</v>
       </c>
       <c r="C115" t="s">
         <v>68</v>
@@ -24566,190 +24566,190 @@
         <v>23</v>
       </c>
       <c r="G115" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H115" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M115">
         <v>1</v>
       </c>
       <c r="N115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O115" t="s">
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="Q115">
-        <v>2.88</v>
+        <v>6.5</v>
       </c>
       <c r="R115">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S115">
-        <v>4.33</v>
+        <v>2.2</v>
       </c>
       <c r="T115">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="U115">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="V115">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="W115">
         <v>1.33</v>
       </c>
       <c r="X115">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="Y115">
         <v>1.06</v>
       </c>
       <c r="Z115">
-        <v>1.99</v>
+        <v>5.24</v>
       </c>
       <c r="AA115">
-        <v>3.27</v>
+        <v>3.75</v>
       </c>
       <c r="AB115">
-        <v>3.86</v>
+        <v>1.63</v>
       </c>
       <c r="AC115">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AD115">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE115">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AF115">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AG115">
+        <v>2.1</v>
+      </c>
+      <c r="AH115">
+        <v>1.7</v>
+      </c>
+      <c r="AI115">
         <v>2.2</v>
       </c>
-      <c r="AH115">
+      <c r="AJ115">
         <v>1.62</v>
       </c>
-      <c r="AI115">
-        <v>2</v>
-      </c>
-      <c r="AJ115">
-        <v>1.75</v>
-      </c>
       <c r="AK115">
-        <v>1.28</v>
+        <v>2.2</v>
       </c>
       <c r="AL115">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM115">
-        <v>1.73</v>
+        <v>1.14</v>
       </c>
       <c r="AN115">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AO115">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AP115">
-        <v>1.54</v>
+        <v>1.79</v>
       </c>
       <c r="AQ115">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR115">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AS115">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="AT115">
-        <v>2.51</v>
+        <v>2.72</v>
       </c>
       <c r="AU115">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV115">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW115">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AX115">
         <v>5</v>
       </c>
       <c r="AY115">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AZ115">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA115">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB115">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC115">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD115">
-        <v>1.64</v>
+        <v>4.26</v>
       </c>
       <c r="BE115">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="BF115">
-        <v>2.81</v>
+        <v>1.38</v>
       </c>
       <c r="BG115">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="BH115">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="BI115">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="BJ115">
-        <v>2.75</v>
+        <v>2.32</v>
       </c>
       <c r="BK115">
         <v>2</v>
       </c>
       <c r="BL115">
-        <v>2.08</v>
+        <v>1.8</v>
       </c>
       <c r="BM115">
-        <v>1.9</v>
+        <v>2.48</v>
       </c>
       <c r="BN115">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="BO115">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="BP115">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="116" spans="1:68">
@@ -25169,7 +25169,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>7287129</v>
+        <v>7287131</v>
       </c>
       <c r="C118" t="s">
         <v>68</v>
@@ -25184,190 +25184,190 @@
         <v>24</v>
       </c>
       <c r="G118" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H118" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K118">
         <v>1</v>
       </c>
       <c r="L118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O118" t="s">
+        <v>120</v>
+      </c>
+      <c r="P118" t="s">
         <v>82</v>
       </c>
-      <c r="P118" t="s">
-        <v>215</v>
-      </c>
       <c r="Q118">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R118">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S118">
         <v>4.33</v>
       </c>
       <c r="T118">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="U118">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="V118">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W118">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X118">
-        <v>6.85</v>
+        <v>7.7</v>
       </c>
       <c r="Y118">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z118">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AA118">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AB118">
         <v>3.75</v>
       </c>
       <c r="AC118">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD118">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE118">
+        <v>1.35</v>
+      </c>
+      <c r="AF118">
+        <v>3.1</v>
+      </c>
+      <c r="AG118">
+        <v>1.95</v>
+      </c>
+      <c r="AH118">
+        <v>1.85</v>
+      </c>
+      <c r="AI118">
+        <v>1.8</v>
+      </c>
+      <c r="AJ118">
+        <v>1.95</v>
+      </c>
+      <c r="AK118">
         <v>1.28</v>
       </c>
-      <c r="AF118">
-        <v>3.5</v>
-      </c>
-      <c r="AG118">
-        <v>1.8</v>
-      </c>
-      <c r="AH118">
-        <v>2</v>
-      </c>
-      <c r="AI118">
-        <v>1.7</v>
-      </c>
-      <c r="AJ118">
-        <v>2.05</v>
-      </c>
-      <c r="AK118">
-        <v>1.18</v>
-      </c>
       <c r="AL118">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM118">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="AN118">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="AO118">
-        <v>1.09</v>
+        <v>1.55</v>
       </c>
       <c r="AP118">
-        <v>1</v>
+        <v>1.54</v>
       </c>
       <c r="AQ118">
-        <v>1.07</v>
+        <v>1.43</v>
       </c>
       <c r="AR118">
-        <v>1.15</v>
+        <v>1.38</v>
       </c>
       <c r="AS118">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="AT118">
-        <v>2.18</v>
+        <v>2.49</v>
       </c>
       <c r="AU118">
+        <v>3</v>
+      </c>
+      <c r="AV118">
+        <v>4</v>
+      </c>
+      <c r="AW118">
+        <v>8</v>
+      </c>
+      <c r="AX118">
+        <v>4</v>
+      </c>
+      <c r="AY118">
         <v>11</v>
-      </c>
-      <c r="AV118">
-        <v>3</v>
-      </c>
-      <c r="AW118">
-        <v>7</v>
-      </c>
-      <c r="AX118">
-        <v>5</v>
-      </c>
-      <c r="AY118">
-        <v>18</v>
       </c>
       <c r="AZ118">
         <v>8</v>
       </c>
       <c r="BA118">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB118">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC118">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD118">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="BE118">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF118">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BG118">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="BH118">
-        <v>3.92</v>
+        <v>3.42</v>
       </c>
       <c r="BI118">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="BJ118">
-        <v>2.72</v>
+        <v>2.44</v>
       </c>
       <c r="BK118">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="BL118">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="BM118">
-        <v>2.14</v>
+        <v>2.39</v>
       </c>
       <c r="BN118">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="BO118">
-        <v>2.79</v>
+        <v>3.2</v>
       </c>
       <c r="BP118">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="119" spans="1:68">
@@ -25417,7 +25417,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25581,7 +25581,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>7287131</v>
+        <v>7287129</v>
       </c>
       <c r="C120" t="s">
         <v>68</v>
@@ -25596,190 +25596,190 @@
         <v>24</v>
       </c>
       <c r="G120" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H120" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K120">
         <v>1</v>
       </c>
       <c r="L120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O120" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="P120" t="s">
-        <v>82</v>
+        <v>216</v>
       </c>
       <c r="Q120">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R120">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S120">
         <v>4.33</v>
       </c>
       <c r="T120">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="U120">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="V120">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W120">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X120">
-        <v>7.7</v>
+        <v>6.85</v>
       </c>
       <c r="Y120">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z120">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="AA120">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AB120">
         <v>3.75</v>
       </c>
       <c r="AC120">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD120">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE120">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AF120">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="AG120">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AH120">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AI120">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AJ120">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AK120">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AL120">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM120">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="AN120">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="AO120">
-        <v>1.55</v>
+        <v>1.09</v>
       </c>
       <c r="AP120">
-        <v>1.54</v>
+        <v>1</v>
       </c>
       <c r="AQ120">
-        <v>1.43</v>
+        <v>1.07</v>
       </c>
       <c r="AR120">
-        <v>1.38</v>
+        <v>1.15</v>
       </c>
       <c r="AS120">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="AT120">
-        <v>2.49</v>
+        <v>2.18</v>
       </c>
       <c r="AU120">
+        <v>11</v>
+      </c>
+      <c r="AV120">
         <v>3</v>
       </c>
-      <c r="AV120">
-        <v>4</v>
-      </c>
       <c r="AW120">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX120">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY120">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AZ120">
         <v>8</v>
       </c>
       <c r="BA120">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB120">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC120">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD120">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="BE120">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="BF120">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="BG120">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="BH120">
-        <v>3.42</v>
+        <v>3.92</v>
       </c>
       <c r="BI120">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="BJ120">
-        <v>2.44</v>
+        <v>2.72</v>
       </c>
       <c r="BK120">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="BL120">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="BM120">
-        <v>2.39</v>
+        <v>2.14</v>
       </c>
       <c r="BN120">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="BO120">
-        <v>3.2</v>
+        <v>2.79</v>
       </c>
       <c r="BP120">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="121" spans="1:68">
@@ -25787,7 +25787,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>7287135</v>
+        <v>7287134</v>
       </c>
       <c r="C121" t="s">
         <v>68</v>
@@ -25802,25 +25802,25 @@
         <v>25</v>
       </c>
       <c r="G121" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H121" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N121">
         <v>2</v>
@@ -25829,163 +25829,163 @@
         <v>155</v>
       </c>
       <c r="P121" t="s">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="Q121">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="R121">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S121">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="T121">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U121">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V121">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="W121">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X121">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y121">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z121">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AA121">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB121">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="AC121">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD121">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AE121">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AF121">
-        <v>3.28</v>
+        <v>3.1</v>
       </c>
       <c r="AG121">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="AH121">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AI121">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AJ121">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AK121">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="AL121">
         <v>1.33</v>
       </c>
       <c r="AM121">
-        <v>1.43</v>
+        <v>1.72</v>
       </c>
       <c r="AN121">
-        <v>1.27</v>
+        <v>1.09</v>
       </c>
       <c r="AO121">
-        <v>1.42</v>
+        <v>0.42</v>
       </c>
       <c r="AP121">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ121">
-        <v>1.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR121">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="AS121">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AT121">
-        <v>2.5</v>
+        <v>2.21</v>
       </c>
       <c r="AU121">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV121">
         <v>3</v>
       </c>
       <c r="AW121">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX121">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY121">
+        <v>13</v>
+      </c>
+      <c r="AZ121">
+        <v>8</v>
+      </c>
+      <c r="BA121">
+        <v>10</v>
+      </c>
+      <c r="BB121">
+        <v>2</v>
+      </c>
+      <c r="BC121">
         <v>12</v>
       </c>
-      <c r="AZ121">
-        <v>4</v>
-      </c>
-      <c r="BA121">
-        <v>1</v>
-      </c>
-      <c r="BB121">
-        <v>6</v>
-      </c>
-      <c r="BC121">
-        <v>7</v>
-      </c>
       <c r="BD121">
-        <v>2.12</v>
+        <v>1.7</v>
       </c>
       <c r="BE121">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="BF121">
-        <v>2.15</v>
+        <v>2.81</v>
       </c>
       <c r="BG121">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="BH121">
-        <v>3.2</v>
+        <v>3.34</v>
       </c>
       <c r="BI121">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="BJ121">
-        <v>2.32</v>
+        <v>2.39</v>
       </c>
       <c r="BK121">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="BL121">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="BM121">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="BN121">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="BO121">
-        <v>3.42</v>
+        <v>3.28</v>
       </c>
       <c r="BP121">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="122" spans="1:68">
@@ -25993,7 +25993,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>7287134</v>
+        <v>7287135</v>
       </c>
       <c r="C122" t="s">
         <v>68</v>
@@ -26008,25 +26008,25 @@
         <v>25</v>
       </c>
       <c r="G122" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H122" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N122">
         <v>2</v>
@@ -26035,163 +26035,163 @@
         <v>156</v>
       </c>
       <c r="P122" t="s">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="Q122">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R122">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S122">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="T122">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U122">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V122">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="W122">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X122">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y122">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z122">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AA122">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AB122">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="AC122">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD122">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AE122">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="AF122">
-        <v>3.1</v>
+        <v>3.28</v>
       </c>
       <c r="AG122">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="AH122">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="AI122">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AJ122">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AK122">
-        <v>1.2</v>
+        <v>1.53</v>
       </c>
       <c r="AL122">
         <v>1.33</v>
       </c>
       <c r="AM122">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="AN122">
-        <v>1.09</v>
+        <v>1.27</v>
       </c>
       <c r="AO122">
-        <v>0.42</v>
+        <v>1.42</v>
       </c>
       <c r="AP122">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ122">
-        <v>0.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR122">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="AS122">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AT122">
-        <v>2.21</v>
+        <v>2.5</v>
       </c>
       <c r="AU122">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV122">
         <v>3</v>
       </c>
       <c r="AW122">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX122">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY122">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ122">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BA122">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BB122">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC122">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BD122">
-        <v>1.7</v>
+        <v>2.12</v>
       </c>
       <c r="BE122">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="BF122">
-        <v>2.81</v>
+        <v>2.15</v>
       </c>
       <c r="BG122">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="BH122">
-        <v>3.34</v>
+        <v>3.2</v>
       </c>
       <c r="BI122">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="BJ122">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="BK122">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="BL122">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="BM122">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="BN122">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="BO122">
-        <v>3.28</v>
+        <v>3.42</v>
       </c>
       <c r="BP122">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="123" spans="1:68">
@@ -26405,7 +26405,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>7287137</v>
+        <v>7287141</v>
       </c>
       <c r="C124" t="s">
         <v>68</v>
@@ -26420,160 +26420,160 @@
         <v>26</v>
       </c>
       <c r="G124" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H124" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
         <v>3</v>
       </c>
-      <c r="L124">
-        <v>2</v>
-      </c>
-      <c r="M124">
-        <v>2</v>
-      </c>
-      <c r="N124">
-        <v>4</v>
-      </c>
       <c r="O124" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P124" t="s">
         <v>218</v>
       </c>
       <c r="Q124">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="R124">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S124">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="T124">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="U124">
-        <v>3.21</v>
+        <v>3.28</v>
       </c>
       <c r="V124">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="W124">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="X124">
-        <v>6.45</v>
+        <v>5.9</v>
       </c>
       <c r="Y124">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z124">
+        <v>4</v>
+      </c>
+      <c r="AA124">
+        <v>3.9</v>
+      </c>
+      <c r="AB124">
+        <v>1.7</v>
+      </c>
+      <c r="AC124">
+        <v>1.03</v>
+      </c>
+      <c r="AD124">
+        <v>11</v>
+      </c>
+      <c r="AE124">
+        <v>1.19</v>
+      </c>
+      <c r="AF124">
+        <v>3.98</v>
+      </c>
+      <c r="AG124">
+        <v>1.8</v>
+      </c>
+      <c r="AH124">
+        <v>2</v>
+      </c>
+      <c r="AI124">
+        <v>1.75</v>
+      </c>
+      <c r="AJ124">
+        <v>2</v>
+      </c>
+      <c r="AK124">
+        <v>2.1</v>
+      </c>
+      <c r="AL124">
+        <v>1.18</v>
+      </c>
+      <c r="AM124">
+        <v>1.16</v>
+      </c>
+      <c r="AN124">
+        <v>1.67</v>
+      </c>
+      <c r="AO124">
+        <v>1.25</v>
+      </c>
+      <c r="AP124">
+        <v>1.43</v>
+      </c>
+      <c r="AQ124">
+        <v>1.38</v>
+      </c>
+      <c r="AR124">
+        <v>1.28</v>
+      </c>
+      <c r="AS124">
+        <v>1.43</v>
+      </c>
+      <c r="AT124">
+        <v>2.71</v>
+      </c>
+      <c r="AU124">
+        <v>4</v>
+      </c>
+      <c r="AV124">
+        <v>8</v>
+      </c>
+      <c r="AW124">
+        <v>6</v>
+      </c>
+      <c r="AX124">
         <v>3</v>
       </c>
-      <c r="AA124">
-        <v>3.4</v>
-      </c>
-      <c r="AB124">
-        <v>2.15</v>
-      </c>
-      <c r="AC124">
-        <v>1.01</v>
-      </c>
-      <c r="AD124">
+      <c r="AY124">
         <v>10</v>
       </c>
-      <c r="AE124">
-        <v>1.22</v>
-      </c>
-      <c r="AF124">
-        <v>3.64</v>
-      </c>
-      <c r="AG124">
-        <v>1.85</v>
-      </c>
-      <c r="AH124">
-        <v>1.95</v>
-      </c>
-      <c r="AI124">
-        <v>1.7</v>
-      </c>
-      <c r="AJ124">
-        <v>2.05</v>
-      </c>
-      <c r="AK124">
-        <v>1.74</v>
-      </c>
-      <c r="AL124">
-        <v>1.29</v>
-      </c>
-      <c r="AM124">
-        <v>1.33</v>
-      </c>
-      <c r="AN124">
-        <v>1.42</v>
-      </c>
-      <c r="AO124">
-        <v>1.27</v>
-      </c>
-      <c r="AP124">
-        <v>1.5</v>
-      </c>
-      <c r="AQ124">
-        <v>1.23</v>
-      </c>
-      <c r="AR124">
-        <v>1.39</v>
-      </c>
-      <c r="AS124">
-        <v>1.15</v>
-      </c>
-      <c r="AT124">
-        <v>2.54</v>
-      </c>
-      <c r="AU124">
-        <v>6</v>
-      </c>
-      <c r="AV124">
-        <v>7</v>
-      </c>
-      <c r="AW124">
-        <v>10</v>
-      </c>
-      <c r="AX124">
-        <v>5</v>
-      </c>
-      <c r="AY124">
-        <v>16</v>
-      </c>
       <c r="AZ124">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA124">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB124">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BC124">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD124">
-        <v>2.25</v>
+        <v>2.81</v>
       </c>
       <c r="BE124">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="BF124">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="BG124">
         <v>1.25</v>
@@ -26588,10 +26588,10 @@
         <v>2.6</v>
       </c>
       <c r="BK124">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="BL124">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="BM124">
         <v>2.23</v>
@@ -26611,7 +26611,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>7287138</v>
+        <v>7287137</v>
       </c>
       <c r="C125" t="s">
         <v>68</v>
@@ -26626,190 +26626,190 @@
         <v>26</v>
       </c>
       <c r="G125" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H125" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M125">
         <v>2</v>
       </c>
       <c r="N125">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O125" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="P125" t="s">
         <v>219</v>
       </c>
       <c r="Q125">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R125">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S125">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="T125">
-        <v>1.53</v>
+        <v>1.34</v>
       </c>
       <c r="U125">
-        <v>2.38</v>
+        <v>3.21</v>
       </c>
       <c r="V125">
-        <v>3.45</v>
+        <v>2.7</v>
       </c>
       <c r="W125">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="X125">
-        <v>9.199999999999999</v>
+        <v>6.45</v>
       </c>
       <c r="Y125">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="Z125">
         <v>3</v>
       </c>
       <c r="AA125">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AB125">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AC125">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AD125">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AE125">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="AF125">
-        <v>2.7</v>
+        <v>3.64</v>
       </c>
       <c r="AG125">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="AH125">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="AI125">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AJ125">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="AK125">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="AL125">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AM125">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AN125">
         <v>1.42</v>
       </c>
       <c r="AO125">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AP125">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AQ125">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="AR125">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AS125">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AT125">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="AU125">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV125">
+        <v>7</v>
+      </c>
+      <c r="AW125">
+        <v>10</v>
+      </c>
+      <c r="AX125">
         <v>5</v>
       </c>
-      <c r="AW125">
-        <v>11</v>
-      </c>
-      <c r="AX125">
-        <v>8</v>
-      </c>
       <c r="AY125">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ125">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA125">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB125">
         <v>8</v>
       </c>
       <c r="BC125">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD125">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="BE125">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="BF125">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="BG125">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="BH125">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="BI125">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="BJ125">
-        <v>2.17</v>
+        <v>2.6</v>
       </c>
       <c r="BK125">
-        <v>2.07</v>
+        <v>2.38</v>
       </c>
       <c r="BL125">
-        <v>1.71</v>
+        <v>1.95</v>
       </c>
       <c r="BM125">
-        <v>2.65</v>
+        <v>2.23</v>
       </c>
       <c r="BN125">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="BO125">
-        <v>3.6</v>
+        <v>2.85</v>
       </c>
       <c r="BP125">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="126" spans="1:68">
@@ -26817,7 +26817,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>7287141</v>
+        <v>7287138</v>
       </c>
       <c r="C126" t="s">
         <v>68</v>
@@ -26832,190 +26832,190 @@
         <v>26</v>
       </c>
       <c r="G126" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H126" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M126">
         <v>2</v>
       </c>
       <c r="N126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O126" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="P126" t="s">
         <v>220</v>
       </c>
       <c r="Q126">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="R126">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="S126">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="T126">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="U126">
-        <v>3.28</v>
+        <v>2.38</v>
       </c>
       <c r="V126">
-        <v>2.55</v>
+        <v>3.45</v>
       </c>
       <c r="W126">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="X126">
-        <v>5.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y126">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="Z126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA126">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="AB126">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="AC126">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="AD126">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AE126">
-        <v>1.19</v>
+        <v>1.45</v>
       </c>
       <c r="AF126">
-        <v>3.98</v>
+        <v>2.7</v>
       </c>
       <c r="AG126">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="AH126">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AI126">
+        <v>2</v>
+      </c>
+      <c r="AJ126">
         <v>1.75</v>
       </c>
-      <c r="AJ126">
-        <v>2</v>
-      </c>
       <c r="AK126">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="AL126">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AM126">
-        <v>1.16</v>
+        <v>1.35</v>
       </c>
       <c r="AN126">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AO126">
         <v>1.25</v>
       </c>
       <c r="AP126">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="AQ126">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR126">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AS126">
-        <v>1.43</v>
+        <v>1.19</v>
       </c>
       <c r="AT126">
-        <v>2.71</v>
+        <v>2.55</v>
       </c>
       <c r="AU126">
+        <v>2</v>
+      </c>
+      <c r="AV126">
+        <v>5</v>
+      </c>
+      <c r="AW126">
+        <v>11</v>
+      </c>
+      <c r="AX126">
+        <v>8</v>
+      </c>
+      <c r="AY126">
+        <v>13</v>
+      </c>
+      <c r="AZ126">
+        <v>13</v>
+      </c>
+      <c r="BA126">
         <v>4</v>
       </c>
-      <c r="AV126">
+      <c r="BB126">
         <v>8</v>
       </c>
-      <c r="AW126">
-        <v>6</v>
-      </c>
-      <c r="AX126">
-        <v>3</v>
-      </c>
-      <c r="AY126">
-        <v>10</v>
-      </c>
-      <c r="AZ126">
-        <v>11</v>
-      </c>
-      <c r="BA126">
-        <v>3</v>
-      </c>
-      <c r="BB126">
-        <v>11</v>
-      </c>
       <c r="BC126">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD126">
-        <v>2.81</v>
+        <v>2</v>
       </c>
       <c r="BE126">
-        <v>7.8</v>
+        <v>6.9</v>
       </c>
       <c r="BF126">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="BG126">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="BH126">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="BI126">
-        <v>1.46</v>
+        <v>1.64</v>
       </c>
       <c r="BJ126">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="BK126">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="BL126">
-        <v>1.98</v>
+        <v>1.71</v>
       </c>
       <c r="BM126">
-        <v>2.23</v>
+        <v>2.65</v>
       </c>
       <c r="BN126">
-        <v>1.61</v>
+        <v>1.44</v>
       </c>
       <c r="BO126">
-        <v>2.85</v>
+        <v>3.6</v>
       </c>
       <c r="BP126">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="127" spans="1:68">
@@ -27435,7 +27435,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>7287143</v>
+        <v>7287142</v>
       </c>
       <c r="C129" t="s">
         <v>68</v>
@@ -27450,70 +27450,70 @@
         <v>27</v>
       </c>
       <c r="G129" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H129" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N129">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O129" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="P129" t="s">
         <v>222</v>
       </c>
       <c r="Q129">
-        <v>1.73</v>
+        <v>2.38</v>
       </c>
       <c r="R129">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="S129">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="T129">
         <v>1.36</v>
       </c>
       <c r="U129">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="V129">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="W129">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X129">
-        <v>8</v>
+        <v>6.75</v>
       </c>
       <c r="Y129">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="Z129">
-        <v>1.29</v>
+        <v>1.73</v>
       </c>
       <c r="AA129">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="AB129">
-        <v>9.5</v>
+        <v>4.1</v>
       </c>
       <c r="AC129">
         <v>1.05</v>
@@ -27525,7 +27525,7 @@
         <v>1.28</v>
       </c>
       <c r="AF129">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AG129">
         <v>1.8</v>
@@ -27534,106 +27534,106 @@
         <v>2</v>
       </c>
       <c r="AI129">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="AJ129">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AK129">
-        <v>1.07</v>
+        <v>1.28</v>
       </c>
       <c r="AL129">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AM129">
-        <v>2.88</v>
+        <v>1.77</v>
       </c>
       <c r="AN129">
-        <v>2.23</v>
+        <v>1.08</v>
       </c>
       <c r="AO129">
-        <v>0.46</v>
+        <v>1.31</v>
       </c>
       <c r="AP129">
-        <v>2.14</v>
+        <v>1</v>
       </c>
       <c r="AQ129">
-        <v>0.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR129">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="AS129">
-        <v>0.95</v>
+        <v>1.09</v>
       </c>
       <c r="AT129">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AU129">
         <v>7</v>
       </c>
       <c r="AV129">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW129">
+        <v>6</v>
+      </c>
+      <c r="AX129">
         <v>9</v>
       </c>
-      <c r="AX129">
-        <v>2</v>
-      </c>
       <c r="AY129">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ129">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BA129">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BB129">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BC129">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BD129">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="BE129">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="BF129">
-        <v>4.44</v>
+        <v>2.44</v>
       </c>
       <c r="BG129">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="BH129">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="BI129">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="BJ129">
-        <v>2.33</v>
+        <v>2.62</v>
       </c>
       <c r="BK129">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="BL129">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="BM129">
-        <v>2.55</v>
+        <v>2.07</v>
       </c>
       <c r="BN129">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
       <c r="BO129">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="BP129">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="130" spans="1:68">
@@ -27641,7 +27641,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>7287142</v>
+        <v>7287143</v>
       </c>
       <c r="C130" t="s">
         <v>68</v>
@@ -27656,70 +27656,70 @@
         <v>27</v>
       </c>
       <c r="G130" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H130" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N130">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O130" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="P130" t="s">
         <v>223</v>
       </c>
       <c r="Q130">
-        <v>2.38</v>
+        <v>1.73</v>
       </c>
       <c r="R130">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="S130">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="T130">
         <v>1.36</v>
       </c>
       <c r="U130">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="V130">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="W130">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X130">
-        <v>6.75</v>
+        <v>8</v>
       </c>
       <c r="Y130">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="Z130">
-        <v>1.73</v>
+        <v>1.29</v>
       </c>
       <c r="AA130">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="AB130">
-        <v>4.1</v>
+        <v>9.5</v>
       </c>
       <c r="AC130">
         <v>1.05</v>
@@ -27731,7 +27731,7 @@
         <v>1.28</v>
       </c>
       <c r="AF130">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AG130">
         <v>1.8</v>
@@ -27740,106 +27740,106 @@
         <v>2</v>
       </c>
       <c r="AI130">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="AJ130">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AK130">
-        <v>1.28</v>
+        <v>1.07</v>
       </c>
       <c r="AL130">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AM130">
-        <v>1.77</v>
+        <v>2.88</v>
       </c>
       <c r="AN130">
-        <v>1.08</v>
+        <v>2.23</v>
       </c>
       <c r="AO130">
-        <v>1.31</v>
+        <v>0.46</v>
       </c>
       <c r="AP130">
-        <v>1</v>
+        <v>2.14</v>
       </c>
       <c r="AQ130">
-        <v>1.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR130">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AS130">
-        <v>1.09</v>
+        <v>0.95</v>
       </c>
       <c r="AT130">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AU130">
         <v>7</v>
       </c>
       <c r="AV130">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW130">
+        <v>9</v>
+      </c>
+      <c r="AX130">
+        <v>2</v>
+      </c>
+      <c r="AY130">
+        <v>16</v>
+      </c>
+      <c r="AZ130">
         <v>6</v>
       </c>
-      <c r="AX130">
-        <v>9</v>
-      </c>
-      <c r="AY130">
-        <v>13</v>
-      </c>
-      <c r="AZ130">
+      <c r="BA130">
+        <v>10</v>
+      </c>
+      <c r="BB130">
+        <v>4</v>
+      </c>
+      <c r="BC130">
         <v>14</v>
       </c>
-      <c r="BA130">
-        <v>5</v>
-      </c>
-      <c r="BB130">
-        <v>12</v>
-      </c>
-      <c r="BC130">
-        <v>17</v>
-      </c>
       <c r="BD130">
+        <v>1.3</v>
+      </c>
+      <c r="BE130">
+        <v>9.5</v>
+      </c>
+      <c r="BF130">
+        <v>4.44</v>
+      </c>
+      <c r="BG130">
+        <v>1.28</v>
+      </c>
+      <c r="BH130">
+        <v>3.35</v>
+      </c>
+      <c r="BI130">
+        <v>1.53</v>
+      </c>
+      <c r="BJ130">
+        <v>2.33</v>
+      </c>
+      <c r="BK130">
+        <v>1.96</v>
+      </c>
+      <c r="BL130">
         <v>1.75</v>
       </c>
-      <c r="BE130">
-        <v>8</v>
-      </c>
-      <c r="BF130">
-        <v>2.44</v>
-      </c>
-      <c r="BG130">
-        <v>1.25</v>
-      </c>
-      <c r="BH130">
-        <v>3.6</v>
-      </c>
-      <c r="BI130">
-        <v>1.42</v>
-      </c>
-      <c r="BJ130">
-        <v>2.62</v>
-      </c>
-      <c r="BK130">
-        <v>2.1</v>
-      </c>
-      <c r="BL130">
-        <v>1.92</v>
-      </c>
       <c r="BM130">
-        <v>2.07</v>
+        <v>2.55</v>
       </c>
       <c r="BN130">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="BO130">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="BP130">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="131" spans="1:68">
@@ -28092,7 +28092,7 @@
         <v>2</v>
       </c>
       <c r="O132" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P132" t="s">
         <v>225</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="227">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,6 +514,9 @@
     <t>['88']</t>
   </si>
   <si>
+    <t>['76']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -611,9 +614,6 @@
   </si>
   <si>
     <t>['22']</t>
-  </si>
-  <si>
-    <t>['76']</t>
   </si>
   <si>
     <t>['2', '35', '61']</t>
@@ -1056,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP137"/>
+  <dimension ref="A1:BP139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1315,7 +1315,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1521,7 +1521,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ4">
         <v>0.6899999999999999</v>
@@ -1933,7 +1933,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2014,7 +2014,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ5">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2345,7 +2345,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2551,7 +2551,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2629,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ8">
         <v>1.36</v>
@@ -2757,7 +2757,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3250,7 +3250,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ11">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3375,7 +3375,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3456,7 +3456,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ12">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR12">
         <v>1</v>
@@ -3581,7 +3581,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3659,7 +3659,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ13">
         <v>1.43</v>
@@ -3787,7 +3787,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4199,7 +4199,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4277,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ16">
         <v>1.07</v>
@@ -4611,7 +4611,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4817,7 +4817,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -4898,7 +4898,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ19">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR19">
         <v>1.24</v>
@@ -5229,7 +5229,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5310,7 +5310,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR21">
         <v>1.54</v>
@@ -5719,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ23">
         <v>0.29</v>
@@ -6053,7 +6053,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6134,7 +6134,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ25">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR25">
         <v>1.56</v>
@@ -6337,7 +6337,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ26">
         <v>1.38</v>
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ27">
         <v>1.43</v>
@@ -6671,7 +6671,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6752,7 +6752,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -7701,7 +7701,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7907,7 +7907,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8191,7 +8191,7 @@
         <v>0.33</v>
       </c>
       <c r="AP35">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ35">
         <v>0.29</v>
@@ -8319,7 +8319,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8812,7 +8812,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ38">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR38">
         <v>0.99</v>
@@ -8937,7 +8937,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9015,7 +9015,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ39">
         <v>1.23</v>
@@ -9143,7 +9143,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9349,7 +9349,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9555,7 +9555,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9636,7 +9636,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR42">
         <v>1.38</v>
@@ -9761,7 +9761,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10173,7 +10173,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10254,7 +10254,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR45">
         <v>1.32</v>
@@ -10457,7 +10457,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ46">
         <v>0.6899999999999999</v>
@@ -11409,7 +11409,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11615,7 +11615,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12105,10 +12105,10 @@
         <v>2.2</v>
       </c>
       <c r="AP54">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ54">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -13135,7 +13135,7 @@
         <v>1.8</v>
       </c>
       <c r="AP59">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ59">
         <v>1.23</v>
@@ -13469,7 +13469,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13550,7 +13550,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ61">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR61">
         <v>1.27</v>
@@ -13675,7 +13675,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14165,10 +14165,10 @@
         <v>1.17</v>
       </c>
       <c r="AP64">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ64">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR64">
         <v>1.34</v>
@@ -14577,10 +14577,10 @@
         <v>1.83</v>
       </c>
       <c r="AP66">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ66">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR66">
         <v>1.32</v>
@@ -14705,7 +14705,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14911,7 +14911,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15117,7 +15117,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15529,7 +15529,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -16022,7 +16022,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ73">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR73">
         <v>1.37</v>
@@ -16147,7 +16147,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16431,7 +16431,7 @@
         <v>1.17</v>
       </c>
       <c r="AP75">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ75">
         <v>1.07</v>
@@ -16971,7 +16971,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17383,7 +17383,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17464,7 +17464,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ80">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR80">
         <v>1.43</v>
@@ -18079,7 +18079,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ83">
         <v>1.38</v>
@@ -18288,7 +18288,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ84">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR84">
         <v>1.41</v>
@@ -18494,7 +18494,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ85">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR85">
         <v>1.91</v>
@@ -19315,7 +19315,7 @@
         <v>0.25</v>
       </c>
       <c r="AP89">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ89">
         <v>0.5</v>
@@ -19524,7 +19524,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ90">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR90">
         <v>1.89</v>
@@ -20345,10 +20345,10 @@
         <v>1.22</v>
       </c>
       <c r="AP94">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ94">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR94">
         <v>1.35</v>
@@ -20679,7 +20679,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -22202,7 +22202,7 @@
         <v>1</v>
       </c>
       <c r="AQ103">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR103">
         <v>1.19</v>
@@ -22405,7 +22405,7 @@
         <v>1.2</v>
       </c>
       <c r="AP104">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ104">
         <v>1.07</v>
@@ -22611,7 +22611,7 @@
         <v>0.3</v>
       </c>
       <c r="AP105">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ105">
         <v>0.29</v>
@@ -22945,7 +22945,7 @@
         <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23026,7 +23026,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ107">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR107">
         <v>1.35</v>
@@ -23641,7 +23641,7 @@
         <v>1.4</v>
       </c>
       <c r="AP110">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ110">
         <v>1.43</v>
@@ -24262,7 +24262,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ113">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR113">
         <v>1.37</v>
@@ -24387,7 +24387,7 @@
         <v>150</v>
       </c>
       <c r="P114" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24465,7 +24465,7 @@
         <v>1.3</v>
       </c>
       <c r="AP114">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ114">
         <v>1.23</v>
@@ -24674,7 +24674,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ115">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR115">
         <v>1.33</v>
@@ -25289,7 +25289,7 @@
         <v>1.55</v>
       </c>
       <c r="AP118">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ118">
         <v>1.43</v>
@@ -25495,7 +25495,7 @@
         <v>0.25</v>
       </c>
       <c r="AP119">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ119">
         <v>0.29</v>
@@ -26937,7 +26937,7 @@
         <v>1.25</v>
       </c>
       <c r="AP126">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ126">
         <v>1.36</v>
@@ -27352,7 +27352,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ128">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR128">
         <v>1.33</v>
@@ -27970,7 +27970,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ131">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR131">
         <v>1.28</v>
@@ -28173,7 +28173,7 @@
         <v>0.67</v>
       </c>
       <c r="AP132">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ132">
         <v>0.6899999999999999</v>
@@ -28713,7 +28713,7 @@
         <v>164</v>
       </c>
       <c r="P135" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29000,7 +29000,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ136">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR136">
         <v>1.28</v>
@@ -29282,6 +29282,418 @@
       </c>
       <c r="BP137">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7287154</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45534.65625</v>
+      </c>
+      <c r="F138">
+        <v>29</v>
+      </c>
+      <c r="G138" t="s">
+        <v>72</v>
+      </c>
+      <c r="H138" t="s">
+        <v>71</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138" t="s">
+        <v>166</v>
+      </c>
+      <c r="P138" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q138">
+        <v>4</v>
+      </c>
+      <c r="R138">
+        <v>1.91</v>
+      </c>
+      <c r="S138">
+        <v>3.25</v>
+      </c>
+      <c r="T138">
+        <v>1.45</v>
+      </c>
+      <c r="U138">
+        <v>2.55</v>
+      </c>
+      <c r="V138">
+        <v>3.45</v>
+      </c>
+      <c r="W138">
+        <v>1.26</v>
+      </c>
+      <c r="X138">
+        <v>10</v>
+      </c>
+      <c r="Y138">
+        <v>1.06</v>
+      </c>
+      <c r="Z138">
+        <v>3.25</v>
+      </c>
+      <c r="AA138">
+        <v>3</v>
+      </c>
+      <c r="AB138">
+        <v>2.4</v>
+      </c>
+      <c r="AC138">
+        <v>1.06</v>
+      </c>
+      <c r="AD138">
+        <v>7.5</v>
+      </c>
+      <c r="AE138">
+        <v>1.41</v>
+      </c>
+      <c r="AF138">
+        <v>2.8</v>
+      </c>
+      <c r="AG138">
+        <v>2.7</v>
+      </c>
+      <c r="AH138">
+        <v>1.44</v>
+      </c>
+      <c r="AI138">
+        <v>2.2</v>
+      </c>
+      <c r="AJ138">
+        <v>1.62</v>
+      </c>
+      <c r="AK138">
+        <v>1.67</v>
+      </c>
+      <c r="AL138">
+        <v>1.3</v>
+      </c>
+      <c r="AM138">
+        <v>1.27</v>
+      </c>
+      <c r="AN138">
+        <v>1.54</v>
+      </c>
+      <c r="AO138">
+        <v>1.36</v>
+      </c>
+      <c r="AP138">
+        <v>1.64</v>
+      </c>
+      <c r="AQ138">
+        <v>1.27</v>
+      </c>
+      <c r="AR138">
+        <v>1.38</v>
+      </c>
+      <c r="AS138">
+        <v>1.35</v>
+      </c>
+      <c r="AT138">
+        <v>2.73</v>
+      </c>
+      <c r="AU138">
+        <v>3</v>
+      </c>
+      <c r="AV138">
+        <v>3</v>
+      </c>
+      <c r="AW138">
+        <v>4</v>
+      </c>
+      <c r="AX138">
+        <v>5</v>
+      </c>
+      <c r="AY138">
+        <v>7</v>
+      </c>
+      <c r="AZ138">
+        <v>8</v>
+      </c>
+      <c r="BA138">
+        <v>1</v>
+      </c>
+      <c r="BB138">
+        <v>6</v>
+      </c>
+      <c r="BC138">
+        <v>7</v>
+      </c>
+      <c r="BD138">
+        <v>2.42</v>
+      </c>
+      <c r="BE138">
+        <v>7.1</v>
+      </c>
+      <c r="BF138">
+        <v>1.87</v>
+      </c>
+      <c r="BG138">
+        <v>1.3</v>
+      </c>
+      <c r="BH138">
+        <v>3.2</v>
+      </c>
+      <c r="BI138">
+        <v>1.54</v>
+      </c>
+      <c r="BJ138">
+        <v>2.43</v>
+      </c>
+      <c r="BK138">
+        <v>2.38</v>
+      </c>
+      <c r="BL138">
+        <v>1.95</v>
+      </c>
+      <c r="BM138">
+        <v>2.38</v>
+      </c>
+      <c r="BN138">
+        <v>1.56</v>
+      </c>
+      <c r="BO138">
+        <v>3</v>
+      </c>
+      <c r="BP138">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7287153</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45534.65625</v>
+      </c>
+      <c r="F139">
+        <v>29</v>
+      </c>
+      <c r="G139" t="s">
+        <v>76</v>
+      </c>
+      <c r="H139" t="s">
+        <v>77</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>1</v>
+      </c>
+      <c r="O139" t="s">
+        <v>82</v>
+      </c>
+      <c r="P139" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q139">
+        <v>4</v>
+      </c>
+      <c r="R139">
+        <v>1.91</v>
+      </c>
+      <c r="S139">
+        <v>3.25</v>
+      </c>
+      <c r="T139">
+        <v>1.5</v>
+      </c>
+      <c r="U139">
+        <v>2.4</v>
+      </c>
+      <c r="V139">
+        <v>3.4</v>
+      </c>
+      <c r="W139">
+        <v>1.27</v>
+      </c>
+      <c r="X139">
+        <v>7.8</v>
+      </c>
+      <c r="Y139">
+        <v>1.05</v>
+      </c>
+      <c r="Z139">
+        <v>3.2</v>
+      </c>
+      <c r="AA139">
+        <v>3</v>
+      </c>
+      <c r="AB139">
+        <v>2.45</v>
+      </c>
+      <c r="AC139">
+        <v>1.07</v>
+      </c>
+      <c r="AD139">
+        <v>7</v>
+      </c>
+      <c r="AE139">
+        <v>1.44</v>
+      </c>
+      <c r="AF139">
+        <v>2.6</v>
+      </c>
+      <c r="AG139">
+        <v>2.7</v>
+      </c>
+      <c r="AH139">
+        <v>1.44</v>
+      </c>
+      <c r="AI139">
+        <v>2.2</v>
+      </c>
+      <c r="AJ139">
+        <v>1.62</v>
+      </c>
+      <c r="AK139">
+        <v>1.62</v>
+      </c>
+      <c r="AL139">
+        <v>1.37</v>
+      </c>
+      <c r="AM139">
+        <v>1.22</v>
+      </c>
+      <c r="AN139">
+        <v>1.31</v>
+      </c>
+      <c r="AO139">
+        <v>1.77</v>
+      </c>
+      <c r="AP139">
+        <v>1.21</v>
+      </c>
+      <c r="AQ139">
+        <v>1.86</v>
+      </c>
+      <c r="AR139">
+        <v>1.35</v>
+      </c>
+      <c r="AS139">
+        <v>1.06</v>
+      </c>
+      <c r="AT139">
+        <v>2.41</v>
+      </c>
+      <c r="AU139">
+        <v>4</v>
+      </c>
+      <c r="AV139">
+        <v>3</v>
+      </c>
+      <c r="AW139">
+        <v>6</v>
+      </c>
+      <c r="AX139">
+        <v>2</v>
+      </c>
+      <c r="AY139">
+        <v>10</v>
+      </c>
+      <c r="AZ139">
+        <v>5</v>
+      </c>
+      <c r="BA139">
+        <v>5</v>
+      </c>
+      <c r="BB139">
+        <v>8</v>
+      </c>
+      <c r="BC139">
+        <v>13</v>
+      </c>
+      <c r="BD139">
+        <v>2.22</v>
+      </c>
+      <c r="BE139">
+        <v>6.7</v>
+      </c>
+      <c r="BF139">
+        <v>2</v>
+      </c>
+      <c r="BG139">
+        <v>1.46</v>
+      </c>
+      <c r="BH139">
+        <v>2.63</v>
+      </c>
+      <c r="BI139">
+        <v>1.79</v>
+      </c>
+      <c r="BJ139">
+        <v>2.01</v>
+      </c>
+      <c r="BK139">
+        <v>2.25</v>
+      </c>
+      <c r="BL139">
+        <v>1.61</v>
+      </c>
+      <c r="BM139">
+        <v>2.9</v>
+      </c>
+      <c r="BN139">
+        <v>1.36</v>
+      </c>
+      <c r="BO139">
+        <v>3.8</v>
+      </c>
+      <c r="BP139">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="228">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t>['76']</t>
+  </si>
+  <si>
+    <t>['18', '72']</t>
   </si>
   <si>
     <t>['23', '45+2']</t>
@@ -1056,7 +1059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP139"/>
+  <dimension ref="A1:BP140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1315,7 +1318,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1521,7 +1524,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1933,7 +1936,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2345,7 +2348,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2426,7 +2429,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2551,7 +2554,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2757,7 +2760,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3247,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ11">
         <v>1.27</v>
@@ -3375,7 +3378,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3453,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ12">
         <v>1.86</v>
@@ -3581,7 +3584,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3662,7 +3665,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ13">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>0.97</v>
@@ -3787,7 +3790,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4199,7 +4202,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4611,7 +4614,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4817,7 +4820,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -5229,7 +5232,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5516,7 +5519,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ22">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>1.39</v>
@@ -5925,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ24">
         <v>1.38</v>
@@ -6053,7 +6056,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6546,7 +6549,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ27">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR27">
         <v>1.35</v>
@@ -6671,7 +6674,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6955,7 +6958,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ29">
         <v>0.29</v>
@@ -7701,7 +7704,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7907,7 +7910,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8319,7 +8322,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8937,7 +8940,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9143,7 +9146,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9224,7 +9227,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR40">
         <v>1.04</v>
@@ -9349,7 +9352,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9555,7 +9558,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9761,7 +9764,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9967,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10173,7 +10176,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -11409,7 +11412,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11615,7 +11618,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11693,7 +11696,7 @@
         <v>0.2</v>
       </c>
       <c r="AP52">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ52">
         <v>0.5</v>
@@ -11902,7 +11905,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ53">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR53">
         <v>1.43</v>
@@ -12311,7 +12314,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ55">
         <v>1.36</v>
@@ -13469,7 +13472,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13675,7 +13678,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14705,7 +14708,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14911,7 +14914,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -14989,10 +14992,10 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ68">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR68">
         <v>1.34</v>
@@ -15117,7 +15120,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15529,7 +15532,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -15610,7 +15613,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ71">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR71">
         <v>1.85</v>
@@ -15813,7 +15816,7 @@
         <v>0.71</v>
       </c>
       <c r="AP72">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ72">
         <v>0.6899999999999999</v>
@@ -16147,7 +16150,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16971,7 +16974,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17258,7 +17261,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ79">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR79">
         <v>1.2</v>
@@ -17589,7 +17592,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17667,7 +17670,7 @@
         <v>1.29</v>
       </c>
       <c r="AP81">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ81">
         <v>1.23</v>
@@ -17795,7 +17798,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -18207,7 +18210,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18619,7 +18622,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18825,7 +18828,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19031,7 +19034,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -19443,7 +19446,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19855,7 +19858,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q92">
         <v>3.2</v>
@@ -20061,7 +20064,7 @@
         <v>82</v>
       </c>
       <c r="P93" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q93">
         <v>5.5</v>
@@ -20473,7 +20476,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20679,7 +20682,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20757,7 +20760,7 @@
         <v>0.33</v>
       </c>
       <c r="AP96">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ96">
         <v>0.29</v>
@@ -20885,7 +20888,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21172,7 +21175,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ98">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR98">
         <v>1.5</v>
@@ -21297,7 +21300,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q99">
         <v>2.75</v>
@@ -22121,7 +22124,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22739,7 +22742,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -22945,7 +22948,7 @@
         <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23229,7 +23232,7 @@
         <v>1.36</v>
       </c>
       <c r="AP108">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ108">
         <v>1.38</v>
@@ -23644,7 +23647,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ110">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR110">
         <v>1.32</v>
@@ -24181,7 +24184,7 @@
         <v>117</v>
       </c>
       <c r="P113" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -24387,7 +24390,7 @@
         <v>150</v>
       </c>
       <c r="P114" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24671,7 +24674,7 @@
         <v>1.36</v>
       </c>
       <c r="AP115">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ115">
         <v>1.27</v>
@@ -25292,7 +25295,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ118">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR118">
         <v>1.38</v>
@@ -25417,7 +25420,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25623,7 +25626,7 @@
         <v>82</v>
       </c>
       <c r="P120" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25829,7 +25832,7 @@
         <v>155</v>
       </c>
       <c r="P121" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -26116,7 +26119,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ122">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR122">
         <v>1.39</v>
@@ -26319,7 +26322,7 @@
         <v>1.36</v>
       </c>
       <c r="AP123">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ123">
         <v>1.36</v>
@@ -26447,7 +26450,7 @@
         <v>152</v>
       </c>
       <c r="P124" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26653,7 +26656,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26859,7 +26862,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27065,7 +27068,7 @@
         <v>159</v>
       </c>
       <c r="P127" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27477,7 +27480,7 @@
         <v>160</v>
       </c>
       <c r="P129" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q129">
         <v>2.38</v>
@@ -27558,7 +27561,7 @@
         <v>1</v>
       </c>
       <c r="AQ129">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR129">
         <v>1.33</v>
@@ -27683,7 +27686,7 @@
         <v>100</v>
       </c>
       <c r="P130" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q130">
         <v>1.73</v>
@@ -27889,7 +27892,7 @@
         <v>161</v>
       </c>
       <c r="P131" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -27967,7 +27970,7 @@
         <v>1.92</v>
       </c>
       <c r="AP131">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ131">
         <v>1.86</v>
@@ -28095,7 +28098,7 @@
         <v>144</v>
       </c>
       <c r="P132" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28301,7 +28304,7 @@
         <v>162</v>
       </c>
       <c r="P133" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q133">
         <v>1.83</v>
@@ -28713,7 +28716,7 @@
         <v>164</v>
       </c>
       <c r="P135" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29125,7 +29128,7 @@
         <v>165</v>
       </c>
       <c r="P137" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29537,7 +29540,7 @@
         <v>82</v>
       </c>
       <c r="P139" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -29694,6 +29697,212 @@
       </c>
       <c r="BP139">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7287156</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45535.65625</v>
+      </c>
+      <c r="F140">
+        <v>29</v>
+      </c>
+      <c r="G140" t="s">
+        <v>79</v>
+      </c>
+      <c r="H140" t="s">
+        <v>73</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>2</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+      <c r="O140" t="s">
+        <v>167</v>
+      </c>
+      <c r="P140" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q140">
+        <v>3.25</v>
+      </c>
+      <c r="R140">
+        <v>2.1</v>
+      </c>
+      <c r="S140">
+        <v>3.25</v>
+      </c>
+      <c r="T140">
+        <v>1.42</v>
+      </c>
+      <c r="U140">
+        <v>2.65</v>
+      </c>
+      <c r="V140">
+        <v>2.88</v>
+      </c>
+      <c r="W140">
+        <v>1.36</v>
+      </c>
+      <c r="X140">
+        <v>7.4</v>
+      </c>
+      <c r="Y140">
+        <v>1.07</v>
+      </c>
+      <c r="Z140">
+        <v>2.5</v>
+      </c>
+      <c r="AA140">
+        <v>3.2</v>
+      </c>
+      <c r="AB140">
+        <v>2.62</v>
+      </c>
+      <c r="AC140">
+        <v>1.06</v>
+      </c>
+      <c r="AD140">
+        <v>8.5</v>
+      </c>
+      <c r="AE140">
+        <v>1.33</v>
+      </c>
+      <c r="AF140">
+        <v>3.25</v>
+      </c>
+      <c r="AG140">
+        <v>2</v>
+      </c>
+      <c r="AH140">
+        <v>1.8</v>
+      </c>
+      <c r="AI140">
+        <v>1.75</v>
+      </c>
+      <c r="AJ140">
+        <v>2</v>
+      </c>
+      <c r="AK140">
+        <v>1.44</v>
+      </c>
+      <c r="AL140">
+        <v>1.28</v>
+      </c>
+      <c r="AM140">
+        <v>1.5</v>
+      </c>
+      <c r="AN140">
+        <v>1.79</v>
+      </c>
+      <c r="AO140">
+        <v>1.43</v>
+      </c>
+      <c r="AP140">
+        <v>1.87</v>
+      </c>
+      <c r="AQ140">
+        <v>1.33</v>
+      </c>
+      <c r="AR140">
+        <v>1.27</v>
+      </c>
+      <c r="AS140">
+        <v>1.12</v>
+      </c>
+      <c r="AT140">
+        <v>2.39</v>
+      </c>
+      <c r="AU140">
+        <v>12</v>
+      </c>
+      <c r="AV140">
+        <v>2</v>
+      </c>
+      <c r="AW140">
+        <v>6</v>
+      </c>
+      <c r="AX140">
+        <v>5</v>
+      </c>
+      <c r="AY140">
+        <v>18</v>
+      </c>
+      <c r="AZ140">
+        <v>7</v>
+      </c>
+      <c r="BA140">
+        <v>9</v>
+      </c>
+      <c r="BB140">
+        <v>3</v>
+      </c>
+      <c r="BC140">
+        <v>12</v>
+      </c>
+      <c r="BD140">
+        <v>2.03</v>
+      </c>
+      <c r="BE140">
+        <v>7.1</v>
+      </c>
+      <c r="BF140">
+        <v>2.15</v>
+      </c>
+      <c r="BG140">
+        <v>1.24</v>
+      </c>
+      <c r="BH140">
+        <v>3.48</v>
+      </c>
+      <c r="BI140">
+        <v>1.48</v>
+      </c>
+      <c r="BJ140">
+        <v>2.54</v>
+      </c>
+      <c r="BK140">
+        <v>1.9</v>
+      </c>
+      <c r="BL140">
+        <v>1.9</v>
+      </c>
+      <c r="BM140">
+        <v>2.28</v>
+      </c>
+      <c r="BN140">
+        <v>1.6</v>
+      </c>
+      <c r="BO140">
+        <v>3.18</v>
+      </c>
+      <c r="BP140">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="231">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -520,6 +520,12 @@
     <t>['18', '72']</t>
   </si>
   <si>
+    <t>['24', '85']</t>
+  </si>
+  <si>
+    <t>['29', '45', '49', '90+3']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -698,6 +704,9 @@
   </si>
   <si>
     <t>['74']</t>
+  </si>
+  <si>
+    <t>['43']</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP140"/>
+  <dimension ref="A1:BP142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1318,7 +1327,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1396,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ2">
         <v>1.07</v>
@@ -1524,7 +1533,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1605,7 +1614,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ3">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1936,7 +1945,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2348,7 +2357,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2554,7 +2563,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2760,7 +2769,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2841,7 +2850,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ9">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3044,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ10">
         <v>1.23</v>
@@ -3378,7 +3387,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3584,7 +3593,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3790,7 +3799,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4202,7 +4211,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4614,7 +4623,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4820,7 +4829,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -5104,7 +5113,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ20">
         <v>0.5</v>
@@ -5232,7 +5241,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5310,7 +5319,7 @@
         <v>2</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ21">
         <v>1.86</v>
@@ -5725,7 +5734,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ23">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AR23">
         <v>1.34</v>
@@ -5931,7 +5940,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ24">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -6056,7 +6065,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6134,7 +6143,7 @@
         <v>2.33</v>
       </c>
       <c r="AP25">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ25">
         <v>1.86</v>
@@ -6343,7 +6352,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ26">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6674,7 +6683,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6752,7 +6761,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ28">
         <v>1.27</v>
@@ -6961,7 +6970,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ29">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AR29">
         <v>1.29</v>
@@ -7704,7 +7713,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7910,7 +7919,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8197,7 +8206,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ35">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AR35">
         <v>1.43</v>
@@ -8322,7 +8331,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8403,7 +8412,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ36">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR36">
         <v>1.43</v>
@@ -8606,7 +8615,7 @@
         <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ37">
         <v>1.07</v>
@@ -8940,7 +8949,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9146,7 +9155,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9224,7 +9233,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ40">
         <v>1.33</v>
@@ -9352,7 +9361,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9558,7 +9567,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9764,7 +9773,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9842,10 +9851,10 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ43">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR43">
         <v>1.58</v>
@@ -9970,7 +9979,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10176,7 +10185,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -11078,7 +11087,7 @@
         <v>0.25</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ49">
         <v>0.5</v>
@@ -11284,10 +11293,10 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ50">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AR50">
         <v>1.1</v>
@@ -11412,7 +11421,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11493,7 +11502,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ51">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR51">
         <v>1.37</v>
@@ -11618,7 +11627,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11902,7 +11911,7 @@
         <v>1.4</v>
       </c>
       <c r="AP53">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ53">
         <v>1.33</v>
@@ -12729,7 +12738,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ57">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR57">
         <v>1</v>
@@ -13472,7 +13481,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13678,7 +13687,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13965,7 +13974,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ63">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AR63">
         <v>1.78</v>
@@ -14374,10 +14383,10 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ65">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AR65">
         <v>1.39</v>
@@ -14708,7 +14717,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14786,10 +14795,10 @@
         <v>1.57</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ67">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR67">
         <v>1.06</v>
@@ -14914,7 +14923,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15120,7 +15129,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15404,7 +15413,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ70">
         <v>1.36</v>
@@ -15532,7 +15541,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -16150,7 +16159,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16643,7 +16652,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ76">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AR76">
         <v>1.05</v>
@@ -16974,7 +16983,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17464,7 +17473,7 @@
         <v>1.14</v>
       </c>
       <c r="AP80">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ80">
         <v>1.27</v>
@@ -17592,7 +17601,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17798,7 +17807,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -18085,7 +18094,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ83">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR83">
         <v>1.34</v>
@@ -18210,7 +18219,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18288,7 +18297,7 @@
         <v>1.63</v>
       </c>
       <c r="AP84">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ84">
         <v>1.86</v>
@@ -18622,7 +18631,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18703,7 +18712,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ86">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AR86">
         <v>1.18</v>
@@ -18828,7 +18837,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -18906,7 +18915,7 @@
         <v>0.67</v>
       </c>
       <c r="AP87">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ87">
         <v>0.6899999999999999</v>
@@ -19034,7 +19043,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -19446,7 +19455,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19858,7 +19867,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q92">
         <v>3.2</v>
@@ -19936,7 +19945,7 @@
         <v>1.88</v>
       </c>
       <c r="AP92">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ92">
         <v>1.36</v>
@@ -20064,7 +20073,7 @@
         <v>82</v>
       </c>
       <c r="P93" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q93">
         <v>5.5</v>
@@ -20145,7 +20154,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ93">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR93">
         <v>1.39</v>
@@ -20476,7 +20485,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20682,7 +20691,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20763,7 +20772,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ96">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AR96">
         <v>1.26</v>
@@ -20888,7 +20897,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -20966,7 +20975,7 @@
         <v>0.22</v>
       </c>
       <c r="AP97">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ97">
         <v>0.5</v>
@@ -21300,7 +21309,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q99">
         <v>2.75</v>
@@ -22124,7 +22133,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22202,7 +22211,7 @@
         <v>1.2</v>
       </c>
       <c r="AP103">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ103">
         <v>1.27</v>
@@ -22617,7 +22626,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ105">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AR105">
         <v>1.34</v>
@@ -22742,7 +22751,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -22820,10 +22829,10 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ106">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR106">
         <v>1.36</v>
@@ -22948,7 +22957,7 @@
         <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23235,7 +23244,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ108">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR108">
         <v>1.25</v>
@@ -23438,7 +23447,7 @@
         <v>1.33</v>
       </c>
       <c r="AP109">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ109">
         <v>1.23</v>
@@ -24059,7 +24068,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ112">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AR112">
         <v>1.53</v>
@@ -24184,7 +24193,7 @@
         <v>117</v>
       </c>
       <c r="P113" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -24390,7 +24399,7 @@
         <v>150</v>
       </c>
       <c r="P114" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -25420,7 +25429,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25501,7 +25510,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ119">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AR119">
         <v>1.37</v>
@@ -25626,7 +25635,7 @@
         <v>82</v>
       </c>
       <c r="P120" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25704,7 +25713,7 @@
         <v>1.09</v>
       </c>
       <c r="AP120">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ120">
         <v>1.07</v>
@@ -25832,7 +25841,7 @@
         <v>155</v>
       </c>
       <c r="P121" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -25910,7 +25919,7 @@
         <v>0.42</v>
       </c>
       <c r="AP121">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ121">
         <v>0.5</v>
@@ -26450,7 +26459,7 @@
         <v>152</v>
       </c>
       <c r="P124" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26531,7 +26540,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ124">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR124">
         <v>1.28</v>
@@ -26656,7 +26665,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26862,7 +26871,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27068,7 +27077,7 @@
         <v>159</v>
       </c>
       <c r="P127" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27146,7 +27155,7 @@
         <v>1.25</v>
       </c>
       <c r="AP127">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ127">
         <v>1.07</v>
@@ -27480,7 +27489,7 @@
         <v>160</v>
       </c>
       <c r="P129" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q129">
         <v>2.38</v>
@@ -27558,7 +27567,7 @@
         <v>1.31</v>
       </c>
       <c r="AP129">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ129">
         <v>1.33</v>
@@ -27686,7 +27695,7 @@
         <v>100</v>
       </c>
       <c r="P130" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q130">
         <v>1.73</v>
@@ -27892,7 +27901,7 @@
         <v>161</v>
       </c>
       <c r="P131" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -28098,7 +28107,7 @@
         <v>144</v>
       </c>
       <c r="P132" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28304,7 +28313,7 @@
         <v>162</v>
       </c>
       <c r="P133" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q133">
         <v>1.83</v>
@@ -28385,7 +28394,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ133">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AR133">
         <v>1.84</v>
@@ -28716,7 +28725,7 @@
         <v>164</v>
       </c>
       <c r="P135" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29128,7 +29137,7 @@
         <v>165</v>
       </c>
       <c r="P137" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29540,7 +29549,7 @@
         <v>82</v>
       </c>
       <c r="P139" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -29903,6 +29912,418 @@
       </c>
       <c r="BP140">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7287152</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45536.3125</v>
+      </c>
+      <c r="F141">
+        <v>29</v>
+      </c>
+      <c r="G141" t="s">
+        <v>70</v>
+      </c>
+      <c r="H141" t="s">
+        <v>74</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
+      <c r="L141">
+        <v>2</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141" t="s">
+        <v>168</v>
+      </c>
+      <c r="P141" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q141">
+        <v>3.75</v>
+      </c>
+      <c r="R141">
+        <v>2.2</v>
+      </c>
+      <c r="S141">
+        <v>2.75</v>
+      </c>
+      <c r="T141">
+        <v>1.3</v>
+      </c>
+      <c r="U141">
+        <v>3.2</v>
+      </c>
+      <c r="V141">
+        <v>2.7</v>
+      </c>
+      <c r="W141">
+        <v>1.4</v>
+      </c>
+      <c r="X141">
+        <v>5.75</v>
+      </c>
+      <c r="Y141">
+        <v>1.1</v>
+      </c>
+      <c r="Z141">
+        <v>3.2</v>
+      </c>
+      <c r="AA141">
+        <v>3.6</v>
+      </c>
+      <c r="AB141">
+        <v>2.15</v>
+      </c>
+      <c r="AC141">
+        <v>1.04</v>
+      </c>
+      <c r="AD141">
+        <v>10</v>
+      </c>
+      <c r="AE141">
+        <v>1.25</v>
+      </c>
+      <c r="AF141">
+        <v>3.7</v>
+      </c>
+      <c r="AG141">
+        <v>1.85</v>
+      </c>
+      <c r="AH141">
+        <v>1.95</v>
+      </c>
+      <c r="AI141">
+        <v>1.7</v>
+      </c>
+      <c r="AJ141">
+        <v>2.05</v>
+      </c>
+      <c r="AK141">
+        <v>1.74</v>
+      </c>
+      <c r="AL141">
+        <v>1.24</v>
+      </c>
+      <c r="AM141">
+        <v>1.3</v>
+      </c>
+      <c r="AN141">
+        <v>1</v>
+      </c>
+      <c r="AO141">
+        <v>1.38</v>
+      </c>
+      <c r="AP141">
+        <v>1.14</v>
+      </c>
+      <c r="AQ141">
+        <v>1.29</v>
+      </c>
+      <c r="AR141">
+        <v>1.36</v>
+      </c>
+      <c r="AS141">
+        <v>1.44</v>
+      </c>
+      <c r="AT141">
+        <v>2.8</v>
+      </c>
+      <c r="AU141">
+        <v>4</v>
+      </c>
+      <c r="AV141">
+        <v>8</v>
+      </c>
+      <c r="AW141">
+        <v>6</v>
+      </c>
+      <c r="AX141">
+        <v>6</v>
+      </c>
+      <c r="AY141">
+        <v>10</v>
+      </c>
+      <c r="AZ141">
+        <v>14</v>
+      </c>
+      <c r="BA141">
+        <v>4</v>
+      </c>
+      <c r="BB141">
+        <v>8</v>
+      </c>
+      <c r="BC141">
+        <v>12</v>
+      </c>
+      <c r="BD141">
+        <v>2.1</v>
+      </c>
+      <c r="BE141">
+        <v>8</v>
+      </c>
+      <c r="BF141">
+        <v>1.91</v>
+      </c>
+      <c r="BG141">
+        <v>1.22</v>
+      </c>
+      <c r="BH141">
+        <v>3.8</v>
+      </c>
+      <c r="BI141">
+        <v>1.33</v>
+      </c>
+      <c r="BJ141">
+        <v>2.93</v>
+      </c>
+      <c r="BK141">
+        <v>2</v>
+      </c>
+      <c r="BL141">
+        <v>2.18</v>
+      </c>
+      <c r="BM141">
+        <v>2.06</v>
+      </c>
+      <c r="BN141">
+        <v>1.74</v>
+      </c>
+      <c r="BO141">
+        <v>2.65</v>
+      </c>
+      <c r="BP141">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7287155</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45536.58333333334</v>
+      </c>
+      <c r="F142">
+        <v>29</v>
+      </c>
+      <c r="G142" t="s">
+        <v>78</v>
+      </c>
+      <c r="H142" t="s">
+        <v>75</v>
+      </c>
+      <c r="I142">
+        <v>2</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>3</v>
+      </c>
+      <c r="L142">
+        <v>4</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>5</v>
+      </c>
+      <c r="O142" t="s">
+        <v>169</v>
+      </c>
+      <c r="P142" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q142">
+        <v>2.5</v>
+      </c>
+      <c r="R142">
+        <v>2.2</v>
+      </c>
+      <c r="S142">
+        <v>4.33</v>
+      </c>
+      <c r="T142">
+        <v>1.36</v>
+      </c>
+      <c r="U142">
+        <v>2.88</v>
+      </c>
+      <c r="V142">
+        <v>2.65</v>
+      </c>
+      <c r="W142">
+        <v>1.42</v>
+      </c>
+      <c r="X142">
+        <v>6.6</v>
+      </c>
+      <c r="Y142">
+        <v>1.09</v>
+      </c>
+      <c r="Z142">
+        <v>1.8</v>
+      </c>
+      <c r="AA142">
+        <v>3.6</v>
+      </c>
+      <c r="AB142">
+        <v>3.9</v>
+      </c>
+      <c r="AC142">
+        <v>1.02</v>
+      </c>
+      <c r="AD142">
+        <v>10</v>
+      </c>
+      <c r="AE142">
+        <v>1.25</v>
+      </c>
+      <c r="AF142">
+        <v>3.6</v>
+      </c>
+      <c r="AG142">
+        <v>1.8</v>
+      </c>
+      <c r="AH142">
+        <v>1.9</v>
+      </c>
+      <c r="AI142">
+        <v>1.8</v>
+      </c>
+      <c r="AJ142">
+        <v>1.95</v>
+      </c>
+      <c r="AK142">
+        <v>1.22</v>
+      </c>
+      <c r="AL142">
+        <v>1.22</v>
+      </c>
+      <c r="AM142">
+        <v>1.95</v>
+      </c>
+      <c r="AN142">
+        <v>1.64</v>
+      </c>
+      <c r="AO142">
+        <v>0.29</v>
+      </c>
+      <c r="AP142">
+        <v>1.73</v>
+      </c>
+      <c r="AQ142">
+        <v>0.27</v>
+      </c>
+      <c r="AR142">
+        <v>1.42</v>
+      </c>
+      <c r="AS142">
+        <v>1.17</v>
+      </c>
+      <c r="AT142">
+        <v>2.59</v>
+      </c>
+      <c r="AU142">
+        <v>12</v>
+      </c>
+      <c r="AV142">
+        <v>5</v>
+      </c>
+      <c r="AW142">
+        <v>5</v>
+      </c>
+      <c r="AX142">
+        <v>6</v>
+      </c>
+      <c r="AY142">
+        <v>17</v>
+      </c>
+      <c r="AZ142">
+        <v>11</v>
+      </c>
+      <c r="BA142">
+        <v>15</v>
+      </c>
+      <c r="BB142">
+        <v>3</v>
+      </c>
+      <c r="BC142">
+        <v>18</v>
+      </c>
+      <c r="BD142">
+        <v>1.64</v>
+      </c>
+      <c r="BE142">
+        <v>8</v>
+      </c>
+      <c r="BF142">
+        <v>2.77</v>
+      </c>
+      <c r="BG142">
+        <v>1.25</v>
+      </c>
+      <c r="BH142">
+        <v>3.42</v>
+      </c>
+      <c r="BI142">
+        <v>1.5</v>
+      </c>
+      <c r="BJ142">
+        <v>2.51</v>
+      </c>
+      <c r="BK142">
+        <v>1.98</v>
+      </c>
+      <c r="BL142">
+        <v>1.82</v>
+      </c>
+      <c r="BM142">
+        <v>2.33</v>
+      </c>
+      <c r="BN142">
+        <v>1.57</v>
+      </c>
+      <c r="BO142">
+        <v>3.14</v>
+      </c>
+      <c r="BP142">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="233">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -526,6 +526,9 @@
     <t>['29', '45', '49', '90+3']</t>
   </si>
   <si>
+    <t>['2']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -707,6 +710,9 @@
   </si>
   <si>
     <t>['43']</t>
+  </si>
+  <si>
+    <t>['54', '68']</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP142"/>
+  <dimension ref="A1:BP143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1327,7 +1333,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1533,7 +1539,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1820,7 +1826,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ4">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1945,7 +1951,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2357,7 +2363,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2563,7 +2569,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2641,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ8">
         <v>1.36</v>
@@ -2769,7 +2775,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3387,7 +3393,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3593,7 +3599,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3799,7 +3805,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3880,7 +3886,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ14">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR14">
         <v>1.63</v>
@@ -4211,7 +4217,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4289,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ16">
         <v>1.07</v>
@@ -4623,7 +4629,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4704,7 +4710,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ18">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR18">
         <v>0.95</v>
@@ -4829,7 +4835,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -5241,7 +5247,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -6065,7 +6071,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6555,7 +6561,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ27">
         <v>1.33</v>
@@ -6683,7 +6689,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -7382,7 +7388,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ31">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR31">
         <v>1.4</v>
@@ -7713,7 +7719,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7919,7 +7925,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8203,7 +8209,7 @@
         <v>0.33</v>
       </c>
       <c r="AP35">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ35">
         <v>0.27</v>
@@ -8331,7 +8337,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8949,7 +8955,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9155,7 +9161,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9361,7 +9367,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9567,7 +9573,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9773,7 +9779,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9979,7 +9985,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10185,7 +10191,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10469,10 +10475,10 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ46">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR46">
         <v>1.26</v>
@@ -11421,7 +11427,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11627,7 +11633,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12532,7 +12538,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ56">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR56">
         <v>1.4</v>
@@ -13147,7 +13153,7 @@
         <v>1.8</v>
       </c>
       <c r="AP59">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ59">
         <v>1.23</v>
@@ -13356,7 +13362,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ60">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR60">
         <v>1.01</v>
@@ -13481,7 +13487,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13687,7 +13693,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14589,7 +14595,7 @@
         <v>1.83</v>
       </c>
       <c r="AP66">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ66">
         <v>1.86</v>
@@ -14717,7 +14723,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14923,7 +14929,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15129,7 +15135,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15541,7 +15547,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -15828,7 +15834,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ72">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR72">
         <v>1.34</v>
@@ -16159,7 +16165,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16240,7 +16246,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ74">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR74">
         <v>1.85</v>
@@ -16983,7 +16989,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17601,7 +17607,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17807,7 +17813,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -18091,7 +18097,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ83">
         <v>1.29</v>
@@ -18219,7 +18225,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18631,7 +18637,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18837,7 +18843,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -18918,7 +18924,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ87">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR87">
         <v>1.13</v>
@@ -19043,7 +19049,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -19455,7 +19461,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19867,7 +19873,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q92">
         <v>3.2</v>
@@ -20073,7 +20079,7 @@
         <v>82</v>
       </c>
       <c r="P93" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q93">
         <v>5.5</v>
@@ -20357,7 +20363,7 @@
         <v>1.22</v>
       </c>
       <c r="AP94">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ94">
         <v>1.27</v>
@@ -20485,7 +20491,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20691,7 +20697,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20897,7 +20903,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21309,7 +21315,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q99">
         <v>2.75</v>
@@ -21596,7 +21602,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ100">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR100">
         <v>1.39</v>
@@ -22133,7 +22139,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22417,7 +22423,7 @@
         <v>1.2</v>
       </c>
       <c r="AP104">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ104">
         <v>1.07</v>
@@ -22751,7 +22757,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -22957,7 +22963,7 @@
         <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23653,7 +23659,7 @@
         <v>1.4</v>
       </c>
       <c r="AP110">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ110">
         <v>1.33</v>
@@ -24193,7 +24199,7 @@
         <v>117</v>
       </c>
       <c r="P113" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -24399,7 +24405,7 @@
         <v>150</v>
       </c>
       <c r="P114" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24892,7 +24898,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ116">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR116">
         <v>1.31</v>
@@ -25429,7 +25435,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25507,7 +25513,7 @@
         <v>0.25</v>
       </c>
       <c r="AP119">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ119">
         <v>0.27</v>
@@ -25635,7 +25641,7 @@
         <v>82</v>
       </c>
       <c r="P120" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25841,7 +25847,7 @@
         <v>155</v>
       </c>
       <c r="P121" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -26459,7 +26465,7 @@
         <v>152</v>
       </c>
       <c r="P124" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26665,7 +26671,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26871,7 +26877,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -26949,7 +26955,7 @@
         <v>1.25</v>
       </c>
       <c r="AP126">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ126">
         <v>1.36</v>
@@ -27077,7 +27083,7 @@
         <v>159</v>
       </c>
       <c r="P127" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27489,7 +27495,7 @@
         <v>160</v>
       </c>
       <c r="P129" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q129">
         <v>2.38</v>
@@ -27695,7 +27701,7 @@
         <v>100</v>
       </c>
       <c r="P130" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q130">
         <v>1.73</v>
@@ -27901,7 +27907,7 @@
         <v>161</v>
       </c>
       <c r="P131" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -28107,7 +28113,7 @@
         <v>144</v>
       </c>
       <c r="P132" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28188,7 +28194,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ132">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR132">
         <v>1.37</v>
@@ -28313,7 +28319,7 @@
         <v>162</v>
       </c>
       <c r="P133" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q133">
         <v>1.83</v>
@@ -28725,7 +28731,7 @@
         <v>164</v>
       </c>
       <c r="P135" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29137,7 +29143,7 @@
         <v>165</v>
       </c>
       <c r="P137" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29549,7 +29555,7 @@
         <v>82</v>
       </c>
       <c r="P139" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -29627,7 +29633,7 @@
         <v>1.77</v>
       </c>
       <c r="AP139">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ139">
         <v>1.86</v>
@@ -30167,7 +30173,7 @@
         <v>169</v>
       </c>
       <c r="P142" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q142">
         <v>2.5</v>
@@ -30324,6 +30330,212 @@
       </c>
       <c r="BP142">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7287148</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45540.65625</v>
+      </c>
+      <c r="F143">
+        <v>28</v>
+      </c>
+      <c r="G143" t="s">
+        <v>76</v>
+      </c>
+      <c r="H143" t="s">
+        <v>78</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143" t="s">
+        <v>170</v>
+      </c>
+      <c r="P143" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q143">
+        <v>4.33</v>
+      </c>
+      <c r="R143">
+        <v>2.05</v>
+      </c>
+      <c r="S143">
+        <v>2.75</v>
+      </c>
+      <c r="T143">
+        <v>1.43</v>
+      </c>
+      <c r="U143">
+        <v>2.71</v>
+      </c>
+      <c r="V143">
+        <v>3</v>
+      </c>
+      <c r="W143">
+        <v>1.36</v>
+      </c>
+      <c r="X143">
+        <v>7.8</v>
+      </c>
+      <c r="Y143">
+        <v>1.06</v>
+      </c>
+      <c r="Z143">
+        <v>3.5</v>
+      </c>
+      <c r="AA143">
+        <v>3.25</v>
+      </c>
+      <c r="AB143">
+        <v>2</v>
+      </c>
+      <c r="AC143">
+        <v>1.07</v>
+      </c>
+      <c r="AD143">
+        <v>8</v>
+      </c>
+      <c r="AE143">
+        <v>1.33</v>
+      </c>
+      <c r="AF143">
+        <v>3.1</v>
+      </c>
+      <c r="AG143">
+        <v>2.1</v>
+      </c>
+      <c r="AH143">
+        <v>1.7</v>
+      </c>
+      <c r="AI143">
+        <v>1.95</v>
+      </c>
+      <c r="AJ143">
+        <v>1.8</v>
+      </c>
+      <c r="AK143">
+        <v>1.52</v>
+      </c>
+      <c r="AL143">
+        <v>1.28</v>
+      </c>
+      <c r="AM143">
+        <v>1.44</v>
+      </c>
+      <c r="AN143">
+        <v>1.21</v>
+      </c>
+      <c r="AO143">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP143">
+        <v>1.13</v>
+      </c>
+      <c r="AQ143">
+        <v>0.86</v>
+      </c>
+      <c r="AR143">
+        <v>1.35</v>
+      </c>
+      <c r="AS143">
+        <v>1.13</v>
+      </c>
+      <c r="AT143">
+        <v>2.48</v>
+      </c>
+      <c r="AU143">
+        <v>5</v>
+      </c>
+      <c r="AV143">
+        <v>8</v>
+      </c>
+      <c r="AW143">
+        <v>7</v>
+      </c>
+      <c r="AX143">
+        <v>4</v>
+      </c>
+      <c r="AY143">
+        <v>12</v>
+      </c>
+      <c r="AZ143">
+        <v>12</v>
+      </c>
+      <c r="BA143">
+        <v>7</v>
+      </c>
+      <c r="BB143">
+        <v>9</v>
+      </c>
+      <c r="BC143">
+        <v>16</v>
+      </c>
+      <c r="BD143">
+        <v>2.12</v>
+      </c>
+      <c r="BE143">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF143">
+        <v>2</v>
+      </c>
+      <c r="BG143">
+        <v>1.27</v>
+      </c>
+      <c r="BH143">
+        <v>3.28</v>
+      </c>
+      <c r="BI143">
+        <v>1.57</v>
+      </c>
+      <c r="BJ143">
+        <v>2.33</v>
+      </c>
+      <c r="BK143">
+        <v>1.96</v>
+      </c>
+      <c r="BL143">
+        <v>1.84</v>
+      </c>
+      <c r="BM143">
+        <v>2.48</v>
+      </c>
+      <c r="BN143">
+        <v>1.51</v>
+      </c>
+      <c r="BO143">
+        <v>3.2</v>
+      </c>
+      <c r="BP143">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="234">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -527,6 +527,9 @@
   </si>
   <si>
     <t>['2']</t>
+  </si>
+  <si>
+    <t>['83']</t>
   </si>
   <si>
     <t>['23', '45+2']</t>
@@ -1074,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP143"/>
+  <dimension ref="A1:BP144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1333,7 +1336,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1411,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ2">
         <v>1.07</v>
@@ -1539,7 +1542,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1951,7 +1954,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2032,7 +2035,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ5">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2363,7 +2366,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2569,7 +2572,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2775,7 +2778,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3393,7 +3396,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3474,7 +3477,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ12">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR12">
         <v>1</v>
@@ -3599,7 +3602,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3805,7 +3808,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4217,7 +4220,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4629,7 +4632,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4835,7 +4838,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -5247,7 +5250,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5325,10 +5328,10 @@
         <v>2</v>
       </c>
       <c r="AP21">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ21">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR21">
         <v>1.54</v>
@@ -6071,7 +6074,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6152,7 +6155,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ25">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR25">
         <v>1.56</v>
@@ -6689,7 +6692,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6767,7 +6770,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ28">
         <v>1.27</v>
@@ -7719,7 +7722,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7925,7 +7928,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8337,7 +8340,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8955,7 +8958,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9161,7 +9164,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9239,7 +9242,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ40">
         <v>1.33</v>
@@ -9367,7 +9370,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9573,7 +9576,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9654,7 +9657,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR42">
         <v>1.38</v>
@@ -9779,7 +9782,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9985,7 +9988,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10191,7 +10194,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -11093,7 +11096,7 @@
         <v>0.25</v>
       </c>
       <c r="AP49">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ49">
         <v>0.5</v>
@@ -11299,7 +11302,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ50">
         <v>0.27</v>
@@ -11427,7 +11430,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11633,7 +11636,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12126,7 +12129,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ54">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -13487,7 +13490,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13693,7 +13696,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14598,7 +14601,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ66">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR66">
         <v>1.32</v>
@@ -14723,7 +14726,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14801,7 +14804,7 @@
         <v>1.57</v>
       </c>
       <c r="AP67">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ67">
         <v>1.29</v>
@@ -14929,7 +14932,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15135,7 +15138,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15419,7 +15422,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ70">
         <v>1.36</v>
@@ -15547,7 +15550,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -16040,7 +16043,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ73">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR73">
         <v>1.37</v>
@@ -16165,7 +16168,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16989,7 +16992,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17607,7 +17610,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17813,7 +17816,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -18225,7 +18228,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18306,7 +18309,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ84">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR84">
         <v>1.41</v>
@@ -18637,7 +18640,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18843,7 +18846,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -18921,7 +18924,7 @@
         <v>0.67</v>
       </c>
       <c r="AP87">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ87">
         <v>0.86</v>
@@ -19049,7 +19052,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -19461,7 +19464,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19542,7 +19545,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ90">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR90">
         <v>1.89</v>
@@ -19873,7 +19876,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q92">
         <v>3.2</v>
@@ -20079,7 +20082,7 @@
         <v>82</v>
       </c>
       <c r="P93" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q93">
         <v>5.5</v>
@@ -20491,7 +20494,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20697,7 +20700,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20903,7 +20906,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21315,7 +21318,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q99">
         <v>2.75</v>
@@ -22139,7 +22142,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22217,7 +22220,7 @@
         <v>1.2</v>
       </c>
       <c r="AP103">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ103">
         <v>1.27</v>
@@ -22757,7 +22760,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -22963,7 +22966,7 @@
         <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23044,7 +23047,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ107">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR107">
         <v>1.35</v>
@@ -24199,7 +24202,7 @@
         <v>117</v>
       </c>
       <c r="P113" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -24280,7 +24283,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ113">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR113">
         <v>1.37</v>
@@ -24405,7 +24408,7 @@
         <v>150</v>
       </c>
       <c r="P114" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -25435,7 +25438,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25641,7 +25644,7 @@
         <v>82</v>
       </c>
       <c r="P120" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25719,7 +25722,7 @@
         <v>1.09</v>
       </c>
       <c r="AP120">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ120">
         <v>1.07</v>
@@ -25847,7 +25850,7 @@
         <v>155</v>
       </c>
       <c r="P121" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -25925,7 +25928,7 @@
         <v>0.42</v>
       </c>
       <c r="AP121">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ121">
         <v>0.5</v>
@@ -26465,7 +26468,7 @@
         <v>152</v>
       </c>
       <c r="P124" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26671,7 +26674,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26877,7 +26880,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27083,7 +27086,7 @@
         <v>159</v>
       </c>
       <c r="P127" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27495,7 +27498,7 @@
         <v>160</v>
       </c>
       <c r="P129" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q129">
         <v>2.38</v>
@@ -27573,7 +27576,7 @@
         <v>1.31</v>
       </c>
       <c r="AP129">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ129">
         <v>1.33</v>
@@ -27701,7 +27704,7 @@
         <v>100</v>
       </c>
       <c r="P130" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q130">
         <v>1.73</v>
@@ -27907,7 +27910,7 @@
         <v>161</v>
       </c>
       <c r="P131" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -27988,7 +27991,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ131">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR131">
         <v>1.28</v>
@@ -28113,7 +28116,7 @@
         <v>144</v>
       </c>
       <c r="P132" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28319,7 +28322,7 @@
         <v>162</v>
       </c>
       <c r="P133" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q133">
         <v>1.83</v>
@@ -28731,7 +28734,7 @@
         <v>164</v>
       </c>
       <c r="P135" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29143,7 +29146,7 @@
         <v>165</v>
       </c>
       <c r="P137" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29555,7 +29558,7 @@
         <v>82</v>
       </c>
       <c r="P139" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -29636,7 +29639,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ139">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AR139">
         <v>1.35</v>
@@ -30045,7 +30048,7 @@
         <v>1.38</v>
       </c>
       <c r="AP141">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ141">
         <v>1.29</v>
@@ -30173,7 +30176,7 @@
         <v>169</v>
       </c>
       <c r="P142" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q142">
         <v>2.5</v>
@@ -30379,7 +30382,7 @@
         <v>170</v>
       </c>
       <c r="P143" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q143">
         <v>4.33</v>
@@ -30536,6 +30539,212 @@
       </c>
       <c r="BP143">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7287102</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45541.65625</v>
+      </c>
+      <c r="F144">
+        <v>19</v>
+      </c>
+      <c r="G144" t="s">
+        <v>70</v>
+      </c>
+      <c r="H144" t="s">
+        <v>77</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>2</v>
+      </c>
+      <c r="O144" t="s">
+        <v>171</v>
+      </c>
+      <c r="P144" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q144">
+        <v>3.25</v>
+      </c>
+      <c r="R144">
+        <v>1.91</v>
+      </c>
+      <c r="S144">
+        <v>4</v>
+      </c>
+      <c r="T144">
+        <v>1.53</v>
+      </c>
+      <c r="U144">
+        <v>2.38</v>
+      </c>
+      <c r="V144">
+        <v>3.45</v>
+      </c>
+      <c r="W144">
+        <v>1.25</v>
+      </c>
+      <c r="X144">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y144">
+        <v>1.04</v>
+      </c>
+      <c r="Z144">
+        <v>2.3</v>
+      </c>
+      <c r="AA144">
+        <v>3.1</v>
+      </c>
+      <c r="AB144">
+        <v>2.9</v>
+      </c>
+      <c r="AC144">
+        <v>1.08</v>
+      </c>
+      <c r="AD144">
+        <v>7.5</v>
+      </c>
+      <c r="AE144">
+        <v>1.45</v>
+      </c>
+      <c r="AF144">
+        <v>2.7</v>
+      </c>
+      <c r="AG144">
+        <v>2.6</v>
+      </c>
+      <c r="AH144">
+        <v>1.48</v>
+      </c>
+      <c r="AI144">
+        <v>2.2</v>
+      </c>
+      <c r="AJ144">
+        <v>1.62</v>
+      </c>
+      <c r="AK144">
+        <v>1.45</v>
+      </c>
+      <c r="AL144">
+        <v>1.3</v>
+      </c>
+      <c r="AM144">
+        <v>1.45</v>
+      </c>
+      <c r="AN144">
+        <v>1.14</v>
+      </c>
+      <c r="AO144">
+        <v>1.86</v>
+      </c>
+      <c r="AP144">
+        <v>1.13</v>
+      </c>
+      <c r="AQ144">
+        <v>1.8</v>
+      </c>
+      <c r="AR144">
+        <v>1.35</v>
+      </c>
+      <c r="AS144">
+        <v>1.06</v>
+      </c>
+      <c r="AT144">
+        <v>2.41</v>
+      </c>
+      <c r="AU144">
+        <v>5</v>
+      </c>
+      <c r="AV144">
+        <v>2</v>
+      </c>
+      <c r="AW144">
+        <v>4</v>
+      </c>
+      <c r="AX144">
+        <v>4</v>
+      </c>
+      <c r="AY144">
+        <v>9</v>
+      </c>
+      <c r="AZ144">
+        <v>6</v>
+      </c>
+      <c r="BA144">
+        <v>8</v>
+      </c>
+      <c r="BB144">
+        <v>5</v>
+      </c>
+      <c r="BC144">
+        <v>13</v>
+      </c>
+      <c r="BD144">
+        <v>1.82</v>
+      </c>
+      <c r="BE144">
+        <v>8</v>
+      </c>
+      <c r="BF144">
+        <v>2.33</v>
+      </c>
+      <c r="BG144">
+        <v>1.33</v>
+      </c>
+      <c r="BH144">
+        <v>3</v>
+      </c>
+      <c r="BI144">
+        <v>1.55</v>
+      </c>
+      <c r="BJ144">
+        <v>2.37</v>
+      </c>
+      <c r="BK144">
+        <v>2.38</v>
+      </c>
+      <c r="BL144">
+        <v>1.9</v>
+      </c>
+      <c r="BM144">
+        <v>2.44</v>
+      </c>
+      <c r="BN144">
+        <v>1.52</v>
+      </c>
+      <c r="BO144">
+        <v>3</v>
+      </c>
+      <c r="BP144">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="236">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -530,6 +530,12 @@
   </si>
   <si>
     <t>['83']</t>
+  </si>
+  <si>
+    <t>['5', '16']</t>
+  </si>
+  <si>
+    <t>['18', '43', '64', '83']</t>
   </si>
   <si>
     <t>['23', '45+2']</t>
@@ -1077,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP144"/>
+  <dimension ref="A1:BP146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1336,7 +1342,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1417,7 +1423,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ2">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1542,7 +1548,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1954,7 +1960,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2032,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ5">
         <v>1.8</v>
@@ -2238,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2366,7 +2372,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2572,7 +2578,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2778,7 +2784,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3396,7 +3402,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3602,7 +3608,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3808,7 +3814,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4220,7 +4226,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4301,7 +4307,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ16">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>1.48</v>
@@ -4632,7 +4638,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4710,7 +4716,7 @@
         <v>1.5</v>
       </c>
       <c r="AP18">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ18">
         <v>0.86</v>
@@ -4838,7 +4844,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -4916,7 +4922,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ19">
         <v>1.27</v>
@@ -5125,7 +5131,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR20">
         <v>1.54</v>
@@ -5250,7 +5256,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -6074,7 +6080,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6692,7 +6698,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -7597,7 +7603,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ32">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR32">
         <v>1</v>
@@ -7722,7 +7728,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7800,10 +7806,10 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ33">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>1.43</v>
@@ -7928,7 +7934,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8006,7 +8012,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ34">
         <v>1.23</v>
@@ -8340,7 +8346,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8418,7 +8424,7 @@
         <v>1.33</v>
       </c>
       <c r="AP36">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ36">
         <v>1.29</v>
@@ -8627,7 +8633,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ37">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.47</v>
@@ -8958,7 +8964,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9164,7 +9170,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9370,7 +9376,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9451,7 +9457,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ41">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR41">
         <v>1.34</v>
@@ -9576,7 +9582,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9782,7 +9788,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9988,7 +9994,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10194,7 +10200,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10684,7 +10690,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ47">
         <v>1.36</v>
@@ -10890,10 +10896,10 @@
         <v>1.75</v>
       </c>
       <c r="AP48">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ48">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.59</v>
@@ -11099,7 +11105,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ49">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR49">
         <v>1.12</v>
@@ -11430,7 +11436,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11636,7 +11642,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11717,7 +11723,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ52">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR52">
         <v>1.24</v>
@@ -12953,7 +12959,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.29</v>
@@ -13490,7 +13496,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13568,7 +13574,7 @@
         <v>0.8</v>
       </c>
       <c r="AP61">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ61">
         <v>1.27</v>
@@ -13696,7 +13702,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13774,7 +13780,7 @@
         <v>1.6</v>
       </c>
       <c r="AP62">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ62">
         <v>1.36</v>
@@ -13980,7 +13986,7 @@
         <v>0.4</v>
       </c>
       <c r="AP63">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ63">
         <v>0.27</v>
@@ -14726,7 +14732,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14932,7 +14938,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15138,7 +15144,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15219,7 +15225,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ69">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR69">
         <v>1.37</v>
@@ -15550,7 +15556,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -15628,7 +15634,7 @@
         <v>1.57</v>
       </c>
       <c r="AP71">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ71">
         <v>1.33</v>
@@ -16168,7 +16174,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16246,7 +16252,7 @@
         <v>0.63</v>
       </c>
       <c r="AP74">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ74">
         <v>0.86</v>
@@ -16455,7 +16461,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ75">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR75">
         <v>1.23</v>
@@ -16992,7 +16998,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17070,10 +17076,10 @@
         <v>0.29</v>
       </c>
       <c r="AP78">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ78">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR78">
         <v>1.19</v>
@@ -17610,7 +17616,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17816,7 +17822,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -18228,7 +18234,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18512,7 +18518,7 @@
         <v>1.38</v>
       </c>
       <c r="AP85">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ85">
         <v>1.27</v>
@@ -18640,7 +18646,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18718,7 +18724,7 @@
         <v>0.38</v>
       </c>
       <c r="AP86">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ86">
         <v>0.27</v>
@@ -18846,7 +18852,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19052,7 +19058,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -19133,7 +19139,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ88">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR88">
         <v>1.38</v>
@@ -19339,7 +19345,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ89">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR89">
         <v>1.27</v>
@@ -19464,7 +19470,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19542,7 +19548,7 @@
         <v>1.78</v>
       </c>
       <c r="AP90">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ90">
         <v>1.8</v>
@@ -19748,7 +19754,7 @@
         <v>1.5</v>
       </c>
       <c r="AP91">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ91">
         <v>1.23</v>
@@ -19876,7 +19882,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q92">
         <v>3.2</v>
@@ -20082,7 +20088,7 @@
         <v>82</v>
       </c>
       <c r="P93" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q93">
         <v>5.5</v>
@@ -20494,7 +20500,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20575,7 +20581,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ95">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR95">
         <v>1.31</v>
@@ -20700,7 +20706,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20906,7 +20912,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -20987,7 +20993,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ97">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR97">
         <v>1.38</v>
@@ -21318,7 +21324,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q99">
         <v>2.75</v>
@@ -21396,10 +21402,10 @@
         <v>1.33</v>
       </c>
       <c r="AP99">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ99">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR99">
         <v>1.23</v>
@@ -22017,7 +22023,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ102">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR102">
         <v>1.39</v>
@@ -22142,7 +22148,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22429,7 +22435,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ104">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR104">
         <v>1.35</v>
@@ -22760,7 +22766,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -22966,7 +22972,7 @@
         <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23044,7 +23050,7 @@
         <v>1.9</v>
       </c>
       <c r="AP107">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ107">
         <v>1.8</v>
@@ -24202,7 +24208,7 @@
         <v>117</v>
       </c>
       <c r="P113" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -24408,7 +24414,7 @@
         <v>150</v>
       </c>
       <c r="P114" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24898,7 +24904,7 @@
         <v>0.73</v>
       </c>
       <c r="AP116">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ116">
         <v>0.86</v>
@@ -25104,10 +25110,10 @@
         <v>0.45</v>
       </c>
       <c r="AP117">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ117">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR117">
         <v>1.89</v>
@@ -25438,7 +25444,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25644,7 +25650,7 @@
         <v>82</v>
       </c>
       <c r="P120" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25725,7 +25731,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ120">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR120">
         <v>1.15</v>
@@ -25850,7 +25856,7 @@
         <v>155</v>
       </c>
       <c r="P121" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -25931,7 +25937,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ121">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR121">
         <v>1.26</v>
@@ -26468,7 +26474,7 @@
         <v>152</v>
       </c>
       <c r="P124" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26546,7 +26552,7 @@
         <v>1.25</v>
       </c>
       <c r="AP124">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ124">
         <v>1.29</v>
@@ -26674,7 +26680,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26880,7 +26886,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27086,7 +27092,7 @@
         <v>159</v>
       </c>
       <c r="P127" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27167,7 +27173,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ127">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR127">
         <v>1.41</v>
@@ -27498,7 +27504,7 @@
         <v>160</v>
       </c>
       <c r="P129" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q129">
         <v>2.38</v>
@@ -27704,7 +27710,7 @@
         <v>100</v>
       </c>
       <c r="P130" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q130">
         <v>1.73</v>
@@ -27785,7 +27791,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ130">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR130">
         <v>1.55</v>
@@ -27910,7 +27916,7 @@
         <v>161</v>
       </c>
       <c r="P131" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -28116,7 +28122,7 @@
         <v>144</v>
       </c>
       <c r="P132" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28322,7 +28328,7 @@
         <v>162</v>
       </c>
       <c r="P133" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q133">
         <v>1.83</v>
@@ -28400,7 +28406,7 @@
         <v>0.23</v>
       </c>
       <c r="AP133">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ133">
         <v>0.27</v>
@@ -28609,7 +28615,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ134">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR134">
         <v>1.42</v>
@@ -28734,7 +28740,7 @@
         <v>164</v>
       </c>
       <c r="P135" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29018,7 +29024,7 @@
         <v>1.23</v>
       </c>
       <c r="AP136">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ136">
         <v>1.27</v>
@@ -29146,7 +29152,7 @@
         <v>165</v>
       </c>
       <c r="P137" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29224,7 +29230,7 @@
         <v>1.38</v>
       </c>
       <c r="AP137">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ137">
         <v>1.36</v>
@@ -29558,7 +29564,7 @@
         <v>82</v>
       </c>
       <c r="P139" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -30176,7 +30182,7 @@
         <v>169</v>
       </c>
       <c r="P142" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q142">
         <v>2.5</v>
@@ -30382,7 +30388,7 @@
         <v>170</v>
       </c>
       <c r="P143" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q143">
         <v>4.33</v>
@@ -30745,6 +30751,418 @@
       </c>
       <c r="BP144">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7287160</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45548.65625</v>
+      </c>
+      <c r="F145">
+        <v>30</v>
+      </c>
+      <c r="G145" t="s">
+        <v>73</v>
+      </c>
+      <c r="H145" t="s">
+        <v>76</v>
+      </c>
+      <c r="I145">
+        <v>2</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145">
+        <v>2</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>3</v>
+      </c>
+      <c r="O145" t="s">
+        <v>172</v>
+      </c>
+      <c r="P145" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q145">
+        <v>2.63</v>
+      </c>
+      <c r="R145">
+        <v>2.1</v>
+      </c>
+      <c r="S145">
+        <v>4.33</v>
+      </c>
+      <c r="T145">
+        <v>1.4</v>
+      </c>
+      <c r="U145">
+        <v>2.75</v>
+      </c>
+      <c r="V145">
+        <v>3</v>
+      </c>
+      <c r="W145">
+        <v>1.36</v>
+      </c>
+      <c r="X145">
+        <v>8</v>
+      </c>
+      <c r="Y145">
+        <v>1.08</v>
+      </c>
+      <c r="Z145">
+        <v>1.8</v>
+      </c>
+      <c r="AA145">
+        <v>3.45</v>
+      </c>
+      <c r="AB145">
+        <v>4.2</v>
+      </c>
+      <c r="AC145">
+        <v>1.02</v>
+      </c>
+      <c r="AD145">
+        <v>8.5</v>
+      </c>
+      <c r="AE145">
+        <v>1.3</v>
+      </c>
+      <c r="AF145">
+        <v>3.1</v>
+      </c>
+      <c r="AG145">
+        <v>2.03</v>
+      </c>
+      <c r="AH145">
+        <v>1.83</v>
+      </c>
+      <c r="AI145">
+        <v>1.91</v>
+      </c>
+      <c r="AJ145">
+        <v>1.91</v>
+      </c>
+      <c r="AK145">
+        <v>1.22</v>
+      </c>
+      <c r="AL145">
+        <v>1.22</v>
+      </c>
+      <c r="AM145">
+        <v>1.9</v>
+      </c>
+      <c r="AN145">
+        <v>1.43</v>
+      </c>
+      <c r="AO145">
+        <v>0.5</v>
+      </c>
+      <c r="AP145">
+        <v>1.53</v>
+      </c>
+      <c r="AQ145">
+        <v>0.47</v>
+      </c>
+      <c r="AR145">
+        <v>1.23</v>
+      </c>
+      <c r="AS145">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT145">
+        <v>2.17</v>
+      </c>
+      <c r="AU145">
+        <v>7</v>
+      </c>
+      <c r="AV145">
+        <v>7</v>
+      </c>
+      <c r="AW145">
+        <v>4</v>
+      </c>
+      <c r="AX145">
+        <v>7</v>
+      </c>
+      <c r="AY145">
+        <v>11</v>
+      </c>
+      <c r="AZ145">
+        <v>14</v>
+      </c>
+      <c r="BA145">
+        <v>9</v>
+      </c>
+      <c r="BB145">
+        <v>6</v>
+      </c>
+      <c r="BC145">
+        <v>15</v>
+      </c>
+      <c r="BD145">
+        <v>1.59</v>
+      </c>
+      <c r="BE145">
+        <v>8</v>
+      </c>
+      <c r="BF145">
+        <v>2.8</v>
+      </c>
+      <c r="BG145">
+        <v>1.29</v>
+      </c>
+      <c r="BH145">
+        <v>3.3</v>
+      </c>
+      <c r="BI145">
+        <v>1.48</v>
+      </c>
+      <c r="BJ145">
+        <v>2.57</v>
+      </c>
+      <c r="BK145">
+        <v>1.92</v>
+      </c>
+      <c r="BL145">
+        <v>1.88</v>
+      </c>
+      <c r="BM145">
+        <v>2.27</v>
+      </c>
+      <c r="BN145">
+        <v>1.6</v>
+      </c>
+      <c r="BO145">
+        <v>2.88</v>
+      </c>
+      <c r="BP145">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7287161</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45548.65625</v>
+      </c>
+      <c r="F146">
+        <v>30</v>
+      </c>
+      <c r="G146" t="s">
+        <v>74</v>
+      </c>
+      <c r="H146" t="s">
+        <v>79</v>
+      </c>
+      <c r="I146">
+        <v>2</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>2</v>
+      </c>
+      <c r="L146">
+        <v>4</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>4</v>
+      </c>
+      <c r="O146" t="s">
+        <v>173</v>
+      </c>
+      <c r="P146" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q146">
+        <v>1.8</v>
+      </c>
+      <c r="R146">
+        <v>2.6</v>
+      </c>
+      <c r="S146">
+        <v>7.5</v>
+      </c>
+      <c r="T146">
+        <v>1.33</v>
+      </c>
+      <c r="U146">
+        <v>3.25</v>
+      </c>
+      <c r="V146">
+        <v>2.63</v>
+      </c>
+      <c r="W146">
+        <v>1.44</v>
+      </c>
+      <c r="X146">
+        <v>6.5</v>
+      </c>
+      <c r="Y146">
+        <v>1.11</v>
+      </c>
+      <c r="Z146">
+        <v>1.35</v>
+      </c>
+      <c r="AA146">
+        <v>4.6</v>
+      </c>
+      <c r="AB146">
+        <v>8</v>
+      </c>
+      <c r="AC146">
+        <v>1.01</v>
+      </c>
+      <c r="AD146">
+        <v>10.5</v>
+      </c>
+      <c r="AE146">
+        <v>1.21</v>
+      </c>
+      <c r="AF146">
+        <v>3.75</v>
+      </c>
+      <c r="AG146">
+        <v>1.65</v>
+      </c>
+      <c r="AH146">
+        <v>2.11</v>
+      </c>
+      <c r="AI146">
+        <v>1.95</v>
+      </c>
+      <c r="AJ146">
+        <v>1.8</v>
+      </c>
+      <c r="AK146">
+        <v>1.1</v>
+      </c>
+      <c r="AL146">
+        <v>1.18</v>
+      </c>
+      <c r="AM146">
+        <v>2.9</v>
+      </c>
+      <c r="AN146">
+        <v>1.62</v>
+      </c>
+      <c r="AO146">
+        <v>1.07</v>
+      </c>
+      <c r="AP146">
+        <v>1.71</v>
+      </c>
+      <c r="AQ146">
+        <v>1</v>
+      </c>
+      <c r="AR146">
+        <v>1.8</v>
+      </c>
+      <c r="AS146">
+        <v>1.02</v>
+      </c>
+      <c r="AT146">
+        <v>2.82</v>
+      </c>
+      <c r="AU146">
+        <v>10</v>
+      </c>
+      <c r="AV146">
+        <v>0</v>
+      </c>
+      <c r="AW146">
+        <v>6</v>
+      </c>
+      <c r="AX146">
+        <v>4</v>
+      </c>
+      <c r="AY146">
+        <v>16</v>
+      </c>
+      <c r="AZ146">
+        <v>4</v>
+      </c>
+      <c r="BA146">
+        <v>9</v>
+      </c>
+      <c r="BB146">
+        <v>8</v>
+      </c>
+      <c r="BC146">
+        <v>17</v>
+      </c>
+      <c r="BD146">
+        <v>1.26</v>
+      </c>
+      <c r="BE146">
+        <v>10</v>
+      </c>
+      <c r="BF146">
+        <v>4.86</v>
+      </c>
+      <c r="BG146">
+        <v>1.25</v>
+      </c>
+      <c r="BH146">
+        <v>3.6</v>
+      </c>
+      <c r="BI146">
+        <v>1.44</v>
+      </c>
+      <c r="BJ146">
+        <v>2.6</v>
+      </c>
+      <c r="BK146">
+        <v>1.92</v>
+      </c>
+      <c r="BL146">
+        <v>1.88</v>
+      </c>
+      <c r="BM146">
+        <v>2.11</v>
+      </c>
+      <c r="BN146">
+        <v>1.7</v>
+      </c>
+      <c r="BO146">
+        <v>2.7</v>
+      </c>
+      <c r="BP146">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="237">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -538,6 +538,9 @@
     <t>['18', '43', '64', '83']</t>
   </si>
   <si>
+    <t>['31']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -593,9 +596,6 @@
   </si>
   <si>
     <t>['21', '57']</t>
-  </si>
-  <si>
-    <t>['31']</t>
   </si>
   <si>
     <t>['75']</t>
@@ -722,6 +722,9 @@
   </si>
   <si>
     <t>['54', '68']</t>
+  </si>
+  <si>
+    <t>['20', '84']</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP146"/>
+  <dimension ref="A1:BP147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1342,7 +1345,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1548,7 +1551,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1832,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ4">
         <v>0.86</v>
@@ -1960,7 +1963,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2372,7 +2375,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2578,7 +2581,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2784,7 +2787,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2865,7 +2868,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ9">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3402,7 +3405,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3608,7 +3611,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3686,7 +3689,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ13">
         <v>1.33</v>
@@ -3814,7 +3817,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4226,7 +4229,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4638,7 +4641,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4844,7 +4847,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -5256,7 +5259,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5746,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ23">
         <v>0.27</v>
@@ -5955,7 +5958,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ24">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -6080,7 +6083,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6364,10 +6367,10 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ26">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6698,7 +6701,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -7728,7 +7731,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7934,7 +7937,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8346,7 +8349,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8427,7 +8430,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ36">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR36">
         <v>1.43</v>
@@ -8964,7 +8967,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9042,7 +9045,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ39">
         <v>1.23</v>
@@ -9170,7 +9173,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9869,7 +9872,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ43">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR43">
         <v>1.58</v>
@@ -11517,7 +11520,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ51">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR51">
         <v>1.37</v>
@@ -11642,7 +11645,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12132,7 +12135,7 @@
         <v>2.2</v>
       </c>
       <c r="AP54">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ54">
         <v>1.8</v>
@@ -12753,7 +12756,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ57">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR57">
         <v>1</v>
@@ -14192,7 +14195,7 @@
         <v>1.17</v>
       </c>
       <c r="AP64">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ64">
         <v>1.27</v>
@@ -14813,7 +14816,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ67">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR67">
         <v>1.06</v>
@@ -15144,7 +15147,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -16458,7 +16461,7 @@
         <v>1.17</v>
       </c>
       <c r="AP75">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -18109,7 +18112,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ83">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR83">
         <v>1.34</v>
@@ -19342,7 +19345,7 @@
         <v>0.25</v>
       </c>
       <c r="AP89">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ89">
         <v>0.47</v>
@@ -20169,7 +20172,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ93">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR93">
         <v>1.39</v>
@@ -22638,7 +22641,7 @@
         <v>0.3</v>
       </c>
       <c r="AP105">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ105">
         <v>0.27</v>
@@ -22847,7 +22850,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ106">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR106">
         <v>1.36</v>
@@ -23259,7 +23262,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ108">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR108">
         <v>1.25</v>
@@ -24492,7 +24495,7 @@
         <v>1.3</v>
       </c>
       <c r="AP114">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ114">
         <v>1.23</v>
@@ -25316,7 +25319,7 @@
         <v>1.55</v>
       </c>
       <c r="AP118">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ118">
         <v>1.33</v>
@@ -26555,7 +26558,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ124">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR124">
         <v>1.28</v>
@@ -28200,7 +28203,7 @@
         <v>0.67</v>
       </c>
       <c r="AP132">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ132">
         <v>0.86</v>
@@ -28740,7 +28743,7 @@
         <v>164</v>
       </c>
       <c r="P135" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29436,7 +29439,7 @@
         <v>1.36</v>
       </c>
       <c r="AP138">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ138">
         <v>1.27</v>
@@ -30057,7 +30060,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ141">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR141">
         <v>1.36</v>
@@ -31162,6 +31165,212 @@
         <v>2.7</v>
       </c>
       <c r="BP146">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7287104</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45551.65625</v>
+      </c>
+      <c r="F147">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s">
+        <v>72</v>
+      </c>
+      <c r="H147" t="s">
+        <v>74</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
+        <v>3</v>
+      </c>
+      <c r="O147" t="s">
+        <v>174</v>
+      </c>
+      <c r="P147" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q147">
+        <v>4</v>
+      </c>
+      <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
+        <v>3.1</v>
+      </c>
+      <c r="T147">
+        <v>1.53</v>
+      </c>
+      <c r="U147">
+        <v>2.38</v>
+      </c>
+      <c r="V147">
+        <v>3.75</v>
+      </c>
+      <c r="W147">
+        <v>1.25</v>
+      </c>
+      <c r="X147">
+        <v>11</v>
+      </c>
+      <c r="Y147">
+        <v>1.05</v>
+      </c>
+      <c r="Z147">
+        <v>3</v>
+      </c>
+      <c r="AA147">
+        <v>3.2</v>
+      </c>
+      <c r="AB147">
+        <v>2.25</v>
+      </c>
+      <c r="AC147">
+        <v>1.09</v>
+      </c>
+      <c r="AD147">
+        <v>7</v>
+      </c>
+      <c r="AE147">
+        <v>1.5</v>
+      </c>
+      <c r="AF147">
+        <v>2.55</v>
+      </c>
+      <c r="AG147">
+        <v>2.3</v>
+      </c>
+      <c r="AH147">
+        <v>1.6</v>
+      </c>
+      <c r="AI147">
+        <v>2</v>
+      </c>
+      <c r="AJ147">
+        <v>1.75</v>
+      </c>
+      <c r="AK147">
+        <v>1.44</v>
+      </c>
+      <c r="AL147">
+        <v>1.28</v>
+      </c>
+      <c r="AM147">
+        <v>1.48</v>
+      </c>
+      <c r="AN147">
+        <v>1.64</v>
+      </c>
+      <c r="AO147">
+        <v>1.29</v>
+      </c>
+      <c r="AP147">
+        <v>1.53</v>
+      </c>
+      <c r="AQ147">
+        <v>1.4</v>
+      </c>
+      <c r="AR147">
+        <v>1.35</v>
+      </c>
+      <c r="AS147">
+        <v>1.45</v>
+      </c>
+      <c r="AT147">
+        <v>2.8</v>
+      </c>
+      <c r="AU147">
+        <v>5</v>
+      </c>
+      <c r="AV147">
+        <v>4</v>
+      </c>
+      <c r="AW147">
+        <v>4</v>
+      </c>
+      <c r="AX147">
+        <v>8</v>
+      </c>
+      <c r="AY147">
+        <v>9</v>
+      </c>
+      <c r="AZ147">
+        <v>12</v>
+      </c>
+      <c r="BA147">
+        <v>5</v>
+      </c>
+      <c r="BB147">
+        <v>5</v>
+      </c>
+      <c r="BC147">
+        <v>10</v>
+      </c>
+      <c r="BD147">
+        <v>2.91</v>
+      </c>
+      <c r="BE147">
+        <v>7.7</v>
+      </c>
+      <c r="BF147">
+        <v>1.62</v>
+      </c>
+      <c r="BG147">
+        <v>1.25</v>
+      </c>
+      <c r="BH147">
+        <v>3.6</v>
+      </c>
+      <c r="BI147">
+        <v>1.36</v>
+      </c>
+      <c r="BJ147">
+        <v>2.79</v>
+      </c>
+      <c r="BK147">
+        <v>2.1</v>
+      </c>
+      <c r="BL147">
+        <v>2.13</v>
+      </c>
+      <c r="BM147">
+        <v>2.1</v>
+      </c>
+      <c r="BN147">
+        <v>1.7</v>
+      </c>
+      <c r="BO147">
+        <v>2.72</v>
+      </c>
+      <c r="BP147">
         <v>1.4</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="240">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -541,6 +541,12 @@
     <t>['31']</t>
   </si>
   <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['35', '39', '77']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -725,6 +731,9 @@
   </si>
   <si>
     <t>['20', '84']</t>
+  </si>
+  <si>
+    <t>['28']</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP147"/>
+  <dimension ref="A1:BP151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1345,7 +1354,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1423,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1551,7 +1560,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1629,10 +1638,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ3">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1835,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ4">
         <v>0.86</v>
@@ -1963,7 +1972,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2044,7 +2053,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ5">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2375,7 +2384,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2456,7 +2465,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2581,7 +2590,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2787,7 +2796,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2868,7 +2877,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ9">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3071,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ10">
         <v>1.23</v>
@@ -3405,7 +3414,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3486,7 +3495,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ12">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR12">
         <v>1</v>
@@ -3611,7 +3620,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3689,10 +3698,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR13">
         <v>0.97</v>
@@ -3817,7 +3826,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3895,7 +3904,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ14">
         <v>0.86</v>
@@ -4229,7 +4238,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4641,7 +4650,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4847,7 +4856,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -5131,7 +5140,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ20">
         <v>0.47</v>
@@ -5259,7 +5268,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5337,10 +5346,10 @@
         <v>2</v>
       </c>
       <c r="AP21">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ21">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR21">
         <v>1.54</v>
@@ -5543,10 +5552,10 @@
         <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR22">
         <v>1.39</v>
@@ -5749,10 +5758,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ23">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AR23">
         <v>1.34</v>
@@ -5958,7 +5967,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ24">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -6083,7 +6092,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6161,10 +6170,10 @@
         <v>2.33</v>
       </c>
       <c r="AP25">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ25">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR25">
         <v>1.56</v>
@@ -6367,10 +6376,10 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ26">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6576,7 +6585,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ27">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR27">
         <v>1.35</v>
@@ -6701,7 +6710,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6779,7 +6788,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ28">
         <v>1.27</v>
@@ -6988,7 +6997,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ29">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AR29">
         <v>1.29</v>
@@ -7191,7 +7200,7 @@
         <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ30">
         <v>1.36</v>
@@ -7731,7 +7740,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7937,7 +7946,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8224,7 +8233,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ35">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AR35">
         <v>1.43</v>
@@ -8349,7 +8358,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8430,7 +8439,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ36">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR36">
         <v>1.43</v>
@@ -8633,7 +8642,7 @@
         <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8967,7 +8976,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9045,7 +9054,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ39">
         <v>1.23</v>
@@ -9251,10 +9260,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ40">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR40">
         <v>1.04</v>
@@ -9379,7 +9388,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9457,7 +9466,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ41">
         <v>0.47</v>
@@ -9585,7 +9594,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9666,7 +9675,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR42">
         <v>1.38</v>
@@ -9791,7 +9800,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9869,10 +9878,10 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ43">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR43">
         <v>1.58</v>
@@ -9997,7 +10006,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10203,7 +10212,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -11105,7 +11114,7 @@
         <v>0.25</v>
       </c>
       <c r="AP49">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ49">
         <v>0.47</v>
@@ -11311,10 +11320,10 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ50">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AR50">
         <v>1.1</v>
@@ -11439,7 +11448,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11517,10 +11526,10 @@
         <v>1.4</v>
       </c>
       <c r="AP51">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ51">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR51">
         <v>1.37</v>
@@ -11645,7 +11654,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11929,10 +11938,10 @@
         <v>1.4</v>
       </c>
       <c r="AP53">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ53">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR53">
         <v>1.43</v>
@@ -12135,10 +12144,10 @@
         <v>2.2</v>
       </c>
       <c r="AP54">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ54">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -12547,7 +12556,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ56">
         <v>0.86</v>
@@ -12756,7 +12765,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ57">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR57">
         <v>1</v>
@@ -13499,7 +13508,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13705,7 +13714,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13992,7 +14001,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ63">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AR63">
         <v>1.78</v>
@@ -14195,7 +14204,7 @@
         <v>1.17</v>
       </c>
       <c r="AP64">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ64">
         <v>1.27</v>
@@ -14401,10 +14410,10 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ65">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AR65">
         <v>1.39</v>
@@ -14610,7 +14619,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ66">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR66">
         <v>1.32</v>
@@ -14735,7 +14744,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14813,10 +14822,10 @@
         <v>1.57</v>
       </c>
       <c r="AP67">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ67">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR67">
         <v>1.06</v>
@@ -14941,7 +14950,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15022,7 +15031,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ68">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR68">
         <v>1.34</v>
@@ -15147,7 +15156,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15431,7 +15440,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ70">
         <v>1.36</v>
@@ -15559,7 +15568,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -15640,7 +15649,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ71">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR71">
         <v>1.85</v>
@@ -16049,10 +16058,10 @@
         <v>1.71</v>
       </c>
       <c r="AP73">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ73">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR73">
         <v>1.37</v>
@@ -16177,7 +16186,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16461,7 +16470,7 @@
         <v>1.17</v>
       </c>
       <c r="AP75">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -16670,7 +16679,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ76">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AR76">
         <v>1.05</v>
@@ -16873,7 +16882,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ77">
         <v>1.23</v>
@@ -17001,7 +17010,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17288,7 +17297,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ79">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR79">
         <v>1.2</v>
@@ -17491,7 +17500,7 @@
         <v>1.14</v>
       </c>
       <c r="AP80">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ80">
         <v>1.27</v>
@@ -17619,7 +17628,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17825,7 +17834,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -18112,7 +18121,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ83">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR83">
         <v>1.34</v>
@@ -18237,7 +18246,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18315,10 +18324,10 @@
         <v>1.63</v>
       </c>
       <c r="AP84">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ84">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR84">
         <v>1.41</v>
@@ -18649,7 +18658,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18730,7 +18739,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ86">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AR86">
         <v>1.18</v>
@@ -18855,7 +18864,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -18933,7 +18942,7 @@
         <v>0.67</v>
       </c>
       <c r="AP87">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ87">
         <v>0.86</v>
@@ -19061,7 +19070,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -19139,7 +19148,7 @@
         <v>1.14</v>
       </c>
       <c r="AP88">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -19345,7 +19354,7 @@
         <v>0.25</v>
       </c>
       <c r="AP89">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ89">
         <v>0.47</v>
@@ -19473,7 +19482,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19554,7 +19563,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ90">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR90">
         <v>1.89</v>
@@ -19885,7 +19894,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q92">
         <v>3.2</v>
@@ -19963,7 +19972,7 @@
         <v>1.88</v>
       </c>
       <c r="AP92">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ92">
         <v>1.36</v>
@@ -20091,7 +20100,7 @@
         <v>82</v>
       </c>
       <c r="P93" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q93">
         <v>5.5</v>
@@ -20172,7 +20181,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ93">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR93">
         <v>1.39</v>
@@ -20503,7 +20512,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20709,7 +20718,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20790,7 +20799,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ96">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AR96">
         <v>1.26</v>
@@ -20915,7 +20924,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -20993,7 +21002,7 @@
         <v>0.22</v>
       </c>
       <c r="AP97">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ97">
         <v>0.47</v>
@@ -21199,10 +21208,10 @@
         <v>1.56</v>
       </c>
       <c r="AP98">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ98">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR98">
         <v>1.5</v>
@@ -21327,7 +21336,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q99">
         <v>2.75</v>
@@ -21817,7 +21826,7 @@
         <v>1.67</v>
       </c>
       <c r="AP101">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ101">
         <v>1.36</v>
@@ -22151,7 +22160,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22229,7 +22238,7 @@
         <v>1.2</v>
       </c>
       <c r="AP103">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ103">
         <v>1.27</v>
@@ -22641,10 +22650,10 @@
         <v>0.3</v>
       </c>
       <c r="AP105">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ105">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AR105">
         <v>1.34</v>
@@ -22769,7 +22778,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -22847,10 +22856,10 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ106">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR106">
         <v>1.36</v>
@@ -22975,7 +22984,7 @@
         <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23056,7 +23065,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ107">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR107">
         <v>1.35</v>
@@ -23262,7 +23271,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ108">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR108">
         <v>1.25</v>
@@ -23465,7 +23474,7 @@
         <v>1.33</v>
       </c>
       <c r="AP109">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ109">
         <v>1.23</v>
@@ -23674,7 +23683,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ110">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR110">
         <v>1.32</v>
@@ -24083,10 +24092,10 @@
         <v>0.27</v>
       </c>
       <c r="AP112">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ112">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AR112">
         <v>1.53</v>
@@ -24211,7 +24220,7 @@
         <v>117</v>
       </c>
       <c r="P113" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -24292,7 +24301,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ113">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR113">
         <v>1.37</v>
@@ -24417,7 +24426,7 @@
         <v>150</v>
       </c>
       <c r="P114" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24495,7 +24504,7 @@
         <v>1.3</v>
       </c>
       <c r="AP114">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ114">
         <v>1.23</v>
@@ -25319,10 +25328,10 @@
         <v>1.55</v>
       </c>
       <c r="AP118">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ118">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR118">
         <v>1.38</v>
@@ -25447,7 +25456,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25528,7 +25537,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ119">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AR119">
         <v>1.37</v>
@@ -25653,7 +25662,7 @@
         <v>82</v>
       </c>
       <c r="P120" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25731,7 +25740,7 @@
         <v>1.09</v>
       </c>
       <c r="AP120">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ120">
         <v>1</v>
@@ -25859,7 +25868,7 @@
         <v>155</v>
       </c>
       <c r="P121" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -25937,7 +25946,7 @@
         <v>0.42</v>
       </c>
       <c r="AP121">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ121">
         <v>0.47</v>
@@ -26146,7 +26155,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ122">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR122">
         <v>1.39</v>
@@ -26477,7 +26486,7 @@
         <v>152</v>
       </c>
       <c r="P124" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26558,7 +26567,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ124">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR124">
         <v>1.28</v>
@@ -26683,7 +26692,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26889,7 +26898,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27095,7 +27104,7 @@
         <v>159</v>
       </c>
       <c r="P127" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27173,7 +27182,7 @@
         <v>1.25</v>
       </c>
       <c r="AP127">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ127">
         <v>1</v>
@@ -27507,7 +27516,7 @@
         <v>160</v>
       </c>
       <c r="P129" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q129">
         <v>2.38</v>
@@ -27585,10 +27594,10 @@
         <v>1.31</v>
       </c>
       <c r="AP129">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ129">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR129">
         <v>1.33</v>
@@ -27713,7 +27722,7 @@
         <v>100</v>
       </c>
       <c r="P130" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q130">
         <v>1.73</v>
@@ -27791,7 +27800,7 @@
         <v>0.46</v>
       </c>
       <c r="AP130">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AQ130">
         <v>0.47</v>
@@ -27919,7 +27928,7 @@
         <v>161</v>
       </c>
       <c r="P131" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -28000,7 +28009,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ131">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR131">
         <v>1.28</v>
@@ -28125,7 +28134,7 @@
         <v>144</v>
       </c>
       <c r="P132" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28203,7 +28212,7 @@
         <v>0.67</v>
       </c>
       <c r="AP132">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ132">
         <v>0.86</v>
@@ -28331,7 +28340,7 @@
         <v>162</v>
       </c>
       <c r="P133" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q133">
         <v>1.83</v>
@@ -28412,7 +28421,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ133">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AR133">
         <v>1.84</v>
@@ -28743,7 +28752,7 @@
         <v>164</v>
       </c>
       <c r="P135" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29155,7 +29164,7 @@
         <v>165</v>
       </c>
       <c r="P137" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29439,7 +29448,7 @@
         <v>1.36</v>
       </c>
       <c r="AP138">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ138">
         <v>1.27</v>
@@ -29567,7 +29576,7 @@
         <v>82</v>
       </c>
       <c r="P139" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -29648,7 +29657,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ139">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR139">
         <v>1.35</v>
@@ -29854,7 +29863,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ140">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR140">
         <v>1.27</v>
@@ -30057,10 +30066,10 @@
         <v>1.38</v>
       </c>
       <c r="AP141">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ141">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR141">
         <v>1.36</v>
@@ -30185,7 +30194,7 @@
         <v>169</v>
       </c>
       <c r="P142" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q142">
         <v>2.5</v>
@@ -30263,10 +30272,10 @@
         <v>0.29</v>
       </c>
       <c r="AP142">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ142">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AR142">
         <v>1.42</v>
@@ -30391,7 +30400,7 @@
         <v>170</v>
       </c>
       <c r="P143" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q143">
         <v>4.33</v>
@@ -30675,10 +30684,10 @@
         <v>1.86</v>
       </c>
       <c r="AP144">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ144">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR144">
         <v>1.35</v>
@@ -31215,7 +31224,7 @@
         <v>174</v>
       </c>
       <c r="P147" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31293,10 +31302,10 @@
         <v>1.29</v>
       </c>
       <c r="AP147">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ147">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR147">
         <v>1.35</v>
@@ -31372,6 +31381,830 @@
       </c>
       <c r="BP147">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7287163</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45555.65625</v>
+      </c>
+      <c r="F148">
+        <v>31</v>
+      </c>
+      <c r="G148" t="s">
+        <v>71</v>
+      </c>
+      <c r="H148" t="s">
+        <v>74</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>175</v>
+      </c>
+      <c r="P148" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q148">
+        <v>2.88</v>
+      </c>
+      <c r="R148">
+        <v>2.05</v>
+      </c>
+      <c r="S148">
+        <v>4</v>
+      </c>
+      <c r="T148">
+        <v>1.5</v>
+      </c>
+      <c r="U148">
+        <v>2.5</v>
+      </c>
+      <c r="V148">
+        <v>3.4</v>
+      </c>
+      <c r="W148">
+        <v>1.3</v>
+      </c>
+      <c r="X148">
+        <v>10</v>
+      </c>
+      <c r="Y148">
+        <v>1.06</v>
+      </c>
+      <c r="Z148">
+        <v>2</v>
+      </c>
+      <c r="AA148">
+        <v>3.3</v>
+      </c>
+      <c r="AB148">
+        <v>3.7</v>
+      </c>
+      <c r="AC148">
+        <v>1.06</v>
+      </c>
+      <c r="AD148">
+        <v>8.5</v>
+      </c>
+      <c r="AE148">
+        <v>1.38</v>
+      </c>
+      <c r="AF148">
+        <v>2.95</v>
+      </c>
+      <c r="AG148">
+        <v>2</v>
+      </c>
+      <c r="AH148">
+        <v>1.71</v>
+      </c>
+      <c r="AI148">
+        <v>1.95</v>
+      </c>
+      <c r="AJ148">
+        <v>1.8</v>
+      </c>
+      <c r="AK148">
+        <v>1.3</v>
+      </c>
+      <c r="AL148">
+        <v>1.35</v>
+      </c>
+      <c r="AM148">
+        <v>1.7</v>
+      </c>
+      <c r="AN148">
+        <v>2.14</v>
+      </c>
+      <c r="AO148">
+        <v>1.4</v>
+      </c>
+      <c r="AP148">
+        <v>2.07</v>
+      </c>
+      <c r="AQ148">
+        <v>1.38</v>
+      </c>
+      <c r="AR148">
+        <v>1.6</v>
+      </c>
+      <c r="AS148">
+        <v>1.45</v>
+      </c>
+      <c r="AT148">
+        <v>3.05</v>
+      </c>
+      <c r="AU148">
+        <v>4</v>
+      </c>
+      <c r="AV148">
+        <v>5</v>
+      </c>
+      <c r="AW148">
+        <v>7</v>
+      </c>
+      <c r="AX148">
+        <v>5</v>
+      </c>
+      <c r="AY148">
+        <v>11</v>
+      </c>
+      <c r="AZ148">
+        <v>10</v>
+      </c>
+      <c r="BA148">
+        <v>9</v>
+      </c>
+      <c r="BB148">
+        <v>0</v>
+      </c>
+      <c r="BC148">
+        <v>9</v>
+      </c>
+      <c r="BD148">
+        <v>1.65</v>
+      </c>
+      <c r="BE148">
+        <v>7.8</v>
+      </c>
+      <c r="BF148">
+        <v>2.81</v>
+      </c>
+      <c r="BG148">
+        <v>1.25</v>
+      </c>
+      <c r="BH148">
+        <v>3.6</v>
+      </c>
+      <c r="BI148">
+        <v>1.39</v>
+      </c>
+      <c r="BJ148">
+        <v>2.77</v>
+      </c>
+      <c r="BK148">
+        <v>2.1</v>
+      </c>
+      <c r="BL148">
+        <v>2.03</v>
+      </c>
+      <c r="BM148">
+        <v>2.17</v>
+      </c>
+      <c r="BN148">
+        <v>1.61</v>
+      </c>
+      <c r="BO148">
+        <v>2.85</v>
+      </c>
+      <c r="BP148">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7287165</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45555.65625</v>
+      </c>
+      <c r="F149">
+        <v>31</v>
+      </c>
+      <c r="G149" t="s">
+        <v>78</v>
+      </c>
+      <c r="H149" t="s">
+        <v>73</v>
+      </c>
+      <c r="I149">
+        <v>2</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>2</v>
+      </c>
+      <c r="L149">
+        <v>3</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>3</v>
+      </c>
+      <c r="O149" t="s">
+        <v>176</v>
+      </c>
+      <c r="P149" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q149">
+        <v>2.1</v>
+      </c>
+      <c r="R149">
+        <v>2.4</v>
+      </c>
+      <c r="S149">
+        <v>5</v>
+      </c>
+      <c r="T149">
+        <v>1.33</v>
+      </c>
+      <c r="U149">
+        <v>3.26</v>
+      </c>
+      <c r="V149">
+        <v>2.67</v>
+      </c>
+      <c r="W149">
+        <v>1.46</v>
+      </c>
+      <c r="X149">
+        <v>6</v>
+      </c>
+      <c r="Y149">
+        <v>1.1</v>
+      </c>
+      <c r="Z149">
+        <v>1.7</v>
+      </c>
+      <c r="AA149">
+        <v>3.8</v>
+      </c>
+      <c r="AB149">
+        <v>4.5</v>
+      </c>
+      <c r="AC149">
+        <v>1.04</v>
+      </c>
+      <c r="AD149">
+        <v>10</v>
+      </c>
+      <c r="AE149">
+        <v>1.25</v>
+      </c>
+      <c r="AF149">
+        <v>3.85</v>
+      </c>
+      <c r="AG149">
+        <v>1.74</v>
+      </c>
+      <c r="AH149">
+        <v>1.97</v>
+      </c>
+      <c r="AI149">
+        <v>1.75</v>
+      </c>
+      <c r="AJ149">
+        <v>2</v>
+      </c>
+      <c r="AK149">
+        <v>1.2</v>
+      </c>
+      <c r="AL149">
+        <v>1.24</v>
+      </c>
+      <c r="AM149">
+        <v>1.9</v>
+      </c>
+      <c r="AN149">
+        <v>1.73</v>
+      </c>
+      <c r="AO149">
+        <v>1.33</v>
+      </c>
+      <c r="AP149">
+        <v>1.81</v>
+      </c>
+      <c r="AQ149">
+        <v>1.25</v>
+      </c>
+      <c r="AR149">
+        <v>1.48</v>
+      </c>
+      <c r="AS149">
+        <v>1.11</v>
+      </c>
+      <c r="AT149">
+        <v>2.59</v>
+      </c>
+      <c r="AU149">
+        <v>8</v>
+      </c>
+      <c r="AV149">
+        <v>7</v>
+      </c>
+      <c r="AW149">
+        <v>9</v>
+      </c>
+      <c r="AX149">
+        <v>4</v>
+      </c>
+      <c r="AY149">
+        <v>17</v>
+      </c>
+      <c r="AZ149">
+        <v>11</v>
+      </c>
+      <c r="BA149">
+        <v>6</v>
+      </c>
+      <c r="BB149">
+        <v>2</v>
+      </c>
+      <c r="BC149">
+        <v>8</v>
+      </c>
+      <c r="BD149">
+        <v>1.62</v>
+      </c>
+      <c r="BE149">
+        <v>8.6</v>
+      </c>
+      <c r="BF149">
+        <v>2.81</v>
+      </c>
+      <c r="BG149">
+        <v>1.2</v>
+      </c>
+      <c r="BH149">
+        <v>4</v>
+      </c>
+      <c r="BI149">
+        <v>1.29</v>
+      </c>
+      <c r="BJ149">
+        <v>3.3</v>
+      </c>
+      <c r="BK149">
+        <v>1.91</v>
+      </c>
+      <c r="BL149">
+        <v>2.35</v>
+      </c>
+      <c r="BM149">
+        <v>1.94</v>
+      </c>
+      <c r="BN149">
+        <v>1.77</v>
+      </c>
+      <c r="BO149">
+        <v>2.5</v>
+      </c>
+      <c r="BP149">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7287164</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45555.65625</v>
+      </c>
+      <c r="F150">
+        <v>31</v>
+      </c>
+      <c r="G150" t="s">
+        <v>72</v>
+      </c>
+      <c r="H150" t="s">
+        <v>77</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>1</v>
+      </c>
+      <c r="O150" t="s">
+        <v>170</v>
+      </c>
+      <c r="P150" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q150">
+        <v>3</v>
+      </c>
+      <c r="R150">
+        <v>1.83</v>
+      </c>
+      <c r="S150">
+        <v>4.75</v>
+      </c>
+      <c r="T150">
+        <v>1.53</v>
+      </c>
+      <c r="U150">
+        <v>2.38</v>
+      </c>
+      <c r="V150">
+        <v>3.5</v>
+      </c>
+      <c r="W150">
+        <v>1.29</v>
+      </c>
+      <c r="X150">
+        <v>11</v>
+      </c>
+      <c r="Y150">
+        <v>1.05</v>
+      </c>
+      <c r="Z150">
+        <v>2.3</v>
+      </c>
+      <c r="AA150">
+        <v>3.1</v>
+      </c>
+      <c r="AB150">
+        <v>3.2</v>
+      </c>
+      <c r="AC150">
+        <v>1.07</v>
+      </c>
+      <c r="AD150">
+        <v>8</v>
+      </c>
+      <c r="AE150">
+        <v>1.49</v>
+      </c>
+      <c r="AF150">
+        <v>2.43</v>
+      </c>
+      <c r="AG150">
+        <v>2.56</v>
+      </c>
+      <c r="AH150">
+        <v>1.45</v>
+      </c>
+      <c r="AI150">
+        <v>2.38</v>
+      </c>
+      <c r="AJ150">
+        <v>1.53</v>
+      </c>
+      <c r="AK150">
+        <v>1.38</v>
+      </c>
+      <c r="AL150">
+        <v>1.38</v>
+      </c>
+      <c r="AM150">
+        <v>1.55</v>
+      </c>
+      <c r="AN150">
+        <v>1.53</v>
+      </c>
+      <c r="AO150">
+        <v>1.8</v>
+      </c>
+      <c r="AP150">
+        <v>1.63</v>
+      </c>
+      <c r="AQ150">
+        <v>1.69</v>
+      </c>
+      <c r="AR150">
+        <v>1.34</v>
+      </c>
+      <c r="AS150">
+        <v>1.03</v>
+      </c>
+      <c r="AT150">
+        <v>2.37</v>
+      </c>
+      <c r="AU150">
+        <v>6</v>
+      </c>
+      <c r="AV150">
+        <v>6</v>
+      </c>
+      <c r="AW150">
+        <v>8</v>
+      </c>
+      <c r="AX150">
+        <v>6</v>
+      </c>
+      <c r="AY150">
+        <v>14</v>
+      </c>
+      <c r="AZ150">
+        <v>12</v>
+      </c>
+      <c r="BA150">
+        <v>4</v>
+      </c>
+      <c r="BB150">
+        <v>4</v>
+      </c>
+      <c r="BC150">
+        <v>8</v>
+      </c>
+      <c r="BD150">
+        <v>1.62</v>
+      </c>
+      <c r="BE150">
+        <v>7.1</v>
+      </c>
+      <c r="BF150">
+        <v>3.01</v>
+      </c>
+      <c r="BG150">
+        <v>1.29</v>
+      </c>
+      <c r="BH150">
+        <v>3.3</v>
+      </c>
+      <c r="BI150">
+        <v>1.56</v>
+      </c>
+      <c r="BJ150">
+        <v>2.27</v>
+      </c>
+      <c r="BK150">
+        <v>2</v>
+      </c>
+      <c r="BL150">
+        <v>1.8</v>
+      </c>
+      <c r="BM150">
+        <v>2.62</v>
+      </c>
+      <c r="BN150">
+        <v>1.43</v>
+      </c>
+      <c r="BO150">
+        <v>3.3</v>
+      </c>
+      <c r="BP150">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7287162</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45555.65625</v>
+      </c>
+      <c r="F151">
+        <v>31</v>
+      </c>
+      <c r="G151" t="s">
+        <v>70</v>
+      </c>
+      <c r="H151" t="s">
+        <v>75</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>1</v>
+      </c>
+      <c r="O151" t="s">
+        <v>82</v>
+      </c>
+      <c r="P151" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q151">
+        <v>2.5</v>
+      </c>
+      <c r="R151">
+        <v>2.25</v>
+      </c>
+      <c r="S151">
+        <v>4.33</v>
+      </c>
+      <c r="T151">
+        <v>1.34</v>
+      </c>
+      <c r="U151">
+        <v>3.25</v>
+      </c>
+      <c r="V151">
+        <v>2.68</v>
+      </c>
+      <c r="W151">
+        <v>1.46</v>
+      </c>
+      <c r="X151">
+        <v>6</v>
+      </c>
+      <c r="Y151">
+        <v>1.1</v>
+      </c>
+      <c r="Z151">
+        <v>1.7</v>
+      </c>
+      <c r="AA151">
+        <v>3.8</v>
+      </c>
+      <c r="AB151">
+        <v>4.5</v>
+      </c>
+      <c r="AC151">
+        <v>1.05</v>
+      </c>
+      <c r="AD151">
+        <v>9.5</v>
+      </c>
+      <c r="AE151">
+        <v>1.25</v>
+      </c>
+      <c r="AF151">
+        <v>3.8</v>
+      </c>
+      <c r="AG151">
+        <v>1.76</v>
+      </c>
+      <c r="AH151">
+        <v>1.95</v>
+      </c>
+      <c r="AI151">
+        <v>1.75</v>
+      </c>
+      <c r="AJ151">
+        <v>2</v>
+      </c>
+      <c r="AK151">
+        <v>1.19</v>
+      </c>
+      <c r="AL151">
+        <v>1.24</v>
+      </c>
+      <c r="AM151">
+        <v>1.95</v>
+      </c>
+      <c r="AN151">
+        <v>1.13</v>
+      </c>
+      <c r="AO151">
+        <v>0.27</v>
+      </c>
+      <c r="AP151">
+        <v>1.06</v>
+      </c>
+      <c r="AQ151">
+        <v>0.44</v>
+      </c>
+      <c r="AR151">
+        <v>1.35</v>
+      </c>
+      <c r="AS151">
+        <v>1.17</v>
+      </c>
+      <c r="AT151">
+        <v>2.52</v>
+      </c>
+      <c r="AU151">
+        <v>6</v>
+      </c>
+      <c r="AV151">
+        <v>2</v>
+      </c>
+      <c r="AW151">
+        <v>10</v>
+      </c>
+      <c r="AX151">
+        <v>4</v>
+      </c>
+      <c r="AY151">
+        <v>16</v>
+      </c>
+      <c r="AZ151">
+        <v>6</v>
+      </c>
+      <c r="BA151">
+        <v>10</v>
+      </c>
+      <c r="BB151">
+        <v>5</v>
+      </c>
+      <c r="BC151">
+        <v>15</v>
+      </c>
+      <c r="BD151">
+        <v>1.39</v>
+      </c>
+      <c r="BE151">
+        <v>8</v>
+      </c>
+      <c r="BF151">
+        <v>4.06</v>
+      </c>
+      <c r="BG151">
+        <v>1.25</v>
+      </c>
+      <c r="BH151">
+        <v>3.6</v>
+      </c>
+      <c r="BI151">
+        <v>1.34</v>
+      </c>
+      <c r="BJ151">
+        <v>3</v>
+      </c>
+      <c r="BK151">
+        <v>2.2</v>
+      </c>
+      <c r="BL151">
+        <v>2.17</v>
+      </c>
+      <c r="BM151">
+        <v>2.07</v>
+      </c>
+      <c r="BN151">
+        <v>1.67</v>
+      </c>
+      <c r="BO151">
+        <v>2.7</v>
+      </c>
+      <c r="BP151">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="241">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -545,6 +545,9 @@
   </si>
   <si>
     <t>['35', '39', '77']</t>
+  </si>
+  <si>
+    <t>['69', '77']</t>
   </si>
   <si>
     <t>['23', '45+2']</t>
@@ -1095,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP151"/>
+  <dimension ref="A1:BP152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1354,7 +1357,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1560,7 +1563,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1972,7 +1975,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2259,7 +2262,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ6">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2384,7 +2387,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2590,7 +2593,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2796,7 +2799,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3286,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ11">
         <v>1.27</v>
@@ -3414,7 +3417,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3492,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ12">
         <v>1.69</v>
@@ -3620,7 +3623,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3826,7 +3829,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4238,7 +4241,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4650,7 +4653,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4856,7 +4859,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -5143,7 +5146,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ20">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR20">
         <v>1.54</v>
@@ -5268,7 +5271,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5964,7 +5967,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ24">
         <v>1.38</v>
@@ -6092,7 +6095,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6710,7 +6713,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6994,7 +6997,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ29">
         <v>0.44</v>
@@ -7615,7 +7618,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ32">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR32">
         <v>1</v>
@@ -7740,7 +7743,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7946,7 +7949,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8358,7 +8361,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8976,7 +8979,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9388,7 +9391,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9469,7 +9472,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ41">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR41">
         <v>1.34</v>
@@ -9594,7 +9597,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9800,7 +9803,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -10006,7 +10009,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10212,7 +10215,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -11117,7 +11120,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ49">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR49">
         <v>1.12</v>
@@ -11448,7 +11451,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11654,7 +11657,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11732,10 +11735,10 @@
         <v>0.2</v>
       </c>
       <c r="AP52">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ52">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR52">
         <v>1.24</v>
@@ -12350,7 +12353,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ55">
         <v>1.36</v>
@@ -13508,7 +13511,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13714,7 +13717,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14744,7 +14747,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14950,7 +14953,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15028,7 +15031,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ68">
         <v>1.25</v>
@@ -15156,7 +15159,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15237,7 +15240,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ69">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR69">
         <v>1.37</v>
@@ -15568,7 +15571,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -15852,7 +15855,7 @@
         <v>0.71</v>
       </c>
       <c r="AP72">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ72">
         <v>0.86</v>
@@ -16186,7 +16189,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -17010,7 +17013,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17091,7 +17094,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ78">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR78">
         <v>1.19</v>
@@ -17628,7 +17631,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17706,7 +17709,7 @@
         <v>1.29</v>
       </c>
       <c r="AP81">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ81">
         <v>1.23</v>
@@ -17834,7 +17837,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -18246,7 +18249,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18658,7 +18661,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18864,7 +18867,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19070,7 +19073,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -19357,7 +19360,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ89">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR89">
         <v>1.27</v>
@@ -19482,7 +19485,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19894,7 +19897,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q92">
         <v>3.2</v>
@@ -20100,7 +20103,7 @@
         <v>82</v>
       </c>
       <c r="P93" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q93">
         <v>5.5</v>
@@ -20512,7 +20515,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20718,7 +20721,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20796,7 +20799,7 @@
         <v>0.33</v>
       </c>
       <c r="AP96">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ96">
         <v>0.44</v>
@@ -20924,7 +20927,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21005,7 +21008,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ97">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR97">
         <v>1.38</v>
@@ -21336,7 +21339,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q99">
         <v>2.75</v>
@@ -22035,7 +22038,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ102">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR102">
         <v>1.39</v>
@@ -22160,7 +22163,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22778,7 +22781,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -22984,7 +22987,7 @@
         <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23268,7 +23271,7 @@
         <v>1.36</v>
       </c>
       <c r="AP108">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ108">
         <v>1.38</v>
@@ -24220,7 +24223,7 @@
         <v>117</v>
       </c>
       <c r="P113" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -24426,7 +24429,7 @@
         <v>150</v>
       </c>
       <c r="P114" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24710,7 +24713,7 @@
         <v>1.36</v>
       </c>
       <c r="AP115">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ115">
         <v>1.27</v>
@@ -25125,7 +25128,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ117">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR117">
         <v>1.89</v>
@@ -25456,7 +25459,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25662,7 +25665,7 @@
         <v>82</v>
       </c>
       <c r="P120" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25868,7 +25871,7 @@
         <v>155</v>
       </c>
       <c r="P121" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -25949,7 +25952,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ121">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR121">
         <v>1.26</v>
@@ -26358,7 +26361,7 @@
         <v>1.36</v>
       </c>
       <c r="AP123">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ123">
         <v>1.36</v>
@@ -26486,7 +26489,7 @@
         <v>152</v>
       </c>
       <c r="P124" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26692,7 +26695,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26898,7 +26901,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27104,7 +27107,7 @@
         <v>159</v>
       </c>
       <c r="P127" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27516,7 +27519,7 @@
         <v>160</v>
       </c>
       <c r="P129" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q129">
         <v>2.38</v>
@@ -27722,7 +27725,7 @@
         <v>100</v>
       </c>
       <c r="P130" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q130">
         <v>1.73</v>
@@ -27803,7 +27806,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ130">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR130">
         <v>1.55</v>
@@ -27928,7 +27931,7 @@
         <v>161</v>
       </c>
       <c r="P131" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -28006,7 +28009,7 @@
         <v>1.92</v>
       </c>
       <c r="AP131">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ131">
         <v>1.69</v>
@@ -28134,7 +28137,7 @@
         <v>144</v>
       </c>
       <c r="P132" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28340,7 +28343,7 @@
         <v>162</v>
       </c>
       <c r="P133" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q133">
         <v>1.83</v>
@@ -28752,7 +28755,7 @@
         <v>164</v>
       </c>
       <c r="P135" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29164,7 +29167,7 @@
         <v>165</v>
       </c>
       <c r="P137" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29576,7 +29579,7 @@
         <v>82</v>
       </c>
       <c r="P139" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -29860,7 +29863,7 @@
         <v>1.43</v>
       </c>
       <c r="AP140">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ140">
         <v>1.25</v>
@@ -30194,7 +30197,7 @@
         <v>169</v>
       </c>
       <c r="P142" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q142">
         <v>2.5</v>
@@ -30400,7 +30403,7 @@
         <v>170</v>
       </c>
       <c r="P143" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q143">
         <v>4.33</v>
@@ -30893,7 +30896,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ145">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR145">
         <v>1.23</v>
@@ -31224,7 +31227,7 @@
         <v>174</v>
       </c>
       <c r="P147" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -32048,7 +32051,7 @@
         <v>82</v>
       </c>
       <c r="P151" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q151">
         <v>2.5</v>
@@ -32205,6 +32208,212 @@
       </c>
       <c r="BP151">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7287166</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45556.65625</v>
+      </c>
+      <c r="F152">
+        <v>31</v>
+      </c>
+      <c r="G152" t="s">
+        <v>79</v>
+      </c>
+      <c r="H152" t="s">
+        <v>76</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>2</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>3</v>
+      </c>
+      <c r="O152" t="s">
+        <v>177</v>
+      </c>
+      <c r="P152" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q152">
+        <v>2.6</v>
+      </c>
+      <c r="R152">
+        <v>2.25</v>
+      </c>
+      <c r="S152">
+        <v>4</v>
+      </c>
+      <c r="T152">
+        <v>1.39</v>
+      </c>
+      <c r="U152">
+        <v>2.86</v>
+      </c>
+      <c r="V152">
+        <v>2.82</v>
+      </c>
+      <c r="W152">
+        <v>1.4</v>
+      </c>
+      <c r="X152">
+        <v>7.1</v>
+      </c>
+      <c r="Y152">
+        <v>1.08</v>
+      </c>
+      <c r="Z152">
+        <v>1.78</v>
+      </c>
+      <c r="AA152">
+        <v>3.6</v>
+      </c>
+      <c r="AB152">
+        <v>4</v>
+      </c>
+      <c r="AC152">
+        <v>1.02</v>
+      </c>
+      <c r="AD152">
+        <v>9.1</v>
+      </c>
+      <c r="AE152">
+        <v>1.26</v>
+      </c>
+      <c r="AF152">
+        <v>3.15</v>
+      </c>
+      <c r="AG152">
+        <v>1.95</v>
+      </c>
+      <c r="AH152">
+        <v>1.75</v>
+      </c>
+      <c r="AI152">
+        <v>1.7</v>
+      </c>
+      <c r="AJ152">
+        <v>2.05</v>
+      </c>
+      <c r="AK152">
+        <v>1.21</v>
+      </c>
+      <c r="AL152">
+        <v>1.28</v>
+      </c>
+      <c r="AM152">
+        <v>2.05</v>
+      </c>
+      <c r="AN152">
+        <v>1.87</v>
+      </c>
+      <c r="AO152">
+        <v>0.47</v>
+      </c>
+      <c r="AP152">
+        <v>1.94</v>
+      </c>
+      <c r="AQ152">
+        <v>0.44</v>
+      </c>
+      <c r="AR152">
+        <v>1.34</v>
+      </c>
+      <c r="AS152">
+        <v>0.98</v>
+      </c>
+      <c r="AT152">
+        <v>2.32</v>
+      </c>
+      <c r="AU152">
+        <v>7</v>
+      </c>
+      <c r="AV152">
+        <v>6</v>
+      </c>
+      <c r="AW152">
+        <v>7</v>
+      </c>
+      <c r="AX152">
+        <v>5</v>
+      </c>
+      <c r="AY152">
+        <v>14</v>
+      </c>
+      <c r="AZ152">
+        <v>11</v>
+      </c>
+      <c r="BA152">
+        <v>4</v>
+      </c>
+      <c r="BB152">
+        <v>7</v>
+      </c>
+      <c r="BC152">
+        <v>11</v>
+      </c>
+      <c r="BD152">
+        <v>1.62</v>
+      </c>
+      <c r="BE152">
+        <v>6.85</v>
+      </c>
+      <c r="BF152">
+        <v>3.1</v>
+      </c>
+      <c r="BG152">
+        <v>1.24</v>
+      </c>
+      <c r="BH152">
+        <v>3.22</v>
+      </c>
+      <c r="BI152">
+        <v>1.52</v>
+      </c>
+      <c r="BJ152">
+        <v>2.48</v>
+      </c>
+      <c r="BK152">
+        <v>1.87</v>
+      </c>
+      <c r="BL152">
+        <v>1.92</v>
+      </c>
+      <c r="BM152">
+        <v>2.37</v>
+      </c>
+      <c r="BN152">
+        <v>1.56</v>
+      </c>
+      <c r="BO152">
+        <v>3.14</v>
+      </c>
+      <c r="BP152">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="241">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -541,10 +541,10 @@
     <t>['31']</t>
   </si>
   <si>
-    <t>['90+2']</t>
+    <t>['35', '39', '77']</t>
   </si>
   <si>
-    <t>['35', '39', '77']</t>
+    <t>['90+2']</t>
   </si>
   <si>
     <t>['69', '77']</t>
@@ -1098,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP152"/>
+  <dimension ref="A1:BP154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ6">
         <v>0.44</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ7">
         <v>1.25</v>
@@ -2674,7 +2674,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ8">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ10">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4113,10 +4113,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ15">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR15">
         <v>1.32</v>
@@ -4528,7 +4528,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ17">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>1.23</v>
@@ -4937,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ19">
         <v>1.27</v>
@@ -7206,7 +7206,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ30">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7409,7 +7409,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ31">
         <v>0.86</v>
@@ -8027,10 +8027,10 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ34">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR34">
         <v>1.27</v>
@@ -9060,7 +9060,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ39">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR39">
         <v>1.28</v>
@@ -9675,7 +9675,7 @@
         <v>2.5</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ42">
         <v>1.69</v>
@@ -10090,7 +10090,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ44">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR44">
         <v>0.87</v>
@@ -10293,7 +10293,7 @@
         <v>0.75</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ45">
         <v>1.27</v>
@@ -10708,7 +10708,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ47">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR47">
         <v>1.3</v>
@@ -10911,7 +10911,7 @@
         <v>1.75</v>
       </c>
       <c r="AP48">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -12356,7 +12356,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ55">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR55">
         <v>1.35</v>
@@ -12971,7 +12971,7 @@
         <v>1.4</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13180,7 +13180,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ59">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR59">
         <v>1.21</v>
@@ -13795,10 +13795,10 @@
         <v>1.6</v>
       </c>
       <c r="AP62">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ62">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR62">
         <v>1.75</v>
@@ -14001,7 +14001,7 @@
         <v>0.4</v>
       </c>
       <c r="AP63">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ63">
         <v>0.44</v>
@@ -15237,7 +15237,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ69">
         <v>0.44</v>
@@ -15446,7 +15446,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ70">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR70">
         <v>1.06</v>
@@ -15649,7 +15649,7 @@
         <v>1.57</v>
       </c>
       <c r="AP71">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ71">
         <v>1.25</v>
@@ -16267,7 +16267,7 @@
         <v>0.63</v>
       </c>
       <c r="AP74">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ74">
         <v>0.86</v>
@@ -16888,7 +16888,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ77">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR77">
         <v>1.34</v>
@@ -17712,7 +17712,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ81">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR81">
         <v>1.3</v>
@@ -17915,10 +17915,10 @@
         <v>1.71</v>
       </c>
       <c r="AP82">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ82">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR82">
         <v>1.34</v>
@@ -18533,7 +18533,7 @@
         <v>1.38</v>
       </c>
       <c r="AP85">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ85">
         <v>1.27</v>
@@ -19563,7 +19563,7 @@
         <v>1.78</v>
       </c>
       <c r="AP90">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ90">
         <v>1.69</v>
@@ -19772,7 +19772,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ91">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR91">
         <v>1.23</v>
@@ -19978,7 +19978,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ92">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR92">
         <v>1.44</v>
@@ -20181,7 +20181,7 @@
         <v>1.33</v>
       </c>
       <c r="AP93">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ93">
         <v>1.38</v>
@@ -21623,7 +21623,7 @@
         <v>0.7</v>
       </c>
       <c r="AP100">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ100">
         <v>0.86</v>
@@ -21832,7 +21832,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ101">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR101">
         <v>1.5</v>
@@ -23480,7 +23480,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ109">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR109">
         <v>1.37</v>
@@ -23892,7 +23892,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ111">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR111">
         <v>1.37</v>
@@ -24301,7 +24301,7 @@
         <v>2</v>
       </c>
       <c r="AP113">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ113">
         <v>1.69</v>
@@ -24510,7 +24510,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ114">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR114">
         <v>1.34</v>
@@ -25125,7 +25125,7 @@
         <v>0.45</v>
       </c>
       <c r="AP117">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ117">
         <v>0.44</v>
@@ -26155,7 +26155,7 @@
         <v>1.42</v>
       </c>
       <c r="AP122">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ122">
         <v>1.25</v>
@@ -26364,7 +26364,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ123">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR123">
         <v>1.31</v>
@@ -26773,10 +26773,10 @@
         <v>1.27</v>
       </c>
       <c r="AP125">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ125">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR125">
         <v>1.39</v>
@@ -26982,7 +26982,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ126">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR126">
         <v>1.36</v>
@@ -28421,7 +28421,7 @@
         <v>0.23</v>
       </c>
       <c r="AP133">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ133">
         <v>0.44</v>
@@ -28627,7 +28627,7 @@
         <v>1.15</v>
       </c>
       <c r="AP134">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ134">
         <v>1</v>
@@ -28836,7 +28836,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ135">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR135">
         <v>1.29</v>
@@ -29245,10 +29245,10 @@
         <v>1.38</v>
       </c>
       <c r="AP137">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ137">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR137">
         <v>1.78</v>
@@ -31099,7 +31099,7 @@
         <v>1.07</v>
       </c>
       <c r="AP146">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ146">
         <v>1</v>
@@ -31391,7 +31391,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>7287163</v>
+        <v>7287164</v>
       </c>
       <c r="C148" t="s">
         <v>68</v>
@@ -31406,16 +31406,16 @@
         <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H148" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K148">
         <v>1</v>
@@ -31424,172 +31424,172 @@
         <v>1</v>
       </c>
       <c r="M148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O148" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="P148" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="Q148">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="R148">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="S148">
+        <v>4.75</v>
+      </c>
+      <c r="T148">
+        <v>1.53</v>
+      </c>
+      <c r="U148">
+        <v>2.38</v>
+      </c>
+      <c r="V148">
+        <v>3.5</v>
+      </c>
+      <c r="W148">
+        <v>1.29</v>
+      </c>
+      <c r="X148">
+        <v>11</v>
+      </c>
+      <c r="Y148">
+        <v>1.05</v>
+      </c>
+      <c r="Z148">
+        <v>2.3</v>
+      </c>
+      <c r="AA148">
+        <v>3.1</v>
+      </c>
+      <c r="AB148">
+        <v>3.2</v>
+      </c>
+      <c r="AC148">
+        <v>1.07</v>
+      </c>
+      <c r="AD148">
+        <v>8</v>
+      </c>
+      <c r="AE148">
+        <v>1.49</v>
+      </c>
+      <c r="AF148">
+        <v>2.43</v>
+      </c>
+      <c r="AG148">
+        <v>2.56</v>
+      </c>
+      <c r="AH148">
+        <v>1.45</v>
+      </c>
+      <c r="AI148">
+        <v>2.38</v>
+      </c>
+      <c r="AJ148">
+        <v>1.53</v>
+      </c>
+      <c r="AK148">
+        <v>1.38</v>
+      </c>
+      <c r="AL148">
+        <v>1.38</v>
+      </c>
+      <c r="AM148">
+        <v>1.55</v>
+      </c>
+      <c r="AN148">
+        <v>1.53</v>
+      </c>
+      <c r="AO148">
+        <v>1.8</v>
+      </c>
+      <c r="AP148">
+        <v>1.63</v>
+      </c>
+      <c r="AQ148">
+        <v>1.69</v>
+      </c>
+      <c r="AR148">
+        <v>1.34</v>
+      </c>
+      <c r="AS148">
+        <v>1.03</v>
+      </c>
+      <c r="AT148">
+        <v>2.37</v>
+      </c>
+      <c r="AU148">
+        <v>6</v>
+      </c>
+      <c r="AV148">
+        <v>6</v>
+      </c>
+      <c r="AW148">
+        <v>8</v>
+      </c>
+      <c r="AX148">
+        <v>6</v>
+      </c>
+      <c r="AY148">
+        <v>14</v>
+      </c>
+      <c r="AZ148">
+        <v>12</v>
+      </c>
+      <c r="BA148">
         <v>4</v>
       </c>
-      <c r="T148">
-        <v>1.5</v>
-      </c>
-      <c r="U148">
-        <v>2.5</v>
-      </c>
-      <c r="V148">
-        <v>3.4</v>
-      </c>
-      <c r="W148">
-        <v>1.3</v>
-      </c>
-      <c r="X148">
-        <v>10</v>
-      </c>
-      <c r="Y148">
-        <v>1.06</v>
-      </c>
-      <c r="Z148">
-        <v>2</v>
-      </c>
-      <c r="AA148">
+      <c r="BB148">
+        <v>4</v>
+      </c>
+      <c r="BC148">
+        <v>8</v>
+      </c>
+      <c r="BD148">
+        <v>1.62</v>
+      </c>
+      <c r="BE148">
+        <v>7.1</v>
+      </c>
+      <c r="BF148">
+        <v>3.01</v>
+      </c>
+      <c r="BG148">
+        <v>1.29</v>
+      </c>
+      <c r="BH148">
         <v>3.3</v>
       </c>
-      <c r="AB148">
-        <v>3.7</v>
-      </c>
-      <c r="AC148">
-        <v>1.06</v>
-      </c>
-      <c r="AD148">
-        <v>8.5</v>
-      </c>
-      <c r="AE148">
-        <v>1.38</v>
-      </c>
-      <c r="AF148">
-        <v>2.95</v>
-      </c>
-      <c r="AG148">
-        <v>2</v>
-      </c>
-      <c r="AH148">
-        <v>1.71</v>
-      </c>
-      <c r="AI148">
-        <v>1.95</v>
-      </c>
-      <c r="AJ148">
+      <c r="BI148">
+        <v>1.56</v>
+      </c>
+      <c r="BJ148">
+        <v>2.27</v>
+      </c>
+      <c r="BK148">
+        <v>2</v>
+      </c>
+      <c r="BL148">
         <v>1.8</v>
       </c>
-      <c r="AK148">
-        <v>1.3</v>
-      </c>
-      <c r="AL148">
-        <v>1.35</v>
-      </c>
-      <c r="AM148">
-        <v>1.7</v>
-      </c>
-      <c r="AN148">
-        <v>2.14</v>
-      </c>
-      <c r="AO148">
-        <v>1.4</v>
-      </c>
-      <c r="AP148">
-        <v>2.07</v>
-      </c>
-      <c r="AQ148">
-        <v>1.38</v>
-      </c>
-      <c r="AR148">
-        <v>1.6</v>
-      </c>
-      <c r="AS148">
-        <v>1.45</v>
-      </c>
-      <c r="AT148">
-        <v>3.05</v>
-      </c>
-      <c r="AU148">
-        <v>4</v>
-      </c>
-      <c r="AV148">
-        <v>5</v>
-      </c>
-      <c r="AW148">
-        <v>7</v>
-      </c>
-      <c r="AX148">
-        <v>5</v>
-      </c>
-      <c r="AY148">
-        <v>11</v>
-      </c>
-      <c r="AZ148">
-        <v>10</v>
-      </c>
-      <c r="BA148">
-        <v>9</v>
-      </c>
-      <c r="BB148">
-        <v>0</v>
-      </c>
-      <c r="BC148">
-        <v>9</v>
-      </c>
-      <c r="BD148">
-        <v>1.65</v>
-      </c>
-      <c r="BE148">
-        <v>7.8</v>
-      </c>
-      <c r="BF148">
-        <v>2.81</v>
-      </c>
-      <c r="BG148">
-        <v>1.25</v>
-      </c>
-      <c r="BH148">
-        <v>3.6</v>
-      </c>
-      <c r="BI148">
-        <v>1.39</v>
-      </c>
-      <c r="BJ148">
-        <v>2.77</v>
-      </c>
-      <c r="BK148">
-        <v>2.1</v>
-      </c>
-      <c r="BL148">
-        <v>2.03</v>
-      </c>
       <c r="BM148">
-        <v>2.17</v>
+        <v>2.62</v>
       </c>
       <c r="BN148">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="BO148">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="BP148">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="149" spans="1:68">
@@ -31636,7 +31636,7 @@
         <v>3</v>
       </c>
       <c r="O149" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P149" t="s">
         <v>82</v>
@@ -31803,7 +31803,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>7287164</v>
+        <v>7287163</v>
       </c>
       <c r="C150" t="s">
         <v>68</v>
@@ -31818,16 +31818,16 @@
         <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H150" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150">
         <v>1</v>
@@ -31836,172 +31836,172 @@
         <v>1</v>
       </c>
       <c r="M150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O150" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="P150" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="Q150">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="R150">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="S150">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="T150">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U150">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V150">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W150">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X150">
+        <v>10</v>
+      </c>
+      <c r="Y150">
+        <v>1.06</v>
+      </c>
+      <c r="Z150">
+        <v>2</v>
+      </c>
+      <c r="AA150">
+        <v>3.3</v>
+      </c>
+      <c r="AB150">
+        <v>3.7</v>
+      </c>
+      <c r="AC150">
+        <v>1.06</v>
+      </c>
+      <c r="AD150">
+        <v>8.5</v>
+      </c>
+      <c r="AE150">
+        <v>1.38</v>
+      </c>
+      <c r="AF150">
+        <v>2.95</v>
+      </c>
+      <c r="AG150">
+        <v>2</v>
+      </c>
+      <c r="AH150">
+        <v>1.71</v>
+      </c>
+      <c r="AI150">
+        <v>1.95</v>
+      </c>
+      <c r="AJ150">
+        <v>1.8</v>
+      </c>
+      <c r="AK150">
+        <v>1.3</v>
+      </c>
+      <c r="AL150">
+        <v>1.35</v>
+      </c>
+      <c r="AM150">
+        <v>1.7</v>
+      </c>
+      <c r="AN150">
+        <v>2.14</v>
+      </c>
+      <c r="AO150">
+        <v>1.4</v>
+      </c>
+      <c r="AP150">
+        <v>2.07</v>
+      </c>
+      <c r="AQ150">
+        <v>1.38</v>
+      </c>
+      <c r="AR150">
+        <v>1.6</v>
+      </c>
+      <c r="AS150">
+        <v>1.45</v>
+      </c>
+      <c r="AT150">
+        <v>3.05</v>
+      </c>
+      <c r="AU150">
+        <v>4</v>
+      </c>
+      <c r="AV150">
+        <v>5</v>
+      </c>
+      <c r="AW150">
+        <v>7</v>
+      </c>
+      <c r="AX150">
+        <v>5</v>
+      </c>
+      <c r="AY150">
         <v>11</v>
       </c>
-      <c r="Y150">
-        <v>1.05</v>
-      </c>
-      <c r="Z150">
-        <v>2.3</v>
-      </c>
-      <c r="AA150">
-        <v>3.1</v>
-      </c>
-      <c r="AB150">
-        <v>3.2</v>
-      </c>
-      <c r="AC150">
-        <v>1.07</v>
-      </c>
-      <c r="AD150">
-        <v>8</v>
-      </c>
-      <c r="AE150">
-        <v>1.49</v>
-      </c>
-      <c r="AF150">
-        <v>2.43</v>
-      </c>
-      <c r="AG150">
-        <v>2.56</v>
-      </c>
-      <c r="AH150">
-        <v>1.45</v>
-      </c>
-      <c r="AI150">
-        <v>2.38</v>
-      </c>
-      <c r="AJ150">
-        <v>1.53</v>
-      </c>
-      <c r="AK150">
-        <v>1.38</v>
-      </c>
-      <c r="AL150">
-        <v>1.38</v>
-      </c>
-      <c r="AM150">
-        <v>1.55</v>
-      </c>
-      <c r="AN150">
-        <v>1.53</v>
-      </c>
-      <c r="AO150">
-        <v>1.8</v>
-      </c>
-      <c r="AP150">
-        <v>1.63</v>
-      </c>
-      <c r="AQ150">
-        <v>1.69</v>
-      </c>
-      <c r="AR150">
-        <v>1.34</v>
-      </c>
-      <c r="AS150">
-        <v>1.03</v>
-      </c>
-      <c r="AT150">
-        <v>2.37</v>
-      </c>
-      <c r="AU150">
-        <v>6</v>
-      </c>
-      <c r="AV150">
-        <v>6</v>
-      </c>
-      <c r="AW150">
-        <v>8</v>
-      </c>
-      <c r="AX150">
-        <v>6</v>
-      </c>
-      <c r="AY150">
-        <v>14</v>
-      </c>
       <c r="AZ150">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA150">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BB150">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BC150">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD150">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="BE150">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="BF150">
-        <v>3.01</v>
+        <v>2.81</v>
       </c>
       <c r="BG150">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="BH150">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="BI150">
-        <v>1.56</v>
+        <v>1.39</v>
       </c>
       <c r="BJ150">
-        <v>2.27</v>
+        <v>2.77</v>
       </c>
       <c r="BK150">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BL150">
-        <v>1.8</v>
+        <v>2.03</v>
       </c>
       <c r="BM150">
-        <v>2.62</v>
+        <v>2.17</v>
       </c>
       <c r="BN150">
-        <v>1.43</v>
+        <v>1.61</v>
       </c>
       <c r="BO150">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="BP150">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="151" spans="1:68">
@@ -32414,6 +32414,418 @@
       </c>
       <c r="BP152">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7287111</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45558.65625</v>
+      </c>
+      <c r="F153">
+        <v>20</v>
+      </c>
+      <c r="G153" t="s">
+        <v>74</v>
+      </c>
+      <c r="H153" t="s">
+        <v>70</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>1</v>
+      </c>
+      <c r="O153" t="s">
+        <v>117</v>
+      </c>
+      <c r="P153" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q153">
+        <v>2.2</v>
+      </c>
+      <c r="R153">
+        <v>2.3</v>
+      </c>
+      <c r="S153">
+        <v>5.5</v>
+      </c>
+      <c r="T153">
+        <v>1.44</v>
+      </c>
+      <c r="U153">
+        <v>2.63</v>
+      </c>
+      <c r="V153">
+        <v>3</v>
+      </c>
+      <c r="W153">
+        <v>1.36</v>
+      </c>
+      <c r="X153">
+        <v>9</v>
+      </c>
+      <c r="Y153">
+        <v>1.07</v>
+      </c>
+      <c r="Z153">
+        <v>1.6</v>
+      </c>
+      <c r="AA153">
+        <v>3.75</v>
+      </c>
+      <c r="AB153">
+        <v>5</v>
+      </c>
+      <c r="AC153">
+        <v>1.06</v>
+      </c>
+      <c r="AD153">
+        <v>8.5</v>
+      </c>
+      <c r="AE153">
+        <v>1.35</v>
+      </c>
+      <c r="AF153">
+        <v>3.1</v>
+      </c>
+      <c r="AG153">
+        <v>1.8</v>
+      </c>
+      <c r="AH153">
+        <v>2</v>
+      </c>
+      <c r="AI153">
+        <v>1.8</v>
+      </c>
+      <c r="AJ153">
+        <v>1.95</v>
+      </c>
+      <c r="AK153">
+        <v>1.18</v>
+      </c>
+      <c r="AL153">
+        <v>1.24</v>
+      </c>
+      <c r="AM153">
+        <v>1.85</v>
+      </c>
+      <c r="AN153">
+        <v>1.71</v>
+      </c>
+      <c r="AO153">
+        <v>1.23</v>
+      </c>
+      <c r="AP153">
+        <v>1.8</v>
+      </c>
+      <c r="AQ153">
+        <v>1.14</v>
+      </c>
+      <c r="AR153">
+        <v>1.82</v>
+      </c>
+      <c r="AS153">
+        <v>1.22</v>
+      </c>
+      <c r="AT153">
+        <v>3.04</v>
+      </c>
+      <c r="AU153">
+        <v>7</v>
+      </c>
+      <c r="AV153">
+        <v>2</v>
+      </c>
+      <c r="AW153">
+        <v>4</v>
+      </c>
+      <c r="AX153">
+        <v>1</v>
+      </c>
+      <c r="AY153">
+        <v>11</v>
+      </c>
+      <c r="AZ153">
+        <v>3</v>
+      </c>
+      <c r="BA153">
+        <v>7</v>
+      </c>
+      <c r="BB153">
+        <v>1</v>
+      </c>
+      <c r="BC153">
+        <v>8</v>
+      </c>
+      <c r="BD153">
+        <v>1.48</v>
+      </c>
+      <c r="BE153">
+        <v>8</v>
+      </c>
+      <c r="BF153">
+        <v>3.45</v>
+      </c>
+      <c r="BG153">
+        <v>1.18</v>
+      </c>
+      <c r="BH153">
+        <v>4.5</v>
+      </c>
+      <c r="BI153">
+        <v>1.27</v>
+      </c>
+      <c r="BJ153">
+        <v>3.04</v>
+      </c>
+      <c r="BK153">
+        <v>2</v>
+      </c>
+      <c r="BL153">
+        <v>2.43</v>
+      </c>
+      <c r="BM153">
+        <v>1.88</v>
+      </c>
+      <c r="BN153">
+        <v>1.92</v>
+      </c>
+      <c r="BO153">
+        <v>2.36</v>
+      </c>
+      <c r="BP153">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7287158</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45558.65625</v>
+      </c>
+      <c r="F154">
+        <v>30</v>
+      </c>
+      <c r="G154" t="s">
+        <v>75</v>
+      </c>
+      <c r="H154" t="s">
+        <v>72</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154" t="s">
+        <v>82</v>
+      </c>
+      <c r="P154" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q154">
+        <v>4</v>
+      </c>
+      <c r="R154">
+        <v>2.1</v>
+      </c>
+      <c r="S154">
+        <v>2.88</v>
+      </c>
+      <c r="T154">
+        <v>1.5</v>
+      </c>
+      <c r="U154">
+        <v>2.5</v>
+      </c>
+      <c r="V154">
+        <v>3.4</v>
+      </c>
+      <c r="W154">
+        <v>1.3</v>
+      </c>
+      <c r="X154">
+        <v>10</v>
+      </c>
+      <c r="Y154">
+        <v>1.06</v>
+      </c>
+      <c r="Z154">
+        <v>2.9</v>
+      </c>
+      <c r="AA154">
+        <v>3.6</v>
+      </c>
+      <c r="AB154">
+        <v>2.15</v>
+      </c>
+      <c r="AC154">
+        <v>1.05</v>
+      </c>
+      <c r="AD154">
+        <v>8</v>
+      </c>
+      <c r="AE154">
+        <v>1.33</v>
+      </c>
+      <c r="AF154">
+        <v>3</v>
+      </c>
+      <c r="AG154">
+        <v>2.1</v>
+      </c>
+      <c r="AH154">
+        <v>1.7</v>
+      </c>
+      <c r="AI154">
+        <v>1.95</v>
+      </c>
+      <c r="AJ154">
+        <v>1.8</v>
+      </c>
+      <c r="AK154">
+        <v>1.5</v>
+      </c>
+      <c r="AL154">
+        <v>1.25</v>
+      </c>
+      <c r="AM154">
+        <v>1.5</v>
+      </c>
+      <c r="AN154">
+        <v>1.5</v>
+      </c>
+      <c r="AO154">
+        <v>1.36</v>
+      </c>
+      <c r="AP154">
+        <v>1.47</v>
+      </c>
+      <c r="AQ154">
+        <v>1.33</v>
+      </c>
+      <c r="AR154">
+        <v>1.5</v>
+      </c>
+      <c r="AS154">
+        <v>1.21</v>
+      </c>
+      <c r="AT154">
+        <v>2.71</v>
+      </c>
+      <c r="AU154">
+        <v>2</v>
+      </c>
+      <c r="AV154">
+        <v>3</v>
+      </c>
+      <c r="AW154">
+        <v>4</v>
+      </c>
+      <c r="AX154">
+        <v>5</v>
+      </c>
+      <c r="AY154">
+        <v>6</v>
+      </c>
+      <c r="AZ154">
+        <v>8</v>
+      </c>
+      <c r="BA154">
+        <v>3</v>
+      </c>
+      <c r="BB154">
+        <v>4</v>
+      </c>
+      <c r="BC154">
+        <v>7</v>
+      </c>
+      <c r="BD154">
+        <v>2.32</v>
+      </c>
+      <c r="BE154">
+        <v>7.3</v>
+      </c>
+      <c r="BF154">
+        <v>1.92</v>
+      </c>
+      <c r="BG154">
+        <v>1.22</v>
+      </c>
+      <c r="BH154">
+        <v>3.35</v>
+      </c>
+      <c r="BI154">
+        <v>1.47</v>
+      </c>
+      <c r="BJ154">
+        <v>2.42</v>
+      </c>
+      <c r="BK154">
+        <v>2.38</v>
+      </c>
+      <c r="BL154">
+        <v>1.8</v>
+      </c>
+      <c r="BM154">
+        <v>2.32</v>
+      </c>
+      <c r="BN154">
+        <v>1.51</v>
+      </c>
+      <c r="BO154">
+        <v>3.02</v>
+      </c>
+      <c r="BP154">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="245">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -550,6 +550,9 @@
     <t>['69', '77']</t>
   </si>
   <si>
+    <t>['62', '71']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -737,6 +740,15 @@
   </si>
   <si>
     <t>['28']</t>
+  </si>
+  <si>
+    <t>['58', '84']</t>
+  </si>
+  <si>
+    <t>['62', '69']</t>
+  </si>
+  <si>
+    <t>['1', '13', '59']</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP154"/>
+  <dimension ref="A1:BP159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1357,7 +1369,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1563,7 +1575,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1850,7 +1862,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ4">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1975,7 +1987,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2053,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ5">
         <v>1.69</v>
@@ -2259,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ6">
         <v>0.44</v>
@@ -2387,7 +2399,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2465,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ7">
         <v>1.25</v>
@@ -2593,7 +2605,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2671,10 +2683,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ8">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2799,7 +2811,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2877,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ9">
         <v>1.38</v>
@@ -3086,7 +3098,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ10">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3292,7 +3304,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ11">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3417,7 +3429,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3623,7 +3635,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3829,7 +3841,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3910,7 +3922,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ14">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>1.63</v>
@@ -4113,10 +4125,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ15">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR15">
         <v>1.32</v>
@@ -4241,7 +4253,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4319,7 +4331,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4525,10 +4537,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR17">
         <v>1.23</v>
@@ -4653,7 +4665,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4731,10 +4743,10 @@
         <v>1.5</v>
       </c>
       <c r="AP18">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ18">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>0.95</v>
@@ -4859,7 +4871,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -4937,10 +4949,10 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ19">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR19">
         <v>1.24</v>
@@ -5271,7 +5283,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -6095,7 +6107,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6585,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ27">
         <v>1.25</v>
@@ -6713,7 +6725,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6794,7 +6806,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ28">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -7206,7 +7218,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ30">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7409,10 +7421,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ31">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>1.4</v>
@@ -7615,7 +7627,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ32">
         <v>0.44</v>
@@ -7743,7 +7755,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7821,7 +7833,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -7949,7 +7961,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8027,10 +8039,10 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ34">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR34">
         <v>1.27</v>
@@ -8233,7 +8245,7 @@
         <v>0.33</v>
       </c>
       <c r="AP35">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ35">
         <v>0.44</v>
@@ -8361,7 +8373,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8439,7 +8451,7 @@
         <v>1.33</v>
       </c>
       <c r="AP36">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ36">
         <v>1.38</v>
@@ -8851,10 +8863,10 @@
         <v>0.67</v>
       </c>
       <c r="AP38">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ38">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR38">
         <v>0.99</v>
@@ -8979,7 +8991,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9060,7 +9072,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ39">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR39">
         <v>1.28</v>
@@ -9391,7 +9403,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9597,7 +9609,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9675,7 +9687,7 @@
         <v>2.5</v>
       </c>
       <c r="AP42">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ42">
         <v>1.69</v>
@@ -9803,7 +9815,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -10009,7 +10021,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10087,10 +10099,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ44">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR44">
         <v>0.87</v>
@@ -10215,7 +10227,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10293,10 +10305,10 @@
         <v>0.75</v>
       </c>
       <c r="AP45">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ45">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR45">
         <v>1.32</v>
@@ -10499,10 +10511,10 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ46">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.26</v>
@@ -10705,10 +10717,10 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ47">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR47">
         <v>1.3</v>
@@ -10911,7 +10923,7 @@
         <v>1.75</v>
       </c>
       <c r="AP48">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11451,7 +11463,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11657,7 +11669,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12356,7 +12368,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ55">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR55">
         <v>1.35</v>
@@ -12562,7 +12574,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ56">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR56">
         <v>1.4</v>
@@ -12765,7 +12777,7 @@
         <v>1.67</v>
       </c>
       <c r="AP57">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ57">
         <v>1.38</v>
@@ -12971,7 +12983,7 @@
         <v>1.4</v>
       </c>
       <c r="AP58">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13177,10 +13189,10 @@
         <v>1.8</v>
       </c>
       <c r="AP59">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ59">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR59">
         <v>1.21</v>
@@ -13383,10 +13395,10 @@
         <v>0.83</v>
       </c>
       <c r="AP60">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ60">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>1.01</v>
@@ -13511,7 +13523,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13589,10 +13601,10 @@
         <v>0.8</v>
       </c>
       <c r="AP61">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ61">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR61">
         <v>1.27</v>
@@ -13717,7 +13729,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13795,10 +13807,10 @@
         <v>1.6</v>
       </c>
       <c r="AP62">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ62">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR62">
         <v>1.75</v>
@@ -14001,7 +14013,7 @@
         <v>0.4</v>
       </c>
       <c r="AP63">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ63">
         <v>0.44</v>
@@ -14210,7 +14222,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ64">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR64">
         <v>1.34</v>
@@ -14619,7 +14631,7 @@
         <v>1.83</v>
       </c>
       <c r="AP66">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ66">
         <v>1.69</v>
@@ -14747,7 +14759,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14953,7 +14965,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15159,7 +15171,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15237,7 +15249,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ69">
         <v>0.44</v>
@@ -15446,7 +15458,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ70">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR70">
         <v>1.06</v>
@@ -15571,7 +15583,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -15649,7 +15661,7 @@
         <v>1.57</v>
       </c>
       <c r="AP71">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ71">
         <v>1.25</v>
@@ -15858,7 +15870,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ72">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>1.34</v>
@@ -16189,7 +16201,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16267,10 +16279,10 @@
         <v>0.63</v>
       </c>
       <c r="AP74">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ74">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR74">
         <v>1.85</v>
@@ -16679,7 +16691,7 @@
         <v>0.29</v>
       </c>
       <c r="AP76">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ76">
         <v>0.44</v>
@@ -16888,7 +16900,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ77">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR77">
         <v>1.34</v>
@@ -17013,7 +17025,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17091,7 +17103,7 @@
         <v>0.29</v>
       </c>
       <c r="AP78">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ78">
         <v>0.44</v>
@@ -17297,7 +17309,7 @@
         <v>1.75</v>
       </c>
       <c r="AP79">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ79">
         <v>1.25</v>
@@ -17506,7 +17518,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ80">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR80">
         <v>1.43</v>
@@ -17631,7 +17643,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17712,7 +17724,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ81">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR81">
         <v>1.3</v>
@@ -17837,7 +17849,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -17915,10 +17927,10 @@
         <v>1.71</v>
       </c>
       <c r="AP82">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ82">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR82">
         <v>1.34</v>
@@ -18121,7 +18133,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ83">
         <v>1.38</v>
@@ -18249,7 +18261,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18533,10 +18545,10 @@
         <v>1.38</v>
       </c>
       <c r="AP85">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ85">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR85">
         <v>1.91</v>
@@ -18661,7 +18673,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18739,7 +18751,7 @@
         <v>0.38</v>
       </c>
       <c r="AP86">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ86">
         <v>0.44</v>
@@ -18867,7 +18879,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -18948,7 +18960,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ87">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR87">
         <v>1.13</v>
@@ -19073,7 +19085,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -19485,7 +19497,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19563,7 +19575,7 @@
         <v>1.78</v>
       </c>
       <c r="AP90">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ90">
         <v>1.69</v>
@@ -19769,10 +19781,10 @@
         <v>1.5</v>
       </c>
       <c r="AP91">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ91">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR91">
         <v>1.23</v>
@@ -19897,7 +19909,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q92">
         <v>3.2</v>
@@ -19978,7 +19990,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ92">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR92">
         <v>1.44</v>
@@ -20103,7 +20115,7 @@
         <v>82</v>
       </c>
       <c r="P93" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q93">
         <v>5.5</v>
@@ -20181,7 +20193,7 @@
         <v>1.33</v>
       </c>
       <c r="AP93">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ93">
         <v>1.38</v>
@@ -20387,10 +20399,10 @@
         <v>1.22</v>
       </c>
       <c r="AP94">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ94">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR94">
         <v>1.35</v>
@@ -20515,7 +20527,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20593,7 +20605,7 @@
         <v>1.13</v>
       </c>
       <c r="AP95">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ95">
         <v>1</v>
@@ -20721,7 +20733,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20927,7 +20939,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21339,7 +21351,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q99">
         <v>2.75</v>
@@ -21417,7 +21429,7 @@
         <v>1.33</v>
       </c>
       <c r="AP99">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -21623,10 +21635,10 @@
         <v>0.7</v>
       </c>
       <c r="AP100">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ100">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR100">
         <v>1.39</v>
@@ -21832,7 +21844,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ101">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR101">
         <v>1.5</v>
@@ -22035,7 +22047,7 @@
         <v>0.5</v>
       </c>
       <c r="AP102">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ102">
         <v>0.44</v>
@@ -22163,7 +22175,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22244,7 +22256,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ103">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR103">
         <v>1.19</v>
@@ -22447,7 +22459,7 @@
         <v>1.2</v>
       </c>
       <c r="AP104">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ104">
         <v>1</v>
@@ -22781,7 +22793,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -22987,7 +22999,7 @@
         <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23065,7 +23077,7 @@
         <v>1.9</v>
       </c>
       <c r="AP107">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ107">
         <v>1.69</v>
@@ -23480,7 +23492,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ109">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR109">
         <v>1.37</v>
@@ -23683,7 +23695,7 @@
         <v>1.4</v>
       </c>
       <c r="AP110">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ110">
         <v>1.25</v>
@@ -23889,10 +23901,10 @@
         <v>1.5</v>
       </c>
       <c r="AP111">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ111">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR111">
         <v>1.37</v>
@@ -24223,7 +24235,7 @@
         <v>117</v>
       </c>
       <c r="P113" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -24301,7 +24313,7 @@
         <v>2</v>
       </c>
       <c r="AP113">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ113">
         <v>1.69</v>
@@ -24429,7 +24441,7 @@
         <v>150</v>
       </c>
       <c r="P114" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24510,7 +24522,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ114">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR114">
         <v>1.34</v>
@@ -24716,7 +24728,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ115">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR115">
         <v>1.33</v>
@@ -24919,10 +24931,10 @@
         <v>0.73</v>
       </c>
       <c r="AP116">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ116">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR116">
         <v>1.31</v>
@@ -25125,7 +25137,7 @@
         <v>0.45</v>
       </c>
       <c r="AP117">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ117">
         <v>0.44</v>
@@ -25459,7 +25471,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25537,7 +25549,7 @@
         <v>0.25</v>
       </c>
       <c r="AP119">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ119">
         <v>0.44</v>
@@ -25665,7 +25677,7 @@
         <v>82</v>
       </c>
       <c r="P120" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25871,7 +25883,7 @@
         <v>155</v>
       </c>
       <c r="P121" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -26155,7 +26167,7 @@
         <v>1.42</v>
       </c>
       <c r="AP122">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ122">
         <v>1.25</v>
@@ -26364,7 +26376,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ123">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR123">
         <v>1.31</v>
@@ -26489,7 +26501,7 @@
         <v>152</v>
       </c>
       <c r="P124" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26567,7 +26579,7 @@
         <v>1.25</v>
       </c>
       <c r="AP124">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ124">
         <v>1.38</v>
@@ -26695,7 +26707,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26773,10 +26785,10 @@
         <v>1.27</v>
       </c>
       <c r="AP125">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ125">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR125">
         <v>1.39</v>
@@ -26901,7 +26913,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -26979,10 +26991,10 @@
         <v>1.25</v>
       </c>
       <c r="AP126">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ126">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR126">
         <v>1.36</v>
@@ -27107,7 +27119,7 @@
         <v>159</v>
       </c>
       <c r="P127" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27391,10 +27403,10 @@
         <v>1.25</v>
       </c>
       <c r="AP128">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ128">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR128">
         <v>1.33</v>
@@ -27519,7 +27531,7 @@
         <v>160</v>
       </c>
       <c r="P129" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q129">
         <v>2.38</v>
@@ -27725,7 +27737,7 @@
         <v>100</v>
       </c>
       <c r="P130" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q130">
         <v>1.73</v>
@@ -27931,7 +27943,7 @@
         <v>161</v>
       </c>
       <c r="P131" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -28137,7 +28149,7 @@
         <v>144</v>
       </c>
       <c r="P132" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28218,7 +28230,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ132">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR132">
         <v>1.37</v>
@@ -28343,7 +28355,7 @@
         <v>162</v>
       </c>
       <c r="P133" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q133">
         <v>1.83</v>
@@ -28421,7 +28433,7 @@
         <v>0.23</v>
       </c>
       <c r="AP133">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ133">
         <v>0.44</v>
@@ -28627,7 +28639,7 @@
         <v>1.15</v>
       </c>
       <c r="AP134">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ134">
         <v>1</v>
@@ -28755,7 +28767,7 @@
         <v>164</v>
       </c>
       <c r="P135" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -28833,10 +28845,10 @@
         <v>1.25</v>
       </c>
       <c r="AP135">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ135">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR135">
         <v>1.29</v>
@@ -29039,10 +29051,10 @@
         <v>1.23</v>
       </c>
       <c r="AP136">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ136">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR136">
         <v>1.28</v>
@@ -29167,7 +29179,7 @@
         <v>165</v>
       </c>
       <c r="P137" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29245,10 +29257,10 @@
         <v>1.38</v>
       </c>
       <c r="AP137">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ137">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR137">
         <v>1.78</v>
@@ -29454,7 +29466,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ138">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR138">
         <v>1.38</v>
@@ -29579,7 +29591,7 @@
         <v>82</v>
       </c>
       <c r="P139" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -29657,7 +29669,7 @@
         <v>1.77</v>
       </c>
       <c r="AP139">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ139">
         <v>1.69</v>
@@ -30197,7 +30209,7 @@
         <v>169</v>
       </c>
       <c r="P142" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q142">
         <v>2.5</v>
@@ -30403,7 +30415,7 @@
         <v>170</v>
       </c>
       <c r="P143" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q143">
         <v>4.33</v>
@@ -30481,10 +30493,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP143">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ143">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR143">
         <v>1.35</v>
@@ -30893,7 +30905,7 @@
         <v>0.5</v>
       </c>
       <c r="AP145">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ145">
         <v>0.44</v>
@@ -31099,7 +31111,7 @@
         <v>1.07</v>
       </c>
       <c r="AP146">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ146">
         <v>1</v>
@@ -31227,7 +31239,7 @@
         <v>174</v>
       </c>
       <c r="P147" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -32051,7 +32063,7 @@
         <v>82</v>
       </c>
       <c r="P151" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q151">
         <v>2.5</v>
@@ -32541,10 +32553,10 @@
         <v>1.23</v>
       </c>
       <c r="AP153">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ153">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR153">
         <v>1.82</v>
@@ -32747,10 +32759,10 @@
         <v>1.36</v>
       </c>
       <c r="AP154">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ154">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR154">
         <v>1.5</v>
@@ -32826,6 +32838,1036 @@
       </c>
       <c r="BP154">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7287167</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45562.65625</v>
+      </c>
+      <c r="F155">
+        <v>32</v>
+      </c>
+      <c r="G155" t="s">
+        <v>75</v>
+      </c>
+      <c r="H155" t="s">
+        <v>71</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155" t="s">
+        <v>178</v>
+      </c>
+      <c r="P155" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q155">
+        <v>5</v>
+      </c>
+      <c r="R155">
+        <v>2.1</v>
+      </c>
+      <c r="S155">
+        <v>2.5</v>
+      </c>
+      <c r="T155">
+        <v>1.38</v>
+      </c>
+      <c r="U155">
+        <v>2.8</v>
+      </c>
+      <c r="V155">
+        <v>2.8</v>
+      </c>
+      <c r="W155">
+        <v>1.38</v>
+      </c>
+      <c r="X155">
+        <v>7</v>
+      </c>
+      <c r="Y155">
+        <v>1.08</v>
+      </c>
+      <c r="Z155">
+        <v>5.45</v>
+      </c>
+      <c r="AA155">
+        <v>4.1</v>
+      </c>
+      <c r="AB155">
+        <v>1.6</v>
+      </c>
+      <c r="AC155">
+        <v>1.05</v>
+      </c>
+      <c r="AD155">
+        <v>9.5</v>
+      </c>
+      <c r="AE155">
+        <v>1.28</v>
+      </c>
+      <c r="AF155">
+        <v>3.5</v>
+      </c>
+      <c r="AG155">
+        <v>1.88</v>
+      </c>
+      <c r="AH155">
+        <v>1.82</v>
+      </c>
+      <c r="AI155">
+        <v>1.95</v>
+      </c>
+      <c r="AJ155">
+        <v>1.8</v>
+      </c>
+      <c r="AK155">
+        <v>2.2</v>
+      </c>
+      <c r="AL155">
+        <v>1.2</v>
+      </c>
+      <c r="AM155">
+        <v>1.15</v>
+      </c>
+      <c r="AN155">
+        <v>1.47</v>
+      </c>
+      <c r="AO155">
+        <v>1.27</v>
+      </c>
+      <c r="AP155">
+        <v>1.56</v>
+      </c>
+      <c r="AQ155">
+        <v>1.19</v>
+      </c>
+      <c r="AR155">
+        <v>1.45</v>
+      </c>
+      <c r="AS155">
+        <v>1.33</v>
+      </c>
+      <c r="AT155">
+        <v>2.78</v>
+      </c>
+      <c r="AU155">
+        <v>4</v>
+      </c>
+      <c r="AV155">
+        <v>4</v>
+      </c>
+      <c r="AW155">
+        <v>6</v>
+      </c>
+      <c r="AX155">
+        <v>5</v>
+      </c>
+      <c r="AY155">
+        <v>10</v>
+      </c>
+      <c r="AZ155">
+        <v>9</v>
+      </c>
+      <c r="BA155">
+        <v>3</v>
+      </c>
+      <c r="BB155">
+        <v>5</v>
+      </c>
+      <c r="BC155">
+        <v>8</v>
+      </c>
+      <c r="BD155">
+        <v>4.06</v>
+      </c>
+      <c r="BE155">
+        <v>8</v>
+      </c>
+      <c r="BF155">
+        <v>1.39</v>
+      </c>
+      <c r="BG155">
+        <v>1.29</v>
+      </c>
+      <c r="BH155">
+        <v>3.4</v>
+      </c>
+      <c r="BI155">
+        <v>1.48</v>
+      </c>
+      <c r="BJ155">
+        <v>2.57</v>
+      </c>
+      <c r="BK155">
+        <v>2</v>
+      </c>
+      <c r="BL155">
+        <v>1.8</v>
+      </c>
+      <c r="BM155">
+        <v>2.23</v>
+      </c>
+      <c r="BN155">
+        <v>1.63</v>
+      </c>
+      <c r="BO155">
+        <v>2.8</v>
+      </c>
+      <c r="BP155">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7287168</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45562.65625</v>
+      </c>
+      <c r="F156">
+        <v>32</v>
+      </c>
+      <c r="G156" t="s">
+        <v>76</v>
+      </c>
+      <c r="H156" t="s">
+        <v>70</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+      <c r="N156">
+        <v>2</v>
+      </c>
+      <c r="O156" t="s">
+        <v>82</v>
+      </c>
+      <c r="P156" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q156">
+        <v>3.6</v>
+      </c>
+      <c r="R156">
+        <v>2.2</v>
+      </c>
+      <c r="S156">
+        <v>2.88</v>
+      </c>
+      <c r="T156">
+        <v>1.4</v>
+      </c>
+      <c r="U156">
+        <v>2.75</v>
+      </c>
+      <c r="V156">
+        <v>3</v>
+      </c>
+      <c r="W156">
+        <v>1.36</v>
+      </c>
+      <c r="X156">
+        <v>8</v>
+      </c>
+      <c r="Y156">
+        <v>1.08</v>
+      </c>
+      <c r="Z156">
+        <v>2.83</v>
+      </c>
+      <c r="AA156">
+        <v>3.42</v>
+      </c>
+      <c r="AB156">
+        <v>2.44</v>
+      </c>
+      <c r="AC156">
+        <v>1.03</v>
+      </c>
+      <c r="AD156">
+        <v>9</v>
+      </c>
+      <c r="AE156">
+        <v>1.25</v>
+      </c>
+      <c r="AF156">
+        <v>3.6</v>
+      </c>
+      <c r="AG156">
+        <v>1.9</v>
+      </c>
+      <c r="AH156">
+        <v>1.8</v>
+      </c>
+      <c r="AI156">
+        <v>1.7</v>
+      </c>
+      <c r="AJ156">
+        <v>2.05</v>
+      </c>
+      <c r="AK156">
+        <v>1.62</v>
+      </c>
+      <c r="AL156">
+        <v>1.27</v>
+      </c>
+      <c r="AM156">
+        <v>1.4</v>
+      </c>
+      <c r="AN156">
+        <v>1.13</v>
+      </c>
+      <c r="AO156">
+        <v>1.14</v>
+      </c>
+      <c r="AP156">
+        <v>1.06</v>
+      </c>
+      <c r="AQ156">
+        <v>1.27</v>
+      </c>
+      <c r="AR156">
+        <v>1.35</v>
+      </c>
+      <c r="AS156">
+        <v>1.17</v>
+      </c>
+      <c r="AT156">
+        <v>2.52</v>
+      </c>
+      <c r="AU156">
+        <v>6</v>
+      </c>
+      <c r="AV156">
+        <v>4</v>
+      </c>
+      <c r="AW156">
+        <v>9</v>
+      </c>
+      <c r="AX156">
+        <v>13</v>
+      </c>
+      <c r="AY156">
+        <v>15</v>
+      </c>
+      <c r="AZ156">
+        <v>17</v>
+      </c>
+      <c r="BA156">
+        <v>2</v>
+      </c>
+      <c r="BB156">
+        <v>7</v>
+      </c>
+      <c r="BC156">
+        <v>9</v>
+      </c>
+      <c r="BD156">
+        <v>2.18</v>
+      </c>
+      <c r="BE156">
+        <v>6.55</v>
+      </c>
+      <c r="BF156">
+        <v>2.07</v>
+      </c>
+      <c r="BG156">
+        <v>1.19</v>
+      </c>
+      <c r="BH156">
+        <v>3.62</v>
+      </c>
+      <c r="BI156">
+        <v>1.41</v>
+      </c>
+      <c r="BJ156">
+        <v>2.6</v>
+      </c>
+      <c r="BK156">
+        <v>2.1</v>
+      </c>
+      <c r="BL156">
+        <v>1.85</v>
+      </c>
+      <c r="BM156">
+        <v>2.19</v>
+      </c>
+      <c r="BN156">
+        <v>1.57</v>
+      </c>
+      <c r="BO156">
+        <v>2.82</v>
+      </c>
+      <c r="BP156">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7287169</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45562.65625</v>
+      </c>
+      <c r="F157">
+        <v>32</v>
+      </c>
+      <c r="G157" t="s">
+        <v>77</v>
+      </c>
+      <c r="H157" t="s">
+        <v>79</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157" t="s">
+        <v>82</v>
+      </c>
+      <c r="P157" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q157">
+        <v>2.3</v>
+      </c>
+      <c r="R157">
+        <v>2.2</v>
+      </c>
+      <c r="S157">
+        <v>5.5</v>
+      </c>
+      <c r="T157">
+        <v>1.44</v>
+      </c>
+      <c r="U157">
+        <v>2.6</v>
+      </c>
+      <c r="V157">
+        <v>3.05</v>
+      </c>
+      <c r="W157">
+        <v>1.33</v>
+      </c>
+      <c r="X157">
+        <v>7.9</v>
+      </c>
+      <c r="Y157">
+        <v>1.05</v>
+      </c>
+      <c r="Z157">
+        <v>1.72</v>
+      </c>
+      <c r="AA157">
+        <v>3.65</v>
+      </c>
+      <c r="AB157">
+        <v>5.1</v>
+      </c>
+      <c r="AC157">
+        <v>1.06</v>
+      </c>
+      <c r="AD157">
+        <v>8.5</v>
+      </c>
+      <c r="AE157">
+        <v>1.36</v>
+      </c>
+      <c r="AF157">
+        <v>3</v>
+      </c>
+      <c r="AG157">
+        <v>2.09</v>
+      </c>
+      <c r="AH157">
+        <v>1.66</v>
+      </c>
+      <c r="AI157">
+        <v>2</v>
+      </c>
+      <c r="AJ157">
+        <v>1.75</v>
+      </c>
+      <c r="AK157">
+        <v>1.1</v>
+      </c>
+      <c r="AL157">
+        <v>1.2</v>
+      </c>
+      <c r="AM157">
+        <v>2.25</v>
+      </c>
+      <c r="AN157">
+        <v>1.86</v>
+      </c>
+      <c r="AO157">
+        <v>1</v>
+      </c>
+      <c r="AP157">
+        <v>1.8</v>
+      </c>
+      <c r="AQ157">
+        <v>1</v>
+      </c>
+      <c r="AR157">
+        <v>1.28</v>
+      </c>
+      <c r="AS157">
+        <v>1</v>
+      </c>
+      <c r="AT157">
+        <v>2.28</v>
+      </c>
+      <c r="AU157">
+        <v>4</v>
+      </c>
+      <c r="AV157">
+        <v>5</v>
+      </c>
+      <c r="AW157">
+        <v>7</v>
+      </c>
+      <c r="AX157">
+        <v>5</v>
+      </c>
+      <c r="AY157">
+        <v>11</v>
+      </c>
+      <c r="AZ157">
+        <v>10</v>
+      </c>
+      <c r="BA157">
+        <v>7</v>
+      </c>
+      <c r="BB157">
+        <v>4</v>
+      </c>
+      <c r="BC157">
+        <v>11</v>
+      </c>
+      <c r="BD157">
+        <v>1.48</v>
+      </c>
+      <c r="BE157">
+        <v>7.5</v>
+      </c>
+      <c r="BF157">
+        <v>3.55</v>
+      </c>
+      <c r="BG157">
+        <v>1.36</v>
+      </c>
+      <c r="BH157">
+        <v>2.9</v>
+      </c>
+      <c r="BI157">
+        <v>1.85</v>
+      </c>
+      <c r="BJ157">
+        <v>1.95</v>
+      </c>
+      <c r="BK157">
+        <v>2.02</v>
+      </c>
+      <c r="BL157">
+        <v>1.78</v>
+      </c>
+      <c r="BM157">
+        <v>2.5</v>
+      </c>
+      <c r="BN157">
+        <v>1.48</v>
+      </c>
+      <c r="BO157">
+        <v>3.3</v>
+      </c>
+      <c r="BP157">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7287170</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45562.65625</v>
+      </c>
+      <c r="F158">
+        <v>32</v>
+      </c>
+      <c r="G158" t="s">
+        <v>73</v>
+      </c>
+      <c r="H158" t="s">
+        <v>72</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>2</v>
+      </c>
+      <c r="N158">
+        <v>3</v>
+      </c>
+      <c r="O158" t="s">
+        <v>131</v>
+      </c>
+      <c r="P158" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q158">
+        <v>4</v>
+      </c>
+      <c r="R158">
+        <v>2</v>
+      </c>
+      <c r="S158">
+        <v>3</v>
+      </c>
+      <c r="T158">
+        <v>1.47</v>
+      </c>
+      <c r="U158">
+        <v>2.5</v>
+      </c>
+      <c r="V158">
+        <v>3.15</v>
+      </c>
+      <c r="W158">
+        <v>1.32</v>
+      </c>
+      <c r="X158">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y158">
+        <v>1.04</v>
+      </c>
+      <c r="Z158">
+        <v>3.05</v>
+      </c>
+      <c r="AA158">
+        <v>3.36</v>
+      </c>
+      <c r="AB158">
+        <v>2.38</v>
+      </c>
+      <c r="AC158">
+        <v>1.07</v>
+      </c>
+      <c r="AD158">
+        <v>8</v>
+      </c>
+      <c r="AE158">
+        <v>1.38</v>
+      </c>
+      <c r="AF158">
+        <v>2.9</v>
+      </c>
+      <c r="AG158">
+        <v>2.12</v>
+      </c>
+      <c r="AH158">
+        <v>1.64</v>
+      </c>
+      <c r="AI158">
+        <v>2</v>
+      </c>
+      <c r="AJ158">
+        <v>1.75</v>
+      </c>
+      <c r="AK158">
+        <v>1.68</v>
+      </c>
+      <c r="AL158">
+        <v>1.28</v>
+      </c>
+      <c r="AM158">
+        <v>1.3</v>
+      </c>
+      <c r="AN158">
+        <v>1.53</v>
+      </c>
+      <c r="AO158">
+        <v>1.33</v>
+      </c>
+      <c r="AP158">
+        <v>1.44</v>
+      </c>
+      <c r="AQ158">
+        <v>1.44</v>
+      </c>
+      <c r="AR158">
+        <v>1.25</v>
+      </c>
+      <c r="AS158">
+        <v>1.21</v>
+      </c>
+      <c r="AT158">
+        <v>2.46</v>
+      </c>
+      <c r="AU158">
+        <v>7</v>
+      </c>
+      <c r="AV158">
+        <v>6</v>
+      </c>
+      <c r="AW158">
+        <v>4</v>
+      </c>
+      <c r="AX158">
+        <v>4</v>
+      </c>
+      <c r="AY158">
+        <v>11</v>
+      </c>
+      <c r="AZ158">
+        <v>10</v>
+      </c>
+      <c r="BA158">
+        <v>1</v>
+      </c>
+      <c r="BB158">
+        <v>7</v>
+      </c>
+      <c r="BC158">
+        <v>8</v>
+      </c>
+      <c r="BD158">
+        <v>2.57</v>
+      </c>
+      <c r="BE158">
+        <v>6.65</v>
+      </c>
+      <c r="BF158">
+        <v>1.83</v>
+      </c>
+      <c r="BG158">
+        <v>1.2</v>
+      </c>
+      <c r="BH158">
+        <v>3.54</v>
+      </c>
+      <c r="BI158">
+        <v>1.43</v>
+      </c>
+      <c r="BJ158">
+        <v>2.54</v>
+      </c>
+      <c r="BK158">
+        <v>1.98</v>
+      </c>
+      <c r="BL158">
+        <v>1.82</v>
+      </c>
+      <c r="BM158">
+        <v>2.23</v>
+      </c>
+      <c r="BN158">
+        <v>1.55</v>
+      </c>
+      <c r="BO158">
+        <v>2.88</v>
+      </c>
+      <c r="BP158">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7287171</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45562.66666666666</v>
+      </c>
+      <c r="F159">
+        <v>32</v>
+      </c>
+      <c r="G159" t="s">
+        <v>74</v>
+      </c>
+      <c r="H159" t="s">
+        <v>78</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>2</v>
+      </c>
+      <c r="K159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>3</v>
+      </c>
+      <c r="N159">
+        <v>3</v>
+      </c>
+      <c r="O159" t="s">
+        <v>82</v>
+      </c>
+      <c r="P159" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q159">
+        <v>2.3</v>
+      </c>
+      <c r="R159">
+        <v>2.25</v>
+      </c>
+      <c r="S159">
+        <v>5</v>
+      </c>
+      <c r="T159">
+        <v>1.4</v>
+      </c>
+      <c r="U159">
+        <v>2.75</v>
+      </c>
+      <c r="V159">
+        <v>2.75</v>
+      </c>
+      <c r="W159">
+        <v>1.4</v>
+      </c>
+      <c r="X159">
+        <v>8</v>
+      </c>
+      <c r="Y159">
+        <v>1.08</v>
+      </c>
+      <c r="Z159">
+        <v>1.48</v>
+      </c>
+      <c r="AA159">
+        <v>4.3</v>
+      </c>
+      <c r="AB159">
+        <v>6.92</v>
+      </c>
+      <c r="AC159">
+        <v>1.02</v>
+      </c>
+      <c r="AD159">
+        <v>10</v>
+      </c>
+      <c r="AE159">
+        <v>1.25</v>
+      </c>
+      <c r="AF159">
+        <v>3.6</v>
+      </c>
+      <c r="AG159">
+        <v>1.9</v>
+      </c>
+      <c r="AH159">
+        <v>1.8</v>
+      </c>
+      <c r="AI159">
+        <v>1.95</v>
+      </c>
+      <c r="AJ159">
+        <v>1.8</v>
+      </c>
+      <c r="AK159">
+        <v>1.11</v>
+      </c>
+      <c r="AL159">
+        <v>1.15</v>
+      </c>
+      <c r="AM159">
+        <v>2.65</v>
+      </c>
+      <c r="AN159">
+        <v>1.8</v>
+      </c>
+      <c r="AO159">
+        <v>0.86</v>
+      </c>
+      <c r="AP159">
+        <v>1.69</v>
+      </c>
+      <c r="AQ159">
+        <v>1</v>
+      </c>
+      <c r="AR159">
+        <v>1.8</v>
+      </c>
+      <c r="AS159">
+        <v>1.17</v>
+      </c>
+      <c r="AT159">
+        <v>2.97</v>
+      </c>
+      <c r="AU159">
+        <v>5</v>
+      </c>
+      <c r="AV159">
+        <v>7</v>
+      </c>
+      <c r="AW159">
+        <v>3</v>
+      </c>
+      <c r="AX159">
+        <v>4</v>
+      </c>
+      <c r="AY159">
+        <v>8</v>
+      </c>
+      <c r="AZ159">
+        <v>11</v>
+      </c>
+      <c r="BA159">
+        <v>5</v>
+      </c>
+      <c r="BB159">
+        <v>3</v>
+      </c>
+      <c r="BC159">
+        <v>8</v>
+      </c>
+      <c r="BD159">
+        <v>1.36</v>
+      </c>
+      <c r="BE159">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF159">
+        <v>4.26</v>
+      </c>
+      <c r="BG159">
+        <v>1.18</v>
+      </c>
+      <c r="BH159">
+        <v>4.33</v>
+      </c>
+      <c r="BI159">
+        <v>1.22</v>
+      </c>
+      <c r="BJ159">
+        <v>3.34</v>
+      </c>
+      <c r="BK159">
+        <v>1.45</v>
+      </c>
+      <c r="BL159">
+        <v>2.48</v>
+      </c>
+      <c r="BM159">
+        <v>1.82</v>
+      </c>
+      <c r="BN159">
+        <v>1.98</v>
+      </c>
+      <c r="BO159">
+        <v>2.23</v>
+      </c>
+      <c r="BP159">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="247">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,6 +553,9 @@
     <t>['62', '71']</t>
   </si>
   <si>
+    <t>['76', '81']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -749,6 +752,9 @@
   </si>
   <si>
     <t>['1', '13', '59']</t>
+  </si>
+  <si>
+    <t>['22', '63', '88']</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP159"/>
+  <dimension ref="A1:BP160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1369,7 +1375,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1575,7 +1581,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1862,7 +1868,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1987,7 +1993,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2399,7 +2405,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2605,7 +2611,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2811,7 +2817,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2889,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ9">
         <v>1.38</v>
@@ -3429,7 +3435,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3635,7 +3641,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3841,7 +3847,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3922,7 +3928,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR14">
         <v>1.63</v>
@@ -4253,7 +4259,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4537,7 +4543,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ17">
         <v>1.44</v>
@@ -4665,7 +4671,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4746,7 +4752,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR18">
         <v>0.95</v>
@@ -4871,7 +4877,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -5283,7 +5289,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -6107,7 +6113,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6725,7 +6731,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -7424,7 +7430,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR31">
         <v>1.4</v>
@@ -7627,7 +7633,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ32">
         <v>0.44</v>
@@ -7755,7 +7761,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7961,7 +7967,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8373,7 +8379,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8863,7 +8869,7 @@
         <v>0.67</v>
       </c>
       <c r="AP38">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ38">
         <v>1.19</v>
@@ -8991,7 +8997,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9403,7 +9409,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9609,7 +9615,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9815,7 +9821,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -10021,7 +10027,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10099,7 +10105,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ44">
         <v>1.27</v>
@@ -10227,7 +10233,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10514,7 +10520,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR46">
         <v>1.26</v>
@@ -11463,7 +11469,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11669,7 +11675,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12574,7 +12580,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR56">
         <v>1.4</v>
@@ -12777,7 +12783,7 @@
         <v>1.67</v>
       </c>
       <c r="AP57">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ57">
         <v>1.38</v>
@@ -13395,10 +13401,10 @@
         <v>0.83</v>
       </c>
       <c r="AP60">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR60">
         <v>1.01</v>
@@ -13523,7 +13529,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13729,7 +13735,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14759,7 +14765,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14965,7 +14971,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15171,7 +15177,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15583,7 +15589,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -15870,7 +15876,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR72">
         <v>1.34</v>
@@ -16201,7 +16207,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16282,7 +16288,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR74">
         <v>1.85</v>
@@ -16691,7 +16697,7 @@
         <v>0.29</v>
       </c>
       <c r="AP76">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ76">
         <v>0.44</v>
@@ -17025,7 +17031,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17309,7 +17315,7 @@
         <v>1.75</v>
       </c>
       <c r="AP79">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ79">
         <v>1.25</v>
@@ -17643,7 +17649,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17849,7 +17855,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -18261,7 +18267,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18673,7 +18679,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18879,7 +18885,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -18960,7 +18966,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR87">
         <v>1.13</v>
@@ -19085,7 +19091,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -19497,7 +19503,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19909,7 +19915,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q92">
         <v>3.2</v>
@@ -20115,7 +20121,7 @@
         <v>82</v>
       </c>
       <c r="P93" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q93">
         <v>5.5</v>
@@ -20527,7 +20533,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20605,7 +20611,7 @@
         <v>1.13</v>
       </c>
       <c r="AP95">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ95">
         <v>1</v>
@@ -20733,7 +20739,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20939,7 +20945,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21351,7 +21357,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q99">
         <v>2.75</v>
@@ -21638,7 +21644,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ100">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR100">
         <v>1.39</v>
@@ -22047,7 +22053,7 @@
         <v>0.5</v>
       </c>
       <c r="AP102">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ102">
         <v>0.44</v>
@@ -22175,7 +22181,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22793,7 +22799,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -22999,7 +23005,7 @@
         <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23901,7 +23907,7 @@
         <v>1.5</v>
       </c>
       <c r="AP111">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ111">
         <v>1.44</v>
@@ -24235,7 +24241,7 @@
         <v>117</v>
       </c>
       <c r="P113" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -24441,7 +24447,7 @@
         <v>150</v>
       </c>
       <c r="P114" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24934,7 +24940,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR116">
         <v>1.31</v>
@@ -25471,7 +25477,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25677,7 +25683,7 @@
         <v>82</v>
       </c>
       <c r="P120" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25883,7 +25889,7 @@
         <v>155</v>
       </c>
       <c r="P121" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -26501,7 +26507,7 @@
         <v>152</v>
       </c>
       <c r="P124" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26707,7 +26713,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26913,7 +26919,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27119,7 +27125,7 @@
         <v>159</v>
       </c>
       <c r="P127" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27403,7 +27409,7 @@
         <v>1.25</v>
       </c>
       <c r="AP128">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ128">
         <v>1.19</v>
@@ -27531,7 +27537,7 @@
         <v>160</v>
       </c>
       <c r="P129" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q129">
         <v>2.38</v>
@@ -27737,7 +27743,7 @@
         <v>100</v>
       </c>
       <c r="P130" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q130">
         <v>1.73</v>
@@ -27943,7 +27949,7 @@
         <v>161</v>
       </c>
       <c r="P131" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -28149,7 +28155,7 @@
         <v>144</v>
       </c>
       <c r="P132" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28230,7 +28236,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ132">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR132">
         <v>1.37</v>
@@ -28355,7 +28361,7 @@
         <v>162</v>
       </c>
       <c r="P133" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q133">
         <v>1.83</v>
@@ -28767,7 +28773,7 @@
         <v>164</v>
       </c>
       <c r="P135" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -28845,7 +28851,7 @@
         <v>1.25</v>
       </c>
       <c r="AP135">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ135">
         <v>1.27</v>
@@ -29179,7 +29185,7 @@
         <v>165</v>
       </c>
       <c r="P137" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29591,7 +29597,7 @@
         <v>82</v>
       </c>
       <c r="P139" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -30209,7 +30215,7 @@
         <v>169</v>
       </c>
       <c r="P142" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q142">
         <v>2.5</v>
@@ -30415,7 +30421,7 @@
         <v>170</v>
       </c>
       <c r="P143" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q143">
         <v>4.33</v>
@@ -30496,7 +30502,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ143">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR143">
         <v>1.35</v>
@@ -31239,7 +31245,7 @@
         <v>174</v>
       </c>
       <c r="P147" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -32063,7 +32069,7 @@
         <v>82</v>
       </c>
       <c r="P151" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q151">
         <v>2.5</v>
@@ -33093,7 +33099,7 @@
         <v>82</v>
       </c>
       <c r="P156" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q156">
         <v>3.6</v>
@@ -33377,7 +33383,7 @@
         <v>1</v>
       </c>
       <c r="AP157">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ157">
         <v>1</v>
@@ -33505,7 +33511,7 @@
         <v>131</v>
       </c>
       <c r="P158" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -33711,7 +33717,7 @@
         <v>82</v>
       </c>
       <c r="P159" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q159">
         <v>2.3</v>
@@ -33792,7 +33798,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ159">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR159">
         <v>1.8</v>
@@ -33868,6 +33874,212 @@
       </c>
       <c r="BP159">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7287159</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45565.63541666666</v>
+      </c>
+      <c r="F160">
+        <v>30</v>
+      </c>
+      <c r="G160" t="s">
+        <v>77</v>
+      </c>
+      <c r="H160" t="s">
+        <v>78</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>3</v>
+      </c>
+      <c r="N160">
+        <v>5</v>
+      </c>
+      <c r="O160" t="s">
+        <v>179</v>
+      </c>
+      <c r="P160" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q160">
+        <v>3.4</v>
+      </c>
+      <c r="R160">
+        <v>2.05</v>
+      </c>
+      <c r="S160">
+        <v>3.4</v>
+      </c>
+      <c r="T160">
+        <v>1.44</v>
+      </c>
+      <c r="U160">
+        <v>2.63</v>
+      </c>
+      <c r="V160">
+        <v>3.25</v>
+      </c>
+      <c r="W160">
+        <v>1.33</v>
+      </c>
+      <c r="X160">
+        <v>10</v>
+      </c>
+      <c r="Y160">
+        <v>1.06</v>
+      </c>
+      <c r="Z160">
+        <v>2.45</v>
+      </c>
+      <c r="AA160">
+        <v>3.2</v>
+      </c>
+      <c r="AB160">
+        <v>2.55</v>
+      </c>
+      <c r="AC160">
+        <v>1.06</v>
+      </c>
+      <c r="AD160">
+        <v>8.5</v>
+      </c>
+      <c r="AE160">
+        <v>1.38</v>
+      </c>
+      <c r="AF160">
+        <v>2.95</v>
+      </c>
+      <c r="AG160">
+        <v>2.15</v>
+      </c>
+      <c r="AH160">
+        <v>1.67</v>
+      </c>
+      <c r="AI160">
+        <v>1.91</v>
+      </c>
+      <c r="AJ160">
+        <v>1.91</v>
+      </c>
+      <c r="AK160">
+        <v>1.15</v>
+      </c>
+      <c r="AL160">
+        <v>1.2</v>
+      </c>
+      <c r="AM160">
+        <v>2</v>
+      </c>
+      <c r="AN160">
+        <v>1.8</v>
+      </c>
+      <c r="AO160">
+        <v>1</v>
+      </c>
+      <c r="AP160">
+        <v>1.69</v>
+      </c>
+      <c r="AQ160">
+        <v>1.13</v>
+      </c>
+      <c r="AR160">
+        <v>1.28</v>
+      </c>
+      <c r="AS160">
+        <v>1.19</v>
+      </c>
+      <c r="AT160">
+        <v>2.47</v>
+      </c>
+      <c r="AU160">
+        <v>6</v>
+      </c>
+      <c r="AV160">
+        <v>8</v>
+      </c>
+      <c r="AW160">
+        <v>5</v>
+      </c>
+      <c r="AX160">
+        <v>11</v>
+      </c>
+      <c r="AY160">
+        <v>11</v>
+      </c>
+      <c r="AZ160">
+        <v>19</v>
+      </c>
+      <c r="BA160">
+        <v>2</v>
+      </c>
+      <c r="BB160">
+        <v>3</v>
+      </c>
+      <c r="BC160">
+        <v>5</v>
+      </c>
+      <c r="BD160">
+        <v>1.82</v>
+      </c>
+      <c r="BE160">
+        <v>7.4</v>
+      </c>
+      <c r="BF160">
+        <v>2.47</v>
+      </c>
+      <c r="BG160">
+        <v>1.32</v>
+      </c>
+      <c r="BH160">
+        <v>3.1</v>
+      </c>
+      <c r="BI160">
+        <v>1.58</v>
+      </c>
+      <c r="BJ160">
+        <v>2.34</v>
+      </c>
+      <c r="BK160">
+        <v>2</v>
+      </c>
+      <c r="BL160">
+        <v>1.8</v>
+      </c>
+      <c r="BM160">
+        <v>2.51</v>
+      </c>
+      <c r="BN160">
+        <v>1.51</v>
+      </c>
+      <c r="BO160">
+        <v>3.2</v>
+      </c>
+      <c r="BP160">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -1480,10 +1480,10 @@
         <v>1</v>
       </c>
       <c r="AY2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA2">
         <v>5</v>
@@ -1686,10 +1686,10 @@
         <v>3</v>
       </c>
       <c r="AY3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA3">
         <v>10</v>
@@ -1892,10 +1892,10 @@
         <v>3</v>
       </c>
       <c r="AY4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ4">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA4">
         <v>5</v>
@@ -2098,10 +2098,10 @@
         <v>3</v>
       </c>
       <c r="AY5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA5">
         <v>7</v>
@@ -2304,10 +2304,10 @@
         <v>4</v>
       </c>
       <c r="AY6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA6">
         <v>8</v>
@@ -2510,10 +2510,10 @@
         <v>4</v>
       </c>
       <c r="AY7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA7">
         <v>5</v>
@@ -2716,10 +2716,10 @@
         <v>7</v>
       </c>
       <c r="AY8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA8">
         <v>7</v>
@@ -2922,10 +2922,10 @@
         <v>5</v>
       </c>
       <c r="AY9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA9">
         <v>5</v>
@@ -3128,10 +3128,10 @@
         <v>2</v>
       </c>
       <c r="AY10">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA10">
         <v>8</v>
@@ -3334,10 +3334,10 @@
         <v>6</v>
       </c>
       <c r="AY11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA11">
         <v>1</v>
@@ -3540,10 +3540,10 @@
         <v>1</v>
       </c>
       <c r="AY12">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA12">
         <v>10</v>
@@ -3746,10 +3746,10 @@
         <v>4</v>
       </c>
       <c r="AY13">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA13">
         <v>5</v>
@@ -3952,10 +3952,10 @@
         <v>2</v>
       </c>
       <c r="AY14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ14">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BA14">
         <v>4</v>
@@ -4158,10 +4158,10 @@
         <v>5</v>
       </c>
       <c r="AY15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA15">
         <v>11</v>
@@ -4364,10 +4364,10 @@
         <v>1</v>
       </c>
       <c r="AY16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ16">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA16">
         <v>3</v>
@@ -4570,10 +4570,10 @@
         <v>7</v>
       </c>
       <c r="AY17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ17">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="BA17">
         <v>4</v>
@@ -4776,10 +4776,10 @@
         <v>5</v>
       </c>
       <c r="AY18">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ18">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA18">
         <v>4</v>
@@ -4982,10 +4982,10 @@
         <v>3</v>
       </c>
       <c r="AY19">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ19">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="BA19">
         <v>5</v>
@@ -5188,10 +5188,10 @@
         <v>5</v>
       </c>
       <c r="AY20">
+        <v>15</v>
+      </c>
+      <c r="AZ20">
         <v>12</v>
-      </c>
-      <c r="AZ20">
-        <v>7</v>
       </c>
       <c r="BA20">
         <v>1</v>
@@ -5394,10 +5394,10 @@
         <v>4</v>
       </c>
       <c r="AY21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA21">
         <v>3</v>
@@ -5600,10 +5600,10 @@
         <v>4</v>
       </c>
       <c r="AY22">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ22">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA22">
         <v>4</v>
@@ -5806,10 +5806,10 @@
         <v>1</v>
       </c>
       <c r="AY23">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA23">
         <v>12</v>
@@ -6012,10 +6012,10 @@
         <v>4</v>
       </c>
       <c r="AY24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ24">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BA24">
         <v>6</v>
@@ -6218,10 +6218,10 @@
         <v>5</v>
       </c>
       <c r="AY25">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AZ25">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA25">
         <v>7</v>
@@ -6427,7 +6427,7 @@
         <v>10</v>
       </c>
       <c r="AZ26">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA26">
         <v>6</v>
@@ -6630,10 +6630,10 @@
         <v>3</v>
       </c>
       <c r="AY27">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA27">
         <v>4</v>
@@ -6836,10 +6836,10 @@
         <v>10</v>
       </c>
       <c r="AY28">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ28">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA28">
         <v>1</v>
@@ -7042,10 +7042,10 @@
         <v>8</v>
       </c>
       <c r="AY29">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ29">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA29">
         <v>3</v>
@@ -7248,10 +7248,10 @@
         <v>3</v>
       </c>
       <c r="AY30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA30">
         <v>8</v>
@@ -7454,10 +7454,10 @@
         <v>4</v>
       </c>
       <c r="AY31">
+        <v>16</v>
+      </c>
+      <c r="AZ31">
         <v>10</v>
-      </c>
-      <c r="AZ31">
-        <v>6</v>
       </c>
       <c r="BA31">
         <v>8</v>
@@ -7660,10 +7660,10 @@
         <v>1</v>
       </c>
       <c r="AY32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA32">
         <v>4</v>
@@ -7866,10 +7866,10 @@
         <v>1</v>
       </c>
       <c r="AY33">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA33">
         <v>7</v>
@@ -8072,10 +8072,10 @@
         <v>2</v>
       </c>
       <c r="AY34">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA34">
         <v>6</v>
@@ -8278,10 +8278,10 @@
         <v>6</v>
       </c>
       <c r="AY35">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA35">
         <v>7</v>
@@ -8484,10 +8484,10 @@
         <v>3</v>
       </c>
       <c r="AY36">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ36">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA36">
         <v>4</v>
@@ -8690,10 +8690,10 @@
         <v>1</v>
       </c>
       <c r="AY37">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA37">
         <v>5</v>
@@ -8899,7 +8899,7 @@
         <v>4</v>
       </c>
       <c r="AZ38">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA38">
         <v>2</v>
@@ -9102,10 +9102,10 @@
         <v>6</v>
       </c>
       <c r="AY39">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AZ39">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="BA39">
         <v>10</v>
@@ -9308,10 +9308,10 @@
         <v>2</v>
       </c>
       <c r="AY40">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ40">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA40">
         <v>8</v>
@@ -9514,10 +9514,10 @@
         <v>2</v>
       </c>
       <c r="AY41">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ41">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA41">
         <v>5</v>
@@ -9720,10 +9720,10 @@
         <v>6</v>
       </c>
       <c r="AY42">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ42">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA42">
         <v>2</v>
@@ -9926,10 +9926,10 @@
         <v>6</v>
       </c>
       <c r="AY43">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ43">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="BA43">
         <v>3</v>
@@ -10132,10 +10132,10 @@
         <v>2</v>
       </c>
       <c r="AY44">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ44">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA44">
         <v>2</v>
@@ -10338,10 +10338,10 @@
         <v>6</v>
       </c>
       <c r="AY45">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ45">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA45">
         <v>1</v>
@@ -10544,10 +10544,10 @@
         <v>8</v>
       </c>
       <c r="AY46">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ46">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA46">
         <v>3</v>
@@ -10753,7 +10753,7 @@
         <v>7</v>
       </c>
       <c r="AZ47">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA47">
         <v>4</v>
@@ -10956,10 +10956,10 @@
         <v>1</v>
       </c>
       <c r="AY48">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AZ48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA48">
         <v>7</v>
@@ -11162,10 +11162,10 @@
         <v>5</v>
       </c>
       <c r="AY49">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ49">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA49">
         <v>4</v>
@@ -11368,10 +11368,10 @@
         <v>4</v>
       </c>
       <c r="AY50">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ50">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA50">
         <v>2</v>
@@ -11577,7 +11577,7 @@
         <v>12</v>
       </c>
       <c r="AZ51">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA51">
         <v>4</v>
@@ -11780,10 +11780,10 @@
         <v>5</v>
       </c>
       <c r="AY52">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ52">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA52">
         <v>8</v>
@@ -11986,10 +11986,10 @@
         <v>6</v>
       </c>
       <c r="AY53">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AZ53">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA53">
         <v>5</v>
@@ -12192,10 +12192,10 @@
         <v>3</v>
       </c>
       <c r="AY54">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ54">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BA54">
         <v>3</v>
@@ -12401,7 +12401,7 @@
         <v>11</v>
       </c>
       <c r="AZ55">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA55">
         <v>4</v>
@@ -12604,10 +12604,10 @@
         <v>3</v>
       </c>
       <c r="AY56">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ56">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BA56">
         <v>6</v>
@@ -12810,10 +12810,10 @@
         <v>4</v>
       </c>
       <c r="AY57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ57">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA57">
         <v>4</v>
@@ -13016,10 +13016,10 @@
         <v>5</v>
       </c>
       <c r="AY58">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ58">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA58">
         <v>3</v>
@@ -13222,10 +13222,10 @@
         <v>7</v>
       </c>
       <c r="AY59">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ59">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA59">
         <v>8</v>
@@ -13428,10 +13428,10 @@
         <v>3</v>
       </c>
       <c r="AY60">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA60">
         <v>5</v>
@@ -13634,10 +13634,10 @@
         <v>7</v>
       </c>
       <c r="AY61">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AZ61">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA61">
         <v>6</v>
@@ -13840,7 +13840,7 @@
         <v>1</v>
       </c>
       <c r="AY62">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AZ62">
         <v>4</v>
@@ -14046,10 +14046,10 @@
         <v>3</v>
       </c>
       <c r="AY63">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA63">
         <v>11</v>
@@ -14252,10 +14252,10 @@
         <v>4</v>
       </c>
       <c r="AY64">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AZ64">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA64">
         <v>1</v>
@@ -14458,10 +14458,10 @@
         <v>9</v>
       </c>
       <c r="AY65">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ65">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA65">
         <v>7</v>
@@ -14664,7 +14664,7 @@
         <v>2</v>
       </c>
       <c r="AY66">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ66">
         <v>4</v>
@@ -14870,10 +14870,10 @@
         <v>3</v>
       </c>
       <c r="AY67">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ67">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA67">
         <v>5</v>
@@ -15076,10 +15076,10 @@
         <v>4</v>
       </c>
       <c r="AY68">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ68">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA68">
         <v>4</v>
@@ -15282,10 +15282,10 @@
         <v>3</v>
       </c>
       <c r="AY69">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ69">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA69">
         <v>2</v>
@@ -15488,10 +15488,10 @@
         <v>4</v>
       </c>
       <c r="AY70">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AZ70">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA70">
         <v>7</v>
@@ -15694,10 +15694,10 @@
         <v>3</v>
       </c>
       <c r="AY71">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ71">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA71">
         <v>9</v>
@@ -15903,7 +15903,7 @@
         <v>8</v>
       </c>
       <c r="AZ72">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA72">
         <v>4</v>
@@ -16106,10 +16106,10 @@
         <v>7</v>
       </c>
       <c r="AY73">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ73">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA73">
         <v>3</v>
@@ -16312,10 +16312,10 @@
         <v>4</v>
       </c>
       <c r="AY74">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ74">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA74">
         <v>6</v>
@@ -16518,10 +16518,10 @@
         <v>4</v>
       </c>
       <c r="AY75">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AZ75">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA75">
         <v>5</v>
@@ -16724,10 +16724,10 @@
         <v>5</v>
       </c>
       <c r="AY76">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ76">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA76">
         <v>8</v>
@@ -16930,10 +16930,10 @@
         <v>5</v>
       </c>
       <c r="AY77">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AZ77">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA77">
         <v>11</v>
@@ -17136,10 +17136,10 @@
         <v>3</v>
       </c>
       <c r="AY78">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ78">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BA78">
         <v>4</v>
@@ -17342,10 +17342,10 @@
         <v>8</v>
       </c>
       <c r="AY79">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ79">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA79">
         <v>10</v>
@@ -17548,10 +17548,10 @@
         <v>8</v>
       </c>
       <c r="AY80">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ80">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BA80">
         <v>4</v>
@@ -17757,7 +17757,7 @@
         <v>7</v>
       </c>
       <c r="AZ81">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA81">
         <v>5</v>
@@ -17963,7 +17963,7 @@
         <v>15</v>
       </c>
       <c r="AZ82">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA82">
         <v>3</v>
@@ -18166,10 +18166,10 @@
         <v>8</v>
       </c>
       <c r="AY83">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ83">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA83">
         <v>2</v>
@@ -18372,10 +18372,10 @@
         <v>4</v>
       </c>
       <c r="AY84">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ84">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA84">
         <v>7</v>
@@ -18578,10 +18578,10 @@
         <v>12</v>
       </c>
       <c r="AY85">
+        <v>19</v>
+      </c>
+      <c r="AZ85">
         <v>17</v>
-      </c>
-      <c r="AZ85">
-        <v>12</v>
       </c>
       <c r="BA85">
         <v>6</v>
@@ -18784,10 +18784,10 @@
         <v>4</v>
       </c>
       <c r="AY86">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ86">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA86">
         <v>7</v>
@@ -18990,10 +18990,10 @@
         <v>8</v>
       </c>
       <c r="AY87">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ87">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA87">
         <v>13</v>
@@ -19196,10 +19196,10 @@
         <v>2</v>
       </c>
       <c r="AY88">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AZ88">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA88">
         <v>9</v>
@@ -19402,10 +19402,10 @@
         <v>5</v>
       </c>
       <c r="AY89">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ89">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA89">
         <v>6</v>
@@ -19608,10 +19608,10 @@
         <v>2</v>
       </c>
       <c r="AY90">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AZ90">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA90">
         <v>7</v>
@@ -19814,10 +19814,10 @@
         <v>9</v>
       </c>
       <c r="AY91">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AZ91">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA91">
         <v>5</v>
@@ -20020,10 +20020,10 @@
         <v>6</v>
       </c>
       <c r="AY92">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ92">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BA92">
         <v>3</v>
@@ -20226,10 +20226,10 @@
         <v>4</v>
       </c>
       <c r="AY93">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ93">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA93">
         <v>4</v>
@@ -20432,10 +20432,10 @@
         <v>9</v>
       </c>
       <c r="AY94">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ94">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA94">
         <v>5</v>
@@ -20638,10 +20638,10 @@
         <v>3</v>
       </c>
       <c r="AY95">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ95">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA95">
         <v>7</v>
@@ -20844,10 +20844,10 @@
         <v>7</v>
       </c>
       <c r="AY96">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ96">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA96">
         <v>5</v>
@@ -21050,10 +21050,10 @@
         <v>1</v>
       </c>
       <c r="AY97">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ97">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA97">
         <v>4</v>
@@ -21259,7 +21259,7 @@
         <v>11</v>
       </c>
       <c r="AZ98">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA98">
         <v>1</v>
@@ -21462,10 +21462,10 @@
         <v>6</v>
       </c>
       <c r="AY99">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ99">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA99">
         <v>10</v>
@@ -21668,10 +21668,10 @@
         <v>8</v>
       </c>
       <c r="AY100">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ100">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA100">
         <v>2</v>
@@ -21874,10 +21874,10 @@
         <v>4</v>
       </c>
       <c r="AY101">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ101">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA101">
         <v>5</v>
@@ -22080,10 +22080,10 @@
         <v>6</v>
       </c>
       <c r="AY102">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ102">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA102">
         <v>3</v>
@@ -22289,7 +22289,7 @@
         <v>5</v>
       </c>
       <c r="AZ103">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA103">
         <v>4</v>
@@ -22492,10 +22492,10 @@
         <v>3</v>
       </c>
       <c r="AY104">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AZ104">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA104">
         <v>10</v>
@@ -22698,10 +22698,10 @@
         <v>2</v>
       </c>
       <c r="AY105">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ105">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA105">
         <v>1</v>
@@ -22904,10 +22904,10 @@
         <v>6</v>
       </c>
       <c r="AY106">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ106">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA106">
         <v>5</v>
@@ -23110,10 +23110,10 @@
         <v>2</v>
       </c>
       <c r="AY107">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ107">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA107">
         <v>2</v>
@@ -23316,10 +23316,10 @@
         <v>10</v>
       </c>
       <c r="AY108">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ108">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA108">
         <v>7</v>
@@ -23522,10 +23522,10 @@
         <v>5</v>
       </c>
       <c r="AY109">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ109">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BA109">
         <v>7</v>
@@ -23728,10 +23728,10 @@
         <v>5</v>
       </c>
       <c r="AY110">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ110">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA110">
         <v>5</v>
@@ -23934,10 +23934,10 @@
         <v>5</v>
       </c>
       <c r="AY111">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ111">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA111">
         <v>5</v>
@@ -24140,10 +24140,10 @@
         <v>2</v>
       </c>
       <c r="AY112">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ112">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA112">
         <v>7</v>
@@ -24346,10 +24346,10 @@
         <v>4</v>
       </c>
       <c r="AY113">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ113">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA113">
         <v>6</v>
@@ -24552,10 +24552,10 @@
         <v>5</v>
       </c>
       <c r="AY114">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ114">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA114">
         <v>4</v>
@@ -24761,7 +24761,7 @@
         <v>6</v>
       </c>
       <c r="AZ115">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA115">
         <v>3</v>
@@ -24964,10 +24964,10 @@
         <v>8</v>
       </c>
       <c r="AY116">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ116">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BA116">
         <v>4</v>
@@ -25170,10 +25170,10 @@
         <v>5</v>
       </c>
       <c r="AY117">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ117">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA117">
         <v>4</v>
@@ -25379,7 +25379,7 @@
         <v>11</v>
       </c>
       <c r="AZ118">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA118">
         <v>5</v>
@@ -25582,10 +25582,10 @@
         <v>9</v>
       </c>
       <c r="AY119">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ119">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA119">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>5</v>
       </c>
       <c r="AY120">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AZ120">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA120">
         <v>7</v>
@@ -25994,10 +25994,10 @@
         <v>5</v>
       </c>
       <c r="AY121">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ121">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA121">
         <v>10</v>
@@ -26200,10 +26200,10 @@
         <v>1</v>
       </c>
       <c r="AY122">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ122">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BA122">
         <v>1</v>
@@ -26406,10 +26406,10 @@
         <v>7</v>
       </c>
       <c r="AY123">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ123">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA123">
         <v>4</v>
@@ -26612,10 +26612,10 @@
         <v>3</v>
       </c>
       <c r="AY124">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ124">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA124">
         <v>3</v>
@@ -26818,10 +26818,10 @@
         <v>5</v>
       </c>
       <c r="AY125">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ125">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA125">
         <v>5</v>
@@ -27024,10 +27024,10 @@
         <v>8</v>
       </c>
       <c r="AY126">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ126">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BA126">
         <v>4</v>
@@ -27230,10 +27230,10 @@
         <v>6</v>
       </c>
       <c r="AY127">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ127">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA127">
         <v>4</v>
@@ -27436,10 +27436,10 @@
         <v>2</v>
       </c>
       <c r="AY128">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ128">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA128">
         <v>6</v>
@@ -27642,10 +27642,10 @@
         <v>9</v>
       </c>
       <c r="AY129">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ129">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA129">
         <v>5</v>
@@ -27848,10 +27848,10 @@
         <v>2</v>
       </c>
       <c r="AY130">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AZ130">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA130">
         <v>10</v>
@@ -28057,7 +28057,7 @@
         <v>8</v>
       </c>
       <c r="AZ131">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA131">
         <v>1</v>
@@ -28260,10 +28260,10 @@
         <v>0</v>
       </c>
       <c r="AY132">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA132">
         <v>12</v>
@@ -28466,10 +28466,10 @@
         <v>6</v>
       </c>
       <c r="AY133">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ133">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA133">
         <v>6</v>
@@ -28672,10 +28672,10 @@
         <v>2</v>
       </c>
       <c r="AY134">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ134">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA134">
         <v>7</v>
@@ -28878,10 +28878,10 @@
         <v>7</v>
       </c>
       <c r="AY135">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ135">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA135">
         <v>1</v>
@@ -29084,10 +29084,10 @@
         <v>7</v>
       </c>
       <c r="AY136">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AZ136">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA136">
         <v>5</v>
@@ -29290,10 +29290,10 @@
         <v>3</v>
       </c>
       <c r="AY137">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ137">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA137">
         <v>4</v>
@@ -29496,10 +29496,10 @@
         <v>5</v>
       </c>
       <c r="AY138">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ138">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BA138">
         <v>1</v>
@@ -29702,10 +29702,10 @@
         <v>2</v>
       </c>
       <c r="AY139">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ139">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BA139">
         <v>5</v>
@@ -29908,10 +29908,10 @@
         <v>5</v>
       </c>
       <c r="AY140">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AZ140">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA140">
         <v>9</v>
@@ -30114,10 +30114,10 @@
         <v>6</v>
       </c>
       <c r="AY141">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ141">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BA141">
         <v>4</v>
@@ -30320,10 +30320,10 @@
         <v>6</v>
       </c>
       <c r="AY142">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ142">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA142">
         <v>15</v>
@@ -30526,10 +30526,10 @@
         <v>4</v>
       </c>
       <c r="AY143">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ143">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA143">
         <v>7</v>
@@ -30732,10 +30732,10 @@
         <v>4</v>
       </c>
       <c r="AY144">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AZ144">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA144">
         <v>8</v>
@@ -30938,10 +30938,10 @@
         <v>7</v>
       </c>
       <c r="AY145">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ145">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA145">
         <v>9</v>
@@ -31144,10 +31144,10 @@
         <v>4</v>
       </c>
       <c r="AY146">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ146">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA146">
         <v>9</v>
@@ -31350,10 +31350,10 @@
         <v>8</v>
       </c>
       <c r="AY147">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ147">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA147">
         <v>5</v>
@@ -31556,10 +31556,10 @@
         <v>6</v>
       </c>
       <c r="AY148">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ148">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA148">
         <v>4</v>
@@ -31762,10 +31762,10 @@
         <v>4</v>
       </c>
       <c r="AY149">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ149">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA149">
         <v>6</v>
@@ -31968,7 +31968,7 @@
         <v>5</v>
       </c>
       <c r="AY150">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ150">
         <v>10</v>
@@ -32174,10 +32174,10 @@
         <v>4</v>
       </c>
       <c r="AY151">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AZ151">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA151">
         <v>10</v>
@@ -32380,10 +32380,10 @@
         <v>5</v>
       </c>
       <c r="AY152">
+        <v>16</v>
+      </c>
+      <c r="AZ152">
         <v>14</v>
-      </c>
-      <c r="AZ152">
-        <v>11</v>
       </c>
       <c r="BA152">
         <v>4</v>
@@ -32586,10 +32586,10 @@
         <v>1</v>
       </c>
       <c r="AY153">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ153">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA153">
         <v>7</v>
@@ -32792,10 +32792,10 @@
         <v>5</v>
       </c>
       <c r="AY154">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ154">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA154">
         <v>3</v>
@@ -32998,10 +32998,10 @@
         <v>5</v>
       </c>
       <c r="AY155">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ155">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA155">
         <v>3</v>
@@ -33204,10 +33204,10 @@
         <v>13</v>
       </c>
       <c r="AY156">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ156">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BA156">
         <v>2</v>
@@ -33410,10 +33410,10 @@
         <v>5</v>
       </c>
       <c r="AY157">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ157">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA157">
         <v>7</v>
@@ -33619,7 +33619,7 @@
         <v>11</v>
       </c>
       <c r="AZ158">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="BA158">
         <v>1</v>
@@ -33822,10 +33822,10 @@
         <v>4</v>
       </c>
       <c r="AY159">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ159">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA159">
         <v>5</v>
@@ -34028,10 +34028,10 @@
         <v>11</v>
       </c>
       <c r="AY160">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AZ160">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA160">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="249">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,9 @@
     <t>['76', '81']</t>
   </si>
   <si>
+    <t>['41']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -755,6 +758,9 @@
   </si>
   <si>
     <t>['22', '63', '88']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP160"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1375,7 +1381,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1581,7 +1587,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1865,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ4">
         <v>1.13</v>
@@ -1993,7 +1999,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2280,7 +2286,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ6">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2405,7 +2411,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2611,7 +2617,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2817,7 +2823,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3435,7 +3441,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3641,7 +3647,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3719,7 +3725,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ13">
         <v>1.25</v>
@@ -3847,7 +3853,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4259,7 +4265,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4671,7 +4677,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4877,7 +4883,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -5164,7 +5170,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ20">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR20">
         <v>1.54</v>
@@ -5289,7 +5295,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5779,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ23">
         <v>0.44</v>
@@ -6113,7 +6119,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6397,7 +6403,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ26">
         <v>1.38</v>
@@ -6731,7 +6737,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -7636,7 +7642,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ32">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR32">
         <v>1</v>
@@ -7761,7 +7767,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7967,7 +7973,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8379,7 +8385,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8997,7 +9003,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9075,7 +9081,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ39">
         <v>1.27</v>
@@ -9409,7 +9415,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9490,7 +9496,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ41">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR41">
         <v>1.34</v>
@@ -9615,7 +9621,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9821,7 +9827,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -10027,7 +10033,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10233,7 +10239,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -11138,7 +11144,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ49">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR49">
         <v>1.12</v>
@@ -11469,7 +11475,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11675,7 +11681,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11756,7 +11762,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ52">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR52">
         <v>1.24</v>
@@ -12165,7 +12171,7 @@
         <v>2.2</v>
       </c>
       <c r="AP54">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ54">
         <v>1.69</v>
@@ -13529,7 +13535,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13735,7 +13741,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14225,7 +14231,7 @@
         <v>1.17</v>
       </c>
       <c r="AP64">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ64">
         <v>1.19</v>
@@ -14765,7 +14771,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14971,7 +14977,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15177,7 +15183,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15258,7 +15264,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ69">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR69">
         <v>1.37</v>
@@ -15589,7 +15595,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -16207,7 +16213,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16491,7 +16497,7 @@
         <v>1.17</v>
       </c>
       <c r="AP75">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -17031,7 +17037,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17112,7 +17118,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ78">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR78">
         <v>1.19</v>
@@ -17649,7 +17655,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17855,7 +17861,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -18267,7 +18273,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18679,7 +18685,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18885,7 +18891,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19091,7 +19097,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -19375,10 +19381,10 @@
         <v>0.25</v>
       </c>
       <c r="AP89">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ89">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR89">
         <v>1.27</v>
@@ -19503,7 +19509,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19915,7 +19921,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q92">
         <v>3.2</v>
@@ -20121,7 +20127,7 @@
         <v>82</v>
       </c>
       <c r="P93" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q93">
         <v>5.5</v>
@@ -20533,7 +20539,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20739,7 +20745,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20945,7 +20951,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21026,7 +21032,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ97">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR97">
         <v>1.38</v>
@@ -21357,7 +21363,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q99">
         <v>2.75</v>
@@ -22056,7 +22062,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ102">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR102">
         <v>1.39</v>
@@ -22181,7 +22187,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22671,7 +22677,7 @@
         <v>0.3</v>
       </c>
       <c r="AP105">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ105">
         <v>0.44</v>
@@ -22799,7 +22805,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23005,7 +23011,7 @@
         <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -24241,7 +24247,7 @@
         <v>117</v>
       </c>
       <c r="P113" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -24447,7 +24453,7 @@
         <v>150</v>
       </c>
       <c r="P114" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24525,7 +24531,7 @@
         <v>1.3</v>
       </c>
       <c r="AP114">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ114">
         <v>1.27</v>
@@ -25146,7 +25152,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ117">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR117">
         <v>1.89</v>
@@ -25349,7 +25355,7 @@
         <v>1.55</v>
       </c>
       <c r="AP118">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ118">
         <v>1.25</v>
@@ -25477,7 +25483,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25683,7 +25689,7 @@
         <v>82</v>
       </c>
       <c r="P120" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25889,7 +25895,7 @@
         <v>155</v>
       </c>
       <c r="P121" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -25970,7 +25976,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ121">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR121">
         <v>1.26</v>
@@ -26507,7 +26513,7 @@
         <v>152</v>
       </c>
       <c r="P124" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26713,7 +26719,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26919,7 +26925,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27125,7 +27131,7 @@
         <v>159</v>
       </c>
       <c r="P127" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27537,7 +27543,7 @@
         <v>160</v>
       </c>
       <c r="P129" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q129">
         <v>2.38</v>
@@ -27743,7 +27749,7 @@
         <v>100</v>
       </c>
       <c r="P130" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q130">
         <v>1.73</v>
@@ -27824,7 +27830,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ130">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR130">
         <v>1.55</v>
@@ -27949,7 +27955,7 @@
         <v>161</v>
       </c>
       <c r="P131" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -28155,7 +28161,7 @@
         <v>144</v>
       </c>
       <c r="P132" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28233,7 +28239,7 @@
         <v>0.67</v>
       </c>
       <c r="AP132">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ132">
         <v>1.13</v>
@@ -28361,7 +28367,7 @@
         <v>162</v>
       </c>
       <c r="P133" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q133">
         <v>1.83</v>
@@ -28773,7 +28779,7 @@
         <v>164</v>
       </c>
       <c r="P135" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29185,7 +29191,7 @@
         <v>165</v>
       </c>
       <c r="P137" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29469,7 +29475,7 @@
         <v>1.36</v>
       </c>
       <c r="AP138">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ138">
         <v>1.19</v>
@@ -29597,7 +29603,7 @@
         <v>82</v>
       </c>
       <c r="P139" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -30215,7 +30221,7 @@
         <v>169</v>
       </c>
       <c r="P142" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q142">
         <v>2.5</v>
@@ -30421,7 +30427,7 @@
         <v>170</v>
       </c>
       <c r="P143" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q143">
         <v>4.33</v>
@@ -30914,7 +30920,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ145">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR145">
         <v>1.23</v>
@@ -31245,7 +31251,7 @@
         <v>174</v>
       </c>
       <c r="P147" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31323,7 +31329,7 @@
         <v>1.29</v>
       </c>
       <c r="AP147">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ147">
         <v>1.38</v>
@@ -31529,7 +31535,7 @@
         <v>1.8</v>
       </c>
       <c r="AP148">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ148">
         <v>1.69</v>
@@ -32069,7 +32075,7 @@
         <v>82</v>
       </c>
       <c r="P151" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q151">
         <v>2.5</v>
@@ -32356,7 +32362,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ152">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR152">
         <v>1.34</v>
@@ -33099,7 +33105,7 @@
         <v>82</v>
       </c>
       <c r="P156" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q156">
         <v>3.6</v>
@@ -33511,7 +33517,7 @@
         <v>131</v>
       </c>
       <c r="P158" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -33717,7 +33723,7 @@
         <v>82</v>
       </c>
       <c r="P159" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q159">
         <v>2.3</v>
@@ -33923,7 +33929,7 @@
         <v>179</v>
       </c>
       <c r="P160" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q160">
         <v>3.4</v>
@@ -34080,6 +34086,212 @@
       </c>
       <c r="BP160">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7287174</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45569.65625</v>
+      </c>
+      <c r="F161">
+        <v>33</v>
+      </c>
+      <c r="G161" t="s">
+        <v>72</v>
+      </c>
+      <c r="H161" t="s">
+        <v>76</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <v>2</v>
+      </c>
+      <c r="O161" t="s">
+        <v>180</v>
+      </c>
+      <c r="P161" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q161">
+        <v>1.91</v>
+      </c>
+      <c r="R161">
+        <v>2.3</v>
+      </c>
+      <c r="S161">
+        <v>8.5</v>
+      </c>
+      <c r="T161">
+        <v>1.43</v>
+      </c>
+      <c r="U161">
+        <v>2.71</v>
+      </c>
+      <c r="V161">
+        <v>3</v>
+      </c>
+      <c r="W161">
+        <v>1.36</v>
+      </c>
+      <c r="X161">
+        <v>7.7</v>
+      </c>
+      <c r="Y161">
+        <v>1.06</v>
+      </c>
+      <c r="Z161">
+        <v>1.33</v>
+      </c>
+      <c r="AA161">
+        <v>4.5</v>
+      </c>
+      <c r="AB161">
+        <v>9</v>
+      </c>
+      <c r="AC161">
+        <v>1.03</v>
+      </c>
+      <c r="AD161">
+        <v>9</v>
+      </c>
+      <c r="AE161">
+        <v>1.29</v>
+      </c>
+      <c r="AF161">
+        <v>3.3</v>
+      </c>
+      <c r="AG161">
+        <v>1.95</v>
+      </c>
+      <c r="AH161">
+        <v>1.85</v>
+      </c>
+      <c r="AI161">
+        <v>2.38</v>
+      </c>
+      <c r="AJ161">
+        <v>1.53</v>
+      </c>
+      <c r="AK161">
+        <v>1.08</v>
+      </c>
+      <c r="AL161">
+        <v>1.2</v>
+      </c>
+      <c r="AM161">
+        <v>2.45</v>
+      </c>
+      <c r="AN161">
+        <v>1.63</v>
+      </c>
+      <c r="AO161">
+        <v>0.44</v>
+      </c>
+      <c r="AP161">
+        <v>1.59</v>
+      </c>
+      <c r="AQ161">
+        <v>0.47</v>
+      </c>
+      <c r="AR161">
+        <v>1.36</v>
+      </c>
+      <c r="AS161">
+        <v>1.01</v>
+      </c>
+      <c r="AT161">
+        <v>2.37</v>
+      </c>
+      <c r="AU161">
+        <v>4</v>
+      </c>
+      <c r="AV161">
+        <v>5</v>
+      </c>
+      <c r="AW161">
+        <v>7</v>
+      </c>
+      <c r="AX161">
+        <v>10</v>
+      </c>
+      <c r="AY161">
+        <v>11</v>
+      </c>
+      <c r="AZ161">
+        <v>15</v>
+      </c>
+      <c r="BA161">
+        <v>7</v>
+      </c>
+      <c r="BB161">
+        <v>3</v>
+      </c>
+      <c r="BC161">
+        <v>10</v>
+      </c>
+      <c r="BD161">
+        <v>1.33</v>
+      </c>
+      <c r="BE161">
+        <v>8.4</v>
+      </c>
+      <c r="BF161">
+        <v>4.57</v>
+      </c>
+      <c r="BG161">
+        <v>1.23</v>
+      </c>
+      <c r="BH161">
+        <v>3.28</v>
+      </c>
+      <c r="BI161">
+        <v>1.47</v>
+      </c>
+      <c r="BJ161">
+        <v>2.42</v>
+      </c>
+      <c r="BK161">
+        <v>1.86</v>
+      </c>
+      <c r="BL161">
+        <v>1.88</v>
+      </c>
+      <c r="BM161">
+        <v>2.34</v>
+      </c>
+      <c r="BN161">
+        <v>1.5</v>
+      </c>
+      <c r="BO161">
+        <v>3.08</v>
+      </c>
+      <c r="BP161">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -34228,16 +34228,16 @@
         <v>2.37</v>
       </c>
       <c r="AU161">
+        <v>3</v>
+      </c>
+      <c r="AV161">
         <v>4</v>
       </c>
-      <c r="AV161">
-        <v>5</v>
-      </c>
       <c r="AW161">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX161">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AY161">
         <v>11</v>
@@ -34249,10 +34249,10 @@
         <v>7</v>
       </c>
       <c r="BB161">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC161">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD161">
         <v>1.33</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="250">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>['41']</t>
+  </si>
+  <si>
+    <t>['18', '85']</t>
   </si>
   <si>
     <t>['23', '45+2']</t>
@@ -1122,7 +1125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1381,7 +1384,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1587,7 +1590,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1999,7 +2002,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2080,7 +2083,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ5">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2283,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ6">
         <v>0.47</v>
@@ -2411,7 +2414,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2617,7 +2620,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2823,7 +2826,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3441,7 +3444,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3522,7 +3525,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ12">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR12">
         <v>1</v>
@@ -3647,7 +3650,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3853,7 +3856,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4265,7 +4268,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4677,7 +4680,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4883,7 +4886,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -4961,7 +4964,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ19">
         <v>1.19</v>
@@ -5295,7 +5298,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5376,7 +5379,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ21">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR21">
         <v>1.54</v>
@@ -6119,7 +6122,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6200,7 +6203,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ25">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR25">
         <v>1.56</v>
@@ -6737,7 +6740,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -7767,7 +7770,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7973,7 +7976,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8051,7 +8054,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ34">
         <v>1.27</v>
@@ -8385,7 +8388,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -9003,7 +9006,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9415,7 +9418,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9621,7 +9624,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9702,7 +9705,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ42">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR42">
         <v>1.38</v>
@@ -9827,7 +9830,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -10033,7 +10036,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10239,7 +10242,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10935,7 +10938,7 @@
         <v>1.75</v>
       </c>
       <c r="AP48">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11475,7 +11478,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11681,7 +11684,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12174,7 +12177,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ54">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -13535,7 +13538,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13741,7 +13744,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13819,7 +13822,7 @@
         <v>1.6</v>
       </c>
       <c r="AP62">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ62">
         <v>1.44</v>
@@ -14025,7 +14028,7 @@
         <v>0.4</v>
       </c>
       <c r="AP63">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ63">
         <v>0.44</v>
@@ -14646,7 +14649,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ66">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR66">
         <v>1.32</v>
@@ -14771,7 +14774,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14977,7 +14980,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15183,7 +15186,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15595,7 +15598,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -15673,7 +15676,7 @@
         <v>1.57</v>
       </c>
       <c r="AP71">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ71">
         <v>1.25</v>
@@ -16088,7 +16091,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ73">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR73">
         <v>1.37</v>
@@ -16213,7 +16216,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16291,7 +16294,7 @@
         <v>0.63</v>
       </c>
       <c r="AP74">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ74">
         <v>1.13</v>
@@ -17037,7 +17040,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17655,7 +17658,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17861,7 +17864,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -18273,7 +18276,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18354,7 +18357,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ84">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR84">
         <v>1.41</v>
@@ -18557,7 +18560,7 @@
         <v>1.38</v>
       </c>
       <c r="AP85">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ85">
         <v>1.19</v>
@@ -18685,7 +18688,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18891,7 +18894,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19097,7 +19100,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -19509,7 +19512,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19587,10 +19590,10 @@
         <v>1.78</v>
       </c>
       <c r="AP90">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ90">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR90">
         <v>1.89</v>
@@ -19921,7 +19924,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q92">
         <v>3.2</v>
@@ -20127,7 +20130,7 @@
         <v>82</v>
       </c>
       <c r="P93" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q93">
         <v>5.5</v>
@@ -20539,7 +20542,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20745,7 +20748,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20951,7 +20954,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21363,7 +21366,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q99">
         <v>2.75</v>
@@ -22187,7 +22190,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22805,7 +22808,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23011,7 +23014,7 @@
         <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23092,7 +23095,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ107">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR107">
         <v>1.35</v>
@@ -24247,7 +24250,7 @@
         <v>117</v>
       </c>
       <c r="P113" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -24328,7 +24331,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ113">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR113">
         <v>1.37</v>
@@ -24453,7 +24456,7 @@
         <v>150</v>
       </c>
       <c r="P114" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -25149,7 +25152,7 @@
         <v>0.45</v>
       </c>
       <c r="AP117">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ117">
         <v>0.47</v>
@@ -25483,7 +25486,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25689,7 +25692,7 @@
         <v>82</v>
       </c>
       <c r="P120" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25895,7 +25898,7 @@
         <v>155</v>
       </c>
       <c r="P121" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -26513,7 +26516,7 @@
         <v>152</v>
       </c>
       <c r="P124" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26719,7 +26722,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26925,7 +26928,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27131,7 +27134,7 @@
         <v>159</v>
       </c>
       <c r="P127" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27543,7 +27546,7 @@
         <v>160</v>
       </c>
       <c r="P129" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q129">
         <v>2.38</v>
@@ -27749,7 +27752,7 @@
         <v>100</v>
       </c>
       <c r="P130" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q130">
         <v>1.73</v>
@@ -27955,7 +27958,7 @@
         <v>161</v>
       </c>
       <c r="P131" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -28036,7 +28039,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ131">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR131">
         <v>1.28</v>
@@ -28161,7 +28164,7 @@
         <v>144</v>
       </c>
       <c r="P132" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28367,7 +28370,7 @@
         <v>162</v>
       </c>
       <c r="P133" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q133">
         <v>1.83</v>
@@ -28445,7 +28448,7 @@
         <v>0.23</v>
       </c>
       <c r="AP133">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ133">
         <v>0.44</v>
@@ -28779,7 +28782,7 @@
         <v>164</v>
       </c>
       <c r="P135" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29191,7 +29194,7 @@
         <v>165</v>
       </c>
       <c r="P137" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29269,7 +29272,7 @@
         <v>1.38</v>
       </c>
       <c r="AP137">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ137">
         <v>1.44</v>
@@ -29603,7 +29606,7 @@
         <v>82</v>
       </c>
       <c r="P139" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -29684,7 +29687,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ139">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR139">
         <v>1.35</v>
@@ -30221,7 +30224,7 @@
         <v>169</v>
       </c>
       <c r="P142" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q142">
         <v>2.5</v>
@@ -30427,7 +30430,7 @@
         <v>170</v>
       </c>
       <c r="P143" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q143">
         <v>4.33</v>
@@ -30714,7 +30717,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ144">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR144">
         <v>1.35</v>
@@ -31123,7 +31126,7 @@
         <v>1.07</v>
       </c>
       <c r="AP146">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ146">
         <v>1</v>
@@ -31251,7 +31254,7 @@
         <v>174</v>
       </c>
       <c r="P147" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31538,7 +31541,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ148">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR148">
         <v>1.34</v>
@@ -32075,7 +32078,7 @@
         <v>82</v>
       </c>
       <c r="P151" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q151">
         <v>2.5</v>
@@ -32565,7 +32568,7 @@
         <v>1.23</v>
       </c>
       <c r="AP153">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ153">
         <v>1.27</v>
@@ -33105,7 +33108,7 @@
         <v>82</v>
       </c>
       <c r="P156" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q156">
         <v>3.6</v>
@@ -33517,7 +33520,7 @@
         <v>131</v>
       </c>
       <c r="P158" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -33723,7 +33726,7 @@
         <v>82</v>
       </c>
       <c r="P159" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q159">
         <v>2.3</v>
@@ -33801,7 +33804,7 @@
         <v>0.86</v>
       </c>
       <c r="AP159">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ159">
         <v>1.13</v>
@@ -33929,7 +33932,7 @@
         <v>179</v>
       </c>
       <c r="P160" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q160">
         <v>3.4</v>
@@ -34135,7 +34138,7 @@
         <v>180</v>
       </c>
       <c r="P161" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q161">
         <v>1.91</v>
@@ -34292,6 +34295,212 @@
       </c>
       <c r="BP161">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7287176</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45571.57291666666</v>
+      </c>
+      <c r="F162">
+        <v>33</v>
+      </c>
+      <c r="G162" t="s">
+        <v>74</v>
+      </c>
+      <c r="H162" t="s">
+        <v>77</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>2</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>2</v>
+      </c>
+      <c r="O162" t="s">
+        <v>181</v>
+      </c>
+      <c r="P162" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q162">
+        <v>2.25</v>
+      </c>
+      <c r="R162">
+        <v>2.2</v>
+      </c>
+      <c r="S162">
+        <v>6</v>
+      </c>
+      <c r="T162">
+        <v>1.45</v>
+      </c>
+      <c r="U162">
+        <v>2.55</v>
+      </c>
+      <c r="V162">
+        <v>3.1</v>
+      </c>
+      <c r="W162">
+        <v>1.33</v>
+      </c>
+      <c r="X162">
+        <v>8</v>
+      </c>
+      <c r="Y162">
+        <v>1.06</v>
+      </c>
+      <c r="Z162">
+        <v>1.62</v>
+      </c>
+      <c r="AA162">
+        <v>4.1</v>
+      </c>
+      <c r="AB162">
+        <v>5</v>
+      </c>
+      <c r="AC162">
+        <v>1.06</v>
+      </c>
+      <c r="AD162">
+        <v>8.5</v>
+      </c>
+      <c r="AE162">
+        <v>1.36</v>
+      </c>
+      <c r="AF162">
+        <v>3.1</v>
+      </c>
+      <c r="AG162">
+        <v>2.05</v>
+      </c>
+      <c r="AH162">
+        <v>1.75</v>
+      </c>
+      <c r="AI162">
+        <v>2.05</v>
+      </c>
+      <c r="AJ162">
+        <v>1.7</v>
+      </c>
+      <c r="AK162">
+        <v>1.17</v>
+      </c>
+      <c r="AL162">
+        <v>1.2</v>
+      </c>
+      <c r="AM162">
+        <v>2.15</v>
+      </c>
+      <c r="AN162">
+        <v>1.69</v>
+      </c>
+      <c r="AO162">
+        <v>1.69</v>
+      </c>
+      <c r="AP162">
+        <v>1.76</v>
+      </c>
+      <c r="AQ162">
+        <v>1.59</v>
+      </c>
+      <c r="AR162">
+        <v>1.76</v>
+      </c>
+      <c r="AS162">
+        <v>1.06</v>
+      </c>
+      <c r="AT162">
+        <v>2.82</v>
+      </c>
+      <c r="AU162">
+        <v>4</v>
+      </c>
+      <c r="AV162">
+        <v>6</v>
+      </c>
+      <c r="AW162">
+        <v>2</v>
+      </c>
+      <c r="AX162">
+        <v>1</v>
+      </c>
+      <c r="AY162">
+        <v>11</v>
+      </c>
+      <c r="AZ162">
+        <v>9</v>
+      </c>
+      <c r="BA162">
+        <v>2</v>
+      </c>
+      <c r="BB162">
+        <v>3</v>
+      </c>
+      <c r="BC162">
+        <v>5</v>
+      </c>
+      <c r="BD162">
+        <v>1.39</v>
+      </c>
+      <c r="BE162">
+        <v>8</v>
+      </c>
+      <c r="BF162">
+        <v>4.06</v>
+      </c>
+      <c r="BG162">
+        <v>1.22</v>
+      </c>
+      <c r="BH162">
+        <v>3.35</v>
+      </c>
+      <c r="BI162">
+        <v>1.51</v>
+      </c>
+      <c r="BJ162">
+        <v>2.51</v>
+      </c>
+      <c r="BK162">
+        <v>1.86</v>
+      </c>
+      <c r="BL162">
+        <v>1.93</v>
+      </c>
+      <c r="BM162">
+        <v>2.36</v>
+      </c>
+      <c r="BN162">
+        <v>1.57</v>
+      </c>
+      <c r="BO162">
+        <v>3.02</v>
+      </c>
+      <c r="BP162">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="251">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>['18', '85']</t>
+  </si>
+  <si>
+    <t>['61']</t>
   </si>
   <si>
     <t>['23', '45+2']</t>
@@ -1125,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP162"/>
+  <dimension ref="A1:BP164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1384,7 +1387,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1590,7 +1593,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1668,10 +1671,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2002,7 +2005,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2080,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ5">
         <v>1.59</v>
@@ -2414,7 +2417,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2620,7 +2623,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2826,7 +2829,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3113,7 +3116,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ10">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3444,7 +3447,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3650,7 +3653,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3856,7 +3859,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3934,7 +3937,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>1.13</v>
@@ -4143,7 +4146,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ15">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR15">
         <v>1.32</v>
@@ -4268,7 +4271,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4680,7 +4683,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4758,7 +4761,7 @@
         <v>1.5</v>
       </c>
       <c r="AP18">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ18">
         <v>1.13</v>
@@ -4886,7 +4889,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -5298,7 +5301,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5582,7 +5585,7 @@
         <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>1.25</v>
@@ -5791,7 +5794,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ23">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR23">
         <v>1.34</v>
@@ -6122,7 +6125,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6740,7 +6743,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -7027,7 +7030,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ29">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR29">
         <v>1.29</v>
@@ -7230,7 +7233,7 @@
         <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>1.44</v>
@@ -7770,7 +7773,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7848,7 +7851,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -7976,7 +7979,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8057,7 +8060,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ34">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR34">
         <v>1.27</v>
@@ -8263,7 +8266,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ35">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR35">
         <v>1.43</v>
@@ -8388,7 +8391,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8466,7 +8469,7 @@
         <v>1.33</v>
       </c>
       <c r="AP36">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ36">
         <v>1.38</v>
@@ -9006,7 +9009,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9087,7 +9090,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ39">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR39">
         <v>1.28</v>
@@ -9418,7 +9421,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9496,7 +9499,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ41">
         <v>0.47</v>
@@ -9624,7 +9627,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9830,7 +9833,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -10036,7 +10039,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10117,7 +10120,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ44">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR44">
         <v>0.87</v>
@@ -10242,7 +10245,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10732,7 +10735,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ47">
         <v>1.44</v>
@@ -11353,7 +11356,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ50">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR50">
         <v>1.1</v>
@@ -11478,7 +11481,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11556,7 +11559,7 @@
         <v>1.4</v>
       </c>
       <c r="AP51">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>1.38</v>
@@ -11684,7 +11687,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12586,7 +12589,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
         <v>1.13</v>
@@ -13207,7 +13210,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ59">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR59">
         <v>1.21</v>
@@ -13538,7 +13541,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13616,7 +13619,7 @@
         <v>0.8</v>
       </c>
       <c r="AP61">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ61">
         <v>1.19</v>
@@ -13744,7 +13747,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14031,7 +14034,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ63">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR63">
         <v>1.78</v>
@@ -14443,7 +14446,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ65">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR65">
         <v>1.39</v>
@@ -14774,7 +14777,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14980,7 +14983,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15186,7 +15189,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15598,7 +15601,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -16088,7 +16091,7 @@
         <v>1.71</v>
       </c>
       <c r="AP73">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ73">
         <v>1.59</v>
@@ -16216,7 +16219,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16709,7 +16712,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ76">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR76">
         <v>1.05</v>
@@ -16912,10 +16915,10 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ77">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR77">
         <v>1.34</v>
@@ -17040,7 +17043,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17118,7 +17121,7 @@
         <v>0.29</v>
       </c>
       <c r="AP78">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ78">
         <v>0.47</v>
@@ -17658,7 +17661,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17739,7 +17742,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ81">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR81">
         <v>1.3</v>
@@ -17864,7 +17867,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -18276,7 +18279,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18688,7 +18691,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18766,10 +18769,10 @@
         <v>0.38</v>
       </c>
       <c r="AP86">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ86">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR86">
         <v>1.18</v>
@@ -18894,7 +18897,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19100,7 +19103,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -19178,7 +19181,7 @@
         <v>1.14</v>
       </c>
       <c r="AP88">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -19512,7 +19515,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19796,10 +19799,10 @@
         <v>1.5</v>
       </c>
       <c r="AP91">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ91">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR91">
         <v>1.23</v>
@@ -19924,7 +19927,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>3.2</v>
@@ -20130,7 +20133,7 @@
         <v>82</v>
       </c>
       <c r="P93" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q93">
         <v>5.5</v>
@@ -20542,7 +20545,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20748,7 +20751,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20829,7 +20832,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ96">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR96">
         <v>1.26</v>
@@ -20954,7 +20957,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21238,7 +21241,7 @@
         <v>1.56</v>
       </c>
       <c r="AP98">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ98">
         <v>1.25</v>
@@ -21366,7 +21369,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q99">
         <v>2.75</v>
@@ -21444,7 +21447,7 @@
         <v>1.33</v>
       </c>
       <c r="AP99">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -21856,7 +21859,7 @@
         <v>1.67</v>
       </c>
       <c r="AP101">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ101">
         <v>1.44</v>
@@ -22190,7 +22193,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22683,7 +22686,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ105">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR105">
         <v>1.34</v>
@@ -22808,7 +22811,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23014,7 +23017,7 @@
         <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23092,7 +23095,7 @@
         <v>1.9</v>
       </c>
       <c r="AP107">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ107">
         <v>1.59</v>
@@ -23507,7 +23510,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ109">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR109">
         <v>1.37</v>
@@ -24122,10 +24125,10 @@
         <v>0.27</v>
       </c>
       <c r="AP112">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ112">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR112">
         <v>1.53</v>
@@ -24250,7 +24253,7 @@
         <v>117</v>
       </c>
       <c r="P113" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -24456,7 +24459,7 @@
         <v>150</v>
       </c>
       <c r="P114" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24537,7 +24540,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ114">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR114">
         <v>1.34</v>
@@ -24946,7 +24949,7 @@
         <v>0.73</v>
       </c>
       <c r="AP116">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ116">
         <v>1.13</v>
@@ -25486,7 +25489,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25567,7 +25570,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ119">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR119">
         <v>1.37</v>
@@ -25692,7 +25695,7 @@
         <v>82</v>
       </c>
       <c r="P120" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25898,7 +25901,7 @@
         <v>155</v>
       </c>
       <c r="P121" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -26516,7 +26519,7 @@
         <v>152</v>
       </c>
       <c r="P124" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26594,7 +26597,7 @@
         <v>1.25</v>
       </c>
       <c r="AP124">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ124">
         <v>1.38</v>
@@ -26722,7 +26725,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26803,7 +26806,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ125">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR125">
         <v>1.39</v>
@@ -26928,7 +26931,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27134,7 +27137,7 @@
         <v>159</v>
       </c>
       <c r="P127" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27546,7 +27549,7 @@
         <v>160</v>
       </c>
       <c r="P129" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q129">
         <v>2.38</v>
@@ -27752,7 +27755,7 @@
         <v>100</v>
       </c>
       <c r="P130" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q130">
         <v>1.73</v>
@@ -27830,7 +27833,7 @@
         <v>0.46</v>
       </c>
       <c r="AP130">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ130">
         <v>0.47</v>
@@ -27958,7 +27961,7 @@
         <v>161</v>
       </c>
       <c r="P131" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -28164,7 +28167,7 @@
         <v>144</v>
       </c>
       <c r="P132" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28370,7 +28373,7 @@
         <v>162</v>
       </c>
       <c r="P133" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q133">
         <v>1.83</v>
@@ -28451,7 +28454,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ133">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR133">
         <v>1.84</v>
@@ -28782,7 +28785,7 @@
         <v>164</v>
       </c>
       <c r="P135" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -28863,7 +28866,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ135">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR135">
         <v>1.29</v>
@@ -29066,7 +29069,7 @@
         <v>1.23</v>
       </c>
       <c r="AP136">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ136">
         <v>1.19</v>
@@ -29194,7 +29197,7 @@
         <v>165</v>
       </c>
       <c r="P137" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29606,7 +29609,7 @@
         <v>82</v>
       </c>
       <c r="P139" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -30224,7 +30227,7 @@
         <v>169</v>
       </c>
       <c r="P142" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q142">
         <v>2.5</v>
@@ -30305,7 +30308,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ142">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR142">
         <v>1.42</v>
@@ -30430,7 +30433,7 @@
         <v>170</v>
       </c>
       <c r="P143" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q143">
         <v>4.33</v>
@@ -30920,7 +30923,7 @@
         <v>0.5</v>
       </c>
       <c r="AP145">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ145">
         <v>0.47</v>
@@ -31254,7 +31257,7 @@
         <v>174</v>
       </c>
       <c r="P147" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31950,7 +31953,7 @@
         <v>1.4</v>
       </c>
       <c r="AP150">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ150">
         <v>1.38</v>
@@ -32078,7 +32081,7 @@
         <v>82</v>
       </c>
       <c r="P151" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q151">
         <v>2.5</v>
@@ -32159,7 +32162,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ151">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AR151">
         <v>1.35</v>
@@ -32571,7 +32574,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ153">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR153">
         <v>1.82</v>
@@ -33108,7 +33111,7 @@
         <v>82</v>
       </c>
       <c r="P156" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q156">
         <v>3.6</v>
@@ -33189,7 +33192,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ156">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR156">
         <v>1.35</v>
@@ -33520,7 +33523,7 @@
         <v>131</v>
       </c>
       <c r="P158" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -33598,7 +33601,7 @@
         <v>1.33</v>
       </c>
       <c r="AP158">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ158">
         <v>1.44</v>
@@ -33726,7 +33729,7 @@
         <v>82</v>
       </c>
       <c r="P159" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q159">
         <v>2.3</v>
@@ -33932,7 +33935,7 @@
         <v>179</v>
       </c>
       <c r="P160" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q160">
         <v>3.4</v>
@@ -34138,7 +34141,7 @@
         <v>180</v>
       </c>
       <c r="P161" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q161">
         <v>1.91</v>
@@ -34501,6 +34504,418 @@
       </c>
       <c r="BP162">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7287175</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45576.65625</v>
+      </c>
+      <c r="F163">
+        <v>33</v>
+      </c>
+      <c r="G163" t="s">
+        <v>73</v>
+      </c>
+      <c r="H163" t="s">
+        <v>75</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163" t="s">
+        <v>82</v>
+      </c>
+      <c r="P163" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q163">
+        <v>3.4</v>
+      </c>
+      <c r="R163">
+        <v>2.2</v>
+      </c>
+      <c r="S163">
+        <v>3.1</v>
+      </c>
+      <c r="T163">
+        <v>1.36</v>
+      </c>
+      <c r="U163">
+        <v>3</v>
+      </c>
+      <c r="V163">
+        <v>2.63</v>
+      </c>
+      <c r="W163">
+        <v>1.44</v>
+      </c>
+      <c r="X163">
+        <v>7</v>
+      </c>
+      <c r="Y163">
+        <v>1.1</v>
+      </c>
+      <c r="Z163">
+        <v>2.8</v>
+      </c>
+      <c r="AA163">
+        <v>3.3</v>
+      </c>
+      <c r="AB163">
+        <v>2.5</v>
+      </c>
+      <c r="AC163">
+        <v>0</v>
+      </c>
+      <c r="AD163">
+        <v>0</v>
+      </c>
+      <c r="AE163">
+        <v>0</v>
+      </c>
+      <c r="AF163">
+        <v>0</v>
+      </c>
+      <c r="AG163">
+        <v>1.9</v>
+      </c>
+      <c r="AH163">
+        <v>1.9</v>
+      </c>
+      <c r="AI163">
+        <v>1.7</v>
+      </c>
+      <c r="AJ163">
+        <v>2.05</v>
+      </c>
+      <c r="AK163">
+        <v>0</v>
+      </c>
+      <c r="AL163">
+        <v>0</v>
+      </c>
+      <c r="AM163">
+        <v>0</v>
+      </c>
+      <c r="AN163">
+        <v>1.44</v>
+      </c>
+      <c r="AO163">
+        <v>0.44</v>
+      </c>
+      <c r="AP163">
+        <v>1.41</v>
+      </c>
+      <c r="AQ163">
+        <v>0.47</v>
+      </c>
+      <c r="AR163">
+        <v>1.27</v>
+      </c>
+      <c r="AS163">
+        <v>1.15</v>
+      </c>
+      <c r="AT163">
+        <v>2.42</v>
+      </c>
+      <c r="AU163">
+        <v>6</v>
+      </c>
+      <c r="AV163">
+        <v>3</v>
+      </c>
+      <c r="AW163">
+        <v>5</v>
+      </c>
+      <c r="AX163">
+        <v>4</v>
+      </c>
+      <c r="AY163">
+        <v>16</v>
+      </c>
+      <c r="AZ163">
+        <v>9</v>
+      </c>
+      <c r="BA163">
+        <v>11</v>
+      </c>
+      <c r="BB163">
+        <v>8</v>
+      </c>
+      <c r="BC163">
+        <v>19</v>
+      </c>
+      <c r="BD163">
+        <v>0</v>
+      </c>
+      <c r="BE163">
+        <v>0</v>
+      </c>
+      <c r="BF163">
+        <v>0</v>
+      </c>
+      <c r="BG163">
+        <v>0</v>
+      </c>
+      <c r="BH163">
+        <v>0</v>
+      </c>
+      <c r="BI163">
+        <v>0</v>
+      </c>
+      <c r="BJ163">
+        <v>0</v>
+      </c>
+      <c r="BK163">
+        <v>2.1</v>
+      </c>
+      <c r="BL163">
+        <v>0</v>
+      </c>
+      <c r="BM163">
+        <v>0</v>
+      </c>
+      <c r="BN163">
+        <v>0</v>
+      </c>
+      <c r="BO163">
+        <v>0</v>
+      </c>
+      <c r="BP163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7287157</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45576.65625</v>
+      </c>
+      <c r="F164">
+        <v>30</v>
+      </c>
+      <c r="G164" t="s">
+        <v>71</v>
+      </c>
+      <c r="H164" t="s">
+        <v>70</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+      <c r="N164">
+        <v>2</v>
+      </c>
+      <c r="O164" t="s">
+        <v>182</v>
+      </c>
+      <c r="P164" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q164">
+        <v>2.2</v>
+      </c>
+      <c r="R164">
+        <v>2.25</v>
+      </c>
+      <c r="S164">
+        <v>5.5</v>
+      </c>
+      <c r="T164">
+        <v>1.4</v>
+      </c>
+      <c r="U164">
+        <v>2.75</v>
+      </c>
+      <c r="V164">
+        <v>3</v>
+      </c>
+      <c r="W164">
+        <v>1.36</v>
+      </c>
+      <c r="X164">
+        <v>8</v>
+      </c>
+      <c r="Y164">
+        <v>1.08</v>
+      </c>
+      <c r="Z164">
+        <v>1.6</v>
+      </c>
+      <c r="AA164">
+        <v>3.9</v>
+      </c>
+      <c r="AB164">
+        <v>5.75</v>
+      </c>
+      <c r="AC164">
+        <v>0</v>
+      </c>
+      <c r="AD164">
+        <v>0</v>
+      </c>
+      <c r="AE164">
+        <v>0</v>
+      </c>
+      <c r="AF164">
+        <v>0</v>
+      </c>
+      <c r="AG164">
+        <v>1.95</v>
+      </c>
+      <c r="AH164">
+        <v>1.85</v>
+      </c>
+      <c r="AI164">
+        <v>1.95</v>
+      </c>
+      <c r="AJ164">
+        <v>1.8</v>
+      </c>
+      <c r="AK164">
+        <v>0</v>
+      </c>
+      <c r="AL164">
+        <v>0</v>
+      </c>
+      <c r="AM164">
+        <v>0</v>
+      </c>
+      <c r="AN164">
+        <v>2.07</v>
+      </c>
+      <c r="AO164">
+        <v>1.27</v>
+      </c>
+      <c r="AP164">
+        <v>2</v>
+      </c>
+      <c r="AQ164">
+        <v>1.25</v>
+      </c>
+      <c r="AR164">
+        <v>1.59</v>
+      </c>
+      <c r="AS164">
+        <v>1.21</v>
+      </c>
+      <c r="AT164">
+        <v>2.8</v>
+      </c>
+      <c r="AU164">
+        <v>6</v>
+      </c>
+      <c r="AV164">
+        <v>6</v>
+      </c>
+      <c r="AW164">
+        <v>7</v>
+      </c>
+      <c r="AX164">
+        <v>4</v>
+      </c>
+      <c r="AY164">
+        <v>20</v>
+      </c>
+      <c r="AZ164">
+        <v>12</v>
+      </c>
+      <c r="BA164">
+        <v>9</v>
+      </c>
+      <c r="BB164">
+        <v>3</v>
+      </c>
+      <c r="BC164">
+        <v>12</v>
+      </c>
+      <c r="BD164">
+        <v>0</v>
+      </c>
+      <c r="BE164">
+        <v>0</v>
+      </c>
+      <c r="BF164">
+        <v>0</v>
+      </c>
+      <c r="BG164">
+        <v>0</v>
+      </c>
+      <c r="BH164">
+        <v>0</v>
+      </c>
+      <c r="BI164">
+        <v>0</v>
+      </c>
+      <c r="BJ164">
+        <v>0</v>
+      </c>
+      <c r="BK164">
+        <v>2.1</v>
+      </c>
+      <c r="BL164">
+        <v>0</v>
+      </c>
+      <c r="BM164">
+        <v>0</v>
+      </c>
+      <c r="BN164">
+        <v>0</v>
+      </c>
+      <c r="BO164">
+        <v>0</v>
+      </c>
+      <c r="BP164">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -565,6 +565,12 @@
     <t>['61']</t>
   </si>
   <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -767,6 +773,9 @@
   </si>
   <si>
     <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['59', '76', '81']</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP164"/>
+  <dimension ref="A1:BP166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1387,7 +1396,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1465,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1593,7 +1602,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1671,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ3">
         <v>0.47</v>
@@ -1880,7 +1889,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ4">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2005,7 +2014,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2417,7 +2426,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2623,7 +2632,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2829,7 +2838,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3447,7 +3456,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3653,7 +3662,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3859,7 +3868,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3937,10 +3946,10 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ14">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR14">
         <v>1.63</v>
@@ -4271,7 +4280,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4683,7 +4692,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4764,7 +4773,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ18">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR18">
         <v>0.95</v>
@@ -4889,7 +4898,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -5301,7 +5310,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5379,7 +5388,7 @@
         <v>2</v>
       </c>
       <c r="AP21">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>1.59</v>
@@ -5585,7 +5594,7 @@
         <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ22">
         <v>1.25</v>
@@ -6125,7 +6134,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6743,7 +6752,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6821,7 +6830,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <v>1.19</v>
@@ -7233,7 +7242,7 @@
         <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ30">
         <v>1.44</v>
@@ -7442,7 +7451,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ31">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR31">
         <v>1.4</v>
@@ -7773,7 +7782,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7979,7 +7988,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8391,7 +8400,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -9009,7 +9018,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9293,7 +9302,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
         <v>1.25</v>
@@ -9421,7 +9430,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9499,7 +9508,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ41">
         <v>0.47</v>
@@ -9627,7 +9636,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9833,7 +9842,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -10039,7 +10048,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10245,7 +10254,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10532,7 +10541,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ46">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR46">
         <v>1.26</v>
@@ -11147,7 +11156,7 @@
         <v>0.25</v>
       </c>
       <c r="AP49">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
         <v>0.47</v>
@@ -11353,7 +11362,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ50">
         <v>0.47</v>
@@ -11481,7 +11490,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11559,7 +11568,7 @@
         <v>1.4</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ51">
         <v>1.38</v>
@@ -11687,7 +11696,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12589,10 +12598,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ56">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR56">
         <v>1.4</v>
@@ -13416,7 +13425,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ60">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR60">
         <v>1.01</v>
@@ -13541,7 +13550,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13747,7 +13756,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14777,7 +14786,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14855,7 +14864,7 @@
         <v>1.57</v>
       </c>
       <c r="AP67">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
         <v>1.38</v>
@@ -14983,7 +14992,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15189,7 +15198,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15473,7 +15482,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
         <v>1.44</v>
@@ -15601,7 +15610,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -15888,7 +15897,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ72">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR72">
         <v>1.34</v>
@@ -16091,7 +16100,7 @@
         <v>1.71</v>
       </c>
       <c r="AP73">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ73">
         <v>1.59</v>
@@ -16219,7 +16228,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16300,7 +16309,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ74">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR74">
         <v>1.85</v>
@@ -16915,7 +16924,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ77">
         <v>1.25</v>
@@ -17043,7 +17052,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17661,7 +17670,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17867,7 +17876,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -18279,7 +18288,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18691,7 +18700,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18897,7 +18906,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -18975,10 +18984,10 @@
         <v>0.67</v>
       </c>
       <c r="AP87">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ87">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR87">
         <v>1.13</v>
@@ -19103,7 +19112,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -19181,7 +19190,7 @@
         <v>1.14</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -19515,7 +19524,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19927,7 +19936,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q92">
         <v>3.2</v>
@@ -20133,7 +20142,7 @@
         <v>82</v>
       </c>
       <c r="P93" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q93">
         <v>5.5</v>
@@ -20545,7 +20554,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20751,7 +20760,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20957,7 +20966,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21241,7 +21250,7 @@
         <v>1.56</v>
       </c>
       <c r="AP98">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ98">
         <v>1.25</v>
@@ -21369,7 +21378,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q99">
         <v>2.75</v>
@@ -21656,7 +21665,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ100">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR100">
         <v>1.39</v>
@@ -21859,7 +21868,7 @@
         <v>1.67</v>
       </c>
       <c r="AP101">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ101">
         <v>1.44</v>
@@ -22193,7 +22202,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22271,7 +22280,7 @@
         <v>1.2</v>
       </c>
       <c r="AP103">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ103">
         <v>1.19</v>
@@ -22811,7 +22820,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23017,7 +23026,7 @@
         <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -24125,7 +24134,7 @@
         <v>0.27</v>
       </c>
       <c r="AP112">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ112">
         <v>0.47</v>
@@ -24253,7 +24262,7 @@
         <v>117</v>
       </c>
       <c r="P113" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -24459,7 +24468,7 @@
         <v>150</v>
       </c>
       <c r="P114" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24952,7 +24961,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ116">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR116">
         <v>1.31</v>
@@ -25489,7 +25498,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25695,7 +25704,7 @@
         <v>82</v>
       </c>
       <c r="P120" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25773,7 +25782,7 @@
         <v>1.09</v>
       </c>
       <c r="AP120">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ120">
         <v>1</v>
@@ -25901,7 +25910,7 @@
         <v>155</v>
       </c>
       <c r="P121" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -25979,7 +25988,7 @@
         <v>0.42</v>
       </c>
       <c r="AP121">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ121">
         <v>0.47</v>
@@ -26519,7 +26528,7 @@
         <v>152</v>
       </c>
       <c r="P124" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26725,7 +26734,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26931,7 +26940,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27137,7 +27146,7 @@
         <v>159</v>
       </c>
       <c r="P127" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27549,7 +27558,7 @@
         <v>160</v>
       </c>
       <c r="P129" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q129">
         <v>2.38</v>
@@ -27627,7 +27636,7 @@
         <v>1.31</v>
       </c>
       <c r="AP129">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ129">
         <v>1.25</v>
@@ -27755,7 +27764,7 @@
         <v>100</v>
       </c>
       <c r="P130" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q130">
         <v>1.73</v>
@@ -27833,7 +27842,7 @@
         <v>0.46</v>
       </c>
       <c r="AP130">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ130">
         <v>0.47</v>
@@ -27961,7 +27970,7 @@
         <v>161</v>
       </c>
       <c r="P131" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -28167,7 +28176,7 @@
         <v>144</v>
       </c>
       <c r="P132" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28248,7 +28257,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ132">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR132">
         <v>1.37</v>
@@ -28373,7 +28382,7 @@
         <v>162</v>
       </c>
       <c r="P133" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q133">
         <v>1.83</v>
@@ -28785,7 +28794,7 @@
         <v>164</v>
       </c>
       <c r="P135" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29197,7 +29206,7 @@
         <v>165</v>
       </c>
       <c r="P137" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29609,7 +29618,7 @@
         <v>82</v>
       </c>
       <c r="P139" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -30099,7 +30108,7 @@
         <v>1.38</v>
       </c>
       <c r="AP141">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ141">
         <v>1.38</v>
@@ -30227,7 +30236,7 @@
         <v>169</v>
       </c>
       <c r="P142" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q142">
         <v>2.5</v>
@@ -30433,7 +30442,7 @@
         <v>170</v>
       </c>
       <c r="P143" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q143">
         <v>4.33</v>
@@ -30514,7 +30523,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ143">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR143">
         <v>1.35</v>
@@ -30717,7 +30726,7 @@
         <v>1.86</v>
       </c>
       <c r="AP144">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ144">
         <v>1.59</v>
@@ -31257,7 +31266,7 @@
         <v>174</v>
       </c>
       <c r="P147" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31953,7 +31962,7 @@
         <v>1.4</v>
       </c>
       <c r="AP150">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ150">
         <v>1.38</v>
@@ -32081,7 +32090,7 @@
         <v>82</v>
       </c>
       <c r="P151" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q151">
         <v>2.5</v>
@@ -32159,7 +32168,7 @@
         <v>0.27</v>
       </c>
       <c r="AP151">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ151">
         <v>0.47</v>
@@ -33111,7 +33120,7 @@
         <v>82</v>
       </c>
       <c r="P156" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q156">
         <v>3.6</v>
@@ -33523,7 +33532,7 @@
         <v>131</v>
       </c>
       <c r="P158" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -33729,7 +33738,7 @@
         <v>82</v>
       </c>
       <c r="P159" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q159">
         <v>2.3</v>
@@ -33810,7 +33819,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ159">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR159">
         <v>1.8</v>
@@ -33935,7 +33944,7 @@
         <v>179</v>
       </c>
       <c r="P160" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q160">
         <v>3.4</v>
@@ -34016,7 +34025,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ160">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR160">
         <v>1.28</v>
@@ -34141,7 +34150,7 @@
         <v>180</v>
       </c>
       <c r="P161" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q161">
         <v>1.91</v>
@@ -34759,7 +34768,7 @@
         <v>182</v>
       </c>
       <c r="P164" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q164">
         <v>2.2</v>
@@ -34837,7 +34846,7 @@
         <v>1.27</v>
       </c>
       <c r="AP164">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ164">
         <v>1.25</v>
@@ -34915,6 +34924,418 @@
         <v>0</v>
       </c>
       <c r="BP164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7287173</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45579.63541666666</v>
+      </c>
+      <c r="F165">
+        <v>33</v>
+      </c>
+      <c r="G165" t="s">
+        <v>71</v>
+      </c>
+      <c r="H165" t="s">
+        <v>79</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>2</v>
+      </c>
+      <c r="O165" t="s">
+        <v>183</v>
+      </c>
+      <c r="P165" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q165">
+        <v>1.8</v>
+      </c>
+      <c r="R165">
+        <v>2.6</v>
+      </c>
+      <c r="S165">
+        <v>8</v>
+      </c>
+      <c r="T165">
+        <v>1.33</v>
+      </c>
+      <c r="U165">
+        <v>3.25</v>
+      </c>
+      <c r="V165">
+        <v>2.63</v>
+      </c>
+      <c r="W165">
+        <v>1.44</v>
+      </c>
+      <c r="X165">
+        <v>6.5</v>
+      </c>
+      <c r="Y165">
+        <v>1.11</v>
+      </c>
+      <c r="Z165">
+        <v>1.3</v>
+      </c>
+      <c r="AA165">
+        <v>4.33</v>
+      </c>
+      <c r="AB165">
+        <v>8.5</v>
+      </c>
+      <c r="AC165">
+        <v>1.04</v>
+      </c>
+      <c r="AD165">
+        <v>10</v>
+      </c>
+      <c r="AE165">
+        <v>1.22</v>
+      </c>
+      <c r="AF165">
+        <v>4</v>
+      </c>
+      <c r="AG165">
+        <v>1.65</v>
+      </c>
+      <c r="AH165">
+        <v>2.2</v>
+      </c>
+      <c r="AI165">
+        <v>2</v>
+      </c>
+      <c r="AJ165">
+        <v>1.75</v>
+      </c>
+      <c r="AK165">
+        <v>1.06</v>
+      </c>
+      <c r="AL165">
+        <v>1.14</v>
+      </c>
+      <c r="AM165">
+        <v>3</v>
+      </c>
+      <c r="AN165">
+        <v>2</v>
+      </c>
+      <c r="AO165">
+        <v>1</v>
+      </c>
+      <c r="AP165">
+        <v>1.94</v>
+      </c>
+      <c r="AQ165">
+        <v>1</v>
+      </c>
+      <c r="AR165">
+        <v>1.6</v>
+      </c>
+      <c r="AS165">
+        <v>1.02</v>
+      </c>
+      <c r="AT165">
+        <v>2.62</v>
+      </c>
+      <c r="AU165">
+        <v>7</v>
+      </c>
+      <c r="AV165">
+        <v>3</v>
+      </c>
+      <c r="AW165">
+        <v>9</v>
+      </c>
+      <c r="AX165">
+        <v>15</v>
+      </c>
+      <c r="AY165">
+        <v>16</v>
+      </c>
+      <c r="AZ165">
+        <v>18</v>
+      </c>
+      <c r="BA165">
+        <v>10</v>
+      </c>
+      <c r="BB165">
+        <v>5</v>
+      </c>
+      <c r="BC165">
+        <v>15</v>
+      </c>
+      <c r="BD165">
+        <v>1.12</v>
+      </c>
+      <c r="BE165">
+        <v>11.25</v>
+      </c>
+      <c r="BF165">
+        <v>8.9</v>
+      </c>
+      <c r="BG165">
+        <v>1.17</v>
+      </c>
+      <c r="BH165">
+        <v>3.75</v>
+      </c>
+      <c r="BI165">
+        <v>1.39</v>
+      </c>
+      <c r="BJ165">
+        <v>2.67</v>
+      </c>
+      <c r="BK165">
+        <v>2</v>
+      </c>
+      <c r="BL165">
+        <v>2.05</v>
+      </c>
+      <c r="BM165">
+        <v>2.12</v>
+      </c>
+      <c r="BN165">
+        <v>1.61</v>
+      </c>
+      <c r="BO165">
+        <v>2.73</v>
+      </c>
+      <c r="BP165">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7287172</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45579.65625</v>
+      </c>
+      <c r="F166">
+        <v>33</v>
+      </c>
+      <c r="G166" t="s">
+        <v>70</v>
+      </c>
+      <c r="H166" t="s">
+        <v>78</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>3</v>
+      </c>
+      <c r="N166">
+        <v>4</v>
+      </c>
+      <c r="O166" t="s">
+        <v>184</v>
+      </c>
+      <c r="P166" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q166">
+        <v>3.4</v>
+      </c>
+      <c r="R166">
+        <v>2.2</v>
+      </c>
+      <c r="S166">
+        <v>3</v>
+      </c>
+      <c r="T166">
+        <v>1.36</v>
+      </c>
+      <c r="U166">
+        <v>3</v>
+      </c>
+      <c r="V166">
+        <v>2.75</v>
+      </c>
+      <c r="W166">
+        <v>1.4</v>
+      </c>
+      <c r="X166">
+        <v>7</v>
+      </c>
+      <c r="Y166">
+        <v>1.1</v>
+      </c>
+      <c r="Z166">
+        <v>2.63</v>
+      </c>
+      <c r="AA166">
+        <v>3.3</v>
+      </c>
+      <c r="AB166">
+        <v>2.35</v>
+      </c>
+      <c r="AC166">
+        <v>0</v>
+      </c>
+      <c r="AD166">
+        <v>0</v>
+      </c>
+      <c r="AE166">
+        <v>0</v>
+      </c>
+      <c r="AF166">
+        <v>0</v>
+      </c>
+      <c r="AG166">
+        <v>1.8</v>
+      </c>
+      <c r="AH166">
+        <v>2</v>
+      </c>
+      <c r="AI166">
+        <v>1.67</v>
+      </c>
+      <c r="AJ166">
+        <v>2.1</v>
+      </c>
+      <c r="AK166">
+        <v>0</v>
+      </c>
+      <c r="AL166">
+        <v>0</v>
+      </c>
+      <c r="AM166">
+        <v>0</v>
+      </c>
+      <c r="AN166">
+        <v>1.06</v>
+      </c>
+      <c r="AO166">
+        <v>1.13</v>
+      </c>
+      <c r="AP166">
+        <v>1</v>
+      </c>
+      <c r="AQ166">
+        <v>1.24</v>
+      </c>
+      <c r="AR166">
+        <v>1.39</v>
+      </c>
+      <c r="AS166">
+        <v>1.24</v>
+      </c>
+      <c r="AT166">
+        <v>2.63</v>
+      </c>
+      <c r="AU166">
+        <v>8</v>
+      </c>
+      <c r="AV166">
+        <v>7</v>
+      </c>
+      <c r="AW166">
+        <v>7</v>
+      </c>
+      <c r="AX166">
+        <v>10</v>
+      </c>
+      <c r="AY166">
+        <v>15</v>
+      </c>
+      <c r="AZ166">
+        <v>17</v>
+      </c>
+      <c r="BA166">
+        <v>3</v>
+      </c>
+      <c r="BB166">
+        <v>6</v>
+      </c>
+      <c r="BC166">
+        <v>9</v>
+      </c>
+      <c r="BD166">
+        <v>0</v>
+      </c>
+      <c r="BE166">
+        <v>0</v>
+      </c>
+      <c r="BF166">
+        <v>0</v>
+      </c>
+      <c r="BG166">
+        <v>0</v>
+      </c>
+      <c r="BH166">
+        <v>0</v>
+      </c>
+      <c r="BI166">
+        <v>0</v>
+      </c>
+      <c r="BJ166">
+        <v>0</v>
+      </c>
+      <c r="BK166">
+        <v>2</v>
+      </c>
+      <c r="BL166">
+        <v>0</v>
+      </c>
+      <c r="BM166">
+        <v>0</v>
+      </c>
+      <c r="BN166">
+        <v>0</v>
+      </c>
+      <c r="BO166">
+        <v>0</v>
+      </c>
+      <c r="BP166">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -35067,22 +35067,22 @@
         <v>2.62</v>
       </c>
       <c r="AU165">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW165">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AX165">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AY165">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ165">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA165">
         <v>10</v>
@@ -35273,22 +35273,22 @@
         <v>2.63</v>
       </c>
       <c r="AU166">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV166">
         <v>7</v>
       </c>
       <c r="AW166">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX166">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AY166">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ166">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA166">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="257">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -571,6 +571,12 @@
     <t>['89']</t>
   </si>
   <si>
+    <t>['40', '80', '84']</t>
+  </si>
+  <si>
+    <t>['32', '69']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -776,6 +782,9 @@
   </si>
   <si>
     <t>['59', '76', '81']</t>
+  </si>
+  <si>
+    <t>['16', '77']</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP166"/>
+  <dimension ref="A1:BP170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1396,7 +1405,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1602,7 +1611,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -2014,7 +2023,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2426,7 +2435,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2504,10 +2513,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ7">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2632,7 +2641,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2710,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2838,7 +2847,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2916,10 +2925,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ9">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3122,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ10">
         <v>1.25</v>
@@ -3331,7 +3340,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ11">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3456,7 +3465,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3662,7 +3671,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3743,7 +3752,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ13">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR13">
         <v>0.97</v>
@@ -3868,7 +3877,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4152,7 +4161,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ15">
         <v>1.25</v>
@@ -4280,7 +4289,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4358,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4564,10 +4573,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ17">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR17">
         <v>1.23</v>
@@ -4692,7 +4701,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4898,7 +4907,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -4979,7 +4988,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ19">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR19">
         <v>1.24</v>
@@ -5182,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ20">
         <v>0.47</v>
@@ -5310,7 +5319,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5597,7 +5606,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ22">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR22">
         <v>1.39</v>
@@ -6009,7 +6018,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ24">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -6134,7 +6143,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6212,7 +6221,7 @@
         <v>2.33</v>
       </c>
       <c r="AP25">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ25">
         <v>1.59</v>
@@ -6421,7 +6430,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ26">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6624,10 +6633,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR27">
         <v>1.35</v>
@@ -6752,7 +6761,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6833,7 +6842,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -7245,7 +7254,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ30">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7448,7 +7457,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ31">
         <v>1.24</v>
@@ -7654,7 +7663,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ32">
         <v>0.47</v>
@@ -7782,7 +7791,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7988,7 +7997,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8272,7 +8281,7 @@
         <v>0.33</v>
       </c>
       <c r="AP35">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>0.47</v>
@@ -8400,7 +8409,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8481,7 +8490,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ36">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR36">
         <v>1.43</v>
@@ -8684,7 +8693,7 @@
         <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8890,10 +8899,10 @@
         <v>0.67</v>
       </c>
       <c r="AP38">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ38">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR38">
         <v>0.99</v>
@@ -9018,7 +9027,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9305,7 +9314,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR40">
         <v>1.04</v>
@@ -9430,7 +9439,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9636,7 +9645,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9714,7 +9723,7 @@
         <v>2.5</v>
       </c>
       <c r="AP42">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ42">
         <v>1.59</v>
@@ -9842,7 +9851,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9920,10 +9929,10 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ43">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR43">
         <v>1.58</v>
@@ -10048,7 +10057,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10126,7 +10135,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ44">
         <v>1.25</v>
@@ -10254,7 +10263,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10332,10 +10341,10 @@
         <v>0.75</v>
       </c>
       <c r="AP45">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ45">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR45">
         <v>1.32</v>
@@ -10538,7 +10547,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
         <v>1.24</v>
@@ -10747,7 +10756,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ47">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR47">
         <v>1.3</v>
@@ -11490,7 +11499,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11571,7 +11580,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ51">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR51">
         <v>1.37</v>
@@ -11696,7 +11705,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11980,10 +11989,10 @@
         <v>1.4</v>
       </c>
       <c r="AP53">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ53">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR53">
         <v>1.43</v>
@@ -12395,7 +12404,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ55">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR55">
         <v>1.35</v>
@@ -12804,10 +12813,10 @@
         <v>1.67</v>
       </c>
       <c r="AP57">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ57">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR57">
         <v>1</v>
@@ -13010,7 +13019,7 @@
         <v>1.4</v>
       </c>
       <c r="AP58">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13216,7 +13225,7 @@
         <v>1.8</v>
       </c>
       <c r="AP59">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
         <v>1.25</v>
@@ -13422,7 +13431,7 @@
         <v>0.83</v>
       </c>
       <c r="AP60">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ60">
         <v>1.24</v>
@@ -13550,7 +13559,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13631,7 +13640,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ61">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR61">
         <v>1.27</v>
@@ -13756,7 +13765,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13837,7 +13846,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ62">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR62">
         <v>1.75</v>
@@ -14249,7 +14258,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ64">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR64">
         <v>1.34</v>
@@ -14452,7 +14461,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ65">
         <v>0.47</v>
@@ -14658,7 +14667,7 @@
         <v>1.83</v>
       </c>
       <c r="AP66">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ66">
         <v>1.59</v>
@@ -14786,7 +14795,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14867,7 +14876,7 @@
         <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR67">
         <v>1.06</v>
@@ -14992,7 +15001,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15073,7 +15082,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ68">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR68">
         <v>1.34</v>
@@ -15198,7 +15207,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15276,7 +15285,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ69">
         <v>0.47</v>
@@ -15485,7 +15494,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR70">
         <v>1.06</v>
@@ -15610,7 +15619,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -15691,7 +15700,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ71">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR71">
         <v>1.85</v>
@@ -16228,7 +16237,7 @@
         <v>124</v>
       </c>
       <c r="P74" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16718,7 +16727,7 @@
         <v>0.29</v>
       </c>
       <c r="AP76">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ76">
         <v>0.47</v>
@@ -17052,7 +17061,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17336,10 +17345,10 @@
         <v>1.75</v>
       </c>
       <c r="AP79">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ79">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR79">
         <v>1.2</v>
@@ -17542,10 +17551,10 @@
         <v>1.14</v>
       </c>
       <c r="AP80">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ80">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR80">
         <v>1.43</v>
@@ -17670,7 +17679,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17876,7 +17885,7 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -17954,10 +17963,10 @@
         <v>1.71</v>
       </c>
       <c r="AP82">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ82">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR82">
         <v>1.34</v>
@@ -18160,10 +18169,10 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR83">
         <v>1.34</v>
@@ -18288,7 +18297,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18366,7 +18375,7 @@
         <v>1.63</v>
       </c>
       <c r="AP84">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ84">
         <v>1.59</v>
@@ -18575,7 +18584,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ85">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR85">
         <v>1.91</v>
@@ -18700,7 +18709,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18906,7 +18915,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19112,7 +19121,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -19524,7 +19533,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19936,7 +19945,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q92">
         <v>3.2</v>
@@ -20014,10 +20023,10 @@
         <v>1.88</v>
       </c>
       <c r="AP92">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ92">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR92">
         <v>1.44</v>
@@ -20142,7 +20151,7 @@
         <v>82</v>
       </c>
       <c r="P93" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q93">
         <v>5.5</v>
@@ -20220,10 +20229,10 @@
         <v>1.33</v>
       </c>
       <c r="AP93">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ93">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR93">
         <v>1.39</v>
@@ -20426,10 +20435,10 @@
         <v>1.22</v>
       </c>
       <c r="AP94">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ94">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR94">
         <v>1.35</v>
@@ -20554,7 +20563,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20632,7 +20641,7 @@
         <v>1.13</v>
       </c>
       <c r="AP95">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ95">
         <v>1</v>
@@ -20760,7 +20769,7 @@
         <v>139</v>
       </c>
       <c r="P96" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20966,7 +20975,7 @@
         <v>140</v>
       </c>
       <c r="P97" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21044,7 +21053,7 @@
         <v>0.22</v>
       </c>
       <c r="AP97">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ97">
         <v>0.47</v>
@@ -21253,7 +21262,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ98">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR98">
         <v>1.5</v>
@@ -21378,7 +21387,7 @@
         <v>142</v>
       </c>
       <c r="P99" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q99">
         <v>2.75</v>
@@ -21662,7 +21671,7 @@
         <v>0.7</v>
       </c>
       <c r="AP100">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ100">
         <v>1.24</v>
@@ -21871,7 +21880,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ101">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR101">
         <v>1.5</v>
@@ -22074,7 +22083,7 @@
         <v>0.5</v>
       </c>
       <c r="AP102">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ102">
         <v>0.47</v>
@@ -22202,7 +22211,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22283,7 +22292,7 @@
         <v>1</v>
       </c>
       <c r="AQ103">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR103">
         <v>1.19</v>
@@ -22486,7 +22495,7 @@
         <v>1.2</v>
       </c>
       <c r="AP104">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ104">
         <v>1</v>
@@ -22820,7 +22829,7 @@
         <v>146</v>
       </c>
       <c r="P106" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -22898,10 +22907,10 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ106">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR106">
         <v>1.36</v>
@@ -23026,7 +23035,7 @@
         <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23313,7 +23322,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ108">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR108">
         <v>1.25</v>
@@ -23516,7 +23525,7 @@
         <v>1.33</v>
       </c>
       <c r="AP109">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ109">
         <v>1.25</v>
@@ -23722,10 +23731,10 @@
         <v>1.4</v>
       </c>
       <c r="AP110">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ110">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR110">
         <v>1.32</v>
@@ -23928,10 +23937,10 @@
         <v>1.5</v>
       </c>
       <c r="AP111">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ111">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR111">
         <v>1.37</v>
@@ -24262,7 +24271,7 @@
         <v>117</v>
       </c>
       <c r="P113" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -24340,7 +24349,7 @@
         <v>2</v>
       </c>
       <c r="AP113">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ113">
         <v>1.59</v>
@@ -24468,7 +24477,7 @@
         <v>150</v>
       </c>
       <c r="P114" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24755,7 +24764,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ115">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR115">
         <v>1.33</v>
@@ -25373,7 +25382,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ118">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR118">
         <v>1.38</v>
@@ -25498,7 +25507,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25576,7 +25585,7 @@
         <v>0.25</v>
       </c>
       <c r="AP119">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ119">
         <v>0.47</v>
@@ -25704,7 +25713,7 @@
         <v>82</v>
       </c>
       <c r="P120" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25910,7 +25919,7 @@
         <v>155</v>
       </c>
       <c r="P121" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -26194,10 +26203,10 @@
         <v>1.42</v>
       </c>
       <c r="AP122">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ122">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR122">
         <v>1.39</v>
@@ -26403,7 +26412,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ123">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR123">
         <v>1.31</v>
@@ -26528,7 +26537,7 @@
         <v>152</v>
       </c>
       <c r="P124" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26609,7 +26618,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ124">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR124">
         <v>1.28</v>
@@ -26734,7 +26743,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26812,7 +26821,7 @@
         <v>1.27</v>
       </c>
       <c r="AP125">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ125">
         <v>1.25</v>
@@ -26940,7 +26949,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27018,10 +27027,10 @@
         <v>1.25</v>
       </c>
       <c r="AP126">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ126">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR126">
         <v>1.36</v>
@@ -27146,7 +27155,7 @@
         <v>159</v>
       </c>
       <c r="P127" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27224,7 +27233,7 @@
         <v>1.25</v>
       </c>
       <c r="AP127">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ127">
         <v>1</v>
@@ -27430,10 +27439,10 @@
         <v>1.25</v>
       </c>
       <c r="AP128">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ128">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR128">
         <v>1.33</v>
@@ -27558,7 +27567,7 @@
         <v>160</v>
       </c>
       <c r="P129" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q129">
         <v>2.38</v>
@@ -27639,7 +27648,7 @@
         <v>1</v>
       </c>
       <c r="AQ129">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR129">
         <v>1.33</v>
@@ -27764,7 +27773,7 @@
         <v>100</v>
       </c>
       <c r="P130" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q130">
         <v>1.73</v>
@@ -27970,7 +27979,7 @@
         <v>161</v>
       </c>
       <c r="P131" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -28176,7 +28185,7 @@
         <v>144</v>
       </c>
       <c r="P132" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28382,7 +28391,7 @@
         <v>162</v>
       </c>
       <c r="P133" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q133">
         <v>1.83</v>
@@ -28666,7 +28675,7 @@
         <v>1.15</v>
       </c>
       <c r="AP134">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ134">
         <v>1</v>
@@ -28794,7 +28803,7 @@
         <v>164</v>
       </c>
       <c r="P135" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -28872,7 +28881,7 @@
         <v>1.25</v>
       </c>
       <c r="AP135">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ135">
         <v>1.25</v>
@@ -29081,7 +29090,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ136">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR136">
         <v>1.28</v>
@@ -29206,7 +29215,7 @@
         <v>165</v>
       </c>
       <c r="P137" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29287,7 +29296,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ137">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR137">
         <v>1.78</v>
@@ -29493,7 +29502,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ138">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR138">
         <v>1.38</v>
@@ -29618,7 +29627,7 @@
         <v>82</v>
       </c>
       <c r="P139" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -29696,7 +29705,7 @@
         <v>1.77</v>
       </c>
       <c r="AP139">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ139">
         <v>1.59</v>
@@ -29905,7 +29914,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ140">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR140">
         <v>1.27</v>
@@ -30111,7 +30120,7 @@
         <v>1</v>
       </c>
       <c r="AQ141">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR141">
         <v>1.36</v>
@@ -30236,7 +30245,7 @@
         <v>169</v>
       </c>
       <c r="P142" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q142">
         <v>2.5</v>
@@ -30314,7 +30323,7 @@
         <v>0.29</v>
       </c>
       <c r="AP142">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ142">
         <v>0.47</v>
@@ -30442,7 +30451,7 @@
         <v>170</v>
       </c>
       <c r="P143" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q143">
         <v>4.33</v>
@@ -30520,7 +30529,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP143">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ143">
         <v>1.24</v>
@@ -31266,7 +31275,7 @@
         <v>174</v>
       </c>
       <c r="P147" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31347,7 +31356,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ147">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR147">
         <v>1.35</v>
@@ -31756,10 +31765,10 @@
         <v>1.33</v>
       </c>
       <c r="AP149">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ149">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR149">
         <v>1.48</v>
@@ -31965,7 +31974,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ150">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR150">
         <v>1.6</v>
@@ -32090,7 +32099,7 @@
         <v>82</v>
       </c>
       <c r="P151" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q151">
         <v>2.5</v>
@@ -32786,10 +32795,10 @@
         <v>1.36</v>
       </c>
       <c r="AP154">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ154">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR154">
         <v>1.5</v>
@@ -32992,10 +33001,10 @@
         <v>1.27</v>
       </c>
       <c r="AP155">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ155">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR155">
         <v>1.45</v>
@@ -33120,7 +33129,7 @@
         <v>82</v>
       </c>
       <c r="P156" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q156">
         <v>3.6</v>
@@ -33198,7 +33207,7 @@
         <v>1.14</v>
       </c>
       <c r="AP156">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ156">
         <v>1.25</v>
@@ -33404,7 +33413,7 @@
         <v>1</v>
       </c>
       <c r="AP157">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ157">
         <v>1</v>
@@ -33532,7 +33541,7 @@
         <v>131</v>
       </c>
       <c r="P158" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -33613,7 +33622,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ158">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR158">
         <v>1.25</v>
@@ -33738,7 +33747,7 @@
         <v>82</v>
       </c>
       <c r="P159" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q159">
         <v>2.3</v>
@@ -33944,7 +33953,7 @@
         <v>179</v>
       </c>
       <c r="P160" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q160">
         <v>3.4</v>
@@ -34022,7 +34031,7 @@
         <v>1</v>
       </c>
       <c r="AP160">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ160">
         <v>1.24</v>
@@ -34150,7 +34159,7 @@
         <v>180</v>
       </c>
       <c r="P161" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q161">
         <v>1.91</v>
@@ -34768,7 +34777,7 @@
         <v>182</v>
       </c>
       <c r="P164" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q164">
         <v>2.2</v>
@@ -34974,7 +34983,7 @@
         <v>183</v>
       </c>
       <c r="P165" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q165">
         <v>1.8</v>
@@ -35180,7 +35189,7 @@
         <v>184</v>
       </c>
       <c r="P166" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35336,6 +35345,830 @@
         <v>0</v>
       </c>
       <c r="BP166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7287177</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45583.65625</v>
+      </c>
+      <c r="F167">
+        <v>34</v>
+      </c>
+      <c r="G167" t="s">
+        <v>75</v>
+      </c>
+      <c r="H167" t="s">
+        <v>74</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>1</v>
+      </c>
+      <c r="O167" t="s">
+        <v>82</v>
+      </c>
+      <c r="P167" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q167">
+        <v>5</v>
+      </c>
+      <c r="R167">
+        <v>2.25</v>
+      </c>
+      <c r="S167">
+        <v>2.3</v>
+      </c>
+      <c r="T167">
+        <v>1.37</v>
+      </c>
+      <c r="U167">
+        <v>2.9</v>
+      </c>
+      <c r="V167">
+        <v>2.65</v>
+      </c>
+      <c r="W167">
+        <v>1.43</v>
+      </c>
+      <c r="X167">
+        <v>6.5</v>
+      </c>
+      <c r="Y167">
+        <v>1.08</v>
+      </c>
+      <c r="Z167">
+        <v>4.1</v>
+      </c>
+      <c r="AA167">
+        <v>3.6</v>
+      </c>
+      <c r="AB167">
+        <v>1.7</v>
+      </c>
+      <c r="AC167">
+        <v>1.05</v>
+      </c>
+      <c r="AD167">
+        <v>9.5</v>
+      </c>
+      <c r="AE167">
+        <v>1.25</v>
+      </c>
+      <c r="AF167">
+        <v>3.6</v>
+      </c>
+      <c r="AG167">
+        <v>1.88</v>
+      </c>
+      <c r="AH167">
+        <v>1.98</v>
+      </c>
+      <c r="AI167">
+        <v>1.8</v>
+      </c>
+      <c r="AJ167">
+        <v>1.95</v>
+      </c>
+      <c r="AK167">
+        <v>2.05</v>
+      </c>
+      <c r="AL167">
+        <v>1.2</v>
+      </c>
+      <c r="AM167">
+        <v>1.16</v>
+      </c>
+      <c r="AN167">
+        <v>1.56</v>
+      </c>
+      <c r="AO167">
+        <v>1.38</v>
+      </c>
+      <c r="AP167">
+        <v>1.47</v>
+      </c>
+      <c r="AQ167">
+        <v>1.47</v>
+      </c>
+      <c r="AR167">
+        <v>1.43</v>
+      </c>
+      <c r="AS167">
+        <v>1.43</v>
+      </c>
+      <c r="AT167">
+        <v>2.86</v>
+      </c>
+      <c r="AU167">
+        <v>3</v>
+      </c>
+      <c r="AV167">
+        <v>6</v>
+      </c>
+      <c r="AW167">
+        <v>2</v>
+      </c>
+      <c r="AX167">
+        <v>5</v>
+      </c>
+      <c r="AY167">
+        <v>6</v>
+      </c>
+      <c r="AZ167">
+        <v>17</v>
+      </c>
+      <c r="BA167">
+        <v>7</v>
+      </c>
+      <c r="BB167">
+        <v>8</v>
+      </c>
+      <c r="BC167">
+        <v>15</v>
+      </c>
+      <c r="BD167">
+        <v>0</v>
+      </c>
+      <c r="BE167">
+        <v>0</v>
+      </c>
+      <c r="BF167">
+        <v>0</v>
+      </c>
+      <c r="BG167">
+        <v>0</v>
+      </c>
+      <c r="BH167">
+        <v>0</v>
+      </c>
+      <c r="BI167">
+        <v>0</v>
+      </c>
+      <c r="BJ167">
+        <v>0</v>
+      </c>
+      <c r="BK167">
+        <v>2.25</v>
+      </c>
+      <c r="BL167">
+        <v>0</v>
+      </c>
+      <c r="BM167">
+        <v>0</v>
+      </c>
+      <c r="BN167">
+        <v>0</v>
+      </c>
+      <c r="BO167">
+        <v>0</v>
+      </c>
+      <c r="BP167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7287178</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45583.65625</v>
+      </c>
+      <c r="F168">
+        <v>34</v>
+      </c>
+      <c r="G168" t="s">
+        <v>76</v>
+      </c>
+      <c r="H168" t="s">
+        <v>71</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>2</v>
+      </c>
+      <c r="N168">
+        <v>2</v>
+      </c>
+      <c r="O168" t="s">
+        <v>82</v>
+      </c>
+      <c r="P168" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q168">
+        <v>6</v>
+      </c>
+      <c r="R168">
+        <v>2.2</v>
+      </c>
+      <c r="S168">
+        <v>2.2</v>
+      </c>
+      <c r="T168">
+        <v>1.4</v>
+      </c>
+      <c r="U168">
+        <v>2.75</v>
+      </c>
+      <c r="V168">
+        <v>2.75</v>
+      </c>
+      <c r="W168">
+        <v>1.4</v>
+      </c>
+      <c r="X168">
+        <v>8</v>
+      </c>
+      <c r="Y168">
+        <v>1.08</v>
+      </c>
+      <c r="Z168">
+        <v>5.25</v>
+      </c>
+      <c r="AA168">
+        <v>3.8</v>
+      </c>
+      <c r="AB168">
+        <v>1.55</v>
+      </c>
+      <c r="AC168">
+        <v>0</v>
+      </c>
+      <c r="AD168">
+        <v>0</v>
+      </c>
+      <c r="AE168">
+        <v>0</v>
+      </c>
+      <c r="AF168">
+        <v>0</v>
+      </c>
+      <c r="AG168">
+        <v>1.98</v>
+      </c>
+      <c r="AH168">
+        <v>1.88</v>
+      </c>
+      <c r="AI168">
+        <v>2</v>
+      </c>
+      <c r="AJ168">
+        <v>1.75</v>
+      </c>
+      <c r="AK168">
+        <v>0</v>
+      </c>
+      <c r="AL168">
+        <v>0</v>
+      </c>
+      <c r="AM168">
+        <v>0</v>
+      </c>
+      <c r="AN168">
+        <v>1.06</v>
+      </c>
+      <c r="AO168">
+        <v>1.19</v>
+      </c>
+      <c r="AP168">
+        <v>1</v>
+      </c>
+      <c r="AQ168">
+        <v>1.29</v>
+      </c>
+      <c r="AR168">
+        <v>1.37</v>
+      </c>
+      <c r="AS168">
+        <v>1.32</v>
+      </c>
+      <c r="AT168">
+        <v>2.69</v>
+      </c>
+      <c r="AU168">
+        <v>4</v>
+      </c>
+      <c r="AV168">
+        <v>6</v>
+      </c>
+      <c r="AW168">
+        <v>7</v>
+      </c>
+      <c r="AX168">
+        <v>4</v>
+      </c>
+      <c r="AY168">
+        <v>14</v>
+      </c>
+      <c r="AZ168">
+        <v>15</v>
+      </c>
+      <c r="BA168">
+        <v>1</v>
+      </c>
+      <c r="BB168">
+        <v>5</v>
+      </c>
+      <c r="BC168">
+        <v>6</v>
+      </c>
+      <c r="BD168">
+        <v>0</v>
+      </c>
+      <c r="BE168">
+        <v>0</v>
+      </c>
+      <c r="BF168">
+        <v>0</v>
+      </c>
+      <c r="BG168">
+        <v>0</v>
+      </c>
+      <c r="BH168">
+        <v>0</v>
+      </c>
+      <c r="BI168">
+        <v>0</v>
+      </c>
+      <c r="BJ168">
+        <v>0</v>
+      </c>
+      <c r="BK168">
+        <v>0</v>
+      </c>
+      <c r="BL168">
+        <v>0</v>
+      </c>
+      <c r="BM168">
+        <v>0</v>
+      </c>
+      <c r="BN168">
+        <v>0</v>
+      </c>
+      <c r="BO168">
+        <v>0</v>
+      </c>
+      <c r="BP168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7287179</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45583.65625</v>
+      </c>
+      <c r="F169">
+        <v>34</v>
+      </c>
+      <c r="G169" t="s">
+        <v>77</v>
+      </c>
+      <c r="H169" t="s">
+        <v>73</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
+      <c r="L169">
+        <v>3</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>4</v>
+      </c>
+      <c r="O169" t="s">
+        <v>185</v>
+      </c>
+      <c r="P169" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q169">
+        <v>2.38</v>
+      </c>
+      <c r="R169">
+        <v>2.1</v>
+      </c>
+      <c r="S169">
+        <v>5.5</v>
+      </c>
+      <c r="T169">
+        <v>1.45</v>
+      </c>
+      <c r="U169">
+        <v>2.55</v>
+      </c>
+      <c r="V169">
+        <v>3</v>
+      </c>
+      <c r="W169">
+        <v>1.33</v>
+      </c>
+      <c r="X169">
+        <v>7.8</v>
+      </c>
+      <c r="Y169">
+        <v>1.05</v>
+      </c>
+      <c r="Z169">
+        <v>1.85</v>
+      </c>
+      <c r="AA169">
+        <v>3.2</v>
+      </c>
+      <c r="AB169">
+        <v>3.9</v>
+      </c>
+      <c r="AC169">
+        <v>1.07</v>
+      </c>
+      <c r="AD169">
+        <v>8</v>
+      </c>
+      <c r="AE169">
+        <v>1.38</v>
+      </c>
+      <c r="AF169">
+        <v>3</v>
+      </c>
+      <c r="AG169">
+        <v>1.95</v>
+      </c>
+      <c r="AH169">
+        <v>1.79</v>
+      </c>
+      <c r="AI169">
+        <v>2.1</v>
+      </c>
+      <c r="AJ169">
+        <v>1.67</v>
+      </c>
+      <c r="AK169">
+        <v>1.22</v>
+      </c>
+      <c r="AL169">
+        <v>1.25</v>
+      </c>
+      <c r="AM169">
+        <v>1.85</v>
+      </c>
+      <c r="AN169">
+        <v>1.69</v>
+      </c>
+      <c r="AO169">
+        <v>1.25</v>
+      </c>
+      <c r="AP169">
+        <v>1.76</v>
+      </c>
+      <c r="AQ169">
+        <v>1.18</v>
+      </c>
+      <c r="AR169">
+        <v>1.29</v>
+      </c>
+      <c r="AS169">
+        <v>1.13</v>
+      </c>
+      <c r="AT169">
+        <v>2.42</v>
+      </c>
+      <c r="AU169">
+        <v>7</v>
+      </c>
+      <c r="AV169">
+        <v>4</v>
+      </c>
+      <c r="AW169">
+        <v>7</v>
+      </c>
+      <c r="AX169">
+        <v>4</v>
+      </c>
+      <c r="AY169">
+        <v>17</v>
+      </c>
+      <c r="AZ169">
+        <v>10</v>
+      </c>
+      <c r="BA169">
+        <v>5</v>
+      </c>
+      <c r="BB169">
+        <v>1</v>
+      </c>
+      <c r="BC169">
+        <v>6</v>
+      </c>
+      <c r="BD169">
+        <v>0</v>
+      </c>
+      <c r="BE169">
+        <v>0</v>
+      </c>
+      <c r="BF169">
+        <v>0</v>
+      </c>
+      <c r="BG169">
+        <v>0</v>
+      </c>
+      <c r="BH169">
+        <v>0</v>
+      </c>
+      <c r="BI169">
+        <v>0</v>
+      </c>
+      <c r="BJ169">
+        <v>0</v>
+      </c>
+      <c r="BK169">
+        <v>0</v>
+      </c>
+      <c r="BL169">
+        <v>0</v>
+      </c>
+      <c r="BM169">
+        <v>0</v>
+      </c>
+      <c r="BN169">
+        <v>0</v>
+      </c>
+      <c r="BO169">
+        <v>0</v>
+      </c>
+      <c r="BP169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7287180</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45583.65625</v>
+      </c>
+      <c r="F170">
+        <v>34</v>
+      </c>
+      <c r="G170" t="s">
+        <v>78</v>
+      </c>
+      <c r="H170" t="s">
+        <v>72</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>2</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>3</v>
+      </c>
+      <c r="O170" t="s">
+        <v>186</v>
+      </c>
+      <c r="P170" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q170">
+        <v>2.6</v>
+      </c>
+      <c r="R170">
+        <v>2.1</v>
+      </c>
+      <c r="S170">
+        <v>4.5</v>
+      </c>
+      <c r="T170">
+        <v>1.44</v>
+      </c>
+      <c r="U170">
+        <v>2.63</v>
+      </c>
+      <c r="V170">
+        <v>3.25</v>
+      </c>
+      <c r="W170">
+        <v>1.33</v>
+      </c>
+      <c r="X170">
+        <v>10</v>
+      </c>
+      <c r="Y170">
+        <v>1.06</v>
+      </c>
+      <c r="Z170">
+        <v>2.38</v>
+      </c>
+      <c r="AA170">
+        <v>3.2</v>
+      </c>
+      <c r="AB170">
+        <v>2.8</v>
+      </c>
+      <c r="AC170">
+        <v>0</v>
+      </c>
+      <c r="AD170">
+        <v>0</v>
+      </c>
+      <c r="AE170">
+        <v>0</v>
+      </c>
+      <c r="AF170">
+        <v>0</v>
+      </c>
+      <c r="AG170">
+        <v>2.08</v>
+      </c>
+      <c r="AH170">
+        <v>1.67</v>
+      </c>
+      <c r="AI170">
+        <v>1.91</v>
+      </c>
+      <c r="AJ170">
+        <v>1.91</v>
+      </c>
+      <c r="AK170">
+        <v>0</v>
+      </c>
+      <c r="AL170">
+        <v>0</v>
+      </c>
+      <c r="AM170">
+        <v>0</v>
+      </c>
+      <c r="AN170">
+        <v>1.81</v>
+      </c>
+      <c r="AO170">
+        <v>1.44</v>
+      </c>
+      <c r="AP170">
+        <v>1.88</v>
+      </c>
+      <c r="AQ170">
+        <v>1.35</v>
+      </c>
+      <c r="AR170">
+        <v>1.51</v>
+      </c>
+      <c r="AS170">
+        <v>1.22</v>
+      </c>
+      <c r="AT170">
+        <v>2.73</v>
+      </c>
+      <c r="AU170">
+        <v>5</v>
+      </c>
+      <c r="AV170">
+        <v>4</v>
+      </c>
+      <c r="AW170">
+        <v>5</v>
+      </c>
+      <c r="AX170">
+        <v>4</v>
+      </c>
+      <c r="AY170">
+        <v>14</v>
+      </c>
+      <c r="AZ170">
+        <v>12</v>
+      </c>
+      <c r="BA170">
+        <v>3</v>
+      </c>
+      <c r="BB170">
+        <v>7</v>
+      </c>
+      <c r="BC170">
+        <v>10</v>
+      </c>
+      <c r="BD170">
+        <v>0</v>
+      </c>
+      <c r="BE170">
+        <v>0</v>
+      </c>
+      <c r="BF170">
+        <v>0</v>
+      </c>
+      <c r="BG170">
+        <v>0</v>
+      </c>
+      <c r="BH170">
+        <v>0</v>
+      </c>
+      <c r="BI170">
+        <v>0</v>
+      </c>
+      <c r="BJ170">
+        <v>0</v>
+      </c>
+      <c r="BK170">
+        <v>2.38</v>
+      </c>
+      <c r="BL170">
+        <v>0</v>
+      </c>
+      <c r="BM170">
+        <v>0</v>
+      </c>
+      <c r="BN170">
+        <v>0</v>
+      </c>
+      <c r="BO170">
+        <v>0</v>
+      </c>
+      <c r="BP170">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="258">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -786,6 +786,9 @@
   <si>
     <t>['16', '77']</t>
   </si>
+  <si>
+    <t>['24', '82']</t>
+  </si>
 </sst>
 </file>
 
@@ -1146,7 +1149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP170"/>
+  <dimension ref="A1:BP171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3134,7 +3137,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ10">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3337,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ11">
         <v>1.29</v>
@@ -3543,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ12">
         <v>1.59</v>
@@ -4164,7 +4167,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ15">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR15">
         <v>1.32</v>
@@ -6015,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ24">
         <v>1.47</v>
@@ -7045,7 +7048,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ29">
         <v>0.47</v>
@@ -8078,7 +8081,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ34">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR34">
         <v>1.27</v>
@@ -9108,7 +9111,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ39">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR39">
         <v>1.28</v>
@@ -10138,7 +10141,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ44">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR44">
         <v>0.87</v>
@@ -11783,7 +11786,7 @@
         <v>0.2</v>
       </c>
       <c r="AP52">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ52">
         <v>0.47</v>
@@ -12401,7 +12404,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ55">
         <v>1.35</v>
@@ -13228,7 +13231,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR59">
         <v>1.21</v>
@@ -15079,7 +15082,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ68">
         <v>1.18</v>
@@ -15903,7 +15906,7 @@
         <v>0.71</v>
       </c>
       <c r="AP72">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ72">
         <v>1.24</v>
@@ -16936,7 +16939,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ77">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR77">
         <v>1.34</v>
@@ -17757,10 +17760,10 @@
         <v>1.29</v>
       </c>
       <c r="AP81">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ81">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR81">
         <v>1.3</v>
@@ -19820,7 +19823,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ91">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR91">
         <v>1.23</v>
@@ -20847,7 +20850,7 @@
         <v>0.33</v>
       </c>
       <c r="AP96">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ96">
         <v>0.47</v>
@@ -23319,7 +23322,7 @@
         <v>1.36</v>
       </c>
       <c r="AP108">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ108">
         <v>1.47</v>
@@ -23528,7 +23531,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ109">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR109">
         <v>1.37</v>
@@ -24558,7 +24561,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ114">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR114">
         <v>1.34</v>
@@ -24761,7 +24764,7 @@
         <v>1.36</v>
       </c>
       <c r="AP115">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ115">
         <v>1.29</v>
@@ -26409,7 +26412,7 @@
         <v>1.36</v>
       </c>
       <c r="AP123">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ123">
         <v>1.35</v>
@@ -26824,7 +26827,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ125">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR125">
         <v>1.39</v>
@@ -28057,7 +28060,7 @@
         <v>1.92</v>
       </c>
       <c r="AP131">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ131">
         <v>1.59</v>
@@ -28884,7 +28887,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ135">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR135">
         <v>1.29</v>
@@ -29911,7 +29914,7 @@
         <v>1.43</v>
       </c>
       <c r="AP140">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ140">
         <v>1.18</v>
@@ -32383,7 +32386,7 @@
         <v>0.47</v>
       </c>
       <c r="AP152">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ152">
         <v>0.47</v>
@@ -32592,7 +32595,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ153">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR153">
         <v>1.82</v>
@@ -33210,7 +33213,7 @@
         <v>1</v>
       </c>
       <c r="AQ156">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR156">
         <v>1.35</v>
@@ -34858,7 +34861,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ164">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR164">
         <v>1.59</v>
@@ -36170,6 +36173,212 @@
       </c>
       <c r="BP170">
         <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7287181</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45584.65625</v>
+      </c>
+      <c r="F171">
+        <v>34</v>
+      </c>
+      <c r="G171" t="s">
+        <v>79</v>
+      </c>
+      <c r="H171" t="s">
+        <v>70</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>2</v>
+      </c>
+      <c r="N171">
+        <v>2</v>
+      </c>
+      <c r="O171" t="s">
+        <v>82</v>
+      </c>
+      <c r="P171" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q171">
+        <v>3.2</v>
+      </c>
+      <c r="R171">
+        <v>2.2</v>
+      </c>
+      <c r="S171">
+        <v>3.2</v>
+      </c>
+      <c r="T171">
+        <v>1.4</v>
+      </c>
+      <c r="U171">
+        <v>2.75</v>
+      </c>
+      <c r="V171">
+        <v>2.75</v>
+      </c>
+      <c r="W171">
+        <v>1.4</v>
+      </c>
+      <c r="X171">
+        <v>8</v>
+      </c>
+      <c r="Y171">
+        <v>1.08</v>
+      </c>
+      <c r="Z171">
+        <v>2.7</v>
+      </c>
+      <c r="AA171">
+        <v>3.25</v>
+      </c>
+      <c r="AB171">
+        <v>2.37</v>
+      </c>
+      <c r="AC171">
+        <v>1.05</v>
+      </c>
+      <c r="AD171">
+        <v>9.5</v>
+      </c>
+      <c r="AE171">
+        <v>1.25</v>
+      </c>
+      <c r="AF171">
+        <v>3.75</v>
+      </c>
+      <c r="AG171">
+        <v>1.85</v>
+      </c>
+      <c r="AH171">
+        <v>1.85</v>
+      </c>
+      <c r="AI171">
+        <v>1.67</v>
+      </c>
+      <c r="AJ171">
+        <v>2.1</v>
+      </c>
+      <c r="AK171">
+        <v>1.52</v>
+      </c>
+      <c r="AL171">
+        <v>1.25</v>
+      </c>
+      <c r="AM171">
+        <v>1.47</v>
+      </c>
+      <c r="AN171">
+        <v>1.94</v>
+      </c>
+      <c r="AO171">
+        <v>1.25</v>
+      </c>
+      <c r="AP171">
+        <v>1.82</v>
+      </c>
+      <c r="AQ171">
+        <v>1.35</v>
+      </c>
+      <c r="AR171">
+        <v>1.36</v>
+      </c>
+      <c r="AS171">
+        <v>1.21</v>
+      </c>
+      <c r="AT171">
+        <v>2.57</v>
+      </c>
+      <c r="AU171">
+        <v>4</v>
+      </c>
+      <c r="AV171">
+        <v>5</v>
+      </c>
+      <c r="AW171">
+        <v>7</v>
+      </c>
+      <c r="AX171">
+        <v>3</v>
+      </c>
+      <c r="AY171">
+        <v>14</v>
+      </c>
+      <c r="AZ171">
+        <v>10</v>
+      </c>
+      <c r="BA171">
+        <v>5</v>
+      </c>
+      <c r="BB171">
+        <v>3</v>
+      </c>
+      <c r="BC171">
+        <v>8</v>
+      </c>
+      <c r="BD171">
+        <v>1.95</v>
+      </c>
+      <c r="BE171">
+        <v>8</v>
+      </c>
+      <c r="BF171">
+        <v>2.05</v>
+      </c>
+      <c r="BG171">
+        <v>1.18</v>
+      </c>
+      <c r="BH171">
+        <v>4</v>
+      </c>
+      <c r="BI171">
+        <v>1.33</v>
+      </c>
+      <c r="BJ171">
+        <v>2.73</v>
+      </c>
+      <c r="BK171">
+        <v>2.2</v>
+      </c>
+      <c r="BL171">
+        <v>2</v>
+      </c>
+      <c r="BM171">
+        <v>2.09</v>
+      </c>
+      <c r="BN171">
+        <v>1.69</v>
+      </c>
+      <c r="BO171">
+        <v>2.67</v>
+      </c>
+      <c r="BP171">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -382,10 +382,13 @@
     <t>['55', '90+4']</t>
   </si>
   <si>
-    <t>['10']</t>
+    <t>['8']</t>
   </si>
   <si>
-    <t>['26']</t>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['56']</t>
   </si>
   <si>
     <t>['4', '60']</t>
@@ -664,13 +667,10 @@
     <t>['46']</t>
   </si>
   <si>
-    <t>['9', '15', '51']</t>
+    <t>['3', '17', '54']</t>
   </si>
   <si>
     <t>['23', '64']</t>
-  </si>
-  <si>
-    <t>['22']</t>
   </si>
   <si>
     <t>['2', '35', '61']</t>
@@ -715,6 +715,9 @@
     <t>['32']</t>
   </si>
   <si>
+    <t>['26']</t>
+  </si>
+  <si>
     <t>['20']</t>
   </si>
   <si>
@@ -743,9 +746,6 @@
   </si>
   <si>
     <t>['21']</t>
-  </si>
-  <si>
-    <t>['56']</t>
   </si>
   <si>
     <t>['37']</t>
@@ -1408,7 +1408,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1614,7 +1614,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -2026,7 +2026,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2438,7 +2438,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2644,7 +2644,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2850,7 +2850,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3056,7 +3056,7 @@
         <v>82</v>
       </c>
       <c r="P10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q10">
         <v>2.88</v>
@@ -3468,7 +3468,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3674,7 +3674,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3880,7 +3880,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4292,7 +4292,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4704,7 +4704,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4910,7 +4910,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -5322,7 +5322,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -6146,7 +6146,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6764,7 +6764,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6970,7 +6970,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -7176,7 +7176,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q30">
         <v>2.4</v>
@@ -7588,7 +7588,7 @@
         <v>98</v>
       </c>
       <c r="P32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7794,7 +7794,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -8000,7 +8000,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8412,7 +8412,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -9030,7 +9030,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9236,7 +9236,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9442,7 +9442,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9648,7 +9648,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9854,7 +9854,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -10060,7 +10060,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10266,7 +10266,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -11502,7 +11502,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11708,7 +11708,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12532,7 +12532,7 @@
         <v>113</v>
       </c>
       <c r="P56" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q56">
         <v>2.4</v>
@@ -12944,7 +12944,7 @@
         <v>114</v>
       </c>
       <c r="P58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13562,7 +13562,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13768,7 +13768,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14798,7 +14798,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -15004,7 +15004,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15210,7 +15210,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15416,7 +15416,7 @@
         <v>82</v>
       </c>
       <c r="P70" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15622,7 +15622,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -16031,10 +16031,10 @@
         <v>2</v>
       </c>
       <c r="O73" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="P73" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="Q73">
         <v>2.63</v>
@@ -16237,10 +16237,10 @@
         <v>4</v>
       </c>
       <c r="O74" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P74" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16649,7 +16649,7 @@
         <v>2</v>
       </c>
       <c r="O76" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P76" t="s">
         <v>83</v>
@@ -16855,7 +16855,7 @@
         <v>1</v>
       </c>
       <c r="O77" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P77" t="s">
         <v>82</v>
@@ -17061,10 +17061,10 @@
         <v>5</v>
       </c>
       <c r="O78" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17267,7 +17267,7 @@
         <v>1</v>
       </c>
       <c r="O79" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P79" t="s">
         <v>82</v>
@@ -17476,7 +17476,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q80">
         <v>3.75</v>
@@ -17885,7 +17885,7 @@
         <v>5</v>
       </c>
       <c r="O82" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P82" t="s">
         <v>220</v>
@@ -18091,7 +18091,7 @@
         <v>1</v>
       </c>
       <c r="O83" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P83" t="s">
         <v>82</v>
@@ -18297,7 +18297,7 @@
         <v>3</v>
       </c>
       <c r="O84" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P84" t="s">
         <v>221</v>
@@ -18503,7 +18503,7 @@
         <v>1</v>
       </c>
       <c r="O85" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P85" t="s">
         <v>82</v>
@@ -18709,7 +18709,7 @@
         <v>6</v>
       </c>
       <c r="O86" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P86" t="s">
         <v>222</v>
@@ -18915,7 +18915,7 @@
         <v>4</v>
       </c>
       <c r="O87" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P87" t="s">
         <v>223</v>
@@ -19121,7 +19121,7 @@
         <v>4</v>
       </c>
       <c r="O88" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P88" t="s">
         <v>224</v>
@@ -19327,7 +19327,7 @@
         <v>2</v>
       </c>
       <c r="O89" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P89" t="s">
         <v>82</v>
@@ -19739,7 +19739,7 @@
         <v>3</v>
       </c>
       <c r="O91" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P91" t="s">
         <v>93</v>
@@ -19945,7 +19945,7 @@
         <v>3</v>
       </c>
       <c r="O92" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P92" t="s">
         <v>226</v>
@@ -20062,10 +20062,10 @@
         <v>3</v>
       </c>
       <c r="BB92">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC92">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD92">
         <v>1.69</v>
@@ -20563,7 +20563,7 @@
         <v>3</v>
       </c>
       <c r="O95" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P95" t="s">
         <v>228</v>
@@ -20769,10 +20769,10 @@
         <v>3</v>
       </c>
       <c r="O96" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P96" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20975,7 +20975,7 @@
         <v>5</v>
       </c>
       <c r="O97" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P97" t="s">
         <v>229</v>
@@ -21181,7 +21181,7 @@
         <v>3</v>
       </c>
       <c r="O98" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P98" t="s">
         <v>82</v>
@@ -21387,7 +21387,7 @@
         <v>5</v>
       </c>
       <c r="O99" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P99" t="s">
         <v>230</v>
@@ -21799,7 +21799,7 @@
         <v>2</v>
       </c>
       <c r="O101" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P101" t="s">
         <v>82</v>
@@ -22417,7 +22417,7 @@
         <v>1</v>
       </c>
       <c r="O104" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P104" t="s">
         <v>82</v>
@@ -22623,7 +22623,7 @@
         <v>3</v>
       </c>
       <c r="O105" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P105" t="s">
         <v>82</v>
@@ -22829,7 +22829,7 @@
         <v>3</v>
       </c>
       <c r="O106" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P106" t="s">
         <v>232</v>
@@ -23038,7 +23038,7 @@
         <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23241,7 +23241,7 @@
         <v>2</v>
       </c>
       <c r="O108" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P108" t="s">
         <v>82</v>
@@ -23656,7 +23656,7 @@
         <v>82</v>
       </c>
       <c r="P110" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q110">
         <v>2.88</v>
@@ -23859,7 +23859,7 @@
         <v>2</v>
       </c>
       <c r="O111" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P111" t="s">
         <v>82</v>
@@ -24065,10 +24065,10 @@
         <v>6</v>
       </c>
       <c r="O112" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P112" t="s">
-        <v>123</v>
+        <v>233</v>
       </c>
       <c r="Q112">
         <v>1.73</v>
@@ -24274,7 +24274,7 @@
         <v>117</v>
       </c>
       <c r="P113" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -24477,10 +24477,10 @@
         <v>2</v>
       </c>
       <c r="O114" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P114" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24683,10 +24683,10 @@
         <v>3</v>
       </c>
       <c r="O115" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P115" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q115">
         <v>6.5</v>
@@ -24889,7 +24889,7 @@
         <v>1</v>
       </c>
       <c r="O116" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P116" t="s">
         <v>82</v>
@@ -25095,7 +25095,7 @@
         <v>1</v>
       </c>
       <c r="O117" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P117" t="s">
         <v>82</v>
@@ -25507,10 +25507,10 @@
         <v>6</v>
       </c>
       <c r="O119" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P119" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25716,7 +25716,7 @@
         <v>82</v>
       </c>
       <c r="P120" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25919,10 +25919,10 @@
         <v>2</v>
       </c>
       <c r="O121" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P121" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -26125,7 +26125,7 @@
         <v>2</v>
       </c>
       <c r="O122" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P122" t="s">
         <v>82</v>
@@ -26331,7 +26331,7 @@
         <v>2</v>
       </c>
       <c r="O123" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P123" t="s">
         <v>82</v>
@@ -26537,10 +26537,10 @@
         <v>3</v>
       </c>
       <c r="O124" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P124" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26743,10 +26743,10 @@
         <v>4</v>
       </c>
       <c r="O125" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P125" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26952,7 +26952,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27155,10 +27155,10 @@
         <v>5</v>
       </c>
       <c r="O127" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P127" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27567,10 +27567,10 @@
         <v>5</v>
       </c>
       <c r="O129" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P129" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q129">
         <v>2.38</v>
@@ -27776,7 +27776,7 @@
         <v>100</v>
       </c>
       <c r="P130" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q130">
         <v>1.73</v>
@@ -27979,10 +27979,10 @@
         <v>3</v>
       </c>
       <c r="O131" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>243</v>
+        <v>124</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -28185,7 +28185,7 @@
         <v>2</v>
       </c>
       <c r="O132" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P132" t="s">
         <v>244</v>
@@ -28391,7 +28391,7 @@
         <v>2</v>
       </c>
       <c r="O133" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P133" t="s">
         <v>245</v>
@@ -28597,7 +28597,7 @@
         <v>7</v>
       </c>
       <c r="O134" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P134" t="s">
         <v>82</v>
@@ -28803,10 +28803,10 @@
         <v>2</v>
       </c>
       <c r="O135" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P135" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29012,7 +29012,7 @@
         <v>82</v>
       </c>
       <c r="P136" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -29215,7 +29215,7 @@
         <v>2</v>
       </c>
       <c r="O137" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P137" t="s">
         <v>245</v>
@@ -29421,7 +29421,7 @@
         <v>1</v>
       </c>
       <c r="O138" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P138" t="s">
         <v>82</v>
@@ -29630,7 +29630,7 @@
         <v>82</v>
       </c>
       <c r="P139" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -29833,7 +29833,7 @@
         <v>2</v>
       </c>
       <c r="O140" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P140" t="s">
         <v>82</v>
@@ -30039,7 +30039,7 @@
         <v>3</v>
       </c>
       <c r="O141" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P141" t="s">
         <v>90</v>
@@ -30245,7 +30245,7 @@
         <v>5</v>
       </c>
       <c r="O142" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P142" t="s">
         <v>246</v>
@@ -30451,7 +30451,7 @@
         <v>3</v>
       </c>
       <c r="O143" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P143" t="s">
         <v>247</v>
@@ -30657,7 +30657,7 @@
         <v>2</v>
       </c>
       <c r="O144" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P144" t="s">
         <v>84</v>
@@ -30863,10 +30863,10 @@
         <v>3</v>
       </c>
       <c r="O145" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q145">
         <v>2.63</v>
@@ -31069,7 +31069,7 @@
         <v>4</v>
       </c>
       <c r="O146" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P146" t="s">
         <v>82</v>
@@ -31275,7 +31275,7 @@
         <v>3</v>
       </c>
       <c r="O147" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P147" t="s">
         <v>248</v>
@@ -31481,7 +31481,7 @@
         <v>1</v>
       </c>
       <c r="O148" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P148" t="s">
         <v>82</v>
@@ -31687,7 +31687,7 @@
         <v>3</v>
       </c>
       <c r="O149" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P149" t="s">
         <v>82</v>
@@ -31893,10 +31893,10 @@
         <v>2</v>
       </c>
       <c r="O150" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P150" t="s">
-        <v>123</v>
+        <v>233</v>
       </c>
       <c r="Q150">
         <v>2.88</v>
@@ -32305,7 +32305,7 @@
         <v>3</v>
       </c>
       <c r="O152" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P152" t="s">
         <v>112</v>
@@ -32923,10 +32923,10 @@
         <v>3</v>
       </c>
       <c r="O155" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P155" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -33541,7 +33541,7 @@
         <v>3</v>
       </c>
       <c r="O158" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P158" t="s">
         <v>251</v>
@@ -33953,7 +33953,7 @@
         <v>5</v>
       </c>
       <c r="O160" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P160" t="s">
         <v>253</v>
@@ -34159,7 +34159,7 @@
         <v>2</v>
       </c>
       <c r="O161" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P161" t="s">
         <v>254</v>
@@ -34365,7 +34365,7 @@
         <v>2</v>
       </c>
       <c r="O162" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P162" t="s">
         <v>82</v>
@@ -34777,10 +34777,10 @@
         <v>2</v>
       </c>
       <c r="O164" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P164" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q164">
         <v>2.2</v>
@@ -34983,10 +34983,10 @@
         <v>2</v>
       </c>
       <c r="O165" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P165" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q165">
         <v>1.8</v>
@@ -35189,7 +35189,7 @@
         <v>4</v>
       </c>
       <c r="O166" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P166" t="s">
         <v>255</v>
@@ -35807,7 +35807,7 @@
         <v>4</v>
       </c>
       <c r="O169" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P169" t="s">
         <v>244</v>
@@ -36013,10 +36013,10 @@
         <v>3</v>
       </c>
       <c r="O170" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P170" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q170">
         <v>2.6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,6 +580,18 @@
     <t>['32', '69']</t>
   </si>
   <si>
+    <t>['58', '83']</t>
+  </si>
+  <si>
+    <t>['11', '54']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -626,9 +638,6 @@
   </si>
   <si>
     <t>['51']</t>
-  </si>
-  <si>
-    <t>['90+3']</t>
   </si>
   <si>
     <t>['55', '71']</t>
@@ -788,6 +797,12 @@
   </si>
   <si>
     <t>['24', '82']</t>
+  </si>
+  <si>
+    <t>['34', '61']</t>
+  </si>
+  <si>
+    <t>['81']</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP171"/>
+  <dimension ref="A1:BP175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1408,7 +1423,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1614,7 +1629,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1695,7 +1710,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ3">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1898,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ4">
         <v>1.24</v>
@@ -2026,7 +2041,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2104,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ5">
         <v>1.59</v>
@@ -2438,7 +2453,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2644,7 +2659,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2850,7 +2865,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -2928,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ9">
         <v>1.47</v>
@@ -3134,10 +3149,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ10">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3343,7 +3358,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ11">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3468,7 +3483,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3674,7 +3689,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3752,7 +3767,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ13">
         <v>1.18</v>
@@ -3880,7 +3895,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4167,7 +4182,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ15">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
         <v>1.32</v>
@@ -4292,7 +4307,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4576,7 +4591,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ17">
         <v>1.35</v>
@@ -4704,7 +4719,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4782,7 +4797,7 @@
         <v>1.5</v>
       </c>
       <c r="AP18">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ18">
         <v>1.24</v>
@@ -4910,7 +4925,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -4991,7 +5006,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ19">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR19">
         <v>1.24</v>
@@ -5194,7 +5209,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ20">
         <v>0.47</v>
@@ -5322,7 +5337,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5812,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ23">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR23">
         <v>1.34</v>
@@ -6146,7 +6161,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6224,7 +6239,7 @@
         <v>2.33</v>
       </c>
       <c r="AP25">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ25">
         <v>1.59</v>
@@ -6430,7 +6445,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ26">
         <v>1.47</v>
@@ -6764,7 +6779,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6845,7 +6860,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -7051,7 +7066,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ29">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR29">
         <v>1.29</v>
@@ -7666,7 +7681,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ32">
         <v>0.47</v>
@@ -7794,7 +7809,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7872,7 +7887,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -8000,7 +8015,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="Q34">
         <v>2.05</v>
@@ -8081,7 +8096,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ34">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR34">
         <v>1.27</v>
@@ -8287,7 +8302,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR35">
         <v>1.43</v>
@@ -8412,7 +8427,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8490,7 +8505,7 @@
         <v>1.33</v>
       </c>
       <c r="AP36">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ36">
         <v>1.47</v>
@@ -8696,7 +8711,7 @@
         <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8902,10 +8917,10 @@
         <v>0.67</v>
       </c>
       <c r="AP38">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ38">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR38">
         <v>0.99</v>
@@ -9030,7 +9045,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9108,10 +9123,10 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ39">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR39">
         <v>1.28</v>
@@ -9442,7 +9457,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9648,7 +9663,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9854,7 +9869,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -9932,7 +9947,7 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ43">
         <v>1.47</v>
@@ -10060,7 +10075,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10138,10 +10153,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ44">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR44">
         <v>0.87</v>
@@ -10266,7 +10281,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10347,7 +10362,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ45">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR45">
         <v>1.32</v>
@@ -10756,7 +10771,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ47">
         <v>1.35</v>
@@ -11377,7 +11392,7 @@
         <v>1</v>
       </c>
       <c r="AQ50">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR50">
         <v>1.1</v>
@@ -11502,7 +11517,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11708,7 +11723,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11992,7 +12007,7 @@
         <v>1.4</v>
       </c>
       <c r="AP53">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ53">
         <v>1.18</v>
@@ -12198,7 +12213,7 @@
         <v>2.2</v>
       </c>
       <c r="AP54">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ54">
         <v>1.59</v>
@@ -12816,7 +12831,7 @@
         <v>1.67</v>
       </c>
       <c r="AP57">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ57">
         <v>1.47</v>
@@ -13231,7 +13246,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR59">
         <v>1.21</v>
@@ -13434,7 +13449,7 @@
         <v>0.83</v>
       </c>
       <c r="AP60">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ60">
         <v>1.24</v>
@@ -13562,7 +13577,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13640,10 +13655,10 @@
         <v>0.8</v>
       </c>
       <c r="AP61">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ61">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR61">
         <v>1.27</v>
@@ -13768,7 +13783,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14055,7 +14070,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ63">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR63">
         <v>1.78</v>
@@ -14258,10 +14273,10 @@
         <v>1.17</v>
       </c>
       <c r="AP64">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ64">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR64">
         <v>1.34</v>
@@ -14464,10 +14479,10 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ65">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR65">
         <v>1.39</v>
@@ -14798,7 +14813,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -15004,7 +15019,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15210,7 +15225,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15416,7 +15431,7 @@
         <v>82</v>
       </c>
       <c r="P70" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15622,7 +15637,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -16240,7 +16255,7 @@
         <v>125</v>
       </c>
       <c r="P74" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16524,7 +16539,7 @@
         <v>1.17</v>
       </c>
       <c r="AP75">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -16730,10 +16745,10 @@
         <v>0.29</v>
       </c>
       <c r="AP76">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ76">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR76">
         <v>1.05</v>
@@ -16939,7 +16954,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ77">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR77">
         <v>1.34</v>
@@ -17142,7 +17157,7 @@
         <v>0.29</v>
       </c>
       <c r="AP78">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ78">
         <v>0.47</v>
@@ -17348,7 +17363,7 @@
         <v>1.75</v>
       </c>
       <c r="AP79">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ79">
         <v>1.18</v>
@@ -17554,10 +17569,10 @@
         <v>1.14</v>
       </c>
       <c r="AP80">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ80">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR80">
         <v>1.43</v>
@@ -17682,7 +17697,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17763,7 +17778,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ81">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR81">
         <v>1.3</v>
@@ -17888,7 +17903,7 @@
         <v>130</v>
       </c>
       <c r="P82" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -18300,7 +18315,7 @@
         <v>129</v>
       </c>
       <c r="P84" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18378,7 +18393,7 @@
         <v>1.63</v>
       </c>
       <c r="AP84">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ84">
         <v>1.59</v>
@@ -18587,7 +18602,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ85">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR85">
         <v>1.91</v>
@@ -18712,7 +18727,7 @@
         <v>133</v>
       </c>
       <c r="P86" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18790,10 +18805,10 @@
         <v>0.38</v>
       </c>
       <c r="AP86">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ86">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR86">
         <v>1.18</v>
@@ -18918,7 +18933,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19124,7 +19139,7 @@
         <v>135</v>
       </c>
       <c r="P88" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -19408,7 +19423,7 @@
         <v>0.25</v>
       </c>
       <c r="AP89">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ89">
         <v>0.47</v>
@@ -19536,7 +19551,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19820,10 +19835,10 @@
         <v>1.5</v>
       </c>
       <c r="AP91">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ91">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR91">
         <v>1.23</v>
@@ -19948,7 +19963,7 @@
         <v>138</v>
       </c>
       <c r="P92" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q92">
         <v>3.2</v>
@@ -20026,7 +20041,7 @@
         <v>1.88</v>
       </c>
       <c r="AP92">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ92">
         <v>1.35</v>
@@ -20154,7 +20169,7 @@
         <v>82</v>
       </c>
       <c r="P93" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q93">
         <v>5.5</v>
@@ -20441,7 +20456,7 @@
         <v>1</v>
       </c>
       <c r="AQ94">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR94">
         <v>1.35</v>
@@ -20566,7 +20581,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20644,7 +20659,7 @@
         <v>1.13</v>
       </c>
       <c r="AP95">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ95">
         <v>1</v>
@@ -20772,7 +20787,7 @@
         <v>140</v>
       </c>
       <c r="P96" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20853,7 +20868,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ96">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR96">
         <v>1.26</v>
@@ -20978,7 +20993,7 @@
         <v>141</v>
       </c>
       <c r="P97" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21056,7 +21071,7 @@
         <v>0.22</v>
       </c>
       <c r="AP97">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ97">
         <v>0.47</v>
@@ -21390,7 +21405,7 @@
         <v>143</v>
       </c>
       <c r="P99" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q99">
         <v>2.75</v>
@@ -21468,7 +21483,7 @@
         <v>1.33</v>
       </c>
       <c r="AP99">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -22086,7 +22101,7 @@
         <v>0.5</v>
       </c>
       <c r="AP102">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ102">
         <v>0.47</v>
@@ -22214,7 +22229,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22295,7 +22310,7 @@
         <v>1</v>
       </c>
       <c r="AQ103">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR103">
         <v>1.19</v>
@@ -22704,10 +22719,10 @@
         <v>0.3</v>
       </c>
       <c r="AP105">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ105">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR105">
         <v>1.34</v>
@@ -22832,7 +22847,7 @@
         <v>147</v>
       </c>
       <c r="P106" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -22910,7 +22925,7 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ106">
         <v>1.47</v>
@@ -23038,7 +23053,7 @@
         <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23116,7 +23131,7 @@
         <v>1.9</v>
       </c>
       <c r="AP107">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ107">
         <v>1.59</v>
@@ -23528,10 +23543,10 @@
         <v>1.33</v>
       </c>
       <c r="AP109">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ109">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR109">
         <v>1.37</v>
@@ -23940,7 +23955,7 @@
         <v>1.5</v>
       </c>
       <c r="AP111">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ111">
         <v>1.35</v>
@@ -24068,7 +24083,7 @@
         <v>150</v>
       </c>
       <c r="P112" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q112">
         <v>1.73</v>
@@ -24149,7 +24164,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ112">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR112">
         <v>1.53</v>
@@ -24274,7 +24289,7 @@
         <v>117</v>
       </c>
       <c r="P113" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -24480,7 +24495,7 @@
         <v>151</v>
       </c>
       <c r="P114" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24558,10 +24573,10 @@
         <v>1.3</v>
       </c>
       <c r="AP114">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ114">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR114">
         <v>1.34</v>
@@ -24767,7 +24782,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ115">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR115">
         <v>1.33</v>
@@ -24970,7 +24985,7 @@
         <v>0.73</v>
       </c>
       <c r="AP116">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ116">
         <v>1.24</v>
@@ -25382,7 +25397,7 @@
         <v>1.55</v>
       </c>
       <c r="AP118">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ118">
         <v>1.18</v>
@@ -25510,7 +25525,7 @@
         <v>155</v>
       </c>
       <c r="P119" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25591,7 +25606,7 @@
         <v>1</v>
       </c>
       <c r="AQ119">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR119">
         <v>1.37</v>
@@ -25716,7 +25731,7 @@
         <v>82</v>
       </c>
       <c r="P120" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25922,7 +25937,7 @@
         <v>156</v>
       </c>
       <c r="P121" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -26540,7 +26555,7 @@
         <v>153</v>
       </c>
       <c r="P124" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26618,7 +26633,7 @@
         <v>1.25</v>
       </c>
       <c r="AP124">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ124">
         <v>1.47</v>
@@ -26746,7 +26761,7 @@
         <v>159</v>
       </c>
       <c r="P125" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26827,7 +26842,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ125">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR125">
         <v>1.39</v>
@@ -26952,7 +26967,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27158,7 +27173,7 @@
         <v>160</v>
       </c>
       <c r="P127" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27236,7 +27251,7 @@
         <v>1.25</v>
       </c>
       <c r="AP127">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ127">
         <v>1</v>
@@ -27442,10 +27457,10 @@
         <v>1.25</v>
       </c>
       <c r="AP128">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ128">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR128">
         <v>1.33</v>
@@ -27570,7 +27585,7 @@
         <v>161</v>
       </c>
       <c r="P129" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q129">
         <v>2.38</v>
@@ -27776,7 +27791,7 @@
         <v>100</v>
       </c>
       <c r="P130" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q130">
         <v>1.73</v>
@@ -28188,7 +28203,7 @@
         <v>145</v>
       </c>
       <c r="P132" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28266,7 +28281,7 @@
         <v>0.67</v>
       </c>
       <c r="AP132">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ132">
         <v>1.24</v>
@@ -28394,7 +28409,7 @@
         <v>163</v>
       </c>
       <c r="P133" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q133">
         <v>1.83</v>
@@ -28475,7 +28490,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ133">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR133">
         <v>1.84</v>
@@ -28806,7 +28821,7 @@
         <v>165</v>
       </c>
       <c r="P135" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -28884,10 +28899,10 @@
         <v>1.25</v>
       </c>
       <c r="AP135">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ135">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR135">
         <v>1.29</v>
@@ -29090,10 +29105,10 @@
         <v>1.23</v>
       </c>
       <c r="AP136">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ136">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR136">
         <v>1.28</v>
@@ -29218,7 +29233,7 @@
         <v>166</v>
       </c>
       <c r="P137" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29502,10 +29517,10 @@
         <v>1.36</v>
       </c>
       <c r="AP138">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ138">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR138">
         <v>1.38</v>
@@ -29630,7 +29645,7 @@
         <v>82</v>
       </c>
       <c r="P139" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -30248,7 +30263,7 @@
         <v>170</v>
       </c>
       <c r="P142" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q142">
         <v>2.5</v>
@@ -30326,10 +30341,10 @@
         <v>0.29</v>
       </c>
       <c r="AP142">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ142">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR142">
         <v>1.42</v>
@@ -30454,7 +30469,7 @@
         <v>171</v>
       </c>
       <c r="P143" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q143">
         <v>4.33</v>
@@ -30944,7 +30959,7 @@
         <v>0.5</v>
       </c>
       <c r="AP145">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ145">
         <v>0.47</v>
@@ -31278,7 +31293,7 @@
         <v>175</v>
       </c>
       <c r="P147" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31356,7 +31371,7 @@
         <v>1.29</v>
       </c>
       <c r="AP147">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ147">
         <v>1.47</v>
@@ -31562,7 +31577,7 @@
         <v>1.8</v>
       </c>
       <c r="AP148">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ148">
         <v>1.59</v>
@@ -31768,7 +31783,7 @@
         <v>1.33</v>
       </c>
       <c r="AP149">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ149">
         <v>1.18</v>
@@ -31896,7 +31911,7 @@
         <v>177</v>
       </c>
       <c r="P150" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q150">
         <v>2.88</v>
@@ -32102,7 +32117,7 @@
         <v>82</v>
       </c>
       <c r="P151" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q151">
         <v>2.5</v>
@@ -32183,7 +32198,7 @@
         <v>1</v>
       </c>
       <c r="AQ151">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR151">
         <v>1.35</v>
@@ -32595,7 +32610,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ153">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR153">
         <v>1.82</v>
@@ -33007,7 +33022,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ155">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR155">
         <v>1.45</v>
@@ -33132,7 +33147,7 @@
         <v>82</v>
       </c>
       <c r="P156" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q156">
         <v>3.6</v>
@@ -33213,7 +33228,7 @@
         <v>1</v>
       </c>
       <c r="AQ156">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR156">
         <v>1.35</v>
@@ -33416,7 +33431,7 @@
         <v>1</v>
       </c>
       <c r="AP157">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ157">
         <v>1</v>
@@ -33544,7 +33559,7 @@
         <v>132</v>
       </c>
       <c r="P158" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -33622,7 +33637,7 @@
         <v>1.33</v>
       </c>
       <c r="AP158">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ158">
         <v>1.35</v>
@@ -33750,7 +33765,7 @@
         <v>82</v>
       </c>
       <c r="P159" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q159">
         <v>2.3</v>
@@ -33956,7 +33971,7 @@
         <v>180</v>
       </c>
       <c r="P160" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q160">
         <v>3.4</v>
@@ -34034,7 +34049,7 @@
         <v>1</v>
       </c>
       <c r="AP160">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ160">
         <v>1.24</v>
@@ -34162,7 +34177,7 @@
         <v>181</v>
       </c>
       <c r="P161" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q161">
         <v>1.91</v>
@@ -34240,7 +34255,7 @@
         <v>0.44</v>
       </c>
       <c r="AP161">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ161">
         <v>0.47</v>
@@ -34652,10 +34667,10 @@
         <v>0.44</v>
       </c>
       <c r="AP163">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ163">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR163">
         <v>1.27</v>
@@ -34780,7 +34795,7 @@
         <v>183</v>
       </c>
       <c r="P164" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q164">
         <v>2.2</v>
@@ -34861,7 +34876,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ164">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR164">
         <v>1.59</v>
@@ -34986,7 +35001,7 @@
         <v>184</v>
       </c>
       <c r="P165" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q165">
         <v>1.8</v>
@@ -35192,7 +35207,7 @@
         <v>185</v>
       </c>
       <c r="P166" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35604,7 +35619,7 @@
         <v>82</v>
       </c>
       <c r="P168" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -35685,7 +35700,7 @@
         <v>1</v>
       </c>
       <c r="AQ168">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR168">
         <v>1.37</v>
@@ -35810,7 +35825,7 @@
         <v>186</v>
       </c>
       <c r="P169" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q169">
         <v>2.38</v>
@@ -35888,7 +35903,7 @@
         <v>1.25</v>
       </c>
       <c r="AP169">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ169">
         <v>1.18</v>
@@ -36016,7 +36031,7 @@
         <v>187</v>
       </c>
       <c r="P170" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q170">
         <v>2.6</v>
@@ -36094,7 +36109,7 @@
         <v>1.44</v>
       </c>
       <c r="AP170">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ170">
         <v>1.35</v>
@@ -36222,7 +36237,7 @@
         <v>82</v>
       </c>
       <c r="P171" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q171">
         <v>3.2</v>
@@ -36303,7 +36318,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ171">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR171">
         <v>1.36</v>
@@ -36379,6 +36394,830 @@
       </c>
       <c r="BP171">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7287183</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45590.65625</v>
+      </c>
+      <c r="F172">
+        <v>35</v>
+      </c>
+      <c r="G172" t="s">
+        <v>72</v>
+      </c>
+      <c r="H172" t="s">
+        <v>79</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>2</v>
+      </c>
+      <c r="M172">
+        <v>2</v>
+      </c>
+      <c r="N172">
+        <v>4</v>
+      </c>
+      <c r="O172" t="s">
+        <v>188</v>
+      </c>
+      <c r="P172" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q172">
+        <v>2.2</v>
+      </c>
+      <c r="R172">
+        <v>2.2</v>
+      </c>
+      <c r="S172">
+        <v>6</v>
+      </c>
+      <c r="T172">
+        <v>1.38</v>
+      </c>
+      <c r="U172">
+        <v>2.8</v>
+      </c>
+      <c r="V172">
+        <v>2.8</v>
+      </c>
+      <c r="W172">
+        <v>1.38</v>
+      </c>
+      <c r="X172">
+        <v>6.5</v>
+      </c>
+      <c r="Y172">
+        <v>1.1</v>
+      </c>
+      <c r="Z172">
+        <v>1.53</v>
+      </c>
+      <c r="AA172">
+        <v>3.8</v>
+      </c>
+      <c r="AB172">
+        <v>5.26</v>
+      </c>
+      <c r="AC172">
+        <v>1.05</v>
+      </c>
+      <c r="AD172">
+        <v>9</v>
+      </c>
+      <c r="AE172">
+        <v>1.3</v>
+      </c>
+      <c r="AF172">
+        <v>3.45</v>
+      </c>
+      <c r="AG172">
+        <v>1.87</v>
+      </c>
+      <c r="AH172">
+        <v>1.81</v>
+      </c>
+      <c r="AI172">
+        <v>2</v>
+      </c>
+      <c r="AJ172">
+        <v>1.75</v>
+      </c>
+      <c r="AK172">
+        <v>1.12</v>
+      </c>
+      <c r="AL172">
+        <v>1.2</v>
+      </c>
+      <c r="AM172">
+        <v>2.38</v>
+      </c>
+      <c r="AN172">
+        <v>1.59</v>
+      </c>
+      <c r="AO172">
+        <v>1</v>
+      </c>
+      <c r="AP172">
+        <v>1.56</v>
+      </c>
+      <c r="AQ172">
+        <v>1</v>
+      </c>
+      <c r="AR172">
+        <v>1.34</v>
+      </c>
+      <c r="AS172">
+        <v>1.02</v>
+      </c>
+      <c r="AT172">
+        <v>2.36</v>
+      </c>
+      <c r="AU172">
+        <v>7</v>
+      </c>
+      <c r="AV172">
+        <v>5</v>
+      </c>
+      <c r="AW172">
+        <v>9</v>
+      </c>
+      <c r="AX172">
+        <v>3</v>
+      </c>
+      <c r="AY172">
+        <v>30</v>
+      </c>
+      <c r="AZ172">
+        <v>13</v>
+      </c>
+      <c r="BA172">
+        <v>8</v>
+      </c>
+      <c r="BB172">
+        <v>1</v>
+      </c>
+      <c r="BC172">
+        <v>9</v>
+      </c>
+      <c r="BD172">
+        <v>0</v>
+      </c>
+      <c r="BE172">
+        <v>0</v>
+      </c>
+      <c r="BF172">
+        <v>0</v>
+      </c>
+      <c r="BG172">
+        <v>0</v>
+      </c>
+      <c r="BH172">
+        <v>0</v>
+      </c>
+      <c r="BI172">
+        <v>0</v>
+      </c>
+      <c r="BJ172">
+        <v>0</v>
+      </c>
+      <c r="BK172">
+        <v>2.38</v>
+      </c>
+      <c r="BL172">
+        <v>1.95</v>
+      </c>
+      <c r="BM172">
+        <v>0</v>
+      </c>
+      <c r="BN172">
+        <v>0</v>
+      </c>
+      <c r="BO172">
+        <v>0</v>
+      </c>
+      <c r="BP172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7287184</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45590.65625</v>
+      </c>
+      <c r="F173">
+        <v>35</v>
+      </c>
+      <c r="G173" t="s">
+        <v>77</v>
+      </c>
+      <c r="H173" t="s">
+        <v>75</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>2</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>3</v>
+      </c>
+      <c r="O173" t="s">
+        <v>189</v>
+      </c>
+      <c r="P173" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q173">
+        <v>2.1</v>
+      </c>
+      <c r="R173">
+        <v>2.2</v>
+      </c>
+      <c r="S173">
+        <v>7</v>
+      </c>
+      <c r="T173">
+        <v>1.42</v>
+      </c>
+      <c r="U173">
+        <v>2.65</v>
+      </c>
+      <c r="V173">
+        <v>2.88</v>
+      </c>
+      <c r="W173">
+        <v>1.36</v>
+      </c>
+      <c r="X173">
+        <v>7.1</v>
+      </c>
+      <c r="Y173">
+        <v>1.06</v>
+      </c>
+      <c r="Z173">
+        <v>1.75</v>
+      </c>
+      <c r="AA173">
+        <v>3.38</v>
+      </c>
+      <c r="AB173">
+        <v>4.23</v>
+      </c>
+      <c r="AC173">
+        <v>1.06</v>
+      </c>
+      <c r="AD173">
+        <v>8.5</v>
+      </c>
+      <c r="AE173">
+        <v>1.33</v>
+      </c>
+      <c r="AF173">
+        <v>3.25</v>
+      </c>
+      <c r="AG173">
+        <v>1.91</v>
+      </c>
+      <c r="AH173">
+        <v>1.75</v>
+      </c>
+      <c r="AI173">
+        <v>2.25</v>
+      </c>
+      <c r="AJ173">
+        <v>1.57</v>
+      </c>
+      <c r="AK173">
+        <v>1.12</v>
+      </c>
+      <c r="AL173">
+        <v>1.2</v>
+      </c>
+      <c r="AM173">
+        <v>2.3</v>
+      </c>
+      <c r="AN173">
+        <v>1.76</v>
+      </c>
+      <c r="AO173">
+        <v>0.47</v>
+      </c>
+      <c r="AP173">
+        <v>1.83</v>
+      </c>
+      <c r="AQ173">
+        <v>0.44</v>
+      </c>
+      <c r="AR173">
+        <v>1.31</v>
+      </c>
+      <c r="AS173">
+        <v>1.14</v>
+      </c>
+      <c r="AT173">
+        <v>2.45</v>
+      </c>
+      <c r="AU173">
+        <v>4</v>
+      </c>
+      <c r="AV173">
+        <v>4</v>
+      </c>
+      <c r="AW173">
+        <v>7</v>
+      </c>
+      <c r="AX173">
+        <v>3</v>
+      </c>
+      <c r="AY173">
+        <v>16</v>
+      </c>
+      <c r="AZ173">
+        <v>8</v>
+      </c>
+      <c r="BA173">
+        <v>4</v>
+      </c>
+      <c r="BB173">
+        <v>2</v>
+      </c>
+      <c r="BC173">
+        <v>6</v>
+      </c>
+      <c r="BD173">
+        <v>0</v>
+      </c>
+      <c r="BE173">
+        <v>0</v>
+      </c>
+      <c r="BF173">
+        <v>0</v>
+      </c>
+      <c r="BG173">
+        <v>0</v>
+      </c>
+      <c r="BH173">
+        <v>0</v>
+      </c>
+      <c r="BI173">
+        <v>0</v>
+      </c>
+      <c r="BJ173">
+        <v>0</v>
+      </c>
+      <c r="BK173">
+        <v>2.25</v>
+      </c>
+      <c r="BL173">
+        <v>0</v>
+      </c>
+      <c r="BM173">
+        <v>0</v>
+      </c>
+      <c r="BN173">
+        <v>0</v>
+      </c>
+      <c r="BO173">
+        <v>0</v>
+      </c>
+      <c r="BP173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7287185</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45590.65625</v>
+      </c>
+      <c r="F174">
+        <v>35</v>
+      </c>
+      <c r="G174" t="s">
+        <v>78</v>
+      </c>
+      <c r="H174" t="s">
+        <v>71</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>1</v>
+      </c>
+      <c r="O174" t="s">
+        <v>190</v>
+      </c>
+      <c r="P174" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q174">
+        <v>2.75</v>
+      </c>
+      <c r="R174">
+        <v>2.1</v>
+      </c>
+      <c r="S174">
+        <v>4</v>
+      </c>
+      <c r="T174">
+        <v>1.42</v>
+      </c>
+      <c r="U174">
+        <v>2.65</v>
+      </c>
+      <c r="V174">
+        <v>2.88</v>
+      </c>
+      <c r="W174">
+        <v>1.36</v>
+      </c>
+      <c r="X174">
+        <v>7.2</v>
+      </c>
+      <c r="Y174">
+        <v>1.06</v>
+      </c>
+      <c r="Z174">
+        <v>2.72</v>
+      </c>
+      <c r="AA174">
+        <v>3.17</v>
+      </c>
+      <c r="AB174">
+        <v>2.41</v>
+      </c>
+      <c r="AC174">
+        <v>1.06</v>
+      </c>
+      <c r="AD174">
+        <v>8.5</v>
+      </c>
+      <c r="AE174">
+        <v>1.33</v>
+      </c>
+      <c r="AF174">
+        <v>3.25</v>
+      </c>
+      <c r="AG174">
+        <v>1.94</v>
+      </c>
+      <c r="AH174">
+        <v>1.74</v>
+      </c>
+      <c r="AI174">
+        <v>1.75</v>
+      </c>
+      <c r="AJ174">
+        <v>2</v>
+      </c>
+      <c r="AK174">
+        <v>1.5</v>
+      </c>
+      <c r="AL174">
+        <v>1.28</v>
+      </c>
+      <c r="AM174">
+        <v>1.4</v>
+      </c>
+      <c r="AN174">
+        <v>1.88</v>
+      </c>
+      <c r="AO174">
+        <v>1.29</v>
+      </c>
+      <c r="AP174">
+        <v>1.94</v>
+      </c>
+      <c r="AQ174">
+        <v>1.22</v>
+      </c>
+      <c r="AR174">
+        <v>1.49</v>
+      </c>
+      <c r="AS174">
+        <v>1.32</v>
+      </c>
+      <c r="AT174">
+        <v>2.81</v>
+      </c>
+      <c r="AU174">
+        <v>6</v>
+      </c>
+      <c r="AV174">
+        <v>6</v>
+      </c>
+      <c r="AW174">
+        <v>4</v>
+      </c>
+      <c r="AX174">
+        <v>8</v>
+      </c>
+      <c r="AY174">
+        <v>13</v>
+      </c>
+      <c r="AZ174">
+        <v>21</v>
+      </c>
+      <c r="BA174">
+        <v>6</v>
+      </c>
+      <c r="BB174">
+        <v>7</v>
+      </c>
+      <c r="BC174">
+        <v>13</v>
+      </c>
+      <c r="BD174">
+        <v>0</v>
+      </c>
+      <c r="BE174">
+        <v>0</v>
+      </c>
+      <c r="BF174">
+        <v>0</v>
+      </c>
+      <c r="BG174">
+        <v>0</v>
+      </c>
+      <c r="BH174">
+        <v>0</v>
+      </c>
+      <c r="BI174">
+        <v>0</v>
+      </c>
+      <c r="BJ174">
+        <v>0</v>
+      </c>
+      <c r="BK174">
+        <v>2.38</v>
+      </c>
+      <c r="BL174">
+        <v>1.92</v>
+      </c>
+      <c r="BM174">
+        <v>0</v>
+      </c>
+      <c r="BN174">
+        <v>0</v>
+      </c>
+      <c r="BO174">
+        <v>0</v>
+      </c>
+      <c r="BP174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7287186</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45590.65625</v>
+      </c>
+      <c r="F175">
+        <v>35</v>
+      </c>
+      <c r="G175" t="s">
+        <v>73</v>
+      </c>
+      <c r="H175" t="s">
+        <v>70</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>2</v>
+      </c>
+      <c r="O175" t="s">
+        <v>191</v>
+      </c>
+      <c r="P175" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q175">
+        <v>3.4</v>
+      </c>
+      <c r="R175">
+        <v>2.2</v>
+      </c>
+      <c r="S175">
+        <v>3.1</v>
+      </c>
+      <c r="T175">
+        <v>1.38</v>
+      </c>
+      <c r="U175">
+        <v>2.8</v>
+      </c>
+      <c r="V175">
+        <v>2.65</v>
+      </c>
+      <c r="W175">
+        <v>1.42</v>
+      </c>
+      <c r="X175">
+        <v>6</v>
+      </c>
+      <c r="Y175">
+        <v>1.11</v>
+      </c>
+      <c r="Z175">
+        <v>2.81</v>
+      </c>
+      <c r="AA175">
+        <v>3.25</v>
+      </c>
+      <c r="AB175">
+        <v>2.3</v>
+      </c>
+      <c r="AC175">
+        <v>1.05</v>
+      </c>
+      <c r="AD175">
+        <v>9</v>
+      </c>
+      <c r="AE175">
+        <v>1.28</v>
+      </c>
+      <c r="AF175">
+        <v>3.6</v>
+      </c>
+      <c r="AG175">
+        <v>1.79</v>
+      </c>
+      <c r="AH175">
+        <v>1.88</v>
+      </c>
+      <c r="AI175">
+        <v>1.7</v>
+      </c>
+      <c r="AJ175">
+        <v>2.05</v>
+      </c>
+      <c r="AK175">
+        <v>1.5</v>
+      </c>
+      <c r="AL175">
+        <v>1.25</v>
+      </c>
+      <c r="AM175">
+        <v>1.44</v>
+      </c>
+      <c r="AN175">
+        <v>1.41</v>
+      </c>
+      <c r="AO175">
+        <v>1.35</v>
+      </c>
+      <c r="AP175">
+        <v>1.39</v>
+      </c>
+      <c r="AQ175">
+        <v>1.33</v>
+      </c>
+      <c r="AR175">
+        <v>1.28</v>
+      </c>
+      <c r="AS175">
+        <v>1.22</v>
+      </c>
+      <c r="AT175">
+        <v>2.5</v>
+      </c>
+      <c r="AU175">
+        <v>5</v>
+      </c>
+      <c r="AV175">
+        <v>5</v>
+      </c>
+      <c r="AW175">
+        <v>8</v>
+      </c>
+      <c r="AX175">
+        <v>5</v>
+      </c>
+      <c r="AY175">
+        <v>17</v>
+      </c>
+      <c r="AZ175">
+        <v>15</v>
+      </c>
+      <c r="BA175">
+        <v>6</v>
+      </c>
+      <c r="BB175">
+        <v>10</v>
+      </c>
+      <c r="BC175">
+        <v>16</v>
+      </c>
+      <c r="BD175">
+        <v>0</v>
+      </c>
+      <c r="BE175">
+        <v>0</v>
+      </c>
+      <c r="BF175">
+        <v>0</v>
+      </c>
+      <c r="BG175">
+        <v>0</v>
+      </c>
+      <c r="BH175">
+        <v>0</v>
+      </c>
+      <c r="BI175">
+        <v>0</v>
+      </c>
+      <c r="BJ175">
+        <v>0</v>
+      </c>
+      <c r="BK175">
+        <v>1.91</v>
+      </c>
+      <c r="BL175">
+        <v>0</v>
+      </c>
+      <c r="BM175">
+        <v>2</v>
+      </c>
+      <c r="BN175">
+        <v>1.8</v>
+      </c>
+      <c r="BO175">
+        <v>0</v>
+      </c>
+      <c r="BP175">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -36760,13 +36760,13 @@
         <v>8</v>
       </c>
       <c r="BA173">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB173">
         <v>2</v>
       </c>
       <c r="BC173">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD173">
         <v>0</v>
@@ -36966,13 +36966,13 @@
         <v>21</v>
       </c>
       <c r="BA174">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB174">
         <v>7</v>
       </c>
       <c r="BC174">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD174">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1164,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP175"/>
+  <dimension ref="A1:BP176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ8">
         <v>1.35</v>
@@ -2946,7 +2946,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ9">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -6036,7 +6036,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ24">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -6448,7 +6448,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ26">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6651,7 +6651,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ27">
         <v>1.18</v>
@@ -8299,7 +8299,7 @@
         <v>0.33</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ35">
         <v>0.44</v>
@@ -8508,7 +8508,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ36">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR36">
         <v>1.43</v>
@@ -9950,7 +9950,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ43">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR43">
         <v>1.58</v>
@@ -10565,7 +10565,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ46">
         <v>1.24</v>
@@ -11598,7 +11598,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ51">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR51">
         <v>1.37</v>
@@ -12834,7 +12834,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ57">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR57">
         <v>1</v>
@@ -13243,7 +13243,7 @@
         <v>1.8</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ59">
         <v>1.33</v>
@@ -14685,7 +14685,7 @@
         <v>1.83</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ66">
         <v>1.59</v>
@@ -14894,7 +14894,7 @@
         <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR67">
         <v>1.06</v>
@@ -18187,10 +18187,10 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ83">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR83">
         <v>1.34</v>
@@ -20250,7 +20250,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ93">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR93">
         <v>1.39</v>
@@ -20453,7 +20453,7 @@
         <v>1.22</v>
       </c>
       <c r="AP94">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ94">
         <v>1.22</v>
@@ -22513,7 +22513,7 @@
         <v>1.2</v>
       </c>
       <c r="AP104">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ104">
         <v>1</v>
@@ -22928,7 +22928,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ106">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR106">
         <v>1.36</v>
@@ -23340,7 +23340,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ108">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR108">
         <v>1.25</v>
@@ -23749,7 +23749,7 @@
         <v>1.4</v>
       </c>
       <c r="AP110">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ110">
         <v>1.18</v>
@@ -25603,7 +25603,7 @@
         <v>0.25</v>
       </c>
       <c r="AP119">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ119">
         <v>0.44</v>
@@ -26636,7 +26636,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ124">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR124">
         <v>1.28</v>
@@ -27045,7 +27045,7 @@
         <v>1.25</v>
       </c>
       <c r="AP126">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ126">
         <v>1.35</v>
@@ -29723,7 +29723,7 @@
         <v>1.77</v>
       </c>
       <c r="AP139">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ139">
         <v>1.59</v>
@@ -30138,7 +30138,7 @@
         <v>1</v>
       </c>
       <c r="AQ141">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR141">
         <v>1.36</v>
@@ -30547,7 +30547,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP143">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ143">
         <v>1.24</v>
@@ -31374,7 +31374,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ147">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR147">
         <v>1.35</v>
@@ -31992,7 +31992,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ150">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR150">
         <v>1.6</v>
@@ -33225,7 +33225,7 @@
         <v>1.14</v>
       </c>
       <c r="AP156">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ156">
         <v>1.33</v>
@@ -35494,7 +35494,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ167">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR167">
         <v>1.43</v>
@@ -35697,7 +35697,7 @@
         <v>1.19</v>
       </c>
       <c r="AP168">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ168">
         <v>1.22</v>
@@ -36760,13 +36760,13 @@
         <v>8</v>
       </c>
       <c r="BA173">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB173">
         <v>2</v>
       </c>
       <c r="BC173">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD173">
         <v>0</v>
@@ -36966,13 +36966,13 @@
         <v>21</v>
       </c>
       <c r="BA174">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB174">
         <v>7</v>
       </c>
       <c r="BC174">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD174">
         <v>0</v>
@@ -37218,6 +37218,212 @@
       </c>
       <c r="BP175">
         <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7287182</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45592.61458333334</v>
+      </c>
+      <c r="F176">
+        <v>35</v>
+      </c>
+      <c r="G176" t="s">
+        <v>76</v>
+      </c>
+      <c r="H176" t="s">
+        <v>74</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176" t="s">
+        <v>82</v>
+      </c>
+      <c r="P176" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q176">
+        <v>8</v>
+      </c>
+      <c r="R176">
+        <v>2.6</v>
+      </c>
+      <c r="S176">
+        <v>1.8</v>
+      </c>
+      <c r="T176">
+        <v>1.33</v>
+      </c>
+      <c r="U176">
+        <v>3.25</v>
+      </c>
+      <c r="V176">
+        <v>2.63</v>
+      </c>
+      <c r="W176">
+        <v>1.44</v>
+      </c>
+      <c r="X176">
+        <v>6.5</v>
+      </c>
+      <c r="Y176">
+        <v>1.11</v>
+      </c>
+      <c r="Z176">
+        <v>11.9</v>
+      </c>
+      <c r="AA176">
+        <v>8.07</v>
+      </c>
+      <c r="AB176">
+        <v>1.11</v>
+      </c>
+      <c r="AC176">
+        <v>1.04</v>
+      </c>
+      <c r="AD176">
+        <v>10</v>
+      </c>
+      <c r="AE176">
+        <v>1.22</v>
+      </c>
+      <c r="AF176">
+        <v>4</v>
+      </c>
+      <c r="AG176">
+        <v>1.72</v>
+      </c>
+      <c r="AH176">
+        <v>2</v>
+      </c>
+      <c r="AI176">
+        <v>1.95</v>
+      </c>
+      <c r="AJ176">
+        <v>1.8</v>
+      </c>
+      <c r="AK176">
+        <v>3.2</v>
+      </c>
+      <c r="AL176">
+        <v>1.12</v>
+      </c>
+      <c r="AM176">
+        <v>1.06</v>
+      </c>
+      <c r="AN176">
+        <v>1</v>
+      </c>
+      <c r="AO176">
+        <v>1.47</v>
+      </c>
+      <c r="AP176">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ176">
+        <v>1.56</v>
+      </c>
+      <c r="AR176">
+        <v>1.37</v>
+      </c>
+      <c r="AS176">
+        <v>1.43</v>
+      </c>
+      <c r="AT176">
+        <v>2.8</v>
+      </c>
+      <c r="AU176">
+        <v>2</v>
+      </c>
+      <c r="AV176">
+        <v>3</v>
+      </c>
+      <c r="AW176">
+        <v>2</v>
+      </c>
+      <c r="AX176">
+        <v>9</v>
+      </c>
+      <c r="AY176">
+        <v>6</v>
+      </c>
+      <c r="AZ176">
+        <v>14</v>
+      </c>
+      <c r="BA176">
+        <v>6</v>
+      </c>
+      <c r="BB176">
+        <v>8</v>
+      </c>
+      <c r="BC176">
+        <v>14</v>
+      </c>
+      <c r="BD176">
+        <v>3.85</v>
+      </c>
+      <c r="BE176">
+        <v>10</v>
+      </c>
+      <c r="BF176">
+        <v>1.36</v>
+      </c>
+      <c r="BG176">
+        <v>1.19</v>
+      </c>
+      <c r="BH176">
+        <v>3.9</v>
+      </c>
+      <c r="BI176">
+        <v>1.35</v>
+      </c>
+      <c r="BJ176">
+        <v>2.65</v>
+      </c>
+      <c r="BK176">
+        <v>2</v>
+      </c>
+      <c r="BL176">
+        <v>1.91</v>
+      </c>
+      <c r="BM176">
+        <v>2.14</v>
+      </c>
+      <c r="BN176">
+        <v>1.66</v>
+      </c>
+      <c r="BO176">
+        <v>2.75</v>
+      </c>
+      <c r="BP176">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="266">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,12 @@
     <t>['90+3']</t>
   </si>
   <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['4', '54']</t>
+  </si>
+  <si>
     <t>['23', '45+2']</t>
   </si>
   <si>
@@ -727,9 +733,6 @@
     <t>['26']</t>
   </si>
   <si>
-    <t>['20']</t>
-  </si>
-  <si>
     <t>['37', '90+3']</t>
   </si>
   <si>
@@ -803,6 +806,12 @@
   </si>
   <si>
     <t>['81']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['38', '90']</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP176"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1423,7 +1432,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1629,7 +1638,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q3">
         <v>1.91</v>
@@ -1707,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ3">
         <v>0.44</v>
@@ -1916,7 +1925,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ4">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2041,7 +2050,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2122,7 +2131,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ5">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2325,10 +2334,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ6">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2453,7 +2462,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2531,10 +2540,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ7">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2659,7 +2668,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2740,7 +2749,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ8">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2865,7 +2874,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q9">
         <v>4.75</v>
@@ -3355,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ11">
         <v>1.22</v>
@@ -3483,7 +3492,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3561,10 +3570,10 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ12">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR12">
         <v>1</v>
@@ -3689,7 +3698,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q13">
         <v>2.5</v>
@@ -3770,7 +3779,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ13">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR13">
         <v>0.97</v>
@@ -3895,7 +3904,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -3973,10 +3982,10 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ14">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR14">
         <v>1.63</v>
@@ -4179,7 +4188,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ15">
         <v>1.33</v>
@@ -4307,7 +4316,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4594,7 +4603,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ17">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>1.23</v>
@@ -4719,7 +4728,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4800,7 +4809,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ18">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR18">
         <v>0.95</v>
@@ -4925,7 +4934,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q19">
         <v>2.88</v>
@@ -5003,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ19">
         <v>1.22</v>
@@ -5212,7 +5221,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ20">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
         <v>1.54</v>
@@ -5337,7 +5346,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5418,7 +5427,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR21">
         <v>1.54</v>
@@ -5621,10 +5630,10 @@
         <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ22">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR22">
         <v>1.39</v>
@@ -6033,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ24">
         <v>1.56</v>
@@ -6161,7 +6170,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6242,7 +6251,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ25">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR25">
         <v>1.56</v>
@@ -6654,7 +6663,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ27">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR27">
         <v>1.35</v>
@@ -6779,7 +6788,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -7063,7 +7072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ29">
         <v>0.44</v>
@@ -7269,10 +7278,10 @@
         <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ30">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7475,10 +7484,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ31">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR31">
         <v>1.4</v>
@@ -7684,7 +7693,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ32">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR32">
         <v>1</v>
@@ -7809,7 +7818,7 @@
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -8093,7 +8102,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ34">
         <v>1.33</v>
@@ -8427,7 +8436,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -9045,7 +9054,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9332,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR40">
         <v>1.04</v>
@@ -9457,7 +9466,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9535,10 +9544,10 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ41">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR41">
         <v>1.34</v>
@@ -9663,7 +9672,7 @@
         <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q42">
         <v>4.5</v>
@@ -9741,10 +9750,10 @@
         <v>2.5</v>
       </c>
       <c r="AP42">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ42">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR42">
         <v>1.38</v>
@@ -9869,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q43">
         <v>4.5</v>
@@ -10075,7 +10084,7 @@
         <v>105</v>
       </c>
       <c r="P44" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q44">
         <v>2.63</v>
@@ -10281,7 +10290,7 @@
         <v>106</v>
       </c>
       <c r="P45" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q45">
         <v>5.5</v>
@@ -10359,7 +10368,7 @@
         <v>0.75</v>
       </c>
       <c r="AP45">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ45">
         <v>1.22</v>
@@ -10568,7 +10577,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ46">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>1.26</v>
@@ -10774,7 +10783,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ47">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR47">
         <v>1.3</v>
@@ -10977,7 +10986,7 @@
         <v>1.75</v>
       </c>
       <c r="AP48">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11186,7 +11195,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR49">
         <v>1.12</v>
@@ -11517,7 +11526,7 @@
         <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q51">
         <v>3.25</v>
@@ -11595,7 +11604,7 @@
         <v>1.4</v>
       </c>
       <c r="AP51">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ51">
         <v>1.56</v>
@@ -11723,7 +11732,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11801,10 +11810,10 @@
         <v>0.2</v>
       </c>
       <c r="AP52">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ52">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR52">
         <v>1.24</v>
@@ -12010,7 +12019,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ53">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR53">
         <v>1.43</v>
@@ -12216,7 +12225,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ54">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -12419,10 +12428,10 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ55">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR55">
         <v>1.35</v>
@@ -12625,10 +12634,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ56">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR56">
         <v>1.4</v>
@@ -13037,7 +13046,7 @@
         <v>1.4</v>
       </c>
       <c r="AP58">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13452,7 +13461,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ60">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR60">
         <v>1.01</v>
@@ -13577,7 +13586,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13783,7 +13792,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13861,10 +13870,10 @@
         <v>1.6</v>
       </c>
       <c r="AP62">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ62">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR62">
         <v>1.75</v>
@@ -14067,7 +14076,7 @@
         <v>0.4</v>
       </c>
       <c r="AP63">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ63">
         <v>0.44</v>
@@ -14688,7 +14697,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ66">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR66">
         <v>1.32</v>
@@ -14813,7 +14822,7 @@
         <v>120</v>
       </c>
       <c r="P67" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -15019,7 +15028,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15097,10 +15106,10 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ68">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR68">
         <v>1.34</v>
@@ -15225,7 +15234,7 @@
         <v>121</v>
       </c>
       <c r="P69" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15303,10 +15312,10 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ69">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR69">
         <v>1.37</v>
@@ -15431,7 +15440,7 @@
         <v>82</v>
       </c>
       <c r="P70" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15512,7 +15521,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR70">
         <v>1.06</v>
@@ -15637,7 +15646,7 @@
         <v>122</v>
       </c>
       <c r="P71" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>1.73</v>
@@ -15715,10 +15724,10 @@
         <v>1.57</v>
       </c>
       <c r="AP71">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ71">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR71">
         <v>1.85</v>
@@ -15921,10 +15930,10 @@
         <v>0.71</v>
       </c>
       <c r="AP72">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ72">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR72">
         <v>1.34</v>
@@ -16127,10 +16136,10 @@
         <v>1.71</v>
       </c>
       <c r="AP73">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ73">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR73">
         <v>1.37</v>
@@ -16255,7 +16264,7 @@
         <v>125</v>
       </c>
       <c r="P74" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16333,10 +16342,10 @@
         <v>0.63</v>
       </c>
       <c r="AP74">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ74">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR74">
         <v>1.85</v>
@@ -16951,7 +16960,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ77">
         <v>1.33</v>
@@ -17160,7 +17169,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ78">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR78">
         <v>1.19</v>
@@ -17366,7 +17375,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ79">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR79">
         <v>1.2</v>
@@ -17697,7 +17706,7 @@
         <v>82</v>
       </c>
       <c r="P81" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q81">
         <v>3.5</v>
@@ -17775,7 +17784,7 @@
         <v>1.29</v>
       </c>
       <c r="AP81">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ81">
         <v>1.33</v>
@@ -17903,7 +17912,7 @@
         <v>130</v>
       </c>
       <c r="P82" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -17981,10 +17990,10 @@
         <v>1.71</v>
       </c>
       <c r="AP82">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ82">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR82">
         <v>1.34</v>
@@ -18315,7 +18324,7 @@
         <v>129</v>
       </c>
       <c r="P84" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -18396,7 +18405,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ84">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR84">
         <v>1.41</v>
@@ -18599,7 +18608,7 @@
         <v>1.38</v>
       </c>
       <c r="AP85">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ85">
         <v>1.22</v>
@@ -18727,7 +18736,7 @@
         <v>133</v>
       </c>
       <c r="P86" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18933,7 +18942,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19014,7 +19023,7 @@
         <v>1</v>
       </c>
       <c r="AQ87">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR87">
         <v>1.13</v>
@@ -19139,7 +19148,7 @@
         <v>135</v>
       </c>
       <c r="P88" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q88">
         <v>1.91</v>
@@ -19217,7 +19226,7 @@
         <v>1.14</v>
       </c>
       <c r="AP88">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -19426,7 +19435,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ89">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR89">
         <v>1.27</v>
@@ -19551,7 +19560,7 @@
         <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19629,10 +19638,10 @@
         <v>1.78</v>
       </c>
       <c r="AP90">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ90">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR90">
         <v>1.89</v>
@@ -19963,7 +19972,7 @@
         <v>138</v>
       </c>
       <c r="P92" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q92">
         <v>3.2</v>
@@ -20044,7 +20053,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ92">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR92">
         <v>1.44</v>
@@ -20169,7 +20178,7 @@
         <v>82</v>
       </c>
       <c r="P93" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q93">
         <v>5.5</v>
@@ -20247,7 +20256,7 @@
         <v>1.33</v>
       </c>
       <c r="AP93">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ93">
         <v>1.56</v>
@@ -20581,7 +20590,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20787,7 +20796,7 @@
         <v>140</v>
       </c>
       <c r="P96" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q96">
         <v>3.25</v>
@@ -20865,7 +20874,7 @@
         <v>0.33</v>
       </c>
       <c r="AP96">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ96">
         <v>0.44</v>
@@ -20993,7 +21002,7 @@
         <v>141</v>
       </c>
       <c r="P97" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q97">
         <v>2.6</v>
@@ -21074,7 +21083,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ97">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR97">
         <v>1.38</v>
@@ -21277,10 +21286,10 @@
         <v>1.56</v>
       </c>
       <c r="AP98">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ98">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR98">
         <v>1.5</v>
@@ -21405,7 +21414,7 @@
         <v>143</v>
       </c>
       <c r="P99" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q99">
         <v>2.75</v>
@@ -21689,10 +21698,10 @@
         <v>0.7</v>
       </c>
       <c r="AP100">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ100">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR100">
         <v>1.39</v>
@@ -21895,10 +21904,10 @@
         <v>1.67</v>
       </c>
       <c r="AP101">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ101">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR101">
         <v>1.5</v>
@@ -22104,7 +22113,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ102">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR102">
         <v>1.39</v>
@@ -22229,7 +22238,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q103">
         <v>4.5</v>
@@ -22847,7 +22856,7 @@
         <v>147</v>
       </c>
       <c r="P106" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23053,7 +23062,7 @@
         <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23134,7 +23143,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ107">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR107">
         <v>1.35</v>
@@ -23337,7 +23346,7 @@
         <v>1.36</v>
       </c>
       <c r="AP108">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ108">
         <v>1.56</v>
@@ -23752,7 +23761,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ110">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR110">
         <v>1.32</v>
@@ -23958,7 +23967,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ111">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR111">
         <v>1.37</v>
@@ -24083,7 +24092,7 @@
         <v>150</v>
       </c>
       <c r="P112" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q112">
         <v>1.73</v>
@@ -24161,7 +24170,7 @@
         <v>0.27</v>
       </c>
       <c r="AP112">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ112">
         <v>0.44</v>
@@ -24289,7 +24298,7 @@
         <v>117</v>
       </c>
       <c r="P113" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -24367,10 +24376,10 @@
         <v>2</v>
       </c>
       <c r="AP113">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ113">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR113">
         <v>1.37</v>
@@ -24495,7 +24504,7 @@
         <v>151</v>
       </c>
       <c r="P114" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24779,7 +24788,7 @@
         <v>1.36</v>
       </c>
       <c r="AP115">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ115">
         <v>1.22</v>
@@ -24988,7 +24997,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ116">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR116">
         <v>1.31</v>
@@ -25191,10 +25200,10 @@
         <v>0.45</v>
       </c>
       <c r="AP117">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ117">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR117">
         <v>1.89</v>
@@ -25400,7 +25409,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ118">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR118">
         <v>1.38</v>
@@ -25525,7 +25534,7 @@
         <v>155</v>
       </c>
       <c r="P119" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25731,7 +25740,7 @@
         <v>82</v>
       </c>
       <c r="P120" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25937,7 +25946,7 @@
         <v>156</v>
       </c>
       <c r="P121" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -26018,7 +26027,7 @@
         <v>1</v>
       </c>
       <c r="AQ121">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR121">
         <v>1.26</v>
@@ -26221,10 +26230,10 @@
         <v>1.42</v>
       </c>
       <c r="AP122">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ122">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR122">
         <v>1.39</v>
@@ -26427,10 +26436,10 @@
         <v>1.36</v>
       </c>
       <c r="AP123">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ123">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR123">
         <v>1.31</v>
@@ -26555,7 +26564,7 @@
         <v>153</v>
       </c>
       <c r="P124" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q124">
         <v>4.75</v>
@@ -26761,7 +26770,7 @@
         <v>159</v>
       </c>
       <c r="P125" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -26839,7 +26848,7 @@
         <v>1.27</v>
       </c>
       <c r="AP125">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ125">
         <v>1.33</v>
@@ -26967,7 +26976,7 @@
         <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27048,7 +27057,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ126">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR126">
         <v>1.36</v>
@@ -27173,7 +27182,7 @@
         <v>160</v>
       </c>
       <c r="P127" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q127">
         <v>2.5</v>
@@ -27585,7 +27594,7 @@
         <v>161</v>
       </c>
       <c r="P129" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q129">
         <v>2.38</v>
@@ -27666,7 +27675,7 @@
         <v>1</v>
       </c>
       <c r="AQ129">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR129">
         <v>1.33</v>
@@ -27791,7 +27800,7 @@
         <v>100</v>
       </c>
       <c r="P130" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q130">
         <v>1.73</v>
@@ -27869,10 +27878,10 @@
         <v>0.46</v>
       </c>
       <c r="AP130">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ130">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR130">
         <v>1.55</v>
@@ -28075,10 +28084,10 @@
         <v>1.92</v>
       </c>
       <c r="AP131">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ131">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR131">
         <v>1.28</v>
@@ -28203,7 +28212,7 @@
         <v>145</v>
       </c>
       <c r="P132" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28284,7 +28293,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ132">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR132">
         <v>1.37</v>
@@ -28409,7 +28418,7 @@
         <v>163</v>
       </c>
       <c r="P133" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q133">
         <v>1.83</v>
@@ -28487,7 +28496,7 @@
         <v>0.23</v>
       </c>
       <c r="AP133">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ133">
         <v>0.44</v>
@@ -28693,7 +28702,7 @@
         <v>1.15</v>
       </c>
       <c r="AP134">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ134">
         <v>1</v>
@@ -28821,7 +28830,7 @@
         <v>165</v>
       </c>
       <c r="P135" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29233,7 +29242,7 @@
         <v>166</v>
       </c>
       <c r="P137" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29311,10 +29320,10 @@
         <v>1.38</v>
       </c>
       <c r="AP137">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ137">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR137">
         <v>1.78</v>
@@ -29645,7 +29654,7 @@
         <v>82</v>
       </c>
       <c r="P139" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -29726,7 +29735,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ139">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR139">
         <v>1.35</v>
@@ -29929,10 +29938,10 @@
         <v>1.43</v>
       </c>
       <c r="AP140">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ140">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR140">
         <v>1.27</v>
@@ -30263,7 +30272,7 @@
         <v>170</v>
       </c>
       <c r="P142" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q142">
         <v>2.5</v>
@@ -30469,7 +30478,7 @@
         <v>171</v>
       </c>
       <c r="P143" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q143">
         <v>4.33</v>
@@ -30550,7 +30559,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ143">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR143">
         <v>1.35</v>
@@ -30756,7 +30765,7 @@
         <v>1</v>
       </c>
       <c r="AQ144">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR144">
         <v>1.35</v>
@@ -30962,7 +30971,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ145">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR145">
         <v>1.23</v>
@@ -31165,7 +31174,7 @@
         <v>1.07</v>
       </c>
       <c r="AP146">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ146">
         <v>1</v>
@@ -31293,7 +31302,7 @@
         <v>175</v>
       </c>
       <c r="P147" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31580,7 +31589,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ148">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR148">
         <v>1.34</v>
@@ -31786,7 +31795,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ149">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR149">
         <v>1.48</v>
@@ -31911,7 +31920,7 @@
         <v>177</v>
       </c>
       <c r="P150" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q150">
         <v>2.88</v>
@@ -31989,7 +31998,7 @@
         <v>1.4</v>
       </c>
       <c r="AP150">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ150">
         <v>1.56</v>
@@ -32117,7 +32126,7 @@
         <v>82</v>
       </c>
       <c r="P151" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q151">
         <v>2.5</v>
@@ -32401,10 +32410,10 @@
         <v>0.47</v>
       </c>
       <c r="AP152">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ152">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR152">
         <v>1.34</v>
@@ -32607,7 +32616,7 @@
         <v>1.23</v>
       </c>
       <c r="AP153">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ153">
         <v>1.33</v>
@@ -32813,10 +32822,10 @@
         <v>1.36</v>
       </c>
       <c r="AP154">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ154">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR154">
         <v>1.5</v>
@@ -33019,7 +33028,7 @@
         <v>1.27</v>
       </c>
       <c r="AP155">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ155">
         <v>1.22</v>
@@ -33147,7 +33156,7 @@
         <v>82</v>
       </c>
       <c r="P156" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q156">
         <v>3.6</v>
@@ -33559,7 +33568,7 @@
         <v>132</v>
       </c>
       <c r="P158" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -33640,7 +33649,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ158">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR158">
         <v>1.25</v>
@@ -33765,7 +33774,7 @@
         <v>82</v>
       </c>
       <c r="P159" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q159">
         <v>2.3</v>
@@ -33843,10 +33852,10 @@
         <v>0.86</v>
       </c>
       <c r="AP159">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ159">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR159">
         <v>1.8</v>
@@ -33971,7 +33980,7 @@
         <v>180</v>
       </c>
       <c r="P160" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q160">
         <v>3.4</v>
@@ -34052,7 +34061,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ160">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR160">
         <v>1.28</v>
@@ -34177,7 +34186,7 @@
         <v>181</v>
       </c>
       <c r="P161" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q161">
         <v>1.91</v>
@@ -34258,7 +34267,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ161">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR161">
         <v>1.36</v>
@@ -34461,10 +34470,10 @@
         <v>1.69</v>
       </c>
       <c r="AP162">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ162">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR162">
         <v>1.76</v>
@@ -34795,7 +34804,7 @@
         <v>183</v>
       </c>
       <c r="P164" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="Q164">
         <v>2.2</v>
@@ -34873,7 +34882,7 @@
         <v>1.27</v>
       </c>
       <c r="AP164">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ164">
         <v>1.33</v>
@@ -35001,7 +35010,7 @@
         <v>184</v>
       </c>
       <c r="P165" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q165">
         <v>1.8</v>
@@ -35079,7 +35088,7 @@
         <v>1</v>
       </c>
       <c r="AP165">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ165">
         <v>1</v>
@@ -35207,7 +35216,7 @@
         <v>185</v>
       </c>
       <c r="P166" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35288,7 +35297,7 @@
         <v>1</v>
       </c>
       <c r="AQ166">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR166">
         <v>1.39</v>
@@ -35491,7 +35500,7 @@
         <v>1.38</v>
       </c>
       <c r="AP167">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ167">
         <v>1.56</v>
@@ -35619,7 +35628,7 @@
         <v>82</v>
       </c>
       <c r="P168" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -35825,7 +35834,7 @@
         <v>186</v>
       </c>
       <c r="P169" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q169">
         <v>2.38</v>
@@ -35906,7 +35915,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ169">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR169">
         <v>1.29</v>
@@ -36031,7 +36040,7 @@
         <v>187</v>
       </c>
       <c r="P170" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q170">
         <v>2.6</v>
@@ -36112,7 +36121,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ170">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR170">
         <v>1.51</v>
@@ -36237,7 +36246,7 @@
         <v>82</v>
       </c>
       <c r="P171" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q171">
         <v>3.2</v>
@@ -36315,7 +36324,7 @@
         <v>1.25</v>
       </c>
       <c r="AP171">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ171">
         <v>1.33</v>
@@ -36443,7 +36452,7 @@
         <v>188</v>
       </c>
       <c r="P172" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q172">
         <v>2.2</v>
@@ -36649,7 +36658,7 @@
         <v>189</v>
       </c>
       <c r="P173" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q173">
         <v>2.1</v>
@@ -37061,7 +37070,7 @@
         <v>191</v>
       </c>
       <c r="P175" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37424,6 +37433,1036 @@
       </c>
       <c r="BP176">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7287187</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45597.69791666666</v>
+      </c>
+      <c r="F177">
+        <v>36</v>
+      </c>
+      <c r="G177" t="s">
+        <v>70</v>
+      </c>
+      <c r="H177" t="s">
+        <v>72</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>2</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <v>2</v>
+      </c>
+      <c r="O177" t="s">
+        <v>192</v>
+      </c>
+      <c r="P177" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q177">
+        <v>3.5</v>
+      </c>
+      <c r="R177">
+        <v>2.05</v>
+      </c>
+      <c r="S177">
+        <v>3.25</v>
+      </c>
+      <c r="T177">
+        <v>1.45</v>
+      </c>
+      <c r="U177">
+        <v>2.55</v>
+      </c>
+      <c r="V177">
+        <v>3</v>
+      </c>
+      <c r="W177">
+        <v>1.33</v>
+      </c>
+      <c r="X177">
+        <v>7.6</v>
+      </c>
+      <c r="Y177">
+        <v>1.05</v>
+      </c>
+      <c r="Z177">
+        <v>2.62</v>
+      </c>
+      <c r="AA177">
+        <v>3.2</v>
+      </c>
+      <c r="AB177">
+        <v>2.37</v>
+      </c>
+      <c r="AC177">
+        <v>1.07</v>
+      </c>
+      <c r="AD177">
+        <v>8</v>
+      </c>
+      <c r="AE177">
+        <v>1.36</v>
+      </c>
+      <c r="AF177">
+        <v>3.1</v>
+      </c>
+      <c r="AG177">
+        <v>2</v>
+      </c>
+      <c r="AH177">
+        <v>1.67</v>
+      </c>
+      <c r="AI177">
+        <v>1.8</v>
+      </c>
+      <c r="AJ177">
+        <v>1.95</v>
+      </c>
+      <c r="AK177">
+        <v>1.5</v>
+      </c>
+      <c r="AL177">
+        <v>1.28</v>
+      </c>
+      <c r="AM177">
+        <v>1.42</v>
+      </c>
+      <c r="AN177">
+        <v>1</v>
+      </c>
+      <c r="AO177">
+        <v>1.35</v>
+      </c>
+      <c r="AP177">
+        <v>1</v>
+      </c>
+      <c r="AQ177">
+        <v>1.33</v>
+      </c>
+      <c r="AR177">
+        <v>1.4</v>
+      </c>
+      <c r="AS177">
+        <v>1.22</v>
+      </c>
+      <c r="AT177">
+        <v>2.62</v>
+      </c>
+      <c r="AU177">
+        <v>4</v>
+      </c>
+      <c r="AV177">
+        <v>4</v>
+      </c>
+      <c r="AW177">
+        <v>6</v>
+      </c>
+      <c r="AX177">
+        <v>3</v>
+      </c>
+      <c r="AY177">
+        <v>11</v>
+      </c>
+      <c r="AZ177">
+        <v>12</v>
+      </c>
+      <c r="BA177">
+        <v>7</v>
+      </c>
+      <c r="BB177">
+        <v>10</v>
+      </c>
+      <c r="BC177">
+        <v>17</v>
+      </c>
+      <c r="BD177">
+        <v>0</v>
+      </c>
+      <c r="BE177">
+        <v>0</v>
+      </c>
+      <c r="BF177">
+        <v>0</v>
+      </c>
+      <c r="BG177">
+        <v>0</v>
+      </c>
+      <c r="BH177">
+        <v>0</v>
+      </c>
+      <c r="BI177">
+        <v>0</v>
+      </c>
+      <c r="BJ177">
+        <v>0</v>
+      </c>
+      <c r="BK177">
+        <v>2.2</v>
+      </c>
+      <c r="BL177">
+        <v>0</v>
+      </c>
+      <c r="BM177">
+        <v>0</v>
+      </c>
+      <c r="BN177">
+        <v>0</v>
+      </c>
+      <c r="BO177">
+        <v>0</v>
+      </c>
+      <c r="BP177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7287188</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45597.69791666666</v>
+      </c>
+      <c r="F178">
+        <v>36</v>
+      </c>
+      <c r="G178" t="s">
+        <v>71</v>
+      </c>
+      <c r="H178" t="s">
+        <v>77</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>1</v>
+      </c>
+      <c r="O178" t="s">
+        <v>82</v>
+      </c>
+      <c r="P178" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q178">
+        <v>3.1</v>
+      </c>
+      <c r="R178">
+        <v>1.95</v>
+      </c>
+      <c r="S178">
+        <v>4.33</v>
+      </c>
+      <c r="T178">
+        <v>1.48</v>
+      </c>
+      <c r="U178">
+        <v>2.5</v>
+      </c>
+      <c r="V178">
+        <v>3.2</v>
+      </c>
+      <c r="W178">
+        <v>1.3</v>
+      </c>
+      <c r="X178">
+        <v>8.35</v>
+      </c>
+      <c r="Y178">
+        <v>1.05</v>
+      </c>
+      <c r="Z178">
+        <v>2.25</v>
+      </c>
+      <c r="AA178">
+        <v>3.1</v>
+      </c>
+      <c r="AB178">
+        <v>2.8</v>
+      </c>
+      <c r="AC178">
+        <v>1.07</v>
+      </c>
+      <c r="AD178">
+        <v>8</v>
+      </c>
+      <c r="AE178">
+        <v>1.38</v>
+      </c>
+      <c r="AF178">
+        <v>2.95</v>
+      </c>
+      <c r="AG178">
+        <v>2.1</v>
+      </c>
+      <c r="AH178">
+        <v>1.61</v>
+      </c>
+      <c r="AI178">
+        <v>2.1</v>
+      </c>
+      <c r="AJ178">
+        <v>1.67</v>
+      </c>
+      <c r="AK178">
+        <v>1.33</v>
+      </c>
+      <c r="AL178">
+        <v>1.28</v>
+      </c>
+      <c r="AM178">
+        <v>1.62</v>
+      </c>
+      <c r="AN178">
+        <v>1.94</v>
+      </c>
+      <c r="AO178">
+        <v>1.59</v>
+      </c>
+      <c r="AP178">
+        <v>1.83</v>
+      </c>
+      <c r="AQ178">
+        <v>1.67</v>
+      </c>
+      <c r="AR178">
+        <v>1.58</v>
+      </c>
+      <c r="AS178">
+        <v>1.06</v>
+      </c>
+      <c r="AT178">
+        <v>2.64</v>
+      </c>
+      <c r="AU178">
+        <v>4</v>
+      </c>
+      <c r="AV178">
+        <v>7</v>
+      </c>
+      <c r="AW178">
+        <v>6</v>
+      </c>
+      <c r="AX178">
+        <v>7</v>
+      </c>
+      <c r="AY178">
+        <v>10</v>
+      </c>
+      <c r="AZ178">
+        <v>17</v>
+      </c>
+      <c r="BA178">
+        <v>3</v>
+      </c>
+      <c r="BB178">
+        <v>2</v>
+      </c>
+      <c r="BC178">
+        <v>5</v>
+      </c>
+      <c r="BD178">
+        <v>0</v>
+      </c>
+      <c r="BE178">
+        <v>0</v>
+      </c>
+      <c r="BF178">
+        <v>0</v>
+      </c>
+      <c r="BG178">
+        <v>0</v>
+      </c>
+      <c r="BH178">
+        <v>0</v>
+      </c>
+      <c r="BI178">
+        <v>0</v>
+      </c>
+      <c r="BJ178">
+        <v>0</v>
+      </c>
+      <c r="BK178">
+        <v>0</v>
+      </c>
+      <c r="BL178">
+        <v>0</v>
+      </c>
+      <c r="BM178">
+        <v>0</v>
+      </c>
+      <c r="BN178">
+        <v>0</v>
+      </c>
+      <c r="BO178">
+        <v>0</v>
+      </c>
+      <c r="BP178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7287189</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45597.69791666666</v>
+      </c>
+      <c r="F179">
+        <v>36</v>
+      </c>
+      <c r="G179" t="s">
+        <v>75</v>
+      </c>
+      <c r="H179" t="s">
+        <v>76</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179" t="s">
+        <v>82</v>
+      </c>
+      <c r="P179" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q179">
+        <v>2.75</v>
+      </c>
+      <c r="R179">
+        <v>2.2</v>
+      </c>
+      <c r="S179">
+        <v>4</v>
+      </c>
+      <c r="T179">
+        <v>1.36</v>
+      </c>
+      <c r="U179">
+        <v>3</v>
+      </c>
+      <c r="V179">
+        <v>2.75</v>
+      </c>
+      <c r="W179">
+        <v>1.4</v>
+      </c>
+      <c r="X179">
+        <v>7</v>
+      </c>
+      <c r="Y179">
+        <v>1.1</v>
+      </c>
+      <c r="Z179">
+        <v>1.95</v>
+      </c>
+      <c r="AA179">
+        <v>3.3</v>
+      </c>
+      <c r="AB179">
+        <v>3.25</v>
+      </c>
+      <c r="AC179">
+        <v>0</v>
+      </c>
+      <c r="AD179">
+        <v>0</v>
+      </c>
+      <c r="AE179">
+        <v>0</v>
+      </c>
+      <c r="AF179">
+        <v>0</v>
+      </c>
+      <c r="AG179">
+        <v>1.75</v>
+      </c>
+      <c r="AH179">
+        <v>1.85</v>
+      </c>
+      <c r="AI179">
+        <v>1.75</v>
+      </c>
+      <c r="AJ179">
+        <v>2</v>
+      </c>
+      <c r="AK179">
+        <v>0</v>
+      </c>
+      <c r="AL179">
+        <v>0</v>
+      </c>
+      <c r="AM179">
+        <v>0</v>
+      </c>
+      <c r="AN179">
+        <v>1.47</v>
+      </c>
+      <c r="AO179">
+        <v>0.47</v>
+      </c>
+      <c r="AP179">
+        <v>1.44</v>
+      </c>
+      <c r="AQ179">
+        <v>0.5</v>
+      </c>
+      <c r="AR179">
+        <v>1.39</v>
+      </c>
+      <c r="AS179">
+        <v>1.02</v>
+      </c>
+      <c r="AT179">
+        <v>2.41</v>
+      </c>
+      <c r="AU179">
+        <v>2</v>
+      </c>
+      <c r="AV179">
+        <v>6</v>
+      </c>
+      <c r="AW179">
+        <v>3</v>
+      </c>
+      <c r="AX179">
+        <v>12</v>
+      </c>
+      <c r="AY179">
+        <v>6</v>
+      </c>
+      <c r="AZ179">
+        <v>23</v>
+      </c>
+      <c r="BA179">
+        <v>4</v>
+      </c>
+      <c r="BB179">
+        <v>6</v>
+      </c>
+      <c r="BC179">
+        <v>10</v>
+      </c>
+      <c r="BD179">
+        <v>0</v>
+      </c>
+      <c r="BE179">
+        <v>0</v>
+      </c>
+      <c r="BF179">
+        <v>0</v>
+      </c>
+      <c r="BG179">
+        <v>0</v>
+      </c>
+      <c r="BH179">
+        <v>0</v>
+      </c>
+      <c r="BI179">
+        <v>0</v>
+      </c>
+      <c r="BJ179">
+        <v>0</v>
+      </c>
+      <c r="BK179">
+        <v>0</v>
+      </c>
+      <c r="BL179">
+        <v>0</v>
+      </c>
+      <c r="BM179">
+        <v>0</v>
+      </c>
+      <c r="BN179">
+        <v>0</v>
+      </c>
+      <c r="BO179">
+        <v>0</v>
+      </c>
+      <c r="BP179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7287190</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45597.69791666666</v>
+      </c>
+      <c r="F180">
+        <v>36</v>
+      </c>
+      <c r="G180" t="s">
+        <v>74</v>
+      </c>
+      <c r="H180" t="s">
+        <v>73</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>2</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>3</v>
+      </c>
+      <c r="O180" t="s">
+        <v>193</v>
+      </c>
+      <c r="P180" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q180">
+        <v>1.62</v>
+      </c>
+      <c r="R180">
+        <v>2.75</v>
+      </c>
+      <c r="S180">
+        <v>9.5</v>
+      </c>
+      <c r="T180">
+        <v>1.22</v>
+      </c>
+      <c r="U180">
+        <v>4</v>
+      </c>
+      <c r="V180">
+        <v>2.1</v>
+      </c>
+      <c r="W180">
+        <v>1.67</v>
+      </c>
+      <c r="X180">
+        <v>4.5</v>
+      </c>
+      <c r="Y180">
+        <v>1.18</v>
+      </c>
+      <c r="Z180">
+        <v>1.2</v>
+      </c>
+      <c r="AA180">
+        <v>5.75</v>
+      </c>
+      <c r="AB180">
+        <v>10</v>
+      </c>
+      <c r="AC180">
+        <v>0</v>
+      </c>
+      <c r="AD180">
+        <v>0</v>
+      </c>
+      <c r="AE180">
+        <v>0</v>
+      </c>
+      <c r="AF180">
+        <v>0</v>
+      </c>
+      <c r="AG180">
+        <v>1.44</v>
+      </c>
+      <c r="AH180">
+        <v>2.59</v>
+      </c>
+      <c r="AI180">
+        <v>2.05</v>
+      </c>
+      <c r="AJ180">
+        <v>1.7</v>
+      </c>
+      <c r="AK180">
+        <v>0</v>
+      </c>
+      <c r="AL180">
+        <v>0</v>
+      </c>
+      <c r="AM180">
+        <v>0</v>
+      </c>
+      <c r="AN180">
+        <v>1.76</v>
+      </c>
+      <c r="AO180">
+        <v>1.18</v>
+      </c>
+      <c r="AP180">
+        <v>1.83</v>
+      </c>
+      <c r="AQ180">
+        <v>1.11</v>
+      </c>
+      <c r="AR180">
+        <v>1.72</v>
+      </c>
+      <c r="AS180">
+        <v>1.12</v>
+      </c>
+      <c r="AT180">
+        <v>2.84</v>
+      </c>
+      <c r="AU180">
+        <v>5</v>
+      </c>
+      <c r="AV180">
+        <v>4</v>
+      </c>
+      <c r="AW180">
+        <v>6</v>
+      </c>
+      <c r="AX180">
+        <v>5</v>
+      </c>
+      <c r="AY180">
+        <v>13</v>
+      </c>
+      <c r="AZ180">
+        <v>11</v>
+      </c>
+      <c r="BA180">
+        <v>5</v>
+      </c>
+      <c r="BB180">
+        <v>6</v>
+      </c>
+      <c r="BC180">
+        <v>11</v>
+      </c>
+      <c r="BD180">
+        <v>0</v>
+      </c>
+      <c r="BE180">
+        <v>0</v>
+      </c>
+      <c r="BF180">
+        <v>0</v>
+      </c>
+      <c r="BG180">
+        <v>0</v>
+      </c>
+      <c r="BH180">
+        <v>0</v>
+      </c>
+      <c r="BI180">
+        <v>0</v>
+      </c>
+      <c r="BJ180">
+        <v>0</v>
+      </c>
+      <c r="BK180">
+        <v>2.1</v>
+      </c>
+      <c r="BL180">
+        <v>0</v>
+      </c>
+      <c r="BM180">
+        <v>0</v>
+      </c>
+      <c r="BN180">
+        <v>0</v>
+      </c>
+      <c r="BO180">
+        <v>0</v>
+      </c>
+      <c r="BP180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7287191</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45597.69791666666</v>
+      </c>
+      <c r="F181">
+        <v>36</v>
+      </c>
+      <c r="G181" t="s">
+        <v>79</v>
+      </c>
+      <c r="H181" t="s">
+        <v>78</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>2</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181" t="s">
+        <v>82</v>
+      </c>
+      <c r="P181" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q181">
+        <v>5.5</v>
+      </c>
+      <c r="R181">
+        <v>2.5</v>
+      </c>
+      <c r="S181">
+        <v>2.05</v>
+      </c>
+      <c r="T181">
+        <v>1.33</v>
+      </c>
+      <c r="U181">
+        <v>3.05</v>
+      </c>
+      <c r="V181">
+        <v>2.56</v>
+      </c>
+      <c r="W181">
+        <v>1.5</v>
+      </c>
+      <c r="X181">
+        <v>5.95</v>
+      </c>
+      <c r="Y181">
+        <v>1.1</v>
+      </c>
+      <c r="Z181">
+        <v>4.6</v>
+      </c>
+      <c r="AA181">
+        <v>3.7</v>
+      </c>
+      <c r="AB181">
+        <v>1.6</v>
+      </c>
+      <c r="AC181">
+        <v>1.01</v>
+      </c>
+      <c r="AD181">
+        <v>11</v>
+      </c>
+      <c r="AE181">
+        <v>1.2</v>
+      </c>
+      <c r="AF181">
+        <v>4</v>
+      </c>
+      <c r="AG181">
+        <v>1.65</v>
+      </c>
+      <c r="AH181">
+        <v>2.05</v>
+      </c>
+      <c r="AI181">
+        <v>1.67</v>
+      </c>
+      <c r="AJ181">
+        <v>2.1</v>
+      </c>
+      <c r="AK181">
+        <v>2.05</v>
+      </c>
+      <c r="AL181">
+        <v>1.2</v>
+      </c>
+      <c r="AM181">
+        <v>1.16</v>
+      </c>
+      <c r="AN181">
+        <v>1.82</v>
+      </c>
+      <c r="AO181">
+        <v>1.24</v>
+      </c>
+      <c r="AP181">
+        <v>1.72</v>
+      </c>
+      <c r="AQ181">
+        <v>1.33</v>
+      </c>
+      <c r="AR181">
+        <v>1.36</v>
+      </c>
+      <c r="AS181">
+        <v>1.26</v>
+      </c>
+      <c r="AT181">
+        <v>2.62</v>
+      </c>
+      <c r="AU181">
+        <v>5</v>
+      </c>
+      <c r="AV181">
+        <v>10</v>
+      </c>
+      <c r="AW181">
+        <v>2</v>
+      </c>
+      <c r="AX181">
+        <v>3</v>
+      </c>
+      <c r="AY181">
+        <v>12</v>
+      </c>
+      <c r="AZ181">
+        <v>17</v>
+      </c>
+      <c r="BA181">
+        <v>4</v>
+      </c>
+      <c r="BB181">
+        <v>2</v>
+      </c>
+      <c r="BC181">
+        <v>6</v>
+      </c>
+      <c r="BD181">
+        <v>0</v>
+      </c>
+      <c r="BE181">
+        <v>0</v>
+      </c>
+      <c r="BF181">
+        <v>0</v>
+      </c>
+      <c r="BG181">
+        <v>0</v>
+      </c>
+      <c r="BH181">
+        <v>0</v>
+      </c>
+      <c r="BI181">
+        <v>0</v>
+      </c>
+      <c r="BJ181">
+        <v>0</v>
+      </c>
+      <c r="BK181">
+        <v>2.1</v>
+      </c>
+      <c r="BL181">
+        <v>0</v>
+      </c>
+      <c r="BM181">
+        <v>0</v>
+      </c>
+      <c r="BN181">
+        <v>0</v>
+      </c>
+      <c r="BO181">
+        <v>0</v>
+      </c>
+      <c r="BP181">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Republic of Ireland Premier Division_2024.xlsx
@@ -38211,13 +38211,13 @@
         <v>11</v>
       </c>
       <c r="BA180">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB180">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC180">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD180">
         <v>0</v>
